--- a/Plasma Project schedule V1.0_20191015.xlsx
+++ b/Plasma Project schedule V1.0_20191015.xlsx
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="143">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2019,7 +2019,7 @@
         <xdr:cNvPr id="52" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2076,7 +2076,7 @@
         <xdr:cNvPr id="15" name="직선 화살표 연결선 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2133,7 +2133,7 @@
         <xdr:cNvPr id="18" name="직선 화살표 연결선 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2190,7 +2190,7 @@
         <xdr:cNvPr id="21" name="직선 화살표 연결선 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2247,7 +2247,7 @@
         <xdr:cNvPr id="25" name="직선 화살표 연결선 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2304,7 +2304,7 @@
         <xdr:cNvPr id="28" name="직선 화살표 연결선 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2361,7 +2361,7 @@
         <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2418,7 +2418,7 @@
         <xdr:cNvPr id="33" name="직선 화살표 연결선 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2475,7 +2475,7 @@
         <xdr:cNvPr id="36" name="직선 화살표 연결선 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2532,7 +2532,7 @@
         <xdr:cNvPr id="38" name="직선 화살표 연결선 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2589,7 +2589,7 @@
         <xdr:cNvPr id="41" name="직선 화살표 연결선 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2646,7 +2646,7 @@
         <xdr:cNvPr id="46" name="직선 화살표 연결선 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2703,7 +2703,7 @@
         <xdr:cNvPr id="14" name="직선 화살표 연결선 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2760,7 +2760,7 @@
         <xdr:cNvPr id="16" name="직선 화살표 연결선 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2817,7 +2817,7 @@
         <xdr:cNvPr id="19" name="직선 화살표 연결선 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2874,7 +2874,7 @@
         <xdr:cNvPr id="17" name="직선 화살표 연결선 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2931,7 +2931,7 @@
         <xdr:cNvPr id="20" name="직선 화살표 연결선 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15484,11 +15484,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E111"/>
+  <dimension ref="B2:E117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J104" sqref="J104"/>
+      <pane ySplit="3" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16702,8 +16702,8 @@
       </c>
       <c r="C104" s="210"/>
       <c r="D104" s="138">
-        <f>SUM(D105:D111)</f>
-        <v>32</v>
+        <f>SUM(D105:D116)</f>
+        <v>44</v>
       </c>
       <c r="E104" s="141"/>
     </row>
@@ -16781,9 +16781,63 @@
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B111" s="163"/>
-      <c r="C111" s="164"/>
-      <c r="D111" s="165"/>
-      <c r="E111" s="167"/>
+      <c r="C111" s="164">
+        <v>19</v>
+      </c>
+      <c r="D111" s="165">
+        <v>6</v>
+      </c>
+      <c r="E111" s="167" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B112" s="163"/>
+      <c r="C112" s="164">
+        <v>21</v>
+      </c>
+      <c r="D112" s="165">
+        <v>3</v>
+      </c>
+      <c r="E112" s="167" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B113" s="163"/>
+      <c r="C113" s="164">
+        <v>22</v>
+      </c>
+      <c r="D113" s="165">
+        <v>3</v>
+      </c>
+      <c r="E113" s="167" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B114" s="163"/>
+      <c r="C114" s="164"/>
+      <c r="D114" s="165"/>
+      <c r="E114" s="167"/>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B115" s="163"/>
+      <c r="C115" s="164"/>
+      <c r="D115" s="165"/>
+      <c r="E115" s="167"/>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B116" s="163"/>
+      <c r="C116" s="164"/>
+      <c r="D116" s="165"/>
+      <c r="E116" s="167"/>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B117" s="163"/>
+      <c r="C117" s="164"/>
+      <c r="D117" s="165"/>
+      <c r="E117" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/Plasma Project schedule V1.0_20191015.xlsx
+++ b/Plasma Project schedule V1.0_20191015.xlsx
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="150">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -685,10 +685,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>▶V1.0 수정사항 및 Source 전달</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>F/W 정리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -706,6 +702,38 @@
   </si>
   <si>
     <t>RF GEN - RF PCB 재설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶V1.0 수정사항 및 Source 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶F/W Source 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette source 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶V1.0 Binary 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶V1.0 회로 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶Femto sample 검토 및 수리 후 발송 : 3ea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶PCB 구조 재설계 검토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buck 추가, PCB 3 Part로 구분, Ref 장비 Size에 맞춰 PCB Size 조정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -845,7 +873,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -876,8 +904,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -1597,11 +1631,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1889,28 +1936,33 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1929,9 +1981,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2970,6 +3019,63 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>395</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>426</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="직선 화살표 연결선 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="91039950" y="2562225"/>
+          <a:ext cx="6343650" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3260,11 +3366,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:OF47"/>
+  <dimension ref="A1:RT47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="LO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="NX26" sqref="NX26"/>
+      <pane xSplit="1" topLeftCell="NN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="PB33" sqref="PB33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3285,456 +3391,554 @@
     <col min="183" max="16384" width="2.625" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:396" s="53" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:488" s="53" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:396" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:488" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="47" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:396" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:488" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:396" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:488" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="48" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:396" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:488" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="49" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:396" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:488" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="50"/>
-      <c r="B6" s="202">
+      <c r="B6" s="205">
         <v>9</v>
       </c>
-      <c r="C6" s="203"/>
-      <c r="D6" s="203"/>
-      <c r="E6" s="203"/>
-      <c r="F6" s="203"/>
-      <c r="G6" s="203"/>
-      <c r="H6" s="203"/>
-      <c r="I6" s="203"/>
-      <c r="J6" s="203"/>
-      <c r="K6" s="203"/>
-      <c r="L6" s="203"/>
-      <c r="M6" s="203"/>
-      <c r="N6" s="203"/>
-      <c r="O6" s="203"/>
-      <c r="P6" s="203"/>
-      <c r="Q6" s="203"/>
-      <c r="R6" s="203"/>
-      <c r="S6" s="203"/>
-      <c r="T6" s="203"/>
-      <c r="U6" s="203"/>
-      <c r="V6" s="203"/>
-      <c r="W6" s="203"/>
-      <c r="X6" s="203"/>
-      <c r="Y6" s="203"/>
-      <c r="Z6" s="203"/>
-      <c r="AA6" s="203"/>
-      <c r="AB6" s="203"/>
-      <c r="AC6" s="203"/>
-      <c r="AD6" s="203"/>
-      <c r="AE6" s="204"/>
-      <c r="AF6" s="199">
+      <c r="C6" s="206"/>
+      <c r="D6" s="206"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="206"/>
+      <c r="G6" s="206"/>
+      <c r="H6" s="206"/>
+      <c r="I6" s="206"/>
+      <c r="J6" s="206"/>
+      <c r="K6" s="206"/>
+      <c r="L6" s="206"/>
+      <c r="M6" s="206"/>
+      <c r="N6" s="206"/>
+      <c r="O6" s="206"/>
+      <c r="P6" s="206"/>
+      <c r="Q6" s="206"/>
+      <c r="R6" s="206"/>
+      <c r="S6" s="206"/>
+      <c r="T6" s="206"/>
+      <c r="U6" s="206"/>
+      <c r="V6" s="206"/>
+      <c r="W6" s="206"/>
+      <c r="X6" s="206"/>
+      <c r="Y6" s="206"/>
+      <c r="Z6" s="206"/>
+      <c r="AA6" s="206"/>
+      <c r="AB6" s="206"/>
+      <c r="AC6" s="206"/>
+      <c r="AD6" s="206"/>
+      <c r="AE6" s="207"/>
+      <c r="AF6" s="202">
         <v>10</v>
       </c>
-      <c r="AG6" s="199"/>
-      <c r="AH6" s="199"/>
-      <c r="AI6" s="199"/>
-      <c r="AJ6" s="199"/>
-      <c r="AK6" s="199"/>
-      <c r="AL6" s="199"/>
-      <c r="AM6" s="199"/>
-      <c r="AN6" s="199"/>
-      <c r="AO6" s="199"/>
-      <c r="AP6" s="199"/>
-      <c r="AQ6" s="199"/>
-      <c r="AR6" s="199"/>
-      <c r="AS6" s="199"/>
-      <c r="AT6" s="199"/>
-      <c r="AU6" s="199"/>
-      <c r="AV6" s="199"/>
-      <c r="AW6" s="199"/>
-      <c r="AX6" s="199"/>
-      <c r="AY6" s="199"/>
-      <c r="AZ6" s="199"/>
-      <c r="BA6" s="199"/>
-      <c r="BB6" s="199"/>
-      <c r="BC6" s="199"/>
-      <c r="BD6" s="199"/>
-      <c r="BE6" s="199"/>
-      <c r="BF6" s="199"/>
-      <c r="BG6" s="199"/>
-      <c r="BH6" s="199"/>
-      <c r="BI6" s="199"/>
-      <c r="BJ6" s="200"/>
-      <c r="BK6" s="202">
+      <c r="AG6" s="202"/>
+      <c r="AH6" s="202"/>
+      <c r="AI6" s="202"/>
+      <c r="AJ6" s="202"/>
+      <c r="AK6" s="202"/>
+      <c r="AL6" s="202"/>
+      <c r="AM6" s="202"/>
+      <c r="AN6" s="202"/>
+      <c r="AO6" s="202"/>
+      <c r="AP6" s="202"/>
+      <c r="AQ6" s="202"/>
+      <c r="AR6" s="202"/>
+      <c r="AS6" s="202"/>
+      <c r="AT6" s="202"/>
+      <c r="AU6" s="202"/>
+      <c r="AV6" s="202"/>
+      <c r="AW6" s="202"/>
+      <c r="AX6" s="202"/>
+      <c r="AY6" s="202"/>
+      <c r="AZ6" s="202"/>
+      <c r="BA6" s="202"/>
+      <c r="BB6" s="202"/>
+      <c r="BC6" s="202"/>
+      <c r="BD6" s="202"/>
+      <c r="BE6" s="202"/>
+      <c r="BF6" s="202"/>
+      <c r="BG6" s="202"/>
+      <c r="BH6" s="202"/>
+      <c r="BI6" s="202"/>
+      <c r="BJ6" s="203"/>
+      <c r="BK6" s="205">
         <v>11</v>
       </c>
-      <c r="BL6" s="203"/>
-      <c r="BM6" s="203"/>
-      <c r="BN6" s="203"/>
-      <c r="BO6" s="203"/>
-      <c r="BP6" s="203"/>
-      <c r="BQ6" s="203"/>
-      <c r="BR6" s="203"/>
-      <c r="BS6" s="203"/>
-      <c r="BT6" s="203"/>
-      <c r="BU6" s="203"/>
-      <c r="BV6" s="203"/>
-      <c r="BW6" s="203"/>
-      <c r="BX6" s="203"/>
-      <c r="BY6" s="203"/>
-      <c r="BZ6" s="203"/>
-      <c r="CA6" s="203"/>
-      <c r="CB6" s="203"/>
-      <c r="CC6" s="203"/>
-      <c r="CD6" s="203"/>
-      <c r="CE6" s="203"/>
-      <c r="CF6" s="203"/>
-      <c r="CG6" s="203"/>
-      <c r="CH6" s="203"/>
-      <c r="CI6" s="203"/>
-      <c r="CJ6" s="203"/>
-      <c r="CK6" s="203"/>
-      <c r="CL6" s="203"/>
-      <c r="CM6" s="203"/>
-      <c r="CN6" s="204"/>
-      <c r="CO6" s="199">
+      <c r="BL6" s="206"/>
+      <c r="BM6" s="206"/>
+      <c r="BN6" s="206"/>
+      <c r="BO6" s="206"/>
+      <c r="BP6" s="206"/>
+      <c r="BQ6" s="206"/>
+      <c r="BR6" s="206"/>
+      <c r="BS6" s="206"/>
+      <c r="BT6" s="206"/>
+      <c r="BU6" s="206"/>
+      <c r="BV6" s="206"/>
+      <c r="BW6" s="206"/>
+      <c r="BX6" s="206"/>
+      <c r="BY6" s="206"/>
+      <c r="BZ6" s="206"/>
+      <c r="CA6" s="206"/>
+      <c r="CB6" s="206"/>
+      <c r="CC6" s="206"/>
+      <c r="CD6" s="206"/>
+      <c r="CE6" s="206"/>
+      <c r="CF6" s="206"/>
+      <c r="CG6" s="206"/>
+      <c r="CH6" s="206"/>
+      <c r="CI6" s="206"/>
+      <c r="CJ6" s="206"/>
+      <c r="CK6" s="206"/>
+      <c r="CL6" s="206"/>
+      <c r="CM6" s="206"/>
+      <c r="CN6" s="207"/>
+      <c r="CO6" s="202">
         <v>12</v>
       </c>
-      <c r="CP6" s="199"/>
-      <c r="CQ6" s="199"/>
-      <c r="CR6" s="199"/>
-      <c r="CS6" s="199"/>
-      <c r="CT6" s="199"/>
-      <c r="CU6" s="199"/>
-      <c r="CV6" s="199"/>
-      <c r="CW6" s="199"/>
-      <c r="CX6" s="199"/>
-      <c r="CY6" s="199"/>
-      <c r="CZ6" s="199"/>
-      <c r="DA6" s="199"/>
-      <c r="DB6" s="199"/>
-      <c r="DC6" s="199"/>
-      <c r="DD6" s="199"/>
-      <c r="DE6" s="199"/>
-      <c r="DF6" s="199"/>
-      <c r="DG6" s="199"/>
-      <c r="DH6" s="199"/>
-      <c r="DI6" s="199"/>
-      <c r="DJ6" s="199"/>
-      <c r="DK6" s="199"/>
-      <c r="DL6" s="199"/>
-      <c r="DM6" s="199"/>
-      <c r="DN6" s="199"/>
-      <c r="DO6" s="199"/>
-      <c r="DP6" s="199"/>
-      <c r="DQ6" s="199"/>
-      <c r="DR6" s="199"/>
-      <c r="DS6" s="200"/>
-      <c r="DT6" s="199">
+      <c r="CP6" s="202"/>
+      <c r="CQ6" s="202"/>
+      <c r="CR6" s="202"/>
+      <c r="CS6" s="202"/>
+      <c r="CT6" s="202"/>
+      <c r="CU6" s="202"/>
+      <c r="CV6" s="202"/>
+      <c r="CW6" s="202"/>
+      <c r="CX6" s="202"/>
+      <c r="CY6" s="202"/>
+      <c r="CZ6" s="202"/>
+      <c r="DA6" s="202"/>
+      <c r="DB6" s="202"/>
+      <c r="DC6" s="202"/>
+      <c r="DD6" s="202"/>
+      <c r="DE6" s="202"/>
+      <c r="DF6" s="202"/>
+      <c r="DG6" s="202"/>
+      <c r="DH6" s="202"/>
+      <c r="DI6" s="202"/>
+      <c r="DJ6" s="202"/>
+      <c r="DK6" s="202"/>
+      <c r="DL6" s="202"/>
+      <c r="DM6" s="202"/>
+      <c r="DN6" s="202"/>
+      <c r="DO6" s="202"/>
+      <c r="DP6" s="202"/>
+      <c r="DQ6" s="202"/>
+      <c r="DR6" s="202"/>
+      <c r="DS6" s="203"/>
+      <c r="DT6" s="202">
         <v>2019.01</v>
       </c>
-      <c r="DU6" s="199"/>
-      <c r="DV6" s="199"/>
-      <c r="DW6" s="199"/>
-      <c r="DX6" s="199"/>
-      <c r="DY6" s="199"/>
-      <c r="DZ6" s="199"/>
-      <c r="EA6" s="199"/>
-      <c r="EB6" s="199"/>
-      <c r="EC6" s="199"/>
-      <c r="ED6" s="199"/>
-      <c r="EE6" s="199"/>
-      <c r="EF6" s="199"/>
-      <c r="EG6" s="199"/>
-      <c r="EH6" s="199"/>
-      <c r="EI6" s="199"/>
-      <c r="EJ6" s="199"/>
-      <c r="EK6" s="199"/>
-      <c r="EL6" s="199"/>
-      <c r="EM6" s="199"/>
-      <c r="EN6" s="199"/>
-      <c r="EO6" s="199"/>
-      <c r="EP6" s="199"/>
-      <c r="EQ6" s="199"/>
-      <c r="ER6" s="199"/>
-      <c r="ES6" s="199"/>
-      <c r="ET6" s="199"/>
-      <c r="EU6" s="199"/>
-      <c r="EV6" s="199"/>
-      <c r="EW6" s="199"/>
-      <c r="EX6" s="200"/>
-      <c r="EY6" s="201">
+      <c r="DU6" s="202"/>
+      <c r="DV6" s="202"/>
+      <c r="DW6" s="202"/>
+      <c r="DX6" s="202"/>
+      <c r="DY6" s="202"/>
+      <c r="DZ6" s="202"/>
+      <c r="EA6" s="202"/>
+      <c r="EB6" s="202"/>
+      <c r="EC6" s="202"/>
+      <c r="ED6" s="202"/>
+      <c r="EE6" s="202"/>
+      <c r="EF6" s="202"/>
+      <c r="EG6" s="202"/>
+      <c r="EH6" s="202"/>
+      <c r="EI6" s="202"/>
+      <c r="EJ6" s="202"/>
+      <c r="EK6" s="202"/>
+      <c r="EL6" s="202"/>
+      <c r="EM6" s="202"/>
+      <c r="EN6" s="202"/>
+      <c r="EO6" s="202"/>
+      <c r="EP6" s="202"/>
+      <c r="EQ6" s="202"/>
+      <c r="ER6" s="202"/>
+      <c r="ES6" s="202"/>
+      <c r="ET6" s="202"/>
+      <c r="EU6" s="202"/>
+      <c r="EV6" s="202"/>
+      <c r="EW6" s="202"/>
+      <c r="EX6" s="203"/>
+      <c r="EY6" s="204">
         <v>2019.02</v>
       </c>
-      <c r="EZ6" s="199"/>
-      <c r="FA6" s="199"/>
-      <c r="FB6" s="199"/>
-      <c r="FC6" s="199"/>
-      <c r="FD6" s="199"/>
-      <c r="FE6" s="199"/>
-      <c r="FF6" s="199"/>
-      <c r="FG6" s="199"/>
-      <c r="FH6" s="199"/>
-      <c r="FI6" s="199"/>
-      <c r="FJ6" s="199"/>
-      <c r="FK6" s="199"/>
-      <c r="FL6" s="199"/>
-      <c r="FM6" s="199"/>
-      <c r="FN6" s="199"/>
-      <c r="FO6" s="199"/>
-      <c r="FP6" s="199"/>
-      <c r="FQ6" s="199"/>
-      <c r="FR6" s="199"/>
-      <c r="FS6" s="199"/>
-      <c r="FT6" s="199"/>
-      <c r="FU6" s="199"/>
-      <c r="FV6" s="199"/>
-      <c r="FW6" s="199"/>
-      <c r="FX6" s="199"/>
-      <c r="FY6" s="199"/>
-      <c r="FZ6" s="200"/>
-      <c r="GA6" s="197">
+      <c r="EZ6" s="202"/>
+      <c r="FA6" s="202"/>
+      <c r="FB6" s="202"/>
+      <c r="FC6" s="202"/>
+      <c r="FD6" s="202"/>
+      <c r="FE6" s="202"/>
+      <c r="FF6" s="202"/>
+      <c r="FG6" s="202"/>
+      <c r="FH6" s="202"/>
+      <c r="FI6" s="202"/>
+      <c r="FJ6" s="202"/>
+      <c r="FK6" s="202"/>
+      <c r="FL6" s="202"/>
+      <c r="FM6" s="202"/>
+      <c r="FN6" s="202"/>
+      <c r="FO6" s="202"/>
+      <c r="FP6" s="202"/>
+      <c r="FQ6" s="202"/>
+      <c r="FR6" s="202"/>
+      <c r="FS6" s="202"/>
+      <c r="FT6" s="202"/>
+      <c r="FU6" s="202"/>
+      <c r="FV6" s="202"/>
+      <c r="FW6" s="202"/>
+      <c r="FX6" s="202"/>
+      <c r="FY6" s="202"/>
+      <c r="FZ6" s="203"/>
+      <c r="GA6" s="201">
         <v>3</v>
       </c>
-      <c r="GB6" s="197"/>
-      <c r="GC6" s="197"/>
-      <c r="GD6" s="197"/>
-      <c r="GE6" s="197"/>
-      <c r="GF6" s="197"/>
-      <c r="GG6" s="197"/>
-      <c r="GH6" s="197"/>
-      <c r="GI6" s="197"/>
-      <c r="GJ6" s="197"/>
-      <c r="GK6" s="197"/>
-      <c r="GL6" s="197"/>
-      <c r="GM6" s="197"/>
-      <c r="GN6" s="197"/>
-      <c r="GO6" s="197"/>
-      <c r="GP6" s="197"/>
-      <c r="GQ6" s="197"/>
-      <c r="GR6" s="197"/>
-      <c r="GS6" s="197"/>
-      <c r="GT6" s="197"/>
-      <c r="GU6" s="197"/>
-      <c r="GV6" s="197"/>
-      <c r="GW6" s="197"/>
-      <c r="GX6" s="197"/>
-      <c r="GY6" s="197"/>
-      <c r="GZ6" s="197"/>
-      <c r="HA6" s="197"/>
-      <c r="HB6" s="197"/>
-      <c r="HC6" s="197"/>
-      <c r="HD6" s="197"/>
-      <c r="HE6" s="197"/>
-      <c r="HF6" s="191">
+      <c r="GB6" s="201"/>
+      <c r="GC6" s="201"/>
+      <c r="GD6" s="201"/>
+      <c r="GE6" s="201"/>
+      <c r="GF6" s="201"/>
+      <c r="GG6" s="201"/>
+      <c r="GH6" s="201"/>
+      <c r="GI6" s="201"/>
+      <c r="GJ6" s="201"/>
+      <c r="GK6" s="201"/>
+      <c r="GL6" s="201"/>
+      <c r="GM6" s="201"/>
+      <c r="GN6" s="201"/>
+      <c r="GO6" s="201"/>
+      <c r="GP6" s="201"/>
+      <c r="GQ6" s="201"/>
+      <c r="GR6" s="201"/>
+      <c r="GS6" s="201"/>
+      <c r="GT6" s="201"/>
+      <c r="GU6" s="201"/>
+      <c r="GV6" s="201"/>
+      <c r="GW6" s="201"/>
+      <c r="GX6" s="201"/>
+      <c r="GY6" s="201"/>
+      <c r="GZ6" s="201"/>
+      <c r="HA6" s="201"/>
+      <c r="HB6" s="201"/>
+      <c r="HC6" s="201"/>
+      <c r="HD6" s="201"/>
+      <c r="HE6" s="201"/>
+      <c r="HF6" s="199">
         <v>4</v>
       </c>
-      <c r="HG6" s="192"/>
-      <c r="HH6" s="192"/>
-      <c r="HI6" s="192"/>
-      <c r="HJ6" s="192"/>
-      <c r="HK6" s="192"/>
-      <c r="HL6" s="192"/>
-      <c r="HM6" s="192"/>
-      <c r="HN6" s="192"/>
-      <c r="HO6" s="192"/>
-      <c r="HP6" s="192"/>
-      <c r="HQ6" s="192"/>
-      <c r="HR6" s="192"/>
-      <c r="HS6" s="192"/>
-      <c r="HT6" s="192"/>
-      <c r="HU6" s="192"/>
-      <c r="HV6" s="192"/>
-      <c r="HW6" s="192"/>
-      <c r="HX6" s="192"/>
-      <c r="HY6" s="192"/>
-      <c r="HZ6" s="192"/>
-      <c r="IA6" s="192"/>
-      <c r="IB6" s="192"/>
-      <c r="IC6" s="192"/>
-      <c r="ID6" s="192"/>
-      <c r="IE6" s="192"/>
-      <c r="IF6" s="192"/>
-      <c r="IG6" s="192"/>
-      <c r="IH6" s="192"/>
+      <c r="HG6" s="197"/>
+      <c r="HH6" s="197"/>
+      <c r="HI6" s="197"/>
+      <c r="HJ6" s="197"/>
+      <c r="HK6" s="197"/>
+      <c r="HL6" s="197"/>
+      <c r="HM6" s="197"/>
+      <c r="HN6" s="197"/>
+      <c r="HO6" s="197"/>
+      <c r="HP6" s="197"/>
+      <c r="HQ6" s="197"/>
+      <c r="HR6" s="197"/>
+      <c r="HS6" s="197"/>
+      <c r="HT6" s="197"/>
+      <c r="HU6" s="197"/>
+      <c r="HV6" s="197"/>
+      <c r="HW6" s="197"/>
+      <c r="HX6" s="197"/>
+      <c r="HY6" s="197"/>
+      <c r="HZ6" s="197"/>
+      <c r="IA6" s="197"/>
+      <c r="IB6" s="197"/>
+      <c r="IC6" s="197"/>
+      <c r="ID6" s="197"/>
+      <c r="IE6" s="197"/>
+      <c r="IF6" s="197"/>
+      <c r="IG6" s="197"/>
+      <c r="IH6" s="197"/>
       <c r="II6" s="198"/>
-      <c r="IJ6" s="206">
+      <c r="IJ6" s="208">
         <v>5</v>
       </c>
-      <c r="IK6" s="197"/>
-      <c r="IL6" s="197"/>
-      <c r="IM6" s="197"/>
-      <c r="IN6" s="197"/>
-      <c r="IO6" s="197"/>
-      <c r="IP6" s="197"/>
-      <c r="IQ6" s="197"/>
-      <c r="IR6" s="197"/>
-      <c r="IS6" s="197"/>
-      <c r="IT6" s="197"/>
-      <c r="IU6" s="197"/>
-      <c r="IV6" s="197"/>
-      <c r="IW6" s="197"/>
-      <c r="IX6" s="197"/>
-      <c r="IY6" s="197"/>
-      <c r="IZ6" s="197"/>
-      <c r="JA6" s="197"/>
-      <c r="JB6" s="197"/>
-      <c r="JC6" s="197"/>
-      <c r="JD6" s="197"/>
-      <c r="JE6" s="197"/>
-      <c r="JF6" s="197"/>
-      <c r="JG6" s="197"/>
-      <c r="JH6" s="197"/>
-      <c r="JI6" s="197"/>
-      <c r="JJ6" s="197"/>
-      <c r="JK6" s="197"/>
-      <c r="JL6" s="197"/>
-      <c r="JM6" s="197"/>
-      <c r="JN6" s="207"/>
-      <c r="JO6" s="191">
+      <c r="IK6" s="201"/>
+      <c r="IL6" s="201"/>
+      <c r="IM6" s="201"/>
+      <c r="IN6" s="201"/>
+      <c r="IO6" s="201"/>
+      <c r="IP6" s="201"/>
+      <c r="IQ6" s="201"/>
+      <c r="IR6" s="201"/>
+      <c r="IS6" s="201"/>
+      <c r="IT6" s="201"/>
+      <c r="IU6" s="201"/>
+      <c r="IV6" s="201"/>
+      <c r="IW6" s="201"/>
+      <c r="IX6" s="201"/>
+      <c r="IY6" s="201"/>
+      <c r="IZ6" s="201"/>
+      <c r="JA6" s="201"/>
+      <c r="JB6" s="201"/>
+      <c r="JC6" s="201"/>
+      <c r="JD6" s="201"/>
+      <c r="JE6" s="201"/>
+      <c r="JF6" s="201"/>
+      <c r="JG6" s="201"/>
+      <c r="JH6" s="201"/>
+      <c r="JI6" s="201"/>
+      <c r="JJ6" s="201"/>
+      <c r="JK6" s="201"/>
+      <c r="JL6" s="201"/>
+      <c r="JM6" s="201"/>
+      <c r="JN6" s="209"/>
+      <c r="JO6" s="199">
         <v>6</v>
       </c>
-      <c r="JP6" s="192"/>
-      <c r="JQ6" s="192"/>
-      <c r="JR6" s="192"/>
-      <c r="JS6" s="192"/>
-      <c r="JT6" s="192"/>
-      <c r="JU6" s="192"/>
-      <c r="JV6" s="192"/>
-      <c r="JW6" s="192"/>
-      <c r="JX6" s="192"/>
-      <c r="JY6" s="192"/>
-      <c r="JZ6" s="192"/>
-      <c r="KA6" s="192"/>
-      <c r="KB6" s="192"/>
-      <c r="KC6" s="192"/>
-      <c r="KD6" s="192"/>
-      <c r="KE6" s="192"/>
-      <c r="KF6" s="192"/>
-      <c r="KG6" s="192"/>
-      <c r="KH6" s="192"/>
-      <c r="KI6" s="192"/>
-      <c r="KJ6" s="192"/>
-      <c r="KK6" s="192"/>
-      <c r="KL6" s="192"/>
-      <c r="KM6" s="192"/>
-      <c r="KN6" s="192"/>
-      <c r="KO6" s="192"/>
-      <c r="KP6" s="192"/>
-      <c r="KQ6" s="192"/>
+      <c r="JP6" s="197"/>
+      <c r="JQ6" s="197"/>
+      <c r="JR6" s="197"/>
+      <c r="JS6" s="197"/>
+      <c r="JT6" s="197"/>
+      <c r="JU6" s="197"/>
+      <c r="JV6" s="197"/>
+      <c r="JW6" s="197"/>
+      <c r="JX6" s="197"/>
+      <c r="JY6" s="197"/>
+      <c r="JZ6" s="197"/>
+      <c r="KA6" s="197"/>
+      <c r="KB6" s="197"/>
+      <c r="KC6" s="197"/>
+      <c r="KD6" s="197"/>
+      <c r="KE6" s="197"/>
+      <c r="KF6" s="197"/>
+      <c r="KG6" s="197"/>
+      <c r="KH6" s="197"/>
+      <c r="KI6" s="197"/>
+      <c r="KJ6" s="197"/>
+      <c r="KK6" s="197"/>
+      <c r="KL6" s="197"/>
+      <c r="KM6" s="197"/>
+      <c r="KN6" s="197"/>
+      <c r="KO6" s="197"/>
+      <c r="KP6" s="197"/>
+      <c r="KQ6" s="197"/>
       <c r="KR6" s="198"/>
-      <c r="KS6" s="194">
+      <c r="KS6" s="193">
         <v>7</v>
       </c>
-      <c r="KT6" s="195"/>
-      <c r="KU6" s="195"/>
-      <c r="KV6" s="195"/>
-      <c r="KW6" s="195"/>
-      <c r="KX6" s="195"/>
-      <c r="KY6" s="195"/>
-      <c r="KZ6" s="195"/>
-      <c r="LA6" s="195"/>
-      <c r="LB6" s="195"/>
-      <c r="LC6" s="195"/>
-      <c r="LD6" s="195"/>
-      <c r="LE6" s="195"/>
-      <c r="LF6" s="195"/>
-      <c r="LG6" s="195"/>
-      <c r="LH6" s="195"/>
-      <c r="LI6" s="195"/>
-      <c r="LJ6" s="195"/>
-      <c r="LK6" s="195"/>
-      <c r="LL6" s="195"/>
-      <c r="LM6" s="195"/>
-      <c r="LN6" s="195"/>
-      <c r="LO6" s="195"/>
-      <c r="LP6" s="195"/>
-      <c r="LQ6" s="195"/>
-      <c r="LR6" s="195"/>
-      <c r="LS6" s="195"/>
-      <c r="LT6" s="195"/>
-      <c r="LU6" s="195"/>
-      <c r="LV6" s="195"/>
-      <c r="LW6" s="205"/>
-      <c r="LX6" s="194">
+      <c r="KT6" s="194"/>
+      <c r="KU6" s="194"/>
+      <c r="KV6" s="194"/>
+      <c r="KW6" s="194"/>
+      <c r="KX6" s="194"/>
+      <c r="KY6" s="194"/>
+      <c r="KZ6" s="194"/>
+      <c r="LA6" s="194"/>
+      <c r="LB6" s="194"/>
+      <c r="LC6" s="194"/>
+      <c r="LD6" s="194"/>
+      <c r="LE6" s="194"/>
+      <c r="LF6" s="194"/>
+      <c r="LG6" s="194"/>
+      <c r="LH6" s="194"/>
+      <c r="LI6" s="194"/>
+      <c r="LJ6" s="194"/>
+      <c r="LK6" s="194"/>
+      <c r="LL6" s="194"/>
+      <c r="LM6" s="194"/>
+      <c r="LN6" s="194"/>
+      <c r="LO6" s="194"/>
+      <c r="LP6" s="194"/>
+      <c r="LQ6" s="194"/>
+      <c r="LR6" s="194"/>
+      <c r="LS6" s="194"/>
+      <c r="LT6" s="194"/>
+      <c r="LU6" s="194"/>
+      <c r="LV6" s="194"/>
+      <c r="LW6" s="195"/>
+      <c r="LX6" s="193">
         <v>8</v>
       </c>
-      <c r="LY6" s="195"/>
-      <c r="LZ6" s="195"/>
-      <c r="MA6" s="195"/>
-      <c r="MB6" s="195"/>
-      <c r="MC6" s="195"/>
-      <c r="MD6" s="195"/>
-      <c r="ME6" s="195"/>
-      <c r="MF6" s="195"/>
-      <c r="MG6" s="195"/>
-      <c r="MH6" s="195"/>
-      <c r="MI6" s="195"/>
-      <c r="MJ6" s="195"/>
-      <c r="MK6" s="195"/>
-      <c r="ML6" s="195"/>
-      <c r="MM6" s="195"/>
-      <c r="MN6" s="195"/>
-      <c r="MO6" s="195"/>
-      <c r="MP6" s="195"/>
-      <c r="MQ6" s="195"/>
-      <c r="MR6" s="195"/>
-      <c r="MS6" s="195"/>
-      <c r="MT6" s="195"/>
-      <c r="MU6" s="195"/>
-      <c r="MV6" s="195"/>
-      <c r="MW6" s="195"/>
-      <c r="MX6" s="195"/>
-      <c r="MY6" s="195"/>
-      <c r="MZ6" s="195"/>
-      <c r="NA6" s="195"/>
-      <c r="NB6" s="195"/>
-      <c r="NC6" s="191">
+      <c r="LY6" s="194"/>
+      <c r="LZ6" s="194"/>
+      <c r="MA6" s="194"/>
+      <c r="MB6" s="194"/>
+      <c r="MC6" s="194"/>
+      <c r="MD6" s="194"/>
+      <c r="ME6" s="194"/>
+      <c r="MF6" s="194"/>
+      <c r="MG6" s="194"/>
+      <c r="MH6" s="194"/>
+      <c r="MI6" s="194"/>
+      <c r="MJ6" s="194"/>
+      <c r="MK6" s="194"/>
+      <c r="ML6" s="194"/>
+      <c r="MM6" s="194"/>
+      <c r="MN6" s="194"/>
+      <c r="MO6" s="194"/>
+      <c r="MP6" s="194"/>
+      <c r="MQ6" s="194"/>
+      <c r="MR6" s="194"/>
+      <c r="MS6" s="194"/>
+      <c r="MT6" s="194"/>
+      <c r="MU6" s="194"/>
+      <c r="MV6" s="194"/>
+      <c r="MW6" s="194"/>
+      <c r="MX6" s="194"/>
+      <c r="MY6" s="194"/>
+      <c r="MZ6" s="194"/>
+      <c r="NA6" s="194"/>
+      <c r="NB6" s="194"/>
+      <c r="NC6" s="199">
         <v>9</v>
       </c>
-      <c r="ND6" s="192"/>
-      <c r="NE6" s="192"/>
-      <c r="NF6" s="192"/>
-      <c r="NG6" s="192"/>
-      <c r="NH6" s="192"/>
-      <c r="NI6" s="192"/>
-      <c r="NJ6" s="192"/>
-      <c r="NK6" s="192"/>
-      <c r="NL6" s="192"/>
-      <c r="NM6" s="192"/>
-      <c r="NN6" s="192"/>
-      <c r="NO6" s="192"/>
-      <c r="NP6" s="192"/>
-      <c r="NQ6" s="192"/>
-      <c r="NR6" s="192"/>
-      <c r="NS6" s="192"/>
-      <c r="NT6" s="192"/>
-      <c r="NU6" s="192"/>
-      <c r="NV6" s="192"/>
-      <c r="NW6" s="192"/>
-      <c r="NX6" s="192"/>
-      <c r="NY6" s="192"/>
-      <c r="NZ6" s="192"/>
-      <c r="OA6" s="192"/>
-      <c r="OB6" s="192"/>
-      <c r="OC6" s="192"/>
-      <c r="OD6" s="192"/>
-      <c r="OE6" s="192"/>
-      <c r="OF6" s="193"/>
+      <c r="ND6" s="197"/>
+      <c r="NE6" s="197"/>
+      <c r="NF6" s="197"/>
+      <c r="NG6" s="197"/>
+      <c r="NH6" s="197"/>
+      <c r="NI6" s="197"/>
+      <c r="NJ6" s="197"/>
+      <c r="NK6" s="197"/>
+      <c r="NL6" s="197"/>
+      <c r="NM6" s="197"/>
+      <c r="NN6" s="197"/>
+      <c r="NO6" s="197"/>
+      <c r="NP6" s="197"/>
+      <c r="NQ6" s="197"/>
+      <c r="NR6" s="197"/>
+      <c r="NS6" s="197"/>
+      <c r="NT6" s="197"/>
+      <c r="NU6" s="197"/>
+      <c r="NV6" s="197"/>
+      <c r="NW6" s="197"/>
+      <c r="NX6" s="197"/>
+      <c r="NY6" s="197"/>
+      <c r="NZ6" s="197"/>
+      <c r="OA6" s="197"/>
+      <c r="OB6" s="197"/>
+      <c r="OC6" s="197"/>
+      <c r="OD6" s="197"/>
+      <c r="OE6" s="197"/>
+      <c r="OF6" s="198"/>
+      <c r="OG6" s="193">
+        <v>10</v>
+      </c>
+      <c r="OH6" s="194"/>
+      <c r="OI6" s="194"/>
+      <c r="OJ6" s="194"/>
+      <c r="OK6" s="194"/>
+      <c r="OL6" s="194"/>
+      <c r="OM6" s="194"/>
+      <c r="ON6" s="194"/>
+      <c r="OO6" s="194"/>
+      <c r="OP6" s="194"/>
+      <c r="OQ6" s="194"/>
+      <c r="OR6" s="194"/>
+      <c r="OS6" s="194"/>
+      <c r="OT6" s="194"/>
+      <c r="OU6" s="194"/>
+      <c r="OV6" s="194"/>
+      <c r="OW6" s="194"/>
+      <c r="OX6" s="194"/>
+      <c r="OY6" s="194"/>
+      <c r="OZ6" s="194"/>
+      <c r="PA6" s="194"/>
+      <c r="PB6" s="194"/>
+      <c r="PC6" s="194"/>
+      <c r="PD6" s="194"/>
+      <c r="PE6" s="194"/>
+      <c r="PF6" s="194"/>
+      <c r="PG6" s="194"/>
+      <c r="PH6" s="194"/>
+      <c r="PI6" s="194"/>
+      <c r="PJ6" s="194"/>
+      <c r="PK6" s="195"/>
+      <c r="PL6" s="196">
+        <v>11</v>
+      </c>
+      <c r="PM6" s="197"/>
+      <c r="PN6" s="197"/>
+      <c r="PO6" s="197"/>
+      <c r="PP6" s="197"/>
+      <c r="PQ6" s="197"/>
+      <c r="PR6" s="197"/>
+      <c r="PS6" s="197"/>
+      <c r="PT6" s="197"/>
+      <c r="PU6" s="197"/>
+      <c r="PV6" s="197"/>
+      <c r="PW6" s="197"/>
+      <c r="PX6" s="197"/>
+      <c r="PY6" s="197"/>
+      <c r="PZ6" s="197"/>
+      <c r="QA6" s="197"/>
+      <c r="QB6" s="197"/>
+      <c r="QC6" s="197"/>
+      <c r="QD6" s="197"/>
+      <c r="QE6" s="197"/>
+      <c r="QF6" s="197"/>
+      <c r="QG6" s="197"/>
+      <c r="QH6" s="197"/>
+      <c r="QI6" s="197"/>
+      <c r="QJ6" s="197"/>
+      <c r="QK6" s="197"/>
+      <c r="QL6" s="197"/>
+      <c r="QM6" s="197"/>
+      <c r="QN6" s="197"/>
+      <c r="QO6" s="198"/>
+      <c r="QP6" s="193">
+        <v>12</v>
+      </c>
+      <c r="QQ6" s="194"/>
+      <c r="QR6" s="194"/>
+      <c r="QS6" s="194"/>
+      <c r="QT6" s="194"/>
+      <c r="QU6" s="194"/>
+      <c r="QV6" s="194"/>
+      <c r="QW6" s="194"/>
+      <c r="QX6" s="194"/>
+      <c r="QY6" s="194"/>
+      <c r="QZ6" s="194"/>
+      <c r="RA6" s="194"/>
+      <c r="RB6" s="194"/>
+      <c r="RC6" s="194"/>
+      <c r="RD6" s="194"/>
+      <c r="RE6" s="194"/>
+      <c r="RF6" s="194"/>
+      <c r="RG6" s="194"/>
+      <c r="RH6" s="194"/>
+      <c r="RI6" s="194"/>
+      <c r="RJ6" s="194"/>
+      <c r="RK6" s="194"/>
+      <c r="RL6" s="194"/>
+      <c r="RM6" s="194"/>
+      <c r="RN6" s="194"/>
+      <c r="RO6" s="194"/>
+      <c r="RP6" s="194"/>
+      <c r="RQ6" s="194"/>
+      <c r="RR6" s="194"/>
+      <c r="RS6" s="194"/>
+      <c r="RT6" s="195"/>
     </row>
-    <row r="7" spans="1:396" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:488" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="52"/>
       <c r="B7" s="55">
         <v>1</v>
@@ -4918,12 +5122,288 @@
       <c r="OE7" s="119">
         <v>29</v>
       </c>
-      <c r="OF7" s="121">
+      <c r="OF7" s="119">
         <v>30</v>
       </c>
+      <c r="OG7" s="120">
+        <v>1</v>
+      </c>
+      <c r="OH7" s="119">
+        <v>2</v>
+      </c>
+      <c r="OI7" s="118">
+        <v>3</v>
+      </c>
+      <c r="OJ7" s="119">
+        <v>4</v>
+      </c>
+      <c r="OK7" s="119">
+        <v>5</v>
+      </c>
+      <c r="OL7" s="119">
+        <v>6</v>
+      </c>
+      <c r="OM7" s="119">
+        <v>7</v>
+      </c>
+      <c r="ON7" s="119">
+        <v>8</v>
+      </c>
+      <c r="OO7" s="118">
+        <v>9</v>
+      </c>
+      <c r="OP7" s="119">
+        <v>10</v>
+      </c>
+      <c r="OQ7" s="119">
+        <v>11</v>
+      </c>
+      <c r="OR7" s="119">
+        <v>12</v>
+      </c>
+      <c r="OS7" s="119">
+        <v>13</v>
+      </c>
+      <c r="OT7" s="119">
+        <v>14</v>
+      </c>
+      <c r="OU7" s="119">
+        <v>15</v>
+      </c>
+      <c r="OV7" s="119">
+        <v>16</v>
+      </c>
+      <c r="OW7" s="119">
+        <v>17</v>
+      </c>
+      <c r="OX7" s="119">
+        <v>18</v>
+      </c>
+      <c r="OY7" s="119">
+        <v>19</v>
+      </c>
+      <c r="OZ7" s="119">
+        <v>20</v>
+      </c>
+      <c r="PA7" s="119">
+        <v>21</v>
+      </c>
+      <c r="PB7" s="119">
+        <v>22</v>
+      </c>
+      <c r="PC7" s="119">
+        <v>23</v>
+      </c>
+      <c r="PD7" s="119">
+        <v>24</v>
+      </c>
+      <c r="PE7" s="119">
+        <v>25</v>
+      </c>
+      <c r="PF7" s="119">
+        <v>26</v>
+      </c>
+      <c r="PG7" s="119">
+        <v>27</v>
+      </c>
+      <c r="PH7" s="119">
+        <v>28</v>
+      </c>
+      <c r="PI7" s="119">
+        <v>29</v>
+      </c>
+      <c r="PJ7" s="119">
+        <v>30</v>
+      </c>
+      <c r="PK7" s="121">
+        <v>31</v>
+      </c>
+      <c r="PL7" s="119">
+        <v>1</v>
+      </c>
+      <c r="PM7" s="119">
+        <v>2</v>
+      </c>
+      <c r="PN7" s="119">
+        <v>3</v>
+      </c>
+      <c r="PO7" s="119">
+        <v>4</v>
+      </c>
+      <c r="PP7" s="119">
+        <v>5</v>
+      </c>
+      <c r="PQ7" s="119">
+        <v>6</v>
+      </c>
+      <c r="PR7" s="119">
+        <v>7</v>
+      </c>
+      <c r="PS7" s="119">
+        <v>8</v>
+      </c>
+      <c r="PT7" s="119">
+        <v>9</v>
+      </c>
+      <c r="PU7" s="119">
+        <v>10</v>
+      </c>
+      <c r="PV7" s="119">
+        <v>11</v>
+      </c>
+      <c r="PW7" s="119">
+        <v>12</v>
+      </c>
+      <c r="PX7" s="119">
+        <v>13</v>
+      </c>
+      <c r="PY7" s="119">
+        <v>14</v>
+      </c>
+      <c r="PZ7" s="119">
+        <v>15</v>
+      </c>
+      <c r="QA7" s="119">
+        <v>16</v>
+      </c>
+      <c r="QB7" s="119">
+        <v>17</v>
+      </c>
+      <c r="QC7" s="119">
+        <v>18</v>
+      </c>
+      <c r="QD7" s="119">
+        <v>19</v>
+      </c>
+      <c r="QE7" s="119">
+        <v>20</v>
+      </c>
+      <c r="QF7" s="119">
+        <v>21</v>
+      </c>
+      <c r="QG7" s="119">
+        <v>22</v>
+      </c>
+      <c r="QH7" s="119">
+        <v>23</v>
+      </c>
+      <c r="QI7" s="119">
+        <v>24</v>
+      </c>
+      <c r="QJ7" s="119">
+        <v>25</v>
+      </c>
+      <c r="QK7" s="119">
+        <v>26</v>
+      </c>
+      <c r="QL7" s="119">
+        <v>27</v>
+      </c>
+      <c r="QM7" s="119">
+        <v>28</v>
+      </c>
+      <c r="QN7" s="119">
+        <v>29</v>
+      </c>
+      <c r="QO7" s="119">
+        <v>30</v>
+      </c>
+      <c r="QP7" s="120">
+        <v>1</v>
+      </c>
+      <c r="QQ7" s="119">
+        <v>2</v>
+      </c>
+      <c r="QR7" s="119">
+        <v>3</v>
+      </c>
+      <c r="QS7" s="119">
+        <v>4</v>
+      </c>
+      <c r="QT7" s="119">
+        <v>5</v>
+      </c>
+      <c r="QU7" s="119">
+        <v>6</v>
+      </c>
+      <c r="QV7" s="119">
+        <v>7</v>
+      </c>
+      <c r="QW7" s="119">
+        <v>8</v>
+      </c>
+      <c r="QX7" s="119">
+        <v>9</v>
+      </c>
+      <c r="QY7" s="119">
+        <v>10</v>
+      </c>
+      <c r="QZ7" s="119">
+        <v>11</v>
+      </c>
+      <c r="RA7" s="119">
+        <v>12</v>
+      </c>
+      <c r="RB7" s="119">
+        <v>13</v>
+      </c>
+      <c r="RC7" s="119">
+        <v>14</v>
+      </c>
+      <c r="RD7" s="119">
+        <v>15</v>
+      </c>
+      <c r="RE7" s="119">
+        <v>16</v>
+      </c>
+      <c r="RF7" s="119">
+        <v>17</v>
+      </c>
+      <c r="RG7" s="119">
+        <v>18</v>
+      </c>
+      <c r="RH7" s="119">
+        <v>19</v>
+      </c>
+      <c r="RI7" s="119">
+        <v>20</v>
+      </c>
+      <c r="RJ7" s="119">
+        <v>21</v>
+      </c>
+      <c r="RK7" s="119">
+        <v>22</v>
+      </c>
+      <c r="RL7" s="119">
+        <v>23</v>
+      </c>
+      <c r="RM7" s="119">
+        <v>24</v>
+      </c>
+      <c r="RN7" s="118">
+        <v>25</v>
+      </c>
+      <c r="RO7" s="119">
+        <v>26</v>
+      </c>
+      <c r="RP7" s="119">
+        <v>27</v>
+      </c>
+      <c r="RQ7" s="119">
+        <v>28</v>
+      </c>
+      <c r="RR7" s="119">
+        <v>29</v>
+      </c>
+      <c r="RS7" s="119">
+        <v>30</v>
+      </c>
+      <c r="RT7" s="121">
+        <v>31</v>
+      </c>
     </row>
-    <row r="8" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="196" t="s">
+    <row r="8" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="200" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="41"/>
@@ -5332,10 +5812,104 @@
       <c r="OC8" s="8"/>
       <c r="OD8" s="10"/>
       <c r="OE8" s="41"/>
-      <c r="OF8" s="189"/>
+      <c r="OF8" s="8"/>
+      <c r="OG8" s="21"/>
+      <c r="OH8" s="8"/>
+      <c r="OI8" s="31"/>
+      <c r="OJ8" s="8"/>
+      <c r="OK8" s="10"/>
+      <c r="OL8" s="41"/>
+      <c r="OM8" s="8"/>
+      <c r="ON8" s="8"/>
+      <c r="OO8" s="31"/>
+      <c r="OP8" s="8"/>
+      <c r="OQ8" s="8"/>
+      <c r="OR8" s="10"/>
+      <c r="OS8" s="41"/>
+      <c r="OT8" s="8"/>
+      <c r="OU8" s="8"/>
+      <c r="OV8" s="8"/>
+      <c r="OW8" s="8"/>
+      <c r="OX8" s="8"/>
+      <c r="OY8" s="10"/>
+      <c r="OZ8" s="41"/>
+      <c r="PA8" s="8"/>
+      <c r="PB8" s="8"/>
+      <c r="PC8" s="8"/>
+      <c r="PD8" s="192" t="s">
+        <v>143</v>
+      </c>
+      <c r="PE8" s="8"/>
+      <c r="PF8" s="10"/>
+      <c r="PG8" s="41"/>
+      <c r="PH8" s="8"/>
+      <c r="PI8" s="8"/>
+      <c r="PJ8" s="8"/>
+      <c r="PK8" s="189"/>
+      <c r="PL8" s="8"/>
+      <c r="PM8" s="10"/>
+      <c r="PN8" s="41"/>
+      <c r="PO8" s="8"/>
+      <c r="PP8" s="8"/>
+      <c r="PQ8" s="8"/>
+      <c r="PR8" s="8"/>
+      <c r="PS8" s="8"/>
+      <c r="PT8" s="10"/>
+      <c r="PU8" s="41"/>
+      <c r="PV8" s="8"/>
+      <c r="PW8" s="8"/>
+      <c r="PX8" s="8"/>
+      <c r="PY8" s="8"/>
+      <c r="PZ8" s="8"/>
+      <c r="QA8" s="10"/>
+      <c r="QB8" s="41"/>
+      <c r="QC8" s="8"/>
+      <c r="QD8" s="8"/>
+      <c r="QE8" s="8"/>
+      <c r="QF8" s="8"/>
+      <c r="QG8" s="8"/>
+      <c r="QH8" s="10"/>
+      <c r="QI8" s="41"/>
+      <c r="QJ8" s="8"/>
+      <c r="QK8" s="8"/>
+      <c r="QL8" s="8"/>
+      <c r="QM8" s="8"/>
+      <c r="QN8" s="8"/>
+      <c r="QO8" s="10"/>
+      <c r="QP8" s="70"/>
+      <c r="QQ8" s="8"/>
+      <c r="QR8" s="8"/>
+      <c r="QS8" s="8"/>
+      <c r="QT8" s="8"/>
+      <c r="QU8" s="8"/>
+      <c r="QV8" s="10"/>
+      <c r="QW8" s="41"/>
+      <c r="QX8" s="8"/>
+      <c r="QY8" s="8"/>
+      <c r="QZ8" s="8"/>
+      <c r="RA8" s="8"/>
+      <c r="RB8" s="8"/>
+      <c r="RC8" s="10"/>
+      <c r="RD8" s="41"/>
+      <c r="RE8" s="8"/>
+      <c r="RF8" s="8"/>
+      <c r="RG8" s="8"/>
+      <c r="RH8" s="8"/>
+      <c r="RI8" s="8"/>
+      <c r="RJ8" s="10"/>
+      <c r="RK8" s="41"/>
+      <c r="RL8" s="8"/>
+      <c r="RM8" s="8"/>
+      <c r="RN8" s="31"/>
+      <c r="RO8" s="8"/>
+      <c r="RP8" s="8"/>
+      <c r="RQ8" s="10"/>
+      <c r="RR8" s="41"/>
+      <c r="RS8" s="8"/>
+      <c r="RT8" s="189"/>
     </row>
-    <row r="9" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="196"/>
+    <row r="9" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="200"/>
       <c r="B9" s="72"/>
       <c r="C9" s="73"/>
       <c r="D9" s="74"/>
@@ -5746,10 +6320,102 @@
       <c r="OC9" s="5"/>
       <c r="OD9" s="6"/>
       <c r="OE9" s="6"/>
-      <c r="OF9" s="7"/>
+      <c r="OF9" s="5"/>
+      <c r="OG9" s="16"/>
+      <c r="OH9" s="5"/>
+      <c r="OI9" s="33"/>
+      <c r="OJ9" s="5"/>
+      <c r="OK9" s="6"/>
+      <c r="OL9" s="6"/>
+      <c r="OM9" s="5"/>
+      <c r="ON9" s="5"/>
+      <c r="OO9" s="33"/>
+      <c r="OP9" s="5"/>
+      <c r="OQ9" s="5"/>
+      <c r="OR9" s="6"/>
+      <c r="OS9" s="6"/>
+      <c r="OT9" s="5"/>
+      <c r="OU9" s="5"/>
+      <c r="OV9" s="5"/>
+      <c r="OW9" s="5"/>
+      <c r="OX9" s="5"/>
+      <c r="OY9" s="6"/>
+      <c r="OZ9" s="6"/>
+      <c r="PA9" s="5"/>
+      <c r="PB9" s="5"/>
+      <c r="PC9" s="5"/>
+      <c r="PD9" s="5"/>
+      <c r="PE9" s="5"/>
+      <c r="PF9" s="6"/>
+      <c r="PG9" s="6"/>
+      <c r="PH9" s="5"/>
+      <c r="PI9" s="5"/>
+      <c r="PJ9" s="5"/>
+      <c r="PK9" s="7"/>
+      <c r="PL9" s="5"/>
+      <c r="PM9" s="6"/>
+      <c r="PN9" s="6"/>
+      <c r="PO9" s="5"/>
+      <c r="PP9" s="5"/>
+      <c r="PQ9" s="5"/>
+      <c r="PR9" s="5"/>
+      <c r="PS9" s="5"/>
+      <c r="PT9" s="6"/>
+      <c r="PU9" s="6"/>
+      <c r="PV9" s="5"/>
+      <c r="PW9" s="5"/>
+      <c r="PX9" s="5"/>
+      <c r="PY9" s="5"/>
+      <c r="PZ9" s="5"/>
+      <c r="QA9" s="6"/>
+      <c r="QB9" s="6"/>
+      <c r="QC9" s="5"/>
+      <c r="QD9" s="5"/>
+      <c r="QE9" s="5"/>
+      <c r="QF9" s="5"/>
+      <c r="QG9" s="5"/>
+      <c r="QH9" s="6"/>
+      <c r="QI9" s="6"/>
+      <c r="QJ9" s="5"/>
+      <c r="QK9" s="5"/>
+      <c r="QL9" s="5"/>
+      <c r="QM9" s="5"/>
+      <c r="QN9" s="5"/>
+      <c r="QO9" s="6"/>
+      <c r="QP9" s="179"/>
+      <c r="QQ9" s="5"/>
+      <c r="QR9" s="5"/>
+      <c r="QS9" s="5"/>
+      <c r="QT9" s="5"/>
+      <c r="QU9" s="5"/>
+      <c r="QV9" s="6"/>
+      <c r="QW9" s="6"/>
+      <c r="QX9" s="5"/>
+      <c r="QY9" s="5"/>
+      <c r="QZ9" s="5"/>
+      <c r="RA9" s="5"/>
+      <c r="RB9" s="5"/>
+      <c r="RC9" s="6"/>
+      <c r="RD9" s="6"/>
+      <c r="RE9" s="5"/>
+      <c r="RF9" s="5"/>
+      <c r="RG9" s="5"/>
+      <c r="RH9" s="5"/>
+      <c r="RI9" s="5"/>
+      <c r="RJ9" s="6"/>
+      <c r="RK9" s="6"/>
+      <c r="RL9" s="5"/>
+      <c r="RM9" s="5"/>
+      <c r="RN9" s="33"/>
+      <c r="RO9" s="5"/>
+      <c r="RP9" s="5"/>
+      <c r="RQ9" s="6"/>
+      <c r="RR9" s="6"/>
+      <c r="RS9" s="5"/>
+      <c r="RT9" s="7"/>
     </row>
-    <row r="10" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="196"/>
+    <row r="10" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="200"/>
       <c r="B10" s="72"/>
       <c r="C10" s="73"/>
       <c r="D10" s="74"/>
@@ -6152,10 +6818,102 @@
       <c r="OC10" s="5"/>
       <c r="OD10" s="6"/>
       <c r="OE10" s="6"/>
-      <c r="OF10" s="7"/>
+      <c r="OF10" s="5"/>
+      <c r="OG10" s="16"/>
+      <c r="OH10" s="5"/>
+      <c r="OI10" s="33"/>
+      <c r="OJ10" s="5"/>
+      <c r="OK10" s="6"/>
+      <c r="OL10" s="6"/>
+      <c r="OM10" s="5"/>
+      <c r="ON10" s="5"/>
+      <c r="OO10" s="33"/>
+      <c r="OP10" s="5"/>
+      <c r="OQ10" s="5"/>
+      <c r="OR10" s="6"/>
+      <c r="OS10" s="6"/>
+      <c r="OT10" s="5"/>
+      <c r="OU10" s="5"/>
+      <c r="OV10" s="5"/>
+      <c r="OW10" s="5"/>
+      <c r="OX10" s="5"/>
+      <c r="OY10" s="6"/>
+      <c r="OZ10" s="6"/>
+      <c r="PA10" s="5"/>
+      <c r="PB10" s="5"/>
+      <c r="PC10" s="5"/>
+      <c r="PD10" s="5"/>
+      <c r="PE10" s="5"/>
+      <c r="PF10" s="6"/>
+      <c r="PG10" s="6"/>
+      <c r="PH10" s="5"/>
+      <c r="PI10" s="5"/>
+      <c r="PJ10" s="5"/>
+      <c r="PK10" s="7"/>
+      <c r="PL10" s="5"/>
+      <c r="PM10" s="6"/>
+      <c r="PN10" s="6"/>
+      <c r="PO10" s="5"/>
+      <c r="PP10" s="5"/>
+      <c r="PQ10" s="5"/>
+      <c r="PR10" s="5"/>
+      <c r="PS10" s="5"/>
+      <c r="PT10" s="6"/>
+      <c r="PU10" s="6"/>
+      <c r="PV10" s="5"/>
+      <c r="PW10" s="5"/>
+      <c r="PX10" s="5"/>
+      <c r="PY10" s="5"/>
+      <c r="PZ10" s="5"/>
+      <c r="QA10" s="6"/>
+      <c r="QB10" s="6"/>
+      <c r="QC10" s="5"/>
+      <c r="QD10" s="5"/>
+      <c r="QE10" s="5"/>
+      <c r="QF10" s="5"/>
+      <c r="QG10" s="5"/>
+      <c r="QH10" s="6"/>
+      <c r="QI10" s="6"/>
+      <c r="QJ10" s="5"/>
+      <c r="QK10" s="5"/>
+      <c r="QL10" s="5"/>
+      <c r="QM10" s="5"/>
+      <c r="QN10" s="5"/>
+      <c r="QO10" s="6"/>
+      <c r="QP10" s="179"/>
+      <c r="QQ10" s="5"/>
+      <c r="QR10" s="5"/>
+      <c r="QS10" s="5"/>
+      <c r="QT10" s="5"/>
+      <c r="QU10" s="5"/>
+      <c r="QV10" s="6"/>
+      <c r="QW10" s="6"/>
+      <c r="QX10" s="5"/>
+      <c r="QY10" s="5"/>
+      <c r="QZ10" s="5"/>
+      <c r="RA10" s="5"/>
+      <c r="RB10" s="5"/>
+      <c r="RC10" s="6"/>
+      <c r="RD10" s="6"/>
+      <c r="RE10" s="5"/>
+      <c r="RF10" s="5"/>
+      <c r="RG10" s="5"/>
+      <c r="RH10" s="5"/>
+      <c r="RI10" s="5"/>
+      <c r="RJ10" s="6"/>
+      <c r="RK10" s="6"/>
+      <c r="RL10" s="5"/>
+      <c r="RM10" s="5"/>
+      <c r="RN10" s="33"/>
+      <c r="RO10" s="5"/>
+      <c r="RP10" s="5"/>
+      <c r="RQ10" s="6"/>
+      <c r="RR10" s="6"/>
+      <c r="RS10" s="5"/>
+      <c r="RT10" s="7"/>
     </row>
-    <row r="11" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="196"/>
+    <row r="11" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="200"/>
       <c r="B11" s="72"/>
       <c r="C11" s="73"/>
       <c r="D11" s="74"/>
@@ -6560,10 +7318,102 @@
       <c r="OC11" s="5"/>
       <c r="OD11" s="6"/>
       <c r="OE11" s="6"/>
-      <c r="OF11" s="7"/>
+      <c r="OF11" s="5"/>
+      <c r="OG11" s="16"/>
+      <c r="OH11" s="5"/>
+      <c r="OI11" s="33"/>
+      <c r="OJ11" s="5"/>
+      <c r="OK11" s="6"/>
+      <c r="OL11" s="6"/>
+      <c r="OM11" s="5"/>
+      <c r="ON11" s="5"/>
+      <c r="OO11" s="33"/>
+      <c r="OP11" s="5"/>
+      <c r="OQ11" s="5"/>
+      <c r="OR11" s="6"/>
+      <c r="OS11" s="6"/>
+      <c r="OT11" s="5"/>
+      <c r="OU11" s="5"/>
+      <c r="OV11" s="5"/>
+      <c r="OW11" s="5"/>
+      <c r="OX11" s="5"/>
+      <c r="OY11" s="6"/>
+      <c r="OZ11" s="6"/>
+      <c r="PA11" s="5"/>
+      <c r="PB11" s="5"/>
+      <c r="PC11" s="5"/>
+      <c r="PD11" s="5"/>
+      <c r="PE11" s="5"/>
+      <c r="PF11" s="6"/>
+      <c r="PG11" s="6"/>
+      <c r="PH11" s="5"/>
+      <c r="PI11" s="5"/>
+      <c r="PJ11" s="5"/>
+      <c r="PK11" s="7"/>
+      <c r="PL11" s="5"/>
+      <c r="PM11" s="6"/>
+      <c r="PN11" s="6"/>
+      <c r="PO11" s="5"/>
+      <c r="PP11" s="5"/>
+      <c r="PQ11" s="5"/>
+      <c r="PR11" s="5"/>
+      <c r="PS11" s="5"/>
+      <c r="PT11" s="6"/>
+      <c r="PU11" s="6"/>
+      <c r="PV11" s="5"/>
+      <c r="PW11" s="5"/>
+      <c r="PX11" s="5"/>
+      <c r="PY11" s="5"/>
+      <c r="PZ11" s="5"/>
+      <c r="QA11" s="6"/>
+      <c r="QB11" s="6"/>
+      <c r="QC11" s="5"/>
+      <c r="QD11" s="5"/>
+      <c r="QE11" s="5"/>
+      <c r="QF11" s="5"/>
+      <c r="QG11" s="5"/>
+      <c r="QH11" s="6"/>
+      <c r="QI11" s="6"/>
+      <c r="QJ11" s="5"/>
+      <c r="QK11" s="5"/>
+      <c r="QL11" s="5"/>
+      <c r="QM11" s="5"/>
+      <c r="QN11" s="5"/>
+      <c r="QO11" s="6"/>
+      <c r="QP11" s="179"/>
+      <c r="QQ11" s="5"/>
+      <c r="QR11" s="5"/>
+      <c r="QS11" s="5"/>
+      <c r="QT11" s="5"/>
+      <c r="QU11" s="5"/>
+      <c r="QV11" s="6"/>
+      <c r="QW11" s="6"/>
+      <c r="QX11" s="5"/>
+      <c r="QY11" s="5"/>
+      <c r="QZ11" s="5"/>
+      <c r="RA11" s="5"/>
+      <c r="RB11" s="5"/>
+      <c r="RC11" s="6"/>
+      <c r="RD11" s="6"/>
+      <c r="RE11" s="5"/>
+      <c r="RF11" s="5"/>
+      <c r="RG11" s="5"/>
+      <c r="RH11" s="5"/>
+      <c r="RI11" s="5"/>
+      <c r="RJ11" s="6"/>
+      <c r="RK11" s="6"/>
+      <c r="RL11" s="5"/>
+      <c r="RM11" s="5"/>
+      <c r="RN11" s="33"/>
+      <c r="RO11" s="5"/>
+      <c r="RP11" s="5"/>
+      <c r="RQ11" s="6"/>
+      <c r="RR11" s="6"/>
+      <c r="RS11" s="5"/>
+      <c r="RT11" s="7"/>
     </row>
-    <row r="12" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="196"/>
+    <row r="12" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="200"/>
       <c r="B12" s="72"/>
       <c r="C12" s="73"/>
       <c r="D12" s="74"/>
@@ -6966,10 +7816,102 @@
       <c r="OC12" s="5"/>
       <c r="OD12" s="6"/>
       <c r="OE12" s="6"/>
-      <c r="OF12" s="7"/>
+      <c r="OF12" s="5"/>
+      <c r="OG12" s="16"/>
+      <c r="OH12" s="5"/>
+      <c r="OI12" s="33"/>
+      <c r="OJ12" s="5"/>
+      <c r="OK12" s="6"/>
+      <c r="OL12" s="6"/>
+      <c r="OM12" s="5"/>
+      <c r="ON12" s="5"/>
+      <c r="OO12" s="33"/>
+      <c r="OP12" s="5"/>
+      <c r="OQ12" s="5"/>
+      <c r="OR12" s="6"/>
+      <c r="OS12" s="6"/>
+      <c r="OT12" s="5"/>
+      <c r="OU12" s="5"/>
+      <c r="OV12" s="5"/>
+      <c r="OW12" s="5"/>
+      <c r="OX12" s="5"/>
+      <c r="OY12" s="6"/>
+      <c r="OZ12" s="6"/>
+      <c r="PA12" s="5"/>
+      <c r="PB12" s="5"/>
+      <c r="PC12" s="5"/>
+      <c r="PD12" s="5"/>
+      <c r="PE12" s="5"/>
+      <c r="PF12" s="6"/>
+      <c r="PG12" s="6"/>
+      <c r="PH12" s="5"/>
+      <c r="PI12" s="5"/>
+      <c r="PJ12" s="5"/>
+      <c r="PK12" s="7"/>
+      <c r="PL12" s="5"/>
+      <c r="PM12" s="6"/>
+      <c r="PN12" s="6"/>
+      <c r="PO12" s="5"/>
+      <c r="PP12" s="5"/>
+      <c r="PQ12" s="5"/>
+      <c r="PR12" s="5"/>
+      <c r="PS12" s="5"/>
+      <c r="PT12" s="6"/>
+      <c r="PU12" s="6"/>
+      <c r="PV12" s="5"/>
+      <c r="PW12" s="5"/>
+      <c r="PX12" s="5"/>
+      <c r="PY12" s="5"/>
+      <c r="PZ12" s="5"/>
+      <c r="QA12" s="6"/>
+      <c r="QB12" s="6"/>
+      <c r="QC12" s="5"/>
+      <c r="QD12" s="5"/>
+      <c r="QE12" s="5"/>
+      <c r="QF12" s="5"/>
+      <c r="QG12" s="5"/>
+      <c r="QH12" s="6"/>
+      <c r="QI12" s="6"/>
+      <c r="QJ12" s="5"/>
+      <c r="QK12" s="5"/>
+      <c r="QL12" s="5"/>
+      <c r="QM12" s="5"/>
+      <c r="QN12" s="5"/>
+      <c r="QO12" s="6"/>
+      <c r="QP12" s="179"/>
+      <c r="QQ12" s="5"/>
+      <c r="QR12" s="5"/>
+      <c r="QS12" s="5"/>
+      <c r="QT12" s="5"/>
+      <c r="QU12" s="5"/>
+      <c r="QV12" s="6"/>
+      <c r="QW12" s="6"/>
+      <c r="QX12" s="5"/>
+      <c r="QY12" s="5"/>
+      <c r="QZ12" s="5"/>
+      <c r="RA12" s="5"/>
+      <c r="RB12" s="5"/>
+      <c r="RC12" s="6"/>
+      <c r="RD12" s="6"/>
+      <c r="RE12" s="5"/>
+      <c r="RF12" s="5"/>
+      <c r="RG12" s="5"/>
+      <c r="RH12" s="5"/>
+      <c r="RI12" s="5"/>
+      <c r="RJ12" s="6"/>
+      <c r="RK12" s="6"/>
+      <c r="RL12" s="5"/>
+      <c r="RM12" s="5"/>
+      <c r="RN12" s="33"/>
+      <c r="RO12" s="5"/>
+      <c r="RP12" s="5"/>
+      <c r="RQ12" s="6"/>
+      <c r="RR12" s="6"/>
+      <c r="RS12" s="5"/>
+      <c r="RT12" s="7"/>
     </row>
-    <row r="13" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="196"/>
+    <row r="13" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="200"/>
       <c r="B13" s="72"/>
       <c r="C13" s="73"/>
       <c r="D13" s="74"/>
@@ -7368,10 +8310,102 @@
       <c r="OC13" s="5"/>
       <c r="OD13" s="6"/>
       <c r="OE13" s="6"/>
-      <c r="OF13" s="7"/>
+      <c r="OF13" s="5"/>
+      <c r="OG13" s="16"/>
+      <c r="OH13" s="5"/>
+      <c r="OI13" s="33"/>
+      <c r="OJ13" s="5"/>
+      <c r="OK13" s="6"/>
+      <c r="OL13" s="6"/>
+      <c r="OM13" s="5"/>
+      <c r="ON13" s="5"/>
+      <c r="OO13" s="33"/>
+      <c r="OP13" s="5"/>
+      <c r="OQ13" s="5"/>
+      <c r="OR13" s="6"/>
+      <c r="OS13" s="6"/>
+      <c r="OT13" s="5"/>
+      <c r="OU13" s="5"/>
+      <c r="OV13" s="5"/>
+      <c r="OW13" s="5"/>
+      <c r="OX13" s="5"/>
+      <c r="OY13" s="6"/>
+      <c r="OZ13" s="6"/>
+      <c r="PA13" s="5"/>
+      <c r="PB13" s="5"/>
+      <c r="PC13" s="5"/>
+      <c r="PD13" s="5"/>
+      <c r="PE13" s="5"/>
+      <c r="PF13" s="6"/>
+      <c r="PG13" s="6"/>
+      <c r="PH13" s="5"/>
+      <c r="PI13" s="5"/>
+      <c r="PJ13" s="5"/>
+      <c r="PK13" s="7"/>
+      <c r="PL13" s="5"/>
+      <c r="PM13" s="6"/>
+      <c r="PN13" s="6"/>
+      <c r="PO13" s="5"/>
+      <c r="PP13" s="5"/>
+      <c r="PQ13" s="5"/>
+      <c r="PR13" s="5"/>
+      <c r="PS13" s="5"/>
+      <c r="PT13" s="6"/>
+      <c r="PU13" s="6"/>
+      <c r="PV13" s="5"/>
+      <c r="PW13" s="5"/>
+      <c r="PX13" s="5"/>
+      <c r="PY13" s="5"/>
+      <c r="PZ13" s="5"/>
+      <c r="QA13" s="6"/>
+      <c r="QB13" s="6"/>
+      <c r="QC13" s="5"/>
+      <c r="QD13" s="5"/>
+      <c r="QE13" s="5"/>
+      <c r="QF13" s="5"/>
+      <c r="QG13" s="5"/>
+      <c r="QH13" s="6"/>
+      <c r="QI13" s="6"/>
+      <c r="QJ13" s="5"/>
+      <c r="QK13" s="5"/>
+      <c r="QL13" s="5"/>
+      <c r="QM13" s="5"/>
+      <c r="QN13" s="5"/>
+      <c r="QO13" s="6"/>
+      <c r="QP13" s="179"/>
+      <c r="QQ13" s="5"/>
+      <c r="QR13" s="5"/>
+      <c r="QS13" s="5"/>
+      <c r="QT13" s="5"/>
+      <c r="QU13" s="5"/>
+      <c r="QV13" s="6"/>
+      <c r="QW13" s="6"/>
+      <c r="QX13" s="5"/>
+      <c r="QY13" s="5"/>
+      <c r="QZ13" s="5"/>
+      <c r="RA13" s="5"/>
+      <c r="RB13" s="5"/>
+      <c r="RC13" s="6"/>
+      <c r="RD13" s="6"/>
+      <c r="RE13" s="5"/>
+      <c r="RF13" s="5"/>
+      <c r="RG13" s="5"/>
+      <c r="RH13" s="5"/>
+      <c r="RI13" s="5"/>
+      <c r="RJ13" s="6"/>
+      <c r="RK13" s="6"/>
+      <c r="RL13" s="5"/>
+      <c r="RM13" s="5"/>
+      <c r="RN13" s="33"/>
+      <c r="RO13" s="5"/>
+      <c r="RP13" s="5"/>
+      <c r="RQ13" s="6"/>
+      <c r="RR13" s="6"/>
+      <c r="RS13" s="5"/>
+      <c r="RT13" s="7"/>
     </row>
-    <row r="14" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="196"/>
+    <row r="14" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="200"/>
       <c r="B14" s="80"/>
       <c r="C14" s="81"/>
       <c r="D14" s="82"/>
@@ -7768,10 +8802,102 @@
       <c r="OC14" s="14"/>
       <c r="OD14" s="15"/>
       <c r="OE14" s="15"/>
-      <c r="OF14" s="18"/>
+      <c r="OF14" s="14"/>
+      <c r="OG14" s="17"/>
+      <c r="OH14" s="14"/>
+      <c r="OI14" s="34"/>
+      <c r="OJ14" s="14"/>
+      <c r="OK14" s="15"/>
+      <c r="OL14" s="15"/>
+      <c r="OM14" s="14"/>
+      <c r="ON14" s="14"/>
+      <c r="OO14" s="34"/>
+      <c r="OP14" s="14"/>
+      <c r="OQ14" s="14"/>
+      <c r="OR14" s="15"/>
+      <c r="OS14" s="15"/>
+      <c r="OT14" s="14"/>
+      <c r="OU14" s="14"/>
+      <c r="OV14" s="14"/>
+      <c r="OW14" s="14"/>
+      <c r="OX14" s="14"/>
+      <c r="OY14" s="15"/>
+      <c r="OZ14" s="15"/>
+      <c r="PA14" s="14"/>
+      <c r="PB14" s="14"/>
+      <c r="PC14" s="14"/>
+      <c r="PD14" s="14"/>
+      <c r="PE14" s="14"/>
+      <c r="PF14" s="15"/>
+      <c r="PG14" s="15"/>
+      <c r="PH14" s="14"/>
+      <c r="PI14" s="14"/>
+      <c r="PJ14" s="14"/>
+      <c r="PK14" s="18"/>
+      <c r="PL14" s="14"/>
+      <c r="PM14" s="15"/>
+      <c r="PN14" s="15"/>
+      <c r="PO14" s="14"/>
+      <c r="PP14" s="14"/>
+      <c r="PQ14" s="14"/>
+      <c r="PR14" s="14"/>
+      <c r="PS14" s="14"/>
+      <c r="PT14" s="15"/>
+      <c r="PU14" s="15"/>
+      <c r="PV14" s="14"/>
+      <c r="PW14" s="14"/>
+      <c r="PX14" s="14"/>
+      <c r="PY14" s="14"/>
+      <c r="PZ14" s="14"/>
+      <c r="QA14" s="15"/>
+      <c r="QB14" s="15"/>
+      <c r="QC14" s="14"/>
+      <c r="QD14" s="14"/>
+      <c r="QE14" s="14"/>
+      <c r="QF14" s="14"/>
+      <c r="QG14" s="14"/>
+      <c r="QH14" s="15"/>
+      <c r="QI14" s="15"/>
+      <c r="QJ14" s="14"/>
+      <c r="QK14" s="14"/>
+      <c r="QL14" s="14"/>
+      <c r="QM14" s="14"/>
+      <c r="QN14" s="14"/>
+      <c r="QO14" s="15"/>
+      <c r="QP14" s="180"/>
+      <c r="QQ14" s="14"/>
+      <c r="QR14" s="14"/>
+      <c r="QS14" s="14"/>
+      <c r="QT14" s="14"/>
+      <c r="QU14" s="14"/>
+      <c r="QV14" s="15"/>
+      <c r="QW14" s="15"/>
+      <c r="QX14" s="14"/>
+      <c r="QY14" s="14"/>
+      <c r="QZ14" s="14"/>
+      <c r="RA14" s="14"/>
+      <c r="RB14" s="14"/>
+      <c r="RC14" s="15"/>
+      <c r="RD14" s="15"/>
+      <c r="RE14" s="14"/>
+      <c r="RF14" s="14"/>
+      <c r="RG14" s="14"/>
+      <c r="RH14" s="14"/>
+      <c r="RI14" s="14"/>
+      <c r="RJ14" s="15"/>
+      <c r="RK14" s="15"/>
+      <c r="RL14" s="14"/>
+      <c r="RM14" s="14"/>
+      <c r="RN14" s="34"/>
+      <c r="RO14" s="14"/>
+      <c r="RP14" s="14"/>
+      <c r="RQ14" s="15"/>
+      <c r="RR14" s="15"/>
+      <c r="RS14" s="14"/>
+      <c r="RT14" s="18"/>
     </row>
-    <row r="15" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="208" t="s">
+    <row r="15" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="210" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="88"/>
@@ -8170,10 +9296,102 @@
       <c r="OC15" s="26"/>
       <c r="OD15" s="27"/>
       <c r="OE15" s="27"/>
-      <c r="OF15" s="29"/>
+      <c r="OF15" s="26"/>
+      <c r="OG15" s="28"/>
+      <c r="OH15" s="26"/>
+      <c r="OI15" s="37"/>
+      <c r="OJ15" s="26"/>
+      <c r="OK15" s="27"/>
+      <c r="OL15" s="27"/>
+      <c r="OM15" s="26"/>
+      <c r="ON15" s="26"/>
+      <c r="OO15" s="37"/>
+      <c r="OP15" s="26"/>
+      <c r="OQ15" s="26"/>
+      <c r="OR15" s="27"/>
+      <c r="OS15" s="27"/>
+      <c r="OT15" s="26"/>
+      <c r="OU15" s="26"/>
+      <c r="OV15" s="26"/>
+      <c r="OW15" s="26"/>
+      <c r="OX15" s="26"/>
+      <c r="OY15" s="27"/>
+      <c r="OZ15" s="27"/>
+      <c r="PA15" s="26"/>
+      <c r="PB15" s="26"/>
+      <c r="PC15" s="26"/>
+      <c r="PD15" s="26"/>
+      <c r="PE15" s="26"/>
+      <c r="PF15" s="27"/>
+      <c r="PG15" s="27"/>
+      <c r="PH15" s="26"/>
+      <c r="PI15" s="26"/>
+      <c r="PJ15" s="26"/>
+      <c r="PK15" s="29"/>
+      <c r="PL15" s="26"/>
+      <c r="PM15" s="27"/>
+      <c r="PN15" s="27"/>
+      <c r="PO15" s="26"/>
+      <c r="PP15" s="26"/>
+      <c r="PQ15" s="26"/>
+      <c r="PR15" s="26"/>
+      <c r="PS15" s="26"/>
+      <c r="PT15" s="27"/>
+      <c r="PU15" s="27"/>
+      <c r="PV15" s="26"/>
+      <c r="PW15" s="26"/>
+      <c r="PX15" s="26"/>
+      <c r="PY15" s="26"/>
+      <c r="PZ15" s="26"/>
+      <c r="QA15" s="27"/>
+      <c r="QB15" s="27"/>
+      <c r="QC15" s="26"/>
+      <c r="QD15" s="26"/>
+      <c r="QE15" s="26"/>
+      <c r="QF15" s="26"/>
+      <c r="QG15" s="26"/>
+      <c r="QH15" s="27"/>
+      <c r="QI15" s="27"/>
+      <c r="QJ15" s="26"/>
+      <c r="QK15" s="26"/>
+      <c r="QL15" s="26"/>
+      <c r="QM15" s="26"/>
+      <c r="QN15" s="26"/>
+      <c r="QO15" s="27"/>
+      <c r="QP15" s="181"/>
+      <c r="QQ15" s="26"/>
+      <c r="QR15" s="26"/>
+      <c r="QS15" s="26"/>
+      <c r="QT15" s="26"/>
+      <c r="QU15" s="26"/>
+      <c r="QV15" s="27"/>
+      <c r="QW15" s="27"/>
+      <c r="QX15" s="26"/>
+      <c r="QY15" s="26"/>
+      <c r="QZ15" s="26"/>
+      <c r="RA15" s="26"/>
+      <c r="RB15" s="26"/>
+      <c r="RC15" s="27"/>
+      <c r="RD15" s="27"/>
+      <c r="RE15" s="26"/>
+      <c r="RF15" s="26"/>
+      <c r="RG15" s="26"/>
+      <c r="RH15" s="26"/>
+      <c r="RI15" s="26"/>
+      <c r="RJ15" s="27"/>
+      <c r="RK15" s="27"/>
+      <c r="RL15" s="26"/>
+      <c r="RM15" s="26"/>
+      <c r="RN15" s="37"/>
+      <c r="RO15" s="26"/>
+      <c r="RP15" s="26"/>
+      <c r="RQ15" s="27"/>
+      <c r="RR15" s="27"/>
+      <c r="RS15" s="26"/>
+      <c r="RT15" s="29"/>
     </row>
-    <row r="16" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="196"/>
+    <row r="16" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="200"/>
       <c r="B16" s="94"/>
       <c r="C16" s="95"/>
       <c r="D16" s="96"/>
@@ -8580,10 +9798,102 @@
       <c r="OC16" s="11"/>
       <c r="OD16" s="12"/>
       <c r="OE16" s="12"/>
-      <c r="OF16" s="13"/>
+      <c r="OF16" s="11"/>
+      <c r="OG16" s="19"/>
+      <c r="OH16" s="11"/>
+      <c r="OI16" s="35"/>
+      <c r="OJ16" s="11"/>
+      <c r="OK16" s="12"/>
+      <c r="OL16" s="12"/>
+      <c r="OM16" s="11"/>
+      <c r="ON16" s="11"/>
+      <c r="OO16" s="35"/>
+      <c r="OP16" s="11"/>
+      <c r="OQ16" s="11"/>
+      <c r="OR16" s="12"/>
+      <c r="OS16" s="12"/>
+      <c r="OT16" s="11"/>
+      <c r="OU16" s="11"/>
+      <c r="OV16" s="11"/>
+      <c r="OW16" s="11"/>
+      <c r="OX16" s="11"/>
+      <c r="OY16" s="12"/>
+      <c r="OZ16" s="12"/>
+      <c r="PA16" s="11"/>
+      <c r="PB16" s="11"/>
+      <c r="PC16" s="11"/>
+      <c r="PD16" s="11"/>
+      <c r="PE16" s="11"/>
+      <c r="PF16" s="12"/>
+      <c r="PG16" s="12"/>
+      <c r="PH16" s="11"/>
+      <c r="PI16" s="11"/>
+      <c r="PJ16" s="11"/>
+      <c r="PK16" s="13"/>
+      <c r="PL16" s="11"/>
+      <c r="PM16" s="12"/>
+      <c r="PN16" s="12"/>
+      <c r="PO16" s="11"/>
+      <c r="PP16" s="11"/>
+      <c r="PQ16" s="11"/>
+      <c r="PR16" s="11"/>
+      <c r="PS16" s="11"/>
+      <c r="PT16" s="12"/>
+      <c r="PU16" s="12"/>
+      <c r="PV16" s="11"/>
+      <c r="PW16" s="11"/>
+      <c r="PX16" s="11"/>
+      <c r="PY16" s="11"/>
+      <c r="PZ16" s="11"/>
+      <c r="QA16" s="12"/>
+      <c r="QB16" s="12"/>
+      <c r="QC16" s="11"/>
+      <c r="QD16" s="11"/>
+      <c r="QE16" s="11"/>
+      <c r="QF16" s="11"/>
+      <c r="QG16" s="11"/>
+      <c r="QH16" s="12"/>
+      <c r="QI16" s="12"/>
+      <c r="QJ16" s="11"/>
+      <c r="QK16" s="11"/>
+      <c r="QL16" s="11"/>
+      <c r="QM16" s="11"/>
+      <c r="QN16" s="11"/>
+      <c r="QO16" s="12"/>
+      <c r="QP16" s="182"/>
+      <c r="QQ16" s="11"/>
+      <c r="QR16" s="11"/>
+      <c r="QS16" s="11"/>
+      <c r="QT16" s="11"/>
+      <c r="QU16" s="11"/>
+      <c r="QV16" s="12"/>
+      <c r="QW16" s="12"/>
+      <c r="QX16" s="11"/>
+      <c r="QY16" s="11"/>
+      <c r="QZ16" s="11"/>
+      <c r="RA16" s="11"/>
+      <c r="RB16" s="11"/>
+      <c r="RC16" s="12"/>
+      <c r="RD16" s="12"/>
+      <c r="RE16" s="11"/>
+      <c r="RF16" s="11"/>
+      <c r="RG16" s="11"/>
+      <c r="RH16" s="11"/>
+      <c r="RI16" s="11"/>
+      <c r="RJ16" s="12"/>
+      <c r="RK16" s="12"/>
+      <c r="RL16" s="11"/>
+      <c r="RM16" s="11"/>
+      <c r="RN16" s="35"/>
+      <c r="RO16" s="11"/>
+      <c r="RP16" s="11"/>
+      <c r="RQ16" s="12"/>
+      <c r="RR16" s="12"/>
+      <c r="RS16" s="11"/>
+      <c r="RT16" s="13"/>
     </row>
-    <row r="17" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="196"/>
+    <row r="17" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="200"/>
       <c r="B17" s="94"/>
       <c r="C17" s="95"/>
       <c r="D17" s="96"/>
@@ -8976,17 +10286,111 @@
       <c r="NV17" s="2"/>
       <c r="NW17" s="1"/>
       <c r="NX17" s="1"/>
-      <c r="NY17" s="2"/>
+      <c r="NY17" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="NZ17" s="2"/>
       <c r="OA17" s="2"/>
       <c r="OB17" s="2"/>
       <c r="OC17" s="2"/>
       <c r="OD17" s="1"/>
       <c r="OE17" s="1"/>
-      <c r="OF17" s="4"/>
+      <c r="OF17" s="2"/>
+      <c r="OG17" s="20"/>
+      <c r="OH17" s="2"/>
+      <c r="OI17" s="36"/>
+      <c r="OJ17" s="2"/>
+      <c r="OK17" s="1"/>
+      <c r="OL17" s="1"/>
+      <c r="OM17" s="2"/>
+      <c r="ON17" s="2"/>
+      <c r="OO17" s="36"/>
+      <c r="OP17" s="2"/>
+      <c r="OQ17" s="2"/>
+      <c r="OR17" s="1"/>
+      <c r="OS17" s="1"/>
+      <c r="OT17" s="2"/>
+      <c r="OU17" s="2"/>
+      <c r="OV17" s="2"/>
+      <c r="OW17" s="2"/>
+      <c r="OX17" s="2"/>
+      <c r="OY17" s="1"/>
+      <c r="OZ17" s="1"/>
+      <c r="PA17" s="2"/>
+      <c r="PB17" s="2"/>
+      <c r="PC17" s="2"/>
+      <c r="PD17" s="2"/>
+      <c r="PE17" s="2"/>
+      <c r="PF17" s="1"/>
+      <c r="PG17" s="1"/>
+      <c r="PH17" s="2"/>
+      <c r="PI17" s="2"/>
+      <c r="PJ17" s="2"/>
+      <c r="PK17" s="4"/>
+      <c r="PL17" s="2"/>
+      <c r="PM17" s="1"/>
+      <c r="PN17" s="1"/>
+      <c r="PO17" s="2"/>
+      <c r="PP17" s="2"/>
+      <c r="PQ17" s="2"/>
+      <c r="PR17" s="2"/>
+      <c r="PS17" s="2"/>
+      <c r="PT17" s="1"/>
+      <c r="PU17" s="1"/>
+      <c r="PV17" s="2"/>
+      <c r="PW17" s="2"/>
+      <c r="PX17" s="2"/>
+      <c r="PY17" s="2"/>
+      <c r="PZ17" s="2"/>
+      <c r="QA17" s="1"/>
+      <c r="QB17" s="1"/>
+      <c r="QC17" s="2"/>
+      <c r="QD17" s="2"/>
+      <c r="QE17" s="2"/>
+      <c r="QF17" s="2"/>
+      <c r="QG17" s="2"/>
+      <c r="QH17" s="1"/>
+      <c r="QI17" s="1"/>
+      <c r="QJ17" s="2"/>
+      <c r="QK17" s="2"/>
+      <c r="QL17" s="2"/>
+      <c r="QM17" s="2"/>
+      <c r="QN17" s="2"/>
+      <c r="QO17" s="1"/>
+      <c r="QP17" s="183"/>
+      <c r="QQ17" s="2"/>
+      <c r="QR17" s="2"/>
+      <c r="QS17" s="2"/>
+      <c r="QT17" s="2"/>
+      <c r="QU17" s="2"/>
+      <c r="QV17" s="1"/>
+      <c r="QW17" s="1"/>
+      <c r="QX17" s="2"/>
+      <c r="QY17" s="2"/>
+      <c r="QZ17" s="2"/>
+      <c r="RA17" s="2"/>
+      <c r="RB17" s="2"/>
+      <c r="RC17" s="1"/>
+      <c r="RD17" s="1"/>
+      <c r="RE17" s="2"/>
+      <c r="RF17" s="2"/>
+      <c r="RG17" s="2"/>
+      <c r="RH17" s="2"/>
+      <c r="RI17" s="2"/>
+      <c r="RJ17" s="1"/>
+      <c r="RK17" s="1"/>
+      <c r="RL17" s="2"/>
+      <c r="RM17" s="2"/>
+      <c r="RN17" s="36"/>
+      <c r="RO17" s="2"/>
+      <c r="RP17" s="2"/>
+      <c r="RQ17" s="1"/>
+      <c r="RR17" s="1"/>
+      <c r="RS17" s="2"/>
+      <c r="RT17" s="4"/>
     </row>
-    <row r="18" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="196"/>
+    <row r="18" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="200"/>
       <c r="B18" s="94"/>
       <c r="C18" s="95"/>
       <c r="D18" s="96"/>
@@ -9376,16 +10780,110 @@
       <c r="NW18" s="1"/>
       <c r="NX18" s="1"/>
       <c r="NY18" s="2"/>
-      <c r="NZ18" s="2"/>
+      <c r="NZ18" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="OA18" s="2"/>
       <c r="OB18" s="2"/>
       <c r="OC18" s="2"/>
       <c r="OD18" s="1"/>
       <c r="OE18" s="1"/>
-      <c r="OF18" s="4"/>
+      <c r="OF18" s="2"/>
+      <c r="OG18" s="20"/>
+      <c r="OH18" s="2"/>
+      <c r="OI18" s="36"/>
+      <c r="OJ18" s="2"/>
+      <c r="OK18" s="1"/>
+      <c r="OL18" s="1"/>
+      <c r="OM18" s="2"/>
+      <c r="ON18" s="2"/>
+      <c r="OO18" s="36"/>
+      <c r="OP18" s="2"/>
+      <c r="OQ18" s="2"/>
+      <c r="OR18" s="1"/>
+      <c r="OS18" s="1"/>
+      <c r="OT18" s="2"/>
+      <c r="OU18" s="2"/>
+      <c r="OV18" s="2"/>
+      <c r="OW18" s="2"/>
+      <c r="OX18" s="2"/>
+      <c r="OY18" s="1"/>
+      <c r="OZ18" s="1"/>
+      <c r="PA18" s="2"/>
+      <c r="PB18" s="2"/>
+      <c r="PC18" s="2"/>
+      <c r="PD18" s="2"/>
+      <c r="PE18" s="2"/>
+      <c r="PF18" s="1"/>
+      <c r="PG18" s="1"/>
+      <c r="PH18" s="2"/>
+      <c r="PI18" s="2"/>
+      <c r="PJ18" s="2"/>
+      <c r="PK18" s="4"/>
+      <c r="PL18" s="2"/>
+      <c r="PM18" s="1"/>
+      <c r="PN18" s="1"/>
+      <c r="PO18" s="2"/>
+      <c r="PP18" s="2"/>
+      <c r="PQ18" s="2"/>
+      <c r="PR18" s="2"/>
+      <c r="PS18" s="2"/>
+      <c r="PT18" s="1"/>
+      <c r="PU18" s="1"/>
+      <c r="PV18" s="2"/>
+      <c r="PW18" s="2"/>
+      <c r="PX18" s="2"/>
+      <c r="PY18" s="2"/>
+      <c r="PZ18" s="2"/>
+      <c r="QA18" s="1"/>
+      <c r="QB18" s="1"/>
+      <c r="QC18" s="2"/>
+      <c r="QD18" s="2"/>
+      <c r="QE18" s="2"/>
+      <c r="QF18" s="2"/>
+      <c r="QG18" s="2"/>
+      <c r="QH18" s="1"/>
+      <c r="QI18" s="1"/>
+      <c r="QJ18" s="2"/>
+      <c r="QK18" s="2"/>
+      <c r="QL18" s="2"/>
+      <c r="QM18" s="2"/>
+      <c r="QN18" s="2"/>
+      <c r="QO18" s="1"/>
+      <c r="QP18" s="183"/>
+      <c r="QQ18" s="2"/>
+      <c r="QR18" s="2"/>
+      <c r="QS18" s="2"/>
+      <c r="QT18" s="2"/>
+      <c r="QU18" s="2"/>
+      <c r="QV18" s="1"/>
+      <c r="QW18" s="1"/>
+      <c r="QX18" s="2"/>
+      <c r="QY18" s="2"/>
+      <c r="QZ18" s="2"/>
+      <c r="RA18" s="2"/>
+      <c r="RB18" s="2"/>
+      <c r="RC18" s="1"/>
+      <c r="RD18" s="1"/>
+      <c r="RE18" s="2"/>
+      <c r="RF18" s="2"/>
+      <c r="RG18" s="2"/>
+      <c r="RH18" s="2"/>
+      <c r="RI18" s="2"/>
+      <c r="RJ18" s="1"/>
+      <c r="RK18" s="1"/>
+      <c r="RL18" s="2"/>
+      <c r="RM18" s="2"/>
+      <c r="RN18" s="36"/>
+      <c r="RO18" s="2"/>
+      <c r="RP18" s="2"/>
+      <c r="RQ18" s="1"/>
+      <c r="RR18" s="1"/>
+      <c r="RS18" s="2"/>
+      <c r="RT18" s="4"/>
     </row>
-    <row r="19" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="196"/>
+    <row r="19" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="200"/>
       <c r="B19" s="94"/>
       <c r="C19" s="95"/>
       <c r="D19" s="96"/>
@@ -9780,10 +11278,102 @@
       <c r="OC19" s="2"/>
       <c r="OD19" s="1"/>
       <c r="OE19" s="1"/>
-      <c r="OF19" s="4"/>
+      <c r="OF19" s="2"/>
+      <c r="OG19" s="20"/>
+      <c r="OH19" s="2"/>
+      <c r="OI19" s="36"/>
+      <c r="OJ19" s="2"/>
+      <c r="OK19" s="1"/>
+      <c r="OL19" s="1"/>
+      <c r="OM19" s="2"/>
+      <c r="ON19" s="2"/>
+      <c r="OO19" s="36"/>
+      <c r="OP19" s="2"/>
+      <c r="OQ19" s="2"/>
+      <c r="OR19" s="1"/>
+      <c r="OS19" s="1"/>
+      <c r="OT19" s="2"/>
+      <c r="OU19" s="2"/>
+      <c r="OV19" s="2"/>
+      <c r="OW19" s="2"/>
+      <c r="OX19" s="2"/>
+      <c r="OY19" s="1"/>
+      <c r="OZ19" s="1"/>
+      <c r="PA19" s="2"/>
+      <c r="PB19" s="2"/>
+      <c r="PC19" s="2"/>
+      <c r="PD19" s="2"/>
+      <c r="PE19" s="2"/>
+      <c r="PF19" s="1"/>
+      <c r="PG19" s="1"/>
+      <c r="PH19" s="2"/>
+      <c r="PI19" s="2"/>
+      <c r="PJ19" s="2"/>
+      <c r="PK19" s="4"/>
+      <c r="PL19" s="2"/>
+      <c r="PM19" s="1"/>
+      <c r="PN19" s="1"/>
+      <c r="PO19" s="2"/>
+      <c r="PP19" s="2"/>
+      <c r="PQ19" s="2"/>
+      <c r="PR19" s="2"/>
+      <c r="PS19" s="2"/>
+      <c r="PT19" s="1"/>
+      <c r="PU19" s="1"/>
+      <c r="PV19" s="2"/>
+      <c r="PW19" s="2"/>
+      <c r="PX19" s="2"/>
+      <c r="PY19" s="2"/>
+      <c r="PZ19" s="2"/>
+      <c r="QA19" s="1"/>
+      <c r="QB19" s="1"/>
+      <c r="QC19" s="2"/>
+      <c r="QD19" s="2"/>
+      <c r="QE19" s="2"/>
+      <c r="QF19" s="2"/>
+      <c r="QG19" s="2"/>
+      <c r="QH19" s="1"/>
+      <c r="QI19" s="1"/>
+      <c r="QJ19" s="2"/>
+      <c r="QK19" s="2"/>
+      <c r="QL19" s="2"/>
+      <c r="QM19" s="2"/>
+      <c r="QN19" s="2"/>
+      <c r="QO19" s="1"/>
+      <c r="QP19" s="183"/>
+      <c r="QQ19" s="2"/>
+      <c r="QR19" s="2"/>
+      <c r="QS19" s="2"/>
+      <c r="QT19" s="2"/>
+      <c r="QU19" s="2"/>
+      <c r="QV19" s="1"/>
+      <c r="QW19" s="1"/>
+      <c r="QX19" s="2"/>
+      <c r="QY19" s="2"/>
+      <c r="QZ19" s="2"/>
+      <c r="RA19" s="2"/>
+      <c r="RB19" s="2"/>
+      <c r="RC19" s="1"/>
+      <c r="RD19" s="1"/>
+      <c r="RE19" s="2"/>
+      <c r="RF19" s="2"/>
+      <c r="RG19" s="2"/>
+      <c r="RH19" s="2"/>
+      <c r="RI19" s="2"/>
+      <c r="RJ19" s="1"/>
+      <c r="RK19" s="1"/>
+      <c r="RL19" s="2"/>
+      <c r="RM19" s="2"/>
+      <c r="RN19" s="36"/>
+      <c r="RO19" s="2"/>
+      <c r="RP19" s="2"/>
+      <c r="RQ19" s="1"/>
+      <c r="RR19" s="1"/>
+      <c r="RS19" s="2"/>
+      <c r="RT19" s="4"/>
     </row>
-    <row r="20" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="196"/>
+    <row r="20" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="200"/>
       <c r="B20" s="94"/>
       <c r="C20" s="95"/>
       <c r="D20" s="96"/>
@@ -10178,10 +11768,102 @@
       <c r="OC20" s="2"/>
       <c r="OD20" s="1"/>
       <c r="OE20" s="1"/>
-      <c r="OF20" s="4"/>
+      <c r="OF20" s="2"/>
+      <c r="OG20" s="20"/>
+      <c r="OH20" s="2"/>
+      <c r="OI20" s="36"/>
+      <c r="OJ20" s="2"/>
+      <c r="OK20" s="1"/>
+      <c r="OL20" s="1"/>
+      <c r="OM20" s="2"/>
+      <c r="ON20" s="2"/>
+      <c r="OO20" s="36"/>
+      <c r="OP20" s="2"/>
+      <c r="OQ20" s="2"/>
+      <c r="OR20" s="1"/>
+      <c r="OS20" s="1"/>
+      <c r="OT20" s="2"/>
+      <c r="OU20" s="2"/>
+      <c r="OV20" s="2"/>
+      <c r="OW20" s="2"/>
+      <c r="OX20" s="2"/>
+      <c r="OY20" s="1"/>
+      <c r="OZ20" s="1"/>
+      <c r="PA20" s="2"/>
+      <c r="PB20" s="2"/>
+      <c r="PC20" s="2"/>
+      <c r="PD20" s="2"/>
+      <c r="PE20" s="2"/>
+      <c r="PF20" s="1"/>
+      <c r="PG20" s="1"/>
+      <c r="PH20" s="2"/>
+      <c r="PI20" s="2"/>
+      <c r="PJ20" s="2"/>
+      <c r="PK20" s="4"/>
+      <c r="PL20" s="2"/>
+      <c r="PM20" s="1"/>
+      <c r="PN20" s="1"/>
+      <c r="PO20" s="2"/>
+      <c r="PP20" s="2"/>
+      <c r="PQ20" s="2"/>
+      <c r="PR20" s="2"/>
+      <c r="PS20" s="2"/>
+      <c r="PT20" s="1"/>
+      <c r="PU20" s="1"/>
+      <c r="PV20" s="2"/>
+      <c r="PW20" s="2"/>
+      <c r="PX20" s="2"/>
+      <c r="PY20" s="2"/>
+      <c r="PZ20" s="2"/>
+      <c r="QA20" s="1"/>
+      <c r="QB20" s="1"/>
+      <c r="QC20" s="2"/>
+      <c r="QD20" s="2"/>
+      <c r="QE20" s="2"/>
+      <c r="QF20" s="2"/>
+      <c r="QG20" s="2"/>
+      <c r="QH20" s="1"/>
+      <c r="QI20" s="1"/>
+      <c r="QJ20" s="2"/>
+      <c r="QK20" s="2"/>
+      <c r="QL20" s="2"/>
+      <c r="QM20" s="2"/>
+      <c r="QN20" s="2"/>
+      <c r="QO20" s="1"/>
+      <c r="QP20" s="183"/>
+      <c r="QQ20" s="2"/>
+      <c r="QR20" s="2"/>
+      <c r="QS20" s="2"/>
+      <c r="QT20" s="2"/>
+      <c r="QU20" s="2"/>
+      <c r="QV20" s="1"/>
+      <c r="QW20" s="1"/>
+      <c r="QX20" s="2"/>
+      <c r="QY20" s="2"/>
+      <c r="QZ20" s="2"/>
+      <c r="RA20" s="2"/>
+      <c r="RB20" s="2"/>
+      <c r="RC20" s="1"/>
+      <c r="RD20" s="1"/>
+      <c r="RE20" s="2"/>
+      <c r="RF20" s="2"/>
+      <c r="RG20" s="2"/>
+      <c r="RH20" s="2"/>
+      <c r="RI20" s="2"/>
+      <c r="RJ20" s="1"/>
+      <c r="RK20" s="1"/>
+      <c r="RL20" s="2"/>
+      <c r="RM20" s="2"/>
+      <c r="RN20" s="36"/>
+      <c r="RO20" s="2"/>
+      <c r="RP20" s="2"/>
+      <c r="RQ20" s="1"/>
+      <c r="RR20" s="1"/>
+      <c r="RS20" s="2"/>
+      <c r="RT20" s="4"/>
     </row>
-    <row r="21" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="196"/>
+    <row r="21" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="200"/>
       <c r="B21" s="94"/>
       <c r="C21" s="95"/>
       <c r="D21" s="96"/>
@@ -10576,10 +12258,102 @@
       <c r="OC21" s="124"/>
       <c r="OD21" s="123"/>
       <c r="OE21" s="123"/>
-      <c r="OF21" s="126"/>
+      <c r="OF21" s="124"/>
+      <c r="OG21" s="125"/>
+      <c r="OH21" s="124"/>
+      <c r="OI21" s="122"/>
+      <c r="OJ21" s="124"/>
+      <c r="OK21" s="123"/>
+      <c r="OL21" s="123"/>
+      <c r="OM21" s="124"/>
+      <c r="ON21" s="124"/>
+      <c r="OO21" s="122"/>
+      <c r="OP21" s="124"/>
+      <c r="OQ21" s="124"/>
+      <c r="OR21" s="123"/>
+      <c r="OS21" s="123"/>
+      <c r="OT21" s="124"/>
+      <c r="OU21" s="124"/>
+      <c r="OV21" s="124"/>
+      <c r="OW21" s="124"/>
+      <c r="OX21" s="124"/>
+      <c r="OY21" s="123"/>
+      <c r="OZ21" s="123"/>
+      <c r="PA21" s="124"/>
+      <c r="PB21" s="124"/>
+      <c r="PC21" s="124"/>
+      <c r="PD21" s="124"/>
+      <c r="PE21" s="124"/>
+      <c r="PF21" s="123"/>
+      <c r="PG21" s="123"/>
+      <c r="PH21" s="124"/>
+      <c r="PI21" s="124"/>
+      <c r="PJ21" s="124"/>
+      <c r="PK21" s="126"/>
+      <c r="PL21" s="124"/>
+      <c r="PM21" s="123"/>
+      <c r="PN21" s="123"/>
+      <c r="PO21" s="124"/>
+      <c r="PP21" s="124"/>
+      <c r="PQ21" s="124"/>
+      <c r="PR21" s="124"/>
+      <c r="PS21" s="124"/>
+      <c r="PT21" s="123"/>
+      <c r="PU21" s="123"/>
+      <c r="PV21" s="124"/>
+      <c r="PW21" s="124"/>
+      <c r="PX21" s="124"/>
+      <c r="PY21" s="124"/>
+      <c r="PZ21" s="124"/>
+      <c r="QA21" s="123"/>
+      <c r="QB21" s="123"/>
+      <c r="QC21" s="124"/>
+      <c r="QD21" s="124"/>
+      <c r="QE21" s="124"/>
+      <c r="QF21" s="124"/>
+      <c r="QG21" s="124"/>
+      <c r="QH21" s="123"/>
+      <c r="QI21" s="123"/>
+      <c r="QJ21" s="124"/>
+      <c r="QK21" s="124"/>
+      <c r="QL21" s="124"/>
+      <c r="QM21" s="124"/>
+      <c r="QN21" s="124"/>
+      <c r="QO21" s="123"/>
+      <c r="QP21" s="184"/>
+      <c r="QQ21" s="124"/>
+      <c r="QR21" s="124"/>
+      <c r="QS21" s="124"/>
+      <c r="QT21" s="124"/>
+      <c r="QU21" s="124"/>
+      <c r="QV21" s="123"/>
+      <c r="QW21" s="123"/>
+      <c r="QX21" s="124"/>
+      <c r="QY21" s="124"/>
+      <c r="QZ21" s="124"/>
+      <c r="RA21" s="124"/>
+      <c r="RB21" s="124"/>
+      <c r="RC21" s="123"/>
+      <c r="RD21" s="123"/>
+      <c r="RE21" s="124"/>
+      <c r="RF21" s="124"/>
+      <c r="RG21" s="124"/>
+      <c r="RH21" s="124"/>
+      <c r="RI21" s="124"/>
+      <c r="RJ21" s="123"/>
+      <c r="RK21" s="123"/>
+      <c r="RL21" s="124"/>
+      <c r="RM21" s="124"/>
+      <c r="RN21" s="122"/>
+      <c r="RO21" s="124"/>
+      <c r="RP21" s="124"/>
+      <c r="RQ21" s="123"/>
+      <c r="RR21" s="123"/>
+      <c r="RS21" s="124"/>
+      <c r="RT21" s="126"/>
     </row>
-    <row r="22" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="196"/>
+    <row r="22" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="200"/>
       <c r="B22" s="101"/>
       <c r="C22" s="102"/>
       <c r="D22" s="103"/>
@@ -10974,10 +12748,102 @@
       <c r="OC22" s="23"/>
       <c r="OD22" s="24"/>
       <c r="OE22" s="24"/>
-      <c r="OF22" s="25"/>
+      <c r="OF22" s="23"/>
+      <c r="OG22" s="22"/>
+      <c r="OH22" s="23"/>
+      <c r="OI22" s="38"/>
+      <c r="OJ22" s="23"/>
+      <c r="OK22" s="24"/>
+      <c r="OL22" s="24"/>
+      <c r="OM22" s="23"/>
+      <c r="ON22" s="23"/>
+      <c r="OO22" s="38"/>
+      <c r="OP22" s="23"/>
+      <c r="OQ22" s="23"/>
+      <c r="OR22" s="24"/>
+      <c r="OS22" s="24"/>
+      <c r="OT22" s="23"/>
+      <c r="OU22" s="23"/>
+      <c r="OV22" s="23"/>
+      <c r="OW22" s="23"/>
+      <c r="OX22" s="23"/>
+      <c r="OY22" s="24"/>
+      <c r="OZ22" s="24"/>
+      <c r="PA22" s="23"/>
+      <c r="PB22" s="23"/>
+      <c r="PC22" s="23"/>
+      <c r="PD22" s="23"/>
+      <c r="PE22" s="23"/>
+      <c r="PF22" s="24"/>
+      <c r="PG22" s="24"/>
+      <c r="PH22" s="23"/>
+      <c r="PI22" s="23"/>
+      <c r="PJ22" s="23"/>
+      <c r="PK22" s="25"/>
+      <c r="PL22" s="23"/>
+      <c r="PM22" s="24"/>
+      <c r="PN22" s="24"/>
+      <c r="PO22" s="23"/>
+      <c r="PP22" s="23"/>
+      <c r="PQ22" s="23"/>
+      <c r="PR22" s="23"/>
+      <c r="PS22" s="23"/>
+      <c r="PT22" s="24"/>
+      <c r="PU22" s="24"/>
+      <c r="PV22" s="23"/>
+      <c r="PW22" s="23"/>
+      <c r="PX22" s="23"/>
+      <c r="PY22" s="23"/>
+      <c r="PZ22" s="23"/>
+      <c r="QA22" s="24"/>
+      <c r="QB22" s="24"/>
+      <c r="QC22" s="23"/>
+      <c r="QD22" s="23"/>
+      <c r="QE22" s="23"/>
+      <c r="QF22" s="23"/>
+      <c r="QG22" s="23"/>
+      <c r="QH22" s="24"/>
+      <c r="QI22" s="24"/>
+      <c r="QJ22" s="23"/>
+      <c r="QK22" s="23"/>
+      <c r="QL22" s="23"/>
+      <c r="QM22" s="23"/>
+      <c r="QN22" s="23"/>
+      <c r="QO22" s="24"/>
+      <c r="QP22" s="185"/>
+      <c r="QQ22" s="23"/>
+      <c r="QR22" s="23"/>
+      <c r="QS22" s="23"/>
+      <c r="QT22" s="23"/>
+      <c r="QU22" s="23"/>
+      <c r="QV22" s="24"/>
+      <c r="QW22" s="24"/>
+      <c r="QX22" s="23"/>
+      <c r="QY22" s="23"/>
+      <c r="QZ22" s="23"/>
+      <c r="RA22" s="23"/>
+      <c r="RB22" s="23"/>
+      <c r="RC22" s="24"/>
+      <c r="RD22" s="24"/>
+      <c r="RE22" s="23"/>
+      <c r="RF22" s="23"/>
+      <c r="RG22" s="23"/>
+      <c r="RH22" s="23"/>
+      <c r="RI22" s="23"/>
+      <c r="RJ22" s="24"/>
+      <c r="RK22" s="24"/>
+      <c r="RL22" s="23"/>
+      <c r="RM22" s="23"/>
+      <c r="RN22" s="38"/>
+      <c r="RO22" s="23"/>
+      <c r="RP22" s="23"/>
+      <c r="RQ22" s="24"/>
+      <c r="RR22" s="24"/>
+      <c r="RS22" s="23"/>
+      <c r="RT22" s="25"/>
     </row>
-    <row r="23" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="196" t="s">
+    <row r="23" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="200" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="107"/>
@@ -11386,10 +13252,102 @@
       <c r="OC23" s="26"/>
       <c r="OD23" s="73"/>
       <c r="OE23" s="27"/>
-      <c r="OF23" s="29"/>
+      <c r="OF23" s="26"/>
+      <c r="OG23" s="28"/>
+      <c r="OH23" s="26"/>
+      <c r="OI23" s="37"/>
+      <c r="OJ23" s="26"/>
+      <c r="OK23" s="73"/>
+      <c r="OL23" s="27"/>
+      <c r="OM23" s="26"/>
+      <c r="ON23" s="26"/>
+      <c r="OO23" s="37"/>
+      <c r="OP23" s="26"/>
+      <c r="OQ23" s="26"/>
+      <c r="OR23" s="73"/>
+      <c r="OS23" s="27"/>
+      <c r="OT23" s="26"/>
+      <c r="OU23" s="26"/>
+      <c r="OV23" s="26"/>
+      <c r="OW23" s="26"/>
+      <c r="OX23" s="26"/>
+      <c r="OY23" s="73"/>
+      <c r="OZ23" s="27"/>
+      <c r="PA23" s="26"/>
+      <c r="PB23" s="26"/>
+      <c r="PC23" s="26"/>
+      <c r="PD23" s="26"/>
+      <c r="PE23" s="26"/>
+      <c r="PF23" s="73"/>
+      <c r="PG23" s="27"/>
+      <c r="PH23" s="26"/>
+      <c r="PI23" s="26"/>
+      <c r="PJ23" s="26"/>
+      <c r="PK23" s="29"/>
+      <c r="PL23" s="26"/>
+      <c r="PM23" s="73"/>
+      <c r="PN23" s="27"/>
+      <c r="PO23" s="26"/>
+      <c r="PP23" s="26"/>
+      <c r="PQ23" s="26"/>
+      <c r="PR23" s="26"/>
+      <c r="PS23" s="26"/>
+      <c r="PT23" s="73"/>
+      <c r="PU23" s="27"/>
+      <c r="PV23" s="26"/>
+      <c r="PW23" s="26"/>
+      <c r="PX23" s="26"/>
+      <c r="PY23" s="26"/>
+      <c r="PZ23" s="26"/>
+      <c r="QA23" s="73"/>
+      <c r="QB23" s="27"/>
+      <c r="QC23" s="26"/>
+      <c r="QD23" s="26"/>
+      <c r="QE23" s="26"/>
+      <c r="QF23" s="26"/>
+      <c r="QG23" s="26"/>
+      <c r="QH23" s="73"/>
+      <c r="QI23" s="27"/>
+      <c r="QJ23" s="26"/>
+      <c r="QK23" s="26"/>
+      <c r="QL23" s="26"/>
+      <c r="QM23" s="26"/>
+      <c r="QN23" s="26"/>
+      <c r="QO23" s="73"/>
+      <c r="QP23" s="181"/>
+      <c r="QQ23" s="26"/>
+      <c r="QR23" s="26"/>
+      <c r="QS23" s="26"/>
+      <c r="QT23" s="26"/>
+      <c r="QU23" s="26"/>
+      <c r="QV23" s="73"/>
+      <c r="QW23" s="27"/>
+      <c r="QX23" s="26"/>
+      <c r="QY23" s="26"/>
+      <c r="QZ23" s="26"/>
+      <c r="RA23" s="26"/>
+      <c r="RB23" s="26"/>
+      <c r="RC23" s="73"/>
+      <c r="RD23" s="27"/>
+      <c r="RE23" s="26"/>
+      <c r="RF23" s="26"/>
+      <c r="RG23" s="26"/>
+      <c r="RH23" s="26"/>
+      <c r="RI23" s="26"/>
+      <c r="RJ23" s="73"/>
+      <c r="RK23" s="27"/>
+      <c r="RL23" s="26"/>
+      <c r="RM23" s="26"/>
+      <c r="RN23" s="37"/>
+      <c r="RO23" s="26"/>
+      <c r="RP23" s="26"/>
+      <c r="RQ23" s="73"/>
+      <c r="RR23" s="27"/>
+      <c r="RS23" s="26"/>
+      <c r="RT23" s="29"/>
     </row>
-    <row r="24" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="196"/>
+    <row r="24" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="200"/>
       <c r="B24" s="94"/>
       <c r="C24" s="95"/>
       <c r="D24" s="96"/>
@@ -11790,10 +13748,102 @@
       <c r="OC24" s="2"/>
       <c r="OD24" s="1"/>
       <c r="OE24" s="1"/>
-      <c r="OF24" s="4"/>
+      <c r="OF24" s="2"/>
+      <c r="OG24" s="20"/>
+      <c r="OH24" s="2"/>
+      <c r="OI24" s="36"/>
+      <c r="OJ24" s="2"/>
+      <c r="OK24" s="1"/>
+      <c r="OL24" s="1"/>
+      <c r="OM24" s="2"/>
+      <c r="ON24" s="2"/>
+      <c r="OO24" s="36"/>
+      <c r="OP24" s="2"/>
+      <c r="OQ24" s="2"/>
+      <c r="OR24" s="1"/>
+      <c r="OS24" s="1"/>
+      <c r="OT24" s="2"/>
+      <c r="OU24" s="2"/>
+      <c r="OV24" s="2"/>
+      <c r="OW24" s="2"/>
+      <c r="OX24" s="2"/>
+      <c r="OY24" s="1"/>
+      <c r="OZ24" s="1"/>
+      <c r="PA24" s="2"/>
+      <c r="PB24" s="2"/>
+      <c r="PC24" s="2"/>
+      <c r="PD24" s="2"/>
+      <c r="PE24" s="2"/>
+      <c r="PF24" s="1"/>
+      <c r="PG24" s="1"/>
+      <c r="PH24" s="2"/>
+      <c r="PI24" s="2"/>
+      <c r="PJ24" s="2"/>
+      <c r="PK24" s="4"/>
+      <c r="PL24" s="2"/>
+      <c r="PM24" s="1"/>
+      <c r="PN24" s="1"/>
+      <c r="PO24" s="2"/>
+      <c r="PP24" s="2"/>
+      <c r="PQ24" s="2"/>
+      <c r="PR24" s="2"/>
+      <c r="PS24" s="2"/>
+      <c r="PT24" s="1"/>
+      <c r="PU24" s="1"/>
+      <c r="PV24" s="2"/>
+      <c r="PW24" s="2"/>
+      <c r="PX24" s="2"/>
+      <c r="PY24" s="2"/>
+      <c r="PZ24" s="2"/>
+      <c r="QA24" s="1"/>
+      <c r="QB24" s="1"/>
+      <c r="QC24" s="2"/>
+      <c r="QD24" s="2"/>
+      <c r="QE24" s="2"/>
+      <c r="QF24" s="2"/>
+      <c r="QG24" s="2"/>
+      <c r="QH24" s="1"/>
+      <c r="QI24" s="1"/>
+      <c r="QJ24" s="2"/>
+      <c r="QK24" s="2"/>
+      <c r="QL24" s="2"/>
+      <c r="QM24" s="2"/>
+      <c r="QN24" s="2"/>
+      <c r="QO24" s="1"/>
+      <c r="QP24" s="183"/>
+      <c r="QQ24" s="2"/>
+      <c r="QR24" s="2"/>
+      <c r="QS24" s="2"/>
+      <c r="QT24" s="2"/>
+      <c r="QU24" s="2"/>
+      <c r="QV24" s="1"/>
+      <c r="QW24" s="1"/>
+      <c r="QX24" s="2"/>
+      <c r="QY24" s="2"/>
+      <c r="QZ24" s="2"/>
+      <c r="RA24" s="2"/>
+      <c r="RB24" s="2"/>
+      <c r="RC24" s="1"/>
+      <c r="RD24" s="1"/>
+      <c r="RE24" s="2"/>
+      <c r="RF24" s="2"/>
+      <c r="RG24" s="2"/>
+      <c r="RH24" s="2"/>
+      <c r="RI24" s="2"/>
+      <c r="RJ24" s="1"/>
+      <c r="RK24" s="1"/>
+      <c r="RL24" s="2"/>
+      <c r="RM24" s="2"/>
+      <c r="RN24" s="36"/>
+      <c r="RO24" s="2"/>
+      <c r="RP24" s="2"/>
+      <c r="RQ24" s="1"/>
+      <c r="RR24" s="1"/>
+      <c r="RS24" s="2"/>
+      <c r="RT24" s="4"/>
     </row>
-    <row r="25" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="196"/>
+    <row r="25" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="200"/>
       <c r="B25" s="94"/>
       <c r="C25" s="95"/>
       <c r="D25" s="96"/>
@@ -12141,7 +14191,7 @@
       <c r="MB25" s="2"/>
       <c r="MC25" s="2"/>
       <c r="MD25" s="2"/>
-      <c r="ME25" s="2" t="s">
+      <c r="ME25" s="191" t="s">
         <v>129</v>
       </c>
       <c r="MF25" s="2"/>
@@ -12188,8 +14238,8 @@
       <c r="NU25" s="2"/>
       <c r="NV25" s="2"/>
       <c r="NW25" s="1"/>
-      <c r="NX25" s="1" t="s">
-        <v>137</v>
+      <c r="NX25" s="191" t="s">
+        <v>142</v>
       </c>
       <c r="NY25" s="2"/>
       <c r="NZ25" s="2"/>
@@ -12198,10 +14248,106 @@
       <c r="OC25" s="2"/>
       <c r="OD25" s="1"/>
       <c r="OE25" s="1"/>
-      <c r="OF25" s="4"/>
+      <c r="OF25" s="2"/>
+      <c r="OG25" s="20"/>
+      <c r="OH25" s="2"/>
+      <c r="OI25" s="36"/>
+      <c r="OJ25" s="2"/>
+      <c r="OK25" s="1"/>
+      <c r="OL25" s="1"/>
+      <c r="OM25" s="2"/>
+      <c r="ON25" s="2"/>
+      <c r="OO25" s="36"/>
+      <c r="OP25" s="191" t="s">
+        <v>145</v>
+      </c>
+      <c r="OQ25" s="2"/>
+      <c r="OR25" s="1"/>
+      <c r="OS25" s="1"/>
+      <c r="OT25" s="2"/>
+      <c r="OU25" s="2"/>
+      <c r="OV25" s="2"/>
+      <c r="OW25" s="2"/>
+      <c r="OX25" s="2"/>
+      <c r="OY25" s="1"/>
+      <c r="OZ25" s="191" t="s">
+        <v>147</v>
+      </c>
+      <c r="PA25" s="2"/>
+      <c r="PB25" s="2"/>
+      <c r="PC25" s="2"/>
+      <c r="PD25" s="2"/>
+      <c r="PE25" s="2"/>
+      <c r="PF25" s="1"/>
+      <c r="PG25" s="1"/>
+      <c r="PH25" s="2"/>
+      <c r="PI25" s="2"/>
+      <c r="PJ25" s="2"/>
+      <c r="PK25" s="4"/>
+      <c r="PL25" s="2"/>
+      <c r="PM25" s="1"/>
+      <c r="PN25" s="1"/>
+      <c r="PO25" s="2"/>
+      <c r="PP25" s="2"/>
+      <c r="PQ25" s="2"/>
+      <c r="PR25" s="2"/>
+      <c r="PS25" s="2"/>
+      <c r="PT25" s="1"/>
+      <c r="PU25" s="1"/>
+      <c r="PV25" s="2"/>
+      <c r="PW25" s="2"/>
+      <c r="PX25" s="2"/>
+      <c r="PY25" s="2"/>
+      <c r="PZ25" s="2"/>
+      <c r="QA25" s="1"/>
+      <c r="QB25" s="1"/>
+      <c r="QC25" s="2"/>
+      <c r="QD25" s="2"/>
+      <c r="QE25" s="2"/>
+      <c r="QF25" s="2"/>
+      <c r="QG25" s="2"/>
+      <c r="QH25" s="1"/>
+      <c r="QI25" s="1"/>
+      <c r="QJ25" s="2"/>
+      <c r="QK25" s="2"/>
+      <c r="QL25" s="2"/>
+      <c r="QM25" s="2"/>
+      <c r="QN25" s="2"/>
+      <c r="QO25" s="1"/>
+      <c r="QP25" s="183"/>
+      <c r="QQ25" s="2"/>
+      <c r="QR25" s="2"/>
+      <c r="QS25" s="2"/>
+      <c r="QT25" s="2"/>
+      <c r="QU25" s="2"/>
+      <c r="QV25" s="1"/>
+      <c r="QW25" s="1"/>
+      <c r="QX25" s="2"/>
+      <c r="QY25" s="2"/>
+      <c r="QZ25" s="2"/>
+      <c r="RA25" s="2"/>
+      <c r="RB25" s="2"/>
+      <c r="RC25" s="1"/>
+      <c r="RD25" s="1"/>
+      <c r="RE25" s="2"/>
+      <c r="RF25" s="2"/>
+      <c r="RG25" s="2"/>
+      <c r="RH25" s="2"/>
+      <c r="RI25" s="2"/>
+      <c r="RJ25" s="1"/>
+      <c r="RK25" s="1"/>
+      <c r="RL25" s="2"/>
+      <c r="RM25" s="2"/>
+      <c r="RN25" s="36"/>
+      <c r="RO25" s="2"/>
+      <c r="RP25" s="2"/>
+      <c r="RQ25" s="1"/>
+      <c r="RR25" s="1"/>
+      <c r="RS25" s="2"/>
+      <c r="RT25" s="4"/>
     </row>
-    <row r="26" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="196"/>
+    <row r="26" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="200"/>
       <c r="B26" s="94"/>
       <c r="C26" s="95"/>
       <c r="D26" s="96"/>
@@ -12604,10 +14750,104 @@
       <c r="OC26" s="2"/>
       <c r="OD26" s="1"/>
       <c r="OE26" s="1"/>
-      <c r="OF26" s="4"/>
+      <c r="OF26" s="2"/>
+      <c r="OG26" s="20"/>
+      <c r="OH26" s="2"/>
+      <c r="OI26" s="36"/>
+      <c r="OJ26" s="2"/>
+      <c r="OK26" s="1"/>
+      <c r="OL26" s="1"/>
+      <c r="OM26" s="2"/>
+      <c r="ON26" s="2"/>
+      <c r="OO26" s="36"/>
+      <c r="OP26" s="2"/>
+      <c r="OQ26" s="2"/>
+      <c r="OR26" s="1"/>
+      <c r="OS26" s="1"/>
+      <c r="OT26" s="191" t="s">
+        <v>146</v>
+      </c>
+      <c r="OU26" s="2"/>
+      <c r="OV26" s="2"/>
+      <c r="OW26" s="2"/>
+      <c r="OX26" s="2"/>
+      <c r="OY26" s="1"/>
+      <c r="OZ26" s="1"/>
+      <c r="PA26" s="2"/>
+      <c r="PB26" s="2"/>
+      <c r="PC26" s="2"/>
+      <c r="PD26" s="2"/>
+      <c r="PE26" s="2"/>
+      <c r="PF26" s="1"/>
+      <c r="PG26" s="1"/>
+      <c r="PH26" s="2"/>
+      <c r="PI26" s="2"/>
+      <c r="PJ26" s="2"/>
+      <c r="PK26" s="4"/>
+      <c r="PL26" s="2"/>
+      <c r="PM26" s="1"/>
+      <c r="PN26" s="1"/>
+      <c r="PO26" s="2"/>
+      <c r="PP26" s="2"/>
+      <c r="PQ26" s="2"/>
+      <c r="PR26" s="2"/>
+      <c r="PS26" s="2"/>
+      <c r="PT26" s="1"/>
+      <c r="PU26" s="1"/>
+      <c r="PV26" s="2"/>
+      <c r="PW26" s="2"/>
+      <c r="PX26" s="2"/>
+      <c r="PY26" s="2"/>
+      <c r="PZ26" s="2"/>
+      <c r="QA26" s="1"/>
+      <c r="QB26" s="1"/>
+      <c r="QC26" s="2"/>
+      <c r="QD26" s="2"/>
+      <c r="QE26" s="2"/>
+      <c r="QF26" s="2"/>
+      <c r="QG26" s="2"/>
+      <c r="QH26" s="1"/>
+      <c r="QI26" s="1"/>
+      <c r="QJ26" s="2"/>
+      <c r="QK26" s="2"/>
+      <c r="QL26" s="2"/>
+      <c r="QM26" s="2"/>
+      <c r="QN26" s="2"/>
+      <c r="QO26" s="1"/>
+      <c r="QP26" s="183"/>
+      <c r="QQ26" s="2"/>
+      <c r="QR26" s="2"/>
+      <c r="QS26" s="2"/>
+      <c r="QT26" s="2"/>
+      <c r="QU26" s="2"/>
+      <c r="QV26" s="1"/>
+      <c r="QW26" s="1"/>
+      <c r="QX26" s="2"/>
+      <c r="QY26" s="2"/>
+      <c r="QZ26" s="2"/>
+      <c r="RA26" s="2"/>
+      <c r="RB26" s="2"/>
+      <c r="RC26" s="1"/>
+      <c r="RD26" s="1"/>
+      <c r="RE26" s="2"/>
+      <c r="RF26" s="2"/>
+      <c r="RG26" s="2"/>
+      <c r="RH26" s="2"/>
+      <c r="RI26" s="2"/>
+      <c r="RJ26" s="1"/>
+      <c r="RK26" s="1"/>
+      <c r="RL26" s="2"/>
+      <c r="RM26" s="2"/>
+      <c r="RN26" s="36"/>
+      <c r="RO26" s="2"/>
+      <c r="RP26" s="2"/>
+      <c r="RQ26" s="1"/>
+      <c r="RR26" s="1"/>
+      <c r="RS26" s="2"/>
+      <c r="RT26" s="4"/>
     </row>
-    <row r="27" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="196"/>
+    <row r="27" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="200"/>
       <c r="B27" s="94"/>
       <c r="C27" s="95"/>
       <c r="D27" s="96"/>
@@ -13008,10 +15248,102 @@
       <c r="OC27" s="2"/>
       <c r="OD27" s="1"/>
       <c r="OE27" s="1"/>
-      <c r="OF27" s="4"/>
+      <c r="OF27" s="2"/>
+      <c r="OG27" s="20"/>
+      <c r="OH27" s="2"/>
+      <c r="OI27" s="36"/>
+      <c r="OJ27" s="2"/>
+      <c r="OK27" s="1"/>
+      <c r="OL27" s="1"/>
+      <c r="OM27" s="2"/>
+      <c r="ON27" s="2"/>
+      <c r="OO27" s="36"/>
+      <c r="OP27" s="2"/>
+      <c r="OQ27" s="2"/>
+      <c r="OR27" s="1"/>
+      <c r="OS27" s="1"/>
+      <c r="OT27" s="2"/>
+      <c r="OU27" s="2"/>
+      <c r="OV27" s="2"/>
+      <c r="OW27" s="2"/>
+      <c r="OX27" s="2"/>
+      <c r="OY27" s="1"/>
+      <c r="OZ27" s="1"/>
+      <c r="PA27" s="2"/>
+      <c r="PB27" s="2"/>
+      <c r="PC27" s="2"/>
+      <c r="PD27" s="2"/>
+      <c r="PE27" s="2"/>
+      <c r="PF27" s="1"/>
+      <c r="PG27" s="1"/>
+      <c r="PH27" s="2"/>
+      <c r="PI27" s="2"/>
+      <c r="PJ27" s="2"/>
+      <c r="PK27" s="4"/>
+      <c r="PL27" s="2"/>
+      <c r="PM27" s="1"/>
+      <c r="PN27" s="1"/>
+      <c r="PO27" s="2"/>
+      <c r="PP27" s="2"/>
+      <c r="PQ27" s="2"/>
+      <c r="PR27" s="2"/>
+      <c r="PS27" s="2"/>
+      <c r="PT27" s="1"/>
+      <c r="PU27" s="1"/>
+      <c r="PV27" s="2"/>
+      <c r="PW27" s="2"/>
+      <c r="PX27" s="2"/>
+      <c r="PY27" s="2"/>
+      <c r="PZ27" s="2"/>
+      <c r="QA27" s="1"/>
+      <c r="QB27" s="1"/>
+      <c r="QC27" s="2"/>
+      <c r="QD27" s="2"/>
+      <c r="QE27" s="2"/>
+      <c r="QF27" s="2"/>
+      <c r="QG27" s="2"/>
+      <c r="QH27" s="1"/>
+      <c r="QI27" s="1"/>
+      <c r="QJ27" s="2"/>
+      <c r="QK27" s="2"/>
+      <c r="QL27" s="2"/>
+      <c r="QM27" s="2"/>
+      <c r="QN27" s="2"/>
+      <c r="QO27" s="1"/>
+      <c r="QP27" s="183"/>
+      <c r="QQ27" s="2"/>
+      <c r="QR27" s="2"/>
+      <c r="QS27" s="2"/>
+      <c r="QT27" s="2"/>
+      <c r="QU27" s="2"/>
+      <c r="QV27" s="1"/>
+      <c r="QW27" s="1"/>
+      <c r="QX27" s="2"/>
+      <c r="QY27" s="2"/>
+      <c r="QZ27" s="2"/>
+      <c r="RA27" s="2"/>
+      <c r="RB27" s="2"/>
+      <c r="RC27" s="1"/>
+      <c r="RD27" s="1"/>
+      <c r="RE27" s="2"/>
+      <c r="RF27" s="2"/>
+      <c r="RG27" s="2"/>
+      <c r="RH27" s="2"/>
+      <c r="RI27" s="2"/>
+      <c r="RJ27" s="1"/>
+      <c r="RK27" s="1"/>
+      <c r="RL27" s="2"/>
+      <c r="RM27" s="2"/>
+      <c r="RN27" s="36"/>
+      <c r="RO27" s="2"/>
+      <c r="RP27" s="2"/>
+      <c r="RQ27" s="1"/>
+      <c r="RR27" s="1"/>
+      <c r="RS27" s="2"/>
+      <c r="RT27" s="4"/>
     </row>
-    <row r="28" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="196"/>
+    <row r="28" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="200"/>
       <c r="B28" s="94"/>
       <c r="C28" s="95"/>
       <c r="D28" s="96"/>
@@ -13408,10 +15740,102 @@
       <c r="OC28" s="2"/>
       <c r="OD28" s="1"/>
       <c r="OE28" s="1"/>
-      <c r="OF28" s="4"/>
+      <c r="OF28" s="2"/>
+      <c r="OG28" s="20"/>
+      <c r="OH28" s="2"/>
+      <c r="OI28" s="36"/>
+      <c r="OJ28" s="2"/>
+      <c r="OK28" s="1"/>
+      <c r="OL28" s="1"/>
+      <c r="OM28" s="2"/>
+      <c r="ON28" s="2"/>
+      <c r="OO28" s="36"/>
+      <c r="OP28" s="2"/>
+      <c r="OQ28" s="2"/>
+      <c r="OR28" s="1"/>
+      <c r="OS28" s="1"/>
+      <c r="OT28" s="2"/>
+      <c r="OU28" s="2"/>
+      <c r="OV28" s="2"/>
+      <c r="OW28" s="2"/>
+      <c r="OX28" s="2"/>
+      <c r="OY28" s="1"/>
+      <c r="OZ28" s="1"/>
+      <c r="PA28" s="2"/>
+      <c r="PB28" s="2"/>
+      <c r="PC28" s="2"/>
+      <c r="PD28" s="2"/>
+      <c r="PE28" s="2"/>
+      <c r="PF28" s="1"/>
+      <c r="PG28" s="1"/>
+      <c r="PH28" s="2"/>
+      <c r="PI28" s="2"/>
+      <c r="PJ28" s="2"/>
+      <c r="PK28" s="4"/>
+      <c r="PL28" s="2"/>
+      <c r="PM28" s="1"/>
+      <c r="PN28" s="1"/>
+      <c r="PO28" s="2"/>
+      <c r="PP28" s="2"/>
+      <c r="PQ28" s="2"/>
+      <c r="PR28" s="2"/>
+      <c r="PS28" s="2"/>
+      <c r="PT28" s="1"/>
+      <c r="PU28" s="1"/>
+      <c r="PV28" s="2"/>
+      <c r="PW28" s="2"/>
+      <c r="PX28" s="2"/>
+      <c r="PY28" s="2"/>
+      <c r="PZ28" s="2"/>
+      <c r="QA28" s="1"/>
+      <c r="QB28" s="1"/>
+      <c r="QC28" s="2"/>
+      <c r="QD28" s="2"/>
+      <c r="QE28" s="2"/>
+      <c r="QF28" s="2"/>
+      <c r="QG28" s="2"/>
+      <c r="QH28" s="1"/>
+      <c r="QI28" s="1"/>
+      <c r="QJ28" s="2"/>
+      <c r="QK28" s="2"/>
+      <c r="QL28" s="2"/>
+      <c r="QM28" s="2"/>
+      <c r="QN28" s="2"/>
+      <c r="QO28" s="1"/>
+      <c r="QP28" s="183"/>
+      <c r="QQ28" s="2"/>
+      <c r="QR28" s="2"/>
+      <c r="QS28" s="2"/>
+      <c r="QT28" s="2"/>
+      <c r="QU28" s="2"/>
+      <c r="QV28" s="1"/>
+      <c r="QW28" s="1"/>
+      <c r="QX28" s="2"/>
+      <c r="QY28" s="2"/>
+      <c r="QZ28" s="2"/>
+      <c r="RA28" s="2"/>
+      <c r="RB28" s="2"/>
+      <c r="RC28" s="1"/>
+      <c r="RD28" s="1"/>
+      <c r="RE28" s="2"/>
+      <c r="RF28" s="2"/>
+      <c r="RG28" s="2"/>
+      <c r="RH28" s="2"/>
+      <c r="RI28" s="2"/>
+      <c r="RJ28" s="1"/>
+      <c r="RK28" s="1"/>
+      <c r="RL28" s="2"/>
+      <c r="RM28" s="2"/>
+      <c r="RN28" s="36"/>
+      <c r="RO28" s="2"/>
+      <c r="RP28" s="2"/>
+      <c r="RQ28" s="1"/>
+      <c r="RR28" s="1"/>
+      <c r="RS28" s="2"/>
+      <c r="RT28" s="4"/>
     </row>
-    <row r="29" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="196"/>
+    <row r="29" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="200"/>
       <c r="B29" s="94"/>
       <c r="C29" s="95"/>
       <c r="D29" s="96"/>
@@ -13808,10 +16232,102 @@
       <c r="OC29" s="2"/>
       <c r="OD29" s="1"/>
       <c r="OE29" s="1"/>
-      <c r="OF29" s="4"/>
+      <c r="OF29" s="2"/>
+      <c r="OG29" s="20"/>
+      <c r="OH29" s="2"/>
+      <c r="OI29" s="36"/>
+      <c r="OJ29" s="2"/>
+      <c r="OK29" s="1"/>
+      <c r="OL29" s="1"/>
+      <c r="OM29" s="2"/>
+      <c r="ON29" s="2"/>
+      <c r="OO29" s="36"/>
+      <c r="OP29" s="2"/>
+      <c r="OQ29" s="2"/>
+      <c r="OR29" s="1"/>
+      <c r="OS29" s="1"/>
+      <c r="OT29" s="2"/>
+      <c r="OU29" s="2"/>
+      <c r="OV29" s="2"/>
+      <c r="OW29" s="2"/>
+      <c r="OX29" s="2"/>
+      <c r="OY29" s="1"/>
+      <c r="OZ29" s="1"/>
+      <c r="PA29" s="2"/>
+      <c r="PB29" s="2"/>
+      <c r="PC29" s="2"/>
+      <c r="PD29" s="2"/>
+      <c r="PE29" s="2"/>
+      <c r="PF29" s="1"/>
+      <c r="PG29" s="1"/>
+      <c r="PH29" s="2"/>
+      <c r="PI29" s="2"/>
+      <c r="PJ29" s="2"/>
+      <c r="PK29" s="4"/>
+      <c r="PL29" s="2"/>
+      <c r="PM29" s="1"/>
+      <c r="PN29" s="1"/>
+      <c r="PO29" s="2"/>
+      <c r="PP29" s="2"/>
+      <c r="PQ29" s="2"/>
+      <c r="PR29" s="2"/>
+      <c r="PS29" s="2"/>
+      <c r="PT29" s="1"/>
+      <c r="PU29" s="1"/>
+      <c r="PV29" s="2"/>
+      <c r="PW29" s="2"/>
+      <c r="PX29" s="2"/>
+      <c r="PY29" s="2"/>
+      <c r="PZ29" s="2"/>
+      <c r="QA29" s="1"/>
+      <c r="QB29" s="1"/>
+      <c r="QC29" s="2"/>
+      <c r="QD29" s="2"/>
+      <c r="QE29" s="2"/>
+      <c r="QF29" s="2"/>
+      <c r="QG29" s="2"/>
+      <c r="QH29" s="1"/>
+      <c r="QI29" s="1"/>
+      <c r="QJ29" s="2"/>
+      <c r="QK29" s="2"/>
+      <c r="QL29" s="2"/>
+      <c r="QM29" s="2"/>
+      <c r="QN29" s="2"/>
+      <c r="QO29" s="1"/>
+      <c r="QP29" s="183"/>
+      <c r="QQ29" s="2"/>
+      <c r="QR29" s="2"/>
+      <c r="QS29" s="2"/>
+      <c r="QT29" s="2"/>
+      <c r="QU29" s="2"/>
+      <c r="QV29" s="1"/>
+      <c r="QW29" s="1"/>
+      <c r="QX29" s="2"/>
+      <c r="QY29" s="2"/>
+      <c r="QZ29" s="2"/>
+      <c r="RA29" s="2"/>
+      <c r="RB29" s="2"/>
+      <c r="RC29" s="1"/>
+      <c r="RD29" s="1"/>
+      <c r="RE29" s="2"/>
+      <c r="RF29" s="2"/>
+      <c r="RG29" s="2"/>
+      <c r="RH29" s="2"/>
+      <c r="RI29" s="2"/>
+      <c r="RJ29" s="1"/>
+      <c r="RK29" s="1"/>
+      <c r="RL29" s="2"/>
+      <c r="RM29" s="2"/>
+      <c r="RN29" s="36"/>
+      <c r="RO29" s="2"/>
+      <c r="RP29" s="2"/>
+      <c r="RQ29" s="1"/>
+      <c r="RR29" s="1"/>
+      <c r="RS29" s="2"/>
+      <c r="RT29" s="4"/>
     </row>
-    <row r="30" spans="1:396" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="196"/>
+    <row r="30" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="200"/>
       <c r="B30" s="101"/>
       <c r="C30" s="102"/>
       <c r="D30" s="103"/>
@@ -14206,12 +16722,104 @@
       <c r="OC30" s="23"/>
       <c r="OD30" s="24"/>
       <c r="OE30" s="24"/>
-      <c r="OF30" s="25"/>
+      <c r="OF30" s="23"/>
+      <c r="OG30" s="22"/>
+      <c r="OH30" s="23"/>
+      <c r="OI30" s="38"/>
+      <c r="OJ30" s="23"/>
+      <c r="OK30" s="24"/>
+      <c r="OL30" s="24"/>
+      <c r="OM30" s="23"/>
+      <c r="ON30" s="23"/>
+      <c r="OO30" s="38"/>
+      <c r="OP30" s="23"/>
+      <c r="OQ30" s="23"/>
+      <c r="OR30" s="24"/>
+      <c r="OS30" s="24"/>
+      <c r="OT30" s="23"/>
+      <c r="OU30" s="23"/>
+      <c r="OV30" s="23"/>
+      <c r="OW30" s="23"/>
+      <c r="OX30" s="23"/>
+      <c r="OY30" s="24"/>
+      <c r="OZ30" s="24"/>
+      <c r="PA30" s="23"/>
+      <c r="PB30" s="23"/>
+      <c r="PC30" s="23"/>
+      <c r="PD30" s="23"/>
+      <c r="PE30" s="23"/>
+      <c r="PF30" s="24"/>
+      <c r="PG30" s="24"/>
+      <c r="PH30" s="23"/>
+      <c r="PI30" s="23"/>
+      <c r="PJ30" s="23"/>
+      <c r="PK30" s="25"/>
+      <c r="PL30" s="23"/>
+      <c r="PM30" s="24"/>
+      <c r="PN30" s="24"/>
+      <c r="PO30" s="23"/>
+      <c r="PP30" s="23"/>
+      <c r="PQ30" s="23"/>
+      <c r="PR30" s="23"/>
+      <c r="PS30" s="23"/>
+      <c r="PT30" s="24"/>
+      <c r="PU30" s="24"/>
+      <c r="PV30" s="23"/>
+      <c r="PW30" s="23"/>
+      <c r="PX30" s="23"/>
+      <c r="PY30" s="23"/>
+      <c r="PZ30" s="23"/>
+      <c r="QA30" s="24"/>
+      <c r="QB30" s="24"/>
+      <c r="QC30" s="23"/>
+      <c r="QD30" s="23"/>
+      <c r="QE30" s="23"/>
+      <c r="QF30" s="23"/>
+      <c r="QG30" s="23"/>
+      <c r="QH30" s="24"/>
+      <c r="QI30" s="24"/>
+      <c r="QJ30" s="23"/>
+      <c r="QK30" s="23"/>
+      <c r="QL30" s="23"/>
+      <c r="QM30" s="23"/>
+      <c r="QN30" s="23"/>
+      <c r="QO30" s="24"/>
+      <c r="QP30" s="185"/>
+      <c r="QQ30" s="23"/>
+      <c r="QR30" s="23"/>
+      <c r="QS30" s="23"/>
+      <c r="QT30" s="23"/>
+      <c r="QU30" s="23"/>
+      <c r="QV30" s="24"/>
+      <c r="QW30" s="24"/>
+      <c r="QX30" s="23"/>
+      <c r="QY30" s="23"/>
+      <c r="QZ30" s="23"/>
+      <c r="RA30" s="23"/>
+      <c r="RB30" s="23"/>
+      <c r="RC30" s="24"/>
+      <c r="RD30" s="24"/>
+      <c r="RE30" s="23"/>
+      <c r="RF30" s="23"/>
+      <c r="RG30" s="23"/>
+      <c r="RH30" s="23"/>
+      <c r="RI30" s="23"/>
+      <c r="RJ30" s="24"/>
+      <c r="RK30" s="24"/>
+      <c r="RL30" s="23"/>
+      <c r="RM30" s="23"/>
+      <c r="RN30" s="38"/>
+      <c r="RO30" s="23"/>
+      <c r="RP30" s="23"/>
+      <c r="RQ30" s="24"/>
+      <c r="RR30" s="24"/>
+      <c r="RS30" s="23"/>
+      <c r="RT30" s="25"/>
     </row>
-    <row r="31" spans="1:396" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:488" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="47"/>
     </row>
-    <row r="32" spans="1:396" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:488" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="47"/>
     </row>
     <row r="33" spans="1:274" s="53" customFormat="1" x14ac:dyDescent="0.3">
@@ -15456,9 +18064,12 @@
       <c r="JN47" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="NC6:OF6"/>
-    <mergeCell ref="LX6:NB6"/>
+  <mergeCells count="19">
+    <mergeCell ref="KS6:LW6"/>
+    <mergeCell ref="JO6:KR6"/>
+    <mergeCell ref="IJ6:JN6"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A15:A22"/>
     <mergeCell ref="A23:A30"/>
     <mergeCell ref="GA6:HE6"/>
     <mergeCell ref="HF6:II6"/>
@@ -15468,11 +18079,11 @@
     <mergeCell ref="B6:AE6"/>
     <mergeCell ref="AF6:BJ6"/>
     <mergeCell ref="BK6:CN6"/>
-    <mergeCell ref="KS6:LW6"/>
-    <mergeCell ref="JO6:KR6"/>
-    <mergeCell ref="IJ6:JN6"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="OG6:PK6"/>
+    <mergeCell ref="PL6:QO6"/>
+    <mergeCell ref="QP6:RT6"/>
+    <mergeCell ref="NC6:OF6"/>
+    <mergeCell ref="LX6:NB6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15488,7 +18099,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H109" sqref="H109"/>
+      <selection pane="bottomLeft" activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15519,10 +18130,10 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="213">
+      <c r="B4" s="215">
         <v>2018.12</v>
       </c>
-      <c r="C4" s="210"/>
+      <c r="C4" s="212"/>
       <c r="D4" s="138">
         <f>SUM(D5:D13)</f>
         <v>42</v>
@@ -15530,7 +18141,7 @@
       <c r="E4" s="139"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="214">
+      <c r="B5" s="216">
         <v>12</v>
       </c>
       <c r="C5" s="142">
@@ -15544,7 +18155,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="215"/>
+      <c r="B6" s="217"/>
       <c r="C6" s="140">
         <v>17</v>
       </c>
@@ -15556,7 +18167,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="215"/>
+      <c r="B7" s="217"/>
       <c r="C7" s="140">
         <v>19</v>
       </c>
@@ -15568,7 +18179,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="215"/>
+      <c r="B8" s="217"/>
       <c r="C8" s="133">
         <v>22</v>
       </c>
@@ -15580,7 +18191,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="215"/>
+      <c r="B9" s="217"/>
       <c r="C9" s="133">
         <v>23</v>
       </c>
@@ -15592,7 +18203,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="215"/>
+      <c r="B10" s="217"/>
       <c r="C10" s="133">
         <v>25</v>
       </c>
@@ -15604,7 +18215,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="215"/>
+      <c r="B11" s="217"/>
       <c r="C11" s="133">
         <v>26</v>
       </c>
@@ -15616,7 +18227,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="215"/>
+      <c r="B12" s="217"/>
       <c r="C12" s="133">
         <v>29</v>
       </c>
@@ -15628,7 +18239,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="216"/>
+      <c r="B13" s="218"/>
       <c r="C13" s="136">
         <v>30</v>
       </c>
@@ -15640,10 +18251,10 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="211">
+      <c r="B14" s="213">
         <v>2019.01</v>
       </c>
-      <c r="C14" s="212"/>
+      <c r="C14" s="214"/>
       <c r="D14" s="153">
         <f>SUM(D15:D23)</f>
         <v>34</v>
@@ -15651,7 +18262,7 @@
       <c r="E14" s="154"/>
     </row>
     <row r="15" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="217">
+      <c r="B15" s="219">
         <v>1</v>
       </c>
       <c r="C15" s="133">
@@ -15665,7 +18276,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="218"/>
+      <c r="B16" s="220"/>
       <c r="C16" s="133">
         <v>5</v>
       </c>
@@ -15677,7 +18288,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="218"/>
+      <c r="B17" s="220"/>
       <c r="C17" s="133">
         <v>13</v>
       </c>
@@ -15689,7 +18300,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="218"/>
+      <c r="B18" s="220"/>
       <c r="C18" s="133">
         <v>15</v>
       </c>
@@ -15701,7 +18312,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B19" s="218"/>
+      <c r="B19" s="220"/>
       <c r="C19" s="133">
         <v>17</v>
       </c>
@@ -15713,7 +18324,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="218"/>
+      <c r="B20" s="220"/>
       <c r="C20" s="133">
         <v>18</v>
       </c>
@@ -15725,7 +18336,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="218"/>
+      <c r="B21" s="220"/>
       <c r="C21" s="133">
         <v>21</v>
       </c>
@@ -15737,7 +18348,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="218"/>
+      <c r="B22" s="220"/>
       <c r="C22" s="133">
         <v>22</v>
       </c>
@@ -15749,7 +18360,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="219"/>
+      <c r="B23" s="221"/>
       <c r="C23" s="136">
         <v>28</v>
       </c>
@@ -15761,10 +18372,10 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="213">
+      <c r="B24" s="215">
         <v>2019.02</v>
       </c>
-      <c r="C24" s="210"/>
+      <c r="C24" s="212"/>
       <c r="D24" s="138">
         <f>SUM(D25:D30)</f>
         <v>20</v>
@@ -15772,7 +18383,7 @@
       <c r="E24" s="141"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="217">
+      <c r="B25" s="219">
         <v>2</v>
       </c>
       <c r="C25" s="133">
@@ -15786,7 +18397,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="218"/>
+      <c r="B26" s="220"/>
       <c r="C26" s="133">
         <v>11</v>
       </c>
@@ -15798,7 +18409,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="218"/>
+      <c r="B27" s="220"/>
       <c r="C27" s="133">
         <v>12</v>
       </c>
@@ -15810,7 +18421,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="218"/>
+      <c r="B28" s="220"/>
       <c r="C28" s="133">
         <v>12</v>
       </c>
@@ -15822,7 +18433,7 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="218"/>
+      <c r="B29" s="220"/>
       <c r="C29" s="133">
         <v>24</v>
       </c>
@@ -15834,7 +18445,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="218"/>
+      <c r="B30" s="220"/>
       <c r="C30" s="164">
         <v>26</v>
       </c>
@@ -15846,10 +18457,10 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="211">
+      <c r="B31" s="213">
         <v>2019.03</v>
       </c>
-      <c r="C31" s="212"/>
+      <c r="C31" s="214"/>
       <c r="D31" s="153">
         <f>SUM(D32:D43)</f>
         <v>51</v>
@@ -16001,10 +18612,10 @@
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="211">
+      <c r="B44" s="213">
         <v>2019.04</v>
       </c>
-      <c r="C44" s="212"/>
+      <c r="C44" s="214"/>
       <c r="D44" s="153">
         <f>SUM(D45:D58)</f>
         <v>50</v>
@@ -16180,10 +18791,10 @@
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="211">
+      <c r="B59" s="213">
         <v>2019.05</v>
       </c>
-      <c r="C59" s="212"/>
+      <c r="C59" s="214"/>
       <c r="D59" s="153">
         <f>SUM(D60:D71)</f>
         <v>43</v>
@@ -16335,10 +18946,10 @@
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B72" s="211">
+      <c r="B72" s="213">
         <v>2019.06</v>
       </c>
-      <c r="C72" s="212"/>
+      <c r="C72" s="214"/>
       <c r="D72" s="153">
         <f>SUM(D73:D76)</f>
         <v>18</v>
@@ -16394,10 +19005,10 @@
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B77" s="213">
+      <c r="B77" s="215">
         <v>2019.07</v>
       </c>
-      <c r="C77" s="210"/>
+      <c r="C77" s="212"/>
       <c r="D77" s="138">
         <f>SUM(D78:D87)</f>
         <v>46</v>
@@ -16525,10 +19136,10 @@
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B88" s="213">
+      <c r="B88" s="215">
         <v>2019.08</v>
       </c>
-      <c r="C88" s="210"/>
+      <c r="C88" s="212"/>
       <c r="D88" s="138">
         <f>SUM(D89:D94)</f>
         <v>19</v>
@@ -16596,10 +19207,10 @@
       <c r="E94" s="167"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B95" s="213">
+      <c r="B95" s="215">
         <v>2019.09</v>
       </c>
-      <c r="C95" s="210"/>
+      <c r="C95" s="212"/>
       <c r="D95" s="138">
         <f>SUM(D96:D102)</f>
         <v>36</v>
@@ -16663,7 +19274,7 @@
         <v>6</v>
       </c>
       <c r="E100" s="167" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.3">
@@ -16675,7 +19286,7 @@
         <v>6</v>
       </c>
       <c r="E101" s="167" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.3">
@@ -16687,7 +19298,7 @@
         <v>8</v>
       </c>
       <c r="E102" s="167" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.3">
@@ -16697,13 +19308,13 @@
       <c r="E103" s="167"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B104" s="209" t="s">
-        <v>141</v>
-      </c>
-      <c r="C104" s="210"/>
+      <c r="B104" s="211" t="s">
+        <v>140</v>
+      </c>
+      <c r="C104" s="212"/>
       <c r="D104" s="138">
         <f>SUM(D105:D116)</f>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E104" s="141"/>
     </row>
@@ -16716,7 +19327,7 @@
         <v>5</v>
       </c>
       <c r="E105" s="167" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.3">
@@ -16728,7 +19339,7 @@
         <v>6</v>
       </c>
       <c r="E106" s="167" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.3">
@@ -16740,7 +19351,7 @@
         <v>4</v>
       </c>
       <c r="E107" s="167" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.3">
@@ -16752,7 +19363,7 @@
         <v>8</v>
       </c>
       <c r="E108" s="167" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.3">
@@ -16764,7 +19375,7 @@
         <v>4</v>
       </c>
       <c r="E109" s="167" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.3">
@@ -16776,7 +19387,7 @@
         <v>5</v>
       </c>
       <c r="E110" s="167" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.3">
@@ -16788,7 +19399,7 @@
         <v>6</v>
       </c>
       <c r="E111" s="167" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.3">
@@ -16800,7 +19411,7 @@
         <v>3</v>
       </c>
       <c r="E112" s="167" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.3">
@@ -16812,20 +19423,32 @@
         <v>3</v>
       </c>
       <c r="E113" s="167" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B114" s="163"/>
-      <c r="C114" s="164"/>
-      <c r="D114" s="165"/>
-      <c r="E114" s="167"/>
+      <c r="C114" s="164">
+        <v>24</v>
+      </c>
+      <c r="D114" s="165">
+        <v>2</v>
+      </c>
+      <c r="E114" s="167" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B115" s="163"/>
-      <c r="C115" s="164"/>
-      <c r="D115" s="165"/>
-      <c r="E115" s="167"/>
+      <c r="C115" s="164">
+        <v>24</v>
+      </c>
+      <c r="D115" s="165">
+        <v>3</v>
+      </c>
+      <c r="E115" s="167" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B116" s="163"/>

--- a/Plasma Project schedule V1.0_20191015.xlsx
+++ b/Plasma Project schedule V1.0_20191015.xlsx
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="150">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1947,7 +1947,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1956,14 +1956,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1983,14 +1989,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2068,7 +2068,7 @@
         <xdr:cNvPr id="52" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2125,7 +2125,7 @@
         <xdr:cNvPr id="15" name="직선 화살표 연결선 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2182,7 +2182,7 @@
         <xdr:cNvPr id="18" name="직선 화살표 연결선 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2239,7 +2239,7 @@
         <xdr:cNvPr id="21" name="직선 화살표 연결선 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2296,7 +2296,7 @@
         <xdr:cNvPr id="25" name="직선 화살표 연결선 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2353,7 +2353,7 @@
         <xdr:cNvPr id="28" name="직선 화살표 연결선 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2410,7 +2410,7 @@
         <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2467,7 +2467,7 @@
         <xdr:cNvPr id="33" name="직선 화살표 연결선 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2524,7 +2524,7 @@
         <xdr:cNvPr id="36" name="직선 화살표 연결선 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2581,7 +2581,7 @@
         <xdr:cNvPr id="38" name="직선 화살표 연결선 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2638,7 +2638,7 @@
         <xdr:cNvPr id="41" name="직선 화살표 연결선 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2695,7 +2695,7 @@
         <xdr:cNvPr id="46" name="직선 화살표 연결선 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2752,7 +2752,7 @@
         <xdr:cNvPr id="14" name="직선 화살표 연결선 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2809,7 +2809,7 @@
         <xdr:cNvPr id="16" name="직선 화살표 연결선 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2866,7 +2866,7 @@
         <xdr:cNvPr id="19" name="직선 화살표 연결선 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2923,7 +2923,7 @@
         <xdr:cNvPr id="17" name="직선 화살표 연결선 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2980,7 +2980,7 @@
         <xdr:cNvPr id="20" name="직선 화살표 연결선 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3037,7 +3037,7 @@
         <xdr:cNvPr id="22" name="직선 화살표 연결선 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3418,233 +3418,233 @@
     </row>
     <row r="6" spans="1:488" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="50"/>
-      <c r="B6" s="205">
+      <c r="B6" s="207">
         <v>9</v>
       </c>
-      <c r="C6" s="206"/>
-      <c r="D6" s="206"/>
-      <c r="E6" s="206"/>
-      <c r="F6" s="206"/>
-      <c r="G6" s="206"/>
-      <c r="H6" s="206"/>
-      <c r="I6" s="206"/>
-      <c r="J6" s="206"/>
-      <c r="K6" s="206"/>
-      <c r="L6" s="206"/>
-      <c r="M6" s="206"/>
-      <c r="N6" s="206"/>
-      <c r="O6" s="206"/>
-      <c r="P6" s="206"/>
-      <c r="Q6" s="206"/>
-      <c r="R6" s="206"/>
-      <c r="S6" s="206"/>
-      <c r="T6" s="206"/>
-      <c r="U6" s="206"/>
-      <c r="V6" s="206"/>
-      <c r="W6" s="206"/>
-      <c r="X6" s="206"/>
-      <c r="Y6" s="206"/>
-      <c r="Z6" s="206"/>
-      <c r="AA6" s="206"/>
-      <c r="AB6" s="206"/>
-      <c r="AC6" s="206"/>
-      <c r="AD6" s="206"/>
-      <c r="AE6" s="207"/>
-      <c r="AF6" s="202">
+      <c r="C6" s="208"/>
+      <c r="D6" s="208"/>
+      <c r="E6" s="208"/>
+      <c r="F6" s="208"/>
+      <c r="G6" s="208"/>
+      <c r="H6" s="208"/>
+      <c r="I6" s="208"/>
+      <c r="J6" s="208"/>
+      <c r="K6" s="208"/>
+      <c r="L6" s="208"/>
+      <c r="M6" s="208"/>
+      <c r="N6" s="208"/>
+      <c r="O6" s="208"/>
+      <c r="P6" s="208"/>
+      <c r="Q6" s="208"/>
+      <c r="R6" s="208"/>
+      <c r="S6" s="208"/>
+      <c r="T6" s="208"/>
+      <c r="U6" s="208"/>
+      <c r="V6" s="208"/>
+      <c r="W6" s="208"/>
+      <c r="X6" s="208"/>
+      <c r="Y6" s="208"/>
+      <c r="Z6" s="208"/>
+      <c r="AA6" s="208"/>
+      <c r="AB6" s="208"/>
+      <c r="AC6" s="208"/>
+      <c r="AD6" s="208"/>
+      <c r="AE6" s="209"/>
+      <c r="AF6" s="204">
         <v>10</v>
       </c>
-      <c r="AG6" s="202"/>
-      <c r="AH6" s="202"/>
-      <c r="AI6" s="202"/>
-      <c r="AJ6" s="202"/>
-      <c r="AK6" s="202"/>
-      <c r="AL6" s="202"/>
-      <c r="AM6" s="202"/>
-      <c r="AN6" s="202"/>
-      <c r="AO6" s="202"/>
-      <c r="AP6" s="202"/>
-      <c r="AQ6" s="202"/>
-      <c r="AR6" s="202"/>
-      <c r="AS6" s="202"/>
-      <c r="AT6" s="202"/>
-      <c r="AU6" s="202"/>
-      <c r="AV6" s="202"/>
-      <c r="AW6" s="202"/>
-      <c r="AX6" s="202"/>
-      <c r="AY6" s="202"/>
-      <c r="AZ6" s="202"/>
-      <c r="BA6" s="202"/>
-      <c r="BB6" s="202"/>
-      <c r="BC6" s="202"/>
-      <c r="BD6" s="202"/>
-      <c r="BE6" s="202"/>
-      <c r="BF6" s="202"/>
-      <c r="BG6" s="202"/>
-      <c r="BH6" s="202"/>
-      <c r="BI6" s="202"/>
-      <c r="BJ6" s="203"/>
-      <c r="BK6" s="205">
+      <c r="AG6" s="204"/>
+      <c r="AH6" s="204"/>
+      <c r="AI6" s="204"/>
+      <c r="AJ6" s="204"/>
+      <c r="AK6" s="204"/>
+      <c r="AL6" s="204"/>
+      <c r="AM6" s="204"/>
+      <c r="AN6" s="204"/>
+      <c r="AO6" s="204"/>
+      <c r="AP6" s="204"/>
+      <c r="AQ6" s="204"/>
+      <c r="AR6" s="204"/>
+      <c r="AS6" s="204"/>
+      <c r="AT6" s="204"/>
+      <c r="AU6" s="204"/>
+      <c r="AV6" s="204"/>
+      <c r="AW6" s="204"/>
+      <c r="AX6" s="204"/>
+      <c r="AY6" s="204"/>
+      <c r="AZ6" s="204"/>
+      <c r="BA6" s="204"/>
+      <c r="BB6" s="204"/>
+      <c r="BC6" s="204"/>
+      <c r="BD6" s="204"/>
+      <c r="BE6" s="204"/>
+      <c r="BF6" s="204"/>
+      <c r="BG6" s="204"/>
+      <c r="BH6" s="204"/>
+      <c r="BI6" s="204"/>
+      <c r="BJ6" s="205"/>
+      <c r="BK6" s="207">
         <v>11</v>
       </c>
-      <c r="BL6" s="206"/>
-      <c r="BM6" s="206"/>
-      <c r="BN6" s="206"/>
-      <c r="BO6" s="206"/>
-      <c r="BP6" s="206"/>
-      <c r="BQ6" s="206"/>
-      <c r="BR6" s="206"/>
-      <c r="BS6" s="206"/>
-      <c r="BT6" s="206"/>
-      <c r="BU6" s="206"/>
-      <c r="BV6" s="206"/>
-      <c r="BW6" s="206"/>
-      <c r="BX6" s="206"/>
-      <c r="BY6" s="206"/>
-      <c r="BZ6" s="206"/>
-      <c r="CA6" s="206"/>
-      <c r="CB6" s="206"/>
-      <c r="CC6" s="206"/>
-      <c r="CD6" s="206"/>
-      <c r="CE6" s="206"/>
-      <c r="CF6" s="206"/>
-      <c r="CG6" s="206"/>
-      <c r="CH6" s="206"/>
-      <c r="CI6" s="206"/>
-      <c r="CJ6" s="206"/>
-      <c r="CK6" s="206"/>
-      <c r="CL6" s="206"/>
-      <c r="CM6" s="206"/>
-      <c r="CN6" s="207"/>
-      <c r="CO6" s="202">
+      <c r="BL6" s="208"/>
+      <c r="BM6" s="208"/>
+      <c r="BN6" s="208"/>
+      <c r="BO6" s="208"/>
+      <c r="BP6" s="208"/>
+      <c r="BQ6" s="208"/>
+      <c r="BR6" s="208"/>
+      <c r="BS6" s="208"/>
+      <c r="BT6" s="208"/>
+      <c r="BU6" s="208"/>
+      <c r="BV6" s="208"/>
+      <c r="BW6" s="208"/>
+      <c r="BX6" s="208"/>
+      <c r="BY6" s="208"/>
+      <c r="BZ6" s="208"/>
+      <c r="CA6" s="208"/>
+      <c r="CB6" s="208"/>
+      <c r="CC6" s="208"/>
+      <c r="CD6" s="208"/>
+      <c r="CE6" s="208"/>
+      <c r="CF6" s="208"/>
+      <c r="CG6" s="208"/>
+      <c r="CH6" s="208"/>
+      <c r="CI6" s="208"/>
+      <c r="CJ6" s="208"/>
+      <c r="CK6" s="208"/>
+      <c r="CL6" s="208"/>
+      <c r="CM6" s="208"/>
+      <c r="CN6" s="209"/>
+      <c r="CO6" s="204">
         <v>12</v>
       </c>
-      <c r="CP6" s="202"/>
-      <c r="CQ6" s="202"/>
-      <c r="CR6" s="202"/>
-      <c r="CS6" s="202"/>
-      <c r="CT6" s="202"/>
-      <c r="CU6" s="202"/>
-      <c r="CV6" s="202"/>
-      <c r="CW6" s="202"/>
-      <c r="CX6" s="202"/>
-      <c r="CY6" s="202"/>
-      <c r="CZ6" s="202"/>
-      <c r="DA6" s="202"/>
-      <c r="DB6" s="202"/>
-      <c r="DC6" s="202"/>
-      <c r="DD6" s="202"/>
-      <c r="DE6" s="202"/>
-      <c r="DF6" s="202"/>
-      <c r="DG6" s="202"/>
-      <c r="DH6" s="202"/>
-      <c r="DI6" s="202"/>
-      <c r="DJ6" s="202"/>
-      <c r="DK6" s="202"/>
-      <c r="DL6" s="202"/>
-      <c r="DM6" s="202"/>
-      <c r="DN6" s="202"/>
-      <c r="DO6" s="202"/>
-      <c r="DP6" s="202"/>
-      <c r="DQ6" s="202"/>
-      <c r="DR6" s="202"/>
-      <c r="DS6" s="203"/>
-      <c r="DT6" s="202">
+      <c r="CP6" s="204"/>
+      <c r="CQ6" s="204"/>
+      <c r="CR6" s="204"/>
+      <c r="CS6" s="204"/>
+      <c r="CT6" s="204"/>
+      <c r="CU6" s="204"/>
+      <c r="CV6" s="204"/>
+      <c r="CW6" s="204"/>
+      <c r="CX6" s="204"/>
+      <c r="CY6" s="204"/>
+      <c r="CZ6" s="204"/>
+      <c r="DA6" s="204"/>
+      <c r="DB6" s="204"/>
+      <c r="DC6" s="204"/>
+      <c r="DD6" s="204"/>
+      <c r="DE6" s="204"/>
+      <c r="DF6" s="204"/>
+      <c r="DG6" s="204"/>
+      <c r="DH6" s="204"/>
+      <c r="DI6" s="204"/>
+      <c r="DJ6" s="204"/>
+      <c r="DK6" s="204"/>
+      <c r="DL6" s="204"/>
+      <c r="DM6" s="204"/>
+      <c r="DN6" s="204"/>
+      <c r="DO6" s="204"/>
+      <c r="DP6" s="204"/>
+      <c r="DQ6" s="204"/>
+      <c r="DR6" s="204"/>
+      <c r="DS6" s="205"/>
+      <c r="DT6" s="204">
         <v>2019.01</v>
       </c>
-      <c r="DU6" s="202"/>
-      <c r="DV6" s="202"/>
-      <c r="DW6" s="202"/>
-      <c r="DX6" s="202"/>
-      <c r="DY6" s="202"/>
-      <c r="DZ6" s="202"/>
-      <c r="EA6" s="202"/>
-      <c r="EB6" s="202"/>
-      <c r="EC6" s="202"/>
-      <c r="ED6" s="202"/>
-      <c r="EE6" s="202"/>
-      <c r="EF6" s="202"/>
-      <c r="EG6" s="202"/>
-      <c r="EH6" s="202"/>
-      <c r="EI6" s="202"/>
-      <c r="EJ6" s="202"/>
-      <c r="EK6" s="202"/>
-      <c r="EL6" s="202"/>
-      <c r="EM6" s="202"/>
-      <c r="EN6" s="202"/>
-      <c r="EO6" s="202"/>
-      <c r="EP6" s="202"/>
-      <c r="EQ6" s="202"/>
-      <c r="ER6" s="202"/>
-      <c r="ES6" s="202"/>
-      <c r="ET6" s="202"/>
-      <c r="EU6" s="202"/>
-      <c r="EV6" s="202"/>
-      <c r="EW6" s="202"/>
-      <c r="EX6" s="203"/>
-      <c r="EY6" s="204">
+      <c r="DU6" s="204"/>
+      <c r="DV6" s="204"/>
+      <c r="DW6" s="204"/>
+      <c r="DX6" s="204"/>
+      <c r="DY6" s="204"/>
+      <c r="DZ6" s="204"/>
+      <c r="EA6" s="204"/>
+      <c r="EB6" s="204"/>
+      <c r="EC6" s="204"/>
+      <c r="ED6" s="204"/>
+      <c r="EE6" s="204"/>
+      <c r="EF6" s="204"/>
+      <c r="EG6" s="204"/>
+      <c r="EH6" s="204"/>
+      <c r="EI6" s="204"/>
+      <c r="EJ6" s="204"/>
+      <c r="EK6" s="204"/>
+      <c r="EL6" s="204"/>
+      <c r="EM6" s="204"/>
+      <c r="EN6" s="204"/>
+      <c r="EO6" s="204"/>
+      <c r="EP6" s="204"/>
+      <c r="EQ6" s="204"/>
+      <c r="ER6" s="204"/>
+      <c r="ES6" s="204"/>
+      <c r="ET6" s="204"/>
+      <c r="EU6" s="204"/>
+      <c r="EV6" s="204"/>
+      <c r="EW6" s="204"/>
+      <c r="EX6" s="205"/>
+      <c r="EY6" s="206">
         <v>2019.02</v>
       </c>
-      <c r="EZ6" s="202"/>
-      <c r="FA6" s="202"/>
-      <c r="FB6" s="202"/>
-      <c r="FC6" s="202"/>
-      <c r="FD6" s="202"/>
-      <c r="FE6" s="202"/>
-      <c r="FF6" s="202"/>
-      <c r="FG6" s="202"/>
-      <c r="FH6" s="202"/>
-      <c r="FI6" s="202"/>
-      <c r="FJ6" s="202"/>
-      <c r="FK6" s="202"/>
-      <c r="FL6" s="202"/>
-      <c r="FM6" s="202"/>
-      <c r="FN6" s="202"/>
-      <c r="FO6" s="202"/>
-      <c r="FP6" s="202"/>
-      <c r="FQ6" s="202"/>
-      <c r="FR6" s="202"/>
-      <c r="FS6" s="202"/>
-      <c r="FT6" s="202"/>
-      <c r="FU6" s="202"/>
-      <c r="FV6" s="202"/>
-      <c r="FW6" s="202"/>
-      <c r="FX6" s="202"/>
-      <c r="FY6" s="202"/>
-      <c r="FZ6" s="203"/>
-      <c r="GA6" s="201">
+      <c r="EZ6" s="204"/>
+      <c r="FA6" s="204"/>
+      <c r="FB6" s="204"/>
+      <c r="FC6" s="204"/>
+      <c r="FD6" s="204"/>
+      <c r="FE6" s="204"/>
+      <c r="FF6" s="204"/>
+      <c r="FG6" s="204"/>
+      <c r="FH6" s="204"/>
+      <c r="FI6" s="204"/>
+      <c r="FJ6" s="204"/>
+      <c r="FK6" s="204"/>
+      <c r="FL6" s="204"/>
+      <c r="FM6" s="204"/>
+      <c r="FN6" s="204"/>
+      <c r="FO6" s="204"/>
+      <c r="FP6" s="204"/>
+      <c r="FQ6" s="204"/>
+      <c r="FR6" s="204"/>
+      <c r="FS6" s="204"/>
+      <c r="FT6" s="204"/>
+      <c r="FU6" s="204"/>
+      <c r="FV6" s="204"/>
+      <c r="FW6" s="204"/>
+      <c r="FX6" s="204"/>
+      <c r="FY6" s="204"/>
+      <c r="FZ6" s="205"/>
+      <c r="GA6" s="200">
         <v>3</v>
       </c>
-      <c r="GB6" s="201"/>
-      <c r="GC6" s="201"/>
-      <c r="GD6" s="201"/>
-      <c r="GE6" s="201"/>
-      <c r="GF6" s="201"/>
-      <c r="GG6" s="201"/>
-      <c r="GH6" s="201"/>
-      <c r="GI6" s="201"/>
-      <c r="GJ6" s="201"/>
-      <c r="GK6" s="201"/>
-      <c r="GL6" s="201"/>
-      <c r="GM6" s="201"/>
-      <c r="GN6" s="201"/>
-      <c r="GO6" s="201"/>
-      <c r="GP6" s="201"/>
-      <c r="GQ6" s="201"/>
-      <c r="GR6" s="201"/>
-      <c r="GS6" s="201"/>
-      <c r="GT6" s="201"/>
-      <c r="GU6" s="201"/>
-      <c r="GV6" s="201"/>
-      <c r="GW6" s="201"/>
-      <c r="GX6" s="201"/>
-      <c r="GY6" s="201"/>
-      <c r="GZ6" s="201"/>
-      <c r="HA6" s="201"/>
-      <c r="HB6" s="201"/>
-      <c r="HC6" s="201"/>
-      <c r="HD6" s="201"/>
-      <c r="HE6" s="201"/>
-      <c r="HF6" s="199">
+      <c r="GB6" s="200"/>
+      <c r="GC6" s="200"/>
+      <c r="GD6" s="200"/>
+      <c r="GE6" s="200"/>
+      <c r="GF6" s="200"/>
+      <c r="GG6" s="200"/>
+      <c r="GH6" s="200"/>
+      <c r="GI6" s="200"/>
+      <c r="GJ6" s="200"/>
+      <c r="GK6" s="200"/>
+      <c r="GL6" s="200"/>
+      <c r="GM6" s="200"/>
+      <c r="GN6" s="200"/>
+      <c r="GO6" s="200"/>
+      <c r="GP6" s="200"/>
+      <c r="GQ6" s="200"/>
+      <c r="GR6" s="200"/>
+      <c r="GS6" s="200"/>
+      <c r="GT6" s="200"/>
+      <c r="GU6" s="200"/>
+      <c r="GV6" s="200"/>
+      <c r="GW6" s="200"/>
+      <c r="GX6" s="200"/>
+      <c r="GY6" s="200"/>
+      <c r="GZ6" s="200"/>
+      <c r="HA6" s="200"/>
+      <c r="HB6" s="200"/>
+      <c r="HC6" s="200"/>
+      <c r="HD6" s="200"/>
+      <c r="HE6" s="200"/>
+      <c r="HF6" s="196">
         <v>4</v>
       </c>
       <c r="HG6" s="197"/>
@@ -3676,40 +3676,40 @@
       <c r="IG6" s="197"/>
       <c r="IH6" s="197"/>
       <c r="II6" s="198"/>
-      <c r="IJ6" s="208">
+      <c r="IJ6" s="199">
         <v>5</v>
       </c>
-      <c r="IK6" s="201"/>
-      <c r="IL6" s="201"/>
-      <c r="IM6" s="201"/>
-      <c r="IN6" s="201"/>
-      <c r="IO6" s="201"/>
-      <c r="IP6" s="201"/>
-      <c r="IQ6" s="201"/>
-      <c r="IR6" s="201"/>
-      <c r="IS6" s="201"/>
-      <c r="IT6" s="201"/>
-      <c r="IU6" s="201"/>
-      <c r="IV6" s="201"/>
-      <c r="IW6" s="201"/>
-      <c r="IX6" s="201"/>
-      <c r="IY6" s="201"/>
-      <c r="IZ6" s="201"/>
-      <c r="JA6" s="201"/>
-      <c r="JB6" s="201"/>
-      <c r="JC6" s="201"/>
-      <c r="JD6" s="201"/>
-      <c r="JE6" s="201"/>
-      <c r="JF6" s="201"/>
-      <c r="JG6" s="201"/>
-      <c r="JH6" s="201"/>
-      <c r="JI6" s="201"/>
-      <c r="JJ6" s="201"/>
-      <c r="JK6" s="201"/>
-      <c r="JL6" s="201"/>
-      <c r="JM6" s="201"/>
-      <c r="JN6" s="209"/>
-      <c r="JO6" s="199">
+      <c r="IK6" s="200"/>
+      <c r="IL6" s="200"/>
+      <c r="IM6" s="200"/>
+      <c r="IN6" s="200"/>
+      <c r="IO6" s="200"/>
+      <c r="IP6" s="200"/>
+      <c r="IQ6" s="200"/>
+      <c r="IR6" s="200"/>
+      <c r="IS6" s="200"/>
+      <c r="IT6" s="200"/>
+      <c r="IU6" s="200"/>
+      <c r="IV6" s="200"/>
+      <c r="IW6" s="200"/>
+      <c r="IX6" s="200"/>
+      <c r="IY6" s="200"/>
+      <c r="IZ6" s="200"/>
+      <c r="JA6" s="200"/>
+      <c r="JB6" s="200"/>
+      <c r="JC6" s="200"/>
+      <c r="JD6" s="200"/>
+      <c r="JE6" s="200"/>
+      <c r="JF6" s="200"/>
+      <c r="JG6" s="200"/>
+      <c r="JH6" s="200"/>
+      <c r="JI6" s="200"/>
+      <c r="JJ6" s="200"/>
+      <c r="JK6" s="200"/>
+      <c r="JL6" s="200"/>
+      <c r="JM6" s="200"/>
+      <c r="JN6" s="201"/>
+      <c r="JO6" s="196">
         <v>6</v>
       </c>
       <c r="JP6" s="197"/>
@@ -3807,7 +3807,7 @@
       <c r="MZ6" s="194"/>
       <c r="NA6" s="194"/>
       <c r="NB6" s="194"/>
-      <c r="NC6" s="199">
+      <c r="NC6" s="196">
         <v>9</v>
       </c>
       <c r="ND6" s="197"/>
@@ -3872,7 +3872,7 @@
       <c r="PI6" s="194"/>
       <c r="PJ6" s="194"/>
       <c r="PK6" s="195"/>
-      <c r="PL6" s="196">
+      <c r="PL6" s="210">
         <v>11</v>
       </c>
       <c r="PM6" s="197"/>
@@ -5403,7 +5403,7 @@
       </c>
     </row>
     <row r="8" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="200" t="s">
+      <c r="A8" s="202" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="41"/>
@@ -5909,7 +5909,7 @@
       <c r="RT8" s="189"/>
     </row>
     <row r="9" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="200"/>
+      <c r="A9" s="202"/>
       <c r="B9" s="72"/>
       <c r="C9" s="73"/>
       <c r="D9" s="74"/>
@@ -6415,7 +6415,7 @@
       <c r="RT9" s="7"/>
     </row>
     <row r="10" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="200"/>
+      <c r="A10" s="202"/>
       <c r="B10" s="72"/>
       <c r="C10" s="73"/>
       <c r="D10" s="74"/>
@@ -6913,7 +6913,7 @@
       <c r="RT10" s="7"/>
     </row>
     <row r="11" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="200"/>
+      <c r="A11" s="202"/>
       <c r="B11" s="72"/>
       <c r="C11" s="73"/>
       <c r="D11" s="74"/>
@@ -7413,7 +7413,7 @@
       <c r="RT11" s="7"/>
     </row>
     <row r="12" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="200"/>
+      <c r="A12" s="202"/>
       <c r="B12" s="72"/>
       <c r="C12" s="73"/>
       <c r="D12" s="74"/>
@@ -7911,7 +7911,7 @@
       <c r="RT12" s="7"/>
     </row>
     <row r="13" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="200"/>
+      <c r="A13" s="202"/>
       <c r="B13" s="72"/>
       <c r="C13" s="73"/>
       <c r="D13" s="74"/>
@@ -8405,7 +8405,7 @@
       <c r="RT13" s="7"/>
     </row>
     <row r="14" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="200"/>
+      <c r="A14" s="202"/>
       <c r="B14" s="80"/>
       <c r="C14" s="81"/>
       <c r="D14" s="82"/>
@@ -8897,7 +8897,7 @@
       <c r="RT14" s="18"/>
     </row>
     <row r="15" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="210" t="s">
+      <c r="A15" s="203" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="88"/>
@@ -9391,7 +9391,7 @@
       <c r="RT15" s="29"/>
     </row>
     <row r="16" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="200"/>
+      <c r="A16" s="202"/>
       <c r="B16" s="94"/>
       <c r="C16" s="95"/>
       <c r="D16" s="96"/>
@@ -9893,7 +9893,7 @@
       <c r="RT16" s="13"/>
     </row>
     <row r="17" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="200"/>
+      <c r="A17" s="202"/>
       <c r="B17" s="94"/>
       <c r="C17" s="95"/>
       <c r="D17" s="96"/>
@@ -10390,7 +10390,7 @@
       <c r="RT17" s="4"/>
     </row>
     <row r="18" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="200"/>
+      <c r="A18" s="202"/>
       <c r="B18" s="94"/>
       <c r="C18" s="95"/>
       <c r="D18" s="96"/>
@@ -10883,7 +10883,7 @@
       <c r="RT18" s="4"/>
     </row>
     <row r="19" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="200"/>
+      <c r="A19" s="202"/>
       <c r="B19" s="94"/>
       <c r="C19" s="95"/>
       <c r="D19" s="96"/>
@@ -11373,7 +11373,7 @@
       <c r="RT19" s="4"/>
     </row>
     <row r="20" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="200"/>
+      <c r="A20" s="202"/>
       <c r="B20" s="94"/>
       <c r="C20" s="95"/>
       <c r="D20" s="96"/>
@@ -11863,7 +11863,7 @@
       <c r="RT20" s="4"/>
     </row>
     <row r="21" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="200"/>
+      <c r="A21" s="202"/>
       <c r="B21" s="94"/>
       <c r="C21" s="95"/>
       <c r="D21" s="96"/>
@@ -12353,7 +12353,7 @@
       <c r="RT21" s="126"/>
     </row>
     <row r="22" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="200"/>
+      <c r="A22" s="202"/>
       <c r="B22" s="101"/>
       <c r="C22" s="102"/>
       <c r="D22" s="103"/>
@@ -12843,7 +12843,7 @@
       <c r="RT22" s="25"/>
     </row>
     <row r="23" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="200" t="s">
+      <c r="A23" s="202" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="107"/>
@@ -13347,7 +13347,7 @@
       <c r="RT23" s="29"/>
     </row>
     <row r="24" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="200"/>
+      <c r="A24" s="202"/>
       <c r="B24" s="94"/>
       <c r="C24" s="95"/>
       <c r="D24" s="96"/>
@@ -13843,7 +13843,7 @@
       <c r="RT24" s="4"/>
     </row>
     <row r="25" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="200"/>
+      <c r="A25" s="202"/>
       <c r="B25" s="94"/>
       <c r="C25" s="95"/>
       <c r="D25" s="96"/>
@@ -14347,7 +14347,7 @@
       <c r="RT25" s="4"/>
     </row>
     <row r="26" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="200"/>
+      <c r="A26" s="202"/>
       <c r="B26" s="94"/>
       <c r="C26" s="95"/>
       <c r="D26" s="96"/>
@@ -14847,7 +14847,7 @@
       <c r="RT26" s="4"/>
     </row>
     <row r="27" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="200"/>
+      <c r="A27" s="202"/>
       <c r="B27" s="94"/>
       <c r="C27" s="95"/>
       <c r="D27" s="96"/>
@@ -15343,7 +15343,7 @@
       <c r="RT27" s="4"/>
     </row>
     <row r="28" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="200"/>
+      <c r="A28" s="202"/>
       <c r="B28" s="94"/>
       <c r="C28" s="95"/>
       <c r="D28" s="96"/>
@@ -15835,7 +15835,7 @@
       <c r="RT28" s="4"/>
     </row>
     <row r="29" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="200"/>
+      <c r="A29" s="202"/>
       <c r="B29" s="94"/>
       <c r="C29" s="95"/>
       <c r="D29" s="96"/>
@@ -16327,7 +16327,7 @@
       <c r="RT29" s="4"/>
     </row>
     <row r="30" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="200"/>
+      <c r="A30" s="202"/>
       <c r="B30" s="101"/>
       <c r="C30" s="102"/>
       <c r="D30" s="103"/>
@@ -18065,11 +18065,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="KS6:LW6"/>
-    <mergeCell ref="JO6:KR6"/>
-    <mergeCell ref="IJ6:JN6"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="OG6:PK6"/>
+    <mergeCell ref="PL6:QO6"/>
+    <mergeCell ref="QP6:RT6"/>
+    <mergeCell ref="NC6:OF6"/>
+    <mergeCell ref="LX6:NB6"/>
     <mergeCell ref="A23:A30"/>
     <mergeCell ref="GA6:HE6"/>
     <mergeCell ref="HF6:II6"/>
@@ -18079,11 +18079,11 @@
     <mergeCell ref="B6:AE6"/>
     <mergeCell ref="AF6:BJ6"/>
     <mergeCell ref="BK6:CN6"/>
-    <mergeCell ref="OG6:PK6"/>
-    <mergeCell ref="PL6:QO6"/>
-    <mergeCell ref="QP6:RT6"/>
-    <mergeCell ref="NC6:OF6"/>
-    <mergeCell ref="LX6:NB6"/>
+    <mergeCell ref="KS6:LW6"/>
+    <mergeCell ref="JO6:KR6"/>
+    <mergeCell ref="IJ6:JN6"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A15:A22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18099,7 +18099,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G112" sqref="G112"/>
+      <selection pane="bottomLeft" activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19314,7 +19314,7 @@
       <c r="C104" s="212"/>
       <c r="D104" s="138">
         <f>SUM(D105:D116)</f>
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E104" s="141"/>
     </row>
@@ -19452,9 +19452,15 @@
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B116" s="163"/>
-      <c r="C116" s="164"/>
-      <c r="D116" s="165"/>
-      <c r="E116" s="167"/>
+      <c r="C116" s="164">
+        <v>27</v>
+      </c>
+      <c r="D116" s="165">
+        <v>10</v>
+      </c>
+      <c r="E116" s="167" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B117" s="163"/>

--- a/Plasma Project schedule V1.0_20191015.xlsx
+++ b/Plasma Project schedule V1.0_20191015.xlsx
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="150">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1947,7 +1947,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1956,20 +1956,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1989,8 +1983,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2068,7 +2068,7 @@
         <xdr:cNvPr id="52" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2125,7 +2125,7 @@
         <xdr:cNvPr id="15" name="직선 화살표 연결선 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2182,7 +2182,7 @@
         <xdr:cNvPr id="18" name="직선 화살표 연결선 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2239,7 +2239,7 @@
         <xdr:cNvPr id="21" name="직선 화살표 연결선 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2296,7 +2296,7 @@
         <xdr:cNvPr id="25" name="직선 화살표 연결선 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2353,7 +2353,7 @@
         <xdr:cNvPr id="28" name="직선 화살표 연결선 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2410,7 +2410,7 @@
         <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2467,7 +2467,7 @@
         <xdr:cNvPr id="33" name="직선 화살표 연결선 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2524,7 +2524,7 @@
         <xdr:cNvPr id="36" name="직선 화살표 연결선 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2581,7 +2581,7 @@
         <xdr:cNvPr id="38" name="직선 화살표 연결선 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2638,7 +2638,7 @@
         <xdr:cNvPr id="41" name="직선 화살표 연결선 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2695,7 +2695,7 @@
         <xdr:cNvPr id="46" name="직선 화살표 연결선 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2752,7 +2752,7 @@
         <xdr:cNvPr id="14" name="직선 화살표 연결선 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2809,7 +2809,7 @@
         <xdr:cNvPr id="16" name="직선 화살표 연결선 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2866,7 +2866,7 @@
         <xdr:cNvPr id="19" name="직선 화살표 연결선 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2923,7 +2923,7 @@
         <xdr:cNvPr id="17" name="직선 화살표 연결선 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2980,7 +2980,7 @@
         <xdr:cNvPr id="20" name="직선 화살표 연결선 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3037,7 +3037,7 @@
         <xdr:cNvPr id="22" name="직선 화살표 연결선 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3418,233 +3418,233 @@
     </row>
     <row r="6" spans="1:488" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="50"/>
-      <c r="B6" s="207">
+      <c r="B6" s="205">
         <v>9</v>
       </c>
-      <c r="C6" s="208"/>
-      <c r="D6" s="208"/>
-      <c r="E6" s="208"/>
-      <c r="F6" s="208"/>
-      <c r="G6" s="208"/>
-      <c r="H6" s="208"/>
-      <c r="I6" s="208"/>
-      <c r="J6" s="208"/>
-      <c r="K6" s="208"/>
-      <c r="L6" s="208"/>
-      <c r="M6" s="208"/>
-      <c r="N6" s="208"/>
-      <c r="O6" s="208"/>
-      <c r="P6" s="208"/>
-      <c r="Q6" s="208"/>
-      <c r="R6" s="208"/>
-      <c r="S6" s="208"/>
-      <c r="T6" s="208"/>
-      <c r="U6" s="208"/>
-      <c r="V6" s="208"/>
-      <c r="W6" s="208"/>
-      <c r="X6" s="208"/>
-      <c r="Y6" s="208"/>
-      <c r="Z6" s="208"/>
-      <c r="AA6" s="208"/>
-      <c r="AB6" s="208"/>
-      <c r="AC6" s="208"/>
-      <c r="AD6" s="208"/>
-      <c r="AE6" s="209"/>
-      <c r="AF6" s="204">
+      <c r="C6" s="206"/>
+      <c r="D6" s="206"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="206"/>
+      <c r="G6" s="206"/>
+      <c r="H6" s="206"/>
+      <c r="I6" s="206"/>
+      <c r="J6" s="206"/>
+      <c r="K6" s="206"/>
+      <c r="L6" s="206"/>
+      <c r="M6" s="206"/>
+      <c r="N6" s="206"/>
+      <c r="O6" s="206"/>
+      <c r="P6" s="206"/>
+      <c r="Q6" s="206"/>
+      <c r="R6" s="206"/>
+      <c r="S6" s="206"/>
+      <c r="T6" s="206"/>
+      <c r="U6" s="206"/>
+      <c r="V6" s="206"/>
+      <c r="W6" s="206"/>
+      <c r="X6" s="206"/>
+      <c r="Y6" s="206"/>
+      <c r="Z6" s="206"/>
+      <c r="AA6" s="206"/>
+      <c r="AB6" s="206"/>
+      <c r="AC6" s="206"/>
+      <c r="AD6" s="206"/>
+      <c r="AE6" s="207"/>
+      <c r="AF6" s="202">
         <v>10</v>
       </c>
-      <c r="AG6" s="204"/>
-      <c r="AH6" s="204"/>
-      <c r="AI6" s="204"/>
-      <c r="AJ6" s="204"/>
-      <c r="AK6" s="204"/>
-      <c r="AL6" s="204"/>
-      <c r="AM6" s="204"/>
-      <c r="AN6" s="204"/>
-      <c r="AO6" s="204"/>
-      <c r="AP6" s="204"/>
-      <c r="AQ6" s="204"/>
-      <c r="AR6" s="204"/>
-      <c r="AS6" s="204"/>
-      <c r="AT6" s="204"/>
-      <c r="AU6" s="204"/>
-      <c r="AV6" s="204"/>
-      <c r="AW6" s="204"/>
-      <c r="AX6" s="204"/>
-      <c r="AY6" s="204"/>
-      <c r="AZ6" s="204"/>
-      <c r="BA6" s="204"/>
-      <c r="BB6" s="204"/>
-      <c r="BC6" s="204"/>
-      <c r="BD6" s="204"/>
-      <c r="BE6" s="204"/>
-      <c r="BF6" s="204"/>
-      <c r="BG6" s="204"/>
-      <c r="BH6" s="204"/>
-      <c r="BI6" s="204"/>
-      <c r="BJ6" s="205"/>
-      <c r="BK6" s="207">
+      <c r="AG6" s="202"/>
+      <c r="AH6" s="202"/>
+      <c r="AI6" s="202"/>
+      <c r="AJ6" s="202"/>
+      <c r="AK6" s="202"/>
+      <c r="AL6" s="202"/>
+      <c r="AM6" s="202"/>
+      <c r="AN6" s="202"/>
+      <c r="AO6" s="202"/>
+      <c r="AP6" s="202"/>
+      <c r="AQ6" s="202"/>
+      <c r="AR6" s="202"/>
+      <c r="AS6" s="202"/>
+      <c r="AT6" s="202"/>
+      <c r="AU6" s="202"/>
+      <c r="AV6" s="202"/>
+      <c r="AW6" s="202"/>
+      <c r="AX6" s="202"/>
+      <c r="AY6" s="202"/>
+      <c r="AZ6" s="202"/>
+      <c r="BA6" s="202"/>
+      <c r="BB6" s="202"/>
+      <c r="BC6" s="202"/>
+      <c r="BD6" s="202"/>
+      <c r="BE6" s="202"/>
+      <c r="BF6" s="202"/>
+      <c r="BG6" s="202"/>
+      <c r="BH6" s="202"/>
+      <c r="BI6" s="202"/>
+      <c r="BJ6" s="203"/>
+      <c r="BK6" s="205">
         <v>11</v>
       </c>
-      <c r="BL6" s="208"/>
-      <c r="BM6" s="208"/>
-      <c r="BN6" s="208"/>
-      <c r="BO6" s="208"/>
-      <c r="BP6" s="208"/>
-      <c r="BQ6" s="208"/>
-      <c r="BR6" s="208"/>
-      <c r="BS6" s="208"/>
-      <c r="BT6" s="208"/>
-      <c r="BU6" s="208"/>
-      <c r="BV6" s="208"/>
-      <c r="BW6" s="208"/>
-      <c r="BX6" s="208"/>
-      <c r="BY6" s="208"/>
-      <c r="BZ6" s="208"/>
-      <c r="CA6" s="208"/>
-      <c r="CB6" s="208"/>
-      <c r="CC6" s="208"/>
-      <c r="CD6" s="208"/>
-      <c r="CE6" s="208"/>
-      <c r="CF6" s="208"/>
-      <c r="CG6" s="208"/>
-      <c r="CH6" s="208"/>
-      <c r="CI6" s="208"/>
-      <c r="CJ6" s="208"/>
-      <c r="CK6" s="208"/>
-      <c r="CL6" s="208"/>
-      <c r="CM6" s="208"/>
-      <c r="CN6" s="209"/>
-      <c r="CO6" s="204">
+      <c r="BL6" s="206"/>
+      <c r="BM6" s="206"/>
+      <c r="BN6" s="206"/>
+      <c r="BO6" s="206"/>
+      <c r="BP6" s="206"/>
+      <c r="BQ6" s="206"/>
+      <c r="BR6" s="206"/>
+      <c r="BS6" s="206"/>
+      <c r="BT6" s="206"/>
+      <c r="BU6" s="206"/>
+      <c r="BV6" s="206"/>
+      <c r="BW6" s="206"/>
+      <c r="BX6" s="206"/>
+      <c r="BY6" s="206"/>
+      <c r="BZ6" s="206"/>
+      <c r="CA6" s="206"/>
+      <c r="CB6" s="206"/>
+      <c r="CC6" s="206"/>
+      <c r="CD6" s="206"/>
+      <c r="CE6" s="206"/>
+      <c r="CF6" s="206"/>
+      <c r="CG6" s="206"/>
+      <c r="CH6" s="206"/>
+      <c r="CI6" s="206"/>
+      <c r="CJ6" s="206"/>
+      <c r="CK6" s="206"/>
+      <c r="CL6" s="206"/>
+      <c r="CM6" s="206"/>
+      <c r="CN6" s="207"/>
+      <c r="CO6" s="202">
         <v>12</v>
       </c>
-      <c r="CP6" s="204"/>
-      <c r="CQ6" s="204"/>
-      <c r="CR6" s="204"/>
-      <c r="CS6" s="204"/>
-      <c r="CT6" s="204"/>
-      <c r="CU6" s="204"/>
-      <c r="CV6" s="204"/>
-      <c r="CW6" s="204"/>
-      <c r="CX6" s="204"/>
-      <c r="CY6" s="204"/>
-      <c r="CZ6" s="204"/>
-      <c r="DA6" s="204"/>
-      <c r="DB6" s="204"/>
-      <c r="DC6" s="204"/>
-      <c r="DD6" s="204"/>
-      <c r="DE6" s="204"/>
-      <c r="DF6" s="204"/>
-      <c r="DG6" s="204"/>
-      <c r="DH6" s="204"/>
-      <c r="DI6" s="204"/>
-      <c r="DJ6" s="204"/>
-      <c r="DK6" s="204"/>
-      <c r="DL6" s="204"/>
-      <c r="DM6" s="204"/>
-      <c r="DN6" s="204"/>
-      <c r="DO6" s="204"/>
-      <c r="DP6" s="204"/>
-      <c r="DQ6" s="204"/>
-      <c r="DR6" s="204"/>
-      <c r="DS6" s="205"/>
-      <c r="DT6" s="204">
+      <c r="CP6" s="202"/>
+      <c r="CQ6" s="202"/>
+      <c r="CR6" s="202"/>
+      <c r="CS6" s="202"/>
+      <c r="CT6" s="202"/>
+      <c r="CU6" s="202"/>
+      <c r="CV6" s="202"/>
+      <c r="CW6" s="202"/>
+      <c r="CX6" s="202"/>
+      <c r="CY6" s="202"/>
+      <c r="CZ6" s="202"/>
+      <c r="DA6" s="202"/>
+      <c r="DB6" s="202"/>
+      <c r="DC6" s="202"/>
+      <c r="DD6" s="202"/>
+      <c r="DE6" s="202"/>
+      <c r="DF6" s="202"/>
+      <c r="DG6" s="202"/>
+      <c r="DH6" s="202"/>
+      <c r="DI6" s="202"/>
+      <c r="DJ6" s="202"/>
+      <c r="DK6" s="202"/>
+      <c r="DL6" s="202"/>
+      <c r="DM6" s="202"/>
+      <c r="DN6" s="202"/>
+      <c r="DO6" s="202"/>
+      <c r="DP6" s="202"/>
+      <c r="DQ6" s="202"/>
+      <c r="DR6" s="202"/>
+      <c r="DS6" s="203"/>
+      <c r="DT6" s="202">
         <v>2019.01</v>
       </c>
-      <c r="DU6" s="204"/>
-      <c r="DV6" s="204"/>
-      <c r="DW6" s="204"/>
-      <c r="DX6" s="204"/>
-      <c r="DY6" s="204"/>
-      <c r="DZ6" s="204"/>
-      <c r="EA6" s="204"/>
-      <c r="EB6" s="204"/>
-      <c r="EC6" s="204"/>
-      <c r="ED6" s="204"/>
-      <c r="EE6" s="204"/>
-      <c r="EF6" s="204"/>
-      <c r="EG6" s="204"/>
-      <c r="EH6" s="204"/>
-      <c r="EI6" s="204"/>
-      <c r="EJ6" s="204"/>
-      <c r="EK6" s="204"/>
-      <c r="EL6" s="204"/>
-      <c r="EM6" s="204"/>
-      <c r="EN6" s="204"/>
-      <c r="EO6" s="204"/>
-      <c r="EP6" s="204"/>
-      <c r="EQ6" s="204"/>
-      <c r="ER6" s="204"/>
-      <c r="ES6" s="204"/>
-      <c r="ET6" s="204"/>
-      <c r="EU6" s="204"/>
-      <c r="EV6" s="204"/>
-      <c r="EW6" s="204"/>
-      <c r="EX6" s="205"/>
-      <c r="EY6" s="206">
+      <c r="DU6" s="202"/>
+      <c r="DV6" s="202"/>
+      <c r="DW6" s="202"/>
+      <c r="DX6" s="202"/>
+      <c r="DY6" s="202"/>
+      <c r="DZ6" s="202"/>
+      <c r="EA6" s="202"/>
+      <c r="EB6" s="202"/>
+      <c r="EC6" s="202"/>
+      <c r="ED6" s="202"/>
+      <c r="EE6" s="202"/>
+      <c r="EF6" s="202"/>
+      <c r="EG6" s="202"/>
+      <c r="EH6" s="202"/>
+      <c r="EI6" s="202"/>
+      <c r="EJ6" s="202"/>
+      <c r="EK6" s="202"/>
+      <c r="EL6" s="202"/>
+      <c r="EM6" s="202"/>
+      <c r="EN6" s="202"/>
+      <c r="EO6" s="202"/>
+      <c r="EP6" s="202"/>
+      <c r="EQ6" s="202"/>
+      <c r="ER6" s="202"/>
+      <c r="ES6" s="202"/>
+      <c r="ET6" s="202"/>
+      <c r="EU6" s="202"/>
+      <c r="EV6" s="202"/>
+      <c r="EW6" s="202"/>
+      <c r="EX6" s="203"/>
+      <c r="EY6" s="204">
         <v>2019.02</v>
       </c>
-      <c r="EZ6" s="204"/>
-      <c r="FA6" s="204"/>
-      <c r="FB6" s="204"/>
-      <c r="FC6" s="204"/>
-      <c r="FD6" s="204"/>
-      <c r="FE6" s="204"/>
-      <c r="FF6" s="204"/>
-      <c r="FG6" s="204"/>
-      <c r="FH6" s="204"/>
-      <c r="FI6" s="204"/>
-      <c r="FJ6" s="204"/>
-      <c r="FK6" s="204"/>
-      <c r="FL6" s="204"/>
-      <c r="FM6" s="204"/>
-      <c r="FN6" s="204"/>
-      <c r="FO6" s="204"/>
-      <c r="FP6" s="204"/>
-      <c r="FQ6" s="204"/>
-      <c r="FR6" s="204"/>
-      <c r="FS6" s="204"/>
-      <c r="FT6" s="204"/>
-      <c r="FU6" s="204"/>
-      <c r="FV6" s="204"/>
-      <c r="FW6" s="204"/>
-      <c r="FX6" s="204"/>
-      <c r="FY6" s="204"/>
-      <c r="FZ6" s="205"/>
-      <c r="GA6" s="200">
+      <c r="EZ6" s="202"/>
+      <c r="FA6" s="202"/>
+      <c r="FB6" s="202"/>
+      <c r="FC6" s="202"/>
+      <c r="FD6" s="202"/>
+      <c r="FE6" s="202"/>
+      <c r="FF6" s="202"/>
+      <c r="FG6" s="202"/>
+      <c r="FH6" s="202"/>
+      <c r="FI6" s="202"/>
+      <c r="FJ6" s="202"/>
+      <c r="FK6" s="202"/>
+      <c r="FL6" s="202"/>
+      <c r="FM6" s="202"/>
+      <c r="FN6" s="202"/>
+      <c r="FO6" s="202"/>
+      <c r="FP6" s="202"/>
+      <c r="FQ6" s="202"/>
+      <c r="FR6" s="202"/>
+      <c r="FS6" s="202"/>
+      <c r="FT6" s="202"/>
+      <c r="FU6" s="202"/>
+      <c r="FV6" s="202"/>
+      <c r="FW6" s="202"/>
+      <c r="FX6" s="202"/>
+      <c r="FY6" s="202"/>
+      <c r="FZ6" s="203"/>
+      <c r="GA6" s="201">
         <v>3</v>
       </c>
-      <c r="GB6" s="200"/>
-      <c r="GC6" s="200"/>
-      <c r="GD6" s="200"/>
-      <c r="GE6" s="200"/>
-      <c r="GF6" s="200"/>
-      <c r="GG6" s="200"/>
-      <c r="GH6" s="200"/>
-      <c r="GI6" s="200"/>
-      <c r="GJ6" s="200"/>
-      <c r="GK6" s="200"/>
-      <c r="GL6" s="200"/>
-      <c r="GM6" s="200"/>
-      <c r="GN6" s="200"/>
-      <c r="GO6" s="200"/>
-      <c r="GP6" s="200"/>
-      <c r="GQ6" s="200"/>
-      <c r="GR6" s="200"/>
-      <c r="GS6" s="200"/>
-      <c r="GT6" s="200"/>
-      <c r="GU6" s="200"/>
-      <c r="GV6" s="200"/>
-      <c r="GW6" s="200"/>
-      <c r="GX6" s="200"/>
-      <c r="GY6" s="200"/>
-      <c r="GZ6" s="200"/>
-      <c r="HA6" s="200"/>
-      <c r="HB6" s="200"/>
-      <c r="HC6" s="200"/>
-      <c r="HD6" s="200"/>
-      <c r="HE6" s="200"/>
-      <c r="HF6" s="196">
+      <c r="GB6" s="201"/>
+      <c r="GC6" s="201"/>
+      <c r="GD6" s="201"/>
+      <c r="GE6" s="201"/>
+      <c r="GF6" s="201"/>
+      <c r="GG6" s="201"/>
+      <c r="GH6" s="201"/>
+      <c r="GI6" s="201"/>
+      <c r="GJ6" s="201"/>
+      <c r="GK6" s="201"/>
+      <c r="GL6" s="201"/>
+      <c r="GM6" s="201"/>
+      <c r="GN6" s="201"/>
+      <c r="GO6" s="201"/>
+      <c r="GP6" s="201"/>
+      <c r="GQ6" s="201"/>
+      <c r="GR6" s="201"/>
+      <c r="GS6" s="201"/>
+      <c r="GT6" s="201"/>
+      <c r="GU6" s="201"/>
+      <c r="GV6" s="201"/>
+      <c r="GW6" s="201"/>
+      <c r="GX6" s="201"/>
+      <c r="GY6" s="201"/>
+      <c r="GZ6" s="201"/>
+      <c r="HA6" s="201"/>
+      <c r="HB6" s="201"/>
+      <c r="HC6" s="201"/>
+      <c r="HD6" s="201"/>
+      <c r="HE6" s="201"/>
+      <c r="HF6" s="199">
         <v>4</v>
       </c>
       <c r="HG6" s="197"/>
@@ -3676,40 +3676,40 @@
       <c r="IG6" s="197"/>
       <c r="IH6" s="197"/>
       <c r="II6" s="198"/>
-      <c r="IJ6" s="199">
+      <c r="IJ6" s="208">
         <v>5</v>
       </c>
-      <c r="IK6" s="200"/>
-      <c r="IL6" s="200"/>
-      <c r="IM6" s="200"/>
-      <c r="IN6" s="200"/>
-      <c r="IO6" s="200"/>
-      <c r="IP6" s="200"/>
-      <c r="IQ6" s="200"/>
-      <c r="IR6" s="200"/>
-      <c r="IS6" s="200"/>
-      <c r="IT6" s="200"/>
-      <c r="IU6" s="200"/>
-      <c r="IV6" s="200"/>
-      <c r="IW6" s="200"/>
-      <c r="IX6" s="200"/>
-      <c r="IY6" s="200"/>
-      <c r="IZ6" s="200"/>
-      <c r="JA6" s="200"/>
-      <c r="JB6" s="200"/>
-      <c r="JC6" s="200"/>
-      <c r="JD6" s="200"/>
-      <c r="JE6" s="200"/>
-      <c r="JF6" s="200"/>
-      <c r="JG6" s="200"/>
-      <c r="JH6" s="200"/>
-      <c r="JI6" s="200"/>
-      <c r="JJ6" s="200"/>
-      <c r="JK6" s="200"/>
-      <c r="JL6" s="200"/>
-      <c r="JM6" s="200"/>
-      <c r="JN6" s="201"/>
-      <c r="JO6" s="196">
+      <c r="IK6" s="201"/>
+      <c r="IL6" s="201"/>
+      <c r="IM6" s="201"/>
+      <c r="IN6" s="201"/>
+      <c r="IO6" s="201"/>
+      <c r="IP6" s="201"/>
+      <c r="IQ6" s="201"/>
+      <c r="IR6" s="201"/>
+      <c r="IS6" s="201"/>
+      <c r="IT6" s="201"/>
+      <c r="IU6" s="201"/>
+      <c r="IV6" s="201"/>
+      <c r="IW6" s="201"/>
+      <c r="IX6" s="201"/>
+      <c r="IY6" s="201"/>
+      <c r="IZ6" s="201"/>
+      <c r="JA6" s="201"/>
+      <c r="JB6" s="201"/>
+      <c r="JC6" s="201"/>
+      <c r="JD6" s="201"/>
+      <c r="JE6" s="201"/>
+      <c r="JF6" s="201"/>
+      <c r="JG6" s="201"/>
+      <c r="JH6" s="201"/>
+      <c r="JI6" s="201"/>
+      <c r="JJ6" s="201"/>
+      <c r="JK6" s="201"/>
+      <c r="JL6" s="201"/>
+      <c r="JM6" s="201"/>
+      <c r="JN6" s="209"/>
+      <c r="JO6" s="199">
         <v>6</v>
       </c>
       <c r="JP6" s="197"/>
@@ -3807,7 +3807,7 @@
       <c r="MZ6" s="194"/>
       <c r="NA6" s="194"/>
       <c r="NB6" s="194"/>
-      <c r="NC6" s="196">
+      <c r="NC6" s="199">
         <v>9</v>
       </c>
       <c r="ND6" s="197"/>
@@ -3872,7 +3872,7 @@
       <c r="PI6" s="194"/>
       <c r="PJ6" s="194"/>
       <c r="PK6" s="195"/>
-      <c r="PL6" s="210">
+      <c r="PL6" s="196">
         <v>11</v>
       </c>
       <c r="PM6" s="197"/>
@@ -5403,7 +5403,7 @@
       </c>
     </row>
     <row r="8" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="202" t="s">
+      <c r="A8" s="200" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="41"/>
@@ -5909,7 +5909,7 @@
       <c r="RT8" s="189"/>
     </row>
     <row r="9" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="202"/>
+      <c r="A9" s="200"/>
       <c r="B9" s="72"/>
       <c r="C9" s="73"/>
       <c r="D9" s="74"/>
@@ -6415,7 +6415,7 @@
       <c r="RT9" s="7"/>
     </row>
     <row r="10" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="202"/>
+      <c r="A10" s="200"/>
       <c r="B10" s="72"/>
       <c r="C10" s="73"/>
       <c r="D10" s="74"/>
@@ -6913,7 +6913,7 @@
       <c r="RT10" s="7"/>
     </row>
     <row r="11" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="202"/>
+      <c r="A11" s="200"/>
       <c r="B11" s="72"/>
       <c r="C11" s="73"/>
       <c r="D11" s="74"/>
@@ -7413,7 +7413,7 @@
       <c r="RT11" s="7"/>
     </row>
     <row r="12" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="202"/>
+      <c r="A12" s="200"/>
       <c r="B12" s="72"/>
       <c r="C12" s="73"/>
       <c r="D12" s="74"/>
@@ -7911,7 +7911,7 @@
       <c r="RT12" s="7"/>
     </row>
     <row r="13" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="202"/>
+      <c r="A13" s="200"/>
       <c r="B13" s="72"/>
       <c r="C13" s="73"/>
       <c r="D13" s="74"/>
@@ -8405,7 +8405,7 @@
       <c r="RT13" s="7"/>
     </row>
     <row r="14" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="202"/>
+      <c r="A14" s="200"/>
       <c r="B14" s="80"/>
       <c r="C14" s="81"/>
       <c r="D14" s="82"/>
@@ -8897,7 +8897,7 @@
       <c r="RT14" s="18"/>
     </row>
     <row r="15" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="203" t="s">
+      <c r="A15" s="210" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="88"/>
@@ -9391,7 +9391,7 @@
       <c r="RT15" s="29"/>
     </row>
     <row r="16" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="202"/>
+      <c r="A16" s="200"/>
       <c r="B16" s="94"/>
       <c r="C16" s="95"/>
       <c r="D16" s="96"/>
@@ -9893,7 +9893,7 @@
       <c r="RT16" s="13"/>
     </row>
     <row r="17" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="202"/>
+      <c r="A17" s="200"/>
       <c r="B17" s="94"/>
       <c r="C17" s="95"/>
       <c r="D17" s="96"/>
@@ -10390,7 +10390,7 @@
       <c r="RT17" s="4"/>
     </row>
     <row r="18" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="202"/>
+      <c r="A18" s="200"/>
       <c r="B18" s="94"/>
       <c r="C18" s="95"/>
       <c r="D18" s="96"/>
@@ -10883,7 +10883,7 @@
       <c r="RT18" s="4"/>
     </row>
     <row r="19" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="202"/>
+      <c r="A19" s="200"/>
       <c r="B19" s="94"/>
       <c r="C19" s="95"/>
       <c r="D19" s="96"/>
@@ -11373,7 +11373,7 @@
       <c r="RT19" s="4"/>
     </row>
     <row r="20" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="202"/>
+      <c r="A20" s="200"/>
       <c r="B20" s="94"/>
       <c r="C20" s="95"/>
       <c r="D20" s="96"/>
@@ -11863,7 +11863,7 @@
       <c r="RT20" s="4"/>
     </row>
     <row r="21" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="202"/>
+      <c r="A21" s="200"/>
       <c r="B21" s="94"/>
       <c r="C21" s="95"/>
       <c r="D21" s="96"/>
@@ -12353,7 +12353,7 @@
       <c r="RT21" s="126"/>
     </row>
     <row r="22" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="202"/>
+      <c r="A22" s="200"/>
       <c r="B22" s="101"/>
       <c r="C22" s="102"/>
       <c r="D22" s="103"/>
@@ -12843,7 +12843,7 @@
       <c r="RT22" s="25"/>
     </row>
     <row r="23" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="202" t="s">
+      <c r="A23" s="200" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="107"/>
@@ -13347,7 +13347,7 @@
       <c r="RT23" s="29"/>
     </row>
     <row r="24" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="202"/>
+      <c r="A24" s="200"/>
       <c r="B24" s="94"/>
       <c r="C24" s="95"/>
       <c r="D24" s="96"/>
@@ -13843,7 +13843,7 @@
       <c r="RT24" s="4"/>
     </row>
     <row r="25" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="202"/>
+      <c r="A25" s="200"/>
       <c r="B25" s="94"/>
       <c r="C25" s="95"/>
       <c r="D25" s="96"/>
@@ -14347,7 +14347,7 @@
       <c r="RT25" s="4"/>
     </row>
     <row r="26" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="202"/>
+      <c r="A26" s="200"/>
       <c r="B26" s="94"/>
       <c r="C26" s="95"/>
       <c r="D26" s="96"/>
@@ -14847,7 +14847,7 @@
       <c r="RT26" s="4"/>
     </row>
     <row r="27" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="202"/>
+      <c r="A27" s="200"/>
       <c r="B27" s="94"/>
       <c r="C27" s="95"/>
       <c r="D27" s="96"/>
@@ -15343,7 +15343,7 @@
       <c r="RT27" s="4"/>
     </row>
     <row r="28" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="202"/>
+      <c r="A28" s="200"/>
       <c r="B28" s="94"/>
       <c r="C28" s="95"/>
       <c r="D28" s="96"/>
@@ -15835,7 +15835,7 @@
       <c r="RT28" s="4"/>
     </row>
     <row r="29" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="202"/>
+      <c r="A29" s="200"/>
       <c r="B29" s="94"/>
       <c r="C29" s="95"/>
       <c r="D29" s="96"/>
@@ -16327,7 +16327,7 @@
       <c r="RT29" s="4"/>
     </row>
     <row r="30" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="202"/>
+      <c r="A30" s="200"/>
       <c r="B30" s="101"/>
       <c r="C30" s="102"/>
       <c r="D30" s="103"/>
@@ -18065,11 +18065,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="OG6:PK6"/>
-    <mergeCell ref="PL6:QO6"/>
-    <mergeCell ref="QP6:RT6"/>
-    <mergeCell ref="NC6:OF6"/>
-    <mergeCell ref="LX6:NB6"/>
+    <mergeCell ref="KS6:LW6"/>
+    <mergeCell ref="JO6:KR6"/>
+    <mergeCell ref="IJ6:JN6"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A15:A22"/>
     <mergeCell ref="A23:A30"/>
     <mergeCell ref="GA6:HE6"/>
     <mergeCell ref="HF6:II6"/>
@@ -18079,11 +18079,11 @@
     <mergeCell ref="B6:AE6"/>
     <mergeCell ref="AF6:BJ6"/>
     <mergeCell ref="BK6:CN6"/>
-    <mergeCell ref="KS6:LW6"/>
-    <mergeCell ref="JO6:KR6"/>
-    <mergeCell ref="IJ6:JN6"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="OG6:PK6"/>
+    <mergeCell ref="PL6:QO6"/>
+    <mergeCell ref="QP6:RT6"/>
+    <mergeCell ref="NC6:OF6"/>
+    <mergeCell ref="LX6:NB6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18095,11 +18095,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E117"/>
+  <dimension ref="B2:E121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E113" sqref="E113"/>
+      <pane ySplit="3" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I110" sqref="I110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19313,8 +19313,8 @@
       </c>
       <c r="C104" s="212"/>
       <c r="D104" s="138">
-        <f>SUM(D105:D116)</f>
-        <v>59</v>
+        <f>SUM(D105:D119)</f>
+        <v>63</v>
       </c>
       <c r="E104" s="141"/>
     </row>
@@ -19464,9 +19464,39 @@
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B117" s="163"/>
-      <c r="C117" s="164"/>
-      <c r="D117" s="165"/>
-      <c r="E117" s="167"/>
+      <c r="C117" s="164">
+        <v>28</v>
+      </c>
+      <c r="D117" s="165">
+        <v>4</v>
+      </c>
+      <c r="E117" s="167" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B118" s="163"/>
+      <c r="C118" s="164"/>
+      <c r="D118" s="165"/>
+      <c r="E118" s="167"/>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B119" s="163"/>
+      <c r="C119" s="164"/>
+      <c r="D119" s="165"/>
+      <c r="E119" s="167"/>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B120" s="163"/>
+      <c r="C120" s="164"/>
+      <c r="D120" s="165"/>
+      <c r="E120" s="167"/>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B121" s="163"/>
+      <c r="C121" s="164"/>
+      <c r="D121" s="165"/>
+      <c r="E121" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/Plasma Project schedule V1.0_20191015.xlsx
+++ b/Plasma Project schedule V1.0_20191015.xlsx
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="155">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -734,6 +734,26 @@
   </si>
   <si>
     <t>Buck 추가, PCB 3 Part로 구분, Ref 장비 Size에 맞춰 PCB Size 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF GEN 회로 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF GEN - RF,CPU PCB 재설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF GEN - CPU, PWR PCB 재설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF GEN - PWR PCB 재설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1947,7 +1967,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1956,14 +1976,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1983,14 +2009,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2068,7 +2088,7 @@
         <xdr:cNvPr id="52" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2125,7 +2145,7 @@
         <xdr:cNvPr id="15" name="직선 화살표 연결선 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2182,7 +2202,7 @@
         <xdr:cNvPr id="18" name="직선 화살표 연결선 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2239,7 +2259,7 @@
         <xdr:cNvPr id="21" name="직선 화살표 연결선 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2296,7 +2316,7 @@
         <xdr:cNvPr id="25" name="직선 화살표 연결선 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2353,7 +2373,7 @@
         <xdr:cNvPr id="28" name="직선 화살표 연결선 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2410,7 +2430,7 @@
         <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2467,7 +2487,7 @@
         <xdr:cNvPr id="33" name="직선 화살표 연결선 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2524,7 +2544,7 @@
         <xdr:cNvPr id="36" name="직선 화살표 연결선 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2581,7 +2601,7 @@
         <xdr:cNvPr id="38" name="직선 화살표 연결선 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2638,7 +2658,7 @@
         <xdr:cNvPr id="41" name="직선 화살표 연결선 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2695,7 +2715,7 @@
         <xdr:cNvPr id="46" name="직선 화살표 연결선 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2752,7 +2772,7 @@
         <xdr:cNvPr id="14" name="직선 화살표 연결선 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2809,7 +2829,7 @@
         <xdr:cNvPr id="16" name="직선 화살표 연결선 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2866,7 +2886,7 @@
         <xdr:cNvPr id="19" name="직선 화살표 연결선 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2923,7 +2943,7 @@
         <xdr:cNvPr id="17" name="직선 화살표 연결선 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2980,7 +3000,7 @@
         <xdr:cNvPr id="20" name="직선 화살표 연결선 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3037,7 +3057,7 @@
         <xdr:cNvPr id="22" name="직선 화살표 연결선 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3418,233 +3438,233 @@
     </row>
     <row r="6" spans="1:488" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="50"/>
-      <c r="B6" s="205">
+      <c r="B6" s="207">
         <v>9</v>
       </c>
-      <c r="C6" s="206"/>
-      <c r="D6" s="206"/>
-      <c r="E6" s="206"/>
-      <c r="F6" s="206"/>
-      <c r="G6" s="206"/>
-      <c r="H6" s="206"/>
-      <c r="I6" s="206"/>
-      <c r="J6" s="206"/>
-      <c r="K6" s="206"/>
-      <c r="L6" s="206"/>
-      <c r="M6" s="206"/>
-      <c r="N6" s="206"/>
-      <c r="O6" s="206"/>
-      <c r="P6" s="206"/>
-      <c r="Q6" s="206"/>
-      <c r="R6" s="206"/>
-      <c r="S6" s="206"/>
-      <c r="T6" s="206"/>
-      <c r="U6" s="206"/>
-      <c r="V6" s="206"/>
-      <c r="W6" s="206"/>
-      <c r="X6" s="206"/>
-      <c r="Y6" s="206"/>
-      <c r="Z6" s="206"/>
-      <c r="AA6" s="206"/>
-      <c r="AB6" s="206"/>
-      <c r="AC6" s="206"/>
-      <c r="AD6" s="206"/>
-      <c r="AE6" s="207"/>
-      <c r="AF6" s="202">
+      <c r="C6" s="208"/>
+      <c r="D6" s="208"/>
+      <c r="E6" s="208"/>
+      <c r="F6" s="208"/>
+      <c r="G6" s="208"/>
+      <c r="H6" s="208"/>
+      <c r="I6" s="208"/>
+      <c r="J6" s="208"/>
+      <c r="K6" s="208"/>
+      <c r="L6" s="208"/>
+      <c r="M6" s="208"/>
+      <c r="N6" s="208"/>
+      <c r="O6" s="208"/>
+      <c r="P6" s="208"/>
+      <c r="Q6" s="208"/>
+      <c r="R6" s="208"/>
+      <c r="S6" s="208"/>
+      <c r="T6" s="208"/>
+      <c r="U6" s="208"/>
+      <c r="V6" s="208"/>
+      <c r="W6" s="208"/>
+      <c r="X6" s="208"/>
+      <c r="Y6" s="208"/>
+      <c r="Z6" s="208"/>
+      <c r="AA6" s="208"/>
+      <c r="AB6" s="208"/>
+      <c r="AC6" s="208"/>
+      <c r="AD6" s="208"/>
+      <c r="AE6" s="209"/>
+      <c r="AF6" s="204">
         <v>10</v>
       </c>
-      <c r="AG6" s="202"/>
-      <c r="AH6" s="202"/>
-      <c r="AI6" s="202"/>
-      <c r="AJ6" s="202"/>
-      <c r="AK6" s="202"/>
-      <c r="AL6" s="202"/>
-      <c r="AM6" s="202"/>
-      <c r="AN6" s="202"/>
-      <c r="AO6" s="202"/>
-      <c r="AP6" s="202"/>
-      <c r="AQ6" s="202"/>
-      <c r="AR6" s="202"/>
-      <c r="AS6" s="202"/>
-      <c r="AT6" s="202"/>
-      <c r="AU6" s="202"/>
-      <c r="AV6" s="202"/>
-      <c r="AW6" s="202"/>
-      <c r="AX6" s="202"/>
-      <c r="AY6" s="202"/>
-      <c r="AZ6" s="202"/>
-      <c r="BA6" s="202"/>
-      <c r="BB6" s="202"/>
-      <c r="BC6" s="202"/>
-      <c r="BD6" s="202"/>
-      <c r="BE6" s="202"/>
-      <c r="BF6" s="202"/>
-      <c r="BG6" s="202"/>
-      <c r="BH6" s="202"/>
-      <c r="BI6" s="202"/>
-      <c r="BJ6" s="203"/>
-      <c r="BK6" s="205">
+      <c r="AG6" s="204"/>
+      <c r="AH6" s="204"/>
+      <c r="AI6" s="204"/>
+      <c r="AJ6" s="204"/>
+      <c r="AK6" s="204"/>
+      <c r="AL6" s="204"/>
+      <c r="AM6" s="204"/>
+      <c r="AN6" s="204"/>
+      <c r="AO6" s="204"/>
+      <c r="AP6" s="204"/>
+      <c r="AQ6" s="204"/>
+      <c r="AR6" s="204"/>
+      <c r="AS6" s="204"/>
+      <c r="AT6" s="204"/>
+      <c r="AU6" s="204"/>
+      <c r="AV6" s="204"/>
+      <c r="AW6" s="204"/>
+      <c r="AX6" s="204"/>
+      <c r="AY6" s="204"/>
+      <c r="AZ6" s="204"/>
+      <c r="BA6" s="204"/>
+      <c r="BB6" s="204"/>
+      <c r="BC6" s="204"/>
+      <c r="BD6" s="204"/>
+      <c r="BE6" s="204"/>
+      <c r="BF6" s="204"/>
+      <c r="BG6" s="204"/>
+      <c r="BH6" s="204"/>
+      <c r="BI6" s="204"/>
+      <c r="BJ6" s="205"/>
+      <c r="BK6" s="207">
         <v>11</v>
       </c>
-      <c r="BL6" s="206"/>
-      <c r="BM6" s="206"/>
-      <c r="BN6" s="206"/>
-      <c r="BO6" s="206"/>
-      <c r="BP6" s="206"/>
-      <c r="BQ6" s="206"/>
-      <c r="BR6" s="206"/>
-      <c r="BS6" s="206"/>
-      <c r="BT6" s="206"/>
-      <c r="BU6" s="206"/>
-      <c r="BV6" s="206"/>
-      <c r="BW6" s="206"/>
-      <c r="BX6" s="206"/>
-      <c r="BY6" s="206"/>
-      <c r="BZ6" s="206"/>
-      <c r="CA6" s="206"/>
-      <c r="CB6" s="206"/>
-      <c r="CC6" s="206"/>
-      <c r="CD6" s="206"/>
-      <c r="CE6" s="206"/>
-      <c r="CF6" s="206"/>
-      <c r="CG6" s="206"/>
-      <c r="CH6" s="206"/>
-      <c r="CI6" s="206"/>
-      <c r="CJ6" s="206"/>
-      <c r="CK6" s="206"/>
-      <c r="CL6" s="206"/>
-      <c r="CM6" s="206"/>
-      <c r="CN6" s="207"/>
-      <c r="CO6" s="202">
+      <c r="BL6" s="208"/>
+      <c r="BM6" s="208"/>
+      <c r="BN6" s="208"/>
+      <c r="BO6" s="208"/>
+      <c r="BP6" s="208"/>
+      <c r="BQ6" s="208"/>
+      <c r="BR6" s="208"/>
+      <c r="BS6" s="208"/>
+      <c r="BT6" s="208"/>
+      <c r="BU6" s="208"/>
+      <c r="BV6" s="208"/>
+      <c r="BW6" s="208"/>
+      <c r="BX6" s="208"/>
+      <c r="BY6" s="208"/>
+      <c r="BZ6" s="208"/>
+      <c r="CA6" s="208"/>
+      <c r="CB6" s="208"/>
+      <c r="CC6" s="208"/>
+      <c r="CD6" s="208"/>
+      <c r="CE6" s="208"/>
+      <c r="CF6" s="208"/>
+      <c r="CG6" s="208"/>
+      <c r="CH6" s="208"/>
+      <c r="CI6" s="208"/>
+      <c r="CJ6" s="208"/>
+      <c r="CK6" s="208"/>
+      <c r="CL6" s="208"/>
+      <c r="CM6" s="208"/>
+      <c r="CN6" s="209"/>
+      <c r="CO6" s="204">
         <v>12</v>
       </c>
-      <c r="CP6" s="202"/>
-      <c r="CQ6" s="202"/>
-      <c r="CR6" s="202"/>
-      <c r="CS6" s="202"/>
-      <c r="CT6" s="202"/>
-      <c r="CU6" s="202"/>
-      <c r="CV6" s="202"/>
-      <c r="CW6" s="202"/>
-      <c r="CX6" s="202"/>
-      <c r="CY6" s="202"/>
-      <c r="CZ6" s="202"/>
-      <c r="DA6" s="202"/>
-      <c r="DB6" s="202"/>
-      <c r="DC6" s="202"/>
-      <c r="DD6" s="202"/>
-      <c r="DE6" s="202"/>
-      <c r="DF6" s="202"/>
-      <c r="DG6" s="202"/>
-      <c r="DH6" s="202"/>
-      <c r="DI6" s="202"/>
-      <c r="DJ6" s="202"/>
-      <c r="DK6" s="202"/>
-      <c r="DL6" s="202"/>
-      <c r="DM6" s="202"/>
-      <c r="DN6" s="202"/>
-      <c r="DO6" s="202"/>
-      <c r="DP6" s="202"/>
-      <c r="DQ6" s="202"/>
-      <c r="DR6" s="202"/>
-      <c r="DS6" s="203"/>
-      <c r="DT6" s="202">
+      <c r="CP6" s="204"/>
+      <c r="CQ6" s="204"/>
+      <c r="CR6" s="204"/>
+      <c r="CS6" s="204"/>
+      <c r="CT6" s="204"/>
+      <c r="CU6" s="204"/>
+      <c r="CV6" s="204"/>
+      <c r="CW6" s="204"/>
+      <c r="CX6" s="204"/>
+      <c r="CY6" s="204"/>
+      <c r="CZ6" s="204"/>
+      <c r="DA6" s="204"/>
+      <c r="DB6" s="204"/>
+      <c r="DC6" s="204"/>
+      <c r="DD6" s="204"/>
+      <c r="DE6" s="204"/>
+      <c r="DF6" s="204"/>
+      <c r="DG6" s="204"/>
+      <c r="DH6" s="204"/>
+      <c r="DI6" s="204"/>
+      <c r="DJ6" s="204"/>
+      <c r="DK6" s="204"/>
+      <c r="DL6" s="204"/>
+      <c r="DM6" s="204"/>
+      <c r="DN6" s="204"/>
+      <c r="DO6" s="204"/>
+      <c r="DP6" s="204"/>
+      <c r="DQ6" s="204"/>
+      <c r="DR6" s="204"/>
+      <c r="DS6" s="205"/>
+      <c r="DT6" s="204">
         <v>2019.01</v>
       </c>
-      <c r="DU6" s="202"/>
-      <c r="DV6" s="202"/>
-      <c r="DW6" s="202"/>
-      <c r="DX6" s="202"/>
-      <c r="DY6" s="202"/>
-      <c r="DZ6" s="202"/>
-      <c r="EA6" s="202"/>
-      <c r="EB6" s="202"/>
-      <c r="EC6" s="202"/>
-      <c r="ED6" s="202"/>
-      <c r="EE6" s="202"/>
-      <c r="EF6" s="202"/>
-      <c r="EG6" s="202"/>
-      <c r="EH6" s="202"/>
-      <c r="EI6" s="202"/>
-      <c r="EJ6" s="202"/>
-      <c r="EK6" s="202"/>
-      <c r="EL6" s="202"/>
-      <c r="EM6" s="202"/>
-      <c r="EN6" s="202"/>
-      <c r="EO6" s="202"/>
-      <c r="EP6" s="202"/>
-      <c r="EQ6" s="202"/>
-      <c r="ER6" s="202"/>
-      <c r="ES6" s="202"/>
-      <c r="ET6" s="202"/>
-      <c r="EU6" s="202"/>
-      <c r="EV6" s="202"/>
-      <c r="EW6" s="202"/>
-      <c r="EX6" s="203"/>
-      <c r="EY6" s="204">
+      <c r="DU6" s="204"/>
+      <c r="DV6" s="204"/>
+      <c r="DW6" s="204"/>
+      <c r="DX6" s="204"/>
+      <c r="DY6" s="204"/>
+      <c r="DZ6" s="204"/>
+      <c r="EA6" s="204"/>
+      <c r="EB6" s="204"/>
+      <c r="EC6" s="204"/>
+      <c r="ED6" s="204"/>
+      <c r="EE6" s="204"/>
+      <c r="EF6" s="204"/>
+      <c r="EG6" s="204"/>
+      <c r="EH6" s="204"/>
+      <c r="EI6" s="204"/>
+      <c r="EJ6" s="204"/>
+      <c r="EK6" s="204"/>
+      <c r="EL6" s="204"/>
+      <c r="EM6" s="204"/>
+      <c r="EN6" s="204"/>
+      <c r="EO6" s="204"/>
+      <c r="EP6" s="204"/>
+      <c r="EQ6" s="204"/>
+      <c r="ER6" s="204"/>
+      <c r="ES6" s="204"/>
+      <c r="ET6" s="204"/>
+      <c r="EU6" s="204"/>
+      <c r="EV6" s="204"/>
+      <c r="EW6" s="204"/>
+      <c r="EX6" s="205"/>
+      <c r="EY6" s="206">
         <v>2019.02</v>
       </c>
-      <c r="EZ6" s="202"/>
-      <c r="FA6" s="202"/>
-      <c r="FB6" s="202"/>
-      <c r="FC6" s="202"/>
-      <c r="FD6" s="202"/>
-      <c r="FE6" s="202"/>
-      <c r="FF6" s="202"/>
-      <c r="FG6" s="202"/>
-      <c r="FH6" s="202"/>
-      <c r="FI6" s="202"/>
-      <c r="FJ6" s="202"/>
-      <c r="FK6" s="202"/>
-      <c r="FL6" s="202"/>
-      <c r="FM6" s="202"/>
-      <c r="FN6" s="202"/>
-      <c r="FO6" s="202"/>
-      <c r="FP6" s="202"/>
-      <c r="FQ6" s="202"/>
-      <c r="FR6" s="202"/>
-      <c r="FS6" s="202"/>
-      <c r="FT6" s="202"/>
-      <c r="FU6" s="202"/>
-      <c r="FV6" s="202"/>
-      <c r="FW6" s="202"/>
-      <c r="FX6" s="202"/>
-      <c r="FY6" s="202"/>
-      <c r="FZ6" s="203"/>
-      <c r="GA6" s="201">
+      <c r="EZ6" s="204"/>
+      <c r="FA6" s="204"/>
+      <c r="FB6" s="204"/>
+      <c r="FC6" s="204"/>
+      <c r="FD6" s="204"/>
+      <c r="FE6" s="204"/>
+      <c r="FF6" s="204"/>
+      <c r="FG6" s="204"/>
+      <c r="FH6" s="204"/>
+      <c r="FI6" s="204"/>
+      <c r="FJ6" s="204"/>
+      <c r="FK6" s="204"/>
+      <c r="FL6" s="204"/>
+      <c r="FM6" s="204"/>
+      <c r="FN6" s="204"/>
+      <c r="FO6" s="204"/>
+      <c r="FP6" s="204"/>
+      <c r="FQ6" s="204"/>
+      <c r="FR6" s="204"/>
+      <c r="FS6" s="204"/>
+      <c r="FT6" s="204"/>
+      <c r="FU6" s="204"/>
+      <c r="FV6" s="204"/>
+      <c r="FW6" s="204"/>
+      <c r="FX6" s="204"/>
+      <c r="FY6" s="204"/>
+      <c r="FZ6" s="205"/>
+      <c r="GA6" s="200">
         <v>3</v>
       </c>
-      <c r="GB6" s="201"/>
-      <c r="GC6" s="201"/>
-      <c r="GD6" s="201"/>
-      <c r="GE6" s="201"/>
-      <c r="GF6" s="201"/>
-      <c r="GG6" s="201"/>
-      <c r="GH6" s="201"/>
-      <c r="GI6" s="201"/>
-      <c r="GJ6" s="201"/>
-      <c r="GK6" s="201"/>
-      <c r="GL6" s="201"/>
-      <c r="GM6" s="201"/>
-      <c r="GN6" s="201"/>
-      <c r="GO6" s="201"/>
-      <c r="GP6" s="201"/>
-      <c r="GQ6" s="201"/>
-      <c r="GR6" s="201"/>
-      <c r="GS6" s="201"/>
-      <c r="GT6" s="201"/>
-      <c r="GU6" s="201"/>
-      <c r="GV6" s="201"/>
-      <c r="GW6" s="201"/>
-      <c r="GX6" s="201"/>
-      <c r="GY6" s="201"/>
-      <c r="GZ6" s="201"/>
-      <c r="HA6" s="201"/>
-      <c r="HB6" s="201"/>
-      <c r="HC6" s="201"/>
-      <c r="HD6" s="201"/>
-      <c r="HE6" s="201"/>
-      <c r="HF6" s="199">
+      <c r="GB6" s="200"/>
+      <c r="GC6" s="200"/>
+      <c r="GD6" s="200"/>
+      <c r="GE6" s="200"/>
+      <c r="GF6" s="200"/>
+      <c r="GG6" s="200"/>
+      <c r="GH6" s="200"/>
+      <c r="GI6" s="200"/>
+      <c r="GJ6" s="200"/>
+      <c r="GK6" s="200"/>
+      <c r="GL6" s="200"/>
+      <c r="GM6" s="200"/>
+      <c r="GN6" s="200"/>
+      <c r="GO6" s="200"/>
+      <c r="GP6" s="200"/>
+      <c r="GQ6" s="200"/>
+      <c r="GR6" s="200"/>
+      <c r="GS6" s="200"/>
+      <c r="GT6" s="200"/>
+      <c r="GU6" s="200"/>
+      <c r="GV6" s="200"/>
+      <c r="GW6" s="200"/>
+      <c r="GX6" s="200"/>
+      <c r="GY6" s="200"/>
+      <c r="GZ6" s="200"/>
+      <c r="HA6" s="200"/>
+      <c r="HB6" s="200"/>
+      <c r="HC6" s="200"/>
+      <c r="HD6" s="200"/>
+      <c r="HE6" s="200"/>
+      <c r="HF6" s="196">
         <v>4</v>
       </c>
       <c r="HG6" s="197"/>
@@ -3676,40 +3696,40 @@
       <c r="IG6" s="197"/>
       <c r="IH6" s="197"/>
       <c r="II6" s="198"/>
-      <c r="IJ6" s="208">
+      <c r="IJ6" s="199">
         <v>5</v>
       </c>
-      <c r="IK6" s="201"/>
-      <c r="IL6" s="201"/>
-      <c r="IM6" s="201"/>
-      <c r="IN6" s="201"/>
-      <c r="IO6" s="201"/>
-      <c r="IP6" s="201"/>
-      <c r="IQ6" s="201"/>
-      <c r="IR6" s="201"/>
-      <c r="IS6" s="201"/>
-      <c r="IT6" s="201"/>
-      <c r="IU6" s="201"/>
-      <c r="IV6" s="201"/>
-      <c r="IW6" s="201"/>
-      <c r="IX6" s="201"/>
-      <c r="IY6" s="201"/>
-      <c r="IZ6" s="201"/>
-      <c r="JA6" s="201"/>
-      <c r="JB6" s="201"/>
-      <c r="JC6" s="201"/>
-      <c r="JD6" s="201"/>
-      <c r="JE6" s="201"/>
-      <c r="JF6" s="201"/>
-      <c r="JG6" s="201"/>
-      <c r="JH6" s="201"/>
-      <c r="JI6" s="201"/>
-      <c r="JJ6" s="201"/>
-      <c r="JK6" s="201"/>
-      <c r="JL6" s="201"/>
-      <c r="JM6" s="201"/>
-      <c r="JN6" s="209"/>
-      <c r="JO6" s="199">
+      <c r="IK6" s="200"/>
+      <c r="IL6" s="200"/>
+      <c r="IM6" s="200"/>
+      <c r="IN6" s="200"/>
+      <c r="IO6" s="200"/>
+      <c r="IP6" s="200"/>
+      <c r="IQ6" s="200"/>
+      <c r="IR6" s="200"/>
+      <c r="IS6" s="200"/>
+      <c r="IT6" s="200"/>
+      <c r="IU6" s="200"/>
+      <c r="IV6" s="200"/>
+      <c r="IW6" s="200"/>
+      <c r="IX6" s="200"/>
+      <c r="IY6" s="200"/>
+      <c r="IZ6" s="200"/>
+      <c r="JA6" s="200"/>
+      <c r="JB6" s="200"/>
+      <c r="JC6" s="200"/>
+      <c r="JD6" s="200"/>
+      <c r="JE6" s="200"/>
+      <c r="JF6" s="200"/>
+      <c r="JG6" s="200"/>
+      <c r="JH6" s="200"/>
+      <c r="JI6" s="200"/>
+      <c r="JJ6" s="200"/>
+      <c r="JK6" s="200"/>
+      <c r="JL6" s="200"/>
+      <c r="JM6" s="200"/>
+      <c r="JN6" s="201"/>
+      <c r="JO6" s="196">
         <v>6</v>
       </c>
       <c r="JP6" s="197"/>
@@ -3807,7 +3827,7 @@
       <c r="MZ6" s="194"/>
       <c r="NA6" s="194"/>
       <c r="NB6" s="194"/>
-      <c r="NC6" s="199">
+      <c r="NC6" s="196">
         <v>9</v>
       </c>
       <c r="ND6" s="197"/>
@@ -3872,7 +3892,7 @@
       <c r="PI6" s="194"/>
       <c r="PJ6" s="194"/>
       <c r="PK6" s="195"/>
-      <c r="PL6" s="196">
+      <c r="PL6" s="210">
         <v>11</v>
       </c>
       <c r="PM6" s="197"/>
@@ -5403,7 +5423,7 @@
       </c>
     </row>
     <row r="8" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="200" t="s">
+      <c r="A8" s="202" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="41"/>
@@ -5909,7 +5929,7 @@
       <c r="RT8" s="189"/>
     </row>
     <row r="9" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="200"/>
+      <c r="A9" s="202"/>
       <c r="B9" s="72"/>
       <c r="C9" s="73"/>
       <c r="D9" s="74"/>
@@ -6415,7 +6435,7 @@
       <c r="RT9" s="7"/>
     </row>
     <row r="10" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="200"/>
+      <c r="A10" s="202"/>
       <c r="B10" s="72"/>
       <c r="C10" s="73"/>
       <c r="D10" s="74"/>
@@ -6913,7 +6933,7 @@
       <c r="RT10" s="7"/>
     </row>
     <row r="11" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="200"/>
+      <c r="A11" s="202"/>
       <c r="B11" s="72"/>
       <c r="C11" s="73"/>
       <c r="D11" s="74"/>
@@ -7413,7 +7433,7 @@
       <c r="RT11" s="7"/>
     </row>
     <row r="12" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="200"/>
+      <c r="A12" s="202"/>
       <c r="B12" s="72"/>
       <c r="C12" s="73"/>
       <c r="D12" s="74"/>
@@ -7911,7 +7931,7 @@
       <c r="RT12" s="7"/>
     </row>
     <row r="13" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="200"/>
+      <c r="A13" s="202"/>
       <c r="B13" s="72"/>
       <c r="C13" s="73"/>
       <c r="D13" s="74"/>
@@ -8405,7 +8425,7 @@
       <c r="RT13" s="7"/>
     </row>
     <row r="14" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="200"/>
+      <c r="A14" s="202"/>
       <c r="B14" s="80"/>
       <c r="C14" s="81"/>
       <c r="D14" s="82"/>
@@ -8897,7 +8917,7 @@
       <c r="RT14" s="18"/>
     </row>
     <row r="15" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="210" t="s">
+      <c r="A15" s="203" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="88"/>
@@ -9391,7 +9411,7 @@
       <c r="RT15" s="29"/>
     </row>
     <row r="16" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="200"/>
+      <c r="A16" s="202"/>
       <c r="B16" s="94"/>
       <c r="C16" s="95"/>
       <c r="D16" s="96"/>
@@ -9893,7 +9913,7 @@
       <c r="RT16" s="13"/>
     </row>
     <row r="17" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="200"/>
+      <c r="A17" s="202"/>
       <c r="B17" s="94"/>
       <c r="C17" s="95"/>
       <c r="D17" s="96"/>
@@ -10390,7 +10410,7 @@
       <c r="RT17" s="4"/>
     </row>
     <row r="18" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="200"/>
+      <c r="A18" s="202"/>
       <c r="B18" s="94"/>
       <c r="C18" s="95"/>
       <c r="D18" s="96"/>
@@ -10883,7 +10903,7 @@
       <c r="RT18" s="4"/>
     </row>
     <row r="19" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="200"/>
+      <c r="A19" s="202"/>
       <c r="B19" s="94"/>
       <c r="C19" s="95"/>
       <c r="D19" s="96"/>
@@ -11373,7 +11393,7 @@
       <c r="RT19" s="4"/>
     </row>
     <row r="20" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="200"/>
+      <c r="A20" s="202"/>
       <c r="B20" s="94"/>
       <c r="C20" s="95"/>
       <c r="D20" s="96"/>
@@ -11863,7 +11883,7 @@
       <c r="RT20" s="4"/>
     </row>
     <row r="21" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="200"/>
+      <c r="A21" s="202"/>
       <c r="B21" s="94"/>
       <c r="C21" s="95"/>
       <c r="D21" s="96"/>
@@ -12353,7 +12373,7 @@
       <c r="RT21" s="126"/>
     </row>
     <row r="22" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="200"/>
+      <c r="A22" s="202"/>
       <c r="B22" s="101"/>
       <c r="C22" s="102"/>
       <c r="D22" s="103"/>
@@ -12843,7 +12863,7 @@
       <c r="RT22" s="25"/>
     </row>
     <row r="23" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="200" t="s">
+      <c r="A23" s="202" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="107"/>
@@ -13347,7 +13367,7 @@
       <c r="RT23" s="29"/>
     </row>
     <row r="24" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="200"/>
+      <c r="A24" s="202"/>
       <c r="B24" s="94"/>
       <c r="C24" s="95"/>
       <c r="D24" s="96"/>
@@ -13843,7 +13863,7 @@
       <c r="RT24" s="4"/>
     </row>
     <row r="25" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="200"/>
+      <c r="A25" s="202"/>
       <c r="B25" s="94"/>
       <c r="C25" s="95"/>
       <c r="D25" s="96"/>
@@ -14347,7 +14367,7 @@
       <c r="RT25" s="4"/>
     </row>
     <row r="26" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="200"/>
+      <c r="A26" s="202"/>
       <c r="B26" s="94"/>
       <c r="C26" s="95"/>
       <c r="D26" s="96"/>
@@ -14847,7 +14867,7 @@
       <c r="RT26" s="4"/>
     </row>
     <row r="27" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="200"/>
+      <c r="A27" s="202"/>
       <c r="B27" s="94"/>
       <c r="C27" s="95"/>
       <c r="D27" s="96"/>
@@ -15343,7 +15363,7 @@
       <c r="RT27" s="4"/>
     </row>
     <row r="28" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="200"/>
+      <c r="A28" s="202"/>
       <c r="B28" s="94"/>
       <c r="C28" s="95"/>
       <c r="D28" s="96"/>
@@ -15835,7 +15855,7 @@
       <c r="RT28" s="4"/>
     </row>
     <row r="29" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="200"/>
+      <c r="A29" s="202"/>
       <c r="B29" s="94"/>
       <c r="C29" s="95"/>
       <c r="D29" s="96"/>
@@ -16327,7 +16347,7 @@
       <c r="RT29" s="4"/>
     </row>
     <row r="30" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="200"/>
+      <c r="A30" s="202"/>
       <c r="B30" s="101"/>
       <c r="C30" s="102"/>
       <c r="D30" s="103"/>
@@ -18065,11 +18085,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="KS6:LW6"/>
-    <mergeCell ref="JO6:KR6"/>
-    <mergeCell ref="IJ6:JN6"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="OG6:PK6"/>
+    <mergeCell ref="PL6:QO6"/>
+    <mergeCell ref="QP6:RT6"/>
+    <mergeCell ref="NC6:OF6"/>
+    <mergeCell ref="LX6:NB6"/>
     <mergeCell ref="A23:A30"/>
     <mergeCell ref="GA6:HE6"/>
     <mergeCell ref="HF6:II6"/>
@@ -18079,11 +18099,11 @@
     <mergeCell ref="B6:AE6"/>
     <mergeCell ref="AF6:BJ6"/>
     <mergeCell ref="BK6:CN6"/>
-    <mergeCell ref="OG6:PK6"/>
-    <mergeCell ref="PL6:QO6"/>
-    <mergeCell ref="QP6:RT6"/>
-    <mergeCell ref="NC6:OF6"/>
-    <mergeCell ref="LX6:NB6"/>
+    <mergeCell ref="KS6:LW6"/>
+    <mergeCell ref="JO6:KR6"/>
+    <mergeCell ref="IJ6:JN6"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A15:A22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18095,11 +18115,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E121"/>
+  <dimension ref="B2:E133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I110" sqref="I110"/>
+      <pane ySplit="3" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J126" sqref="J126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19314,7 +19334,7 @@
       <c r="C104" s="212"/>
       <c r="D104" s="138">
         <f>SUM(D105:D119)</f>
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E104" s="141"/>
     </row>
@@ -19327,7 +19347,7 @@
         <v>5</v>
       </c>
       <c r="E105" s="167" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.3">
@@ -19339,7 +19359,7 @@
         <v>6</v>
       </c>
       <c r="E106" s="167" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.3">
@@ -19351,7 +19371,7 @@
         <v>4</v>
       </c>
       <c r="E107" s="167" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.3">
@@ -19363,7 +19383,7 @@
         <v>8</v>
       </c>
       <c r="E108" s="167" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.3">
@@ -19375,7 +19395,7 @@
         <v>4</v>
       </c>
       <c r="E109" s="167" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.3">
@@ -19399,7 +19419,7 @@
         <v>6</v>
       </c>
       <c r="E111" s="167" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.3">
@@ -19411,7 +19431,7 @@
         <v>3</v>
       </c>
       <c r="E112" s="167" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.3">
@@ -19423,7 +19443,7 @@
         <v>3</v>
       </c>
       <c r="E113" s="167" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.3">
@@ -19447,7 +19467,7 @@
         <v>3</v>
       </c>
       <c r="E115" s="167" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.3">
@@ -19459,7 +19479,7 @@
         <v>10</v>
       </c>
       <c r="E116" s="167" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.3">
@@ -19471,26 +19491,43 @@
         <v>4</v>
       </c>
       <c r="E117" s="167" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B118" s="163"/>
-      <c r="C118" s="164"/>
-      <c r="D118" s="165"/>
-      <c r="E118" s="167"/>
+      <c r="C118" s="164">
+        <v>30</v>
+      </c>
+      <c r="D118" s="165">
+        <v>2</v>
+      </c>
+      <c r="E118" s="167" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B119" s="163"/>
-      <c r="C119" s="164"/>
-      <c r="D119" s="165"/>
-      <c r="E119" s="167"/>
+      <c r="C119" s="164">
+        <v>31</v>
+      </c>
+      <c r="D119" s="165">
+        <v>4</v>
+      </c>
+      <c r="E119" s="167" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B120" s="163"/>
-      <c r="C120" s="164"/>
-      <c r="D120" s="165"/>
-      <c r="E120" s="167"/>
+      <c r="B120" s="211" t="s">
+        <v>154</v>
+      </c>
+      <c r="C120" s="212"/>
+      <c r="D120" s="138">
+        <f>SUM(D121:D135)</f>
+        <v>0</v>
+      </c>
+      <c r="E120" s="141"/>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B121" s="163"/>
@@ -19498,8 +19535,81 @@
       <c r="D121" s="165"/>
       <c r="E121" s="167"/>
     </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B122" s="163"/>
+      <c r="C122" s="164"/>
+      <c r="D122" s="165"/>
+      <c r="E122" s="167"/>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B123" s="163"/>
+      <c r="C123" s="164"/>
+      <c r="D123" s="165"/>
+      <c r="E123" s="167"/>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B124" s="163"/>
+      <c r="C124" s="164"/>
+      <c r="D124" s="165"/>
+      <c r="E124" s="167"/>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B125" s="163"/>
+      <c r="C125" s="164"/>
+      <c r="D125" s="165"/>
+      <c r="E125" s="167"/>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B126" s="163"/>
+      <c r="C126" s="164"/>
+      <c r="D126" s="165"/>
+      <c r="E126" s="167"/>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B127" s="163"/>
+      <c r="C127" s="164"/>
+      <c r="D127" s="165"/>
+      <c r="E127" s="167"/>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B128" s="163"/>
+      <c r="C128" s="164"/>
+      <c r="D128" s="165"/>
+      <c r="E128" s="167"/>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B129" s="163"/>
+      <c r="C129" s="164"/>
+      <c r="D129" s="165"/>
+      <c r="E129" s="167"/>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B130" s="163"/>
+      <c r="C130" s="164"/>
+      <c r="D130" s="165"/>
+      <c r="E130" s="167"/>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B131" s="163"/>
+      <c r="C131" s="164"/>
+      <c r="D131" s="165"/>
+      <c r="E131" s="167"/>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B132" s="163"/>
+      <c r="C132" s="164"/>
+      <c r="D132" s="165"/>
+      <c r="E132" s="167"/>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B133" s="163"/>
+      <c r="C133" s="164"/>
+      <c r="D133" s="165"/>
+      <c r="E133" s="167"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="B120:C120"/>
     <mergeCell ref="B104:C104"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B4:C4"/>

--- a/Plasma Project schedule V1.0_20191015.xlsx
+++ b/Plasma Project schedule V1.0_20191015.xlsx
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="156">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -754,6 +754,10 @@
   </si>
   <si>
     <t>2019.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF GEN - RF PCB 재설계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -18119,7 +18123,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J126" sqref="J126"/>
+      <selection pane="bottomLeft" activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19525,21 +19529,33 @@
       <c r="C120" s="212"/>
       <c r="D120" s="138">
         <f>SUM(D121:D135)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E120" s="141"/>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B121" s="163"/>
-      <c r="C121" s="164"/>
-      <c r="D121" s="165"/>
-      <c r="E121" s="167"/>
+      <c r="C121" s="164">
+        <v>2</v>
+      </c>
+      <c r="D121" s="165">
+        <v>4</v>
+      </c>
+      <c r="E121" s="167" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B122" s="163"/>
-      <c r="C122" s="164"/>
-      <c r="D122" s="165"/>
-      <c r="E122" s="167"/>
+      <c r="C122" s="164">
+        <v>3</v>
+      </c>
+      <c r="D122" s="165">
+        <v>8</v>
+      </c>
+      <c r="E122" s="167" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B123" s="163"/>

--- a/Plasma Project schedule V1.0_20191015.xlsx
+++ b/Plasma Project schedule V1.0_20191015.xlsx
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="156">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1672,7 +1672,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="222">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1971,7 +1971,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1980,20 +1980,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2013,8 +2007,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2047,6 +2047,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2092,7 +2096,7 @@
         <xdr:cNvPr id="52" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2149,7 +2153,7 @@
         <xdr:cNvPr id="15" name="직선 화살표 연결선 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2206,7 +2210,7 @@
         <xdr:cNvPr id="18" name="직선 화살표 연결선 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2263,7 +2267,7 @@
         <xdr:cNvPr id="21" name="직선 화살표 연결선 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2320,7 +2324,7 @@
         <xdr:cNvPr id="25" name="직선 화살표 연결선 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2377,7 +2381,7 @@
         <xdr:cNvPr id="28" name="직선 화살표 연결선 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2434,7 +2438,7 @@
         <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2491,7 +2495,7 @@
         <xdr:cNvPr id="33" name="직선 화살표 연결선 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2548,7 +2552,7 @@
         <xdr:cNvPr id="36" name="직선 화살표 연결선 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2605,7 +2609,7 @@
         <xdr:cNvPr id="38" name="직선 화살표 연결선 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2662,7 +2666,7 @@
         <xdr:cNvPr id="41" name="직선 화살표 연결선 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2719,7 +2723,7 @@
         <xdr:cNvPr id="46" name="직선 화살표 연결선 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2776,7 +2780,7 @@
         <xdr:cNvPr id="14" name="직선 화살표 연결선 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2833,7 +2837,7 @@
         <xdr:cNvPr id="16" name="직선 화살표 연결선 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2890,7 +2894,7 @@
         <xdr:cNvPr id="19" name="직선 화살표 연결선 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2947,7 +2951,7 @@
         <xdr:cNvPr id="17" name="직선 화살표 연결선 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3004,7 +3008,7 @@
         <xdr:cNvPr id="20" name="직선 화살표 연결선 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3061,7 +3065,7 @@
         <xdr:cNvPr id="22" name="직선 화살표 연결선 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3442,233 +3446,233 @@
     </row>
     <row r="6" spans="1:488" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="50"/>
-      <c r="B6" s="207">
+      <c r="B6" s="205">
         <v>9</v>
       </c>
-      <c r="C6" s="208"/>
-      <c r="D6" s="208"/>
-      <c r="E6" s="208"/>
-      <c r="F6" s="208"/>
-      <c r="G6" s="208"/>
-      <c r="H6" s="208"/>
-      <c r="I6" s="208"/>
-      <c r="J6" s="208"/>
-      <c r="K6" s="208"/>
-      <c r="L6" s="208"/>
-      <c r="M6" s="208"/>
-      <c r="N6" s="208"/>
-      <c r="O6" s="208"/>
-      <c r="P6" s="208"/>
-      <c r="Q6" s="208"/>
-      <c r="R6" s="208"/>
-      <c r="S6" s="208"/>
-      <c r="T6" s="208"/>
-      <c r="U6" s="208"/>
-      <c r="V6" s="208"/>
-      <c r="W6" s="208"/>
-      <c r="X6" s="208"/>
-      <c r="Y6" s="208"/>
-      <c r="Z6" s="208"/>
-      <c r="AA6" s="208"/>
-      <c r="AB6" s="208"/>
-      <c r="AC6" s="208"/>
-      <c r="AD6" s="208"/>
-      <c r="AE6" s="209"/>
-      <c r="AF6" s="204">
+      <c r="C6" s="206"/>
+      <c r="D6" s="206"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="206"/>
+      <c r="G6" s="206"/>
+      <c r="H6" s="206"/>
+      <c r="I6" s="206"/>
+      <c r="J6" s="206"/>
+      <c r="K6" s="206"/>
+      <c r="L6" s="206"/>
+      <c r="M6" s="206"/>
+      <c r="N6" s="206"/>
+      <c r="O6" s="206"/>
+      <c r="P6" s="206"/>
+      <c r="Q6" s="206"/>
+      <c r="R6" s="206"/>
+      <c r="S6" s="206"/>
+      <c r="T6" s="206"/>
+      <c r="U6" s="206"/>
+      <c r="V6" s="206"/>
+      <c r="W6" s="206"/>
+      <c r="X6" s="206"/>
+      <c r="Y6" s="206"/>
+      <c r="Z6" s="206"/>
+      <c r="AA6" s="206"/>
+      <c r="AB6" s="206"/>
+      <c r="AC6" s="206"/>
+      <c r="AD6" s="206"/>
+      <c r="AE6" s="207"/>
+      <c r="AF6" s="202">
         <v>10</v>
       </c>
-      <c r="AG6" s="204"/>
-      <c r="AH6" s="204"/>
-      <c r="AI6" s="204"/>
-      <c r="AJ6" s="204"/>
-      <c r="AK6" s="204"/>
-      <c r="AL6" s="204"/>
-      <c r="AM6" s="204"/>
-      <c r="AN6" s="204"/>
-      <c r="AO6" s="204"/>
-      <c r="AP6" s="204"/>
-      <c r="AQ6" s="204"/>
-      <c r="AR6" s="204"/>
-      <c r="AS6" s="204"/>
-      <c r="AT6" s="204"/>
-      <c r="AU6" s="204"/>
-      <c r="AV6" s="204"/>
-      <c r="AW6" s="204"/>
-      <c r="AX6" s="204"/>
-      <c r="AY6" s="204"/>
-      <c r="AZ6" s="204"/>
-      <c r="BA6" s="204"/>
-      <c r="BB6" s="204"/>
-      <c r="BC6" s="204"/>
-      <c r="BD6" s="204"/>
-      <c r="BE6" s="204"/>
-      <c r="BF6" s="204"/>
-      <c r="BG6" s="204"/>
-      <c r="BH6" s="204"/>
-      <c r="BI6" s="204"/>
-      <c r="BJ6" s="205"/>
-      <c r="BK6" s="207">
+      <c r="AG6" s="202"/>
+      <c r="AH6" s="202"/>
+      <c r="AI6" s="202"/>
+      <c r="AJ6" s="202"/>
+      <c r="AK6" s="202"/>
+      <c r="AL6" s="202"/>
+      <c r="AM6" s="202"/>
+      <c r="AN6" s="202"/>
+      <c r="AO6" s="202"/>
+      <c r="AP6" s="202"/>
+      <c r="AQ6" s="202"/>
+      <c r="AR6" s="202"/>
+      <c r="AS6" s="202"/>
+      <c r="AT6" s="202"/>
+      <c r="AU6" s="202"/>
+      <c r="AV6" s="202"/>
+      <c r="AW6" s="202"/>
+      <c r="AX6" s="202"/>
+      <c r="AY6" s="202"/>
+      <c r="AZ6" s="202"/>
+      <c r="BA6" s="202"/>
+      <c r="BB6" s="202"/>
+      <c r="BC6" s="202"/>
+      <c r="BD6" s="202"/>
+      <c r="BE6" s="202"/>
+      <c r="BF6" s="202"/>
+      <c r="BG6" s="202"/>
+      <c r="BH6" s="202"/>
+      <c r="BI6" s="202"/>
+      <c r="BJ6" s="203"/>
+      <c r="BK6" s="205">
         <v>11</v>
       </c>
-      <c r="BL6" s="208"/>
-      <c r="BM6" s="208"/>
-      <c r="BN6" s="208"/>
-      <c r="BO6" s="208"/>
-      <c r="BP6" s="208"/>
-      <c r="BQ6" s="208"/>
-      <c r="BR6" s="208"/>
-      <c r="BS6" s="208"/>
-      <c r="BT6" s="208"/>
-      <c r="BU6" s="208"/>
-      <c r="BV6" s="208"/>
-      <c r="BW6" s="208"/>
-      <c r="BX6" s="208"/>
-      <c r="BY6" s="208"/>
-      <c r="BZ6" s="208"/>
-      <c r="CA6" s="208"/>
-      <c r="CB6" s="208"/>
-      <c r="CC6" s="208"/>
-      <c r="CD6" s="208"/>
-      <c r="CE6" s="208"/>
-      <c r="CF6" s="208"/>
-      <c r="CG6" s="208"/>
-      <c r="CH6" s="208"/>
-      <c r="CI6" s="208"/>
-      <c r="CJ6" s="208"/>
-      <c r="CK6" s="208"/>
-      <c r="CL6" s="208"/>
-      <c r="CM6" s="208"/>
-      <c r="CN6" s="209"/>
-      <c r="CO6" s="204">
+      <c r="BL6" s="206"/>
+      <c r="BM6" s="206"/>
+      <c r="BN6" s="206"/>
+      <c r="BO6" s="206"/>
+      <c r="BP6" s="206"/>
+      <c r="BQ6" s="206"/>
+      <c r="BR6" s="206"/>
+      <c r="BS6" s="206"/>
+      <c r="BT6" s="206"/>
+      <c r="BU6" s="206"/>
+      <c r="BV6" s="206"/>
+      <c r="BW6" s="206"/>
+      <c r="BX6" s="206"/>
+      <c r="BY6" s="206"/>
+      <c r="BZ6" s="206"/>
+      <c r="CA6" s="206"/>
+      <c r="CB6" s="206"/>
+      <c r="CC6" s="206"/>
+      <c r="CD6" s="206"/>
+      <c r="CE6" s="206"/>
+      <c r="CF6" s="206"/>
+      <c r="CG6" s="206"/>
+      <c r="CH6" s="206"/>
+      <c r="CI6" s="206"/>
+      <c r="CJ6" s="206"/>
+      <c r="CK6" s="206"/>
+      <c r="CL6" s="206"/>
+      <c r="CM6" s="206"/>
+      <c r="CN6" s="207"/>
+      <c r="CO6" s="202">
         <v>12</v>
       </c>
-      <c r="CP6" s="204"/>
-      <c r="CQ6" s="204"/>
-      <c r="CR6" s="204"/>
-      <c r="CS6" s="204"/>
-      <c r="CT6" s="204"/>
-      <c r="CU6" s="204"/>
-      <c r="CV6" s="204"/>
-      <c r="CW6" s="204"/>
-      <c r="CX6" s="204"/>
-      <c r="CY6" s="204"/>
-      <c r="CZ6" s="204"/>
-      <c r="DA6" s="204"/>
-      <c r="DB6" s="204"/>
-      <c r="DC6" s="204"/>
-      <c r="DD6" s="204"/>
-      <c r="DE6" s="204"/>
-      <c r="DF6" s="204"/>
-      <c r="DG6" s="204"/>
-      <c r="DH6" s="204"/>
-      <c r="DI6" s="204"/>
-      <c r="DJ6" s="204"/>
-      <c r="DK6" s="204"/>
-      <c r="DL6" s="204"/>
-      <c r="DM6" s="204"/>
-      <c r="DN6" s="204"/>
-      <c r="DO6" s="204"/>
-      <c r="DP6" s="204"/>
-      <c r="DQ6" s="204"/>
-      <c r="DR6" s="204"/>
-      <c r="DS6" s="205"/>
-      <c r="DT6" s="204">
+      <c r="CP6" s="202"/>
+      <c r="CQ6" s="202"/>
+      <c r="CR6" s="202"/>
+      <c r="CS6" s="202"/>
+      <c r="CT6" s="202"/>
+      <c r="CU6" s="202"/>
+      <c r="CV6" s="202"/>
+      <c r="CW6" s="202"/>
+      <c r="CX6" s="202"/>
+      <c r="CY6" s="202"/>
+      <c r="CZ6" s="202"/>
+      <c r="DA6" s="202"/>
+      <c r="DB6" s="202"/>
+      <c r="DC6" s="202"/>
+      <c r="DD6" s="202"/>
+      <c r="DE6" s="202"/>
+      <c r="DF6" s="202"/>
+      <c r="DG6" s="202"/>
+      <c r="DH6" s="202"/>
+      <c r="DI6" s="202"/>
+      <c r="DJ6" s="202"/>
+      <c r="DK6" s="202"/>
+      <c r="DL6" s="202"/>
+      <c r="DM6" s="202"/>
+      <c r="DN6" s="202"/>
+      <c r="DO6" s="202"/>
+      <c r="DP6" s="202"/>
+      <c r="DQ6" s="202"/>
+      <c r="DR6" s="202"/>
+      <c r="DS6" s="203"/>
+      <c r="DT6" s="202">
         <v>2019.01</v>
       </c>
-      <c r="DU6" s="204"/>
-      <c r="DV6" s="204"/>
-      <c r="DW6" s="204"/>
-      <c r="DX6" s="204"/>
-      <c r="DY6" s="204"/>
-      <c r="DZ6" s="204"/>
-      <c r="EA6" s="204"/>
-      <c r="EB6" s="204"/>
-      <c r="EC6" s="204"/>
-      <c r="ED6" s="204"/>
-      <c r="EE6" s="204"/>
-      <c r="EF6" s="204"/>
-      <c r="EG6" s="204"/>
-      <c r="EH6" s="204"/>
-      <c r="EI6" s="204"/>
-      <c r="EJ6" s="204"/>
-      <c r="EK6" s="204"/>
-      <c r="EL6" s="204"/>
-      <c r="EM6" s="204"/>
-      <c r="EN6" s="204"/>
-      <c r="EO6" s="204"/>
-      <c r="EP6" s="204"/>
-      <c r="EQ6" s="204"/>
-      <c r="ER6" s="204"/>
-      <c r="ES6" s="204"/>
-      <c r="ET6" s="204"/>
-      <c r="EU6" s="204"/>
-      <c r="EV6" s="204"/>
-      <c r="EW6" s="204"/>
-      <c r="EX6" s="205"/>
-      <c r="EY6" s="206">
+      <c r="DU6" s="202"/>
+      <c r="DV6" s="202"/>
+      <c r="DW6" s="202"/>
+      <c r="DX6" s="202"/>
+      <c r="DY6" s="202"/>
+      <c r="DZ6" s="202"/>
+      <c r="EA6" s="202"/>
+      <c r="EB6" s="202"/>
+      <c r="EC6" s="202"/>
+      <c r="ED6" s="202"/>
+      <c r="EE6" s="202"/>
+      <c r="EF6" s="202"/>
+      <c r="EG6" s="202"/>
+      <c r="EH6" s="202"/>
+      <c r="EI6" s="202"/>
+      <c r="EJ6" s="202"/>
+      <c r="EK6" s="202"/>
+      <c r="EL6" s="202"/>
+      <c r="EM6" s="202"/>
+      <c r="EN6" s="202"/>
+      <c r="EO6" s="202"/>
+      <c r="EP6" s="202"/>
+      <c r="EQ6" s="202"/>
+      <c r="ER6" s="202"/>
+      <c r="ES6" s="202"/>
+      <c r="ET6" s="202"/>
+      <c r="EU6" s="202"/>
+      <c r="EV6" s="202"/>
+      <c r="EW6" s="202"/>
+      <c r="EX6" s="203"/>
+      <c r="EY6" s="204">
         <v>2019.02</v>
       </c>
-      <c r="EZ6" s="204"/>
-      <c r="FA6" s="204"/>
-      <c r="FB6" s="204"/>
-      <c r="FC6" s="204"/>
-      <c r="FD6" s="204"/>
-      <c r="FE6" s="204"/>
-      <c r="FF6" s="204"/>
-      <c r="FG6" s="204"/>
-      <c r="FH6" s="204"/>
-      <c r="FI6" s="204"/>
-      <c r="FJ6" s="204"/>
-      <c r="FK6" s="204"/>
-      <c r="FL6" s="204"/>
-      <c r="FM6" s="204"/>
-      <c r="FN6" s="204"/>
-      <c r="FO6" s="204"/>
-      <c r="FP6" s="204"/>
-      <c r="FQ6" s="204"/>
-      <c r="FR6" s="204"/>
-      <c r="FS6" s="204"/>
-      <c r="FT6" s="204"/>
-      <c r="FU6" s="204"/>
-      <c r="FV6" s="204"/>
-      <c r="FW6" s="204"/>
-      <c r="FX6" s="204"/>
-      <c r="FY6" s="204"/>
-      <c r="FZ6" s="205"/>
-      <c r="GA6" s="200">
+      <c r="EZ6" s="202"/>
+      <c r="FA6" s="202"/>
+      <c r="FB6" s="202"/>
+      <c r="FC6" s="202"/>
+      <c r="FD6" s="202"/>
+      <c r="FE6" s="202"/>
+      <c r="FF6" s="202"/>
+      <c r="FG6" s="202"/>
+      <c r="FH6" s="202"/>
+      <c r="FI6" s="202"/>
+      <c r="FJ6" s="202"/>
+      <c r="FK6" s="202"/>
+      <c r="FL6" s="202"/>
+      <c r="FM6" s="202"/>
+      <c r="FN6" s="202"/>
+      <c r="FO6" s="202"/>
+      <c r="FP6" s="202"/>
+      <c r="FQ6" s="202"/>
+      <c r="FR6" s="202"/>
+      <c r="FS6" s="202"/>
+      <c r="FT6" s="202"/>
+      <c r="FU6" s="202"/>
+      <c r="FV6" s="202"/>
+      <c r="FW6" s="202"/>
+      <c r="FX6" s="202"/>
+      <c r="FY6" s="202"/>
+      <c r="FZ6" s="203"/>
+      <c r="GA6" s="201">
         <v>3</v>
       </c>
-      <c r="GB6" s="200"/>
-      <c r="GC6" s="200"/>
-      <c r="GD6" s="200"/>
-      <c r="GE6" s="200"/>
-      <c r="GF6" s="200"/>
-      <c r="GG6" s="200"/>
-      <c r="GH6" s="200"/>
-      <c r="GI6" s="200"/>
-      <c r="GJ6" s="200"/>
-      <c r="GK6" s="200"/>
-      <c r="GL6" s="200"/>
-      <c r="GM6" s="200"/>
-      <c r="GN6" s="200"/>
-      <c r="GO6" s="200"/>
-      <c r="GP6" s="200"/>
-      <c r="GQ6" s="200"/>
-      <c r="GR6" s="200"/>
-      <c r="GS6" s="200"/>
-      <c r="GT6" s="200"/>
-      <c r="GU6" s="200"/>
-      <c r="GV6" s="200"/>
-      <c r="GW6" s="200"/>
-      <c r="GX6" s="200"/>
-      <c r="GY6" s="200"/>
-      <c r="GZ6" s="200"/>
-      <c r="HA6" s="200"/>
-      <c r="HB6" s="200"/>
-      <c r="HC6" s="200"/>
-      <c r="HD6" s="200"/>
-      <c r="HE6" s="200"/>
-      <c r="HF6" s="196">
+      <c r="GB6" s="201"/>
+      <c r="GC6" s="201"/>
+      <c r="GD6" s="201"/>
+      <c r="GE6" s="201"/>
+      <c r="GF6" s="201"/>
+      <c r="GG6" s="201"/>
+      <c r="GH6" s="201"/>
+      <c r="GI6" s="201"/>
+      <c r="GJ6" s="201"/>
+      <c r="GK6" s="201"/>
+      <c r="GL6" s="201"/>
+      <c r="GM6" s="201"/>
+      <c r="GN6" s="201"/>
+      <c r="GO6" s="201"/>
+      <c r="GP6" s="201"/>
+      <c r="GQ6" s="201"/>
+      <c r="GR6" s="201"/>
+      <c r="GS6" s="201"/>
+      <c r="GT6" s="201"/>
+      <c r="GU6" s="201"/>
+      <c r="GV6" s="201"/>
+      <c r="GW6" s="201"/>
+      <c r="GX6" s="201"/>
+      <c r="GY6" s="201"/>
+      <c r="GZ6" s="201"/>
+      <c r="HA6" s="201"/>
+      <c r="HB6" s="201"/>
+      <c r="HC6" s="201"/>
+      <c r="HD6" s="201"/>
+      <c r="HE6" s="201"/>
+      <c r="HF6" s="199">
         <v>4</v>
       </c>
       <c r="HG6" s="197"/>
@@ -3700,40 +3704,40 @@
       <c r="IG6" s="197"/>
       <c r="IH6" s="197"/>
       <c r="II6" s="198"/>
-      <c r="IJ6" s="199">
+      <c r="IJ6" s="208">
         <v>5</v>
       </c>
-      <c r="IK6" s="200"/>
-      <c r="IL6" s="200"/>
-      <c r="IM6" s="200"/>
-      <c r="IN6" s="200"/>
-      <c r="IO6" s="200"/>
-      <c r="IP6" s="200"/>
-      <c r="IQ6" s="200"/>
-      <c r="IR6" s="200"/>
-      <c r="IS6" s="200"/>
-      <c r="IT6" s="200"/>
-      <c r="IU6" s="200"/>
-      <c r="IV6" s="200"/>
-      <c r="IW6" s="200"/>
-      <c r="IX6" s="200"/>
-      <c r="IY6" s="200"/>
-      <c r="IZ6" s="200"/>
-      <c r="JA6" s="200"/>
-      <c r="JB6" s="200"/>
-      <c r="JC6" s="200"/>
-      <c r="JD6" s="200"/>
-      <c r="JE6" s="200"/>
-      <c r="JF6" s="200"/>
-      <c r="JG6" s="200"/>
-      <c r="JH6" s="200"/>
-      <c r="JI6" s="200"/>
-      <c r="JJ6" s="200"/>
-      <c r="JK6" s="200"/>
-      <c r="JL6" s="200"/>
-      <c r="JM6" s="200"/>
-      <c r="JN6" s="201"/>
-      <c r="JO6" s="196">
+      <c r="IK6" s="201"/>
+      <c r="IL6" s="201"/>
+      <c r="IM6" s="201"/>
+      <c r="IN6" s="201"/>
+      <c r="IO6" s="201"/>
+      <c r="IP6" s="201"/>
+      <c r="IQ6" s="201"/>
+      <c r="IR6" s="201"/>
+      <c r="IS6" s="201"/>
+      <c r="IT6" s="201"/>
+      <c r="IU6" s="201"/>
+      <c r="IV6" s="201"/>
+      <c r="IW6" s="201"/>
+      <c r="IX6" s="201"/>
+      <c r="IY6" s="201"/>
+      <c r="IZ6" s="201"/>
+      <c r="JA6" s="201"/>
+      <c r="JB6" s="201"/>
+      <c r="JC6" s="201"/>
+      <c r="JD6" s="201"/>
+      <c r="JE6" s="201"/>
+      <c r="JF6" s="201"/>
+      <c r="JG6" s="201"/>
+      <c r="JH6" s="201"/>
+      <c r="JI6" s="201"/>
+      <c r="JJ6" s="201"/>
+      <c r="JK6" s="201"/>
+      <c r="JL6" s="201"/>
+      <c r="JM6" s="201"/>
+      <c r="JN6" s="209"/>
+      <c r="JO6" s="199">
         <v>6</v>
       </c>
       <c r="JP6" s="197"/>
@@ -3831,7 +3835,7 @@
       <c r="MZ6" s="194"/>
       <c r="NA6" s="194"/>
       <c r="NB6" s="194"/>
-      <c r="NC6" s="196">
+      <c r="NC6" s="199">
         <v>9</v>
       </c>
       <c r="ND6" s="197"/>
@@ -3896,7 +3900,7 @@
       <c r="PI6" s="194"/>
       <c r="PJ6" s="194"/>
       <c r="PK6" s="195"/>
-      <c r="PL6" s="210">
+      <c r="PL6" s="196">
         <v>11</v>
       </c>
       <c r="PM6" s="197"/>
@@ -5427,7 +5431,7 @@
       </c>
     </row>
     <row r="8" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="202" t="s">
+      <c r="A8" s="200" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="41"/>
@@ -5933,7 +5937,7 @@
       <c r="RT8" s="189"/>
     </row>
     <row r="9" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="202"/>
+      <c r="A9" s="200"/>
       <c r="B9" s="72"/>
       <c r="C9" s="73"/>
       <c r="D9" s="74"/>
@@ -6439,7 +6443,7 @@
       <c r="RT9" s="7"/>
     </row>
     <row r="10" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="202"/>
+      <c r="A10" s="200"/>
       <c r="B10" s="72"/>
       <c r="C10" s="73"/>
       <c r="D10" s="74"/>
@@ -6937,7 +6941,7 @@
       <c r="RT10" s="7"/>
     </row>
     <row r="11" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="202"/>
+      <c r="A11" s="200"/>
       <c r="B11" s="72"/>
       <c r="C11" s="73"/>
       <c r="D11" s="74"/>
@@ -7437,7 +7441,7 @@
       <c r="RT11" s="7"/>
     </row>
     <row r="12" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="202"/>
+      <c r="A12" s="200"/>
       <c r="B12" s="72"/>
       <c r="C12" s="73"/>
       <c r="D12" s="74"/>
@@ -7935,7 +7939,7 @@
       <c r="RT12" s="7"/>
     </row>
     <row r="13" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="202"/>
+      <c r="A13" s="200"/>
       <c r="B13" s="72"/>
       <c r="C13" s="73"/>
       <c r="D13" s="74"/>
@@ -8429,7 +8433,7 @@
       <c r="RT13" s="7"/>
     </row>
     <row r="14" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="202"/>
+      <c r="A14" s="200"/>
       <c r="B14" s="80"/>
       <c r="C14" s="81"/>
       <c r="D14" s="82"/>
@@ -8921,7 +8925,7 @@
       <c r="RT14" s="18"/>
     </row>
     <row r="15" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="203" t="s">
+      <c r="A15" s="210" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="88"/>
@@ -9415,7 +9419,7 @@
       <c r="RT15" s="29"/>
     </row>
     <row r="16" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="202"/>
+      <c r="A16" s="200"/>
       <c r="B16" s="94"/>
       <c r="C16" s="95"/>
       <c r="D16" s="96"/>
@@ -9917,7 +9921,7 @@
       <c r="RT16" s="13"/>
     </row>
     <row r="17" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="202"/>
+      <c r="A17" s="200"/>
       <c r="B17" s="94"/>
       <c r="C17" s="95"/>
       <c r="D17" s="96"/>
@@ -10414,7 +10418,7 @@
       <c r="RT17" s="4"/>
     </row>
     <row r="18" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="202"/>
+      <c r="A18" s="200"/>
       <c r="B18" s="94"/>
       <c r="C18" s="95"/>
       <c r="D18" s="96"/>
@@ -10907,7 +10911,7 @@
       <c r="RT18" s="4"/>
     </row>
     <row r="19" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="202"/>
+      <c r="A19" s="200"/>
       <c r="B19" s="94"/>
       <c r="C19" s="95"/>
       <c r="D19" s="96"/>
@@ -11397,7 +11401,7 @@
       <c r="RT19" s="4"/>
     </row>
     <row r="20" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="202"/>
+      <c r="A20" s="200"/>
       <c r="B20" s="94"/>
       <c r="C20" s="95"/>
       <c r="D20" s="96"/>
@@ -11887,7 +11891,7 @@
       <c r="RT20" s="4"/>
     </row>
     <row r="21" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="202"/>
+      <c r="A21" s="200"/>
       <c r="B21" s="94"/>
       <c r="C21" s="95"/>
       <c r="D21" s="96"/>
@@ -12377,7 +12381,7 @@
       <c r="RT21" s="126"/>
     </row>
     <row r="22" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="202"/>
+      <c r="A22" s="200"/>
       <c r="B22" s="101"/>
       <c r="C22" s="102"/>
       <c r="D22" s="103"/>
@@ -12867,7 +12871,7 @@
       <c r="RT22" s="25"/>
     </row>
     <row r="23" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="202" t="s">
+      <c r="A23" s="200" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="107"/>
@@ -13371,7 +13375,7 @@
       <c r="RT23" s="29"/>
     </row>
     <row r="24" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="202"/>
+      <c r="A24" s="200"/>
       <c r="B24" s="94"/>
       <c r="C24" s="95"/>
       <c r="D24" s="96"/>
@@ -13867,7 +13871,7 @@
       <c r="RT24" s="4"/>
     </row>
     <row r="25" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="202"/>
+      <c r="A25" s="200"/>
       <c r="B25" s="94"/>
       <c r="C25" s="95"/>
       <c r="D25" s="96"/>
@@ -14371,7 +14375,7 @@
       <c r="RT25" s="4"/>
     </row>
     <row r="26" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="202"/>
+      <c r="A26" s="200"/>
       <c r="B26" s="94"/>
       <c r="C26" s="95"/>
       <c r="D26" s="96"/>
@@ -14871,7 +14875,7 @@
       <c r="RT26" s="4"/>
     </row>
     <row r="27" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="202"/>
+      <c r="A27" s="200"/>
       <c r="B27" s="94"/>
       <c r="C27" s="95"/>
       <c r="D27" s="96"/>
@@ -15367,7 +15371,7 @@
       <c r="RT27" s="4"/>
     </row>
     <row r="28" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="202"/>
+      <c r="A28" s="200"/>
       <c r="B28" s="94"/>
       <c r="C28" s="95"/>
       <c r="D28" s="96"/>
@@ -15859,7 +15863,7 @@
       <c r="RT28" s="4"/>
     </row>
     <row r="29" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="202"/>
+      <c r="A29" s="200"/>
       <c r="B29" s="94"/>
       <c r="C29" s="95"/>
       <c r="D29" s="96"/>
@@ -16351,7 +16355,7 @@
       <c r="RT29" s="4"/>
     </row>
     <row r="30" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="202"/>
+      <c r="A30" s="200"/>
       <c r="B30" s="101"/>
       <c r="C30" s="102"/>
       <c r="D30" s="103"/>
@@ -18089,11 +18093,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="OG6:PK6"/>
-    <mergeCell ref="PL6:QO6"/>
-    <mergeCell ref="QP6:RT6"/>
-    <mergeCell ref="NC6:OF6"/>
-    <mergeCell ref="LX6:NB6"/>
+    <mergeCell ref="KS6:LW6"/>
+    <mergeCell ref="JO6:KR6"/>
+    <mergeCell ref="IJ6:JN6"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A15:A22"/>
     <mergeCell ref="A23:A30"/>
     <mergeCell ref="GA6:HE6"/>
     <mergeCell ref="HF6:II6"/>
@@ -18103,11 +18107,11 @@
     <mergeCell ref="B6:AE6"/>
     <mergeCell ref="AF6:BJ6"/>
     <mergeCell ref="BK6:CN6"/>
-    <mergeCell ref="KS6:LW6"/>
-    <mergeCell ref="JO6:KR6"/>
-    <mergeCell ref="IJ6:JN6"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="OG6:PK6"/>
+    <mergeCell ref="PL6:QO6"/>
+    <mergeCell ref="QP6:RT6"/>
+    <mergeCell ref="NC6:OF6"/>
+    <mergeCell ref="LX6:NB6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18122,8 +18126,8 @@
   <dimension ref="B2:E133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E122" sqref="E122"/>
+      <pane ySplit="3" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19147,7 +19151,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B87" s="163"/>
       <c r="C87" s="164">
         <v>28</v>
@@ -19155,20 +19159,20 @@
       <c r="D87" s="165">
         <v>2</v>
       </c>
-      <c r="E87" s="167" t="s">
+      <c r="E87" s="222" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B88" s="215">
+      <c r="B88" s="213">
         <v>2019.08</v>
       </c>
-      <c r="C88" s="212"/>
-      <c r="D88" s="138">
+      <c r="C88" s="214"/>
+      <c r="D88" s="153">
         <f>SUM(D89:D94)</f>
         <v>19</v>
       </c>
-      <c r="E88" s="141"/>
+      <c r="E88" s="154"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="163"/>
@@ -19178,7 +19182,7 @@
       <c r="D89" s="165">
         <v>8</v>
       </c>
-      <c r="E89" s="167" t="s">
+      <c r="E89" s="128" t="s">
         <v>130</v>
       </c>
     </row>
@@ -19190,7 +19194,7 @@
       <c r="D90" s="165">
         <v>3</v>
       </c>
-      <c r="E90" s="167" t="s">
+      <c r="E90" s="128" t="s">
         <v>131</v>
       </c>
     </row>
@@ -19202,7 +19206,7 @@
       <c r="D91" s="165">
         <v>3</v>
       </c>
-      <c r="E91" s="167" t="s">
+      <c r="E91" s="128" t="s">
         <v>132</v>
       </c>
     </row>
@@ -19214,7 +19218,7 @@
       <c r="D92" s="165">
         <v>5</v>
       </c>
-      <c r="E92" s="167" t="s">
+      <c r="E92" s="128" t="s">
         <v>132</v>
       </c>
     </row>
@@ -19222,13 +19226,13 @@
       <c r="B93" s="163"/>
       <c r="C93" s="164"/>
       <c r="D93" s="165"/>
-      <c r="E93" s="167"/>
+      <c r="E93" s="128"/>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B94" s="163"/>
-      <c r="C94" s="164"/>
-      <c r="D94" s="165"/>
-      <c r="E94" s="167"/>
+    <row r="94" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B94" s="135"/>
+      <c r="C94" s="136"/>
+      <c r="D94" s="137"/>
+      <c r="E94" s="129"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B95" s="215">
@@ -19325,22 +19329,22 @@
         <v>139</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B103" s="163"/>
       <c r="C103" s="164"/>
       <c r="D103" s="165"/>
-      <c r="E103" s="167"/>
+      <c r="E103" s="222"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B104" s="211" t="s">
+      <c r="B104" s="223" t="s">
         <v>140</v>
       </c>
-      <c r="C104" s="212"/>
-      <c r="D104" s="138">
+      <c r="C104" s="214"/>
+      <c r="D104" s="153">
         <f>SUM(D105:D119)</f>
         <v>69</v>
       </c>
-      <c r="E104" s="141"/>
+      <c r="E104" s="154"/>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B105" s="163"/>
@@ -19350,7 +19354,7 @@
       <c r="D105" s="165">
         <v>5</v>
       </c>
-      <c r="E105" s="167" t="s">
+      <c r="E105" s="128" t="s">
         <v>150</v>
       </c>
     </row>
@@ -19362,7 +19366,7 @@
       <c r="D106" s="165">
         <v>6</v>
       </c>
-      <c r="E106" s="167" t="s">
+      <c r="E106" s="128" t="s">
         <v>150</v>
       </c>
     </row>
@@ -19374,7 +19378,7 @@
       <c r="D107" s="165">
         <v>4</v>
       </c>
-      <c r="E107" s="167" t="s">
+      <c r="E107" s="128" t="s">
         <v>150</v>
       </c>
     </row>
@@ -19386,7 +19390,7 @@
       <c r="D108" s="165">
         <v>8</v>
       </c>
-      <c r="E108" s="167" t="s">
+      <c r="E108" s="128" t="s">
         <v>150</v>
       </c>
     </row>
@@ -19398,7 +19402,7 @@
       <c r="D109" s="165">
         <v>4</v>
       </c>
-      <c r="E109" s="167" t="s">
+      <c r="E109" s="128" t="s">
         <v>150</v>
       </c>
     </row>
@@ -19410,7 +19414,7 @@
       <c r="D110" s="165">
         <v>5</v>
       </c>
-      <c r="E110" s="167" t="s">
+      <c r="E110" s="128" t="s">
         <v>141</v>
       </c>
     </row>
@@ -19422,7 +19426,7 @@
       <c r="D111" s="165">
         <v>6</v>
       </c>
-      <c r="E111" s="167" t="s">
+      <c r="E111" s="128" t="s">
         <v>152</v>
       </c>
     </row>
@@ -19434,7 +19438,7 @@
       <c r="D112" s="165">
         <v>3</v>
       </c>
-      <c r="E112" s="167" t="s">
+      <c r="E112" s="128" t="s">
         <v>152</v>
       </c>
     </row>
@@ -19446,7 +19450,7 @@
       <c r="D113" s="165">
         <v>3</v>
       </c>
-      <c r="E113" s="167" t="s">
+      <c r="E113" s="128" t="s">
         <v>152</v>
       </c>
     </row>
@@ -19458,7 +19462,7 @@
       <c r="D114" s="165">
         <v>2</v>
       </c>
-      <c r="E114" s="167" t="s">
+      <c r="E114" s="128" t="s">
         <v>144</v>
       </c>
     </row>
@@ -19470,7 +19474,7 @@
       <c r="D115" s="165">
         <v>3</v>
       </c>
-      <c r="E115" s="167" t="s">
+      <c r="E115" s="128" t="s">
         <v>151</v>
       </c>
     </row>
@@ -19482,7 +19486,7 @@
       <c r="D116" s="165">
         <v>10</v>
       </c>
-      <c r="E116" s="167" t="s">
+      <c r="E116" s="128" t="s">
         <v>152</v>
       </c>
     </row>
@@ -19494,7 +19498,7 @@
       <c r="D117" s="165">
         <v>4</v>
       </c>
-      <c r="E117" s="167" t="s">
+      <c r="E117" s="128" t="s">
         <v>152</v>
       </c>
     </row>
@@ -19506,19 +19510,19 @@
       <c r="D118" s="165">
         <v>2</v>
       </c>
-      <c r="E118" s="167" t="s">
+      <c r="E118" s="128" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B119" s="163"/>
-      <c r="C119" s="164">
+    <row r="119" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B119" s="135"/>
+      <c r="C119" s="136">
         <v>31</v>
       </c>
-      <c r="D119" s="165">
+      <c r="D119" s="137">
         <v>4</v>
       </c>
-      <c r="E119" s="167" t="s">
+      <c r="E119" s="129" t="s">
         <v>153</v>
       </c>
     </row>
@@ -19529,7 +19533,7 @@
       <c r="C120" s="212"/>
       <c r="D120" s="138">
         <f>SUM(D121:D135)</f>
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E120" s="141"/>
     </row>
@@ -19559,15 +19563,27 @@
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B123" s="163"/>
-      <c r="C123" s="164"/>
-      <c r="D123" s="165"/>
-      <c r="E123" s="167"/>
+      <c r="C123" s="164">
+        <v>4</v>
+      </c>
+      <c r="D123" s="165">
+        <v>5</v>
+      </c>
+      <c r="E123" s="167" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B124" s="163"/>
-      <c r="C124" s="164"/>
-      <c r="D124" s="165"/>
-      <c r="E124" s="167"/>
+      <c r="C124" s="164">
+        <v>5</v>
+      </c>
+      <c r="D124" s="165">
+        <v>10</v>
+      </c>
+      <c r="E124" s="167" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B125" s="163"/>

--- a/Plasma Project schedule V1.0_20191015.xlsx
+++ b/Plasma Project schedule V1.0_20191015.xlsx
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="156">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1962,6 +1962,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2022,10 +2023,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2047,10 +2051,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3446,525 +3446,525 @@
     </row>
     <row r="6" spans="1:488" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="50"/>
-      <c r="B6" s="205">
+      <c r="B6" s="206">
         <v>9</v>
       </c>
-      <c r="C6" s="206"/>
-      <c r="D6" s="206"/>
-      <c r="E6" s="206"/>
-      <c r="F6" s="206"/>
-      <c r="G6" s="206"/>
-      <c r="H6" s="206"/>
-      <c r="I6" s="206"/>
-      <c r="J6" s="206"/>
-      <c r="K6" s="206"/>
-      <c r="L6" s="206"/>
-      <c r="M6" s="206"/>
-      <c r="N6" s="206"/>
-      <c r="O6" s="206"/>
-      <c r="P6" s="206"/>
-      <c r="Q6" s="206"/>
-      <c r="R6" s="206"/>
-      <c r="S6" s="206"/>
-      <c r="T6" s="206"/>
-      <c r="U6" s="206"/>
-      <c r="V6" s="206"/>
-      <c r="W6" s="206"/>
-      <c r="X6" s="206"/>
-      <c r="Y6" s="206"/>
-      <c r="Z6" s="206"/>
-      <c r="AA6" s="206"/>
-      <c r="AB6" s="206"/>
-      <c r="AC6" s="206"/>
-      <c r="AD6" s="206"/>
-      <c r="AE6" s="207"/>
-      <c r="AF6" s="202">
+      <c r="C6" s="207"/>
+      <c r="D6" s="207"/>
+      <c r="E6" s="207"/>
+      <c r="F6" s="207"/>
+      <c r="G6" s="207"/>
+      <c r="H6" s="207"/>
+      <c r="I6" s="207"/>
+      <c r="J6" s="207"/>
+      <c r="K6" s="207"/>
+      <c r="L6" s="207"/>
+      <c r="M6" s="207"/>
+      <c r="N6" s="207"/>
+      <c r="O6" s="207"/>
+      <c r="P6" s="207"/>
+      <c r="Q6" s="207"/>
+      <c r="R6" s="207"/>
+      <c r="S6" s="207"/>
+      <c r="T6" s="207"/>
+      <c r="U6" s="207"/>
+      <c r="V6" s="207"/>
+      <c r="W6" s="207"/>
+      <c r="X6" s="207"/>
+      <c r="Y6" s="207"/>
+      <c r="Z6" s="207"/>
+      <c r="AA6" s="207"/>
+      <c r="AB6" s="207"/>
+      <c r="AC6" s="207"/>
+      <c r="AD6" s="207"/>
+      <c r="AE6" s="208"/>
+      <c r="AF6" s="203">
         <v>10</v>
       </c>
-      <c r="AG6" s="202"/>
-      <c r="AH6" s="202"/>
-      <c r="AI6" s="202"/>
-      <c r="AJ6" s="202"/>
-      <c r="AK6" s="202"/>
-      <c r="AL6" s="202"/>
-      <c r="AM6" s="202"/>
-      <c r="AN6" s="202"/>
-      <c r="AO6" s="202"/>
-      <c r="AP6" s="202"/>
-      <c r="AQ6" s="202"/>
-      <c r="AR6" s="202"/>
-      <c r="AS6" s="202"/>
-      <c r="AT6" s="202"/>
-      <c r="AU6" s="202"/>
-      <c r="AV6" s="202"/>
-      <c r="AW6" s="202"/>
-      <c r="AX6" s="202"/>
-      <c r="AY6" s="202"/>
-      <c r="AZ6" s="202"/>
-      <c r="BA6" s="202"/>
-      <c r="BB6" s="202"/>
-      <c r="BC6" s="202"/>
-      <c r="BD6" s="202"/>
-      <c r="BE6" s="202"/>
-      <c r="BF6" s="202"/>
-      <c r="BG6" s="202"/>
-      <c r="BH6" s="202"/>
-      <c r="BI6" s="202"/>
-      <c r="BJ6" s="203"/>
-      <c r="BK6" s="205">
+      <c r="AG6" s="203"/>
+      <c r="AH6" s="203"/>
+      <c r="AI6" s="203"/>
+      <c r="AJ6" s="203"/>
+      <c r="AK6" s="203"/>
+      <c r="AL6" s="203"/>
+      <c r="AM6" s="203"/>
+      <c r="AN6" s="203"/>
+      <c r="AO6" s="203"/>
+      <c r="AP6" s="203"/>
+      <c r="AQ6" s="203"/>
+      <c r="AR6" s="203"/>
+      <c r="AS6" s="203"/>
+      <c r="AT6" s="203"/>
+      <c r="AU6" s="203"/>
+      <c r="AV6" s="203"/>
+      <c r="AW6" s="203"/>
+      <c r="AX6" s="203"/>
+      <c r="AY6" s="203"/>
+      <c r="AZ6" s="203"/>
+      <c r="BA6" s="203"/>
+      <c r="BB6" s="203"/>
+      <c r="BC6" s="203"/>
+      <c r="BD6" s="203"/>
+      <c r="BE6" s="203"/>
+      <c r="BF6" s="203"/>
+      <c r="BG6" s="203"/>
+      <c r="BH6" s="203"/>
+      <c r="BI6" s="203"/>
+      <c r="BJ6" s="204"/>
+      <c r="BK6" s="206">
         <v>11</v>
       </c>
-      <c r="BL6" s="206"/>
-      <c r="BM6" s="206"/>
-      <c r="BN6" s="206"/>
-      <c r="BO6" s="206"/>
-      <c r="BP6" s="206"/>
-      <c r="BQ6" s="206"/>
-      <c r="BR6" s="206"/>
-      <c r="BS6" s="206"/>
-      <c r="BT6" s="206"/>
-      <c r="BU6" s="206"/>
-      <c r="BV6" s="206"/>
-      <c r="BW6" s="206"/>
-      <c r="BX6" s="206"/>
-      <c r="BY6" s="206"/>
-      <c r="BZ6" s="206"/>
-      <c r="CA6" s="206"/>
-      <c r="CB6" s="206"/>
-      <c r="CC6" s="206"/>
-      <c r="CD6" s="206"/>
-      <c r="CE6" s="206"/>
-      <c r="CF6" s="206"/>
-      <c r="CG6" s="206"/>
-      <c r="CH6" s="206"/>
-      <c r="CI6" s="206"/>
-      <c r="CJ6" s="206"/>
-      <c r="CK6" s="206"/>
-      <c r="CL6" s="206"/>
-      <c r="CM6" s="206"/>
-      <c r="CN6" s="207"/>
-      <c r="CO6" s="202">
+      <c r="BL6" s="207"/>
+      <c r="BM6" s="207"/>
+      <c r="BN6" s="207"/>
+      <c r="BO6" s="207"/>
+      <c r="BP6" s="207"/>
+      <c r="BQ6" s="207"/>
+      <c r="BR6" s="207"/>
+      <c r="BS6" s="207"/>
+      <c r="BT6" s="207"/>
+      <c r="BU6" s="207"/>
+      <c r="BV6" s="207"/>
+      <c r="BW6" s="207"/>
+      <c r="BX6" s="207"/>
+      <c r="BY6" s="207"/>
+      <c r="BZ6" s="207"/>
+      <c r="CA6" s="207"/>
+      <c r="CB6" s="207"/>
+      <c r="CC6" s="207"/>
+      <c r="CD6" s="207"/>
+      <c r="CE6" s="207"/>
+      <c r="CF6" s="207"/>
+      <c r="CG6" s="207"/>
+      <c r="CH6" s="207"/>
+      <c r="CI6" s="207"/>
+      <c r="CJ6" s="207"/>
+      <c r="CK6" s="207"/>
+      <c r="CL6" s="207"/>
+      <c r="CM6" s="207"/>
+      <c r="CN6" s="208"/>
+      <c r="CO6" s="203">
         <v>12</v>
       </c>
-      <c r="CP6" s="202"/>
-      <c r="CQ6" s="202"/>
-      <c r="CR6" s="202"/>
-      <c r="CS6" s="202"/>
-      <c r="CT6" s="202"/>
-      <c r="CU6" s="202"/>
-      <c r="CV6" s="202"/>
-      <c r="CW6" s="202"/>
-      <c r="CX6" s="202"/>
-      <c r="CY6" s="202"/>
-      <c r="CZ6" s="202"/>
-      <c r="DA6" s="202"/>
-      <c r="DB6" s="202"/>
-      <c r="DC6" s="202"/>
-      <c r="DD6" s="202"/>
-      <c r="DE6" s="202"/>
-      <c r="DF6" s="202"/>
-      <c r="DG6" s="202"/>
-      <c r="DH6" s="202"/>
-      <c r="DI6" s="202"/>
-      <c r="DJ6" s="202"/>
-      <c r="DK6" s="202"/>
-      <c r="DL6" s="202"/>
-      <c r="DM6" s="202"/>
-      <c r="DN6" s="202"/>
-      <c r="DO6" s="202"/>
-      <c r="DP6" s="202"/>
-      <c r="DQ6" s="202"/>
-      <c r="DR6" s="202"/>
-      <c r="DS6" s="203"/>
-      <c r="DT6" s="202">
+      <c r="CP6" s="203"/>
+      <c r="CQ6" s="203"/>
+      <c r="CR6" s="203"/>
+      <c r="CS6" s="203"/>
+      <c r="CT6" s="203"/>
+      <c r="CU6" s="203"/>
+      <c r="CV6" s="203"/>
+      <c r="CW6" s="203"/>
+      <c r="CX6" s="203"/>
+      <c r="CY6" s="203"/>
+      <c r="CZ6" s="203"/>
+      <c r="DA6" s="203"/>
+      <c r="DB6" s="203"/>
+      <c r="DC6" s="203"/>
+      <c r="DD6" s="203"/>
+      <c r="DE6" s="203"/>
+      <c r="DF6" s="203"/>
+      <c r="DG6" s="203"/>
+      <c r="DH6" s="203"/>
+      <c r="DI6" s="203"/>
+      <c r="DJ6" s="203"/>
+      <c r="DK6" s="203"/>
+      <c r="DL6" s="203"/>
+      <c r="DM6" s="203"/>
+      <c r="DN6" s="203"/>
+      <c r="DO6" s="203"/>
+      <c r="DP6" s="203"/>
+      <c r="DQ6" s="203"/>
+      <c r="DR6" s="203"/>
+      <c r="DS6" s="204"/>
+      <c r="DT6" s="203">
         <v>2019.01</v>
       </c>
-      <c r="DU6" s="202"/>
-      <c r="DV6" s="202"/>
-      <c r="DW6" s="202"/>
-      <c r="DX6" s="202"/>
-      <c r="DY6" s="202"/>
-      <c r="DZ6" s="202"/>
-      <c r="EA6" s="202"/>
-      <c r="EB6" s="202"/>
-      <c r="EC6" s="202"/>
-      <c r="ED6" s="202"/>
-      <c r="EE6" s="202"/>
-      <c r="EF6" s="202"/>
-      <c r="EG6" s="202"/>
-      <c r="EH6" s="202"/>
-      <c r="EI6" s="202"/>
-      <c r="EJ6" s="202"/>
-      <c r="EK6" s="202"/>
-      <c r="EL6" s="202"/>
-      <c r="EM6" s="202"/>
-      <c r="EN6" s="202"/>
-      <c r="EO6" s="202"/>
-      <c r="EP6" s="202"/>
-      <c r="EQ6" s="202"/>
-      <c r="ER6" s="202"/>
-      <c r="ES6" s="202"/>
-      <c r="ET6" s="202"/>
-      <c r="EU6" s="202"/>
-      <c r="EV6" s="202"/>
-      <c r="EW6" s="202"/>
-      <c r="EX6" s="203"/>
-      <c r="EY6" s="204">
+      <c r="DU6" s="203"/>
+      <c r="DV6" s="203"/>
+      <c r="DW6" s="203"/>
+      <c r="DX6" s="203"/>
+      <c r="DY6" s="203"/>
+      <c r="DZ6" s="203"/>
+      <c r="EA6" s="203"/>
+      <c r="EB6" s="203"/>
+      <c r="EC6" s="203"/>
+      <c r="ED6" s="203"/>
+      <c r="EE6" s="203"/>
+      <c r="EF6" s="203"/>
+      <c r="EG6" s="203"/>
+      <c r="EH6" s="203"/>
+      <c r="EI6" s="203"/>
+      <c r="EJ6" s="203"/>
+      <c r="EK6" s="203"/>
+      <c r="EL6" s="203"/>
+      <c r="EM6" s="203"/>
+      <c r="EN6" s="203"/>
+      <c r="EO6" s="203"/>
+      <c r="EP6" s="203"/>
+      <c r="EQ6" s="203"/>
+      <c r="ER6" s="203"/>
+      <c r="ES6" s="203"/>
+      <c r="ET6" s="203"/>
+      <c r="EU6" s="203"/>
+      <c r="EV6" s="203"/>
+      <c r="EW6" s="203"/>
+      <c r="EX6" s="204"/>
+      <c r="EY6" s="205">
         <v>2019.02</v>
       </c>
-      <c r="EZ6" s="202"/>
-      <c r="FA6" s="202"/>
-      <c r="FB6" s="202"/>
-      <c r="FC6" s="202"/>
-      <c r="FD6" s="202"/>
-      <c r="FE6" s="202"/>
-      <c r="FF6" s="202"/>
-      <c r="FG6" s="202"/>
-      <c r="FH6" s="202"/>
-      <c r="FI6" s="202"/>
-      <c r="FJ6" s="202"/>
-      <c r="FK6" s="202"/>
-      <c r="FL6" s="202"/>
-      <c r="FM6" s="202"/>
-      <c r="FN6" s="202"/>
-      <c r="FO6" s="202"/>
-      <c r="FP6" s="202"/>
-      <c r="FQ6" s="202"/>
-      <c r="FR6" s="202"/>
-      <c r="FS6" s="202"/>
-      <c r="FT6" s="202"/>
-      <c r="FU6" s="202"/>
-      <c r="FV6" s="202"/>
-      <c r="FW6" s="202"/>
-      <c r="FX6" s="202"/>
-      <c r="FY6" s="202"/>
-      <c r="FZ6" s="203"/>
-      <c r="GA6" s="201">
+      <c r="EZ6" s="203"/>
+      <c r="FA6" s="203"/>
+      <c r="FB6" s="203"/>
+      <c r="FC6" s="203"/>
+      <c r="FD6" s="203"/>
+      <c r="FE6" s="203"/>
+      <c r="FF6" s="203"/>
+      <c r="FG6" s="203"/>
+      <c r="FH6" s="203"/>
+      <c r="FI6" s="203"/>
+      <c r="FJ6" s="203"/>
+      <c r="FK6" s="203"/>
+      <c r="FL6" s="203"/>
+      <c r="FM6" s="203"/>
+      <c r="FN6" s="203"/>
+      <c r="FO6" s="203"/>
+      <c r="FP6" s="203"/>
+      <c r="FQ6" s="203"/>
+      <c r="FR6" s="203"/>
+      <c r="FS6" s="203"/>
+      <c r="FT6" s="203"/>
+      <c r="FU6" s="203"/>
+      <c r="FV6" s="203"/>
+      <c r="FW6" s="203"/>
+      <c r="FX6" s="203"/>
+      <c r="FY6" s="203"/>
+      <c r="FZ6" s="204"/>
+      <c r="GA6" s="202">
         <v>3</v>
       </c>
-      <c r="GB6" s="201"/>
-      <c r="GC6" s="201"/>
-      <c r="GD6" s="201"/>
-      <c r="GE6" s="201"/>
-      <c r="GF6" s="201"/>
-      <c r="GG6" s="201"/>
-      <c r="GH6" s="201"/>
-      <c r="GI6" s="201"/>
-      <c r="GJ6" s="201"/>
-      <c r="GK6" s="201"/>
-      <c r="GL6" s="201"/>
-      <c r="GM6" s="201"/>
-      <c r="GN6" s="201"/>
-      <c r="GO6" s="201"/>
-      <c r="GP6" s="201"/>
-      <c r="GQ6" s="201"/>
-      <c r="GR6" s="201"/>
-      <c r="GS6" s="201"/>
-      <c r="GT6" s="201"/>
-      <c r="GU6" s="201"/>
-      <c r="GV6" s="201"/>
-      <c r="GW6" s="201"/>
-      <c r="GX6" s="201"/>
-      <c r="GY6" s="201"/>
-      <c r="GZ6" s="201"/>
-      <c r="HA6" s="201"/>
-      <c r="HB6" s="201"/>
-      <c r="HC6" s="201"/>
-      <c r="HD6" s="201"/>
-      <c r="HE6" s="201"/>
-      <c r="HF6" s="199">
+      <c r="GB6" s="202"/>
+      <c r="GC6" s="202"/>
+      <c r="GD6" s="202"/>
+      <c r="GE6" s="202"/>
+      <c r="GF6" s="202"/>
+      <c r="GG6" s="202"/>
+      <c r="GH6" s="202"/>
+      <c r="GI6" s="202"/>
+      <c r="GJ6" s="202"/>
+      <c r="GK6" s="202"/>
+      <c r="GL6" s="202"/>
+      <c r="GM6" s="202"/>
+      <c r="GN6" s="202"/>
+      <c r="GO6" s="202"/>
+      <c r="GP6" s="202"/>
+      <c r="GQ6" s="202"/>
+      <c r="GR6" s="202"/>
+      <c r="GS6" s="202"/>
+      <c r="GT6" s="202"/>
+      <c r="GU6" s="202"/>
+      <c r="GV6" s="202"/>
+      <c r="GW6" s="202"/>
+      <c r="GX6" s="202"/>
+      <c r="GY6" s="202"/>
+      <c r="GZ6" s="202"/>
+      <c r="HA6" s="202"/>
+      <c r="HB6" s="202"/>
+      <c r="HC6" s="202"/>
+      <c r="HD6" s="202"/>
+      <c r="HE6" s="202"/>
+      <c r="HF6" s="200">
         <v>4</v>
       </c>
-      <c r="HG6" s="197"/>
-      <c r="HH6" s="197"/>
-      <c r="HI6" s="197"/>
-      <c r="HJ6" s="197"/>
-      <c r="HK6" s="197"/>
-      <c r="HL6" s="197"/>
-      <c r="HM6" s="197"/>
-      <c r="HN6" s="197"/>
-      <c r="HO6" s="197"/>
-      <c r="HP6" s="197"/>
-      <c r="HQ6" s="197"/>
-      <c r="HR6" s="197"/>
-      <c r="HS6" s="197"/>
-      <c r="HT6" s="197"/>
-      <c r="HU6" s="197"/>
-      <c r="HV6" s="197"/>
-      <c r="HW6" s="197"/>
-      <c r="HX6" s="197"/>
-      <c r="HY6" s="197"/>
-      <c r="HZ6" s="197"/>
-      <c r="IA6" s="197"/>
-      <c r="IB6" s="197"/>
-      <c r="IC6" s="197"/>
-      <c r="ID6" s="197"/>
-      <c r="IE6" s="197"/>
-      <c r="IF6" s="197"/>
-      <c r="IG6" s="197"/>
-      <c r="IH6" s="197"/>
-      <c r="II6" s="198"/>
-      <c r="IJ6" s="208">
+      <c r="HG6" s="198"/>
+      <c r="HH6" s="198"/>
+      <c r="HI6" s="198"/>
+      <c r="HJ6" s="198"/>
+      <c r="HK6" s="198"/>
+      <c r="HL6" s="198"/>
+      <c r="HM6" s="198"/>
+      <c r="HN6" s="198"/>
+      <c r="HO6" s="198"/>
+      <c r="HP6" s="198"/>
+      <c r="HQ6" s="198"/>
+      <c r="HR6" s="198"/>
+      <c r="HS6" s="198"/>
+      <c r="HT6" s="198"/>
+      <c r="HU6" s="198"/>
+      <c r="HV6" s="198"/>
+      <c r="HW6" s="198"/>
+      <c r="HX6" s="198"/>
+      <c r="HY6" s="198"/>
+      <c r="HZ6" s="198"/>
+      <c r="IA6" s="198"/>
+      <c r="IB6" s="198"/>
+      <c r="IC6" s="198"/>
+      <c r="ID6" s="198"/>
+      <c r="IE6" s="198"/>
+      <c r="IF6" s="198"/>
+      <c r="IG6" s="198"/>
+      <c r="IH6" s="198"/>
+      <c r="II6" s="199"/>
+      <c r="IJ6" s="209">
         <v>5</v>
       </c>
-      <c r="IK6" s="201"/>
-      <c r="IL6" s="201"/>
-      <c r="IM6" s="201"/>
-      <c r="IN6" s="201"/>
-      <c r="IO6" s="201"/>
-      <c r="IP6" s="201"/>
-      <c r="IQ6" s="201"/>
-      <c r="IR6" s="201"/>
-      <c r="IS6" s="201"/>
-      <c r="IT6" s="201"/>
-      <c r="IU6" s="201"/>
-      <c r="IV6" s="201"/>
-      <c r="IW6" s="201"/>
-      <c r="IX6" s="201"/>
-      <c r="IY6" s="201"/>
-      <c r="IZ6" s="201"/>
-      <c r="JA6" s="201"/>
-      <c r="JB6" s="201"/>
-      <c r="JC6" s="201"/>
-      <c r="JD6" s="201"/>
-      <c r="JE6" s="201"/>
-      <c r="JF6" s="201"/>
-      <c r="JG6" s="201"/>
-      <c r="JH6" s="201"/>
-      <c r="JI6" s="201"/>
-      <c r="JJ6" s="201"/>
-      <c r="JK6" s="201"/>
-      <c r="JL6" s="201"/>
-      <c r="JM6" s="201"/>
-      <c r="JN6" s="209"/>
-      <c r="JO6" s="199">
+      <c r="IK6" s="202"/>
+      <c r="IL6" s="202"/>
+      <c r="IM6" s="202"/>
+      <c r="IN6" s="202"/>
+      <c r="IO6" s="202"/>
+      <c r="IP6" s="202"/>
+      <c r="IQ6" s="202"/>
+      <c r="IR6" s="202"/>
+      <c r="IS6" s="202"/>
+      <c r="IT6" s="202"/>
+      <c r="IU6" s="202"/>
+      <c r="IV6" s="202"/>
+      <c r="IW6" s="202"/>
+      <c r="IX6" s="202"/>
+      <c r="IY6" s="202"/>
+      <c r="IZ6" s="202"/>
+      <c r="JA6" s="202"/>
+      <c r="JB6" s="202"/>
+      <c r="JC6" s="202"/>
+      <c r="JD6" s="202"/>
+      <c r="JE6" s="202"/>
+      <c r="JF6" s="202"/>
+      <c r="JG6" s="202"/>
+      <c r="JH6" s="202"/>
+      <c r="JI6" s="202"/>
+      <c r="JJ6" s="202"/>
+      <c r="JK6" s="202"/>
+      <c r="JL6" s="202"/>
+      <c r="JM6" s="202"/>
+      <c r="JN6" s="210"/>
+      <c r="JO6" s="200">
         <v>6</v>
       </c>
-      <c r="JP6" s="197"/>
-      <c r="JQ6" s="197"/>
-      <c r="JR6" s="197"/>
-      <c r="JS6" s="197"/>
-      <c r="JT6" s="197"/>
-      <c r="JU6" s="197"/>
-      <c r="JV6" s="197"/>
-      <c r="JW6" s="197"/>
-      <c r="JX6" s="197"/>
-      <c r="JY6" s="197"/>
-      <c r="JZ6" s="197"/>
-      <c r="KA6" s="197"/>
-      <c r="KB6" s="197"/>
-      <c r="KC6" s="197"/>
-      <c r="KD6" s="197"/>
-      <c r="KE6" s="197"/>
-      <c r="KF6" s="197"/>
-      <c r="KG6" s="197"/>
-      <c r="KH6" s="197"/>
-      <c r="KI6" s="197"/>
-      <c r="KJ6" s="197"/>
-      <c r="KK6" s="197"/>
-      <c r="KL6" s="197"/>
-      <c r="KM6" s="197"/>
-      <c r="KN6" s="197"/>
-      <c r="KO6" s="197"/>
-      <c r="KP6" s="197"/>
-      <c r="KQ6" s="197"/>
-      <c r="KR6" s="198"/>
-      <c r="KS6" s="193">
+      <c r="JP6" s="198"/>
+      <c r="JQ6" s="198"/>
+      <c r="JR6" s="198"/>
+      <c r="JS6" s="198"/>
+      <c r="JT6" s="198"/>
+      <c r="JU6" s="198"/>
+      <c r="JV6" s="198"/>
+      <c r="JW6" s="198"/>
+      <c r="JX6" s="198"/>
+      <c r="JY6" s="198"/>
+      <c r="JZ6" s="198"/>
+      <c r="KA6" s="198"/>
+      <c r="KB6" s="198"/>
+      <c r="KC6" s="198"/>
+      <c r="KD6" s="198"/>
+      <c r="KE6" s="198"/>
+      <c r="KF6" s="198"/>
+      <c r="KG6" s="198"/>
+      <c r="KH6" s="198"/>
+      <c r="KI6" s="198"/>
+      <c r="KJ6" s="198"/>
+      <c r="KK6" s="198"/>
+      <c r="KL6" s="198"/>
+      <c r="KM6" s="198"/>
+      <c r="KN6" s="198"/>
+      <c r="KO6" s="198"/>
+      <c r="KP6" s="198"/>
+      <c r="KQ6" s="198"/>
+      <c r="KR6" s="199"/>
+      <c r="KS6" s="194">
         <v>7</v>
       </c>
-      <c r="KT6" s="194"/>
-      <c r="KU6" s="194"/>
-      <c r="KV6" s="194"/>
-      <c r="KW6" s="194"/>
-      <c r="KX6" s="194"/>
-      <c r="KY6" s="194"/>
-      <c r="KZ6" s="194"/>
-      <c r="LA6" s="194"/>
-      <c r="LB6" s="194"/>
-      <c r="LC6" s="194"/>
-      <c r="LD6" s="194"/>
-      <c r="LE6" s="194"/>
-      <c r="LF6" s="194"/>
-      <c r="LG6" s="194"/>
-      <c r="LH6" s="194"/>
-      <c r="LI6" s="194"/>
-      <c r="LJ6" s="194"/>
-      <c r="LK6" s="194"/>
-      <c r="LL6" s="194"/>
-      <c r="LM6" s="194"/>
-      <c r="LN6" s="194"/>
-      <c r="LO6" s="194"/>
-      <c r="LP6" s="194"/>
-      <c r="LQ6" s="194"/>
-      <c r="LR6" s="194"/>
-      <c r="LS6" s="194"/>
-      <c r="LT6" s="194"/>
-      <c r="LU6" s="194"/>
-      <c r="LV6" s="194"/>
-      <c r="LW6" s="195"/>
-      <c r="LX6" s="193">
+      <c r="KT6" s="195"/>
+      <c r="KU6" s="195"/>
+      <c r="KV6" s="195"/>
+      <c r="KW6" s="195"/>
+      <c r="KX6" s="195"/>
+      <c r="KY6" s="195"/>
+      <c r="KZ6" s="195"/>
+      <c r="LA6" s="195"/>
+      <c r="LB6" s="195"/>
+      <c r="LC6" s="195"/>
+      <c r="LD6" s="195"/>
+      <c r="LE6" s="195"/>
+      <c r="LF6" s="195"/>
+      <c r="LG6" s="195"/>
+      <c r="LH6" s="195"/>
+      <c r="LI6" s="195"/>
+      <c r="LJ6" s="195"/>
+      <c r="LK6" s="195"/>
+      <c r="LL6" s="195"/>
+      <c r="LM6" s="195"/>
+      <c r="LN6" s="195"/>
+      <c r="LO6" s="195"/>
+      <c r="LP6" s="195"/>
+      <c r="LQ6" s="195"/>
+      <c r="LR6" s="195"/>
+      <c r="LS6" s="195"/>
+      <c r="LT6" s="195"/>
+      <c r="LU6" s="195"/>
+      <c r="LV6" s="195"/>
+      <c r="LW6" s="196"/>
+      <c r="LX6" s="194">
         <v>8</v>
       </c>
-      <c r="LY6" s="194"/>
-      <c r="LZ6" s="194"/>
-      <c r="MA6" s="194"/>
-      <c r="MB6" s="194"/>
-      <c r="MC6" s="194"/>
-      <c r="MD6" s="194"/>
-      <c r="ME6" s="194"/>
-      <c r="MF6" s="194"/>
-      <c r="MG6" s="194"/>
-      <c r="MH6" s="194"/>
-      <c r="MI6" s="194"/>
-      <c r="MJ6" s="194"/>
-      <c r="MK6" s="194"/>
-      <c r="ML6" s="194"/>
-      <c r="MM6" s="194"/>
-      <c r="MN6" s="194"/>
-      <c r="MO6" s="194"/>
-      <c r="MP6" s="194"/>
-      <c r="MQ6" s="194"/>
-      <c r="MR6" s="194"/>
-      <c r="MS6" s="194"/>
-      <c r="MT6" s="194"/>
-      <c r="MU6" s="194"/>
-      <c r="MV6" s="194"/>
-      <c r="MW6" s="194"/>
-      <c r="MX6" s="194"/>
-      <c r="MY6" s="194"/>
-      <c r="MZ6" s="194"/>
-      <c r="NA6" s="194"/>
-      <c r="NB6" s="194"/>
-      <c r="NC6" s="199">
+      <c r="LY6" s="195"/>
+      <c r="LZ6" s="195"/>
+      <c r="MA6" s="195"/>
+      <c r="MB6" s="195"/>
+      <c r="MC6" s="195"/>
+      <c r="MD6" s="195"/>
+      <c r="ME6" s="195"/>
+      <c r="MF6" s="195"/>
+      <c r="MG6" s="195"/>
+      <c r="MH6" s="195"/>
+      <c r="MI6" s="195"/>
+      <c r="MJ6" s="195"/>
+      <c r="MK6" s="195"/>
+      <c r="ML6" s="195"/>
+      <c r="MM6" s="195"/>
+      <c r="MN6" s="195"/>
+      <c r="MO6" s="195"/>
+      <c r="MP6" s="195"/>
+      <c r="MQ6" s="195"/>
+      <c r="MR6" s="195"/>
+      <c r="MS6" s="195"/>
+      <c r="MT6" s="195"/>
+      <c r="MU6" s="195"/>
+      <c r="MV6" s="195"/>
+      <c r="MW6" s="195"/>
+      <c r="MX6" s="195"/>
+      <c r="MY6" s="195"/>
+      <c r="MZ6" s="195"/>
+      <c r="NA6" s="195"/>
+      <c r="NB6" s="195"/>
+      <c r="NC6" s="200">
         <v>9</v>
       </c>
-      <c r="ND6" s="197"/>
-      <c r="NE6" s="197"/>
-      <c r="NF6" s="197"/>
-      <c r="NG6" s="197"/>
-      <c r="NH6" s="197"/>
-      <c r="NI6" s="197"/>
-      <c r="NJ6" s="197"/>
-      <c r="NK6" s="197"/>
-      <c r="NL6" s="197"/>
-      <c r="NM6" s="197"/>
-      <c r="NN6" s="197"/>
-      <c r="NO6" s="197"/>
-      <c r="NP6" s="197"/>
-      <c r="NQ6" s="197"/>
-      <c r="NR6" s="197"/>
-      <c r="NS6" s="197"/>
-      <c r="NT6" s="197"/>
-      <c r="NU6" s="197"/>
-      <c r="NV6" s="197"/>
-      <c r="NW6" s="197"/>
-      <c r="NX6" s="197"/>
-      <c r="NY6" s="197"/>
-      <c r="NZ6" s="197"/>
-      <c r="OA6" s="197"/>
-      <c r="OB6" s="197"/>
-      <c r="OC6" s="197"/>
-      <c r="OD6" s="197"/>
-      <c r="OE6" s="197"/>
-      <c r="OF6" s="198"/>
-      <c r="OG6" s="193">
+      <c r="ND6" s="198"/>
+      <c r="NE6" s="198"/>
+      <c r="NF6" s="198"/>
+      <c r="NG6" s="198"/>
+      <c r="NH6" s="198"/>
+      <c r="NI6" s="198"/>
+      <c r="NJ6" s="198"/>
+      <c r="NK6" s="198"/>
+      <c r="NL6" s="198"/>
+      <c r="NM6" s="198"/>
+      <c r="NN6" s="198"/>
+      <c r="NO6" s="198"/>
+      <c r="NP6" s="198"/>
+      <c r="NQ6" s="198"/>
+      <c r="NR6" s="198"/>
+      <c r="NS6" s="198"/>
+      <c r="NT6" s="198"/>
+      <c r="NU6" s="198"/>
+      <c r="NV6" s="198"/>
+      <c r="NW6" s="198"/>
+      <c r="NX6" s="198"/>
+      <c r="NY6" s="198"/>
+      <c r="NZ6" s="198"/>
+      <c r="OA6" s="198"/>
+      <c r="OB6" s="198"/>
+      <c r="OC6" s="198"/>
+      <c r="OD6" s="198"/>
+      <c r="OE6" s="198"/>
+      <c r="OF6" s="199"/>
+      <c r="OG6" s="194">
         <v>10</v>
       </c>
-      <c r="OH6" s="194"/>
-      <c r="OI6" s="194"/>
-      <c r="OJ6" s="194"/>
-      <c r="OK6" s="194"/>
-      <c r="OL6" s="194"/>
-      <c r="OM6" s="194"/>
-      <c r="ON6" s="194"/>
-      <c r="OO6" s="194"/>
-      <c r="OP6" s="194"/>
-      <c r="OQ6" s="194"/>
-      <c r="OR6" s="194"/>
-      <c r="OS6" s="194"/>
-      <c r="OT6" s="194"/>
-      <c r="OU6" s="194"/>
-      <c r="OV6" s="194"/>
-      <c r="OW6" s="194"/>
-      <c r="OX6" s="194"/>
-      <c r="OY6" s="194"/>
-      <c r="OZ6" s="194"/>
-      <c r="PA6" s="194"/>
-      <c r="PB6" s="194"/>
-      <c r="PC6" s="194"/>
-      <c r="PD6" s="194"/>
-      <c r="PE6" s="194"/>
-      <c r="PF6" s="194"/>
-      <c r="PG6" s="194"/>
-      <c r="PH6" s="194"/>
-      <c r="PI6" s="194"/>
-      <c r="PJ6" s="194"/>
-      <c r="PK6" s="195"/>
-      <c r="PL6" s="196">
+      <c r="OH6" s="195"/>
+      <c r="OI6" s="195"/>
+      <c r="OJ6" s="195"/>
+      <c r="OK6" s="195"/>
+      <c r="OL6" s="195"/>
+      <c r="OM6" s="195"/>
+      <c r="ON6" s="195"/>
+      <c r="OO6" s="195"/>
+      <c r="OP6" s="195"/>
+      <c r="OQ6" s="195"/>
+      <c r="OR6" s="195"/>
+      <c r="OS6" s="195"/>
+      <c r="OT6" s="195"/>
+      <c r="OU6" s="195"/>
+      <c r="OV6" s="195"/>
+      <c r="OW6" s="195"/>
+      <c r="OX6" s="195"/>
+      <c r="OY6" s="195"/>
+      <c r="OZ6" s="195"/>
+      <c r="PA6" s="195"/>
+      <c r="PB6" s="195"/>
+      <c r="PC6" s="195"/>
+      <c r="PD6" s="195"/>
+      <c r="PE6" s="195"/>
+      <c r="PF6" s="195"/>
+      <c r="PG6" s="195"/>
+      <c r="PH6" s="195"/>
+      <c r="PI6" s="195"/>
+      <c r="PJ6" s="195"/>
+      <c r="PK6" s="196"/>
+      <c r="PL6" s="197">
         <v>11</v>
       </c>
-      <c r="PM6" s="197"/>
-      <c r="PN6" s="197"/>
-      <c r="PO6" s="197"/>
-      <c r="PP6" s="197"/>
-      <c r="PQ6" s="197"/>
-      <c r="PR6" s="197"/>
-      <c r="PS6" s="197"/>
-      <c r="PT6" s="197"/>
-      <c r="PU6" s="197"/>
-      <c r="PV6" s="197"/>
-      <c r="PW6" s="197"/>
-      <c r="PX6" s="197"/>
-      <c r="PY6" s="197"/>
-      <c r="PZ6" s="197"/>
-      <c r="QA6" s="197"/>
-      <c r="QB6" s="197"/>
-      <c r="QC6" s="197"/>
-      <c r="QD6" s="197"/>
-      <c r="QE6" s="197"/>
-      <c r="QF6" s="197"/>
-      <c r="QG6" s="197"/>
-      <c r="QH6" s="197"/>
-      <c r="QI6" s="197"/>
-      <c r="QJ6" s="197"/>
-      <c r="QK6" s="197"/>
-      <c r="QL6" s="197"/>
-      <c r="QM6" s="197"/>
-      <c r="QN6" s="197"/>
-      <c r="QO6" s="198"/>
-      <c r="QP6" s="193">
+      <c r="PM6" s="198"/>
+      <c r="PN6" s="198"/>
+      <c r="PO6" s="198"/>
+      <c r="PP6" s="198"/>
+      <c r="PQ6" s="198"/>
+      <c r="PR6" s="198"/>
+      <c r="PS6" s="198"/>
+      <c r="PT6" s="198"/>
+      <c r="PU6" s="198"/>
+      <c r="PV6" s="198"/>
+      <c r="PW6" s="198"/>
+      <c r="PX6" s="198"/>
+      <c r="PY6" s="198"/>
+      <c r="PZ6" s="198"/>
+      <c r="QA6" s="198"/>
+      <c r="QB6" s="198"/>
+      <c r="QC6" s="198"/>
+      <c r="QD6" s="198"/>
+      <c r="QE6" s="198"/>
+      <c r="QF6" s="198"/>
+      <c r="QG6" s="198"/>
+      <c r="QH6" s="198"/>
+      <c r="QI6" s="198"/>
+      <c r="QJ6" s="198"/>
+      <c r="QK6" s="198"/>
+      <c r="QL6" s="198"/>
+      <c r="QM6" s="198"/>
+      <c r="QN6" s="198"/>
+      <c r="QO6" s="199"/>
+      <c r="QP6" s="194">
         <v>12</v>
       </c>
-      <c r="QQ6" s="194"/>
-      <c r="QR6" s="194"/>
-      <c r="QS6" s="194"/>
-      <c r="QT6" s="194"/>
-      <c r="QU6" s="194"/>
-      <c r="QV6" s="194"/>
-      <c r="QW6" s="194"/>
-      <c r="QX6" s="194"/>
-      <c r="QY6" s="194"/>
-      <c r="QZ6" s="194"/>
-      <c r="RA6" s="194"/>
-      <c r="RB6" s="194"/>
-      <c r="RC6" s="194"/>
-      <c r="RD6" s="194"/>
-      <c r="RE6" s="194"/>
-      <c r="RF6" s="194"/>
-      <c r="RG6" s="194"/>
-      <c r="RH6" s="194"/>
-      <c r="RI6" s="194"/>
-      <c r="RJ6" s="194"/>
-      <c r="RK6" s="194"/>
-      <c r="RL6" s="194"/>
-      <c r="RM6" s="194"/>
-      <c r="RN6" s="194"/>
-      <c r="RO6" s="194"/>
-      <c r="RP6" s="194"/>
-      <c r="RQ6" s="194"/>
-      <c r="RR6" s="194"/>
-      <c r="RS6" s="194"/>
-      <c r="RT6" s="195"/>
+      <c r="QQ6" s="195"/>
+      <c r="QR6" s="195"/>
+      <c r="QS6" s="195"/>
+      <c r="QT6" s="195"/>
+      <c r="QU6" s="195"/>
+      <c r="QV6" s="195"/>
+      <c r="QW6" s="195"/>
+      <c r="QX6" s="195"/>
+      <c r="QY6" s="195"/>
+      <c r="QZ6" s="195"/>
+      <c r="RA6" s="195"/>
+      <c r="RB6" s="195"/>
+      <c r="RC6" s="195"/>
+      <c r="RD6" s="195"/>
+      <c r="RE6" s="195"/>
+      <c r="RF6" s="195"/>
+      <c r="RG6" s="195"/>
+      <c r="RH6" s="195"/>
+      <c r="RI6" s="195"/>
+      <c r="RJ6" s="195"/>
+      <c r="RK6" s="195"/>
+      <c r="RL6" s="195"/>
+      <c r="RM6" s="195"/>
+      <c r="RN6" s="195"/>
+      <c r="RO6" s="195"/>
+      <c r="RP6" s="195"/>
+      <c r="RQ6" s="195"/>
+      <c r="RR6" s="195"/>
+      <c r="RS6" s="195"/>
+      <c r="RT6" s="196"/>
     </row>
     <row r="7" spans="1:488" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="52"/>
@@ -5431,7 +5431,7 @@
       </c>
     </row>
     <row r="8" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="200" t="s">
+      <c r="A8" s="201" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="41"/>
@@ -5937,7 +5937,7 @@
       <c r="RT8" s="189"/>
     </row>
     <row r="9" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="200"/>
+      <c r="A9" s="201"/>
       <c r="B9" s="72"/>
       <c r="C9" s="73"/>
       <c r="D9" s="74"/>
@@ -6443,7 +6443,7 @@
       <c r="RT9" s="7"/>
     </row>
     <row r="10" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="200"/>
+      <c r="A10" s="201"/>
       <c r="B10" s="72"/>
       <c r="C10" s="73"/>
       <c r="D10" s="74"/>
@@ -6941,7 +6941,7 @@
       <c r="RT10" s="7"/>
     </row>
     <row r="11" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="200"/>
+      <c r="A11" s="201"/>
       <c r="B11" s="72"/>
       <c r="C11" s="73"/>
       <c r="D11" s="74"/>
@@ -7441,7 +7441,7 @@
       <c r="RT11" s="7"/>
     </row>
     <row r="12" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="200"/>
+      <c r="A12" s="201"/>
       <c r="B12" s="72"/>
       <c r="C12" s="73"/>
       <c r="D12" s="74"/>
@@ -7939,7 +7939,7 @@
       <c r="RT12" s="7"/>
     </row>
     <row r="13" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="200"/>
+      <c r="A13" s="201"/>
       <c r="B13" s="72"/>
       <c r="C13" s="73"/>
       <c r="D13" s="74"/>
@@ -8433,7 +8433,7 @@
       <c r="RT13" s="7"/>
     </row>
     <row r="14" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="200"/>
+      <c r="A14" s="201"/>
       <c r="B14" s="80"/>
       <c r="C14" s="81"/>
       <c r="D14" s="82"/>
@@ -8925,7 +8925,7 @@
       <c r="RT14" s="18"/>
     </row>
     <row r="15" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="210" t="s">
+      <c r="A15" s="211" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="88"/>
@@ -9419,7 +9419,7 @@
       <c r="RT15" s="29"/>
     </row>
     <row r="16" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="200"/>
+      <c r="A16" s="201"/>
       <c r="B16" s="94"/>
       <c r="C16" s="95"/>
       <c r="D16" s="96"/>
@@ -9921,7 +9921,7 @@
       <c r="RT16" s="13"/>
     </row>
     <row r="17" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="200"/>
+      <c r="A17" s="201"/>
       <c r="B17" s="94"/>
       <c r="C17" s="95"/>
       <c r="D17" s="96"/>
@@ -10418,7 +10418,7 @@
       <c r="RT17" s="4"/>
     </row>
     <row r="18" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="200"/>
+      <c r="A18" s="201"/>
       <c r="B18" s="94"/>
       <c r="C18" s="95"/>
       <c r="D18" s="96"/>
@@ -10911,7 +10911,7 @@
       <c r="RT18" s="4"/>
     </row>
     <row r="19" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="200"/>
+      <c r="A19" s="201"/>
       <c r="B19" s="94"/>
       <c r="C19" s="95"/>
       <c r="D19" s="96"/>
@@ -11401,7 +11401,7 @@
       <c r="RT19" s="4"/>
     </row>
     <row r="20" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="200"/>
+      <c r="A20" s="201"/>
       <c r="B20" s="94"/>
       <c r="C20" s="95"/>
       <c r="D20" s="96"/>
@@ -11891,7 +11891,7 @@
       <c r="RT20" s="4"/>
     </row>
     <row r="21" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="200"/>
+      <c r="A21" s="201"/>
       <c r="B21" s="94"/>
       <c r="C21" s="95"/>
       <c r="D21" s="96"/>
@@ -12381,7 +12381,7 @@
       <c r="RT21" s="126"/>
     </row>
     <row r="22" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="200"/>
+      <c r="A22" s="201"/>
       <c r="B22" s="101"/>
       <c r="C22" s="102"/>
       <c r="D22" s="103"/>
@@ -12871,7 +12871,7 @@
       <c r="RT22" s="25"/>
     </row>
     <row r="23" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="200" t="s">
+      <c r="A23" s="201" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="107"/>
@@ -13375,7 +13375,7 @@
       <c r="RT23" s="29"/>
     </row>
     <row r="24" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="200"/>
+      <c r="A24" s="201"/>
       <c r="B24" s="94"/>
       <c r="C24" s="95"/>
       <c r="D24" s="96"/>
@@ -13871,7 +13871,7 @@
       <c r="RT24" s="4"/>
     </row>
     <row r="25" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="200"/>
+      <c r="A25" s="201"/>
       <c r="B25" s="94"/>
       <c r="C25" s="95"/>
       <c r="D25" s="96"/>
@@ -14375,7 +14375,7 @@
       <c r="RT25" s="4"/>
     </row>
     <row r="26" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="200"/>
+      <c r="A26" s="201"/>
       <c r="B26" s="94"/>
       <c r="C26" s="95"/>
       <c r="D26" s="96"/>
@@ -14875,7 +14875,7 @@
       <c r="RT26" s="4"/>
     </row>
     <row r="27" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="200"/>
+      <c r="A27" s="201"/>
       <c r="B27" s="94"/>
       <c r="C27" s="95"/>
       <c r="D27" s="96"/>
@@ -15371,7 +15371,7 @@
       <c r="RT27" s="4"/>
     </row>
     <row r="28" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="200"/>
+      <c r="A28" s="201"/>
       <c r="B28" s="94"/>
       <c r="C28" s="95"/>
       <c r="D28" s="96"/>
@@ -15863,7 +15863,7 @@
       <c r="RT28" s="4"/>
     </row>
     <row r="29" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="200"/>
+      <c r="A29" s="201"/>
       <c r="B29" s="94"/>
       <c r="C29" s="95"/>
       <c r="D29" s="96"/>
@@ -16355,7 +16355,7 @@
       <c r="RT29" s="4"/>
     </row>
     <row r="30" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="200"/>
+      <c r="A30" s="201"/>
       <c r="B30" s="101"/>
       <c r="C30" s="102"/>
       <c r="D30" s="103"/>
@@ -18127,7 +18127,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D125" sqref="D125"/>
+      <selection pane="bottomLeft" activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18158,10 +18158,10 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="215">
+      <c r="B4" s="217">
         <v>2018.12</v>
       </c>
-      <c r="C4" s="212"/>
+      <c r="C4" s="213"/>
       <c r="D4" s="138">
         <f>SUM(D5:D13)</f>
         <v>42</v>
@@ -18169,7 +18169,7 @@
       <c r="E4" s="139"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="216">
+      <c r="B5" s="218">
         <v>12</v>
       </c>
       <c r="C5" s="142">
@@ -18183,7 +18183,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="217"/>
+      <c r="B6" s="219"/>
       <c r="C6" s="140">
         <v>17</v>
       </c>
@@ -18195,7 +18195,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="217"/>
+      <c r="B7" s="219"/>
       <c r="C7" s="140">
         <v>19</v>
       </c>
@@ -18207,7 +18207,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="217"/>
+      <c r="B8" s="219"/>
       <c r="C8" s="133">
         <v>22</v>
       </c>
@@ -18219,7 +18219,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="217"/>
+      <c r="B9" s="219"/>
       <c r="C9" s="133">
         <v>23</v>
       </c>
@@ -18231,7 +18231,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="217"/>
+      <c r="B10" s="219"/>
       <c r="C10" s="133">
         <v>25</v>
       </c>
@@ -18243,7 +18243,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="217"/>
+      <c r="B11" s="219"/>
       <c r="C11" s="133">
         <v>26</v>
       </c>
@@ -18255,7 +18255,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="217"/>
+      <c r="B12" s="219"/>
       <c r="C12" s="133">
         <v>29</v>
       </c>
@@ -18267,7 +18267,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="218"/>
+      <c r="B13" s="220"/>
       <c r="C13" s="136">
         <v>30</v>
       </c>
@@ -18279,10 +18279,10 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="213">
+      <c r="B14" s="216">
         <v>2019.01</v>
       </c>
-      <c r="C14" s="214"/>
+      <c r="C14" s="215"/>
       <c r="D14" s="153">
         <f>SUM(D15:D23)</f>
         <v>34</v>
@@ -18290,7 +18290,7 @@
       <c r="E14" s="154"/>
     </row>
     <row r="15" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="219">
+      <c r="B15" s="221">
         <v>1</v>
       </c>
       <c r="C15" s="133">
@@ -18304,7 +18304,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="220"/>
+      <c r="B16" s="222"/>
       <c r="C16" s="133">
         <v>5</v>
       </c>
@@ -18316,7 +18316,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="220"/>
+      <c r="B17" s="222"/>
       <c r="C17" s="133">
         <v>13</v>
       </c>
@@ -18328,7 +18328,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="220"/>
+      <c r="B18" s="222"/>
       <c r="C18" s="133">
         <v>15</v>
       </c>
@@ -18340,7 +18340,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B19" s="220"/>
+      <c r="B19" s="222"/>
       <c r="C19" s="133">
         <v>17</v>
       </c>
@@ -18352,7 +18352,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="220"/>
+      <c r="B20" s="222"/>
       <c r="C20" s="133">
         <v>18</v>
       </c>
@@ -18364,7 +18364,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="220"/>
+      <c r="B21" s="222"/>
       <c r="C21" s="133">
         <v>21</v>
       </c>
@@ -18376,7 +18376,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="220"/>
+      <c r="B22" s="222"/>
       <c r="C22" s="133">
         <v>22</v>
       </c>
@@ -18388,7 +18388,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="221"/>
+      <c r="B23" s="223"/>
       <c r="C23" s="136">
         <v>28</v>
       </c>
@@ -18400,10 +18400,10 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="215">
+      <c r="B24" s="217">
         <v>2019.02</v>
       </c>
-      <c r="C24" s="212"/>
+      <c r="C24" s="213"/>
       <c r="D24" s="138">
         <f>SUM(D25:D30)</f>
         <v>20</v>
@@ -18411,7 +18411,7 @@
       <c r="E24" s="141"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="219">
+      <c r="B25" s="221">
         <v>2</v>
       </c>
       <c r="C25" s="133">
@@ -18425,7 +18425,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="220"/>
+      <c r="B26" s="222"/>
       <c r="C26" s="133">
         <v>11</v>
       </c>
@@ -18437,7 +18437,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="220"/>
+      <c r="B27" s="222"/>
       <c r="C27" s="133">
         <v>12</v>
       </c>
@@ -18449,7 +18449,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="220"/>
+      <c r="B28" s="222"/>
       <c r="C28" s="133">
         <v>12</v>
       </c>
@@ -18461,7 +18461,7 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="220"/>
+      <c r="B29" s="222"/>
       <c r="C29" s="133">
         <v>24</v>
       </c>
@@ -18473,7 +18473,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="220"/>
+      <c r="B30" s="222"/>
       <c r="C30" s="164">
         <v>26</v>
       </c>
@@ -18485,10 +18485,10 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="213">
+      <c r="B31" s="216">
         <v>2019.03</v>
       </c>
-      <c r="C31" s="214"/>
+      <c r="C31" s="215"/>
       <c r="D31" s="153">
         <f>SUM(D32:D43)</f>
         <v>51</v>
@@ -18640,10 +18640,10 @@
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="213">
+      <c r="B44" s="216">
         <v>2019.04</v>
       </c>
-      <c r="C44" s="214"/>
+      <c r="C44" s="215"/>
       <c r="D44" s="153">
         <f>SUM(D45:D58)</f>
         <v>50</v>
@@ -18819,10 +18819,10 @@
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="213">
+      <c r="B59" s="216">
         <v>2019.05</v>
       </c>
-      <c r="C59" s="214"/>
+      <c r="C59" s="215"/>
       <c r="D59" s="153">
         <f>SUM(D60:D71)</f>
         <v>43</v>
@@ -18974,10 +18974,10 @@
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B72" s="213">
+      <c r="B72" s="216">
         <v>2019.06</v>
       </c>
-      <c r="C72" s="214"/>
+      <c r="C72" s="215"/>
       <c r="D72" s="153">
         <f>SUM(D73:D76)</f>
         <v>18</v>
@@ -19033,10 +19033,10 @@
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B77" s="215">
+      <c r="B77" s="217">
         <v>2019.07</v>
       </c>
-      <c r="C77" s="212"/>
+      <c r="C77" s="213"/>
       <c r="D77" s="138">
         <f>SUM(D78:D87)</f>
         <v>46</v>
@@ -19159,15 +19159,15 @@
       <c r="D87" s="165">
         <v>2</v>
       </c>
-      <c r="E87" s="222" t="s">
+      <c r="E87" s="193" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B88" s="213">
+      <c r="B88" s="216">
         <v>2019.08</v>
       </c>
-      <c r="C88" s="214"/>
+      <c r="C88" s="215"/>
       <c r="D88" s="153">
         <f>SUM(D89:D94)</f>
         <v>19</v>
@@ -19235,10 +19235,10 @@
       <c r="E94" s="129"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B95" s="215">
+      <c r="B95" s="217">
         <v>2019.09</v>
       </c>
-      <c r="C95" s="212"/>
+      <c r="C95" s="213"/>
       <c r="D95" s="138">
         <f>SUM(D96:D102)</f>
         <v>36</v>
@@ -19333,13 +19333,13 @@
       <c r="B103" s="163"/>
       <c r="C103" s="164"/>
       <c r="D103" s="165"/>
-      <c r="E103" s="222"/>
+      <c r="E103" s="193"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B104" s="223" t="s">
+      <c r="B104" s="214" t="s">
         <v>140</v>
       </c>
-      <c r="C104" s="214"/>
+      <c r="C104" s="215"/>
       <c r="D104" s="153">
         <f>SUM(D105:D119)</f>
         <v>69</v>
@@ -19527,13 +19527,13 @@
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B120" s="211" t="s">
+      <c r="B120" s="212" t="s">
         <v>154</v>
       </c>
-      <c r="C120" s="212"/>
+      <c r="C120" s="213"/>
       <c r="D120" s="138">
         <f>SUM(D121:D135)</f>
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E120" s="141"/>
     </row>
@@ -19587,15 +19587,27 @@
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B125" s="163"/>
-      <c r="C125" s="164"/>
-      <c r="D125" s="165"/>
-      <c r="E125" s="167"/>
+      <c r="C125" s="164">
+        <v>6</v>
+      </c>
+      <c r="D125" s="165">
+        <v>6</v>
+      </c>
+      <c r="E125" s="167" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B126" s="163"/>
-      <c r="C126" s="164"/>
-      <c r="D126" s="165"/>
-      <c r="E126" s="167"/>
+      <c r="C126" s="164">
+        <v>7</v>
+      </c>
+      <c r="D126" s="165">
+        <v>4</v>
+      </c>
+      <c r="E126" s="167" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B127" s="163"/>

--- a/Plasma Project schedule V1.0_20191015.xlsx
+++ b/Plasma Project schedule V1.0_20191015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="20181224" sheetId="20" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="161">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -758,6 +758,26 @@
   </si>
   <si>
     <t>RF GEN - RF PCB 재설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF GEN - Coupler PCB 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶Main V2.0 회로 &amp; Gerber 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶CPU 회로 &amp; Review data 전달(w/ 박준신)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF GEN - CPU PCB 수정, Femto release(w/ 박준신)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶기존 장비 W별 출력 파형 요청(박용빈)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1972,7 +1992,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1981,14 +2001,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2008,14 +2034,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2096,7 +2116,7 @@
         <xdr:cNvPr id="52" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2153,7 +2173,7 @@
         <xdr:cNvPr id="15" name="직선 화살표 연결선 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2210,7 +2230,7 @@
         <xdr:cNvPr id="18" name="직선 화살표 연결선 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2267,7 +2287,7 @@
         <xdr:cNvPr id="21" name="직선 화살표 연결선 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2324,7 +2344,7 @@
         <xdr:cNvPr id="25" name="직선 화살표 연결선 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2381,7 +2401,7 @@
         <xdr:cNvPr id="28" name="직선 화살표 연결선 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2438,7 +2458,7 @@
         <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2495,7 +2515,7 @@
         <xdr:cNvPr id="33" name="직선 화살표 연결선 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2552,7 +2572,7 @@
         <xdr:cNvPr id="36" name="직선 화살표 연결선 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2609,7 +2629,7 @@
         <xdr:cNvPr id="38" name="직선 화살표 연결선 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2666,7 +2686,7 @@
         <xdr:cNvPr id="41" name="직선 화살표 연결선 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2723,7 +2743,7 @@
         <xdr:cNvPr id="46" name="직선 화살표 연결선 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2780,7 +2800,7 @@
         <xdr:cNvPr id="14" name="직선 화살표 연결선 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2837,7 +2857,7 @@
         <xdr:cNvPr id="16" name="직선 화살표 연결선 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2894,7 +2914,7 @@
         <xdr:cNvPr id="19" name="직선 화살표 연결선 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2951,7 +2971,7 @@
         <xdr:cNvPr id="17" name="직선 화살표 연결선 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3008,7 +3028,7 @@
         <xdr:cNvPr id="20" name="직선 화살표 연결선 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3065,7 +3085,7 @@
         <xdr:cNvPr id="22" name="직선 화살표 연결선 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3396,9 +3416,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:RT47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="NN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="PB33" sqref="PB33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="OU1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="QG22" sqref="QG22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3446,233 +3466,233 @@
     </row>
     <row r="6" spans="1:488" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="50"/>
-      <c r="B6" s="206">
+      <c r="B6" s="208">
         <v>9</v>
       </c>
-      <c r="C6" s="207"/>
-      <c r="D6" s="207"/>
-      <c r="E6" s="207"/>
-      <c r="F6" s="207"/>
-      <c r="G6" s="207"/>
-      <c r="H6" s="207"/>
-      <c r="I6" s="207"/>
-      <c r="J6" s="207"/>
-      <c r="K6" s="207"/>
-      <c r="L6" s="207"/>
-      <c r="M6" s="207"/>
-      <c r="N6" s="207"/>
-      <c r="O6" s="207"/>
-      <c r="P6" s="207"/>
-      <c r="Q6" s="207"/>
-      <c r="R6" s="207"/>
-      <c r="S6" s="207"/>
-      <c r="T6" s="207"/>
-      <c r="U6" s="207"/>
-      <c r="V6" s="207"/>
-      <c r="W6" s="207"/>
-      <c r="X6" s="207"/>
-      <c r="Y6" s="207"/>
-      <c r="Z6" s="207"/>
-      <c r="AA6" s="207"/>
-      <c r="AB6" s="207"/>
-      <c r="AC6" s="207"/>
-      <c r="AD6" s="207"/>
-      <c r="AE6" s="208"/>
-      <c r="AF6" s="203">
+      <c r="C6" s="209"/>
+      <c r="D6" s="209"/>
+      <c r="E6" s="209"/>
+      <c r="F6" s="209"/>
+      <c r="G6" s="209"/>
+      <c r="H6" s="209"/>
+      <c r="I6" s="209"/>
+      <c r="J6" s="209"/>
+      <c r="K6" s="209"/>
+      <c r="L6" s="209"/>
+      <c r="M6" s="209"/>
+      <c r="N6" s="209"/>
+      <c r="O6" s="209"/>
+      <c r="P6" s="209"/>
+      <c r="Q6" s="209"/>
+      <c r="R6" s="209"/>
+      <c r="S6" s="209"/>
+      <c r="T6" s="209"/>
+      <c r="U6" s="209"/>
+      <c r="V6" s="209"/>
+      <c r="W6" s="209"/>
+      <c r="X6" s="209"/>
+      <c r="Y6" s="209"/>
+      <c r="Z6" s="209"/>
+      <c r="AA6" s="209"/>
+      <c r="AB6" s="209"/>
+      <c r="AC6" s="209"/>
+      <c r="AD6" s="209"/>
+      <c r="AE6" s="210"/>
+      <c r="AF6" s="205">
         <v>10</v>
       </c>
-      <c r="AG6" s="203"/>
-      <c r="AH6" s="203"/>
-      <c r="AI6" s="203"/>
-      <c r="AJ6" s="203"/>
-      <c r="AK6" s="203"/>
-      <c r="AL6" s="203"/>
-      <c r="AM6" s="203"/>
-      <c r="AN6" s="203"/>
-      <c r="AO6" s="203"/>
-      <c r="AP6" s="203"/>
-      <c r="AQ6" s="203"/>
-      <c r="AR6" s="203"/>
-      <c r="AS6" s="203"/>
-      <c r="AT6" s="203"/>
-      <c r="AU6" s="203"/>
-      <c r="AV6" s="203"/>
-      <c r="AW6" s="203"/>
-      <c r="AX6" s="203"/>
-      <c r="AY6" s="203"/>
-      <c r="AZ6" s="203"/>
-      <c r="BA6" s="203"/>
-      <c r="BB6" s="203"/>
-      <c r="BC6" s="203"/>
-      <c r="BD6" s="203"/>
-      <c r="BE6" s="203"/>
-      <c r="BF6" s="203"/>
-      <c r="BG6" s="203"/>
-      <c r="BH6" s="203"/>
-      <c r="BI6" s="203"/>
-      <c r="BJ6" s="204"/>
-      <c r="BK6" s="206">
+      <c r="AG6" s="205"/>
+      <c r="AH6" s="205"/>
+      <c r="AI6" s="205"/>
+      <c r="AJ6" s="205"/>
+      <c r="AK6" s="205"/>
+      <c r="AL6" s="205"/>
+      <c r="AM6" s="205"/>
+      <c r="AN6" s="205"/>
+      <c r="AO6" s="205"/>
+      <c r="AP6" s="205"/>
+      <c r="AQ6" s="205"/>
+      <c r="AR6" s="205"/>
+      <c r="AS6" s="205"/>
+      <c r="AT6" s="205"/>
+      <c r="AU6" s="205"/>
+      <c r="AV6" s="205"/>
+      <c r="AW6" s="205"/>
+      <c r="AX6" s="205"/>
+      <c r="AY6" s="205"/>
+      <c r="AZ6" s="205"/>
+      <c r="BA6" s="205"/>
+      <c r="BB6" s="205"/>
+      <c r="BC6" s="205"/>
+      <c r="BD6" s="205"/>
+      <c r="BE6" s="205"/>
+      <c r="BF6" s="205"/>
+      <c r="BG6" s="205"/>
+      <c r="BH6" s="205"/>
+      <c r="BI6" s="205"/>
+      <c r="BJ6" s="206"/>
+      <c r="BK6" s="208">
         <v>11</v>
       </c>
-      <c r="BL6" s="207"/>
-      <c r="BM6" s="207"/>
-      <c r="BN6" s="207"/>
-      <c r="BO6" s="207"/>
-      <c r="BP6" s="207"/>
-      <c r="BQ6" s="207"/>
-      <c r="BR6" s="207"/>
-      <c r="BS6" s="207"/>
-      <c r="BT6" s="207"/>
-      <c r="BU6" s="207"/>
-      <c r="BV6" s="207"/>
-      <c r="BW6" s="207"/>
-      <c r="BX6" s="207"/>
-      <c r="BY6" s="207"/>
-      <c r="BZ6" s="207"/>
-      <c r="CA6" s="207"/>
-      <c r="CB6" s="207"/>
-      <c r="CC6" s="207"/>
-      <c r="CD6" s="207"/>
-      <c r="CE6" s="207"/>
-      <c r="CF6" s="207"/>
-      <c r="CG6" s="207"/>
-      <c r="CH6" s="207"/>
-      <c r="CI6" s="207"/>
-      <c r="CJ6" s="207"/>
-      <c r="CK6" s="207"/>
-      <c r="CL6" s="207"/>
-      <c r="CM6" s="207"/>
-      <c r="CN6" s="208"/>
-      <c r="CO6" s="203">
+      <c r="BL6" s="209"/>
+      <c r="BM6" s="209"/>
+      <c r="BN6" s="209"/>
+      <c r="BO6" s="209"/>
+      <c r="BP6" s="209"/>
+      <c r="BQ6" s="209"/>
+      <c r="BR6" s="209"/>
+      <c r="BS6" s="209"/>
+      <c r="BT6" s="209"/>
+      <c r="BU6" s="209"/>
+      <c r="BV6" s="209"/>
+      <c r="BW6" s="209"/>
+      <c r="BX6" s="209"/>
+      <c r="BY6" s="209"/>
+      <c r="BZ6" s="209"/>
+      <c r="CA6" s="209"/>
+      <c r="CB6" s="209"/>
+      <c r="CC6" s="209"/>
+      <c r="CD6" s="209"/>
+      <c r="CE6" s="209"/>
+      <c r="CF6" s="209"/>
+      <c r="CG6" s="209"/>
+      <c r="CH6" s="209"/>
+      <c r="CI6" s="209"/>
+      <c r="CJ6" s="209"/>
+      <c r="CK6" s="209"/>
+      <c r="CL6" s="209"/>
+      <c r="CM6" s="209"/>
+      <c r="CN6" s="210"/>
+      <c r="CO6" s="205">
         <v>12</v>
       </c>
-      <c r="CP6" s="203"/>
-      <c r="CQ6" s="203"/>
-      <c r="CR6" s="203"/>
-      <c r="CS6" s="203"/>
-      <c r="CT6" s="203"/>
-      <c r="CU6" s="203"/>
-      <c r="CV6" s="203"/>
-      <c r="CW6" s="203"/>
-      <c r="CX6" s="203"/>
-      <c r="CY6" s="203"/>
-      <c r="CZ6" s="203"/>
-      <c r="DA6" s="203"/>
-      <c r="DB6" s="203"/>
-      <c r="DC6" s="203"/>
-      <c r="DD6" s="203"/>
-      <c r="DE6" s="203"/>
-      <c r="DF6" s="203"/>
-      <c r="DG6" s="203"/>
-      <c r="DH6" s="203"/>
-      <c r="DI6" s="203"/>
-      <c r="DJ6" s="203"/>
-      <c r="DK6" s="203"/>
-      <c r="DL6" s="203"/>
-      <c r="DM6" s="203"/>
-      <c r="DN6" s="203"/>
-      <c r="DO6" s="203"/>
-      <c r="DP6" s="203"/>
-      <c r="DQ6" s="203"/>
-      <c r="DR6" s="203"/>
-      <c r="DS6" s="204"/>
-      <c r="DT6" s="203">
+      <c r="CP6" s="205"/>
+      <c r="CQ6" s="205"/>
+      <c r="CR6" s="205"/>
+      <c r="CS6" s="205"/>
+      <c r="CT6" s="205"/>
+      <c r="CU6" s="205"/>
+      <c r="CV6" s="205"/>
+      <c r="CW6" s="205"/>
+      <c r="CX6" s="205"/>
+      <c r="CY6" s="205"/>
+      <c r="CZ6" s="205"/>
+      <c r="DA6" s="205"/>
+      <c r="DB6" s="205"/>
+      <c r="DC6" s="205"/>
+      <c r="DD6" s="205"/>
+      <c r="DE6" s="205"/>
+      <c r="DF6" s="205"/>
+      <c r="DG6" s="205"/>
+      <c r="DH6" s="205"/>
+      <c r="DI6" s="205"/>
+      <c r="DJ6" s="205"/>
+      <c r="DK6" s="205"/>
+      <c r="DL6" s="205"/>
+      <c r="DM6" s="205"/>
+      <c r="DN6" s="205"/>
+      <c r="DO6" s="205"/>
+      <c r="DP6" s="205"/>
+      <c r="DQ6" s="205"/>
+      <c r="DR6" s="205"/>
+      <c r="DS6" s="206"/>
+      <c r="DT6" s="205">
         <v>2019.01</v>
       </c>
-      <c r="DU6" s="203"/>
-      <c r="DV6" s="203"/>
-      <c r="DW6" s="203"/>
-      <c r="DX6" s="203"/>
-      <c r="DY6" s="203"/>
-      <c r="DZ6" s="203"/>
-      <c r="EA6" s="203"/>
-      <c r="EB6" s="203"/>
-      <c r="EC6" s="203"/>
-      <c r="ED6" s="203"/>
-      <c r="EE6" s="203"/>
-      <c r="EF6" s="203"/>
-      <c r="EG6" s="203"/>
-      <c r="EH6" s="203"/>
-      <c r="EI6" s="203"/>
-      <c r="EJ6" s="203"/>
-      <c r="EK6" s="203"/>
-      <c r="EL6" s="203"/>
-      <c r="EM6" s="203"/>
-      <c r="EN6" s="203"/>
-      <c r="EO6" s="203"/>
-      <c r="EP6" s="203"/>
-      <c r="EQ6" s="203"/>
-      <c r="ER6" s="203"/>
-      <c r="ES6" s="203"/>
-      <c r="ET6" s="203"/>
-      <c r="EU6" s="203"/>
-      <c r="EV6" s="203"/>
-      <c r="EW6" s="203"/>
-      <c r="EX6" s="204"/>
-      <c r="EY6" s="205">
+      <c r="DU6" s="205"/>
+      <c r="DV6" s="205"/>
+      <c r="DW6" s="205"/>
+      <c r="DX6" s="205"/>
+      <c r="DY6" s="205"/>
+      <c r="DZ6" s="205"/>
+      <c r="EA6" s="205"/>
+      <c r="EB6" s="205"/>
+      <c r="EC6" s="205"/>
+      <c r="ED6" s="205"/>
+      <c r="EE6" s="205"/>
+      <c r="EF6" s="205"/>
+      <c r="EG6" s="205"/>
+      <c r="EH6" s="205"/>
+      <c r="EI6" s="205"/>
+      <c r="EJ6" s="205"/>
+      <c r="EK6" s="205"/>
+      <c r="EL6" s="205"/>
+      <c r="EM6" s="205"/>
+      <c r="EN6" s="205"/>
+      <c r="EO6" s="205"/>
+      <c r="EP6" s="205"/>
+      <c r="EQ6" s="205"/>
+      <c r="ER6" s="205"/>
+      <c r="ES6" s="205"/>
+      <c r="ET6" s="205"/>
+      <c r="EU6" s="205"/>
+      <c r="EV6" s="205"/>
+      <c r="EW6" s="205"/>
+      <c r="EX6" s="206"/>
+      <c r="EY6" s="207">
         <v>2019.02</v>
       </c>
-      <c r="EZ6" s="203"/>
-      <c r="FA6" s="203"/>
-      <c r="FB6" s="203"/>
-      <c r="FC6" s="203"/>
-      <c r="FD6" s="203"/>
-      <c r="FE6" s="203"/>
-      <c r="FF6" s="203"/>
-      <c r="FG6" s="203"/>
-      <c r="FH6" s="203"/>
-      <c r="FI6" s="203"/>
-      <c r="FJ6" s="203"/>
-      <c r="FK6" s="203"/>
-      <c r="FL6" s="203"/>
-      <c r="FM6" s="203"/>
-      <c r="FN6" s="203"/>
-      <c r="FO6" s="203"/>
-      <c r="FP6" s="203"/>
-      <c r="FQ6" s="203"/>
-      <c r="FR6" s="203"/>
-      <c r="FS6" s="203"/>
-      <c r="FT6" s="203"/>
-      <c r="FU6" s="203"/>
-      <c r="FV6" s="203"/>
-      <c r="FW6" s="203"/>
-      <c r="FX6" s="203"/>
-      <c r="FY6" s="203"/>
-      <c r="FZ6" s="204"/>
-      <c r="GA6" s="202">
+      <c r="EZ6" s="205"/>
+      <c r="FA6" s="205"/>
+      <c r="FB6" s="205"/>
+      <c r="FC6" s="205"/>
+      <c r="FD6" s="205"/>
+      <c r="FE6" s="205"/>
+      <c r="FF6" s="205"/>
+      <c r="FG6" s="205"/>
+      <c r="FH6" s="205"/>
+      <c r="FI6" s="205"/>
+      <c r="FJ6" s="205"/>
+      <c r="FK6" s="205"/>
+      <c r="FL6" s="205"/>
+      <c r="FM6" s="205"/>
+      <c r="FN6" s="205"/>
+      <c r="FO6" s="205"/>
+      <c r="FP6" s="205"/>
+      <c r="FQ6" s="205"/>
+      <c r="FR6" s="205"/>
+      <c r="FS6" s="205"/>
+      <c r="FT6" s="205"/>
+      <c r="FU6" s="205"/>
+      <c r="FV6" s="205"/>
+      <c r="FW6" s="205"/>
+      <c r="FX6" s="205"/>
+      <c r="FY6" s="205"/>
+      <c r="FZ6" s="206"/>
+      <c r="GA6" s="201">
         <v>3</v>
       </c>
-      <c r="GB6" s="202"/>
-      <c r="GC6" s="202"/>
-      <c r="GD6" s="202"/>
-      <c r="GE6" s="202"/>
-      <c r="GF6" s="202"/>
-      <c r="GG6" s="202"/>
-      <c r="GH6" s="202"/>
-      <c r="GI6" s="202"/>
-      <c r="GJ6" s="202"/>
-      <c r="GK6" s="202"/>
-      <c r="GL6" s="202"/>
-      <c r="GM6" s="202"/>
-      <c r="GN6" s="202"/>
-      <c r="GO6" s="202"/>
-      <c r="GP6" s="202"/>
-      <c r="GQ6" s="202"/>
-      <c r="GR6" s="202"/>
-      <c r="GS6" s="202"/>
-      <c r="GT6" s="202"/>
-      <c r="GU6" s="202"/>
-      <c r="GV6" s="202"/>
-      <c r="GW6" s="202"/>
-      <c r="GX6" s="202"/>
-      <c r="GY6" s="202"/>
-      <c r="GZ6" s="202"/>
-      <c r="HA6" s="202"/>
-      <c r="HB6" s="202"/>
-      <c r="HC6" s="202"/>
-      <c r="HD6" s="202"/>
-      <c r="HE6" s="202"/>
-      <c r="HF6" s="200">
+      <c r="GB6" s="201"/>
+      <c r="GC6" s="201"/>
+      <c r="GD6" s="201"/>
+      <c r="GE6" s="201"/>
+      <c r="GF6" s="201"/>
+      <c r="GG6" s="201"/>
+      <c r="GH6" s="201"/>
+      <c r="GI6" s="201"/>
+      <c r="GJ6" s="201"/>
+      <c r="GK6" s="201"/>
+      <c r="GL6" s="201"/>
+      <c r="GM6" s="201"/>
+      <c r="GN6" s="201"/>
+      <c r="GO6" s="201"/>
+      <c r="GP6" s="201"/>
+      <c r="GQ6" s="201"/>
+      <c r="GR6" s="201"/>
+      <c r="GS6" s="201"/>
+      <c r="GT6" s="201"/>
+      <c r="GU6" s="201"/>
+      <c r="GV6" s="201"/>
+      <c r="GW6" s="201"/>
+      <c r="GX6" s="201"/>
+      <c r="GY6" s="201"/>
+      <c r="GZ6" s="201"/>
+      <c r="HA6" s="201"/>
+      <c r="HB6" s="201"/>
+      <c r="HC6" s="201"/>
+      <c r="HD6" s="201"/>
+      <c r="HE6" s="201"/>
+      <c r="HF6" s="197">
         <v>4</v>
       </c>
       <c r="HG6" s="198"/>
@@ -3704,40 +3724,40 @@
       <c r="IG6" s="198"/>
       <c r="IH6" s="198"/>
       <c r="II6" s="199"/>
-      <c r="IJ6" s="209">
+      <c r="IJ6" s="200">
         <v>5</v>
       </c>
-      <c r="IK6" s="202"/>
-      <c r="IL6" s="202"/>
-      <c r="IM6" s="202"/>
-      <c r="IN6" s="202"/>
-      <c r="IO6" s="202"/>
-      <c r="IP6" s="202"/>
-      <c r="IQ6" s="202"/>
-      <c r="IR6" s="202"/>
-      <c r="IS6" s="202"/>
-      <c r="IT6" s="202"/>
-      <c r="IU6" s="202"/>
-      <c r="IV6" s="202"/>
-      <c r="IW6" s="202"/>
-      <c r="IX6" s="202"/>
-      <c r="IY6" s="202"/>
-      <c r="IZ6" s="202"/>
-      <c r="JA6" s="202"/>
-      <c r="JB6" s="202"/>
-      <c r="JC6" s="202"/>
-      <c r="JD6" s="202"/>
-      <c r="JE6" s="202"/>
-      <c r="JF6" s="202"/>
-      <c r="JG6" s="202"/>
-      <c r="JH6" s="202"/>
-      <c r="JI6" s="202"/>
-      <c r="JJ6" s="202"/>
-      <c r="JK6" s="202"/>
-      <c r="JL6" s="202"/>
-      <c r="JM6" s="202"/>
-      <c r="JN6" s="210"/>
-      <c r="JO6" s="200">
+      <c r="IK6" s="201"/>
+      <c r="IL6" s="201"/>
+      <c r="IM6" s="201"/>
+      <c r="IN6" s="201"/>
+      <c r="IO6" s="201"/>
+      <c r="IP6" s="201"/>
+      <c r="IQ6" s="201"/>
+      <c r="IR6" s="201"/>
+      <c r="IS6" s="201"/>
+      <c r="IT6" s="201"/>
+      <c r="IU6" s="201"/>
+      <c r="IV6" s="201"/>
+      <c r="IW6" s="201"/>
+      <c r="IX6" s="201"/>
+      <c r="IY6" s="201"/>
+      <c r="IZ6" s="201"/>
+      <c r="JA6" s="201"/>
+      <c r="JB6" s="201"/>
+      <c r="JC6" s="201"/>
+      <c r="JD6" s="201"/>
+      <c r="JE6" s="201"/>
+      <c r="JF6" s="201"/>
+      <c r="JG6" s="201"/>
+      <c r="JH6" s="201"/>
+      <c r="JI6" s="201"/>
+      <c r="JJ6" s="201"/>
+      <c r="JK6" s="201"/>
+      <c r="JL6" s="201"/>
+      <c r="JM6" s="201"/>
+      <c r="JN6" s="202"/>
+      <c r="JO6" s="197">
         <v>6</v>
       </c>
       <c r="JP6" s="198"/>
@@ -3835,7 +3855,7 @@
       <c r="MZ6" s="195"/>
       <c r="NA6" s="195"/>
       <c r="NB6" s="195"/>
-      <c r="NC6" s="200">
+      <c r="NC6" s="197">
         <v>9</v>
       </c>
       <c r="ND6" s="198"/>
@@ -3900,7 +3920,7 @@
       <c r="PI6" s="195"/>
       <c r="PJ6" s="195"/>
       <c r="PK6" s="196"/>
-      <c r="PL6" s="197">
+      <c r="PL6" s="211">
         <v>11</v>
       </c>
       <c r="PM6" s="198"/>
@@ -5431,7 +5451,7 @@
       </c>
     </row>
     <row r="8" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="201" t="s">
+      <c r="A8" s="203" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="41"/>
@@ -5937,7 +5957,7 @@
       <c r="RT8" s="189"/>
     </row>
     <row r="9" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="201"/>
+      <c r="A9" s="203"/>
       <c r="B9" s="72"/>
       <c r="C9" s="73"/>
       <c r="D9" s="74"/>
@@ -6443,7 +6463,7 @@
       <c r="RT9" s="7"/>
     </row>
     <row r="10" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="201"/>
+      <c r="A10" s="203"/>
       <c r="B10" s="72"/>
       <c r="C10" s="73"/>
       <c r="D10" s="74"/>
@@ -6941,7 +6961,7 @@
       <c r="RT10" s="7"/>
     </row>
     <row r="11" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="201"/>
+      <c r="A11" s="203"/>
       <c r="B11" s="72"/>
       <c r="C11" s="73"/>
       <c r="D11" s="74"/>
@@ -7441,7 +7461,7 @@
       <c r="RT11" s="7"/>
     </row>
     <row r="12" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="201"/>
+      <c r="A12" s="203"/>
       <c r="B12" s="72"/>
       <c r="C12" s="73"/>
       <c r="D12" s="74"/>
@@ -7939,7 +7959,7 @@
       <c r="RT12" s="7"/>
     </row>
     <row r="13" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="201"/>
+      <c r="A13" s="203"/>
       <c r="B13" s="72"/>
       <c r="C13" s="73"/>
       <c r="D13" s="74"/>
@@ -8433,7 +8453,7 @@
       <c r="RT13" s="7"/>
     </row>
     <row r="14" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="201"/>
+      <c r="A14" s="203"/>
       <c r="B14" s="80"/>
       <c r="C14" s="81"/>
       <c r="D14" s="82"/>
@@ -8925,7 +8945,7 @@
       <c r="RT14" s="18"/>
     </row>
     <row r="15" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="211" t="s">
+      <c r="A15" s="204" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="88"/>
@@ -9419,7 +9439,7 @@
       <c r="RT15" s="29"/>
     </row>
     <row r="16" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="201"/>
+      <c r="A16" s="203"/>
       <c r="B16" s="94"/>
       <c r="C16" s="95"/>
       <c r="D16" s="96"/>
@@ -9868,7 +9888,9 @@
       <c r="PS16" s="11"/>
       <c r="PT16" s="12"/>
       <c r="PU16" s="12"/>
-      <c r="PV16" s="11"/>
+      <c r="PV16" s="191" t="s">
+        <v>160</v>
+      </c>
       <c r="PW16" s="11"/>
       <c r="PX16" s="11"/>
       <c r="PY16" s="11"/>
@@ -9921,7 +9943,7 @@
       <c r="RT16" s="13"/>
     </row>
     <row r="17" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="201"/>
+      <c r="A17" s="203"/>
       <c r="B17" s="94"/>
       <c r="C17" s="95"/>
       <c r="D17" s="96"/>
@@ -10365,7 +10387,9 @@
       <c r="PS17" s="2"/>
       <c r="PT17" s="1"/>
       <c r="PU17" s="1"/>
-      <c r="PV17" s="2"/>
+      <c r="PV17" s="191" t="s">
+        <v>158</v>
+      </c>
       <c r="PW17" s="2"/>
       <c r="PX17" s="2"/>
       <c r="PY17" s="2"/>
@@ -10418,7 +10442,7 @@
       <c r="RT17" s="4"/>
     </row>
     <row r="18" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="201"/>
+      <c r="A18" s="203"/>
       <c r="B18" s="94"/>
       <c r="C18" s="95"/>
       <c r="D18" s="96"/>
@@ -10911,7 +10935,7 @@
       <c r="RT18" s="4"/>
     </row>
     <row r="19" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="201"/>
+      <c r="A19" s="203"/>
       <c r="B19" s="94"/>
       <c r="C19" s="95"/>
       <c r="D19" s="96"/>
@@ -11401,7 +11425,7 @@
       <c r="RT19" s="4"/>
     </row>
     <row r="20" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="201"/>
+      <c r="A20" s="203"/>
       <c r="B20" s="94"/>
       <c r="C20" s="95"/>
       <c r="D20" s="96"/>
@@ -11891,7 +11915,7 @@
       <c r="RT20" s="4"/>
     </row>
     <row r="21" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="201"/>
+      <c r="A21" s="203"/>
       <c r="B21" s="94"/>
       <c r="C21" s="95"/>
       <c r="D21" s="96"/>
@@ -12381,7 +12405,7 @@
       <c r="RT21" s="126"/>
     </row>
     <row r="22" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="201"/>
+      <c r="A22" s="203"/>
       <c r="B22" s="101"/>
       <c r="C22" s="102"/>
       <c r="D22" s="103"/>
@@ -12871,7 +12895,7 @@
       <c r="RT22" s="25"/>
     </row>
     <row r="23" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="201" t="s">
+      <c r="A23" s="203" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="107"/>
@@ -13375,7 +13399,7 @@
       <c r="RT23" s="29"/>
     </row>
     <row r="24" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="201"/>
+      <c r="A24" s="203"/>
       <c r="B24" s="94"/>
       <c r="C24" s="95"/>
       <c r="D24" s="96"/>
@@ -13871,7 +13895,7 @@
       <c r="RT24" s="4"/>
     </row>
     <row r="25" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="201"/>
+      <c r="A25" s="203"/>
       <c r="B25" s="94"/>
       <c r="C25" s="95"/>
       <c r="D25" s="96"/>
@@ -14375,7 +14399,7 @@
       <c r="RT25" s="4"/>
     </row>
     <row r="26" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="201"/>
+      <c r="A26" s="203"/>
       <c r="B26" s="94"/>
       <c r="C26" s="95"/>
       <c r="D26" s="96"/>
@@ -14822,7 +14846,9 @@
       <c r="PS26" s="2"/>
       <c r="PT26" s="1"/>
       <c r="PU26" s="1"/>
-      <c r="PV26" s="2"/>
+      <c r="PV26" s="191" t="s">
+        <v>157</v>
+      </c>
       <c r="PW26" s="2"/>
       <c r="PX26" s="2"/>
       <c r="PY26" s="2"/>
@@ -14875,7 +14901,7 @@
       <c r="RT26" s="4"/>
     </row>
     <row r="27" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="201"/>
+      <c r="A27" s="203"/>
       <c r="B27" s="94"/>
       <c r="C27" s="95"/>
       <c r="D27" s="96"/>
@@ -15371,7 +15397,7 @@
       <c r="RT27" s="4"/>
     </row>
     <row r="28" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="201"/>
+      <c r="A28" s="203"/>
       <c r="B28" s="94"/>
       <c r="C28" s="95"/>
       <c r="D28" s="96"/>
@@ -15863,7 +15889,7 @@
       <c r="RT28" s="4"/>
     </row>
     <row r="29" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="201"/>
+      <c r="A29" s="203"/>
       <c r="B29" s="94"/>
       <c r="C29" s="95"/>
       <c r="D29" s="96"/>
@@ -16355,7 +16381,7 @@
       <c r="RT29" s="4"/>
     </row>
     <row r="30" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="201"/>
+      <c r="A30" s="203"/>
       <c r="B30" s="101"/>
       <c r="C30" s="102"/>
       <c r="D30" s="103"/>
@@ -18093,11 +18119,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="KS6:LW6"/>
-    <mergeCell ref="JO6:KR6"/>
-    <mergeCell ref="IJ6:JN6"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="OG6:PK6"/>
+    <mergeCell ref="PL6:QO6"/>
+    <mergeCell ref="QP6:RT6"/>
+    <mergeCell ref="NC6:OF6"/>
+    <mergeCell ref="LX6:NB6"/>
     <mergeCell ref="A23:A30"/>
     <mergeCell ref="GA6:HE6"/>
     <mergeCell ref="HF6:II6"/>
@@ -18107,11 +18133,11 @@
     <mergeCell ref="B6:AE6"/>
     <mergeCell ref="AF6:BJ6"/>
     <mergeCell ref="BK6:CN6"/>
-    <mergeCell ref="OG6:PK6"/>
-    <mergeCell ref="PL6:QO6"/>
-    <mergeCell ref="QP6:RT6"/>
-    <mergeCell ref="NC6:OF6"/>
-    <mergeCell ref="LX6:NB6"/>
+    <mergeCell ref="KS6:LW6"/>
+    <mergeCell ref="JO6:KR6"/>
+    <mergeCell ref="IJ6:JN6"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A15:A22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18125,9 +18151,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E130" sqref="E130"/>
+      <selection pane="bottomLeft" activeCell="J129" sqref="J129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19533,7 +19559,7 @@
       <c r="C120" s="213"/>
       <c r="D120" s="138">
         <f>SUM(D121:D135)</f>
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E120" s="141"/>
     </row>
@@ -19611,15 +19637,27 @@
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B127" s="163"/>
-      <c r="C127" s="164"/>
-      <c r="D127" s="165"/>
-      <c r="E127" s="167"/>
+      <c r="C127" s="164">
+        <v>10</v>
+      </c>
+      <c r="D127" s="165">
+        <v>6</v>
+      </c>
+      <c r="E127" s="167" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B128" s="163"/>
-      <c r="C128" s="164"/>
-      <c r="D128" s="165"/>
-      <c r="E128" s="167"/>
+      <c r="C128" s="164">
+        <v>11</v>
+      </c>
+      <c r="D128" s="165">
+        <v>4</v>
+      </c>
+      <c r="E128" s="128" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B129" s="163"/>
@@ -19680,7 +19718,7 @@
   <dimension ref="B3:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Plasma Project schedule V1.0_20191015.xlsx
+++ b/Plasma Project schedule V1.0_20191015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="20181224" sheetId="20" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="163">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -778,6 +778,14 @@
   </si>
   <si>
     <t>▶기존 장비 W별 출력 파형 요청(박용빈)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶Review data 전달(w/ 박준신)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF GEN - Coupler PCB 설계, CPU PL 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1992,7 +2000,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2001,20 +2009,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2034,8 +2036,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2116,7 +2124,7 @@
         <xdr:cNvPr id="52" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2173,7 +2181,7 @@
         <xdr:cNvPr id="15" name="직선 화살표 연결선 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2230,7 +2238,7 @@
         <xdr:cNvPr id="18" name="직선 화살표 연결선 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2287,7 +2295,7 @@
         <xdr:cNvPr id="21" name="직선 화살표 연결선 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2344,7 +2352,7 @@
         <xdr:cNvPr id="25" name="직선 화살표 연결선 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2401,7 +2409,7 @@
         <xdr:cNvPr id="28" name="직선 화살표 연결선 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2458,7 +2466,7 @@
         <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2515,7 +2523,7 @@
         <xdr:cNvPr id="33" name="직선 화살표 연결선 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2572,7 +2580,7 @@
         <xdr:cNvPr id="36" name="직선 화살표 연결선 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2629,7 +2637,7 @@
         <xdr:cNvPr id="38" name="직선 화살표 연결선 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2686,7 +2694,7 @@
         <xdr:cNvPr id="41" name="직선 화살표 연결선 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2743,7 +2751,7 @@
         <xdr:cNvPr id="46" name="직선 화살표 연결선 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2800,7 +2808,7 @@
         <xdr:cNvPr id="14" name="직선 화살표 연결선 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2857,7 +2865,7 @@
         <xdr:cNvPr id="16" name="직선 화살표 연결선 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2914,7 +2922,7 @@
         <xdr:cNvPr id="19" name="직선 화살표 연결선 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2971,7 +2979,7 @@
         <xdr:cNvPr id="17" name="직선 화살표 연결선 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3028,7 +3036,7 @@
         <xdr:cNvPr id="20" name="직선 화살표 연결선 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3085,7 +3093,7 @@
         <xdr:cNvPr id="22" name="직선 화살표 연결선 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3416,9 +3424,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:RT47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="OU1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="QG22" sqref="QG22"/>
+      <selection pane="topRight" activeCell="PW19" sqref="PW19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3466,233 +3474,233 @@
     </row>
     <row r="6" spans="1:488" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="50"/>
-      <c r="B6" s="208">
+      <c r="B6" s="206">
         <v>9</v>
       </c>
-      <c r="C6" s="209"/>
-      <c r="D6" s="209"/>
-      <c r="E6" s="209"/>
-      <c r="F6" s="209"/>
-      <c r="G6" s="209"/>
-      <c r="H6" s="209"/>
-      <c r="I6" s="209"/>
-      <c r="J6" s="209"/>
-      <c r="K6" s="209"/>
-      <c r="L6" s="209"/>
-      <c r="M6" s="209"/>
-      <c r="N6" s="209"/>
-      <c r="O6" s="209"/>
-      <c r="P6" s="209"/>
-      <c r="Q6" s="209"/>
-      <c r="R6" s="209"/>
-      <c r="S6" s="209"/>
-      <c r="T6" s="209"/>
-      <c r="U6" s="209"/>
-      <c r="V6" s="209"/>
-      <c r="W6" s="209"/>
-      <c r="X6" s="209"/>
-      <c r="Y6" s="209"/>
-      <c r="Z6" s="209"/>
-      <c r="AA6" s="209"/>
-      <c r="AB6" s="209"/>
-      <c r="AC6" s="209"/>
-      <c r="AD6" s="209"/>
-      <c r="AE6" s="210"/>
-      <c r="AF6" s="205">
+      <c r="C6" s="207"/>
+      <c r="D6" s="207"/>
+      <c r="E6" s="207"/>
+      <c r="F6" s="207"/>
+      <c r="G6" s="207"/>
+      <c r="H6" s="207"/>
+      <c r="I6" s="207"/>
+      <c r="J6" s="207"/>
+      <c r="K6" s="207"/>
+      <c r="L6" s="207"/>
+      <c r="M6" s="207"/>
+      <c r="N6" s="207"/>
+      <c r="O6" s="207"/>
+      <c r="P6" s="207"/>
+      <c r="Q6" s="207"/>
+      <c r="R6" s="207"/>
+      <c r="S6" s="207"/>
+      <c r="T6" s="207"/>
+      <c r="U6" s="207"/>
+      <c r="V6" s="207"/>
+      <c r="W6" s="207"/>
+      <c r="X6" s="207"/>
+      <c r="Y6" s="207"/>
+      <c r="Z6" s="207"/>
+      <c r="AA6" s="207"/>
+      <c r="AB6" s="207"/>
+      <c r="AC6" s="207"/>
+      <c r="AD6" s="207"/>
+      <c r="AE6" s="208"/>
+      <c r="AF6" s="203">
         <v>10</v>
       </c>
-      <c r="AG6" s="205"/>
-      <c r="AH6" s="205"/>
-      <c r="AI6" s="205"/>
-      <c r="AJ6" s="205"/>
-      <c r="AK6" s="205"/>
-      <c r="AL6" s="205"/>
-      <c r="AM6" s="205"/>
-      <c r="AN6" s="205"/>
-      <c r="AO6" s="205"/>
-      <c r="AP6" s="205"/>
-      <c r="AQ6" s="205"/>
-      <c r="AR6" s="205"/>
-      <c r="AS6" s="205"/>
-      <c r="AT6" s="205"/>
-      <c r="AU6" s="205"/>
-      <c r="AV6" s="205"/>
-      <c r="AW6" s="205"/>
-      <c r="AX6" s="205"/>
-      <c r="AY6" s="205"/>
-      <c r="AZ6" s="205"/>
-      <c r="BA6" s="205"/>
-      <c r="BB6" s="205"/>
-      <c r="BC6" s="205"/>
-      <c r="BD6" s="205"/>
-      <c r="BE6" s="205"/>
-      <c r="BF6" s="205"/>
-      <c r="BG6" s="205"/>
-      <c r="BH6" s="205"/>
-      <c r="BI6" s="205"/>
-      <c r="BJ6" s="206"/>
-      <c r="BK6" s="208">
+      <c r="AG6" s="203"/>
+      <c r="AH6" s="203"/>
+      <c r="AI6" s="203"/>
+      <c r="AJ6" s="203"/>
+      <c r="AK6" s="203"/>
+      <c r="AL6" s="203"/>
+      <c r="AM6" s="203"/>
+      <c r="AN6" s="203"/>
+      <c r="AO6" s="203"/>
+      <c r="AP6" s="203"/>
+      <c r="AQ6" s="203"/>
+      <c r="AR6" s="203"/>
+      <c r="AS6" s="203"/>
+      <c r="AT6" s="203"/>
+      <c r="AU6" s="203"/>
+      <c r="AV6" s="203"/>
+      <c r="AW6" s="203"/>
+      <c r="AX6" s="203"/>
+      <c r="AY6" s="203"/>
+      <c r="AZ6" s="203"/>
+      <c r="BA6" s="203"/>
+      <c r="BB6" s="203"/>
+      <c r="BC6" s="203"/>
+      <c r="BD6" s="203"/>
+      <c r="BE6" s="203"/>
+      <c r="BF6" s="203"/>
+      <c r="BG6" s="203"/>
+      <c r="BH6" s="203"/>
+      <c r="BI6" s="203"/>
+      <c r="BJ6" s="204"/>
+      <c r="BK6" s="206">
         <v>11</v>
       </c>
-      <c r="BL6" s="209"/>
-      <c r="BM6" s="209"/>
-      <c r="BN6" s="209"/>
-      <c r="BO6" s="209"/>
-      <c r="BP6" s="209"/>
-      <c r="BQ6" s="209"/>
-      <c r="BR6" s="209"/>
-      <c r="BS6" s="209"/>
-      <c r="BT6" s="209"/>
-      <c r="BU6" s="209"/>
-      <c r="BV6" s="209"/>
-      <c r="BW6" s="209"/>
-      <c r="BX6" s="209"/>
-      <c r="BY6" s="209"/>
-      <c r="BZ6" s="209"/>
-      <c r="CA6" s="209"/>
-      <c r="CB6" s="209"/>
-      <c r="CC6" s="209"/>
-      <c r="CD6" s="209"/>
-      <c r="CE6" s="209"/>
-      <c r="CF6" s="209"/>
-      <c r="CG6" s="209"/>
-      <c r="CH6" s="209"/>
-      <c r="CI6" s="209"/>
-      <c r="CJ6" s="209"/>
-      <c r="CK6" s="209"/>
-      <c r="CL6" s="209"/>
-      <c r="CM6" s="209"/>
-      <c r="CN6" s="210"/>
-      <c r="CO6" s="205">
+      <c r="BL6" s="207"/>
+      <c r="BM6" s="207"/>
+      <c r="BN6" s="207"/>
+      <c r="BO6" s="207"/>
+      <c r="BP6" s="207"/>
+      <c r="BQ6" s="207"/>
+      <c r="BR6" s="207"/>
+      <c r="BS6" s="207"/>
+      <c r="BT6" s="207"/>
+      <c r="BU6" s="207"/>
+      <c r="BV6" s="207"/>
+      <c r="BW6" s="207"/>
+      <c r="BX6" s="207"/>
+      <c r="BY6" s="207"/>
+      <c r="BZ6" s="207"/>
+      <c r="CA6" s="207"/>
+      <c r="CB6" s="207"/>
+      <c r="CC6" s="207"/>
+      <c r="CD6" s="207"/>
+      <c r="CE6" s="207"/>
+      <c r="CF6" s="207"/>
+      <c r="CG6" s="207"/>
+      <c r="CH6" s="207"/>
+      <c r="CI6" s="207"/>
+      <c r="CJ6" s="207"/>
+      <c r="CK6" s="207"/>
+      <c r="CL6" s="207"/>
+      <c r="CM6" s="207"/>
+      <c r="CN6" s="208"/>
+      <c r="CO6" s="203">
         <v>12</v>
       </c>
-      <c r="CP6" s="205"/>
-      <c r="CQ6" s="205"/>
-      <c r="CR6" s="205"/>
-      <c r="CS6" s="205"/>
-      <c r="CT6" s="205"/>
-      <c r="CU6" s="205"/>
-      <c r="CV6" s="205"/>
-      <c r="CW6" s="205"/>
-      <c r="CX6" s="205"/>
-      <c r="CY6" s="205"/>
-      <c r="CZ6" s="205"/>
-      <c r="DA6" s="205"/>
-      <c r="DB6" s="205"/>
-      <c r="DC6" s="205"/>
-      <c r="DD6" s="205"/>
-      <c r="DE6" s="205"/>
-      <c r="DF6" s="205"/>
-      <c r="DG6" s="205"/>
-      <c r="DH6" s="205"/>
-      <c r="DI6" s="205"/>
-      <c r="DJ6" s="205"/>
-      <c r="DK6" s="205"/>
-      <c r="DL6" s="205"/>
-      <c r="DM6" s="205"/>
-      <c r="DN6" s="205"/>
-      <c r="DO6" s="205"/>
-      <c r="DP6" s="205"/>
-      <c r="DQ6" s="205"/>
-      <c r="DR6" s="205"/>
-      <c r="DS6" s="206"/>
-      <c r="DT6" s="205">
+      <c r="CP6" s="203"/>
+      <c r="CQ6" s="203"/>
+      <c r="CR6" s="203"/>
+      <c r="CS6" s="203"/>
+      <c r="CT6" s="203"/>
+      <c r="CU6" s="203"/>
+      <c r="CV6" s="203"/>
+      <c r="CW6" s="203"/>
+      <c r="CX6" s="203"/>
+      <c r="CY6" s="203"/>
+      <c r="CZ6" s="203"/>
+      <c r="DA6" s="203"/>
+      <c r="DB6" s="203"/>
+      <c r="DC6" s="203"/>
+      <c r="DD6" s="203"/>
+      <c r="DE6" s="203"/>
+      <c r="DF6" s="203"/>
+      <c r="DG6" s="203"/>
+      <c r="DH6" s="203"/>
+      <c r="DI6" s="203"/>
+      <c r="DJ6" s="203"/>
+      <c r="DK6" s="203"/>
+      <c r="DL6" s="203"/>
+      <c r="DM6" s="203"/>
+      <c r="DN6" s="203"/>
+      <c r="DO6" s="203"/>
+      <c r="DP6" s="203"/>
+      <c r="DQ6" s="203"/>
+      <c r="DR6" s="203"/>
+      <c r="DS6" s="204"/>
+      <c r="DT6" s="203">
         <v>2019.01</v>
       </c>
-      <c r="DU6" s="205"/>
-      <c r="DV6" s="205"/>
-      <c r="DW6" s="205"/>
-      <c r="DX6" s="205"/>
-      <c r="DY6" s="205"/>
-      <c r="DZ6" s="205"/>
-      <c r="EA6" s="205"/>
-      <c r="EB6" s="205"/>
-      <c r="EC6" s="205"/>
-      <c r="ED6" s="205"/>
-      <c r="EE6" s="205"/>
-      <c r="EF6" s="205"/>
-      <c r="EG6" s="205"/>
-      <c r="EH6" s="205"/>
-      <c r="EI6" s="205"/>
-      <c r="EJ6" s="205"/>
-      <c r="EK6" s="205"/>
-      <c r="EL6" s="205"/>
-      <c r="EM6" s="205"/>
-      <c r="EN6" s="205"/>
-      <c r="EO6" s="205"/>
-      <c r="EP6" s="205"/>
-      <c r="EQ6" s="205"/>
-      <c r="ER6" s="205"/>
-      <c r="ES6" s="205"/>
-      <c r="ET6" s="205"/>
-      <c r="EU6" s="205"/>
-      <c r="EV6" s="205"/>
-      <c r="EW6" s="205"/>
-      <c r="EX6" s="206"/>
-      <c r="EY6" s="207">
+      <c r="DU6" s="203"/>
+      <c r="DV6" s="203"/>
+      <c r="DW6" s="203"/>
+      <c r="DX6" s="203"/>
+      <c r="DY6" s="203"/>
+      <c r="DZ6" s="203"/>
+      <c r="EA6" s="203"/>
+      <c r="EB6" s="203"/>
+      <c r="EC6" s="203"/>
+      <c r="ED6" s="203"/>
+      <c r="EE6" s="203"/>
+      <c r="EF6" s="203"/>
+      <c r="EG6" s="203"/>
+      <c r="EH6" s="203"/>
+      <c r="EI6" s="203"/>
+      <c r="EJ6" s="203"/>
+      <c r="EK6" s="203"/>
+      <c r="EL6" s="203"/>
+      <c r="EM6" s="203"/>
+      <c r="EN6" s="203"/>
+      <c r="EO6" s="203"/>
+      <c r="EP6" s="203"/>
+      <c r="EQ6" s="203"/>
+      <c r="ER6" s="203"/>
+      <c r="ES6" s="203"/>
+      <c r="ET6" s="203"/>
+      <c r="EU6" s="203"/>
+      <c r="EV6" s="203"/>
+      <c r="EW6" s="203"/>
+      <c r="EX6" s="204"/>
+      <c r="EY6" s="205">
         <v>2019.02</v>
       </c>
-      <c r="EZ6" s="205"/>
-      <c r="FA6" s="205"/>
-      <c r="FB6" s="205"/>
-      <c r="FC6" s="205"/>
-      <c r="FD6" s="205"/>
-      <c r="FE6" s="205"/>
-      <c r="FF6" s="205"/>
-      <c r="FG6" s="205"/>
-      <c r="FH6" s="205"/>
-      <c r="FI6" s="205"/>
-      <c r="FJ6" s="205"/>
-      <c r="FK6" s="205"/>
-      <c r="FL6" s="205"/>
-      <c r="FM6" s="205"/>
-      <c r="FN6" s="205"/>
-      <c r="FO6" s="205"/>
-      <c r="FP6" s="205"/>
-      <c r="FQ6" s="205"/>
-      <c r="FR6" s="205"/>
-      <c r="FS6" s="205"/>
-      <c r="FT6" s="205"/>
-      <c r="FU6" s="205"/>
-      <c r="FV6" s="205"/>
-      <c r="FW6" s="205"/>
-      <c r="FX6" s="205"/>
-      <c r="FY6" s="205"/>
-      <c r="FZ6" s="206"/>
-      <c r="GA6" s="201">
+      <c r="EZ6" s="203"/>
+      <c r="FA6" s="203"/>
+      <c r="FB6" s="203"/>
+      <c r="FC6" s="203"/>
+      <c r="FD6" s="203"/>
+      <c r="FE6" s="203"/>
+      <c r="FF6" s="203"/>
+      <c r="FG6" s="203"/>
+      <c r="FH6" s="203"/>
+      <c r="FI6" s="203"/>
+      <c r="FJ6" s="203"/>
+      <c r="FK6" s="203"/>
+      <c r="FL6" s="203"/>
+      <c r="FM6" s="203"/>
+      <c r="FN6" s="203"/>
+      <c r="FO6" s="203"/>
+      <c r="FP6" s="203"/>
+      <c r="FQ6" s="203"/>
+      <c r="FR6" s="203"/>
+      <c r="FS6" s="203"/>
+      <c r="FT6" s="203"/>
+      <c r="FU6" s="203"/>
+      <c r="FV6" s="203"/>
+      <c r="FW6" s="203"/>
+      <c r="FX6" s="203"/>
+      <c r="FY6" s="203"/>
+      <c r="FZ6" s="204"/>
+      <c r="GA6" s="202">
         <v>3</v>
       </c>
-      <c r="GB6" s="201"/>
-      <c r="GC6" s="201"/>
-      <c r="GD6" s="201"/>
-      <c r="GE6" s="201"/>
-      <c r="GF6" s="201"/>
-      <c r="GG6" s="201"/>
-      <c r="GH6" s="201"/>
-      <c r="GI6" s="201"/>
-      <c r="GJ6" s="201"/>
-      <c r="GK6" s="201"/>
-      <c r="GL6" s="201"/>
-      <c r="GM6" s="201"/>
-      <c r="GN6" s="201"/>
-      <c r="GO6" s="201"/>
-      <c r="GP6" s="201"/>
-      <c r="GQ6" s="201"/>
-      <c r="GR6" s="201"/>
-      <c r="GS6" s="201"/>
-      <c r="GT6" s="201"/>
-      <c r="GU6" s="201"/>
-      <c r="GV6" s="201"/>
-      <c r="GW6" s="201"/>
-      <c r="GX6" s="201"/>
-      <c r="GY6" s="201"/>
-      <c r="GZ6" s="201"/>
-      <c r="HA6" s="201"/>
-      <c r="HB6" s="201"/>
-      <c r="HC6" s="201"/>
-      <c r="HD6" s="201"/>
-      <c r="HE6" s="201"/>
-      <c r="HF6" s="197">
+      <c r="GB6" s="202"/>
+      <c r="GC6" s="202"/>
+      <c r="GD6" s="202"/>
+      <c r="GE6" s="202"/>
+      <c r="GF6" s="202"/>
+      <c r="GG6" s="202"/>
+      <c r="GH6" s="202"/>
+      <c r="GI6" s="202"/>
+      <c r="GJ6" s="202"/>
+      <c r="GK6" s="202"/>
+      <c r="GL6" s="202"/>
+      <c r="GM6" s="202"/>
+      <c r="GN6" s="202"/>
+      <c r="GO6" s="202"/>
+      <c r="GP6" s="202"/>
+      <c r="GQ6" s="202"/>
+      <c r="GR6" s="202"/>
+      <c r="GS6" s="202"/>
+      <c r="GT6" s="202"/>
+      <c r="GU6" s="202"/>
+      <c r="GV6" s="202"/>
+      <c r="GW6" s="202"/>
+      <c r="GX6" s="202"/>
+      <c r="GY6" s="202"/>
+      <c r="GZ6" s="202"/>
+      <c r="HA6" s="202"/>
+      <c r="HB6" s="202"/>
+      <c r="HC6" s="202"/>
+      <c r="HD6" s="202"/>
+      <c r="HE6" s="202"/>
+      <c r="HF6" s="200">
         <v>4</v>
       </c>
       <c r="HG6" s="198"/>
@@ -3724,40 +3732,40 @@
       <c r="IG6" s="198"/>
       <c r="IH6" s="198"/>
       <c r="II6" s="199"/>
-      <c r="IJ6" s="200">
+      <c r="IJ6" s="209">
         <v>5</v>
       </c>
-      <c r="IK6" s="201"/>
-      <c r="IL6" s="201"/>
-      <c r="IM6" s="201"/>
-      <c r="IN6" s="201"/>
-      <c r="IO6" s="201"/>
-      <c r="IP6" s="201"/>
-      <c r="IQ6" s="201"/>
-      <c r="IR6" s="201"/>
-      <c r="IS6" s="201"/>
-      <c r="IT6" s="201"/>
-      <c r="IU6" s="201"/>
-      <c r="IV6" s="201"/>
-      <c r="IW6" s="201"/>
-      <c r="IX6" s="201"/>
-      <c r="IY6" s="201"/>
-      <c r="IZ6" s="201"/>
-      <c r="JA6" s="201"/>
-      <c r="JB6" s="201"/>
-      <c r="JC6" s="201"/>
-      <c r="JD6" s="201"/>
-      <c r="JE6" s="201"/>
-      <c r="JF6" s="201"/>
-      <c r="JG6" s="201"/>
-      <c r="JH6" s="201"/>
-      <c r="JI6" s="201"/>
-      <c r="JJ6" s="201"/>
-      <c r="JK6" s="201"/>
-      <c r="JL6" s="201"/>
-      <c r="JM6" s="201"/>
-      <c r="JN6" s="202"/>
-      <c r="JO6" s="197">
+      <c r="IK6" s="202"/>
+      <c r="IL6" s="202"/>
+      <c r="IM6" s="202"/>
+      <c r="IN6" s="202"/>
+      <c r="IO6" s="202"/>
+      <c r="IP6" s="202"/>
+      <c r="IQ6" s="202"/>
+      <c r="IR6" s="202"/>
+      <c r="IS6" s="202"/>
+      <c r="IT6" s="202"/>
+      <c r="IU6" s="202"/>
+      <c r="IV6" s="202"/>
+      <c r="IW6" s="202"/>
+      <c r="IX6" s="202"/>
+      <c r="IY6" s="202"/>
+      <c r="IZ6" s="202"/>
+      <c r="JA6" s="202"/>
+      <c r="JB6" s="202"/>
+      <c r="JC6" s="202"/>
+      <c r="JD6" s="202"/>
+      <c r="JE6" s="202"/>
+      <c r="JF6" s="202"/>
+      <c r="JG6" s="202"/>
+      <c r="JH6" s="202"/>
+      <c r="JI6" s="202"/>
+      <c r="JJ6" s="202"/>
+      <c r="JK6" s="202"/>
+      <c r="JL6" s="202"/>
+      <c r="JM6" s="202"/>
+      <c r="JN6" s="210"/>
+      <c r="JO6" s="200">
         <v>6</v>
       </c>
       <c r="JP6" s="198"/>
@@ -3855,7 +3863,7 @@
       <c r="MZ6" s="195"/>
       <c r="NA6" s="195"/>
       <c r="NB6" s="195"/>
-      <c r="NC6" s="197">
+      <c r="NC6" s="200">
         <v>9</v>
       </c>
       <c r="ND6" s="198"/>
@@ -3920,7 +3928,7 @@
       <c r="PI6" s="195"/>
       <c r="PJ6" s="195"/>
       <c r="PK6" s="196"/>
-      <c r="PL6" s="211">
+      <c r="PL6" s="197">
         <v>11</v>
       </c>
       <c r="PM6" s="198"/>
@@ -5451,7 +5459,7 @@
       </c>
     </row>
     <row r="8" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="203" t="s">
+      <c r="A8" s="201" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="41"/>
@@ -5957,7 +5965,7 @@
       <c r="RT8" s="189"/>
     </row>
     <row r="9" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="203"/>
+      <c r="A9" s="201"/>
       <c r="B9" s="72"/>
       <c r="C9" s="73"/>
       <c r="D9" s="74"/>
@@ -6463,7 +6471,7 @@
       <c r="RT9" s="7"/>
     </row>
     <row r="10" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="203"/>
+      <c r="A10" s="201"/>
       <c r="B10" s="72"/>
       <c r="C10" s="73"/>
       <c r="D10" s="74"/>
@@ -6961,7 +6969,7 @@
       <c r="RT10" s="7"/>
     </row>
     <row r="11" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="203"/>
+      <c r="A11" s="201"/>
       <c r="B11" s="72"/>
       <c r="C11" s="73"/>
       <c r="D11" s="74"/>
@@ -7461,7 +7469,7 @@
       <c r="RT11" s="7"/>
     </row>
     <row r="12" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="203"/>
+      <c r="A12" s="201"/>
       <c r="B12" s="72"/>
       <c r="C12" s="73"/>
       <c r="D12" s="74"/>
@@ -7959,7 +7967,7 @@
       <c r="RT12" s="7"/>
     </row>
     <row r="13" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="203"/>
+      <c r="A13" s="201"/>
       <c r="B13" s="72"/>
       <c r="C13" s="73"/>
       <c r="D13" s="74"/>
@@ -8453,7 +8461,7 @@
       <c r="RT13" s="7"/>
     </row>
     <row r="14" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="203"/>
+      <c r="A14" s="201"/>
       <c r="B14" s="80"/>
       <c r="C14" s="81"/>
       <c r="D14" s="82"/>
@@ -8945,7 +8953,7 @@
       <c r="RT14" s="18"/>
     </row>
     <row r="15" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="204" t="s">
+      <c r="A15" s="211" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="88"/>
@@ -9439,7 +9447,7 @@
       <c r="RT15" s="29"/>
     </row>
     <row r="16" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="203"/>
+      <c r="A16" s="201"/>
       <c r="B16" s="94"/>
       <c r="C16" s="95"/>
       <c r="D16" s="96"/>
@@ -9943,7 +9951,7 @@
       <c r="RT16" s="13"/>
     </row>
     <row r="17" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="203"/>
+      <c r="A17" s="201"/>
       <c r="B17" s="94"/>
       <c r="C17" s="95"/>
       <c r="D17" s="96"/>
@@ -10442,7 +10450,7 @@
       <c r="RT17" s="4"/>
     </row>
     <row r="18" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="203"/>
+      <c r="A18" s="201"/>
       <c r="B18" s="94"/>
       <c r="C18" s="95"/>
       <c r="D18" s="96"/>
@@ -10883,7 +10891,9 @@
       <c r="PT18" s="1"/>
       <c r="PU18" s="1"/>
       <c r="PV18" s="2"/>
-      <c r="PW18" s="2"/>
+      <c r="PW18" s="191" t="s">
+        <v>161</v>
+      </c>
       <c r="PX18" s="2"/>
       <c r="PY18" s="2"/>
       <c r="PZ18" s="2"/>
@@ -10935,7 +10945,7 @@
       <c r="RT18" s="4"/>
     </row>
     <row r="19" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="203"/>
+      <c r="A19" s="201"/>
       <c r="B19" s="94"/>
       <c r="C19" s="95"/>
       <c r="D19" s="96"/>
@@ -11425,7 +11435,7 @@
       <c r="RT19" s="4"/>
     </row>
     <row r="20" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="203"/>
+      <c r="A20" s="201"/>
       <c r="B20" s="94"/>
       <c r="C20" s="95"/>
       <c r="D20" s="96"/>
@@ -11915,7 +11925,7 @@
       <c r="RT20" s="4"/>
     </row>
     <row r="21" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="203"/>
+      <c r="A21" s="201"/>
       <c r="B21" s="94"/>
       <c r="C21" s="95"/>
       <c r="D21" s="96"/>
@@ -12405,7 +12415,7 @@
       <c r="RT21" s="126"/>
     </row>
     <row r="22" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="203"/>
+      <c r="A22" s="201"/>
       <c r="B22" s="101"/>
       <c r="C22" s="102"/>
       <c r="D22" s="103"/>
@@ -12895,7 +12905,7 @@
       <c r="RT22" s="25"/>
     </row>
     <row r="23" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="203" t="s">
+      <c r="A23" s="201" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="107"/>
@@ -13399,7 +13409,7 @@
       <c r="RT23" s="29"/>
     </row>
     <row r="24" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="203"/>
+      <c r="A24" s="201"/>
       <c r="B24" s="94"/>
       <c r="C24" s="95"/>
       <c r="D24" s="96"/>
@@ -13895,7 +13905,7 @@
       <c r="RT24" s="4"/>
     </row>
     <row r="25" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="203"/>
+      <c r="A25" s="201"/>
       <c r="B25" s="94"/>
       <c r="C25" s="95"/>
       <c r="D25" s="96"/>
@@ -14399,7 +14409,7 @@
       <c r="RT25" s="4"/>
     </row>
     <row r="26" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="203"/>
+      <c r="A26" s="201"/>
       <c r="B26" s="94"/>
       <c r="C26" s="95"/>
       <c r="D26" s="96"/>
@@ -14901,7 +14911,7 @@
       <c r="RT26" s="4"/>
     </row>
     <row r="27" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="203"/>
+      <c r="A27" s="201"/>
       <c r="B27" s="94"/>
       <c r="C27" s="95"/>
       <c r="D27" s="96"/>
@@ -15397,7 +15407,7 @@
       <c r="RT27" s="4"/>
     </row>
     <row r="28" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="203"/>
+      <c r="A28" s="201"/>
       <c r="B28" s="94"/>
       <c r="C28" s="95"/>
       <c r="D28" s="96"/>
@@ -15889,7 +15899,7 @@
       <c r="RT28" s="4"/>
     </row>
     <row r="29" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="203"/>
+      <c r="A29" s="201"/>
       <c r="B29" s="94"/>
       <c r="C29" s="95"/>
       <c r="D29" s="96"/>
@@ -16381,7 +16391,7 @@
       <c r="RT29" s="4"/>
     </row>
     <row r="30" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="203"/>
+      <c r="A30" s="201"/>
       <c r="B30" s="101"/>
       <c r="C30" s="102"/>
       <c r="D30" s="103"/>
@@ -18119,11 +18129,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="OG6:PK6"/>
-    <mergeCell ref="PL6:QO6"/>
-    <mergeCell ref="QP6:RT6"/>
-    <mergeCell ref="NC6:OF6"/>
-    <mergeCell ref="LX6:NB6"/>
+    <mergeCell ref="KS6:LW6"/>
+    <mergeCell ref="JO6:KR6"/>
+    <mergeCell ref="IJ6:JN6"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A15:A22"/>
     <mergeCell ref="A23:A30"/>
     <mergeCell ref="GA6:HE6"/>
     <mergeCell ref="HF6:II6"/>
@@ -18133,11 +18143,11 @@
     <mergeCell ref="B6:AE6"/>
     <mergeCell ref="AF6:BJ6"/>
     <mergeCell ref="BK6:CN6"/>
-    <mergeCell ref="KS6:LW6"/>
-    <mergeCell ref="JO6:KR6"/>
-    <mergeCell ref="IJ6:JN6"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="OG6:PK6"/>
+    <mergeCell ref="PL6:QO6"/>
+    <mergeCell ref="QP6:RT6"/>
+    <mergeCell ref="NC6:OF6"/>
+    <mergeCell ref="LX6:NB6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18151,9 +18161,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J129" sqref="J129"/>
+      <selection pane="bottomLeft" activeCell="I130" sqref="I130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19559,7 +19569,7 @@
       <c r="C120" s="213"/>
       <c r="D120" s="138">
         <f>SUM(D121:D135)</f>
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E120" s="141"/>
     </row>
@@ -19661,9 +19671,15 @@
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B129" s="163"/>
-      <c r="C129" s="164"/>
-      <c r="D129" s="165"/>
-      <c r="E129" s="167"/>
+      <c r="C129" s="164">
+        <v>12</v>
+      </c>
+      <c r="D129" s="165">
+        <v>6</v>
+      </c>
+      <c r="E129" s="167" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B130" s="163"/>

--- a/Plasma Project schedule V1.0_20191015.xlsx
+++ b/Plasma Project schedule V1.0_20191015.xlsx
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="165">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -786,6 +786,14 @@
   </si>
   <si>
     <t>RF GEN - Coupler PCB 설계, CPU PL 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF GEN - CPU, PWR, RF PL 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF GEN - CPU 회로 정리 및 PL 정리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -18163,7 +18171,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I130" sqref="I130"/>
+      <selection pane="bottomLeft" activeCell="E136" sqref="E136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19569,7 +19577,7 @@
       <c r="C120" s="213"/>
       <c r="D120" s="138">
         <f>SUM(D121:D135)</f>
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E120" s="141"/>
     </row>
@@ -19683,15 +19691,27 @@
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B130" s="163"/>
-      <c r="C130" s="164"/>
-      <c r="D130" s="165"/>
-      <c r="E130" s="167"/>
+      <c r="C130" s="164">
+        <v>13</v>
+      </c>
+      <c r="D130" s="165">
+        <v>9</v>
+      </c>
+      <c r="E130" s="167" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B131" s="163"/>
-      <c r="C131" s="164"/>
-      <c r="D131" s="165"/>
-      <c r="E131" s="167"/>
+      <c r="C131" s="164">
+        <v>17</v>
+      </c>
+      <c r="D131" s="165">
+        <v>4</v>
+      </c>
+      <c r="E131" s="167" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B132" s="163"/>

--- a/Plasma Project schedule V1.0_20191015.xlsx
+++ b/Plasma Project schedule V1.0_20191015.xlsx
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="166">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -794,6 +794,10 @@
   </si>
   <si>
     <t>RF GEN - CPU 회로 정리 및 PL 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF GEN - PWR 회로 정리 및 PL 정리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2008,7 +2012,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2017,14 +2021,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2044,14 +2054,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2132,7 +2136,7 @@
         <xdr:cNvPr id="52" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2189,7 +2193,7 @@
         <xdr:cNvPr id="15" name="직선 화살표 연결선 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2246,7 +2250,7 @@
         <xdr:cNvPr id="18" name="직선 화살표 연결선 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2303,7 +2307,7 @@
         <xdr:cNvPr id="21" name="직선 화살표 연결선 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2360,7 +2364,7 @@
         <xdr:cNvPr id="25" name="직선 화살표 연결선 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2417,7 +2421,7 @@
         <xdr:cNvPr id="28" name="직선 화살표 연결선 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2474,7 +2478,7 @@
         <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2531,7 +2535,7 @@
         <xdr:cNvPr id="33" name="직선 화살표 연결선 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2588,7 +2592,7 @@
         <xdr:cNvPr id="36" name="직선 화살표 연결선 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2645,7 +2649,7 @@
         <xdr:cNvPr id="38" name="직선 화살표 연결선 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2702,7 +2706,7 @@
         <xdr:cNvPr id="41" name="직선 화살표 연결선 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2759,7 +2763,7 @@
         <xdr:cNvPr id="46" name="직선 화살표 연결선 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2816,7 +2820,7 @@
         <xdr:cNvPr id="14" name="직선 화살표 연결선 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2873,7 +2877,7 @@
         <xdr:cNvPr id="16" name="직선 화살표 연결선 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2930,7 +2934,7 @@
         <xdr:cNvPr id="19" name="직선 화살표 연결선 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2987,7 +2991,7 @@
         <xdr:cNvPr id="17" name="직선 화살표 연결선 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3044,7 +3048,7 @@
         <xdr:cNvPr id="20" name="직선 화살표 연결선 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3101,7 +3105,7 @@
         <xdr:cNvPr id="22" name="직선 화살표 연결선 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3482,233 +3486,233 @@
     </row>
     <row r="6" spans="1:488" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="50"/>
-      <c r="B6" s="206">
+      <c r="B6" s="208">
         <v>9</v>
       </c>
-      <c r="C6" s="207"/>
-      <c r="D6" s="207"/>
-      <c r="E6" s="207"/>
-      <c r="F6" s="207"/>
-      <c r="G6" s="207"/>
-      <c r="H6" s="207"/>
-      <c r="I6" s="207"/>
-      <c r="J6" s="207"/>
-      <c r="K6" s="207"/>
-      <c r="L6" s="207"/>
-      <c r="M6" s="207"/>
-      <c r="N6" s="207"/>
-      <c r="O6" s="207"/>
-      <c r="P6" s="207"/>
-      <c r="Q6" s="207"/>
-      <c r="R6" s="207"/>
-      <c r="S6" s="207"/>
-      <c r="T6" s="207"/>
-      <c r="U6" s="207"/>
-      <c r="V6" s="207"/>
-      <c r="W6" s="207"/>
-      <c r="X6" s="207"/>
-      <c r="Y6" s="207"/>
-      <c r="Z6" s="207"/>
-      <c r="AA6" s="207"/>
-      <c r="AB6" s="207"/>
-      <c r="AC6" s="207"/>
-      <c r="AD6" s="207"/>
-      <c r="AE6" s="208"/>
-      <c r="AF6" s="203">
+      <c r="C6" s="209"/>
+      <c r="D6" s="209"/>
+      <c r="E6" s="209"/>
+      <c r="F6" s="209"/>
+      <c r="G6" s="209"/>
+      <c r="H6" s="209"/>
+      <c r="I6" s="209"/>
+      <c r="J6" s="209"/>
+      <c r="K6" s="209"/>
+      <c r="L6" s="209"/>
+      <c r="M6" s="209"/>
+      <c r="N6" s="209"/>
+      <c r="O6" s="209"/>
+      <c r="P6" s="209"/>
+      <c r="Q6" s="209"/>
+      <c r="R6" s="209"/>
+      <c r="S6" s="209"/>
+      <c r="T6" s="209"/>
+      <c r="U6" s="209"/>
+      <c r="V6" s="209"/>
+      <c r="W6" s="209"/>
+      <c r="X6" s="209"/>
+      <c r="Y6" s="209"/>
+      <c r="Z6" s="209"/>
+      <c r="AA6" s="209"/>
+      <c r="AB6" s="209"/>
+      <c r="AC6" s="209"/>
+      <c r="AD6" s="209"/>
+      <c r="AE6" s="210"/>
+      <c r="AF6" s="205">
         <v>10</v>
       </c>
-      <c r="AG6" s="203"/>
-      <c r="AH6" s="203"/>
-      <c r="AI6" s="203"/>
-      <c r="AJ6" s="203"/>
-      <c r="AK6" s="203"/>
-      <c r="AL6" s="203"/>
-      <c r="AM6" s="203"/>
-      <c r="AN6" s="203"/>
-      <c r="AO6" s="203"/>
-      <c r="AP6" s="203"/>
-      <c r="AQ6" s="203"/>
-      <c r="AR6" s="203"/>
-      <c r="AS6" s="203"/>
-      <c r="AT6" s="203"/>
-      <c r="AU6" s="203"/>
-      <c r="AV6" s="203"/>
-      <c r="AW6" s="203"/>
-      <c r="AX6" s="203"/>
-      <c r="AY6" s="203"/>
-      <c r="AZ6" s="203"/>
-      <c r="BA6" s="203"/>
-      <c r="BB6" s="203"/>
-      <c r="BC6" s="203"/>
-      <c r="BD6" s="203"/>
-      <c r="BE6" s="203"/>
-      <c r="BF6" s="203"/>
-      <c r="BG6" s="203"/>
-      <c r="BH6" s="203"/>
-      <c r="BI6" s="203"/>
-      <c r="BJ6" s="204"/>
-      <c r="BK6" s="206">
+      <c r="AG6" s="205"/>
+      <c r="AH6" s="205"/>
+      <c r="AI6" s="205"/>
+      <c r="AJ6" s="205"/>
+      <c r="AK6" s="205"/>
+      <c r="AL6" s="205"/>
+      <c r="AM6" s="205"/>
+      <c r="AN6" s="205"/>
+      <c r="AO6" s="205"/>
+      <c r="AP6" s="205"/>
+      <c r="AQ6" s="205"/>
+      <c r="AR6" s="205"/>
+      <c r="AS6" s="205"/>
+      <c r="AT6" s="205"/>
+      <c r="AU6" s="205"/>
+      <c r="AV6" s="205"/>
+      <c r="AW6" s="205"/>
+      <c r="AX6" s="205"/>
+      <c r="AY6" s="205"/>
+      <c r="AZ6" s="205"/>
+      <c r="BA6" s="205"/>
+      <c r="BB6" s="205"/>
+      <c r="BC6" s="205"/>
+      <c r="BD6" s="205"/>
+      <c r="BE6" s="205"/>
+      <c r="BF6" s="205"/>
+      <c r="BG6" s="205"/>
+      <c r="BH6" s="205"/>
+      <c r="BI6" s="205"/>
+      <c r="BJ6" s="206"/>
+      <c r="BK6" s="208">
         <v>11</v>
       </c>
-      <c r="BL6" s="207"/>
-      <c r="BM6" s="207"/>
-      <c r="BN6" s="207"/>
-      <c r="BO6" s="207"/>
-      <c r="BP6" s="207"/>
-      <c r="BQ6" s="207"/>
-      <c r="BR6" s="207"/>
-      <c r="BS6" s="207"/>
-      <c r="BT6" s="207"/>
-      <c r="BU6" s="207"/>
-      <c r="BV6" s="207"/>
-      <c r="BW6" s="207"/>
-      <c r="BX6" s="207"/>
-      <c r="BY6" s="207"/>
-      <c r="BZ6" s="207"/>
-      <c r="CA6" s="207"/>
-      <c r="CB6" s="207"/>
-      <c r="CC6" s="207"/>
-      <c r="CD6" s="207"/>
-      <c r="CE6" s="207"/>
-      <c r="CF6" s="207"/>
-      <c r="CG6" s="207"/>
-      <c r="CH6" s="207"/>
-      <c r="CI6" s="207"/>
-      <c r="CJ6" s="207"/>
-      <c r="CK6" s="207"/>
-      <c r="CL6" s="207"/>
-      <c r="CM6" s="207"/>
-      <c r="CN6" s="208"/>
-      <c r="CO6" s="203">
+      <c r="BL6" s="209"/>
+      <c r="BM6" s="209"/>
+      <c r="BN6" s="209"/>
+      <c r="BO6" s="209"/>
+      <c r="BP6" s="209"/>
+      <c r="BQ6" s="209"/>
+      <c r="BR6" s="209"/>
+      <c r="BS6" s="209"/>
+      <c r="BT6" s="209"/>
+      <c r="BU6" s="209"/>
+      <c r="BV6" s="209"/>
+      <c r="BW6" s="209"/>
+      <c r="BX6" s="209"/>
+      <c r="BY6" s="209"/>
+      <c r="BZ6" s="209"/>
+      <c r="CA6" s="209"/>
+      <c r="CB6" s="209"/>
+      <c r="CC6" s="209"/>
+      <c r="CD6" s="209"/>
+      <c r="CE6" s="209"/>
+      <c r="CF6" s="209"/>
+      <c r="CG6" s="209"/>
+      <c r="CH6" s="209"/>
+      <c r="CI6" s="209"/>
+      <c r="CJ6" s="209"/>
+      <c r="CK6" s="209"/>
+      <c r="CL6" s="209"/>
+      <c r="CM6" s="209"/>
+      <c r="CN6" s="210"/>
+      <c r="CO6" s="205">
         <v>12</v>
       </c>
-      <c r="CP6" s="203"/>
-      <c r="CQ6" s="203"/>
-      <c r="CR6" s="203"/>
-      <c r="CS6" s="203"/>
-      <c r="CT6" s="203"/>
-      <c r="CU6" s="203"/>
-      <c r="CV6" s="203"/>
-      <c r="CW6" s="203"/>
-      <c r="CX6" s="203"/>
-      <c r="CY6" s="203"/>
-      <c r="CZ6" s="203"/>
-      <c r="DA6" s="203"/>
-      <c r="DB6" s="203"/>
-      <c r="DC6" s="203"/>
-      <c r="DD6" s="203"/>
-      <c r="DE6" s="203"/>
-      <c r="DF6" s="203"/>
-      <c r="DG6" s="203"/>
-      <c r="DH6" s="203"/>
-      <c r="DI6" s="203"/>
-      <c r="DJ6" s="203"/>
-      <c r="DK6" s="203"/>
-      <c r="DL6" s="203"/>
-      <c r="DM6" s="203"/>
-      <c r="DN6" s="203"/>
-      <c r="DO6" s="203"/>
-      <c r="DP6" s="203"/>
-      <c r="DQ6" s="203"/>
-      <c r="DR6" s="203"/>
-      <c r="DS6" s="204"/>
-      <c r="DT6" s="203">
+      <c r="CP6" s="205"/>
+      <c r="CQ6" s="205"/>
+      <c r="CR6" s="205"/>
+      <c r="CS6" s="205"/>
+      <c r="CT6" s="205"/>
+      <c r="CU6" s="205"/>
+      <c r="CV6" s="205"/>
+      <c r="CW6" s="205"/>
+      <c r="CX6" s="205"/>
+      <c r="CY6" s="205"/>
+      <c r="CZ6" s="205"/>
+      <c r="DA6" s="205"/>
+      <c r="DB6" s="205"/>
+      <c r="DC6" s="205"/>
+      <c r="DD6" s="205"/>
+      <c r="DE6" s="205"/>
+      <c r="DF6" s="205"/>
+      <c r="DG6" s="205"/>
+      <c r="DH6" s="205"/>
+      <c r="DI6" s="205"/>
+      <c r="DJ6" s="205"/>
+      <c r="DK6" s="205"/>
+      <c r="DL6" s="205"/>
+      <c r="DM6" s="205"/>
+      <c r="DN6" s="205"/>
+      <c r="DO6" s="205"/>
+      <c r="DP6" s="205"/>
+      <c r="DQ6" s="205"/>
+      <c r="DR6" s="205"/>
+      <c r="DS6" s="206"/>
+      <c r="DT6" s="205">
         <v>2019.01</v>
       </c>
-      <c r="DU6" s="203"/>
-      <c r="DV6" s="203"/>
-      <c r="DW6" s="203"/>
-      <c r="DX6" s="203"/>
-      <c r="DY6" s="203"/>
-      <c r="DZ6" s="203"/>
-      <c r="EA6" s="203"/>
-      <c r="EB6" s="203"/>
-      <c r="EC6" s="203"/>
-      <c r="ED6" s="203"/>
-      <c r="EE6" s="203"/>
-      <c r="EF6" s="203"/>
-      <c r="EG6" s="203"/>
-      <c r="EH6" s="203"/>
-      <c r="EI6" s="203"/>
-      <c r="EJ6" s="203"/>
-      <c r="EK6" s="203"/>
-      <c r="EL6" s="203"/>
-      <c r="EM6" s="203"/>
-      <c r="EN6" s="203"/>
-      <c r="EO6" s="203"/>
-      <c r="EP6" s="203"/>
-      <c r="EQ6" s="203"/>
-      <c r="ER6" s="203"/>
-      <c r="ES6" s="203"/>
-      <c r="ET6" s="203"/>
-      <c r="EU6" s="203"/>
-      <c r="EV6" s="203"/>
-      <c r="EW6" s="203"/>
-      <c r="EX6" s="204"/>
-      <c r="EY6" s="205">
+      <c r="DU6" s="205"/>
+      <c r="DV6" s="205"/>
+      <c r="DW6" s="205"/>
+      <c r="DX6" s="205"/>
+      <c r="DY6" s="205"/>
+      <c r="DZ6" s="205"/>
+      <c r="EA6" s="205"/>
+      <c r="EB6" s="205"/>
+      <c r="EC6" s="205"/>
+      <c r="ED6" s="205"/>
+      <c r="EE6" s="205"/>
+      <c r="EF6" s="205"/>
+      <c r="EG6" s="205"/>
+      <c r="EH6" s="205"/>
+      <c r="EI6" s="205"/>
+      <c r="EJ6" s="205"/>
+      <c r="EK6" s="205"/>
+      <c r="EL6" s="205"/>
+      <c r="EM6" s="205"/>
+      <c r="EN6" s="205"/>
+      <c r="EO6" s="205"/>
+      <c r="EP6" s="205"/>
+      <c r="EQ6" s="205"/>
+      <c r="ER6" s="205"/>
+      <c r="ES6" s="205"/>
+      <c r="ET6" s="205"/>
+      <c r="EU6" s="205"/>
+      <c r="EV6" s="205"/>
+      <c r="EW6" s="205"/>
+      <c r="EX6" s="206"/>
+      <c r="EY6" s="207">
         <v>2019.02</v>
       </c>
-      <c r="EZ6" s="203"/>
-      <c r="FA6" s="203"/>
-      <c r="FB6" s="203"/>
-      <c r="FC6" s="203"/>
-      <c r="FD6" s="203"/>
-      <c r="FE6" s="203"/>
-      <c r="FF6" s="203"/>
-      <c r="FG6" s="203"/>
-      <c r="FH6" s="203"/>
-      <c r="FI6" s="203"/>
-      <c r="FJ6" s="203"/>
-      <c r="FK6" s="203"/>
-      <c r="FL6" s="203"/>
-      <c r="FM6" s="203"/>
-      <c r="FN6" s="203"/>
-      <c r="FO6" s="203"/>
-      <c r="FP6" s="203"/>
-      <c r="FQ6" s="203"/>
-      <c r="FR6" s="203"/>
-      <c r="FS6" s="203"/>
-      <c r="FT6" s="203"/>
-      <c r="FU6" s="203"/>
-      <c r="FV6" s="203"/>
-      <c r="FW6" s="203"/>
-      <c r="FX6" s="203"/>
-      <c r="FY6" s="203"/>
-      <c r="FZ6" s="204"/>
-      <c r="GA6" s="202">
+      <c r="EZ6" s="205"/>
+      <c r="FA6" s="205"/>
+      <c r="FB6" s="205"/>
+      <c r="FC6" s="205"/>
+      <c r="FD6" s="205"/>
+      <c r="FE6" s="205"/>
+      <c r="FF6" s="205"/>
+      <c r="FG6" s="205"/>
+      <c r="FH6" s="205"/>
+      <c r="FI6" s="205"/>
+      <c r="FJ6" s="205"/>
+      <c r="FK6" s="205"/>
+      <c r="FL6" s="205"/>
+      <c r="FM6" s="205"/>
+      <c r="FN6" s="205"/>
+      <c r="FO6" s="205"/>
+      <c r="FP6" s="205"/>
+      <c r="FQ6" s="205"/>
+      <c r="FR6" s="205"/>
+      <c r="FS6" s="205"/>
+      <c r="FT6" s="205"/>
+      <c r="FU6" s="205"/>
+      <c r="FV6" s="205"/>
+      <c r="FW6" s="205"/>
+      <c r="FX6" s="205"/>
+      <c r="FY6" s="205"/>
+      <c r="FZ6" s="206"/>
+      <c r="GA6" s="201">
         <v>3</v>
       </c>
-      <c r="GB6" s="202"/>
-      <c r="GC6" s="202"/>
-      <c r="GD6" s="202"/>
-      <c r="GE6" s="202"/>
-      <c r="GF6" s="202"/>
-      <c r="GG6" s="202"/>
-      <c r="GH6" s="202"/>
-      <c r="GI6" s="202"/>
-      <c r="GJ6" s="202"/>
-      <c r="GK6" s="202"/>
-      <c r="GL6" s="202"/>
-      <c r="GM6" s="202"/>
-      <c r="GN6" s="202"/>
-      <c r="GO6" s="202"/>
-      <c r="GP6" s="202"/>
-      <c r="GQ6" s="202"/>
-      <c r="GR6" s="202"/>
-      <c r="GS6" s="202"/>
-      <c r="GT6" s="202"/>
-      <c r="GU6" s="202"/>
-      <c r="GV6" s="202"/>
-      <c r="GW6" s="202"/>
-      <c r="GX6" s="202"/>
-      <c r="GY6" s="202"/>
-      <c r="GZ6" s="202"/>
-      <c r="HA6" s="202"/>
-      <c r="HB6" s="202"/>
-      <c r="HC6" s="202"/>
-      <c r="HD6" s="202"/>
-      <c r="HE6" s="202"/>
-      <c r="HF6" s="200">
+      <c r="GB6" s="201"/>
+      <c r="GC6" s="201"/>
+      <c r="GD6" s="201"/>
+      <c r="GE6" s="201"/>
+      <c r="GF6" s="201"/>
+      <c r="GG6" s="201"/>
+      <c r="GH6" s="201"/>
+      <c r="GI6" s="201"/>
+      <c r="GJ6" s="201"/>
+      <c r="GK6" s="201"/>
+      <c r="GL6" s="201"/>
+      <c r="GM6" s="201"/>
+      <c r="GN6" s="201"/>
+      <c r="GO6" s="201"/>
+      <c r="GP6" s="201"/>
+      <c r="GQ6" s="201"/>
+      <c r="GR6" s="201"/>
+      <c r="GS6" s="201"/>
+      <c r="GT6" s="201"/>
+      <c r="GU6" s="201"/>
+      <c r="GV6" s="201"/>
+      <c r="GW6" s="201"/>
+      <c r="GX6" s="201"/>
+      <c r="GY6" s="201"/>
+      <c r="GZ6" s="201"/>
+      <c r="HA6" s="201"/>
+      <c r="HB6" s="201"/>
+      <c r="HC6" s="201"/>
+      <c r="HD6" s="201"/>
+      <c r="HE6" s="201"/>
+      <c r="HF6" s="197">
         <v>4</v>
       </c>
       <c r="HG6" s="198"/>
@@ -3740,40 +3744,40 @@
       <c r="IG6" s="198"/>
       <c r="IH6" s="198"/>
       <c r="II6" s="199"/>
-      <c r="IJ6" s="209">
+      <c r="IJ6" s="200">
         <v>5</v>
       </c>
-      <c r="IK6" s="202"/>
-      <c r="IL6" s="202"/>
-      <c r="IM6" s="202"/>
-      <c r="IN6" s="202"/>
-      <c r="IO6" s="202"/>
-      <c r="IP6" s="202"/>
-      <c r="IQ6" s="202"/>
-      <c r="IR6" s="202"/>
-      <c r="IS6" s="202"/>
-      <c r="IT6" s="202"/>
-      <c r="IU6" s="202"/>
-      <c r="IV6" s="202"/>
-      <c r="IW6" s="202"/>
-      <c r="IX6" s="202"/>
-      <c r="IY6" s="202"/>
-      <c r="IZ6" s="202"/>
-      <c r="JA6" s="202"/>
-      <c r="JB6" s="202"/>
-      <c r="JC6" s="202"/>
-      <c r="JD6" s="202"/>
-      <c r="JE6" s="202"/>
-      <c r="JF6" s="202"/>
-      <c r="JG6" s="202"/>
-      <c r="JH6" s="202"/>
-      <c r="JI6" s="202"/>
-      <c r="JJ6" s="202"/>
-      <c r="JK6" s="202"/>
-      <c r="JL6" s="202"/>
-      <c r="JM6" s="202"/>
-      <c r="JN6" s="210"/>
-      <c r="JO6" s="200">
+      <c r="IK6" s="201"/>
+      <c r="IL6" s="201"/>
+      <c r="IM6" s="201"/>
+      <c r="IN6" s="201"/>
+      <c r="IO6" s="201"/>
+      <c r="IP6" s="201"/>
+      <c r="IQ6" s="201"/>
+      <c r="IR6" s="201"/>
+      <c r="IS6" s="201"/>
+      <c r="IT6" s="201"/>
+      <c r="IU6" s="201"/>
+      <c r="IV6" s="201"/>
+      <c r="IW6" s="201"/>
+      <c r="IX6" s="201"/>
+      <c r="IY6" s="201"/>
+      <c r="IZ6" s="201"/>
+      <c r="JA6" s="201"/>
+      <c r="JB6" s="201"/>
+      <c r="JC6" s="201"/>
+      <c r="JD6" s="201"/>
+      <c r="JE6" s="201"/>
+      <c r="JF6" s="201"/>
+      <c r="JG6" s="201"/>
+      <c r="JH6" s="201"/>
+      <c r="JI6" s="201"/>
+      <c r="JJ6" s="201"/>
+      <c r="JK6" s="201"/>
+      <c r="JL6" s="201"/>
+      <c r="JM6" s="201"/>
+      <c r="JN6" s="202"/>
+      <c r="JO6" s="197">
         <v>6</v>
       </c>
       <c r="JP6" s="198"/>
@@ -3871,7 +3875,7 @@
       <c r="MZ6" s="195"/>
       <c r="NA6" s="195"/>
       <c r="NB6" s="195"/>
-      <c r="NC6" s="200">
+      <c r="NC6" s="197">
         <v>9</v>
       </c>
       <c r="ND6" s="198"/>
@@ -3936,7 +3940,7 @@
       <c r="PI6" s="195"/>
       <c r="PJ6" s="195"/>
       <c r="PK6" s="196"/>
-      <c r="PL6" s="197">
+      <c r="PL6" s="211">
         <v>11</v>
       </c>
       <c r="PM6" s="198"/>
@@ -5467,7 +5471,7 @@
       </c>
     </row>
     <row r="8" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="201" t="s">
+      <c r="A8" s="203" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="41"/>
@@ -5973,7 +5977,7 @@
       <c r="RT8" s="189"/>
     </row>
     <row r="9" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="201"/>
+      <c r="A9" s="203"/>
       <c r="B9" s="72"/>
       <c r="C9" s="73"/>
       <c r="D9" s="74"/>
@@ -6479,7 +6483,7 @@
       <c r="RT9" s="7"/>
     </row>
     <row r="10" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="201"/>
+      <c r="A10" s="203"/>
       <c r="B10" s="72"/>
       <c r="C10" s="73"/>
       <c r="D10" s="74"/>
@@ -6977,7 +6981,7 @@
       <c r="RT10" s="7"/>
     </row>
     <row r="11" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="201"/>
+      <c r="A11" s="203"/>
       <c r="B11" s="72"/>
       <c r="C11" s="73"/>
       <c r="D11" s="74"/>
@@ -7477,7 +7481,7 @@
       <c r="RT11" s="7"/>
     </row>
     <row r="12" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="201"/>
+      <c r="A12" s="203"/>
       <c r="B12" s="72"/>
       <c r="C12" s="73"/>
       <c r="D12" s="74"/>
@@ -7975,7 +7979,7 @@
       <c r="RT12" s="7"/>
     </row>
     <row r="13" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="201"/>
+      <c r="A13" s="203"/>
       <c r="B13" s="72"/>
       <c r="C13" s="73"/>
       <c r="D13" s="74"/>
@@ -8469,7 +8473,7 @@
       <c r="RT13" s="7"/>
     </row>
     <row r="14" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="201"/>
+      <c r="A14" s="203"/>
       <c r="B14" s="80"/>
       <c r="C14" s="81"/>
       <c r="D14" s="82"/>
@@ -8961,7 +8965,7 @@
       <c r="RT14" s="18"/>
     </row>
     <row r="15" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="211" t="s">
+      <c r="A15" s="204" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="88"/>
@@ -9455,7 +9459,7 @@
       <c r="RT15" s="29"/>
     </row>
     <row r="16" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="201"/>
+      <c r="A16" s="203"/>
       <c r="B16" s="94"/>
       <c r="C16" s="95"/>
       <c r="D16" s="96"/>
@@ -9959,7 +9963,7 @@
       <c r="RT16" s="13"/>
     </row>
     <row r="17" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="201"/>
+      <c r="A17" s="203"/>
       <c r="B17" s="94"/>
       <c r="C17" s="95"/>
       <c r="D17" s="96"/>
@@ -10458,7 +10462,7 @@
       <c r="RT17" s="4"/>
     </row>
     <row r="18" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="201"/>
+      <c r="A18" s="203"/>
       <c r="B18" s="94"/>
       <c r="C18" s="95"/>
       <c r="D18" s="96"/>
@@ -10953,7 +10957,7 @@
       <c r="RT18" s="4"/>
     </row>
     <row r="19" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="201"/>
+      <c r="A19" s="203"/>
       <c r="B19" s="94"/>
       <c r="C19" s="95"/>
       <c r="D19" s="96"/>
@@ -11443,7 +11447,7 @@
       <c r="RT19" s="4"/>
     </row>
     <row r="20" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="201"/>
+      <c r="A20" s="203"/>
       <c r="B20" s="94"/>
       <c r="C20" s="95"/>
       <c r="D20" s="96"/>
@@ -11933,7 +11937,7 @@
       <c r="RT20" s="4"/>
     </row>
     <row r="21" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="201"/>
+      <c r="A21" s="203"/>
       <c r="B21" s="94"/>
       <c r="C21" s="95"/>
       <c r="D21" s="96"/>
@@ -12423,7 +12427,7 @@
       <c r="RT21" s="126"/>
     </row>
     <row r="22" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="201"/>
+      <c r="A22" s="203"/>
       <c r="B22" s="101"/>
       <c r="C22" s="102"/>
       <c r="D22" s="103"/>
@@ -12913,7 +12917,7 @@
       <c r="RT22" s="25"/>
     </row>
     <row r="23" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="201" t="s">
+      <c r="A23" s="203" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="107"/>
@@ -13417,7 +13421,7 @@
       <c r="RT23" s="29"/>
     </row>
     <row r="24" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="201"/>
+      <c r="A24" s="203"/>
       <c r="B24" s="94"/>
       <c r="C24" s="95"/>
       <c r="D24" s="96"/>
@@ -13913,7 +13917,7 @@
       <c r="RT24" s="4"/>
     </row>
     <row r="25" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="201"/>
+      <c r="A25" s="203"/>
       <c r="B25" s="94"/>
       <c r="C25" s="95"/>
       <c r="D25" s="96"/>
@@ -14417,7 +14421,7 @@
       <c r="RT25" s="4"/>
     </row>
     <row r="26" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="201"/>
+      <c r="A26" s="203"/>
       <c r="B26" s="94"/>
       <c r="C26" s="95"/>
       <c r="D26" s="96"/>
@@ -14919,7 +14923,7 @@
       <c r="RT26" s="4"/>
     </row>
     <row r="27" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="201"/>
+      <c r="A27" s="203"/>
       <c r="B27" s="94"/>
       <c r="C27" s="95"/>
       <c r="D27" s="96"/>
@@ -15415,7 +15419,7 @@
       <c r="RT27" s="4"/>
     </row>
     <row r="28" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="201"/>
+      <c r="A28" s="203"/>
       <c r="B28" s="94"/>
       <c r="C28" s="95"/>
       <c r="D28" s="96"/>
@@ -15907,7 +15911,7 @@
       <c r="RT28" s="4"/>
     </row>
     <row r="29" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="201"/>
+      <c r="A29" s="203"/>
       <c r="B29" s="94"/>
       <c r="C29" s="95"/>
       <c r="D29" s="96"/>
@@ -16399,7 +16403,7 @@
       <c r="RT29" s="4"/>
     </row>
     <row r="30" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="201"/>
+      <c r="A30" s="203"/>
       <c r="B30" s="101"/>
       <c r="C30" s="102"/>
       <c r="D30" s="103"/>
@@ -18137,11 +18141,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="KS6:LW6"/>
-    <mergeCell ref="JO6:KR6"/>
-    <mergeCell ref="IJ6:JN6"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="OG6:PK6"/>
+    <mergeCell ref="PL6:QO6"/>
+    <mergeCell ref="QP6:RT6"/>
+    <mergeCell ref="NC6:OF6"/>
+    <mergeCell ref="LX6:NB6"/>
     <mergeCell ref="A23:A30"/>
     <mergeCell ref="GA6:HE6"/>
     <mergeCell ref="HF6:II6"/>
@@ -18151,11 +18155,11 @@
     <mergeCell ref="B6:AE6"/>
     <mergeCell ref="AF6:BJ6"/>
     <mergeCell ref="BK6:CN6"/>
-    <mergeCell ref="OG6:PK6"/>
-    <mergeCell ref="PL6:QO6"/>
-    <mergeCell ref="QP6:RT6"/>
-    <mergeCell ref="NC6:OF6"/>
-    <mergeCell ref="LX6:NB6"/>
+    <mergeCell ref="KS6:LW6"/>
+    <mergeCell ref="JO6:KR6"/>
+    <mergeCell ref="IJ6:JN6"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A15:A22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18167,11 +18171,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E133"/>
+  <dimension ref="B2:E135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E136" sqref="E136"/>
+      <selection pane="bottomLeft" activeCell="K124" sqref="K124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19577,7 +19581,7 @@
       <c r="C120" s="213"/>
       <c r="D120" s="138">
         <f>SUM(D121:D135)</f>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E120" s="141"/>
     </row>
@@ -19715,15 +19719,33 @@
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B132" s="163"/>
-      <c r="C132" s="164"/>
-      <c r="D132" s="165"/>
-      <c r="E132" s="167"/>
+      <c r="C132" s="164">
+        <v>18</v>
+      </c>
+      <c r="D132" s="165">
+        <v>4</v>
+      </c>
+      <c r="E132" s="167" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B133" s="163"/>
       <c r="C133" s="164"/>
       <c r="D133" s="165"/>
       <c r="E133" s="167"/>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B134" s="163"/>
+      <c r="C134" s="164"/>
+      <c r="D134" s="165"/>
+      <c r="E134" s="167"/>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B135" s="163"/>
+      <c r="C135" s="164"/>
+      <c r="D135" s="165"/>
+      <c r="E135" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/Plasma Project schedule V1.0_20191015.xlsx
+++ b/Plasma Project schedule V1.0_20191015.xlsx
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="167">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -798,6 +798,10 @@
   </si>
   <si>
     <t>RF GEN - PWR 회로 정리 및 PL 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF GEN - RF 회로 정리 및 PL 정리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2012,7 +2016,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2021,20 +2025,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2054,8 +2052,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2136,7 +2140,7 @@
         <xdr:cNvPr id="52" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,7 +2197,7 @@
         <xdr:cNvPr id="15" name="직선 화살표 연결선 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2250,7 +2254,7 @@
         <xdr:cNvPr id="18" name="직선 화살표 연결선 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2307,7 +2311,7 @@
         <xdr:cNvPr id="21" name="직선 화살표 연결선 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2364,7 +2368,7 @@
         <xdr:cNvPr id="25" name="직선 화살표 연결선 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2421,7 +2425,7 @@
         <xdr:cNvPr id="28" name="직선 화살표 연결선 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2478,7 +2482,7 @@
         <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2535,7 +2539,7 @@
         <xdr:cNvPr id="33" name="직선 화살표 연결선 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2592,7 +2596,7 @@
         <xdr:cNvPr id="36" name="직선 화살표 연결선 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2649,7 +2653,7 @@
         <xdr:cNvPr id="38" name="직선 화살표 연결선 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2706,7 +2710,7 @@
         <xdr:cNvPr id="41" name="직선 화살표 연결선 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2763,7 +2767,7 @@
         <xdr:cNvPr id="46" name="직선 화살표 연결선 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2820,7 +2824,7 @@
         <xdr:cNvPr id="14" name="직선 화살표 연결선 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2877,7 +2881,7 @@
         <xdr:cNvPr id="16" name="직선 화살표 연결선 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2934,7 +2938,7 @@
         <xdr:cNvPr id="19" name="직선 화살표 연결선 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2991,7 +2995,7 @@
         <xdr:cNvPr id="17" name="직선 화살표 연결선 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3048,7 +3052,7 @@
         <xdr:cNvPr id="20" name="직선 화살표 연결선 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3105,7 +3109,7 @@
         <xdr:cNvPr id="22" name="직선 화살표 연결선 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3486,233 +3490,233 @@
     </row>
     <row r="6" spans="1:488" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="50"/>
-      <c r="B6" s="208">
+      <c r="B6" s="206">
         <v>9</v>
       </c>
-      <c r="C6" s="209"/>
-      <c r="D6" s="209"/>
-      <c r="E6" s="209"/>
-      <c r="F6" s="209"/>
-      <c r="G6" s="209"/>
-      <c r="H6" s="209"/>
-      <c r="I6" s="209"/>
-      <c r="J6" s="209"/>
-      <c r="K6" s="209"/>
-      <c r="L6" s="209"/>
-      <c r="M6" s="209"/>
-      <c r="N6" s="209"/>
-      <c r="O6" s="209"/>
-      <c r="P6" s="209"/>
-      <c r="Q6" s="209"/>
-      <c r="R6" s="209"/>
-      <c r="S6" s="209"/>
-      <c r="T6" s="209"/>
-      <c r="U6" s="209"/>
-      <c r="V6" s="209"/>
-      <c r="W6" s="209"/>
-      <c r="X6" s="209"/>
-      <c r="Y6" s="209"/>
-      <c r="Z6" s="209"/>
-      <c r="AA6" s="209"/>
-      <c r="AB6" s="209"/>
-      <c r="AC6" s="209"/>
-      <c r="AD6" s="209"/>
-      <c r="AE6" s="210"/>
-      <c r="AF6" s="205">
+      <c r="C6" s="207"/>
+      <c r="D6" s="207"/>
+      <c r="E6" s="207"/>
+      <c r="F6" s="207"/>
+      <c r="G6" s="207"/>
+      <c r="H6" s="207"/>
+      <c r="I6" s="207"/>
+      <c r="J6" s="207"/>
+      <c r="K6" s="207"/>
+      <c r="L6" s="207"/>
+      <c r="M6" s="207"/>
+      <c r="N6" s="207"/>
+      <c r="O6" s="207"/>
+      <c r="P6" s="207"/>
+      <c r="Q6" s="207"/>
+      <c r="R6" s="207"/>
+      <c r="S6" s="207"/>
+      <c r="T6" s="207"/>
+      <c r="U6" s="207"/>
+      <c r="V6" s="207"/>
+      <c r="W6" s="207"/>
+      <c r="X6" s="207"/>
+      <c r="Y6" s="207"/>
+      <c r="Z6" s="207"/>
+      <c r="AA6" s="207"/>
+      <c r="AB6" s="207"/>
+      <c r="AC6" s="207"/>
+      <c r="AD6" s="207"/>
+      <c r="AE6" s="208"/>
+      <c r="AF6" s="203">
         <v>10</v>
       </c>
-      <c r="AG6" s="205"/>
-      <c r="AH6" s="205"/>
-      <c r="AI6" s="205"/>
-      <c r="AJ6" s="205"/>
-      <c r="AK6" s="205"/>
-      <c r="AL6" s="205"/>
-      <c r="AM6" s="205"/>
-      <c r="AN6" s="205"/>
-      <c r="AO6" s="205"/>
-      <c r="AP6" s="205"/>
-      <c r="AQ6" s="205"/>
-      <c r="AR6" s="205"/>
-      <c r="AS6" s="205"/>
-      <c r="AT6" s="205"/>
-      <c r="AU6" s="205"/>
-      <c r="AV6" s="205"/>
-      <c r="AW6" s="205"/>
-      <c r="AX6" s="205"/>
-      <c r="AY6" s="205"/>
-      <c r="AZ6" s="205"/>
-      <c r="BA6" s="205"/>
-      <c r="BB6" s="205"/>
-      <c r="BC6" s="205"/>
-      <c r="BD6" s="205"/>
-      <c r="BE6" s="205"/>
-      <c r="BF6" s="205"/>
-      <c r="BG6" s="205"/>
-      <c r="BH6" s="205"/>
-      <c r="BI6" s="205"/>
-      <c r="BJ6" s="206"/>
-      <c r="BK6" s="208">
+      <c r="AG6" s="203"/>
+      <c r="AH6" s="203"/>
+      <c r="AI6" s="203"/>
+      <c r="AJ6" s="203"/>
+      <c r="AK6" s="203"/>
+      <c r="AL6" s="203"/>
+      <c r="AM6" s="203"/>
+      <c r="AN6" s="203"/>
+      <c r="AO6" s="203"/>
+      <c r="AP6" s="203"/>
+      <c r="AQ6" s="203"/>
+      <c r="AR6" s="203"/>
+      <c r="AS6" s="203"/>
+      <c r="AT6" s="203"/>
+      <c r="AU6" s="203"/>
+      <c r="AV6" s="203"/>
+      <c r="AW6" s="203"/>
+      <c r="AX6" s="203"/>
+      <c r="AY6" s="203"/>
+      <c r="AZ6" s="203"/>
+      <c r="BA6" s="203"/>
+      <c r="BB6" s="203"/>
+      <c r="BC6" s="203"/>
+      <c r="BD6" s="203"/>
+      <c r="BE6" s="203"/>
+      <c r="BF6" s="203"/>
+      <c r="BG6" s="203"/>
+      <c r="BH6" s="203"/>
+      <c r="BI6" s="203"/>
+      <c r="BJ6" s="204"/>
+      <c r="BK6" s="206">
         <v>11</v>
       </c>
-      <c r="BL6" s="209"/>
-      <c r="BM6" s="209"/>
-      <c r="BN6" s="209"/>
-      <c r="BO6" s="209"/>
-      <c r="BP6" s="209"/>
-      <c r="BQ6" s="209"/>
-      <c r="BR6" s="209"/>
-      <c r="BS6" s="209"/>
-      <c r="BT6" s="209"/>
-      <c r="BU6" s="209"/>
-      <c r="BV6" s="209"/>
-      <c r="BW6" s="209"/>
-      <c r="BX6" s="209"/>
-      <c r="BY6" s="209"/>
-      <c r="BZ6" s="209"/>
-      <c r="CA6" s="209"/>
-      <c r="CB6" s="209"/>
-      <c r="CC6" s="209"/>
-      <c r="CD6" s="209"/>
-      <c r="CE6" s="209"/>
-      <c r="CF6" s="209"/>
-      <c r="CG6" s="209"/>
-      <c r="CH6" s="209"/>
-      <c r="CI6" s="209"/>
-      <c r="CJ6" s="209"/>
-      <c r="CK6" s="209"/>
-      <c r="CL6" s="209"/>
-      <c r="CM6" s="209"/>
-      <c r="CN6" s="210"/>
-      <c r="CO6" s="205">
+      <c r="BL6" s="207"/>
+      <c r="BM6" s="207"/>
+      <c r="BN6" s="207"/>
+      <c r="BO6" s="207"/>
+      <c r="BP6" s="207"/>
+      <c r="BQ6" s="207"/>
+      <c r="BR6" s="207"/>
+      <c r="BS6" s="207"/>
+      <c r="BT6" s="207"/>
+      <c r="BU6" s="207"/>
+      <c r="BV6" s="207"/>
+      <c r="BW6" s="207"/>
+      <c r="BX6" s="207"/>
+      <c r="BY6" s="207"/>
+      <c r="BZ6" s="207"/>
+      <c r="CA6" s="207"/>
+      <c r="CB6" s="207"/>
+      <c r="CC6" s="207"/>
+      <c r="CD6" s="207"/>
+      <c r="CE6" s="207"/>
+      <c r="CF6" s="207"/>
+      <c r="CG6" s="207"/>
+      <c r="CH6" s="207"/>
+      <c r="CI6" s="207"/>
+      <c r="CJ6" s="207"/>
+      <c r="CK6" s="207"/>
+      <c r="CL6" s="207"/>
+      <c r="CM6" s="207"/>
+      <c r="CN6" s="208"/>
+      <c r="CO6" s="203">
         <v>12</v>
       </c>
-      <c r="CP6" s="205"/>
-      <c r="CQ6" s="205"/>
-      <c r="CR6" s="205"/>
-      <c r="CS6" s="205"/>
-      <c r="CT6" s="205"/>
-      <c r="CU6" s="205"/>
-      <c r="CV6" s="205"/>
-      <c r="CW6" s="205"/>
-      <c r="CX6" s="205"/>
-      <c r="CY6" s="205"/>
-      <c r="CZ6" s="205"/>
-      <c r="DA6" s="205"/>
-      <c r="DB6" s="205"/>
-      <c r="DC6" s="205"/>
-      <c r="DD6" s="205"/>
-      <c r="DE6" s="205"/>
-      <c r="DF6" s="205"/>
-      <c r="DG6" s="205"/>
-      <c r="DH6" s="205"/>
-      <c r="DI6" s="205"/>
-      <c r="DJ6" s="205"/>
-      <c r="DK6" s="205"/>
-      <c r="DL6" s="205"/>
-      <c r="DM6" s="205"/>
-      <c r="DN6" s="205"/>
-      <c r="DO6" s="205"/>
-      <c r="DP6" s="205"/>
-      <c r="DQ6" s="205"/>
-      <c r="DR6" s="205"/>
-      <c r="DS6" s="206"/>
-      <c r="DT6" s="205">
+      <c r="CP6" s="203"/>
+      <c r="CQ6" s="203"/>
+      <c r="CR6" s="203"/>
+      <c r="CS6" s="203"/>
+      <c r="CT6" s="203"/>
+      <c r="CU6" s="203"/>
+      <c r="CV6" s="203"/>
+      <c r="CW6" s="203"/>
+      <c r="CX6" s="203"/>
+      <c r="CY6" s="203"/>
+      <c r="CZ6" s="203"/>
+      <c r="DA6" s="203"/>
+      <c r="DB6" s="203"/>
+      <c r="DC6" s="203"/>
+      <c r="DD6" s="203"/>
+      <c r="DE6" s="203"/>
+      <c r="DF6" s="203"/>
+      <c r="DG6" s="203"/>
+      <c r="DH6" s="203"/>
+      <c r="DI6" s="203"/>
+      <c r="DJ6" s="203"/>
+      <c r="DK6" s="203"/>
+      <c r="DL6" s="203"/>
+      <c r="DM6" s="203"/>
+      <c r="DN6" s="203"/>
+      <c r="DO6" s="203"/>
+      <c r="DP6" s="203"/>
+      <c r="DQ6" s="203"/>
+      <c r="DR6" s="203"/>
+      <c r="DS6" s="204"/>
+      <c r="DT6" s="203">
         <v>2019.01</v>
       </c>
-      <c r="DU6" s="205"/>
-      <c r="DV6" s="205"/>
-      <c r="DW6" s="205"/>
-      <c r="DX6" s="205"/>
-      <c r="DY6" s="205"/>
-      <c r="DZ6" s="205"/>
-      <c r="EA6" s="205"/>
-      <c r="EB6" s="205"/>
-      <c r="EC6" s="205"/>
-      <c r="ED6" s="205"/>
-      <c r="EE6" s="205"/>
-      <c r="EF6" s="205"/>
-      <c r="EG6" s="205"/>
-      <c r="EH6" s="205"/>
-      <c r="EI6" s="205"/>
-      <c r="EJ6" s="205"/>
-      <c r="EK6" s="205"/>
-      <c r="EL6" s="205"/>
-      <c r="EM6" s="205"/>
-      <c r="EN6" s="205"/>
-      <c r="EO6" s="205"/>
-      <c r="EP6" s="205"/>
-      <c r="EQ6" s="205"/>
-      <c r="ER6" s="205"/>
-      <c r="ES6" s="205"/>
-      <c r="ET6" s="205"/>
-      <c r="EU6" s="205"/>
-      <c r="EV6" s="205"/>
-      <c r="EW6" s="205"/>
-      <c r="EX6" s="206"/>
-      <c r="EY6" s="207">
+      <c r="DU6" s="203"/>
+      <c r="DV6" s="203"/>
+      <c r="DW6" s="203"/>
+      <c r="DX6" s="203"/>
+      <c r="DY6" s="203"/>
+      <c r="DZ6" s="203"/>
+      <c r="EA6" s="203"/>
+      <c r="EB6" s="203"/>
+      <c r="EC6" s="203"/>
+      <c r="ED6" s="203"/>
+      <c r="EE6" s="203"/>
+      <c r="EF6" s="203"/>
+      <c r="EG6" s="203"/>
+      <c r="EH6" s="203"/>
+      <c r="EI6" s="203"/>
+      <c r="EJ6" s="203"/>
+      <c r="EK6" s="203"/>
+      <c r="EL6" s="203"/>
+      <c r="EM6" s="203"/>
+      <c r="EN6" s="203"/>
+      <c r="EO6" s="203"/>
+      <c r="EP6" s="203"/>
+      <c r="EQ6" s="203"/>
+      <c r="ER6" s="203"/>
+      <c r="ES6" s="203"/>
+      <c r="ET6" s="203"/>
+      <c r="EU6" s="203"/>
+      <c r="EV6" s="203"/>
+      <c r="EW6" s="203"/>
+      <c r="EX6" s="204"/>
+      <c r="EY6" s="205">
         <v>2019.02</v>
       </c>
-      <c r="EZ6" s="205"/>
-      <c r="FA6" s="205"/>
-      <c r="FB6" s="205"/>
-      <c r="FC6" s="205"/>
-      <c r="FD6" s="205"/>
-      <c r="FE6" s="205"/>
-      <c r="FF6" s="205"/>
-      <c r="FG6" s="205"/>
-      <c r="FH6" s="205"/>
-      <c r="FI6" s="205"/>
-      <c r="FJ6" s="205"/>
-      <c r="FK6" s="205"/>
-      <c r="FL6" s="205"/>
-      <c r="FM6" s="205"/>
-      <c r="FN6" s="205"/>
-      <c r="FO6" s="205"/>
-      <c r="FP6" s="205"/>
-      <c r="FQ6" s="205"/>
-      <c r="FR6" s="205"/>
-      <c r="FS6" s="205"/>
-      <c r="FT6" s="205"/>
-      <c r="FU6" s="205"/>
-      <c r="FV6" s="205"/>
-      <c r="FW6" s="205"/>
-      <c r="FX6" s="205"/>
-      <c r="FY6" s="205"/>
-      <c r="FZ6" s="206"/>
-      <c r="GA6" s="201">
+      <c r="EZ6" s="203"/>
+      <c r="FA6" s="203"/>
+      <c r="FB6" s="203"/>
+      <c r="FC6" s="203"/>
+      <c r="FD6" s="203"/>
+      <c r="FE6" s="203"/>
+      <c r="FF6" s="203"/>
+      <c r="FG6" s="203"/>
+      <c r="FH6" s="203"/>
+      <c r="FI6" s="203"/>
+      <c r="FJ6" s="203"/>
+      <c r="FK6" s="203"/>
+      <c r="FL6" s="203"/>
+      <c r="FM6" s="203"/>
+      <c r="FN6" s="203"/>
+      <c r="FO6" s="203"/>
+      <c r="FP6" s="203"/>
+      <c r="FQ6" s="203"/>
+      <c r="FR6" s="203"/>
+      <c r="FS6" s="203"/>
+      <c r="FT6" s="203"/>
+      <c r="FU6" s="203"/>
+      <c r="FV6" s="203"/>
+      <c r="FW6" s="203"/>
+      <c r="FX6" s="203"/>
+      <c r="FY6" s="203"/>
+      <c r="FZ6" s="204"/>
+      <c r="GA6" s="202">
         <v>3</v>
       </c>
-      <c r="GB6" s="201"/>
-      <c r="GC6" s="201"/>
-      <c r="GD6" s="201"/>
-      <c r="GE6" s="201"/>
-      <c r="GF6" s="201"/>
-      <c r="GG6" s="201"/>
-      <c r="GH6" s="201"/>
-      <c r="GI6" s="201"/>
-      <c r="GJ6" s="201"/>
-      <c r="GK6" s="201"/>
-      <c r="GL6" s="201"/>
-      <c r="GM6" s="201"/>
-      <c r="GN6" s="201"/>
-      <c r="GO6" s="201"/>
-      <c r="GP6" s="201"/>
-      <c r="GQ6" s="201"/>
-      <c r="GR6" s="201"/>
-      <c r="GS6" s="201"/>
-      <c r="GT6" s="201"/>
-      <c r="GU6" s="201"/>
-      <c r="GV6" s="201"/>
-      <c r="GW6" s="201"/>
-      <c r="GX6" s="201"/>
-      <c r="GY6" s="201"/>
-      <c r="GZ6" s="201"/>
-      <c r="HA6" s="201"/>
-      <c r="HB6" s="201"/>
-      <c r="HC6" s="201"/>
-      <c r="HD6" s="201"/>
-      <c r="HE6" s="201"/>
-      <c r="HF6" s="197">
+      <c r="GB6" s="202"/>
+      <c r="GC6" s="202"/>
+      <c r="GD6" s="202"/>
+      <c r="GE6" s="202"/>
+      <c r="GF6" s="202"/>
+      <c r="GG6" s="202"/>
+      <c r="GH6" s="202"/>
+      <c r="GI6" s="202"/>
+      <c r="GJ6" s="202"/>
+      <c r="GK6" s="202"/>
+      <c r="GL6" s="202"/>
+      <c r="GM6" s="202"/>
+      <c r="GN6" s="202"/>
+      <c r="GO6" s="202"/>
+      <c r="GP6" s="202"/>
+      <c r="GQ6" s="202"/>
+      <c r="GR6" s="202"/>
+      <c r="GS6" s="202"/>
+      <c r="GT6" s="202"/>
+      <c r="GU6" s="202"/>
+      <c r="GV6" s="202"/>
+      <c r="GW6" s="202"/>
+      <c r="GX6" s="202"/>
+      <c r="GY6" s="202"/>
+      <c r="GZ6" s="202"/>
+      <c r="HA6" s="202"/>
+      <c r="HB6" s="202"/>
+      <c r="HC6" s="202"/>
+      <c r="HD6" s="202"/>
+      <c r="HE6" s="202"/>
+      <c r="HF6" s="200">
         <v>4</v>
       </c>
       <c r="HG6" s="198"/>
@@ -3744,40 +3748,40 @@
       <c r="IG6" s="198"/>
       <c r="IH6" s="198"/>
       <c r="II6" s="199"/>
-      <c r="IJ6" s="200">
+      <c r="IJ6" s="209">
         <v>5</v>
       </c>
-      <c r="IK6" s="201"/>
-      <c r="IL6" s="201"/>
-      <c r="IM6" s="201"/>
-      <c r="IN6" s="201"/>
-      <c r="IO6" s="201"/>
-      <c r="IP6" s="201"/>
-      <c r="IQ6" s="201"/>
-      <c r="IR6" s="201"/>
-      <c r="IS6" s="201"/>
-      <c r="IT6" s="201"/>
-      <c r="IU6" s="201"/>
-      <c r="IV6" s="201"/>
-      <c r="IW6" s="201"/>
-      <c r="IX6" s="201"/>
-      <c r="IY6" s="201"/>
-      <c r="IZ6" s="201"/>
-      <c r="JA6" s="201"/>
-      <c r="JB6" s="201"/>
-      <c r="JC6" s="201"/>
-      <c r="JD6" s="201"/>
-      <c r="JE6" s="201"/>
-      <c r="JF6" s="201"/>
-      <c r="JG6" s="201"/>
-      <c r="JH6" s="201"/>
-      <c r="JI6" s="201"/>
-      <c r="JJ6" s="201"/>
-      <c r="JK6" s="201"/>
-      <c r="JL6" s="201"/>
-      <c r="JM6" s="201"/>
-      <c r="JN6" s="202"/>
-      <c r="JO6" s="197">
+      <c r="IK6" s="202"/>
+      <c r="IL6" s="202"/>
+      <c r="IM6" s="202"/>
+      <c r="IN6" s="202"/>
+      <c r="IO6" s="202"/>
+      <c r="IP6" s="202"/>
+      <c r="IQ6" s="202"/>
+      <c r="IR6" s="202"/>
+      <c r="IS6" s="202"/>
+      <c r="IT6" s="202"/>
+      <c r="IU6" s="202"/>
+      <c r="IV6" s="202"/>
+      <c r="IW6" s="202"/>
+      <c r="IX6" s="202"/>
+      <c r="IY6" s="202"/>
+      <c r="IZ6" s="202"/>
+      <c r="JA6" s="202"/>
+      <c r="JB6" s="202"/>
+      <c r="JC6" s="202"/>
+      <c r="JD6" s="202"/>
+      <c r="JE6" s="202"/>
+      <c r="JF6" s="202"/>
+      <c r="JG6" s="202"/>
+      <c r="JH6" s="202"/>
+      <c r="JI6" s="202"/>
+      <c r="JJ6" s="202"/>
+      <c r="JK6" s="202"/>
+      <c r="JL6" s="202"/>
+      <c r="JM6" s="202"/>
+      <c r="JN6" s="210"/>
+      <c r="JO6" s="200">
         <v>6</v>
       </c>
       <c r="JP6" s="198"/>
@@ -3875,7 +3879,7 @@
       <c r="MZ6" s="195"/>
       <c r="NA6" s="195"/>
       <c r="NB6" s="195"/>
-      <c r="NC6" s="197">
+      <c r="NC6" s="200">
         <v>9</v>
       </c>
       <c r="ND6" s="198"/>
@@ -3940,7 +3944,7 @@
       <c r="PI6" s="195"/>
       <c r="PJ6" s="195"/>
       <c r="PK6" s="196"/>
-      <c r="PL6" s="211">
+      <c r="PL6" s="197">
         <v>11</v>
       </c>
       <c r="PM6" s="198"/>
@@ -5471,7 +5475,7 @@
       </c>
     </row>
     <row r="8" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="203" t="s">
+      <c r="A8" s="201" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="41"/>
@@ -5977,7 +5981,7 @@
       <c r="RT8" s="189"/>
     </row>
     <row r="9" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="203"/>
+      <c r="A9" s="201"/>
       <c r="B9" s="72"/>
       <c r="C9" s="73"/>
       <c r="D9" s="74"/>
@@ -6483,7 +6487,7 @@
       <c r="RT9" s="7"/>
     </row>
     <row r="10" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="203"/>
+      <c r="A10" s="201"/>
       <c r="B10" s="72"/>
       <c r="C10" s="73"/>
       <c r="D10" s="74"/>
@@ -6981,7 +6985,7 @@
       <c r="RT10" s="7"/>
     </row>
     <row r="11" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="203"/>
+      <c r="A11" s="201"/>
       <c r="B11" s="72"/>
       <c r="C11" s="73"/>
       <c r="D11" s="74"/>
@@ -7481,7 +7485,7 @@
       <c r="RT11" s="7"/>
     </row>
     <row r="12" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="203"/>
+      <c r="A12" s="201"/>
       <c r="B12" s="72"/>
       <c r="C12" s="73"/>
       <c r="D12" s="74"/>
@@ -7979,7 +7983,7 @@
       <c r="RT12" s="7"/>
     </row>
     <row r="13" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="203"/>
+      <c r="A13" s="201"/>
       <c r="B13" s="72"/>
       <c r="C13" s="73"/>
       <c r="D13" s="74"/>
@@ -8473,7 +8477,7 @@
       <c r="RT13" s="7"/>
     </row>
     <row r="14" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="203"/>
+      <c r="A14" s="201"/>
       <c r="B14" s="80"/>
       <c r="C14" s="81"/>
       <c r="D14" s="82"/>
@@ -8965,7 +8969,7 @@
       <c r="RT14" s="18"/>
     </row>
     <row r="15" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="204" t="s">
+      <c r="A15" s="211" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="88"/>
@@ -9459,7 +9463,7 @@
       <c r="RT15" s="29"/>
     </row>
     <row r="16" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="203"/>
+      <c r="A16" s="201"/>
       <c r="B16" s="94"/>
       <c r="C16" s="95"/>
       <c r="D16" s="96"/>
@@ -9963,7 +9967,7 @@
       <c r="RT16" s="13"/>
     </row>
     <row r="17" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="203"/>
+      <c r="A17" s="201"/>
       <c r="B17" s="94"/>
       <c r="C17" s="95"/>
       <c r="D17" s="96"/>
@@ -10462,7 +10466,7 @@
       <c r="RT17" s="4"/>
     </row>
     <row r="18" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="203"/>
+      <c r="A18" s="201"/>
       <c r="B18" s="94"/>
       <c r="C18" s="95"/>
       <c r="D18" s="96"/>
@@ -10957,7 +10961,7 @@
       <c r="RT18" s="4"/>
     </row>
     <row r="19" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="203"/>
+      <c r="A19" s="201"/>
       <c r="B19" s="94"/>
       <c r="C19" s="95"/>
       <c r="D19" s="96"/>
@@ -11447,7 +11451,7 @@
       <c r="RT19" s="4"/>
     </row>
     <row r="20" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="203"/>
+      <c r="A20" s="201"/>
       <c r="B20" s="94"/>
       <c r="C20" s="95"/>
       <c r="D20" s="96"/>
@@ -11937,7 +11941,7 @@
       <c r="RT20" s="4"/>
     </row>
     <row r="21" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="203"/>
+      <c r="A21" s="201"/>
       <c r="B21" s="94"/>
       <c r="C21" s="95"/>
       <c r="D21" s="96"/>
@@ -12427,7 +12431,7 @@
       <c r="RT21" s="126"/>
     </row>
     <row r="22" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="203"/>
+      <c r="A22" s="201"/>
       <c r="B22" s="101"/>
       <c r="C22" s="102"/>
       <c r="D22" s="103"/>
@@ -12917,7 +12921,7 @@
       <c r="RT22" s="25"/>
     </row>
     <row r="23" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="203" t="s">
+      <c r="A23" s="201" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="107"/>
@@ -13421,7 +13425,7 @@
       <c r="RT23" s="29"/>
     </row>
     <row r="24" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="203"/>
+      <c r="A24" s="201"/>
       <c r="B24" s="94"/>
       <c r="C24" s="95"/>
       <c r="D24" s="96"/>
@@ -13917,7 +13921,7 @@
       <c r="RT24" s="4"/>
     </row>
     <row r="25" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="203"/>
+      <c r="A25" s="201"/>
       <c r="B25" s="94"/>
       <c r="C25" s="95"/>
       <c r="D25" s="96"/>
@@ -14421,7 +14425,7 @@
       <c r="RT25" s="4"/>
     </row>
     <row r="26" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="203"/>
+      <c r="A26" s="201"/>
       <c r="B26" s="94"/>
       <c r="C26" s="95"/>
       <c r="D26" s="96"/>
@@ -14923,7 +14927,7 @@
       <c r="RT26" s="4"/>
     </row>
     <row r="27" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="203"/>
+      <c r="A27" s="201"/>
       <c r="B27" s="94"/>
       <c r="C27" s="95"/>
       <c r="D27" s="96"/>
@@ -15419,7 +15423,7 @@
       <c r="RT27" s="4"/>
     </row>
     <row r="28" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="203"/>
+      <c r="A28" s="201"/>
       <c r="B28" s="94"/>
       <c r="C28" s="95"/>
       <c r="D28" s="96"/>
@@ -15911,7 +15915,7 @@
       <c r="RT28" s="4"/>
     </row>
     <row r="29" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="203"/>
+      <c r="A29" s="201"/>
       <c r="B29" s="94"/>
       <c r="C29" s="95"/>
       <c r="D29" s="96"/>
@@ -16403,7 +16407,7 @@
       <c r="RT29" s="4"/>
     </row>
     <row r="30" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="203"/>
+      <c r="A30" s="201"/>
       <c r="B30" s="101"/>
       <c r="C30" s="102"/>
       <c r="D30" s="103"/>
@@ -18141,11 +18145,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="OG6:PK6"/>
-    <mergeCell ref="PL6:QO6"/>
-    <mergeCell ref="QP6:RT6"/>
-    <mergeCell ref="NC6:OF6"/>
-    <mergeCell ref="LX6:NB6"/>
+    <mergeCell ref="KS6:LW6"/>
+    <mergeCell ref="JO6:KR6"/>
+    <mergeCell ref="IJ6:JN6"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A15:A22"/>
     <mergeCell ref="A23:A30"/>
     <mergeCell ref="GA6:HE6"/>
     <mergeCell ref="HF6:II6"/>
@@ -18155,11 +18159,11 @@
     <mergeCell ref="B6:AE6"/>
     <mergeCell ref="AF6:BJ6"/>
     <mergeCell ref="BK6:CN6"/>
-    <mergeCell ref="KS6:LW6"/>
-    <mergeCell ref="JO6:KR6"/>
-    <mergeCell ref="IJ6:JN6"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="OG6:PK6"/>
+    <mergeCell ref="PL6:QO6"/>
+    <mergeCell ref="QP6:RT6"/>
+    <mergeCell ref="NC6:OF6"/>
+    <mergeCell ref="LX6:NB6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18175,7 +18179,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K124" sqref="K124"/>
+      <selection pane="bottomLeft" activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19581,7 +19585,7 @@
       <c r="C120" s="213"/>
       <c r="D120" s="138">
         <f>SUM(D121:D135)</f>
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E120" s="141"/>
     </row>
@@ -19731,9 +19735,15 @@
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B133" s="163"/>
-      <c r="C133" s="164"/>
-      <c r="D133" s="165"/>
-      <c r="E133" s="167"/>
+      <c r="C133" s="164">
+        <v>20</v>
+      </c>
+      <c r="D133" s="165">
+        <v>3</v>
+      </c>
+      <c r="E133" s="167" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B134" s="163"/>

--- a/Plasma Project schedule V1.0_20191015.xlsx
+++ b/Plasma Project schedule V1.0_20191015.xlsx
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="170">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -802,6 +802,18 @@
   </si>
   <si>
     <t>RF GEN - RF 회로 정리 및 PL 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶CPU V1.0 Data 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶PWR V1.0 Data 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF GEN - CPU, PWR SMT data 정리 및 전달</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2016,7 +2028,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2025,14 +2037,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2052,14 +2070,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2140,7 +2152,7 @@
         <xdr:cNvPr id="52" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2197,7 +2209,7 @@
         <xdr:cNvPr id="15" name="직선 화살표 연결선 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2254,7 +2266,7 @@
         <xdr:cNvPr id="18" name="직선 화살표 연결선 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2311,7 +2323,7 @@
         <xdr:cNvPr id="21" name="직선 화살표 연결선 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2368,7 +2380,7 @@
         <xdr:cNvPr id="25" name="직선 화살표 연결선 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2425,7 +2437,7 @@
         <xdr:cNvPr id="28" name="직선 화살표 연결선 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2482,7 +2494,7 @@
         <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2539,7 +2551,7 @@
         <xdr:cNvPr id="33" name="직선 화살표 연결선 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2596,7 +2608,7 @@
         <xdr:cNvPr id="36" name="직선 화살표 연결선 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2653,7 +2665,7 @@
         <xdr:cNvPr id="38" name="직선 화살표 연결선 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,7 +2722,7 @@
         <xdr:cNvPr id="41" name="직선 화살표 연결선 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2767,7 +2779,7 @@
         <xdr:cNvPr id="46" name="직선 화살표 연결선 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2824,7 +2836,7 @@
         <xdr:cNvPr id="14" name="직선 화살표 연결선 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2881,7 +2893,7 @@
         <xdr:cNvPr id="16" name="직선 화살표 연결선 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2938,7 +2950,7 @@
         <xdr:cNvPr id="19" name="직선 화살표 연결선 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2995,7 +3007,7 @@
         <xdr:cNvPr id="17" name="직선 화살표 연결선 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3052,7 +3064,7 @@
         <xdr:cNvPr id="20" name="직선 화살표 연결선 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3109,7 +3121,7 @@
         <xdr:cNvPr id="22" name="직선 화살표 연결선 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3442,7 +3454,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="OU1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="PW19" sqref="PW19"/>
+      <selection pane="topRight" activeCell="QM18" sqref="QM18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3490,233 +3502,233 @@
     </row>
     <row r="6" spans="1:488" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="50"/>
-      <c r="B6" s="206">
+      <c r="B6" s="208">
         <v>9</v>
       </c>
-      <c r="C6" s="207"/>
-      <c r="D6" s="207"/>
-      <c r="E6" s="207"/>
-      <c r="F6" s="207"/>
-      <c r="G6" s="207"/>
-      <c r="H6" s="207"/>
-      <c r="I6" s="207"/>
-      <c r="J6" s="207"/>
-      <c r="K6" s="207"/>
-      <c r="L6" s="207"/>
-      <c r="M6" s="207"/>
-      <c r="N6" s="207"/>
-      <c r="O6" s="207"/>
-      <c r="P6" s="207"/>
-      <c r="Q6" s="207"/>
-      <c r="R6" s="207"/>
-      <c r="S6" s="207"/>
-      <c r="T6" s="207"/>
-      <c r="U6" s="207"/>
-      <c r="V6" s="207"/>
-      <c r="W6" s="207"/>
-      <c r="X6" s="207"/>
-      <c r="Y6" s="207"/>
-      <c r="Z6" s="207"/>
-      <c r="AA6" s="207"/>
-      <c r="AB6" s="207"/>
-      <c r="AC6" s="207"/>
-      <c r="AD6" s="207"/>
-      <c r="AE6" s="208"/>
-      <c r="AF6" s="203">
+      <c r="C6" s="209"/>
+      <c r="D6" s="209"/>
+      <c r="E6" s="209"/>
+      <c r="F6" s="209"/>
+      <c r="G6" s="209"/>
+      <c r="H6" s="209"/>
+      <c r="I6" s="209"/>
+      <c r="J6" s="209"/>
+      <c r="K6" s="209"/>
+      <c r="L6" s="209"/>
+      <c r="M6" s="209"/>
+      <c r="N6" s="209"/>
+      <c r="O6" s="209"/>
+      <c r="P6" s="209"/>
+      <c r="Q6" s="209"/>
+      <c r="R6" s="209"/>
+      <c r="S6" s="209"/>
+      <c r="T6" s="209"/>
+      <c r="U6" s="209"/>
+      <c r="V6" s="209"/>
+      <c r="W6" s="209"/>
+      <c r="X6" s="209"/>
+      <c r="Y6" s="209"/>
+      <c r="Z6" s="209"/>
+      <c r="AA6" s="209"/>
+      <c r="AB6" s="209"/>
+      <c r="AC6" s="209"/>
+      <c r="AD6" s="209"/>
+      <c r="AE6" s="210"/>
+      <c r="AF6" s="205">
         <v>10</v>
       </c>
-      <c r="AG6" s="203"/>
-      <c r="AH6" s="203"/>
-      <c r="AI6" s="203"/>
-      <c r="AJ6" s="203"/>
-      <c r="AK6" s="203"/>
-      <c r="AL6" s="203"/>
-      <c r="AM6" s="203"/>
-      <c r="AN6" s="203"/>
-      <c r="AO6" s="203"/>
-      <c r="AP6" s="203"/>
-      <c r="AQ6" s="203"/>
-      <c r="AR6" s="203"/>
-      <c r="AS6" s="203"/>
-      <c r="AT6" s="203"/>
-      <c r="AU6" s="203"/>
-      <c r="AV6" s="203"/>
-      <c r="AW6" s="203"/>
-      <c r="AX6" s="203"/>
-      <c r="AY6" s="203"/>
-      <c r="AZ6" s="203"/>
-      <c r="BA6" s="203"/>
-      <c r="BB6" s="203"/>
-      <c r="BC6" s="203"/>
-      <c r="BD6" s="203"/>
-      <c r="BE6" s="203"/>
-      <c r="BF6" s="203"/>
-      <c r="BG6" s="203"/>
-      <c r="BH6" s="203"/>
-      <c r="BI6" s="203"/>
-      <c r="BJ6" s="204"/>
-      <c r="BK6" s="206">
+      <c r="AG6" s="205"/>
+      <c r="AH6" s="205"/>
+      <c r="AI6" s="205"/>
+      <c r="AJ6" s="205"/>
+      <c r="AK6" s="205"/>
+      <c r="AL6" s="205"/>
+      <c r="AM6" s="205"/>
+      <c r="AN6" s="205"/>
+      <c r="AO6" s="205"/>
+      <c r="AP6" s="205"/>
+      <c r="AQ6" s="205"/>
+      <c r="AR6" s="205"/>
+      <c r="AS6" s="205"/>
+      <c r="AT6" s="205"/>
+      <c r="AU6" s="205"/>
+      <c r="AV6" s="205"/>
+      <c r="AW6" s="205"/>
+      <c r="AX6" s="205"/>
+      <c r="AY6" s="205"/>
+      <c r="AZ6" s="205"/>
+      <c r="BA6" s="205"/>
+      <c r="BB6" s="205"/>
+      <c r="BC6" s="205"/>
+      <c r="BD6" s="205"/>
+      <c r="BE6" s="205"/>
+      <c r="BF6" s="205"/>
+      <c r="BG6" s="205"/>
+      <c r="BH6" s="205"/>
+      <c r="BI6" s="205"/>
+      <c r="BJ6" s="206"/>
+      <c r="BK6" s="208">
         <v>11</v>
       </c>
-      <c r="BL6" s="207"/>
-      <c r="BM6" s="207"/>
-      <c r="BN6" s="207"/>
-      <c r="BO6" s="207"/>
-      <c r="BP6" s="207"/>
-      <c r="BQ6" s="207"/>
-      <c r="BR6" s="207"/>
-      <c r="BS6" s="207"/>
-      <c r="BT6" s="207"/>
-      <c r="BU6" s="207"/>
-      <c r="BV6" s="207"/>
-      <c r="BW6" s="207"/>
-      <c r="BX6" s="207"/>
-      <c r="BY6" s="207"/>
-      <c r="BZ6" s="207"/>
-      <c r="CA6" s="207"/>
-      <c r="CB6" s="207"/>
-      <c r="CC6" s="207"/>
-      <c r="CD6" s="207"/>
-      <c r="CE6" s="207"/>
-      <c r="CF6" s="207"/>
-      <c r="CG6" s="207"/>
-      <c r="CH6" s="207"/>
-      <c r="CI6" s="207"/>
-      <c r="CJ6" s="207"/>
-      <c r="CK6" s="207"/>
-      <c r="CL6" s="207"/>
-      <c r="CM6" s="207"/>
-      <c r="CN6" s="208"/>
-      <c r="CO6" s="203">
+      <c r="BL6" s="209"/>
+      <c r="BM6" s="209"/>
+      <c r="BN6" s="209"/>
+      <c r="BO6" s="209"/>
+      <c r="BP6" s="209"/>
+      <c r="BQ6" s="209"/>
+      <c r="BR6" s="209"/>
+      <c r="BS6" s="209"/>
+      <c r="BT6" s="209"/>
+      <c r="BU6" s="209"/>
+      <c r="BV6" s="209"/>
+      <c r="BW6" s="209"/>
+      <c r="BX6" s="209"/>
+      <c r="BY6" s="209"/>
+      <c r="BZ6" s="209"/>
+      <c r="CA6" s="209"/>
+      <c r="CB6" s="209"/>
+      <c r="CC6" s="209"/>
+      <c r="CD6" s="209"/>
+      <c r="CE6" s="209"/>
+      <c r="CF6" s="209"/>
+      <c r="CG6" s="209"/>
+      <c r="CH6" s="209"/>
+      <c r="CI6" s="209"/>
+      <c r="CJ6" s="209"/>
+      <c r="CK6" s="209"/>
+      <c r="CL6" s="209"/>
+      <c r="CM6" s="209"/>
+      <c r="CN6" s="210"/>
+      <c r="CO6" s="205">
         <v>12</v>
       </c>
-      <c r="CP6" s="203"/>
-      <c r="CQ6" s="203"/>
-      <c r="CR6" s="203"/>
-      <c r="CS6" s="203"/>
-      <c r="CT6" s="203"/>
-      <c r="CU6" s="203"/>
-      <c r="CV6" s="203"/>
-      <c r="CW6" s="203"/>
-      <c r="CX6" s="203"/>
-      <c r="CY6" s="203"/>
-      <c r="CZ6" s="203"/>
-      <c r="DA6" s="203"/>
-      <c r="DB6" s="203"/>
-      <c r="DC6" s="203"/>
-      <c r="DD6" s="203"/>
-      <c r="DE6" s="203"/>
-      <c r="DF6" s="203"/>
-      <c r="DG6" s="203"/>
-      <c r="DH6" s="203"/>
-      <c r="DI6" s="203"/>
-      <c r="DJ6" s="203"/>
-      <c r="DK6" s="203"/>
-      <c r="DL6" s="203"/>
-      <c r="DM6" s="203"/>
-      <c r="DN6" s="203"/>
-      <c r="DO6" s="203"/>
-      <c r="DP6" s="203"/>
-      <c r="DQ6" s="203"/>
-      <c r="DR6" s="203"/>
-      <c r="DS6" s="204"/>
-      <c r="DT6" s="203">
+      <c r="CP6" s="205"/>
+      <c r="CQ6" s="205"/>
+      <c r="CR6" s="205"/>
+      <c r="CS6" s="205"/>
+      <c r="CT6" s="205"/>
+      <c r="CU6" s="205"/>
+      <c r="CV6" s="205"/>
+      <c r="CW6" s="205"/>
+      <c r="CX6" s="205"/>
+      <c r="CY6" s="205"/>
+      <c r="CZ6" s="205"/>
+      <c r="DA6" s="205"/>
+      <c r="DB6" s="205"/>
+      <c r="DC6" s="205"/>
+      <c r="DD6" s="205"/>
+      <c r="DE6" s="205"/>
+      <c r="DF6" s="205"/>
+      <c r="DG6" s="205"/>
+      <c r="DH6" s="205"/>
+      <c r="DI6" s="205"/>
+      <c r="DJ6" s="205"/>
+      <c r="DK6" s="205"/>
+      <c r="DL6" s="205"/>
+      <c r="DM6" s="205"/>
+      <c r="DN6" s="205"/>
+      <c r="DO6" s="205"/>
+      <c r="DP6" s="205"/>
+      <c r="DQ6" s="205"/>
+      <c r="DR6" s="205"/>
+      <c r="DS6" s="206"/>
+      <c r="DT6" s="205">
         <v>2019.01</v>
       </c>
-      <c r="DU6" s="203"/>
-      <c r="DV6" s="203"/>
-      <c r="DW6" s="203"/>
-      <c r="DX6" s="203"/>
-      <c r="DY6" s="203"/>
-      <c r="DZ6" s="203"/>
-      <c r="EA6" s="203"/>
-      <c r="EB6" s="203"/>
-      <c r="EC6" s="203"/>
-      <c r="ED6" s="203"/>
-      <c r="EE6" s="203"/>
-      <c r="EF6" s="203"/>
-      <c r="EG6" s="203"/>
-      <c r="EH6" s="203"/>
-      <c r="EI6" s="203"/>
-      <c r="EJ6" s="203"/>
-      <c r="EK6" s="203"/>
-      <c r="EL6" s="203"/>
-      <c r="EM6" s="203"/>
-      <c r="EN6" s="203"/>
-      <c r="EO6" s="203"/>
-      <c r="EP6" s="203"/>
-      <c r="EQ6" s="203"/>
-      <c r="ER6" s="203"/>
-      <c r="ES6" s="203"/>
-      <c r="ET6" s="203"/>
-      <c r="EU6" s="203"/>
-      <c r="EV6" s="203"/>
-      <c r="EW6" s="203"/>
-      <c r="EX6" s="204"/>
-      <c r="EY6" s="205">
+      <c r="DU6" s="205"/>
+      <c r="DV6" s="205"/>
+      <c r="DW6" s="205"/>
+      <c r="DX6" s="205"/>
+      <c r="DY6" s="205"/>
+      <c r="DZ6" s="205"/>
+      <c r="EA6" s="205"/>
+      <c r="EB6" s="205"/>
+      <c r="EC6" s="205"/>
+      <c r="ED6" s="205"/>
+      <c r="EE6" s="205"/>
+      <c r="EF6" s="205"/>
+      <c r="EG6" s="205"/>
+      <c r="EH6" s="205"/>
+      <c r="EI6" s="205"/>
+      <c r="EJ6" s="205"/>
+      <c r="EK6" s="205"/>
+      <c r="EL6" s="205"/>
+      <c r="EM6" s="205"/>
+      <c r="EN6" s="205"/>
+      <c r="EO6" s="205"/>
+      <c r="EP6" s="205"/>
+      <c r="EQ6" s="205"/>
+      <c r="ER6" s="205"/>
+      <c r="ES6" s="205"/>
+      <c r="ET6" s="205"/>
+      <c r="EU6" s="205"/>
+      <c r="EV6" s="205"/>
+      <c r="EW6" s="205"/>
+      <c r="EX6" s="206"/>
+      <c r="EY6" s="207">
         <v>2019.02</v>
       </c>
-      <c r="EZ6" s="203"/>
-      <c r="FA6" s="203"/>
-      <c r="FB6" s="203"/>
-      <c r="FC6" s="203"/>
-      <c r="FD6" s="203"/>
-      <c r="FE6" s="203"/>
-      <c r="FF6" s="203"/>
-      <c r="FG6" s="203"/>
-      <c r="FH6" s="203"/>
-      <c r="FI6" s="203"/>
-      <c r="FJ6" s="203"/>
-      <c r="FK6" s="203"/>
-      <c r="FL6" s="203"/>
-      <c r="FM6" s="203"/>
-      <c r="FN6" s="203"/>
-      <c r="FO6" s="203"/>
-      <c r="FP6" s="203"/>
-      <c r="FQ6" s="203"/>
-      <c r="FR6" s="203"/>
-      <c r="FS6" s="203"/>
-      <c r="FT6" s="203"/>
-      <c r="FU6" s="203"/>
-      <c r="FV6" s="203"/>
-      <c r="FW6" s="203"/>
-      <c r="FX6" s="203"/>
-      <c r="FY6" s="203"/>
-      <c r="FZ6" s="204"/>
-      <c r="GA6" s="202">
+      <c r="EZ6" s="205"/>
+      <c r="FA6" s="205"/>
+      <c r="FB6" s="205"/>
+      <c r="FC6" s="205"/>
+      <c r="FD6" s="205"/>
+      <c r="FE6" s="205"/>
+      <c r="FF6" s="205"/>
+      <c r="FG6" s="205"/>
+      <c r="FH6" s="205"/>
+      <c r="FI6" s="205"/>
+      <c r="FJ6" s="205"/>
+      <c r="FK6" s="205"/>
+      <c r="FL6" s="205"/>
+      <c r="FM6" s="205"/>
+      <c r="FN6" s="205"/>
+      <c r="FO6" s="205"/>
+      <c r="FP6" s="205"/>
+      <c r="FQ6" s="205"/>
+      <c r="FR6" s="205"/>
+      <c r="FS6" s="205"/>
+      <c r="FT6" s="205"/>
+      <c r="FU6" s="205"/>
+      <c r="FV6" s="205"/>
+      <c r="FW6" s="205"/>
+      <c r="FX6" s="205"/>
+      <c r="FY6" s="205"/>
+      <c r="FZ6" s="206"/>
+      <c r="GA6" s="201">
         <v>3</v>
       </c>
-      <c r="GB6" s="202"/>
-      <c r="GC6" s="202"/>
-      <c r="GD6" s="202"/>
-      <c r="GE6" s="202"/>
-      <c r="GF6" s="202"/>
-      <c r="GG6" s="202"/>
-      <c r="GH6" s="202"/>
-      <c r="GI6" s="202"/>
-      <c r="GJ6" s="202"/>
-      <c r="GK6" s="202"/>
-      <c r="GL6" s="202"/>
-      <c r="GM6" s="202"/>
-      <c r="GN6" s="202"/>
-      <c r="GO6" s="202"/>
-      <c r="GP6" s="202"/>
-      <c r="GQ6" s="202"/>
-      <c r="GR6" s="202"/>
-      <c r="GS6" s="202"/>
-      <c r="GT6" s="202"/>
-      <c r="GU6" s="202"/>
-      <c r="GV6" s="202"/>
-      <c r="GW6" s="202"/>
-      <c r="GX6" s="202"/>
-      <c r="GY6" s="202"/>
-      <c r="GZ6" s="202"/>
-      <c r="HA6" s="202"/>
-      <c r="HB6" s="202"/>
-      <c r="HC6" s="202"/>
-      <c r="HD6" s="202"/>
-      <c r="HE6" s="202"/>
-      <c r="HF6" s="200">
+      <c r="GB6" s="201"/>
+      <c r="GC6" s="201"/>
+      <c r="GD6" s="201"/>
+      <c r="GE6" s="201"/>
+      <c r="GF6" s="201"/>
+      <c r="GG6" s="201"/>
+      <c r="GH6" s="201"/>
+      <c r="GI6" s="201"/>
+      <c r="GJ6" s="201"/>
+      <c r="GK6" s="201"/>
+      <c r="GL6" s="201"/>
+      <c r="GM6" s="201"/>
+      <c r="GN6" s="201"/>
+      <c r="GO6" s="201"/>
+      <c r="GP6" s="201"/>
+      <c r="GQ6" s="201"/>
+      <c r="GR6" s="201"/>
+      <c r="GS6" s="201"/>
+      <c r="GT6" s="201"/>
+      <c r="GU6" s="201"/>
+      <c r="GV6" s="201"/>
+      <c r="GW6" s="201"/>
+      <c r="GX6" s="201"/>
+      <c r="GY6" s="201"/>
+      <c r="GZ6" s="201"/>
+      <c r="HA6" s="201"/>
+      <c r="HB6" s="201"/>
+      <c r="HC6" s="201"/>
+      <c r="HD6" s="201"/>
+      <c r="HE6" s="201"/>
+      <c r="HF6" s="197">
         <v>4</v>
       </c>
       <c r="HG6" s="198"/>
@@ -3748,40 +3760,40 @@
       <c r="IG6" s="198"/>
       <c r="IH6" s="198"/>
       <c r="II6" s="199"/>
-      <c r="IJ6" s="209">
+      <c r="IJ6" s="200">
         <v>5</v>
       </c>
-      <c r="IK6" s="202"/>
-      <c r="IL6" s="202"/>
-      <c r="IM6" s="202"/>
-      <c r="IN6" s="202"/>
-      <c r="IO6" s="202"/>
-      <c r="IP6" s="202"/>
-      <c r="IQ6" s="202"/>
-      <c r="IR6" s="202"/>
-      <c r="IS6" s="202"/>
-      <c r="IT6" s="202"/>
-      <c r="IU6" s="202"/>
-      <c r="IV6" s="202"/>
-      <c r="IW6" s="202"/>
-      <c r="IX6" s="202"/>
-      <c r="IY6" s="202"/>
-      <c r="IZ6" s="202"/>
-      <c r="JA6" s="202"/>
-      <c r="JB6" s="202"/>
-      <c r="JC6" s="202"/>
-      <c r="JD6" s="202"/>
-      <c r="JE6" s="202"/>
-      <c r="JF6" s="202"/>
-      <c r="JG6" s="202"/>
-      <c r="JH6" s="202"/>
-      <c r="JI6" s="202"/>
-      <c r="JJ6" s="202"/>
-      <c r="JK6" s="202"/>
-      <c r="JL6" s="202"/>
-      <c r="JM6" s="202"/>
-      <c r="JN6" s="210"/>
-      <c r="JO6" s="200">
+      <c r="IK6" s="201"/>
+      <c r="IL6" s="201"/>
+      <c r="IM6" s="201"/>
+      <c r="IN6" s="201"/>
+      <c r="IO6" s="201"/>
+      <c r="IP6" s="201"/>
+      <c r="IQ6" s="201"/>
+      <c r="IR6" s="201"/>
+      <c r="IS6" s="201"/>
+      <c r="IT6" s="201"/>
+      <c r="IU6" s="201"/>
+      <c r="IV6" s="201"/>
+      <c r="IW6" s="201"/>
+      <c r="IX6" s="201"/>
+      <c r="IY6" s="201"/>
+      <c r="IZ6" s="201"/>
+      <c r="JA6" s="201"/>
+      <c r="JB6" s="201"/>
+      <c r="JC6" s="201"/>
+      <c r="JD6" s="201"/>
+      <c r="JE6" s="201"/>
+      <c r="JF6" s="201"/>
+      <c r="JG6" s="201"/>
+      <c r="JH6" s="201"/>
+      <c r="JI6" s="201"/>
+      <c r="JJ6" s="201"/>
+      <c r="JK6" s="201"/>
+      <c r="JL6" s="201"/>
+      <c r="JM6" s="201"/>
+      <c r="JN6" s="202"/>
+      <c r="JO6" s="197">
         <v>6</v>
       </c>
       <c r="JP6" s="198"/>
@@ -3879,7 +3891,7 @@
       <c r="MZ6" s="195"/>
       <c r="NA6" s="195"/>
       <c r="NB6" s="195"/>
-      <c r="NC6" s="200">
+      <c r="NC6" s="197">
         <v>9</v>
       </c>
       <c r="ND6" s="198"/>
@@ -3944,7 +3956,7 @@
       <c r="PI6" s="195"/>
       <c r="PJ6" s="195"/>
       <c r="PK6" s="196"/>
-      <c r="PL6" s="197">
+      <c r="PL6" s="211">
         <v>11</v>
       </c>
       <c r="PM6" s="198"/>
@@ -5475,7 +5487,7 @@
       </c>
     </row>
     <row r="8" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="201" t="s">
+      <c r="A8" s="203" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="41"/>
@@ -5981,7 +5993,7 @@
       <c r="RT8" s="189"/>
     </row>
     <row r="9" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="201"/>
+      <c r="A9" s="203"/>
       <c r="B9" s="72"/>
       <c r="C9" s="73"/>
       <c r="D9" s="74"/>
@@ -6487,7 +6499,7 @@
       <c r="RT9" s="7"/>
     </row>
     <row r="10" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="201"/>
+      <c r="A10" s="203"/>
       <c r="B10" s="72"/>
       <c r="C10" s="73"/>
       <c r="D10" s="74"/>
@@ -6985,7 +6997,7 @@
       <c r="RT10" s="7"/>
     </row>
     <row r="11" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="201"/>
+      <c r="A11" s="203"/>
       <c r="B11" s="72"/>
       <c r="C11" s="73"/>
       <c r="D11" s="74"/>
@@ -7485,7 +7497,7 @@
       <c r="RT11" s="7"/>
     </row>
     <row r="12" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="201"/>
+      <c r="A12" s="203"/>
       <c r="B12" s="72"/>
       <c r="C12" s="73"/>
       <c r="D12" s="74"/>
@@ -7983,7 +7995,7 @@
       <c r="RT12" s="7"/>
     </row>
     <row r="13" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="201"/>
+      <c r="A13" s="203"/>
       <c r="B13" s="72"/>
       <c r="C13" s="73"/>
       <c r="D13" s="74"/>
@@ -8477,7 +8489,7 @@
       <c r="RT13" s="7"/>
     </row>
     <row r="14" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="201"/>
+      <c r="A14" s="203"/>
       <c r="B14" s="80"/>
       <c r="C14" s="81"/>
       <c r="D14" s="82"/>
@@ -8969,7 +8981,7 @@
       <c r="RT14" s="18"/>
     </row>
     <row r="15" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="211" t="s">
+      <c r="A15" s="204" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="88"/>
@@ -9463,7 +9475,7 @@
       <c r="RT15" s="29"/>
     </row>
     <row r="16" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="201"/>
+      <c r="A16" s="203"/>
       <c r="B16" s="94"/>
       <c r="C16" s="95"/>
       <c r="D16" s="96"/>
@@ -9931,7 +9943,9 @@
       <c r="QJ16" s="11"/>
       <c r="QK16" s="11"/>
       <c r="QL16" s="11"/>
-      <c r="QM16" s="11"/>
+      <c r="QM16" s="191" t="s">
+        <v>167</v>
+      </c>
       <c r="QN16" s="11"/>
       <c r="QO16" s="12"/>
       <c r="QP16" s="182"/>
@@ -9967,7 +9981,7 @@
       <c r="RT16" s="13"/>
     </row>
     <row r="17" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="201"/>
+      <c r="A17" s="203"/>
       <c r="B17" s="94"/>
       <c r="C17" s="95"/>
       <c r="D17" s="96"/>
@@ -10430,7 +10444,9 @@
       <c r="QJ17" s="2"/>
       <c r="QK17" s="2"/>
       <c r="QL17" s="2"/>
-      <c r="QM17" s="2"/>
+      <c r="QM17" s="191" t="s">
+        <v>168</v>
+      </c>
       <c r="QN17" s="2"/>
       <c r="QO17" s="1"/>
       <c r="QP17" s="183"/>
@@ -10466,7 +10482,7 @@
       <c r="RT17" s="4"/>
     </row>
     <row r="18" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="201"/>
+      <c r="A18" s="203"/>
       <c r="B18" s="94"/>
       <c r="C18" s="95"/>
       <c r="D18" s="96"/>
@@ -10961,7 +10977,7 @@
       <c r="RT18" s="4"/>
     </row>
     <row r="19" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="201"/>
+      <c r="A19" s="203"/>
       <c r="B19" s="94"/>
       <c r="C19" s="95"/>
       <c r="D19" s="96"/>
@@ -11451,7 +11467,7 @@
       <c r="RT19" s="4"/>
     </row>
     <row r="20" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="201"/>
+      <c r="A20" s="203"/>
       <c r="B20" s="94"/>
       <c r="C20" s="95"/>
       <c r="D20" s="96"/>
@@ -11941,7 +11957,7 @@
       <c r="RT20" s="4"/>
     </row>
     <row r="21" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="201"/>
+      <c r="A21" s="203"/>
       <c r="B21" s="94"/>
       <c r="C21" s="95"/>
       <c r="D21" s="96"/>
@@ -12431,7 +12447,7 @@
       <c r="RT21" s="126"/>
     </row>
     <row r="22" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="201"/>
+      <c r="A22" s="203"/>
       <c r="B22" s="101"/>
       <c r="C22" s="102"/>
       <c r="D22" s="103"/>
@@ -12921,7 +12937,7 @@
       <c r="RT22" s="25"/>
     </row>
     <row r="23" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="201" t="s">
+      <c r="A23" s="203" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="107"/>
@@ -13425,7 +13441,7 @@
       <c r="RT23" s="29"/>
     </row>
     <row r="24" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="201"/>
+      <c r="A24" s="203"/>
       <c r="B24" s="94"/>
       <c r="C24" s="95"/>
       <c r="D24" s="96"/>
@@ -13921,7 +13937,7 @@
       <c r="RT24" s="4"/>
     </row>
     <row r="25" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="201"/>
+      <c r="A25" s="203"/>
       <c r="B25" s="94"/>
       <c r="C25" s="95"/>
       <c r="D25" s="96"/>
@@ -14425,7 +14441,7 @@
       <c r="RT25" s="4"/>
     </row>
     <row r="26" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="201"/>
+      <c r="A26" s="203"/>
       <c r="B26" s="94"/>
       <c r="C26" s="95"/>
       <c r="D26" s="96"/>
@@ -14927,7 +14943,7 @@
       <c r="RT26" s="4"/>
     </row>
     <row r="27" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="201"/>
+      <c r="A27" s="203"/>
       <c r="B27" s="94"/>
       <c r="C27" s="95"/>
       <c r="D27" s="96"/>
@@ -15423,7 +15439,7 @@
       <c r="RT27" s="4"/>
     </row>
     <row r="28" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="201"/>
+      <c r="A28" s="203"/>
       <c r="B28" s="94"/>
       <c r="C28" s="95"/>
       <c r="D28" s="96"/>
@@ -15915,7 +15931,7 @@
       <c r="RT28" s="4"/>
     </row>
     <row r="29" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="201"/>
+      <c r="A29" s="203"/>
       <c r="B29" s="94"/>
       <c r="C29" s="95"/>
       <c r="D29" s="96"/>
@@ -16407,7 +16423,7 @@
       <c r="RT29" s="4"/>
     </row>
     <row r="30" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="201"/>
+      <c r="A30" s="203"/>
       <c r="B30" s="101"/>
       <c r="C30" s="102"/>
       <c r="D30" s="103"/>
@@ -18145,11 +18161,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="KS6:LW6"/>
-    <mergeCell ref="JO6:KR6"/>
-    <mergeCell ref="IJ6:JN6"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="OG6:PK6"/>
+    <mergeCell ref="PL6:QO6"/>
+    <mergeCell ref="QP6:RT6"/>
+    <mergeCell ref="NC6:OF6"/>
+    <mergeCell ref="LX6:NB6"/>
     <mergeCell ref="A23:A30"/>
     <mergeCell ref="GA6:HE6"/>
     <mergeCell ref="HF6:II6"/>
@@ -18159,11 +18175,11 @@
     <mergeCell ref="B6:AE6"/>
     <mergeCell ref="AF6:BJ6"/>
     <mergeCell ref="BK6:CN6"/>
-    <mergeCell ref="OG6:PK6"/>
-    <mergeCell ref="PL6:QO6"/>
-    <mergeCell ref="QP6:RT6"/>
-    <mergeCell ref="NC6:OF6"/>
-    <mergeCell ref="LX6:NB6"/>
+    <mergeCell ref="KS6:LW6"/>
+    <mergeCell ref="JO6:KR6"/>
+    <mergeCell ref="IJ6:JN6"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A15:A22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18179,7 +18195,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E138" sqref="E138"/>
+      <selection pane="bottomLeft" activeCell="J122" sqref="J122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19585,7 +19601,7 @@
       <c r="C120" s="213"/>
       <c r="D120" s="138">
         <f>SUM(D121:D135)</f>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E120" s="141"/>
     </row>
@@ -19747,9 +19763,15 @@
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B134" s="163"/>
-      <c r="C134" s="164"/>
-      <c r="D134" s="165"/>
-      <c r="E134" s="167"/>
+      <c r="C134" s="164">
+        <v>28</v>
+      </c>
+      <c r="D134" s="165">
+        <v>4</v>
+      </c>
+      <c r="E134" s="167" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B135" s="163"/>

--- a/Plasma Project schedule V1.0_20191015.xlsx
+++ b/Plasma Project schedule V1.0_20191015.xlsx
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="171">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -814,6 +814,10 @@
   </si>
   <si>
     <t>RF GEN - CPU, PWR SMT data 정리 및 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF GEN - RF 회로 정리 및 PL 정리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2028,7 +2032,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2037,20 +2041,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2070,8 +2068,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2152,7 +2156,7 @@
         <xdr:cNvPr id="52" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2209,7 +2213,7 @@
         <xdr:cNvPr id="15" name="직선 화살표 연결선 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2266,7 +2270,7 @@
         <xdr:cNvPr id="18" name="직선 화살표 연결선 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2323,7 +2327,7 @@
         <xdr:cNvPr id="21" name="직선 화살표 연결선 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2380,7 +2384,7 @@
         <xdr:cNvPr id="25" name="직선 화살표 연결선 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2437,7 +2441,7 @@
         <xdr:cNvPr id="28" name="직선 화살표 연결선 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2494,7 +2498,7 @@
         <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2551,7 +2555,7 @@
         <xdr:cNvPr id="33" name="직선 화살표 연결선 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2608,7 +2612,7 @@
         <xdr:cNvPr id="36" name="직선 화살표 연결선 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2665,7 +2669,7 @@
         <xdr:cNvPr id="38" name="직선 화살표 연결선 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2722,7 +2726,7 @@
         <xdr:cNvPr id="41" name="직선 화살표 연결선 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2779,7 +2783,7 @@
         <xdr:cNvPr id="46" name="직선 화살표 연결선 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2836,7 +2840,7 @@
         <xdr:cNvPr id="14" name="직선 화살표 연결선 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2893,7 +2897,7 @@
         <xdr:cNvPr id="16" name="직선 화살표 연결선 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2950,7 +2954,7 @@
         <xdr:cNvPr id="19" name="직선 화살표 연결선 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3007,7 +3011,7 @@
         <xdr:cNvPr id="17" name="직선 화살표 연결선 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3064,7 +3068,7 @@
         <xdr:cNvPr id="20" name="직선 화살표 연결선 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3121,7 +3125,7 @@
         <xdr:cNvPr id="22" name="직선 화살표 연결선 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3502,233 +3506,233 @@
     </row>
     <row r="6" spans="1:488" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="50"/>
-      <c r="B6" s="208">
+      <c r="B6" s="206">
         <v>9</v>
       </c>
-      <c r="C6" s="209"/>
-      <c r="D6" s="209"/>
-      <c r="E6" s="209"/>
-      <c r="F6" s="209"/>
-      <c r="G6" s="209"/>
-      <c r="H6" s="209"/>
-      <c r="I6" s="209"/>
-      <c r="J6" s="209"/>
-      <c r="K6" s="209"/>
-      <c r="L6" s="209"/>
-      <c r="M6" s="209"/>
-      <c r="N6" s="209"/>
-      <c r="O6" s="209"/>
-      <c r="P6" s="209"/>
-      <c r="Q6" s="209"/>
-      <c r="R6" s="209"/>
-      <c r="S6" s="209"/>
-      <c r="T6" s="209"/>
-      <c r="U6" s="209"/>
-      <c r="V6" s="209"/>
-      <c r="W6" s="209"/>
-      <c r="X6" s="209"/>
-      <c r="Y6" s="209"/>
-      <c r="Z6" s="209"/>
-      <c r="AA6" s="209"/>
-      <c r="AB6" s="209"/>
-      <c r="AC6" s="209"/>
-      <c r="AD6" s="209"/>
-      <c r="AE6" s="210"/>
-      <c r="AF6" s="205">
+      <c r="C6" s="207"/>
+      <c r="D6" s="207"/>
+      <c r="E6" s="207"/>
+      <c r="F6" s="207"/>
+      <c r="G6" s="207"/>
+      <c r="H6" s="207"/>
+      <c r="I6" s="207"/>
+      <c r="J6" s="207"/>
+      <c r="K6" s="207"/>
+      <c r="L6" s="207"/>
+      <c r="M6" s="207"/>
+      <c r="N6" s="207"/>
+      <c r="O6" s="207"/>
+      <c r="P6" s="207"/>
+      <c r="Q6" s="207"/>
+      <c r="R6" s="207"/>
+      <c r="S6" s="207"/>
+      <c r="T6" s="207"/>
+      <c r="U6" s="207"/>
+      <c r="V6" s="207"/>
+      <c r="W6" s="207"/>
+      <c r="X6" s="207"/>
+      <c r="Y6" s="207"/>
+      <c r="Z6" s="207"/>
+      <c r="AA6" s="207"/>
+      <c r="AB6" s="207"/>
+      <c r="AC6" s="207"/>
+      <c r="AD6" s="207"/>
+      <c r="AE6" s="208"/>
+      <c r="AF6" s="203">
         <v>10</v>
       </c>
-      <c r="AG6" s="205"/>
-      <c r="AH6" s="205"/>
-      <c r="AI6" s="205"/>
-      <c r="AJ6" s="205"/>
-      <c r="AK6" s="205"/>
-      <c r="AL6" s="205"/>
-      <c r="AM6" s="205"/>
-      <c r="AN6" s="205"/>
-      <c r="AO6" s="205"/>
-      <c r="AP6" s="205"/>
-      <c r="AQ6" s="205"/>
-      <c r="AR6" s="205"/>
-      <c r="AS6" s="205"/>
-      <c r="AT6" s="205"/>
-      <c r="AU6" s="205"/>
-      <c r="AV6" s="205"/>
-      <c r="AW6" s="205"/>
-      <c r="AX6" s="205"/>
-      <c r="AY6" s="205"/>
-      <c r="AZ6" s="205"/>
-      <c r="BA6" s="205"/>
-      <c r="BB6" s="205"/>
-      <c r="BC6" s="205"/>
-      <c r="BD6" s="205"/>
-      <c r="BE6" s="205"/>
-      <c r="BF6" s="205"/>
-      <c r="BG6" s="205"/>
-      <c r="BH6" s="205"/>
-      <c r="BI6" s="205"/>
-      <c r="BJ6" s="206"/>
-      <c r="BK6" s="208">
+      <c r="AG6" s="203"/>
+      <c r="AH6" s="203"/>
+      <c r="AI6" s="203"/>
+      <c r="AJ6" s="203"/>
+      <c r="AK6" s="203"/>
+      <c r="AL6" s="203"/>
+      <c r="AM6" s="203"/>
+      <c r="AN6" s="203"/>
+      <c r="AO6" s="203"/>
+      <c r="AP6" s="203"/>
+      <c r="AQ6" s="203"/>
+      <c r="AR6" s="203"/>
+      <c r="AS6" s="203"/>
+      <c r="AT6" s="203"/>
+      <c r="AU6" s="203"/>
+      <c r="AV6" s="203"/>
+      <c r="AW6" s="203"/>
+      <c r="AX6" s="203"/>
+      <c r="AY6" s="203"/>
+      <c r="AZ6" s="203"/>
+      <c r="BA6" s="203"/>
+      <c r="BB6" s="203"/>
+      <c r="BC6" s="203"/>
+      <c r="BD6" s="203"/>
+      <c r="BE6" s="203"/>
+      <c r="BF6" s="203"/>
+      <c r="BG6" s="203"/>
+      <c r="BH6" s="203"/>
+      <c r="BI6" s="203"/>
+      <c r="BJ6" s="204"/>
+      <c r="BK6" s="206">
         <v>11</v>
       </c>
-      <c r="BL6" s="209"/>
-      <c r="BM6" s="209"/>
-      <c r="BN6" s="209"/>
-      <c r="BO6" s="209"/>
-      <c r="BP6" s="209"/>
-      <c r="BQ6" s="209"/>
-      <c r="BR6" s="209"/>
-      <c r="BS6" s="209"/>
-      <c r="BT6" s="209"/>
-      <c r="BU6" s="209"/>
-      <c r="BV6" s="209"/>
-      <c r="BW6" s="209"/>
-      <c r="BX6" s="209"/>
-      <c r="BY6" s="209"/>
-      <c r="BZ6" s="209"/>
-      <c r="CA6" s="209"/>
-      <c r="CB6" s="209"/>
-      <c r="CC6" s="209"/>
-      <c r="CD6" s="209"/>
-      <c r="CE6" s="209"/>
-      <c r="CF6" s="209"/>
-      <c r="CG6" s="209"/>
-      <c r="CH6" s="209"/>
-      <c r="CI6" s="209"/>
-      <c r="CJ6" s="209"/>
-      <c r="CK6" s="209"/>
-      <c r="CL6" s="209"/>
-      <c r="CM6" s="209"/>
-      <c r="CN6" s="210"/>
-      <c r="CO6" s="205">
+      <c r="BL6" s="207"/>
+      <c r="BM6" s="207"/>
+      <c r="BN6" s="207"/>
+      <c r="BO6" s="207"/>
+      <c r="BP6" s="207"/>
+      <c r="BQ6" s="207"/>
+      <c r="BR6" s="207"/>
+      <c r="BS6" s="207"/>
+      <c r="BT6" s="207"/>
+      <c r="BU6" s="207"/>
+      <c r="BV6" s="207"/>
+      <c r="BW6" s="207"/>
+      <c r="BX6" s="207"/>
+      <c r="BY6" s="207"/>
+      <c r="BZ6" s="207"/>
+      <c r="CA6" s="207"/>
+      <c r="CB6" s="207"/>
+      <c r="CC6" s="207"/>
+      <c r="CD6" s="207"/>
+      <c r="CE6" s="207"/>
+      <c r="CF6" s="207"/>
+      <c r="CG6" s="207"/>
+      <c r="CH6" s="207"/>
+      <c r="CI6" s="207"/>
+      <c r="CJ6" s="207"/>
+      <c r="CK6" s="207"/>
+      <c r="CL6" s="207"/>
+      <c r="CM6" s="207"/>
+      <c r="CN6" s="208"/>
+      <c r="CO6" s="203">
         <v>12</v>
       </c>
-      <c r="CP6" s="205"/>
-      <c r="CQ6" s="205"/>
-      <c r="CR6" s="205"/>
-      <c r="CS6" s="205"/>
-      <c r="CT6" s="205"/>
-      <c r="CU6" s="205"/>
-      <c r="CV6" s="205"/>
-      <c r="CW6" s="205"/>
-      <c r="CX6" s="205"/>
-      <c r="CY6" s="205"/>
-      <c r="CZ6" s="205"/>
-      <c r="DA6" s="205"/>
-      <c r="DB6" s="205"/>
-      <c r="DC6" s="205"/>
-      <c r="DD6" s="205"/>
-      <c r="DE6" s="205"/>
-      <c r="DF6" s="205"/>
-      <c r="DG6" s="205"/>
-      <c r="DH6" s="205"/>
-      <c r="DI6" s="205"/>
-      <c r="DJ6" s="205"/>
-      <c r="DK6" s="205"/>
-      <c r="DL6" s="205"/>
-      <c r="DM6" s="205"/>
-      <c r="DN6" s="205"/>
-      <c r="DO6" s="205"/>
-      <c r="DP6" s="205"/>
-      <c r="DQ6" s="205"/>
-      <c r="DR6" s="205"/>
-      <c r="DS6" s="206"/>
-      <c r="DT6" s="205">
+      <c r="CP6" s="203"/>
+      <c r="CQ6" s="203"/>
+      <c r="CR6" s="203"/>
+      <c r="CS6" s="203"/>
+      <c r="CT6" s="203"/>
+      <c r="CU6" s="203"/>
+      <c r="CV6" s="203"/>
+      <c r="CW6" s="203"/>
+      <c r="CX6" s="203"/>
+      <c r="CY6" s="203"/>
+      <c r="CZ6" s="203"/>
+      <c r="DA6" s="203"/>
+      <c r="DB6" s="203"/>
+      <c r="DC6" s="203"/>
+      <c r="DD6" s="203"/>
+      <c r="DE6" s="203"/>
+      <c r="DF6" s="203"/>
+      <c r="DG6" s="203"/>
+      <c r="DH6" s="203"/>
+      <c r="DI6" s="203"/>
+      <c r="DJ6" s="203"/>
+      <c r="DK6" s="203"/>
+      <c r="DL6" s="203"/>
+      <c r="DM6" s="203"/>
+      <c r="DN6" s="203"/>
+      <c r="DO6" s="203"/>
+      <c r="DP6" s="203"/>
+      <c r="DQ6" s="203"/>
+      <c r="DR6" s="203"/>
+      <c r="DS6" s="204"/>
+      <c r="DT6" s="203">
         <v>2019.01</v>
       </c>
-      <c r="DU6" s="205"/>
-      <c r="DV6" s="205"/>
-      <c r="DW6" s="205"/>
-      <c r="DX6" s="205"/>
-      <c r="DY6" s="205"/>
-      <c r="DZ6" s="205"/>
-      <c r="EA6" s="205"/>
-      <c r="EB6" s="205"/>
-      <c r="EC6" s="205"/>
-      <c r="ED6" s="205"/>
-      <c r="EE6" s="205"/>
-      <c r="EF6" s="205"/>
-      <c r="EG6" s="205"/>
-      <c r="EH6" s="205"/>
-      <c r="EI6" s="205"/>
-      <c r="EJ6" s="205"/>
-      <c r="EK6" s="205"/>
-      <c r="EL6" s="205"/>
-      <c r="EM6" s="205"/>
-      <c r="EN6" s="205"/>
-      <c r="EO6" s="205"/>
-      <c r="EP6" s="205"/>
-      <c r="EQ6" s="205"/>
-      <c r="ER6" s="205"/>
-      <c r="ES6" s="205"/>
-      <c r="ET6" s="205"/>
-      <c r="EU6" s="205"/>
-      <c r="EV6" s="205"/>
-      <c r="EW6" s="205"/>
-      <c r="EX6" s="206"/>
-      <c r="EY6" s="207">
+      <c r="DU6" s="203"/>
+      <c r="DV6" s="203"/>
+      <c r="DW6" s="203"/>
+      <c r="DX6" s="203"/>
+      <c r="DY6" s="203"/>
+      <c r="DZ6" s="203"/>
+      <c r="EA6" s="203"/>
+      <c r="EB6" s="203"/>
+      <c r="EC6" s="203"/>
+      <c r="ED6" s="203"/>
+      <c r="EE6" s="203"/>
+      <c r="EF6" s="203"/>
+      <c r="EG6" s="203"/>
+      <c r="EH6" s="203"/>
+      <c r="EI6" s="203"/>
+      <c r="EJ6" s="203"/>
+      <c r="EK6" s="203"/>
+      <c r="EL6" s="203"/>
+      <c r="EM6" s="203"/>
+      <c r="EN6" s="203"/>
+      <c r="EO6" s="203"/>
+      <c r="EP6" s="203"/>
+      <c r="EQ6" s="203"/>
+      <c r="ER6" s="203"/>
+      <c r="ES6" s="203"/>
+      <c r="ET6" s="203"/>
+      <c r="EU6" s="203"/>
+      <c r="EV6" s="203"/>
+      <c r="EW6" s="203"/>
+      <c r="EX6" s="204"/>
+      <c r="EY6" s="205">
         <v>2019.02</v>
       </c>
-      <c r="EZ6" s="205"/>
-      <c r="FA6" s="205"/>
-      <c r="FB6" s="205"/>
-      <c r="FC6" s="205"/>
-      <c r="FD6" s="205"/>
-      <c r="FE6" s="205"/>
-      <c r="FF6" s="205"/>
-      <c r="FG6" s="205"/>
-      <c r="FH6" s="205"/>
-      <c r="FI6" s="205"/>
-      <c r="FJ6" s="205"/>
-      <c r="FK6" s="205"/>
-      <c r="FL6" s="205"/>
-      <c r="FM6" s="205"/>
-      <c r="FN6" s="205"/>
-      <c r="FO6" s="205"/>
-      <c r="FP6" s="205"/>
-      <c r="FQ6" s="205"/>
-      <c r="FR6" s="205"/>
-      <c r="FS6" s="205"/>
-      <c r="FT6" s="205"/>
-      <c r="FU6" s="205"/>
-      <c r="FV6" s="205"/>
-      <c r="FW6" s="205"/>
-      <c r="FX6" s="205"/>
-      <c r="FY6" s="205"/>
-      <c r="FZ6" s="206"/>
-      <c r="GA6" s="201">
+      <c r="EZ6" s="203"/>
+      <c r="FA6" s="203"/>
+      <c r="FB6" s="203"/>
+      <c r="FC6" s="203"/>
+      <c r="FD6" s="203"/>
+      <c r="FE6" s="203"/>
+      <c r="FF6" s="203"/>
+      <c r="FG6" s="203"/>
+      <c r="FH6" s="203"/>
+      <c r="FI6" s="203"/>
+      <c r="FJ6" s="203"/>
+      <c r="FK6" s="203"/>
+      <c r="FL6" s="203"/>
+      <c r="FM6" s="203"/>
+      <c r="FN6" s="203"/>
+      <c r="FO6" s="203"/>
+      <c r="FP6" s="203"/>
+      <c r="FQ6" s="203"/>
+      <c r="FR6" s="203"/>
+      <c r="FS6" s="203"/>
+      <c r="FT6" s="203"/>
+      <c r="FU6" s="203"/>
+      <c r="FV6" s="203"/>
+      <c r="FW6" s="203"/>
+      <c r="FX6" s="203"/>
+      <c r="FY6" s="203"/>
+      <c r="FZ6" s="204"/>
+      <c r="GA6" s="202">
         <v>3</v>
       </c>
-      <c r="GB6" s="201"/>
-      <c r="GC6" s="201"/>
-      <c r="GD6" s="201"/>
-      <c r="GE6" s="201"/>
-      <c r="GF6" s="201"/>
-      <c r="GG6" s="201"/>
-      <c r="GH6" s="201"/>
-      <c r="GI6" s="201"/>
-      <c r="GJ6" s="201"/>
-      <c r="GK6" s="201"/>
-      <c r="GL6" s="201"/>
-      <c r="GM6" s="201"/>
-      <c r="GN6" s="201"/>
-      <c r="GO6" s="201"/>
-      <c r="GP6" s="201"/>
-      <c r="GQ6" s="201"/>
-      <c r="GR6" s="201"/>
-      <c r="GS6" s="201"/>
-      <c r="GT6" s="201"/>
-      <c r="GU6" s="201"/>
-      <c r="GV6" s="201"/>
-      <c r="GW6" s="201"/>
-      <c r="GX6" s="201"/>
-      <c r="GY6" s="201"/>
-      <c r="GZ6" s="201"/>
-      <c r="HA6" s="201"/>
-      <c r="HB6" s="201"/>
-      <c r="HC6" s="201"/>
-      <c r="HD6" s="201"/>
-      <c r="HE6" s="201"/>
-      <c r="HF6" s="197">
+      <c r="GB6" s="202"/>
+      <c r="GC6" s="202"/>
+      <c r="GD6" s="202"/>
+      <c r="GE6" s="202"/>
+      <c r="GF6" s="202"/>
+      <c r="GG6" s="202"/>
+      <c r="GH6" s="202"/>
+      <c r="GI6" s="202"/>
+      <c r="GJ6" s="202"/>
+      <c r="GK6" s="202"/>
+      <c r="GL6" s="202"/>
+      <c r="GM6" s="202"/>
+      <c r="GN6" s="202"/>
+      <c r="GO6" s="202"/>
+      <c r="GP6" s="202"/>
+      <c r="GQ6" s="202"/>
+      <c r="GR6" s="202"/>
+      <c r="GS6" s="202"/>
+      <c r="GT6" s="202"/>
+      <c r="GU6" s="202"/>
+      <c r="GV6" s="202"/>
+      <c r="GW6" s="202"/>
+      <c r="GX6" s="202"/>
+      <c r="GY6" s="202"/>
+      <c r="GZ6" s="202"/>
+      <c r="HA6" s="202"/>
+      <c r="HB6" s="202"/>
+      <c r="HC6" s="202"/>
+      <c r="HD6" s="202"/>
+      <c r="HE6" s="202"/>
+      <c r="HF6" s="200">
         <v>4</v>
       </c>
       <c r="HG6" s="198"/>
@@ -3760,40 +3764,40 @@
       <c r="IG6" s="198"/>
       <c r="IH6" s="198"/>
       <c r="II6" s="199"/>
-      <c r="IJ6" s="200">
+      <c r="IJ6" s="209">
         <v>5</v>
       </c>
-      <c r="IK6" s="201"/>
-      <c r="IL6" s="201"/>
-      <c r="IM6" s="201"/>
-      <c r="IN6" s="201"/>
-      <c r="IO6" s="201"/>
-      <c r="IP6" s="201"/>
-      <c r="IQ6" s="201"/>
-      <c r="IR6" s="201"/>
-      <c r="IS6" s="201"/>
-      <c r="IT6" s="201"/>
-      <c r="IU6" s="201"/>
-      <c r="IV6" s="201"/>
-      <c r="IW6" s="201"/>
-      <c r="IX6" s="201"/>
-      <c r="IY6" s="201"/>
-      <c r="IZ6" s="201"/>
-      <c r="JA6" s="201"/>
-      <c r="JB6" s="201"/>
-      <c r="JC6" s="201"/>
-      <c r="JD6" s="201"/>
-      <c r="JE6" s="201"/>
-      <c r="JF6" s="201"/>
-      <c r="JG6" s="201"/>
-      <c r="JH6" s="201"/>
-      <c r="JI6" s="201"/>
-      <c r="JJ6" s="201"/>
-      <c r="JK6" s="201"/>
-      <c r="JL6" s="201"/>
-      <c r="JM6" s="201"/>
-      <c r="JN6" s="202"/>
-      <c r="JO6" s="197">
+      <c r="IK6" s="202"/>
+      <c r="IL6" s="202"/>
+      <c r="IM6" s="202"/>
+      <c r="IN6" s="202"/>
+      <c r="IO6" s="202"/>
+      <c r="IP6" s="202"/>
+      <c r="IQ6" s="202"/>
+      <c r="IR6" s="202"/>
+      <c r="IS6" s="202"/>
+      <c r="IT6" s="202"/>
+      <c r="IU6" s="202"/>
+      <c r="IV6" s="202"/>
+      <c r="IW6" s="202"/>
+      <c r="IX6" s="202"/>
+      <c r="IY6" s="202"/>
+      <c r="IZ6" s="202"/>
+      <c r="JA6" s="202"/>
+      <c r="JB6" s="202"/>
+      <c r="JC6" s="202"/>
+      <c r="JD6" s="202"/>
+      <c r="JE6" s="202"/>
+      <c r="JF6" s="202"/>
+      <c r="JG6" s="202"/>
+      <c r="JH6" s="202"/>
+      <c r="JI6" s="202"/>
+      <c r="JJ6" s="202"/>
+      <c r="JK6" s="202"/>
+      <c r="JL6" s="202"/>
+      <c r="JM6" s="202"/>
+      <c r="JN6" s="210"/>
+      <c r="JO6" s="200">
         <v>6</v>
       </c>
       <c r="JP6" s="198"/>
@@ -3891,7 +3895,7 @@
       <c r="MZ6" s="195"/>
       <c r="NA6" s="195"/>
       <c r="NB6" s="195"/>
-      <c r="NC6" s="197">
+      <c r="NC6" s="200">
         <v>9</v>
       </c>
       <c r="ND6" s="198"/>
@@ -3956,7 +3960,7 @@
       <c r="PI6" s="195"/>
       <c r="PJ6" s="195"/>
       <c r="PK6" s="196"/>
-      <c r="PL6" s="211">
+      <c r="PL6" s="197">
         <v>11</v>
       </c>
       <c r="PM6" s="198"/>
@@ -5487,7 +5491,7 @@
       </c>
     </row>
     <row r="8" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="203" t="s">
+      <c r="A8" s="201" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="41"/>
@@ -5993,7 +5997,7 @@
       <c r="RT8" s="189"/>
     </row>
     <row r="9" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="203"/>
+      <c r="A9" s="201"/>
       <c r="B9" s="72"/>
       <c r="C9" s="73"/>
       <c r="D9" s="74"/>
@@ -6499,7 +6503,7 @@
       <c r="RT9" s="7"/>
     </row>
     <row r="10" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="203"/>
+      <c r="A10" s="201"/>
       <c r="B10" s="72"/>
       <c r="C10" s="73"/>
       <c r="D10" s="74"/>
@@ -6997,7 +7001,7 @@
       <c r="RT10" s="7"/>
     </row>
     <row r="11" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="203"/>
+      <c r="A11" s="201"/>
       <c r="B11" s="72"/>
       <c r="C11" s="73"/>
       <c r="D11" s="74"/>
@@ -7497,7 +7501,7 @@
       <c r="RT11" s="7"/>
     </row>
     <row r="12" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="203"/>
+      <c r="A12" s="201"/>
       <c r="B12" s="72"/>
       <c r="C12" s="73"/>
       <c r="D12" s="74"/>
@@ -7995,7 +7999,7 @@
       <c r="RT12" s="7"/>
     </row>
     <row r="13" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="203"/>
+      <c r="A13" s="201"/>
       <c r="B13" s="72"/>
       <c r="C13" s="73"/>
       <c r="D13" s="74"/>
@@ -8489,7 +8493,7 @@
       <c r="RT13" s="7"/>
     </row>
     <row r="14" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="203"/>
+      <c r="A14" s="201"/>
       <c r="B14" s="80"/>
       <c r="C14" s="81"/>
       <c r="D14" s="82"/>
@@ -8981,7 +8985,7 @@
       <c r="RT14" s="18"/>
     </row>
     <row r="15" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="204" t="s">
+      <c r="A15" s="211" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="88"/>
@@ -9475,7 +9479,7 @@
       <c r="RT15" s="29"/>
     </row>
     <row r="16" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="203"/>
+      <c r="A16" s="201"/>
       <c r="B16" s="94"/>
       <c r="C16" s="95"/>
       <c r="D16" s="96"/>
@@ -9981,7 +9985,7 @@
       <c r="RT16" s="13"/>
     </row>
     <row r="17" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="203"/>
+      <c r="A17" s="201"/>
       <c r="B17" s="94"/>
       <c r="C17" s="95"/>
       <c r="D17" s="96"/>
@@ -10482,7 +10486,7 @@
       <c r="RT17" s="4"/>
     </row>
     <row r="18" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="203"/>
+      <c r="A18" s="201"/>
       <c r="B18" s="94"/>
       <c r="C18" s="95"/>
       <c r="D18" s="96"/>
@@ -10977,7 +10981,7 @@
       <c r="RT18" s="4"/>
     </row>
     <row r="19" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="203"/>
+      <c r="A19" s="201"/>
       <c r="B19" s="94"/>
       <c r="C19" s="95"/>
       <c r="D19" s="96"/>
@@ -11467,7 +11471,7 @@
       <c r="RT19" s="4"/>
     </row>
     <row r="20" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="203"/>
+      <c r="A20" s="201"/>
       <c r="B20" s="94"/>
       <c r="C20" s="95"/>
       <c r="D20" s="96"/>
@@ -11957,7 +11961,7 @@
       <c r="RT20" s="4"/>
     </row>
     <row r="21" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="203"/>
+      <c r="A21" s="201"/>
       <c r="B21" s="94"/>
       <c r="C21" s="95"/>
       <c r="D21" s="96"/>
@@ -12447,7 +12451,7 @@
       <c r="RT21" s="126"/>
     </row>
     <row r="22" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="203"/>
+      <c r="A22" s="201"/>
       <c r="B22" s="101"/>
       <c r="C22" s="102"/>
       <c r="D22" s="103"/>
@@ -12937,7 +12941,7 @@
       <c r="RT22" s="25"/>
     </row>
     <row r="23" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="203" t="s">
+      <c r="A23" s="201" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="107"/>
@@ -13441,7 +13445,7 @@
       <c r="RT23" s="29"/>
     </row>
     <row r="24" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="203"/>
+      <c r="A24" s="201"/>
       <c r="B24" s="94"/>
       <c r="C24" s="95"/>
       <c r="D24" s="96"/>
@@ -13937,7 +13941,7 @@
       <c r="RT24" s="4"/>
     </row>
     <row r="25" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="203"/>
+      <c r="A25" s="201"/>
       <c r="B25" s="94"/>
       <c r="C25" s="95"/>
       <c r="D25" s="96"/>
@@ -14441,7 +14445,7 @@
       <c r="RT25" s="4"/>
     </row>
     <row r="26" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="203"/>
+      <c r="A26" s="201"/>
       <c r="B26" s="94"/>
       <c r="C26" s="95"/>
       <c r="D26" s="96"/>
@@ -14943,7 +14947,7 @@
       <c r="RT26" s="4"/>
     </row>
     <row r="27" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="203"/>
+      <c r="A27" s="201"/>
       <c r="B27" s="94"/>
       <c r="C27" s="95"/>
       <c r="D27" s="96"/>
@@ -15439,7 +15443,7 @@
       <c r="RT27" s="4"/>
     </row>
     <row r="28" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="203"/>
+      <c r="A28" s="201"/>
       <c r="B28" s="94"/>
       <c r="C28" s="95"/>
       <c r="D28" s="96"/>
@@ -15931,7 +15935,7 @@
       <c r="RT28" s="4"/>
     </row>
     <row r="29" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="203"/>
+      <c r="A29" s="201"/>
       <c r="B29" s="94"/>
       <c r="C29" s="95"/>
       <c r="D29" s="96"/>
@@ -16423,7 +16427,7 @@
       <c r="RT29" s="4"/>
     </row>
     <row r="30" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="203"/>
+      <c r="A30" s="201"/>
       <c r="B30" s="101"/>
       <c r="C30" s="102"/>
       <c r="D30" s="103"/>
@@ -18161,11 +18165,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="OG6:PK6"/>
-    <mergeCell ref="PL6:QO6"/>
-    <mergeCell ref="QP6:RT6"/>
-    <mergeCell ref="NC6:OF6"/>
-    <mergeCell ref="LX6:NB6"/>
+    <mergeCell ref="KS6:LW6"/>
+    <mergeCell ref="JO6:KR6"/>
+    <mergeCell ref="IJ6:JN6"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A15:A22"/>
     <mergeCell ref="A23:A30"/>
     <mergeCell ref="GA6:HE6"/>
     <mergeCell ref="HF6:II6"/>
@@ -18175,11 +18179,11 @@
     <mergeCell ref="B6:AE6"/>
     <mergeCell ref="AF6:BJ6"/>
     <mergeCell ref="BK6:CN6"/>
-    <mergeCell ref="KS6:LW6"/>
-    <mergeCell ref="JO6:KR6"/>
-    <mergeCell ref="IJ6:JN6"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="OG6:PK6"/>
+    <mergeCell ref="PL6:QO6"/>
+    <mergeCell ref="QP6:RT6"/>
+    <mergeCell ref="NC6:OF6"/>
+    <mergeCell ref="LX6:NB6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18191,11 +18195,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E135"/>
+  <dimension ref="B2:E149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J122" sqref="J122"/>
+      <pane ySplit="3" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19600,7 +19604,7 @@
       </c>
       <c r="C120" s="213"/>
       <c r="D120" s="138">
-        <f>SUM(D121:D135)</f>
+        <f>SUM(D121:D134)</f>
         <v>77</v>
       </c>
       <c r="E120" s="141"/>
@@ -19774,13 +19778,121 @@
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B135" s="163"/>
-      <c r="C135" s="164"/>
-      <c r="D135" s="165"/>
-      <c r="E135" s="167"/>
+      <c r="B135" s="212" t="s">
+        <v>154</v>
+      </c>
+      <c r="C135" s="213"/>
+      <c r="D135" s="138">
+        <f>SUM(D136:D149)</f>
+        <v>10</v>
+      </c>
+      <c r="E135" s="141"/>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B136" s="163"/>
+      <c r="C136" s="164">
+        <v>1</v>
+      </c>
+      <c r="D136" s="165">
+        <v>4</v>
+      </c>
+      <c r="E136" s="167" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B137" s="163"/>
+      <c r="C137" s="164">
+        <v>3</v>
+      </c>
+      <c r="D137" s="165">
+        <v>2</v>
+      </c>
+      <c r="E137" s="167" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B138" s="163"/>
+      <c r="C138" s="164">
+        <v>4</v>
+      </c>
+      <c r="D138" s="165">
+        <v>4</v>
+      </c>
+      <c r="E138" s="167" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B139" s="163"/>
+      <c r="C139" s="164"/>
+      <c r="D139" s="165"/>
+      <c r="E139" s="167"/>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B140" s="163"/>
+      <c r="C140" s="164"/>
+      <c r="D140" s="165"/>
+      <c r="E140" s="167"/>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B141" s="163"/>
+      <c r="C141" s="164"/>
+      <c r="D141" s="165"/>
+      <c r="E141" s="167"/>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B142" s="163"/>
+      <c r="C142" s="164"/>
+      <c r="D142" s="165"/>
+      <c r="E142" s="167"/>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B143" s="163"/>
+      <c r="C143" s="164"/>
+      <c r="D143" s="165"/>
+      <c r="E143" s="128"/>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B144" s="163"/>
+      <c r="C144" s="164"/>
+      <c r="D144" s="165"/>
+      <c r="E144" s="167"/>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B145" s="163"/>
+      <c r="C145" s="164"/>
+      <c r="D145" s="165"/>
+      <c r="E145" s="167"/>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B146" s="163"/>
+      <c r="C146" s="164"/>
+      <c r="D146" s="165"/>
+      <c r="E146" s="167"/>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B147" s="163"/>
+      <c r="C147" s="164"/>
+      <c r="D147" s="165"/>
+      <c r="E147" s="167"/>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B148" s="163"/>
+      <c r="C148" s="164"/>
+      <c r="D148" s="165"/>
+      <c r="E148" s="167"/>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B149" s="163"/>
+      <c r="C149" s="164"/>
+      <c r="D149" s="165"/>
+      <c r="E149" s="167"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="B135:C135"/>
     <mergeCell ref="B120:C120"/>
     <mergeCell ref="B104:C104"/>
     <mergeCell ref="B44:C44"/>

--- a/Plasma Project schedule V1.0_20191015.xlsx
+++ b/Plasma Project schedule V1.0_20191015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="20181224" sheetId="20" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="174">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -818,6 +818,18 @@
   </si>
   <si>
     <t>RF GEN - RF 회로 정리 및 PL 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF GEN - RF &amp; Coupler 회로 정리 및 PL 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶RF V2.0 Data 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶Coupler V1.0 Data 전달</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1732,7 +1744,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2113,6 +2125,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3454,57 +3485,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:RT47"/>
+  <dimension ref="A1:UC47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="OU1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="QM18" sqref="QM18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="RG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="TT36" sqref="TT36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.375" style="51" customWidth="1"/>
-    <col min="2" max="10" width="2.75" style="54" bestFit="1" customWidth="1"/>
-    <col min="11" max="31" width="3.75" style="54" bestFit="1" customWidth="1"/>
-    <col min="32" max="40" width="2.75" style="54" bestFit="1" customWidth="1"/>
-    <col min="41" max="62" width="3.75" style="54" bestFit="1" customWidth="1"/>
-    <col min="63" max="71" width="2.75" style="54" bestFit="1" customWidth="1"/>
-    <col min="72" max="92" width="3.75" style="54" bestFit="1" customWidth="1"/>
-    <col min="93" max="101" width="2.75" style="54" bestFit="1" customWidth="1"/>
-    <col min="102" max="123" width="3.75" style="54" bestFit="1" customWidth="1"/>
-    <col min="124" max="132" width="2.75" style="54" bestFit="1" customWidth="1"/>
-    <col min="133" max="154" width="3.75" style="54" bestFit="1" customWidth="1"/>
-    <col min="155" max="163" width="2.75" style="54" bestFit="1" customWidth="1"/>
-    <col min="164" max="182" width="3.75" style="54" bestFit="1" customWidth="1"/>
-    <col min="183" max="16384" width="2.625" style="54"/>
+    <col min="2" max="10" width="2.75" style="54" hidden="1" customWidth="1"/>
+    <col min="11" max="31" width="3.75" style="54" hidden="1" customWidth="1"/>
+    <col min="32" max="40" width="2.75" style="54" hidden="1" customWidth="1"/>
+    <col min="41" max="62" width="3.75" style="54" hidden="1" customWidth="1"/>
+    <col min="63" max="71" width="2.75" style="54" hidden="1" customWidth="1"/>
+    <col min="72" max="92" width="3.75" style="54" hidden="1" customWidth="1"/>
+    <col min="93" max="101" width="2.75" style="54" hidden="1" customWidth="1"/>
+    <col min="102" max="123" width="3.75" style="54" hidden="1" customWidth="1"/>
+    <col min="124" max="132" width="2.75" style="54" hidden="1" customWidth="1"/>
+    <col min="133" max="154" width="3.75" style="54" hidden="1" customWidth="1"/>
+    <col min="155" max="163" width="2.75" style="54" hidden="1" customWidth="1"/>
+    <col min="164" max="182" width="3.75" style="54" hidden="1" customWidth="1"/>
+    <col min="183" max="366" width="0" style="54" hidden="1" customWidth="1"/>
+    <col min="367" max="16384" width="2.625" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:488" s="53" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:549" s="53" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:488" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:549" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="47" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:488" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:549" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:488" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:549" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="48" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:488" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:549" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="49" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:488" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:549" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="50"/>
       <c r="B6" s="206">
         <v>9</v>
@@ -4025,8 +4057,72 @@
       <c r="RR6" s="195"/>
       <c r="RS6" s="195"/>
       <c r="RT6" s="196"/>
+      <c r="RU6" s="194">
+        <v>1</v>
+      </c>
+      <c r="RV6" s="195"/>
+      <c r="RW6" s="195"/>
+      <c r="RX6" s="195"/>
+      <c r="RY6" s="195"/>
+      <c r="RZ6" s="195"/>
+      <c r="SA6" s="195"/>
+      <c r="SB6" s="195"/>
+      <c r="SC6" s="195"/>
+      <c r="SD6" s="195"/>
+      <c r="SE6" s="195"/>
+      <c r="SF6" s="195"/>
+      <c r="SG6" s="195"/>
+      <c r="SH6" s="195"/>
+      <c r="SI6" s="195"/>
+      <c r="SJ6" s="195"/>
+      <c r="SK6" s="195"/>
+      <c r="SL6" s="195"/>
+      <c r="SM6" s="195"/>
+      <c r="SN6" s="195"/>
+      <c r="SO6" s="195"/>
+      <c r="SP6" s="195"/>
+      <c r="SQ6" s="195"/>
+      <c r="SR6" s="195"/>
+      <c r="SS6" s="195"/>
+      <c r="ST6" s="195"/>
+      <c r="SU6" s="195"/>
+      <c r="SV6" s="195"/>
+      <c r="SW6" s="195"/>
+      <c r="SX6" s="195"/>
+      <c r="SY6" s="195"/>
+      <c r="SZ6" s="194">
+        <v>2</v>
+      </c>
+      <c r="TA6" s="195"/>
+      <c r="TB6" s="195"/>
+      <c r="TC6" s="195"/>
+      <c r="TD6" s="195"/>
+      <c r="TE6" s="195"/>
+      <c r="TF6" s="195"/>
+      <c r="TG6" s="195"/>
+      <c r="TH6" s="195"/>
+      <c r="TI6" s="195"/>
+      <c r="TJ6" s="195"/>
+      <c r="TK6" s="195"/>
+      <c r="TL6" s="195"/>
+      <c r="TM6" s="195"/>
+      <c r="TN6" s="195"/>
+      <c r="TO6" s="195"/>
+      <c r="TP6" s="195"/>
+      <c r="TQ6" s="195"/>
+      <c r="TR6" s="195"/>
+      <c r="TS6" s="195"/>
+      <c r="TT6" s="195"/>
+      <c r="TU6" s="195"/>
+      <c r="TV6" s="195"/>
+      <c r="TW6" s="195"/>
+      <c r="TX6" s="195"/>
+      <c r="TY6" s="195"/>
+      <c r="TZ6" s="195"/>
+      <c r="UA6" s="195"/>
+      <c r="UB6" s="196"/>
     </row>
-    <row r="7" spans="1:488" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:549" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="52"/>
       <c r="B7" s="55">
         <v>1</v>
@@ -5489,8 +5585,188 @@
       <c r="RT7" s="121">
         <v>31</v>
       </c>
+      <c r="RU7" s="224">
+        <v>1</v>
+      </c>
+      <c r="RV7" s="119">
+        <v>2</v>
+      </c>
+      <c r="RW7" s="119">
+        <v>3</v>
+      </c>
+      <c r="RX7" s="119">
+        <v>4</v>
+      </c>
+      <c r="RY7" s="119">
+        <v>5</v>
+      </c>
+      <c r="RZ7" s="119">
+        <v>6</v>
+      </c>
+      <c r="SA7" s="119">
+        <v>7</v>
+      </c>
+      <c r="SB7" s="119">
+        <v>8</v>
+      </c>
+      <c r="SC7" s="119">
+        <v>9</v>
+      </c>
+      <c r="SD7" s="119">
+        <v>10</v>
+      </c>
+      <c r="SE7" s="119">
+        <v>11</v>
+      </c>
+      <c r="SF7" s="119">
+        <v>12</v>
+      </c>
+      <c r="SG7" s="119">
+        <v>13</v>
+      </c>
+      <c r="SH7" s="119">
+        <v>14</v>
+      </c>
+      <c r="SI7" s="119">
+        <v>15</v>
+      </c>
+      <c r="SJ7" s="119">
+        <v>16</v>
+      </c>
+      <c r="SK7" s="119">
+        <v>17</v>
+      </c>
+      <c r="SL7" s="119">
+        <v>18</v>
+      </c>
+      <c r="SM7" s="119">
+        <v>19</v>
+      </c>
+      <c r="SN7" s="119">
+        <v>20</v>
+      </c>
+      <c r="SO7" s="119">
+        <v>21</v>
+      </c>
+      <c r="SP7" s="119">
+        <v>22</v>
+      </c>
+      <c r="SQ7" s="119">
+        <v>23</v>
+      </c>
+      <c r="SR7" s="119">
+        <v>24</v>
+      </c>
+      <c r="SS7" s="119">
+        <v>25</v>
+      </c>
+      <c r="ST7" s="119">
+        <v>26</v>
+      </c>
+      <c r="SU7" s="119">
+        <v>27</v>
+      </c>
+      <c r="SV7" s="119">
+        <v>28</v>
+      </c>
+      <c r="SW7" s="119">
+        <v>29</v>
+      </c>
+      <c r="SX7" s="119">
+        <v>30</v>
+      </c>
+      <c r="SY7" s="119">
+        <v>31</v>
+      </c>
+      <c r="SZ7" s="120">
+        <v>1</v>
+      </c>
+      <c r="TA7" s="119">
+        <v>2</v>
+      </c>
+      <c r="TB7" s="119">
+        <v>3</v>
+      </c>
+      <c r="TC7" s="119">
+        <v>4</v>
+      </c>
+      <c r="TD7" s="119">
+        <v>5</v>
+      </c>
+      <c r="TE7" s="119">
+        <v>6</v>
+      </c>
+      <c r="TF7" s="119">
+        <v>7</v>
+      </c>
+      <c r="TG7" s="119">
+        <v>8</v>
+      </c>
+      <c r="TH7" s="119">
+        <v>9</v>
+      </c>
+      <c r="TI7" s="119">
+        <v>10</v>
+      </c>
+      <c r="TJ7" s="119">
+        <v>11</v>
+      </c>
+      <c r="TK7" s="119">
+        <v>12</v>
+      </c>
+      <c r="TL7" s="119">
+        <v>13</v>
+      </c>
+      <c r="TM7" s="119">
+        <v>14</v>
+      </c>
+      <c r="TN7" s="119">
+        <v>15</v>
+      </c>
+      <c r="TO7" s="119">
+        <v>16</v>
+      </c>
+      <c r="TP7" s="119">
+        <v>17</v>
+      </c>
+      <c r="TQ7" s="119">
+        <v>18</v>
+      </c>
+      <c r="TR7" s="119">
+        <v>19</v>
+      </c>
+      <c r="TS7" s="119">
+        <v>20</v>
+      </c>
+      <c r="TT7" s="119">
+        <v>21</v>
+      </c>
+      <c r="TU7" s="119">
+        <v>22</v>
+      </c>
+      <c r="TV7" s="119">
+        <v>23</v>
+      </c>
+      <c r="TW7" s="119">
+        <v>24</v>
+      </c>
+      <c r="TX7" s="119">
+        <v>25</v>
+      </c>
+      <c r="TY7" s="119">
+        <v>26</v>
+      </c>
+      <c r="TZ7" s="119">
+        <v>27</v>
+      </c>
+      <c r="UA7" s="119">
+        <v>28</v>
+      </c>
+      <c r="UB7" s="121">
+        <v>29</v>
+      </c>
     </row>
-    <row r="8" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="201" t="s">
         <v>28</v>
       </c>
@@ -5839,7 +6115,7 @@
       <c r="LT8" s="10"/>
       <c r="LU8" s="8"/>
       <c r="LV8" s="8"/>
-      <c r="LW8" s="8"/>
+      <c r="LW8" s="189"/>
       <c r="LX8" s="21"/>
       <c r="LY8" s="8"/>
       <c r="LZ8" s="10"/>
@@ -5995,8 +6271,69 @@
       <c r="RR8" s="41"/>
       <c r="RS8" s="8"/>
       <c r="RT8" s="189"/>
+      <c r="RU8" s="71"/>
+      <c r="RV8" s="8"/>
+      <c r="RW8" s="8"/>
+      <c r="RX8" s="10"/>
+      <c r="RY8" s="10"/>
+      <c r="RZ8" s="8"/>
+      <c r="SA8" s="8"/>
+      <c r="SB8" s="8"/>
+      <c r="SC8" s="8"/>
+      <c r="SD8" s="8"/>
+      <c r="SE8" s="10"/>
+      <c r="SF8" s="41"/>
+      <c r="SG8" s="8"/>
+      <c r="SH8" s="8"/>
+      <c r="SI8" s="8"/>
+      <c r="SJ8" s="8"/>
+      <c r="SK8" s="8"/>
+      <c r="SL8" s="10"/>
+      <c r="SM8" s="41"/>
+      <c r="SN8" s="8"/>
+      <c r="SO8" s="8"/>
+      <c r="SP8" s="8"/>
+      <c r="SQ8" s="8"/>
+      <c r="SR8" s="8"/>
+      <c r="SS8" s="10"/>
+      <c r="ST8" s="41"/>
+      <c r="SU8" s="8"/>
+      <c r="SV8" s="8"/>
+      <c r="SW8" s="8"/>
+      <c r="SX8" s="8"/>
+      <c r="SY8" s="8"/>
+      <c r="SZ8" s="232"/>
+      <c r="TA8" s="41"/>
+      <c r="TB8" s="8"/>
+      <c r="TC8" s="8"/>
+      <c r="TD8" s="8"/>
+      <c r="TE8" s="8"/>
+      <c r="TF8" s="8"/>
+      <c r="TG8" s="10"/>
+      <c r="TH8" s="41"/>
+      <c r="TI8" s="8"/>
+      <c r="TJ8" s="8"/>
+      <c r="TK8" s="8"/>
+      <c r="TL8" s="8"/>
+      <c r="TM8" s="8"/>
+      <c r="TN8" s="10"/>
+      <c r="TO8" s="41"/>
+      <c r="TP8" s="8"/>
+      <c r="TQ8" s="8"/>
+      <c r="TR8" s="8"/>
+      <c r="TS8" s="8"/>
+      <c r="TT8" s="8"/>
+      <c r="TU8" s="10"/>
+      <c r="TV8" s="41"/>
+      <c r="TW8" s="8"/>
+      <c r="TX8" s="8"/>
+      <c r="TY8" s="8"/>
+      <c r="TZ8" s="8"/>
+      <c r="UA8" s="8"/>
+      <c r="UB8" s="233"/>
+      <c r="UC8" s="41"/>
     </row>
-    <row r="9" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="201"/>
       <c r="B9" s="72"/>
       <c r="C9" s="73"/>
@@ -6347,7 +6684,7 @@
       <c r="LT9" s="6"/>
       <c r="LU9" s="5"/>
       <c r="LV9" s="5"/>
-      <c r="LW9" s="5"/>
+      <c r="LW9" s="7"/>
       <c r="LX9" s="16"/>
       <c r="LY9" s="5"/>
       <c r="LZ9" s="6"/>
@@ -6501,8 +6838,69 @@
       <c r="RR9" s="6"/>
       <c r="RS9" s="5"/>
       <c r="RT9" s="7"/>
+      <c r="RU9" s="225"/>
+      <c r="RV9" s="5"/>
+      <c r="RW9" s="5"/>
+      <c r="RX9" s="6"/>
+      <c r="RY9" s="6"/>
+      <c r="RZ9" s="5"/>
+      <c r="SA9" s="5"/>
+      <c r="SB9" s="5"/>
+      <c r="SC9" s="5"/>
+      <c r="SD9" s="5"/>
+      <c r="SE9" s="6"/>
+      <c r="SF9" s="6"/>
+      <c r="SG9" s="5"/>
+      <c r="SH9" s="5"/>
+      <c r="SI9" s="5"/>
+      <c r="SJ9" s="5"/>
+      <c r="SK9" s="5"/>
+      <c r="SL9" s="6"/>
+      <c r="SM9" s="6"/>
+      <c r="SN9" s="5"/>
+      <c r="SO9" s="5"/>
+      <c r="SP9" s="5"/>
+      <c r="SQ9" s="5"/>
+      <c r="SR9" s="5"/>
+      <c r="SS9" s="6"/>
+      <c r="ST9" s="6"/>
+      <c r="SU9" s="5"/>
+      <c r="SV9" s="5"/>
+      <c r="SW9" s="5"/>
+      <c r="SX9" s="5"/>
+      <c r="SY9" s="5"/>
+      <c r="SZ9" s="179"/>
+      <c r="TA9" s="6"/>
+      <c r="TB9" s="5"/>
+      <c r="TC9" s="5"/>
+      <c r="TD9" s="5"/>
+      <c r="TE9" s="5"/>
+      <c r="TF9" s="5"/>
+      <c r="TG9" s="6"/>
+      <c r="TH9" s="6"/>
+      <c r="TI9" s="5"/>
+      <c r="TJ9" s="5"/>
+      <c r="TK9" s="5"/>
+      <c r="TL9" s="5"/>
+      <c r="TM9" s="5"/>
+      <c r="TN9" s="6"/>
+      <c r="TO9" s="6"/>
+      <c r="TP9" s="5"/>
+      <c r="TQ9" s="5"/>
+      <c r="TR9" s="5"/>
+      <c r="TS9" s="5"/>
+      <c r="TT9" s="5"/>
+      <c r="TU9" s="6"/>
+      <c r="TV9" s="6"/>
+      <c r="TW9" s="5"/>
+      <c r="TX9" s="5"/>
+      <c r="TY9" s="5"/>
+      <c r="TZ9" s="5"/>
+      <c r="UA9" s="5"/>
+      <c r="UB9" s="234"/>
+      <c r="UC9" s="6"/>
     </row>
-    <row r="10" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="201"/>
       <c r="B10" s="72"/>
       <c r="C10" s="73"/>
@@ -6999,8 +7397,69 @@
       <c r="RR10" s="6"/>
       <c r="RS10" s="5"/>
       <c r="RT10" s="7"/>
+      <c r="RU10" s="225"/>
+      <c r="RV10" s="5"/>
+      <c r="RW10" s="5"/>
+      <c r="RX10" s="6"/>
+      <c r="RY10" s="6"/>
+      <c r="RZ10" s="5"/>
+      <c r="SA10" s="5"/>
+      <c r="SB10" s="5"/>
+      <c r="SC10" s="5"/>
+      <c r="SD10" s="5"/>
+      <c r="SE10" s="6"/>
+      <c r="SF10" s="6"/>
+      <c r="SG10" s="5"/>
+      <c r="SH10" s="5"/>
+      <c r="SI10" s="5"/>
+      <c r="SJ10" s="5"/>
+      <c r="SK10" s="5"/>
+      <c r="SL10" s="6"/>
+      <c r="SM10" s="6"/>
+      <c r="SN10" s="5"/>
+      <c r="SO10" s="5"/>
+      <c r="SP10" s="5"/>
+      <c r="SQ10" s="5"/>
+      <c r="SR10" s="5"/>
+      <c r="SS10" s="6"/>
+      <c r="ST10" s="6"/>
+      <c r="SU10" s="5"/>
+      <c r="SV10" s="5"/>
+      <c r="SW10" s="5"/>
+      <c r="SX10" s="5"/>
+      <c r="SY10" s="5"/>
+      <c r="SZ10" s="179"/>
+      <c r="TA10" s="6"/>
+      <c r="TB10" s="5"/>
+      <c r="TC10" s="5"/>
+      <c r="TD10" s="5"/>
+      <c r="TE10" s="5"/>
+      <c r="TF10" s="5"/>
+      <c r="TG10" s="6"/>
+      <c r="TH10" s="6"/>
+      <c r="TI10" s="5"/>
+      <c r="TJ10" s="5"/>
+      <c r="TK10" s="5"/>
+      <c r="TL10" s="5"/>
+      <c r="TM10" s="5"/>
+      <c r="TN10" s="6"/>
+      <c r="TO10" s="6"/>
+      <c r="TP10" s="5"/>
+      <c r="TQ10" s="5"/>
+      <c r="TR10" s="5"/>
+      <c r="TS10" s="5"/>
+      <c r="TT10" s="5"/>
+      <c r="TU10" s="6"/>
+      <c r="TV10" s="6"/>
+      <c r="TW10" s="5"/>
+      <c r="TX10" s="5"/>
+      <c r="TY10" s="5"/>
+      <c r="TZ10" s="5"/>
+      <c r="UA10" s="5"/>
+      <c r="UB10" s="234"/>
+      <c r="UC10" s="6"/>
     </row>
-    <row r="11" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="201"/>
       <c r="B11" s="72"/>
       <c r="C11" s="73"/>
@@ -7315,7 +7774,7 @@
       <c r="KP11" s="5"/>
       <c r="KQ11" s="6"/>
       <c r="KR11" s="6"/>
-      <c r="KS11" s="5"/>
+      <c r="KS11" s="16"/>
       <c r="KT11" s="5"/>
       <c r="KU11" s="5"/>
       <c r="KV11" s="5"/>
@@ -7499,8 +7958,69 @@
       <c r="RR11" s="6"/>
       <c r="RS11" s="5"/>
       <c r="RT11" s="7"/>
+      <c r="RU11" s="225"/>
+      <c r="RV11" s="5"/>
+      <c r="RW11" s="5"/>
+      <c r="RX11" s="6"/>
+      <c r="RY11" s="6"/>
+      <c r="RZ11" s="5"/>
+      <c r="SA11" s="5"/>
+      <c r="SB11" s="5"/>
+      <c r="SC11" s="5"/>
+      <c r="SD11" s="5"/>
+      <c r="SE11" s="6"/>
+      <c r="SF11" s="6"/>
+      <c r="SG11" s="5"/>
+      <c r="SH11" s="5"/>
+      <c r="SI11" s="5"/>
+      <c r="SJ11" s="5"/>
+      <c r="SK11" s="5"/>
+      <c r="SL11" s="6"/>
+      <c r="SM11" s="6"/>
+      <c r="SN11" s="5"/>
+      <c r="SO11" s="5"/>
+      <c r="SP11" s="5"/>
+      <c r="SQ11" s="5"/>
+      <c r="SR11" s="5"/>
+      <c r="SS11" s="6"/>
+      <c r="ST11" s="6"/>
+      <c r="SU11" s="5"/>
+      <c r="SV11" s="5"/>
+      <c r="SW11" s="5"/>
+      <c r="SX11" s="5"/>
+      <c r="SY11" s="5"/>
+      <c r="SZ11" s="179"/>
+      <c r="TA11" s="6"/>
+      <c r="TB11" s="5"/>
+      <c r="TC11" s="5"/>
+      <c r="TD11" s="5"/>
+      <c r="TE11" s="5"/>
+      <c r="TF11" s="5"/>
+      <c r="TG11" s="6"/>
+      <c r="TH11" s="6"/>
+      <c r="TI11" s="5"/>
+      <c r="TJ11" s="5"/>
+      <c r="TK11" s="5"/>
+      <c r="TL11" s="5"/>
+      <c r="TM11" s="5"/>
+      <c r="TN11" s="6"/>
+      <c r="TO11" s="6"/>
+      <c r="TP11" s="5"/>
+      <c r="TQ11" s="5"/>
+      <c r="TR11" s="5"/>
+      <c r="TS11" s="5"/>
+      <c r="TT11" s="5"/>
+      <c r="TU11" s="6"/>
+      <c r="TV11" s="6"/>
+      <c r="TW11" s="5"/>
+      <c r="TX11" s="5"/>
+      <c r="TY11" s="5"/>
+      <c r="TZ11" s="5"/>
+      <c r="UA11" s="5"/>
+      <c r="UB11" s="234"/>
+      <c r="UC11" s="6"/>
     </row>
-    <row r="12" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="201"/>
       <c r="B12" s="72"/>
       <c r="C12" s="73"/>
@@ -7997,8 +8517,69 @@
       <c r="RR12" s="6"/>
       <c r="RS12" s="5"/>
       <c r="RT12" s="7"/>
+      <c r="RU12" s="225"/>
+      <c r="RV12" s="5"/>
+      <c r="RW12" s="5"/>
+      <c r="RX12" s="6"/>
+      <c r="RY12" s="6"/>
+      <c r="RZ12" s="5"/>
+      <c r="SA12" s="5"/>
+      <c r="SB12" s="5"/>
+      <c r="SC12" s="5"/>
+      <c r="SD12" s="5"/>
+      <c r="SE12" s="6"/>
+      <c r="SF12" s="6"/>
+      <c r="SG12" s="5"/>
+      <c r="SH12" s="5"/>
+      <c r="SI12" s="5"/>
+      <c r="SJ12" s="5"/>
+      <c r="SK12" s="5"/>
+      <c r="SL12" s="6"/>
+      <c r="SM12" s="6"/>
+      <c r="SN12" s="5"/>
+      <c r="SO12" s="5"/>
+      <c r="SP12" s="5"/>
+      <c r="SQ12" s="5"/>
+      <c r="SR12" s="5"/>
+      <c r="SS12" s="6"/>
+      <c r="ST12" s="6"/>
+      <c r="SU12" s="5"/>
+      <c r="SV12" s="5"/>
+      <c r="SW12" s="5"/>
+      <c r="SX12" s="5"/>
+      <c r="SY12" s="5"/>
+      <c r="SZ12" s="179"/>
+      <c r="TA12" s="6"/>
+      <c r="TB12" s="5"/>
+      <c r="TC12" s="5"/>
+      <c r="TD12" s="5"/>
+      <c r="TE12" s="5"/>
+      <c r="TF12" s="5"/>
+      <c r="TG12" s="6"/>
+      <c r="TH12" s="6"/>
+      <c r="TI12" s="5"/>
+      <c r="TJ12" s="5"/>
+      <c r="TK12" s="5"/>
+      <c r="TL12" s="5"/>
+      <c r="TM12" s="5"/>
+      <c r="TN12" s="6"/>
+      <c r="TO12" s="6"/>
+      <c r="TP12" s="5"/>
+      <c r="TQ12" s="5"/>
+      <c r="TR12" s="5"/>
+      <c r="TS12" s="5"/>
+      <c r="TT12" s="5"/>
+      <c r="TU12" s="6"/>
+      <c r="TV12" s="6"/>
+      <c r="TW12" s="5"/>
+      <c r="TX12" s="5"/>
+      <c r="TY12" s="5"/>
+      <c r="TZ12" s="5"/>
+      <c r="UA12" s="5"/>
+      <c r="UB12" s="234"/>
+      <c r="UC12" s="6"/>
     </row>
-    <row r="13" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="201"/>
       <c r="B13" s="72"/>
       <c r="C13" s="73"/>
@@ -8491,8 +9072,69 @@
       <c r="RR13" s="6"/>
       <c r="RS13" s="5"/>
       <c r="RT13" s="7"/>
+      <c r="RU13" s="225"/>
+      <c r="RV13" s="5"/>
+      <c r="RW13" s="5"/>
+      <c r="RX13" s="6"/>
+      <c r="RY13" s="6"/>
+      <c r="RZ13" s="5"/>
+      <c r="SA13" s="5"/>
+      <c r="SB13" s="5"/>
+      <c r="SC13" s="5"/>
+      <c r="SD13" s="5"/>
+      <c r="SE13" s="6"/>
+      <c r="SF13" s="6"/>
+      <c r="SG13" s="5"/>
+      <c r="SH13" s="5"/>
+      <c r="SI13" s="5"/>
+      <c r="SJ13" s="5"/>
+      <c r="SK13" s="5"/>
+      <c r="SL13" s="6"/>
+      <c r="SM13" s="6"/>
+      <c r="SN13" s="5"/>
+      <c r="SO13" s="5"/>
+      <c r="SP13" s="5"/>
+      <c r="SQ13" s="5"/>
+      <c r="SR13" s="5"/>
+      <c r="SS13" s="6"/>
+      <c r="ST13" s="6"/>
+      <c r="SU13" s="5"/>
+      <c r="SV13" s="5"/>
+      <c r="SW13" s="5"/>
+      <c r="SX13" s="5"/>
+      <c r="SY13" s="5"/>
+      <c r="SZ13" s="179"/>
+      <c r="TA13" s="6"/>
+      <c r="TB13" s="5"/>
+      <c r="TC13" s="5"/>
+      <c r="TD13" s="5"/>
+      <c r="TE13" s="5"/>
+      <c r="TF13" s="5"/>
+      <c r="TG13" s="6"/>
+      <c r="TH13" s="6"/>
+      <c r="TI13" s="5"/>
+      <c r="TJ13" s="5"/>
+      <c r="TK13" s="5"/>
+      <c r="TL13" s="5"/>
+      <c r="TM13" s="5"/>
+      <c r="TN13" s="6"/>
+      <c r="TO13" s="6"/>
+      <c r="TP13" s="5"/>
+      <c r="TQ13" s="5"/>
+      <c r="TR13" s="5"/>
+      <c r="TS13" s="5"/>
+      <c r="TT13" s="5"/>
+      <c r="TU13" s="6"/>
+      <c r="TV13" s="6"/>
+      <c r="TW13" s="5"/>
+      <c r="TX13" s="5"/>
+      <c r="TY13" s="5"/>
+      <c r="TZ13" s="5"/>
+      <c r="UA13" s="5"/>
+      <c r="UB13" s="234"/>
+      <c r="UC13" s="6"/>
     </row>
-    <row r="14" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="201"/>
       <c r="B14" s="80"/>
       <c r="C14" s="81"/>
@@ -8983,8 +9625,69 @@
       <c r="RR14" s="15"/>
       <c r="RS14" s="14"/>
       <c r="RT14" s="18"/>
+      <c r="RU14" s="226"/>
+      <c r="RV14" s="14"/>
+      <c r="RW14" s="14"/>
+      <c r="RX14" s="15"/>
+      <c r="RY14" s="15"/>
+      <c r="RZ14" s="14"/>
+      <c r="SA14" s="14"/>
+      <c r="SB14" s="14"/>
+      <c r="SC14" s="14"/>
+      <c r="SD14" s="14"/>
+      <c r="SE14" s="15"/>
+      <c r="SF14" s="15"/>
+      <c r="SG14" s="14"/>
+      <c r="SH14" s="14"/>
+      <c r="SI14" s="14"/>
+      <c r="SJ14" s="14"/>
+      <c r="SK14" s="14"/>
+      <c r="SL14" s="15"/>
+      <c r="SM14" s="15"/>
+      <c r="SN14" s="14"/>
+      <c r="SO14" s="14"/>
+      <c r="SP14" s="14"/>
+      <c r="SQ14" s="14"/>
+      <c r="SR14" s="14"/>
+      <c r="SS14" s="15"/>
+      <c r="ST14" s="15"/>
+      <c r="SU14" s="14"/>
+      <c r="SV14" s="14"/>
+      <c r="SW14" s="14"/>
+      <c r="SX14" s="14"/>
+      <c r="SY14" s="14"/>
+      <c r="SZ14" s="180"/>
+      <c r="TA14" s="15"/>
+      <c r="TB14" s="14"/>
+      <c r="TC14" s="14"/>
+      <c r="TD14" s="14"/>
+      <c r="TE14" s="14"/>
+      <c r="TF14" s="14"/>
+      <c r="TG14" s="15"/>
+      <c r="TH14" s="15"/>
+      <c r="TI14" s="14"/>
+      <c r="TJ14" s="14"/>
+      <c r="TK14" s="14"/>
+      <c r="TL14" s="14"/>
+      <c r="TM14" s="14"/>
+      <c r="TN14" s="15"/>
+      <c r="TO14" s="15"/>
+      <c r="TP14" s="14"/>
+      <c r="TQ14" s="14"/>
+      <c r="TR14" s="14"/>
+      <c r="TS14" s="14"/>
+      <c r="TT14" s="14"/>
+      <c r="TU14" s="15"/>
+      <c r="TV14" s="15"/>
+      <c r="TW14" s="14"/>
+      <c r="TX14" s="14"/>
+      <c r="TY14" s="14"/>
+      <c r="TZ14" s="14"/>
+      <c r="UA14" s="14"/>
+      <c r="UB14" s="235"/>
+      <c r="UC14" s="15"/>
     </row>
-    <row r="15" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="211" t="s">
         <v>5</v>
       </c>
@@ -9477,8 +10180,69 @@
       <c r="RR15" s="27"/>
       <c r="RS15" s="26"/>
       <c r="RT15" s="29"/>
+      <c r="RU15" s="227"/>
+      <c r="RV15" s="26"/>
+      <c r="RW15" s="26"/>
+      <c r="RX15" s="27"/>
+      <c r="RY15" s="27"/>
+      <c r="RZ15" s="26"/>
+      <c r="SA15" s="26"/>
+      <c r="SB15" s="26"/>
+      <c r="SC15" s="26"/>
+      <c r="SD15" s="26"/>
+      <c r="SE15" s="27"/>
+      <c r="SF15" s="27"/>
+      <c r="SG15" s="26"/>
+      <c r="SH15" s="26"/>
+      <c r="SI15" s="26"/>
+      <c r="SJ15" s="26"/>
+      <c r="SK15" s="26"/>
+      <c r="SL15" s="27"/>
+      <c r="SM15" s="27"/>
+      <c r="SN15" s="26"/>
+      <c r="SO15" s="26"/>
+      <c r="SP15" s="26"/>
+      <c r="SQ15" s="26"/>
+      <c r="SR15" s="26"/>
+      <c r="SS15" s="27"/>
+      <c r="ST15" s="27"/>
+      <c r="SU15" s="26"/>
+      <c r="SV15" s="26"/>
+      <c r="SW15" s="26"/>
+      <c r="SX15" s="26"/>
+      <c r="SY15" s="26"/>
+      <c r="SZ15" s="181"/>
+      <c r="TA15" s="27"/>
+      <c r="TB15" s="26"/>
+      <c r="TC15" s="26"/>
+      <c r="TD15" s="26"/>
+      <c r="TE15" s="26"/>
+      <c r="TF15" s="26"/>
+      <c r="TG15" s="27"/>
+      <c r="TH15" s="27"/>
+      <c r="TI15" s="26"/>
+      <c r="TJ15" s="26"/>
+      <c r="TK15" s="26"/>
+      <c r="TL15" s="26"/>
+      <c r="TM15" s="26"/>
+      <c r="TN15" s="27"/>
+      <c r="TO15" s="27"/>
+      <c r="TP15" s="26"/>
+      <c r="TQ15" s="26"/>
+      <c r="TR15" s="26"/>
+      <c r="TS15" s="26"/>
+      <c r="TT15" s="26"/>
+      <c r="TU15" s="27"/>
+      <c r="TV15" s="27"/>
+      <c r="TW15" s="26"/>
+      <c r="TX15" s="26"/>
+      <c r="TY15" s="26"/>
+      <c r="TZ15" s="26"/>
+      <c r="UA15" s="26"/>
+      <c r="UB15" s="236"/>
+      <c r="UC15" s="27"/>
     </row>
-    <row r="16" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="201"/>
       <c r="B16" s="94"/>
       <c r="C16" s="95"/>
@@ -9963,7 +10727,9 @@
       <c r="QX16" s="11"/>
       <c r="QY16" s="11"/>
       <c r="QZ16" s="11"/>
-      <c r="RA16" s="11"/>
+      <c r="RA16" s="191" t="s">
+        <v>172</v>
+      </c>
       <c r="RB16" s="11"/>
       <c r="RC16" s="12"/>
       <c r="RD16" s="12"/>
@@ -9983,8 +10749,69 @@
       <c r="RR16" s="12"/>
       <c r="RS16" s="11"/>
       <c r="RT16" s="13"/>
+      <c r="RU16" s="228"/>
+      <c r="RV16" s="11"/>
+      <c r="RW16" s="11"/>
+      <c r="RX16" s="12"/>
+      <c r="RY16" s="12"/>
+      <c r="RZ16" s="11"/>
+      <c r="SA16" s="11"/>
+      <c r="SB16" s="11"/>
+      <c r="SC16" s="11"/>
+      <c r="SD16" s="11"/>
+      <c r="SE16" s="12"/>
+      <c r="SF16" s="12"/>
+      <c r="SG16" s="11"/>
+      <c r="SH16" s="11"/>
+      <c r="SI16" s="11"/>
+      <c r="SJ16" s="11"/>
+      <c r="SK16" s="11"/>
+      <c r="SL16" s="12"/>
+      <c r="SM16" s="12"/>
+      <c r="SN16" s="11"/>
+      <c r="SO16" s="11"/>
+      <c r="SP16" s="11"/>
+      <c r="SQ16" s="11"/>
+      <c r="SR16" s="11"/>
+      <c r="SS16" s="12"/>
+      <c r="ST16" s="12"/>
+      <c r="SU16" s="11"/>
+      <c r="SV16" s="11"/>
+      <c r="SW16" s="11"/>
+      <c r="SX16" s="11"/>
+      <c r="SY16" s="11"/>
+      <c r="SZ16" s="182"/>
+      <c r="TA16" s="12"/>
+      <c r="TB16" s="11"/>
+      <c r="TC16" s="11"/>
+      <c r="TD16" s="11"/>
+      <c r="TE16" s="11"/>
+      <c r="TF16" s="11"/>
+      <c r="TG16" s="12"/>
+      <c r="TH16" s="12"/>
+      <c r="TI16" s="11"/>
+      <c r="TJ16" s="11"/>
+      <c r="TK16" s="11"/>
+      <c r="TL16" s="11"/>
+      <c r="TM16" s="11"/>
+      <c r="TN16" s="12"/>
+      <c r="TO16" s="12"/>
+      <c r="TP16" s="11"/>
+      <c r="TQ16" s="11"/>
+      <c r="TR16" s="11"/>
+      <c r="TS16" s="11"/>
+      <c r="TT16" s="11"/>
+      <c r="TU16" s="12"/>
+      <c r="TV16" s="12"/>
+      <c r="TW16" s="11"/>
+      <c r="TX16" s="11"/>
+      <c r="TY16" s="11"/>
+      <c r="TZ16" s="11"/>
+      <c r="UA16" s="11"/>
+      <c r="UB16" s="237"/>
+      <c r="UC16" s="12"/>
     </row>
-    <row r="17" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="201"/>
       <c r="B17" s="94"/>
       <c r="C17" s="95"/>
@@ -10464,7 +11291,9 @@
       <c r="QX17" s="2"/>
       <c r="QY17" s="2"/>
       <c r="QZ17" s="2"/>
-      <c r="RA17" s="2"/>
+      <c r="RA17" s="191" t="s">
+        <v>173</v>
+      </c>
       <c r="RB17" s="2"/>
       <c r="RC17" s="1"/>
       <c r="RD17" s="1"/>
@@ -10484,8 +11313,69 @@
       <c r="RR17" s="1"/>
       <c r="RS17" s="2"/>
       <c r="RT17" s="4"/>
+      <c r="RU17" s="229"/>
+      <c r="RV17" s="2"/>
+      <c r="RW17" s="2"/>
+      <c r="RX17" s="1"/>
+      <c r="RY17" s="1"/>
+      <c r="RZ17" s="2"/>
+      <c r="SA17" s="2"/>
+      <c r="SB17" s="2"/>
+      <c r="SC17" s="2"/>
+      <c r="SD17" s="2"/>
+      <c r="SE17" s="1"/>
+      <c r="SF17" s="1"/>
+      <c r="SG17" s="2"/>
+      <c r="SH17" s="2"/>
+      <c r="SI17" s="2"/>
+      <c r="SJ17" s="2"/>
+      <c r="SK17" s="2"/>
+      <c r="SL17" s="1"/>
+      <c r="SM17" s="1"/>
+      <c r="SN17" s="2"/>
+      <c r="SO17" s="2"/>
+      <c r="SP17" s="2"/>
+      <c r="SQ17" s="2"/>
+      <c r="SR17" s="2"/>
+      <c r="SS17" s="1"/>
+      <c r="ST17" s="1"/>
+      <c r="SU17" s="2"/>
+      <c r="SV17" s="2"/>
+      <c r="SW17" s="2"/>
+      <c r="SX17" s="2"/>
+      <c r="SY17" s="2"/>
+      <c r="SZ17" s="183"/>
+      <c r="TA17" s="1"/>
+      <c r="TB17" s="2"/>
+      <c r="TC17" s="2"/>
+      <c r="TD17" s="2"/>
+      <c r="TE17" s="2"/>
+      <c r="TF17" s="2"/>
+      <c r="TG17" s="1"/>
+      <c r="TH17" s="1"/>
+      <c r="TI17" s="2"/>
+      <c r="TJ17" s="2"/>
+      <c r="TK17" s="2"/>
+      <c r="TL17" s="2"/>
+      <c r="TM17" s="2"/>
+      <c r="TN17" s="1"/>
+      <c r="TO17" s="1"/>
+      <c r="TP17" s="2"/>
+      <c r="TQ17" s="2"/>
+      <c r="TR17" s="2"/>
+      <c r="TS17" s="2"/>
+      <c r="TT17" s="2"/>
+      <c r="TU17" s="1"/>
+      <c r="TV17" s="1"/>
+      <c r="TW17" s="2"/>
+      <c r="TX17" s="2"/>
+      <c r="TY17" s="2"/>
+      <c r="TZ17" s="2"/>
+      <c r="UA17" s="2"/>
+      <c r="UB17" s="238"/>
+      <c r="UC17" s="1"/>
     </row>
-    <row r="18" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="201"/>
       <c r="B18" s="94"/>
       <c r="C18" s="95"/>
@@ -10979,8 +11869,69 @@
       <c r="RR18" s="1"/>
       <c r="RS18" s="2"/>
       <c r="RT18" s="4"/>
+      <c r="RU18" s="229"/>
+      <c r="RV18" s="2"/>
+      <c r="RW18" s="2"/>
+      <c r="RX18" s="1"/>
+      <c r="RY18" s="1"/>
+      <c r="RZ18" s="2"/>
+      <c r="SA18" s="2"/>
+      <c r="SB18" s="2"/>
+      <c r="SC18" s="2"/>
+      <c r="SD18" s="2"/>
+      <c r="SE18" s="1"/>
+      <c r="SF18" s="1"/>
+      <c r="SG18" s="2"/>
+      <c r="SH18" s="2"/>
+      <c r="SI18" s="2"/>
+      <c r="SJ18" s="2"/>
+      <c r="SK18" s="2"/>
+      <c r="SL18" s="1"/>
+      <c r="SM18" s="1"/>
+      <c r="SN18" s="2"/>
+      <c r="SO18" s="2"/>
+      <c r="SP18" s="2"/>
+      <c r="SQ18" s="2"/>
+      <c r="SR18" s="2"/>
+      <c r="SS18" s="1"/>
+      <c r="ST18" s="1"/>
+      <c r="SU18" s="2"/>
+      <c r="SV18" s="2"/>
+      <c r="SW18" s="2"/>
+      <c r="SX18" s="2"/>
+      <c r="SY18" s="2"/>
+      <c r="SZ18" s="183"/>
+      <c r="TA18" s="1"/>
+      <c r="TB18" s="2"/>
+      <c r="TC18" s="2"/>
+      <c r="TD18" s="2"/>
+      <c r="TE18" s="2"/>
+      <c r="TF18" s="2"/>
+      <c r="TG18" s="1"/>
+      <c r="TH18" s="1"/>
+      <c r="TI18" s="2"/>
+      <c r="TJ18" s="2"/>
+      <c r="TK18" s="2"/>
+      <c r="TL18" s="2"/>
+      <c r="TM18" s="2"/>
+      <c r="TN18" s="1"/>
+      <c r="TO18" s="1"/>
+      <c r="TP18" s="2"/>
+      <c r="TQ18" s="2"/>
+      <c r="TR18" s="2"/>
+      <c r="TS18" s="2"/>
+      <c r="TT18" s="2"/>
+      <c r="TU18" s="1"/>
+      <c r="TV18" s="1"/>
+      <c r="TW18" s="2"/>
+      <c r="TX18" s="2"/>
+      <c r="TY18" s="2"/>
+      <c r="TZ18" s="2"/>
+      <c r="UA18" s="2"/>
+      <c r="UB18" s="238"/>
+      <c r="UC18" s="1"/>
     </row>
-    <row r="19" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="201"/>
       <c r="B19" s="94"/>
       <c r="C19" s="95"/>
@@ -11469,8 +12420,69 @@
       <c r="RR19" s="1"/>
       <c r="RS19" s="2"/>
       <c r="RT19" s="4"/>
+      <c r="RU19" s="229"/>
+      <c r="RV19" s="2"/>
+      <c r="RW19" s="2"/>
+      <c r="RX19" s="1"/>
+      <c r="RY19" s="1"/>
+      <c r="RZ19" s="2"/>
+      <c r="SA19" s="2"/>
+      <c r="SB19" s="2"/>
+      <c r="SC19" s="2"/>
+      <c r="SD19" s="2"/>
+      <c r="SE19" s="1"/>
+      <c r="SF19" s="1"/>
+      <c r="SG19" s="2"/>
+      <c r="SH19" s="2"/>
+      <c r="SI19" s="2"/>
+      <c r="SJ19" s="2"/>
+      <c r="SK19" s="2"/>
+      <c r="SL19" s="1"/>
+      <c r="SM19" s="1"/>
+      <c r="SN19" s="2"/>
+      <c r="SO19" s="2"/>
+      <c r="SP19" s="2"/>
+      <c r="SQ19" s="2"/>
+      <c r="SR19" s="2"/>
+      <c r="SS19" s="1"/>
+      <c r="ST19" s="1"/>
+      <c r="SU19" s="2"/>
+      <c r="SV19" s="2"/>
+      <c r="SW19" s="2"/>
+      <c r="SX19" s="2"/>
+      <c r="SY19" s="2"/>
+      <c r="SZ19" s="183"/>
+      <c r="TA19" s="1"/>
+      <c r="TB19" s="2"/>
+      <c r="TC19" s="2"/>
+      <c r="TD19" s="2"/>
+      <c r="TE19" s="2"/>
+      <c r="TF19" s="2"/>
+      <c r="TG19" s="1"/>
+      <c r="TH19" s="1"/>
+      <c r="TI19" s="2"/>
+      <c r="TJ19" s="2"/>
+      <c r="TK19" s="2"/>
+      <c r="TL19" s="2"/>
+      <c r="TM19" s="2"/>
+      <c r="TN19" s="1"/>
+      <c r="TO19" s="1"/>
+      <c r="TP19" s="2"/>
+      <c r="TQ19" s="2"/>
+      <c r="TR19" s="2"/>
+      <c r="TS19" s="2"/>
+      <c r="TT19" s="2"/>
+      <c r="TU19" s="1"/>
+      <c r="TV19" s="1"/>
+      <c r="TW19" s="2"/>
+      <c r="TX19" s="2"/>
+      <c r="TY19" s="2"/>
+      <c r="TZ19" s="2"/>
+      <c r="UA19" s="2"/>
+      <c r="UB19" s="238"/>
+      <c r="UC19" s="1"/>
     </row>
-    <row r="20" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="201"/>
       <c r="B20" s="94"/>
       <c r="C20" s="95"/>
@@ -11959,8 +12971,69 @@
       <c r="RR20" s="1"/>
       <c r="RS20" s="2"/>
       <c r="RT20" s="4"/>
+      <c r="RU20" s="229"/>
+      <c r="RV20" s="2"/>
+      <c r="RW20" s="2"/>
+      <c r="RX20" s="1"/>
+      <c r="RY20" s="1"/>
+      <c r="RZ20" s="2"/>
+      <c r="SA20" s="2"/>
+      <c r="SB20" s="2"/>
+      <c r="SC20" s="2"/>
+      <c r="SD20" s="2"/>
+      <c r="SE20" s="1"/>
+      <c r="SF20" s="1"/>
+      <c r="SG20" s="2"/>
+      <c r="SH20" s="2"/>
+      <c r="SI20" s="2"/>
+      <c r="SJ20" s="2"/>
+      <c r="SK20" s="2"/>
+      <c r="SL20" s="1"/>
+      <c r="SM20" s="1"/>
+      <c r="SN20" s="2"/>
+      <c r="SO20" s="2"/>
+      <c r="SP20" s="2"/>
+      <c r="SQ20" s="2"/>
+      <c r="SR20" s="2"/>
+      <c r="SS20" s="1"/>
+      <c r="ST20" s="1"/>
+      <c r="SU20" s="2"/>
+      <c r="SV20" s="2"/>
+      <c r="SW20" s="2"/>
+      <c r="SX20" s="2"/>
+      <c r="SY20" s="2"/>
+      <c r="SZ20" s="183"/>
+      <c r="TA20" s="1"/>
+      <c r="TB20" s="2"/>
+      <c r="TC20" s="2"/>
+      <c r="TD20" s="2"/>
+      <c r="TE20" s="2"/>
+      <c r="TF20" s="2"/>
+      <c r="TG20" s="1"/>
+      <c r="TH20" s="1"/>
+      <c r="TI20" s="2"/>
+      <c r="TJ20" s="2"/>
+      <c r="TK20" s="2"/>
+      <c r="TL20" s="2"/>
+      <c r="TM20" s="2"/>
+      <c r="TN20" s="1"/>
+      <c r="TO20" s="1"/>
+      <c r="TP20" s="2"/>
+      <c r="TQ20" s="2"/>
+      <c r="TR20" s="2"/>
+      <c r="TS20" s="2"/>
+      <c r="TT20" s="2"/>
+      <c r="TU20" s="1"/>
+      <c r="TV20" s="1"/>
+      <c r="TW20" s="2"/>
+      <c r="TX20" s="2"/>
+      <c r="TY20" s="2"/>
+      <c r="TZ20" s="2"/>
+      <c r="UA20" s="2"/>
+      <c r="UB20" s="238"/>
+      <c r="UC20" s="1"/>
     </row>
-    <row r="21" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="201"/>
       <c r="B21" s="94"/>
       <c r="C21" s="95"/>
@@ -12449,8 +13522,69 @@
       <c r="RR21" s="123"/>
       <c r="RS21" s="124"/>
       <c r="RT21" s="126"/>
+      <c r="RU21" s="230"/>
+      <c r="RV21" s="124"/>
+      <c r="RW21" s="124"/>
+      <c r="RX21" s="123"/>
+      <c r="RY21" s="123"/>
+      <c r="RZ21" s="124"/>
+      <c r="SA21" s="124"/>
+      <c r="SB21" s="124"/>
+      <c r="SC21" s="124"/>
+      <c r="SD21" s="124"/>
+      <c r="SE21" s="123"/>
+      <c r="SF21" s="123"/>
+      <c r="SG21" s="124"/>
+      <c r="SH21" s="124"/>
+      <c r="SI21" s="124"/>
+      <c r="SJ21" s="124"/>
+      <c r="SK21" s="124"/>
+      <c r="SL21" s="123"/>
+      <c r="SM21" s="123"/>
+      <c r="SN21" s="124"/>
+      <c r="SO21" s="124"/>
+      <c r="SP21" s="124"/>
+      <c r="SQ21" s="124"/>
+      <c r="SR21" s="124"/>
+      <c r="SS21" s="123"/>
+      <c r="ST21" s="123"/>
+      <c r="SU21" s="124"/>
+      <c r="SV21" s="124"/>
+      <c r="SW21" s="124"/>
+      <c r="SX21" s="124"/>
+      <c r="SY21" s="124"/>
+      <c r="SZ21" s="184"/>
+      <c r="TA21" s="123"/>
+      <c r="TB21" s="124"/>
+      <c r="TC21" s="124"/>
+      <c r="TD21" s="124"/>
+      <c r="TE21" s="124"/>
+      <c r="TF21" s="124"/>
+      <c r="TG21" s="123"/>
+      <c r="TH21" s="123"/>
+      <c r="TI21" s="124"/>
+      <c r="TJ21" s="124"/>
+      <c r="TK21" s="124"/>
+      <c r="TL21" s="124"/>
+      <c r="TM21" s="124"/>
+      <c r="TN21" s="123"/>
+      <c r="TO21" s="123"/>
+      <c r="TP21" s="124"/>
+      <c r="TQ21" s="124"/>
+      <c r="TR21" s="124"/>
+      <c r="TS21" s="124"/>
+      <c r="TT21" s="124"/>
+      <c r="TU21" s="123"/>
+      <c r="TV21" s="123"/>
+      <c r="TW21" s="124"/>
+      <c r="TX21" s="124"/>
+      <c r="TY21" s="124"/>
+      <c r="TZ21" s="124"/>
+      <c r="UA21" s="124"/>
+      <c r="UB21" s="239"/>
+      <c r="UC21" s="123"/>
     </row>
-    <row r="22" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="201"/>
       <c r="B22" s="101"/>
       <c r="C22" s="102"/>
@@ -12939,8 +14073,69 @@
       <c r="RR22" s="24"/>
       <c r="RS22" s="23"/>
       <c r="RT22" s="25"/>
+      <c r="RU22" s="231"/>
+      <c r="RV22" s="23"/>
+      <c r="RW22" s="23"/>
+      <c r="RX22" s="24"/>
+      <c r="RY22" s="24"/>
+      <c r="RZ22" s="23"/>
+      <c r="SA22" s="23"/>
+      <c r="SB22" s="23"/>
+      <c r="SC22" s="23"/>
+      <c r="SD22" s="23"/>
+      <c r="SE22" s="24"/>
+      <c r="SF22" s="24"/>
+      <c r="SG22" s="23"/>
+      <c r="SH22" s="23"/>
+      <c r="SI22" s="23"/>
+      <c r="SJ22" s="23"/>
+      <c r="SK22" s="23"/>
+      <c r="SL22" s="24"/>
+      <c r="SM22" s="24"/>
+      <c r="SN22" s="23"/>
+      <c r="SO22" s="23"/>
+      <c r="SP22" s="23"/>
+      <c r="SQ22" s="23"/>
+      <c r="SR22" s="23"/>
+      <c r="SS22" s="24"/>
+      <c r="ST22" s="24"/>
+      <c r="SU22" s="23"/>
+      <c r="SV22" s="23"/>
+      <c r="SW22" s="23"/>
+      <c r="SX22" s="23"/>
+      <c r="SY22" s="23"/>
+      <c r="SZ22" s="185"/>
+      <c r="TA22" s="24"/>
+      <c r="TB22" s="23"/>
+      <c r="TC22" s="23"/>
+      <c r="TD22" s="23"/>
+      <c r="TE22" s="23"/>
+      <c r="TF22" s="23"/>
+      <c r="TG22" s="24"/>
+      <c r="TH22" s="24"/>
+      <c r="TI22" s="23"/>
+      <c r="TJ22" s="23"/>
+      <c r="TK22" s="23"/>
+      <c r="TL22" s="23"/>
+      <c r="TM22" s="23"/>
+      <c r="TN22" s="24"/>
+      <c r="TO22" s="24"/>
+      <c r="TP22" s="23"/>
+      <c r="TQ22" s="23"/>
+      <c r="TR22" s="23"/>
+      <c r="TS22" s="23"/>
+      <c r="TT22" s="23"/>
+      <c r="TU22" s="24"/>
+      <c r="TV22" s="24"/>
+      <c r="TW22" s="23"/>
+      <c r="TX22" s="23"/>
+      <c r="TY22" s="23"/>
+      <c r="TZ22" s="23"/>
+      <c r="UA22" s="23"/>
+      <c r="UB22" s="240"/>
+      <c r="UC22" s="24"/>
     </row>
-    <row r="23" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="201" t="s">
         <v>29</v>
       </c>
@@ -13443,8 +14638,69 @@
       <c r="RR23" s="27"/>
       <c r="RS23" s="26"/>
       <c r="RT23" s="29"/>
+      <c r="RU23" s="227"/>
+      <c r="RV23" s="26"/>
+      <c r="RW23" s="26"/>
+      <c r="RX23" s="27"/>
+      <c r="RY23" s="27"/>
+      <c r="RZ23" s="26"/>
+      <c r="SA23" s="26"/>
+      <c r="SB23" s="26"/>
+      <c r="SC23" s="26"/>
+      <c r="SD23" s="26"/>
+      <c r="SE23" s="73"/>
+      <c r="SF23" s="27"/>
+      <c r="SG23" s="26"/>
+      <c r="SH23" s="26"/>
+      <c r="SI23" s="26"/>
+      <c r="SJ23" s="26"/>
+      <c r="SK23" s="26"/>
+      <c r="SL23" s="73"/>
+      <c r="SM23" s="27"/>
+      <c r="SN23" s="26"/>
+      <c r="SO23" s="26"/>
+      <c r="SP23" s="26"/>
+      <c r="SQ23" s="26"/>
+      <c r="SR23" s="26"/>
+      <c r="SS23" s="73"/>
+      <c r="ST23" s="27"/>
+      <c r="SU23" s="26"/>
+      <c r="SV23" s="26"/>
+      <c r="SW23" s="26"/>
+      <c r="SX23" s="26"/>
+      <c r="SY23" s="26"/>
+      <c r="SZ23" s="72"/>
+      <c r="TA23" s="27"/>
+      <c r="TB23" s="26"/>
+      <c r="TC23" s="26"/>
+      <c r="TD23" s="26"/>
+      <c r="TE23" s="26"/>
+      <c r="TF23" s="26"/>
+      <c r="TG23" s="73"/>
+      <c r="TH23" s="27"/>
+      <c r="TI23" s="26"/>
+      <c r="TJ23" s="26"/>
+      <c r="TK23" s="26"/>
+      <c r="TL23" s="26"/>
+      <c r="TM23" s="26"/>
+      <c r="TN23" s="73"/>
+      <c r="TO23" s="27"/>
+      <c r="TP23" s="26"/>
+      <c r="TQ23" s="26"/>
+      <c r="TR23" s="26"/>
+      <c r="TS23" s="26"/>
+      <c r="TT23" s="26"/>
+      <c r="TU23" s="73"/>
+      <c r="TV23" s="27"/>
+      <c r="TW23" s="26"/>
+      <c r="TX23" s="26"/>
+      <c r="TY23" s="26"/>
+      <c r="TZ23" s="26"/>
+      <c r="UA23" s="26"/>
+      <c r="UB23" s="76"/>
+      <c r="UC23" s="27"/>
     </row>
-    <row r="24" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="201"/>
       <c r="B24" s="94"/>
       <c r="C24" s="95"/>
@@ -13939,8 +15195,69 @@
       <c r="RR24" s="1"/>
       <c r="RS24" s="2"/>
       <c r="RT24" s="4"/>
+      <c r="RU24" s="229"/>
+      <c r="RV24" s="2"/>
+      <c r="RW24" s="2"/>
+      <c r="RX24" s="1"/>
+      <c r="RY24" s="1"/>
+      <c r="RZ24" s="2"/>
+      <c r="SA24" s="2"/>
+      <c r="SB24" s="2"/>
+      <c r="SC24" s="2"/>
+      <c r="SD24" s="2"/>
+      <c r="SE24" s="1"/>
+      <c r="SF24" s="1"/>
+      <c r="SG24" s="2"/>
+      <c r="SH24" s="2"/>
+      <c r="SI24" s="2"/>
+      <c r="SJ24" s="2"/>
+      <c r="SK24" s="2"/>
+      <c r="SL24" s="1"/>
+      <c r="SM24" s="1"/>
+      <c r="SN24" s="2"/>
+      <c r="SO24" s="2"/>
+      <c r="SP24" s="2"/>
+      <c r="SQ24" s="2"/>
+      <c r="SR24" s="2"/>
+      <c r="SS24" s="1"/>
+      <c r="ST24" s="1"/>
+      <c r="SU24" s="2"/>
+      <c r="SV24" s="2"/>
+      <c r="SW24" s="2"/>
+      <c r="SX24" s="2"/>
+      <c r="SY24" s="2"/>
+      <c r="SZ24" s="183"/>
+      <c r="TA24" s="1"/>
+      <c r="TB24" s="2"/>
+      <c r="TC24" s="2"/>
+      <c r="TD24" s="2"/>
+      <c r="TE24" s="2"/>
+      <c r="TF24" s="2"/>
+      <c r="TG24" s="1"/>
+      <c r="TH24" s="1"/>
+      <c r="TI24" s="2"/>
+      <c r="TJ24" s="2"/>
+      <c r="TK24" s="2"/>
+      <c r="TL24" s="2"/>
+      <c r="TM24" s="2"/>
+      <c r="TN24" s="1"/>
+      <c r="TO24" s="1"/>
+      <c r="TP24" s="2"/>
+      <c r="TQ24" s="2"/>
+      <c r="TR24" s="2"/>
+      <c r="TS24" s="2"/>
+      <c r="TT24" s="2"/>
+      <c r="TU24" s="1"/>
+      <c r="TV24" s="1"/>
+      <c r="TW24" s="2"/>
+      <c r="TX24" s="2"/>
+      <c r="TY24" s="2"/>
+      <c r="TZ24" s="2"/>
+      <c r="UA24" s="2"/>
+      <c r="UB24" s="238"/>
+      <c r="UC24" s="1"/>
     </row>
-    <row r="25" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="201"/>
       <c r="B25" s="94"/>
       <c r="C25" s="95"/>
@@ -14443,8 +15760,69 @@
       <c r="RR25" s="1"/>
       <c r="RS25" s="2"/>
       <c r="RT25" s="4"/>
+      <c r="RU25" s="229"/>
+      <c r="RV25" s="2"/>
+      <c r="RW25" s="2"/>
+      <c r="RX25" s="1"/>
+      <c r="RY25" s="1"/>
+      <c r="RZ25" s="2"/>
+      <c r="SA25" s="2"/>
+      <c r="SB25" s="2"/>
+      <c r="SC25" s="2"/>
+      <c r="SD25" s="2"/>
+      <c r="SE25" s="1"/>
+      <c r="SF25" s="1"/>
+      <c r="SG25" s="2"/>
+      <c r="SH25" s="2"/>
+      <c r="SI25" s="2"/>
+      <c r="SJ25" s="2"/>
+      <c r="SK25" s="2"/>
+      <c r="SL25" s="1"/>
+      <c r="SM25" s="1"/>
+      <c r="SN25" s="2"/>
+      <c r="SO25" s="2"/>
+      <c r="SP25" s="2"/>
+      <c r="SQ25" s="2"/>
+      <c r="SR25" s="2"/>
+      <c r="SS25" s="1"/>
+      <c r="ST25" s="1"/>
+      <c r="SU25" s="2"/>
+      <c r="SV25" s="2"/>
+      <c r="SW25" s="2"/>
+      <c r="SX25" s="2"/>
+      <c r="SY25" s="2"/>
+      <c r="SZ25" s="183"/>
+      <c r="TA25" s="1"/>
+      <c r="TB25" s="2"/>
+      <c r="TC25" s="2"/>
+      <c r="TD25" s="2"/>
+      <c r="TE25" s="2"/>
+      <c r="TF25" s="2"/>
+      <c r="TG25" s="1"/>
+      <c r="TH25" s="1"/>
+      <c r="TI25" s="2"/>
+      <c r="TJ25" s="2"/>
+      <c r="TK25" s="2"/>
+      <c r="TL25" s="2"/>
+      <c r="TM25" s="2"/>
+      <c r="TN25" s="1"/>
+      <c r="TO25" s="1"/>
+      <c r="TP25" s="2"/>
+      <c r="TQ25" s="2"/>
+      <c r="TR25" s="2"/>
+      <c r="TS25" s="2"/>
+      <c r="TT25" s="2"/>
+      <c r="TU25" s="1"/>
+      <c r="TV25" s="1"/>
+      <c r="TW25" s="2"/>
+      <c r="TX25" s="2"/>
+      <c r="TY25" s="2"/>
+      <c r="TZ25" s="2"/>
+      <c r="UA25" s="2"/>
+      <c r="UB25" s="238"/>
+      <c r="UC25" s="1"/>
     </row>
-    <row r="26" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="201"/>
       <c r="B26" s="94"/>
       <c r="C26" s="95"/>
@@ -14945,8 +16323,69 @@
       <c r="RR26" s="1"/>
       <c r="RS26" s="2"/>
       <c r="RT26" s="4"/>
+      <c r="RU26" s="229"/>
+      <c r="RV26" s="2"/>
+      <c r="RW26" s="2"/>
+      <c r="RX26" s="1"/>
+      <c r="RY26" s="1"/>
+      <c r="RZ26" s="2"/>
+      <c r="SA26" s="2"/>
+      <c r="SB26" s="2"/>
+      <c r="SC26" s="2"/>
+      <c r="SD26" s="2"/>
+      <c r="SE26" s="1"/>
+      <c r="SF26" s="1"/>
+      <c r="SG26" s="2"/>
+      <c r="SH26" s="2"/>
+      <c r="SI26" s="2"/>
+      <c r="SJ26" s="2"/>
+      <c r="SK26" s="2"/>
+      <c r="SL26" s="1"/>
+      <c r="SM26" s="1"/>
+      <c r="SN26" s="2"/>
+      <c r="SO26" s="2"/>
+      <c r="SP26" s="2"/>
+      <c r="SQ26" s="2"/>
+      <c r="SR26" s="2"/>
+      <c r="SS26" s="1"/>
+      <c r="ST26" s="1"/>
+      <c r="SU26" s="2"/>
+      <c r="SV26" s="2"/>
+      <c r="SW26" s="2"/>
+      <c r="SX26" s="2"/>
+      <c r="SY26" s="2"/>
+      <c r="SZ26" s="183"/>
+      <c r="TA26" s="1"/>
+      <c r="TB26" s="2"/>
+      <c r="TC26" s="2"/>
+      <c r="TD26" s="2"/>
+      <c r="TE26" s="2"/>
+      <c r="TF26" s="2"/>
+      <c r="TG26" s="1"/>
+      <c r="TH26" s="1"/>
+      <c r="TI26" s="2"/>
+      <c r="TJ26" s="2"/>
+      <c r="TK26" s="2"/>
+      <c r="TL26" s="2"/>
+      <c r="TM26" s="2"/>
+      <c r="TN26" s="1"/>
+      <c r="TO26" s="1"/>
+      <c r="TP26" s="2"/>
+      <c r="TQ26" s="2"/>
+      <c r="TR26" s="2"/>
+      <c r="TS26" s="2"/>
+      <c r="TT26" s="2"/>
+      <c r="TU26" s="1"/>
+      <c r="TV26" s="1"/>
+      <c r="TW26" s="2"/>
+      <c r="TX26" s="2"/>
+      <c r="TY26" s="2"/>
+      <c r="TZ26" s="2"/>
+      <c r="UA26" s="2"/>
+      <c r="UB26" s="238"/>
+      <c r="UC26" s="1"/>
     </row>
-    <row r="27" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="201"/>
       <c r="B27" s="94"/>
       <c r="C27" s="95"/>
@@ -15441,8 +16880,69 @@
       <c r="RR27" s="1"/>
       <c r="RS27" s="2"/>
       <c r="RT27" s="4"/>
+      <c r="RU27" s="229"/>
+      <c r="RV27" s="2"/>
+      <c r="RW27" s="2"/>
+      <c r="RX27" s="1"/>
+      <c r="RY27" s="1"/>
+      <c r="RZ27" s="2"/>
+      <c r="SA27" s="2"/>
+      <c r="SB27" s="2"/>
+      <c r="SC27" s="2"/>
+      <c r="SD27" s="2"/>
+      <c r="SE27" s="1"/>
+      <c r="SF27" s="1"/>
+      <c r="SG27" s="2"/>
+      <c r="SH27" s="2"/>
+      <c r="SI27" s="2"/>
+      <c r="SJ27" s="2"/>
+      <c r="SK27" s="2"/>
+      <c r="SL27" s="1"/>
+      <c r="SM27" s="1"/>
+      <c r="SN27" s="2"/>
+      <c r="SO27" s="2"/>
+      <c r="SP27" s="2"/>
+      <c r="SQ27" s="2"/>
+      <c r="SR27" s="2"/>
+      <c r="SS27" s="1"/>
+      <c r="ST27" s="1"/>
+      <c r="SU27" s="2"/>
+      <c r="SV27" s="2"/>
+      <c r="SW27" s="2"/>
+      <c r="SX27" s="2"/>
+      <c r="SY27" s="2"/>
+      <c r="SZ27" s="183"/>
+      <c r="TA27" s="1"/>
+      <c r="TB27" s="2"/>
+      <c r="TC27" s="2"/>
+      <c r="TD27" s="2"/>
+      <c r="TE27" s="2"/>
+      <c r="TF27" s="2"/>
+      <c r="TG27" s="1"/>
+      <c r="TH27" s="1"/>
+      <c r="TI27" s="2"/>
+      <c r="TJ27" s="2"/>
+      <c r="TK27" s="2"/>
+      <c r="TL27" s="2"/>
+      <c r="TM27" s="2"/>
+      <c r="TN27" s="1"/>
+      <c r="TO27" s="1"/>
+      <c r="TP27" s="2"/>
+      <c r="TQ27" s="2"/>
+      <c r="TR27" s="2"/>
+      <c r="TS27" s="2"/>
+      <c r="TT27" s="2"/>
+      <c r="TU27" s="1"/>
+      <c r="TV27" s="1"/>
+      <c r="TW27" s="2"/>
+      <c r="TX27" s="2"/>
+      <c r="TY27" s="2"/>
+      <c r="TZ27" s="2"/>
+      <c r="UA27" s="2"/>
+      <c r="UB27" s="238"/>
+      <c r="UC27" s="1"/>
     </row>
-    <row r="28" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="201"/>
       <c r="B28" s="94"/>
       <c r="C28" s="95"/>
@@ -15933,8 +17433,69 @@
       <c r="RR28" s="1"/>
       <c r="RS28" s="2"/>
       <c r="RT28" s="4"/>
+      <c r="RU28" s="229"/>
+      <c r="RV28" s="2"/>
+      <c r="RW28" s="2"/>
+      <c r="RX28" s="1"/>
+      <c r="RY28" s="1"/>
+      <c r="RZ28" s="2"/>
+      <c r="SA28" s="2"/>
+      <c r="SB28" s="2"/>
+      <c r="SC28" s="2"/>
+      <c r="SD28" s="2"/>
+      <c r="SE28" s="1"/>
+      <c r="SF28" s="1"/>
+      <c r="SG28" s="2"/>
+      <c r="SH28" s="2"/>
+      <c r="SI28" s="2"/>
+      <c r="SJ28" s="2"/>
+      <c r="SK28" s="2"/>
+      <c r="SL28" s="1"/>
+      <c r="SM28" s="1"/>
+      <c r="SN28" s="2"/>
+      <c r="SO28" s="2"/>
+      <c r="SP28" s="2"/>
+      <c r="SQ28" s="2"/>
+      <c r="SR28" s="2"/>
+      <c r="SS28" s="1"/>
+      <c r="ST28" s="1"/>
+      <c r="SU28" s="2"/>
+      <c r="SV28" s="2"/>
+      <c r="SW28" s="2"/>
+      <c r="SX28" s="2"/>
+      <c r="SY28" s="2"/>
+      <c r="SZ28" s="183"/>
+      <c r="TA28" s="1"/>
+      <c r="TB28" s="2"/>
+      <c r="TC28" s="2"/>
+      <c r="TD28" s="2"/>
+      <c r="TE28" s="2"/>
+      <c r="TF28" s="2"/>
+      <c r="TG28" s="1"/>
+      <c r="TH28" s="1"/>
+      <c r="TI28" s="2"/>
+      <c r="TJ28" s="2"/>
+      <c r="TK28" s="2"/>
+      <c r="TL28" s="2"/>
+      <c r="TM28" s="2"/>
+      <c r="TN28" s="1"/>
+      <c r="TO28" s="1"/>
+      <c r="TP28" s="2"/>
+      <c r="TQ28" s="2"/>
+      <c r="TR28" s="2"/>
+      <c r="TS28" s="2"/>
+      <c r="TT28" s="2"/>
+      <c r="TU28" s="1"/>
+      <c r="TV28" s="1"/>
+      <c r="TW28" s="2"/>
+      <c r="TX28" s="2"/>
+      <c r="TY28" s="2"/>
+      <c r="TZ28" s="2"/>
+      <c r="UA28" s="2"/>
+      <c r="UB28" s="238"/>
+      <c r="UC28" s="1"/>
     </row>
-    <row r="29" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="201"/>
       <c r="B29" s="94"/>
       <c r="C29" s="95"/>
@@ -16425,8 +17986,69 @@
       <c r="RR29" s="1"/>
       <c r="RS29" s="2"/>
       <c r="RT29" s="4"/>
+      <c r="RU29" s="229"/>
+      <c r="RV29" s="2"/>
+      <c r="RW29" s="2"/>
+      <c r="RX29" s="1"/>
+      <c r="RY29" s="1"/>
+      <c r="RZ29" s="2"/>
+      <c r="SA29" s="2"/>
+      <c r="SB29" s="2"/>
+      <c r="SC29" s="2"/>
+      <c r="SD29" s="2"/>
+      <c r="SE29" s="1"/>
+      <c r="SF29" s="1"/>
+      <c r="SG29" s="2"/>
+      <c r="SH29" s="2"/>
+      <c r="SI29" s="2"/>
+      <c r="SJ29" s="2"/>
+      <c r="SK29" s="2"/>
+      <c r="SL29" s="1"/>
+      <c r="SM29" s="1"/>
+      <c r="SN29" s="2"/>
+      <c r="SO29" s="2"/>
+      <c r="SP29" s="2"/>
+      <c r="SQ29" s="2"/>
+      <c r="SR29" s="2"/>
+      <c r="SS29" s="1"/>
+      <c r="ST29" s="1"/>
+      <c r="SU29" s="2"/>
+      <c r="SV29" s="2"/>
+      <c r="SW29" s="2"/>
+      <c r="SX29" s="2"/>
+      <c r="SY29" s="2"/>
+      <c r="SZ29" s="183"/>
+      <c r="TA29" s="1"/>
+      <c r="TB29" s="2"/>
+      <c r="TC29" s="2"/>
+      <c r="TD29" s="2"/>
+      <c r="TE29" s="2"/>
+      <c r="TF29" s="2"/>
+      <c r="TG29" s="1"/>
+      <c r="TH29" s="1"/>
+      <c r="TI29" s="2"/>
+      <c r="TJ29" s="2"/>
+      <c r="TK29" s="2"/>
+      <c r="TL29" s="2"/>
+      <c r="TM29" s="2"/>
+      <c r="TN29" s="1"/>
+      <c r="TO29" s="1"/>
+      <c r="TP29" s="2"/>
+      <c r="TQ29" s="2"/>
+      <c r="TR29" s="2"/>
+      <c r="TS29" s="2"/>
+      <c r="TT29" s="2"/>
+      <c r="TU29" s="1"/>
+      <c r="TV29" s="1"/>
+      <c r="TW29" s="2"/>
+      <c r="TX29" s="2"/>
+      <c r="TY29" s="2"/>
+      <c r="TZ29" s="2"/>
+      <c r="UA29" s="2"/>
+      <c r="UB29" s="238"/>
+      <c r="UC29" s="1"/>
     </row>
-    <row r="30" spans="1:488" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="201"/>
       <c r="B30" s="101"/>
       <c r="C30" s="102"/>
@@ -16915,11 +18537,72 @@
       <c r="RR30" s="24"/>
       <c r="RS30" s="23"/>
       <c r="RT30" s="25"/>
+      <c r="RU30" s="231"/>
+      <c r="RV30" s="23"/>
+      <c r="RW30" s="23"/>
+      <c r="RX30" s="24"/>
+      <c r="RY30" s="24"/>
+      <c r="RZ30" s="23"/>
+      <c r="SA30" s="23"/>
+      <c r="SB30" s="23"/>
+      <c r="SC30" s="23"/>
+      <c r="SD30" s="23"/>
+      <c r="SE30" s="24"/>
+      <c r="SF30" s="24"/>
+      <c r="SG30" s="23"/>
+      <c r="SH30" s="23"/>
+      <c r="SI30" s="23"/>
+      <c r="SJ30" s="23"/>
+      <c r="SK30" s="23"/>
+      <c r="SL30" s="24"/>
+      <c r="SM30" s="24"/>
+      <c r="SN30" s="23"/>
+      <c r="SO30" s="23"/>
+      <c r="SP30" s="23"/>
+      <c r="SQ30" s="23"/>
+      <c r="SR30" s="23"/>
+      <c r="SS30" s="24"/>
+      <c r="ST30" s="24"/>
+      <c r="SU30" s="23"/>
+      <c r="SV30" s="23"/>
+      <c r="SW30" s="23"/>
+      <c r="SX30" s="23"/>
+      <c r="SY30" s="23"/>
+      <c r="SZ30" s="185"/>
+      <c r="TA30" s="24"/>
+      <c r="TB30" s="23"/>
+      <c r="TC30" s="23"/>
+      <c r="TD30" s="23"/>
+      <c r="TE30" s="23"/>
+      <c r="TF30" s="23"/>
+      <c r="TG30" s="24"/>
+      <c r="TH30" s="24"/>
+      <c r="TI30" s="23"/>
+      <c r="TJ30" s="23"/>
+      <c r="TK30" s="23"/>
+      <c r="TL30" s="23"/>
+      <c r="TM30" s="23"/>
+      <c r="TN30" s="24"/>
+      <c r="TO30" s="24"/>
+      <c r="TP30" s="23"/>
+      <c r="TQ30" s="23"/>
+      <c r="TR30" s="23"/>
+      <c r="TS30" s="23"/>
+      <c r="TT30" s="23"/>
+      <c r="TU30" s="24"/>
+      <c r="TV30" s="24"/>
+      <c r="TW30" s="23"/>
+      <c r="TX30" s="23"/>
+      <c r="TY30" s="23"/>
+      <c r="TZ30" s="23"/>
+      <c r="UA30" s="23"/>
+      <c r="UB30" s="240"/>
+      <c r="UC30" s="24"/>
     </row>
-    <row r="31" spans="1:488" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:549" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="47"/>
     </row>
-    <row r="32" spans="1:488" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:549" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="47"/>
     </row>
     <row r="33" spans="1:274" s="53" customFormat="1" x14ac:dyDescent="0.3">
@@ -18164,7 +19847,9 @@
       <c r="JN47" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="21">
+    <mergeCell ref="RU6:SY6"/>
+    <mergeCell ref="SZ6:UB6"/>
     <mergeCell ref="KS6:LW6"/>
     <mergeCell ref="JO6:KR6"/>
     <mergeCell ref="IJ6:JN6"/>
@@ -18197,9 +19882,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E140" sqref="E140"/>
+      <selection pane="bottomLeft" activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19784,7 +21469,7 @@
       <c r="C135" s="213"/>
       <c r="D135" s="138">
         <f>SUM(D136:D149)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E135" s="141"/>
     </row>
@@ -19826,9 +21511,15 @@
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B139" s="163"/>
-      <c r="C139" s="164"/>
-      <c r="D139" s="165"/>
-      <c r="E139" s="167"/>
+      <c r="C139" s="164">
+        <v>9</v>
+      </c>
+      <c r="D139" s="165">
+        <v>4</v>
+      </c>
+      <c r="E139" s="167" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B140" s="163"/>

--- a/Plasma Project schedule V1.0_20191015.xlsx
+++ b/Plasma Project schedule V1.0_20191015.xlsx
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="178">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -830,6 +830,22 @@
   </si>
   <si>
     <t>▶Coupler V1.0 Data 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◆PCB 발송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶PCB 입고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶CPU PCB 및 JTAG PCB 발송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶부품 및 FAN 구매 요청</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1744,7 +1760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2035,31 +2051,42 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2080,14 +2107,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2125,25 +2161,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3485,11 +3502,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:UC47"/>
+  <dimension ref="A1:WK47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="RG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="TT36" sqref="TT36"/>
+      <pane xSplit="1" topLeftCell="PL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="TL29" sqref="TL29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3507,622 +3524,689 @@
     <col min="133" max="154" width="3.75" style="54" hidden="1" customWidth="1"/>
     <col min="155" max="163" width="2.75" style="54" hidden="1" customWidth="1"/>
     <col min="164" max="182" width="3.75" style="54" hidden="1" customWidth="1"/>
-    <col min="183" max="366" width="0" style="54" hidden="1" customWidth="1"/>
-    <col min="367" max="16384" width="2.625" style="54"/>
+    <col min="183" max="488" width="0" style="54" hidden="1" customWidth="1"/>
+    <col min="489" max="579" width="2.625" style="54"/>
+    <col min="580" max="580" width="2.625" style="53"/>
+    <col min="581" max="16384" width="2.625" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:549" s="53" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:609" s="53" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:549" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:609" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="47" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:549" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:609" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:549" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:609" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="48" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:549" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:609" s="53" customFormat="1" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="49" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:549" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:609" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="50"/>
-      <c r="B6" s="206">
+      <c r="B6" s="221">
         <v>9</v>
       </c>
-      <c r="C6" s="207"/>
-      <c r="D6" s="207"/>
-      <c r="E6" s="207"/>
-      <c r="F6" s="207"/>
-      <c r="G6" s="207"/>
-      <c r="H6" s="207"/>
-      <c r="I6" s="207"/>
-      <c r="J6" s="207"/>
-      <c r="K6" s="207"/>
-      <c r="L6" s="207"/>
-      <c r="M6" s="207"/>
-      <c r="N6" s="207"/>
-      <c r="O6" s="207"/>
-      <c r="P6" s="207"/>
-      <c r="Q6" s="207"/>
-      <c r="R6" s="207"/>
-      <c r="S6" s="207"/>
-      <c r="T6" s="207"/>
-      <c r="U6" s="207"/>
-      <c r="V6" s="207"/>
-      <c r="W6" s="207"/>
-      <c r="X6" s="207"/>
-      <c r="Y6" s="207"/>
-      <c r="Z6" s="207"/>
-      <c r="AA6" s="207"/>
-      <c r="AB6" s="207"/>
-      <c r="AC6" s="207"/>
-      <c r="AD6" s="207"/>
-      <c r="AE6" s="208"/>
-      <c r="AF6" s="203">
+      <c r="C6" s="222"/>
+      <c r="D6" s="222"/>
+      <c r="E6" s="222"/>
+      <c r="F6" s="222"/>
+      <c r="G6" s="222"/>
+      <c r="H6" s="222"/>
+      <c r="I6" s="222"/>
+      <c r="J6" s="222"/>
+      <c r="K6" s="222"/>
+      <c r="L6" s="222"/>
+      <c r="M6" s="222"/>
+      <c r="N6" s="222"/>
+      <c r="O6" s="222"/>
+      <c r="P6" s="222"/>
+      <c r="Q6" s="222"/>
+      <c r="R6" s="222"/>
+      <c r="S6" s="222"/>
+      <c r="T6" s="222"/>
+      <c r="U6" s="222"/>
+      <c r="V6" s="222"/>
+      <c r="W6" s="222"/>
+      <c r="X6" s="222"/>
+      <c r="Y6" s="222"/>
+      <c r="Z6" s="222"/>
+      <c r="AA6" s="222"/>
+      <c r="AB6" s="222"/>
+      <c r="AC6" s="222"/>
+      <c r="AD6" s="222"/>
+      <c r="AE6" s="223"/>
+      <c r="AF6" s="218">
         <v>10</v>
       </c>
-      <c r="AG6" s="203"/>
-      <c r="AH6" s="203"/>
-      <c r="AI6" s="203"/>
-      <c r="AJ6" s="203"/>
-      <c r="AK6" s="203"/>
-      <c r="AL6" s="203"/>
-      <c r="AM6" s="203"/>
-      <c r="AN6" s="203"/>
-      <c r="AO6" s="203"/>
-      <c r="AP6" s="203"/>
-      <c r="AQ6" s="203"/>
-      <c r="AR6" s="203"/>
-      <c r="AS6" s="203"/>
-      <c r="AT6" s="203"/>
-      <c r="AU6" s="203"/>
-      <c r="AV6" s="203"/>
-      <c r="AW6" s="203"/>
-      <c r="AX6" s="203"/>
-      <c r="AY6" s="203"/>
-      <c r="AZ6" s="203"/>
-      <c r="BA6" s="203"/>
-      <c r="BB6" s="203"/>
-      <c r="BC6" s="203"/>
-      <c r="BD6" s="203"/>
-      <c r="BE6" s="203"/>
-      <c r="BF6" s="203"/>
-      <c r="BG6" s="203"/>
-      <c r="BH6" s="203"/>
-      <c r="BI6" s="203"/>
-      <c r="BJ6" s="204"/>
-      <c r="BK6" s="206">
+      <c r="AG6" s="218"/>
+      <c r="AH6" s="218"/>
+      <c r="AI6" s="218"/>
+      <c r="AJ6" s="218"/>
+      <c r="AK6" s="218"/>
+      <c r="AL6" s="218"/>
+      <c r="AM6" s="218"/>
+      <c r="AN6" s="218"/>
+      <c r="AO6" s="218"/>
+      <c r="AP6" s="218"/>
+      <c r="AQ6" s="218"/>
+      <c r="AR6" s="218"/>
+      <c r="AS6" s="218"/>
+      <c r="AT6" s="218"/>
+      <c r="AU6" s="218"/>
+      <c r="AV6" s="218"/>
+      <c r="AW6" s="218"/>
+      <c r="AX6" s="218"/>
+      <c r="AY6" s="218"/>
+      <c r="AZ6" s="218"/>
+      <c r="BA6" s="218"/>
+      <c r="BB6" s="218"/>
+      <c r="BC6" s="218"/>
+      <c r="BD6" s="218"/>
+      <c r="BE6" s="218"/>
+      <c r="BF6" s="218"/>
+      <c r="BG6" s="218"/>
+      <c r="BH6" s="218"/>
+      <c r="BI6" s="218"/>
+      <c r="BJ6" s="219"/>
+      <c r="BK6" s="221">
         <v>11</v>
       </c>
-      <c r="BL6" s="207"/>
-      <c r="BM6" s="207"/>
-      <c r="BN6" s="207"/>
-      <c r="BO6" s="207"/>
-      <c r="BP6" s="207"/>
-      <c r="BQ6" s="207"/>
-      <c r="BR6" s="207"/>
-      <c r="BS6" s="207"/>
-      <c r="BT6" s="207"/>
-      <c r="BU6" s="207"/>
-      <c r="BV6" s="207"/>
-      <c r="BW6" s="207"/>
-      <c r="BX6" s="207"/>
-      <c r="BY6" s="207"/>
-      <c r="BZ6" s="207"/>
-      <c r="CA6" s="207"/>
-      <c r="CB6" s="207"/>
-      <c r="CC6" s="207"/>
-      <c r="CD6" s="207"/>
-      <c r="CE6" s="207"/>
-      <c r="CF6" s="207"/>
-      <c r="CG6" s="207"/>
-      <c r="CH6" s="207"/>
-      <c r="CI6" s="207"/>
-      <c r="CJ6" s="207"/>
-      <c r="CK6" s="207"/>
-      <c r="CL6" s="207"/>
-      <c r="CM6" s="207"/>
-      <c r="CN6" s="208"/>
-      <c r="CO6" s="203">
+      <c r="BL6" s="222"/>
+      <c r="BM6" s="222"/>
+      <c r="BN6" s="222"/>
+      <c r="BO6" s="222"/>
+      <c r="BP6" s="222"/>
+      <c r="BQ6" s="222"/>
+      <c r="BR6" s="222"/>
+      <c r="BS6" s="222"/>
+      <c r="BT6" s="222"/>
+      <c r="BU6" s="222"/>
+      <c r="BV6" s="222"/>
+      <c r="BW6" s="222"/>
+      <c r="BX6" s="222"/>
+      <c r="BY6" s="222"/>
+      <c r="BZ6" s="222"/>
+      <c r="CA6" s="222"/>
+      <c r="CB6" s="222"/>
+      <c r="CC6" s="222"/>
+      <c r="CD6" s="222"/>
+      <c r="CE6" s="222"/>
+      <c r="CF6" s="222"/>
+      <c r="CG6" s="222"/>
+      <c r="CH6" s="222"/>
+      <c r="CI6" s="222"/>
+      <c r="CJ6" s="222"/>
+      <c r="CK6" s="222"/>
+      <c r="CL6" s="222"/>
+      <c r="CM6" s="222"/>
+      <c r="CN6" s="223"/>
+      <c r="CO6" s="218">
         <v>12</v>
       </c>
-      <c r="CP6" s="203"/>
-      <c r="CQ6" s="203"/>
-      <c r="CR6" s="203"/>
-      <c r="CS6" s="203"/>
-      <c r="CT6" s="203"/>
-      <c r="CU6" s="203"/>
-      <c r="CV6" s="203"/>
-      <c r="CW6" s="203"/>
-      <c r="CX6" s="203"/>
-      <c r="CY6" s="203"/>
-      <c r="CZ6" s="203"/>
-      <c r="DA6" s="203"/>
-      <c r="DB6" s="203"/>
-      <c r="DC6" s="203"/>
-      <c r="DD6" s="203"/>
-      <c r="DE6" s="203"/>
-      <c r="DF6" s="203"/>
-      <c r="DG6" s="203"/>
-      <c r="DH6" s="203"/>
-      <c r="DI6" s="203"/>
-      <c r="DJ6" s="203"/>
-      <c r="DK6" s="203"/>
-      <c r="DL6" s="203"/>
-      <c r="DM6" s="203"/>
-      <c r="DN6" s="203"/>
-      <c r="DO6" s="203"/>
-      <c r="DP6" s="203"/>
-      <c r="DQ6" s="203"/>
-      <c r="DR6" s="203"/>
-      <c r="DS6" s="204"/>
-      <c r="DT6" s="203">
+      <c r="CP6" s="218"/>
+      <c r="CQ6" s="218"/>
+      <c r="CR6" s="218"/>
+      <c r="CS6" s="218"/>
+      <c r="CT6" s="218"/>
+      <c r="CU6" s="218"/>
+      <c r="CV6" s="218"/>
+      <c r="CW6" s="218"/>
+      <c r="CX6" s="218"/>
+      <c r="CY6" s="218"/>
+      <c r="CZ6" s="218"/>
+      <c r="DA6" s="218"/>
+      <c r="DB6" s="218"/>
+      <c r="DC6" s="218"/>
+      <c r="DD6" s="218"/>
+      <c r="DE6" s="218"/>
+      <c r="DF6" s="218"/>
+      <c r="DG6" s="218"/>
+      <c r="DH6" s="218"/>
+      <c r="DI6" s="218"/>
+      <c r="DJ6" s="218"/>
+      <c r="DK6" s="218"/>
+      <c r="DL6" s="218"/>
+      <c r="DM6" s="218"/>
+      <c r="DN6" s="218"/>
+      <c r="DO6" s="218"/>
+      <c r="DP6" s="218"/>
+      <c r="DQ6" s="218"/>
+      <c r="DR6" s="218"/>
+      <c r="DS6" s="219"/>
+      <c r="DT6" s="218">
         <v>2019.01</v>
       </c>
-      <c r="DU6" s="203"/>
-      <c r="DV6" s="203"/>
-      <c r="DW6" s="203"/>
-      <c r="DX6" s="203"/>
-      <c r="DY6" s="203"/>
-      <c r="DZ6" s="203"/>
-      <c r="EA6" s="203"/>
-      <c r="EB6" s="203"/>
-      <c r="EC6" s="203"/>
-      <c r="ED6" s="203"/>
-      <c r="EE6" s="203"/>
-      <c r="EF6" s="203"/>
-      <c r="EG6" s="203"/>
-      <c r="EH6" s="203"/>
-      <c r="EI6" s="203"/>
-      <c r="EJ6" s="203"/>
-      <c r="EK6" s="203"/>
-      <c r="EL6" s="203"/>
-      <c r="EM6" s="203"/>
-      <c r="EN6" s="203"/>
-      <c r="EO6" s="203"/>
-      <c r="EP6" s="203"/>
-      <c r="EQ6" s="203"/>
-      <c r="ER6" s="203"/>
-      <c r="ES6" s="203"/>
-      <c r="ET6" s="203"/>
-      <c r="EU6" s="203"/>
-      <c r="EV6" s="203"/>
-      <c r="EW6" s="203"/>
-      <c r="EX6" s="204"/>
-      <c r="EY6" s="205">
+      <c r="DU6" s="218"/>
+      <c r="DV6" s="218"/>
+      <c r="DW6" s="218"/>
+      <c r="DX6" s="218"/>
+      <c r="DY6" s="218"/>
+      <c r="DZ6" s="218"/>
+      <c r="EA6" s="218"/>
+      <c r="EB6" s="218"/>
+      <c r="EC6" s="218"/>
+      <c r="ED6" s="218"/>
+      <c r="EE6" s="218"/>
+      <c r="EF6" s="218"/>
+      <c r="EG6" s="218"/>
+      <c r="EH6" s="218"/>
+      <c r="EI6" s="218"/>
+      <c r="EJ6" s="218"/>
+      <c r="EK6" s="218"/>
+      <c r="EL6" s="218"/>
+      <c r="EM6" s="218"/>
+      <c r="EN6" s="218"/>
+      <c r="EO6" s="218"/>
+      <c r="EP6" s="218"/>
+      <c r="EQ6" s="218"/>
+      <c r="ER6" s="218"/>
+      <c r="ES6" s="218"/>
+      <c r="ET6" s="218"/>
+      <c r="EU6" s="218"/>
+      <c r="EV6" s="218"/>
+      <c r="EW6" s="218"/>
+      <c r="EX6" s="219"/>
+      <c r="EY6" s="220">
         <v>2019.02</v>
       </c>
-      <c r="EZ6" s="203"/>
-      <c r="FA6" s="203"/>
-      <c r="FB6" s="203"/>
-      <c r="FC6" s="203"/>
-      <c r="FD6" s="203"/>
-      <c r="FE6" s="203"/>
-      <c r="FF6" s="203"/>
-      <c r="FG6" s="203"/>
-      <c r="FH6" s="203"/>
-      <c r="FI6" s="203"/>
-      <c r="FJ6" s="203"/>
-      <c r="FK6" s="203"/>
-      <c r="FL6" s="203"/>
-      <c r="FM6" s="203"/>
-      <c r="FN6" s="203"/>
-      <c r="FO6" s="203"/>
-      <c r="FP6" s="203"/>
-      <c r="FQ6" s="203"/>
-      <c r="FR6" s="203"/>
-      <c r="FS6" s="203"/>
-      <c r="FT6" s="203"/>
-      <c r="FU6" s="203"/>
-      <c r="FV6" s="203"/>
-      <c r="FW6" s="203"/>
-      <c r="FX6" s="203"/>
-      <c r="FY6" s="203"/>
-      <c r="FZ6" s="204"/>
-      <c r="GA6" s="202">
+      <c r="EZ6" s="218"/>
+      <c r="FA6" s="218"/>
+      <c r="FB6" s="218"/>
+      <c r="FC6" s="218"/>
+      <c r="FD6" s="218"/>
+      <c r="FE6" s="218"/>
+      <c r="FF6" s="218"/>
+      <c r="FG6" s="218"/>
+      <c r="FH6" s="218"/>
+      <c r="FI6" s="218"/>
+      <c r="FJ6" s="218"/>
+      <c r="FK6" s="218"/>
+      <c r="FL6" s="218"/>
+      <c r="FM6" s="218"/>
+      <c r="FN6" s="218"/>
+      <c r="FO6" s="218"/>
+      <c r="FP6" s="218"/>
+      <c r="FQ6" s="218"/>
+      <c r="FR6" s="218"/>
+      <c r="FS6" s="218"/>
+      <c r="FT6" s="218"/>
+      <c r="FU6" s="218"/>
+      <c r="FV6" s="218"/>
+      <c r="FW6" s="218"/>
+      <c r="FX6" s="218"/>
+      <c r="FY6" s="218"/>
+      <c r="FZ6" s="219"/>
+      <c r="GA6" s="214">
         <v>3</v>
       </c>
-      <c r="GB6" s="202"/>
-      <c r="GC6" s="202"/>
-      <c r="GD6" s="202"/>
-      <c r="GE6" s="202"/>
-      <c r="GF6" s="202"/>
-      <c r="GG6" s="202"/>
-      <c r="GH6" s="202"/>
-      <c r="GI6" s="202"/>
-      <c r="GJ6" s="202"/>
-      <c r="GK6" s="202"/>
-      <c r="GL6" s="202"/>
-      <c r="GM6" s="202"/>
-      <c r="GN6" s="202"/>
-      <c r="GO6" s="202"/>
-      <c r="GP6" s="202"/>
-      <c r="GQ6" s="202"/>
-      <c r="GR6" s="202"/>
-      <c r="GS6" s="202"/>
-      <c r="GT6" s="202"/>
-      <c r="GU6" s="202"/>
-      <c r="GV6" s="202"/>
-      <c r="GW6" s="202"/>
-      <c r="GX6" s="202"/>
-      <c r="GY6" s="202"/>
-      <c r="GZ6" s="202"/>
-      <c r="HA6" s="202"/>
-      <c r="HB6" s="202"/>
-      <c r="HC6" s="202"/>
-      <c r="HD6" s="202"/>
-      <c r="HE6" s="202"/>
-      <c r="HF6" s="200">
+      <c r="GB6" s="214"/>
+      <c r="GC6" s="214"/>
+      <c r="GD6" s="214"/>
+      <c r="GE6" s="214"/>
+      <c r="GF6" s="214"/>
+      <c r="GG6" s="214"/>
+      <c r="GH6" s="214"/>
+      <c r="GI6" s="214"/>
+      <c r="GJ6" s="214"/>
+      <c r="GK6" s="214"/>
+      <c r="GL6" s="214"/>
+      <c r="GM6" s="214"/>
+      <c r="GN6" s="214"/>
+      <c r="GO6" s="214"/>
+      <c r="GP6" s="214"/>
+      <c r="GQ6" s="214"/>
+      <c r="GR6" s="214"/>
+      <c r="GS6" s="214"/>
+      <c r="GT6" s="214"/>
+      <c r="GU6" s="214"/>
+      <c r="GV6" s="214"/>
+      <c r="GW6" s="214"/>
+      <c r="GX6" s="214"/>
+      <c r="GY6" s="214"/>
+      <c r="GZ6" s="214"/>
+      <c r="HA6" s="214"/>
+      <c r="HB6" s="214"/>
+      <c r="HC6" s="214"/>
+      <c r="HD6" s="214"/>
+      <c r="HE6" s="214"/>
+      <c r="HF6" s="215">
         <v>4</v>
       </c>
-      <c r="HG6" s="198"/>
-      <c r="HH6" s="198"/>
-      <c r="HI6" s="198"/>
-      <c r="HJ6" s="198"/>
-      <c r="HK6" s="198"/>
-      <c r="HL6" s="198"/>
-      <c r="HM6" s="198"/>
-      <c r="HN6" s="198"/>
-      <c r="HO6" s="198"/>
-      <c r="HP6" s="198"/>
-      <c r="HQ6" s="198"/>
-      <c r="HR6" s="198"/>
-      <c r="HS6" s="198"/>
-      <c r="HT6" s="198"/>
-      <c r="HU6" s="198"/>
-      <c r="HV6" s="198"/>
-      <c r="HW6" s="198"/>
-      <c r="HX6" s="198"/>
-      <c r="HY6" s="198"/>
-      <c r="HZ6" s="198"/>
-      <c r="IA6" s="198"/>
-      <c r="IB6" s="198"/>
-      <c r="IC6" s="198"/>
-      <c r="ID6" s="198"/>
-      <c r="IE6" s="198"/>
-      <c r="IF6" s="198"/>
-      <c r="IG6" s="198"/>
-      <c r="IH6" s="198"/>
-      <c r="II6" s="199"/>
-      <c r="IJ6" s="209">
+      <c r="HG6" s="216"/>
+      <c r="HH6" s="216"/>
+      <c r="HI6" s="216"/>
+      <c r="HJ6" s="216"/>
+      <c r="HK6" s="216"/>
+      <c r="HL6" s="216"/>
+      <c r="HM6" s="216"/>
+      <c r="HN6" s="216"/>
+      <c r="HO6" s="216"/>
+      <c r="HP6" s="216"/>
+      <c r="HQ6" s="216"/>
+      <c r="HR6" s="216"/>
+      <c r="HS6" s="216"/>
+      <c r="HT6" s="216"/>
+      <c r="HU6" s="216"/>
+      <c r="HV6" s="216"/>
+      <c r="HW6" s="216"/>
+      <c r="HX6" s="216"/>
+      <c r="HY6" s="216"/>
+      <c r="HZ6" s="216"/>
+      <c r="IA6" s="216"/>
+      <c r="IB6" s="216"/>
+      <c r="IC6" s="216"/>
+      <c r="ID6" s="216"/>
+      <c r="IE6" s="216"/>
+      <c r="IF6" s="216"/>
+      <c r="IG6" s="216"/>
+      <c r="IH6" s="216"/>
+      <c r="II6" s="217"/>
+      <c r="IJ6" s="227">
         <v>5</v>
       </c>
-      <c r="IK6" s="202"/>
-      <c r="IL6" s="202"/>
-      <c r="IM6" s="202"/>
-      <c r="IN6" s="202"/>
-      <c r="IO6" s="202"/>
-      <c r="IP6" s="202"/>
-      <c r="IQ6" s="202"/>
-      <c r="IR6" s="202"/>
-      <c r="IS6" s="202"/>
-      <c r="IT6" s="202"/>
-      <c r="IU6" s="202"/>
-      <c r="IV6" s="202"/>
-      <c r="IW6" s="202"/>
-      <c r="IX6" s="202"/>
-      <c r="IY6" s="202"/>
-      <c r="IZ6" s="202"/>
-      <c r="JA6" s="202"/>
-      <c r="JB6" s="202"/>
-      <c r="JC6" s="202"/>
-      <c r="JD6" s="202"/>
-      <c r="JE6" s="202"/>
-      <c r="JF6" s="202"/>
-      <c r="JG6" s="202"/>
-      <c r="JH6" s="202"/>
-      <c r="JI6" s="202"/>
-      <c r="JJ6" s="202"/>
-      <c r="JK6" s="202"/>
-      <c r="JL6" s="202"/>
-      <c r="JM6" s="202"/>
-      <c r="JN6" s="210"/>
-      <c r="JO6" s="200">
+      <c r="IK6" s="214"/>
+      <c r="IL6" s="214"/>
+      <c r="IM6" s="214"/>
+      <c r="IN6" s="214"/>
+      <c r="IO6" s="214"/>
+      <c r="IP6" s="214"/>
+      <c r="IQ6" s="214"/>
+      <c r="IR6" s="214"/>
+      <c r="IS6" s="214"/>
+      <c r="IT6" s="214"/>
+      <c r="IU6" s="214"/>
+      <c r="IV6" s="214"/>
+      <c r="IW6" s="214"/>
+      <c r="IX6" s="214"/>
+      <c r="IY6" s="214"/>
+      <c r="IZ6" s="214"/>
+      <c r="JA6" s="214"/>
+      <c r="JB6" s="214"/>
+      <c r="JC6" s="214"/>
+      <c r="JD6" s="214"/>
+      <c r="JE6" s="214"/>
+      <c r="JF6" s="214"/>
+      <c r="JG6" s="214"/>
+      <c r="JH6" s="214"/>
+      <c r="JI6" s="214"/>
+      <c r="JJ6" s="214"/>
+      <c r="JK6" s="214"/>
+      <c r="JL6" s="214"/>
+      <c r="JM6" s="214"/>
+      <c r="JN6" s="228"/>
+      <c r="JO6" s="215">
         <v>6</v>
       </c>
-      <c r="JP6" s="198"/>
-      <c r="JQ6" s="198"/>
-      <c r="JR6" s="198"/>
-      <c r="JS6" s="198"/>
-      <c r="JT6" s="198"/>
-      <c r="JU6" s="198"/>
-      <c r="JV6" s="198"/>
-      <c r="JW6" s="198"/>
-      <c r="JX6" s="198"/>
-      <c r="JY6" s="198"/>
-      <c r="JZ6" s="198"/>
-      <c r="KA6" s="198"/>
-      <c r="KB6" s="198"/>
-      <c r="KC6" s="198"/>
-      <c r="KD6" s="198"/>
-      <c r="KE6" s="198"/>
-      <c r="KF6" s="198"/>
-      <c r="KG6" s="198"/>
-      <c r="KH6" s="198"/>
-      <c r="KI6" s="198"/>
-      <c r="KJ6" s="198"/>
-      <c r="KK6" s="198"/>
-      <c r="KL6" s="198"/>
-      <c r="KM6" s="198"/>
-      <c r="KN6" s="198"/>
-      <c r="KO6" s="198"/>
-      <c r="KP6" s="198"/>
-      <c r="KQ6" s="198"/>
-      <c r="KR6" s="199"/>
-      <c r="KS6" s="194">
+      <c r="JP6" s="216"/>
+      <c r="JQ6" s="216"/>
+      <c r="JR6" s="216"/>
+      <c r="JS6" s="216"/>
+      <c r="JT6" s="216"/>
+      <c r="JU6" s="216"/>
+      <c r="JV6" s="216"/>
+      <c r="JW6" s="216"/>
+      <c r="JX6" s="216"/>
+      <c r="JY6" s="216"/>
+      <c r="JZ6" s="216"/>
+      <c r="KA6" s="216"/>
+      <c r="KB6" s="216"/>
+      <c r="KC6" s="216"/>
+      <c r="KD6" s="216"/>
+      <c r="KE6" s="216"/>
+      <c r="KF6" s="216"/>
+      <c r="KG6" s="216"/>
+      <c r="KH6" s="216"/>
+      <c r="KI6" s="216"/>
+      <c r="KJ6" s="216"/>
+      <c r="KK6" s="216"/>
+      <c r="KL6" s="216"/>
+      <c r="KM6" s="216"/>
+      <c r="KN6" s="216"/>
+      <c r="KO6" s="216"/>
+      <c r="KP6" s="216"/>
+      <c r="KQ6" s="216"/>
+      <c r="KR6" s="217"/>
+      <c r="KS6" s="224">
         <v>7</v>
       </c>
-      <c r="KT6" s="195"/>
-      <c r="KU6" s="195"/>
-      <c r="KV6" s="195"/>
-      <c r="KW6" s="195"/>
-      <c r="KX6" s="195"/>
-      <c r="KY6" s="195"/>
-      <c r="KZ6" s="195"/>
-      <c r="LA6" s="195"/>
-      <c r="LB6" s="195"/>
-      <c r="LC6" s="195"/>
-      <c r="LD6" s="195"/>
-      <c r="LE6" s="195"/>
-      <c r="LF6" s="195"/>
-      <c r="LG6" s="195"/>
-      <c r="LH6" s="195"/>
-      <c r="LI6" s="195"/>
-      <c r="LJ6" s="195"/>
-      <c r="LK6" s="195"/>
-      <c r="LL6" s="195"/>
-      <c r="LM6" s="195"/>
-      <c r="LN6" s="195"/>
-      <c r="LO6" s="195"/>
-      <c r="LP6" s="195"/>
-      <c r="LQ6" s="195"/>
-      <c r="LR6" s="195"/>
-      <c r="LS6" s="195"/>
-      <c r="LT6" s="195"/>
-      <c r="LU6" s="195"/>
-      <c r="LV6" s="195"/>
-      <c r="LW6" s="196"/>
-      <c r="LX6" s="194">
+      <c r="KT6" s="225"/>
+      <c r="KU6" s="225"/>
+      <c r="KV6" s="225"/>
+      <c r="KW6" s="225"/>
+      <c r="KX6" s="225"/>
+      <c r="KY6" s="225"/>
+      <c r="KZ6" s="225"/>
+      <c r="LA6" s="225"/>
+      <c r="LB6" s="225"/>
+      <c r="LC6" s="225"/>
+      <c r="LD6" s="225"/>
+      <c r="LE6" s="225"/>
+      <c r="LF6" s="225"/>
+      <c r="LG6" s="225"/>
+      <c r="LH6" s="225"/>
+      <c r="LI6" s="225"/>
+      <c r="LJ6" s="225"/>
+      <c r="LK6" s="225"/>
+      <c r="LL6" s="225"/>
+      <c r="LM6" s="225"/>
+      <c r="LN6" s="225"/>
+      <c r="LO6" s="225"/>
+      <c r="LP6" s="225"/>
+      <c r="LQ6" s="225"/>
+      <c r="LR6" s="225"/>
+      <c r="LS6" s="225"/>
+      <c r="LT6" s="225"/>
+      <c r="LU6" s="225"/>
+      <c r="LV6" s="225"/>
+      <c r="LW6" s="226"/>
+      <c r="LX6" s="224">
         <v>8</v>
       </c>
-      <c r="LY6" s="195"/>
-      <c r="LZ6" s="195"/>
-      <c r="MA6" s="195"/>
-      <c r="MB6" s="195"/>
-      <c r="MC6" s="195"/>
-      <c r="MD6" s="195"/>
-      <c r="ME6" s="195"/>
-      <c r="MF6" s="195"/>
-      <c r="MG6" s="195"/>
-      <c r="MH6" s="195"/>
-      <c r="MI6" s="195"/>
-      <c r="MJ6" s="195"/>
-      <c r="MK6" s="195"/>
-      <c r="ML6" s="195"/>
-      <c r="MM6" s="195"/>
-      <c r="MN6" s="195"/>
-      <c r="MO6" s="195"/>
-      <c r="MP6" s="195"/>
-      <c r="MQ6" s="195"/>
-      <c r="MR6" s="195"/>
-      <c r="MS6" s="195"/>
-      <c r="MT6" s="195"/>
-      <c r="MU6" s="195"/>
-      <c r="MV6" s="195"/>
-      <c r="MW6" s="195"/>
-      <c r="MX6" s="195"/>
-      <c r="MY6" s="195"/>
-      <c r="MZ6" s="195"/>
-      <c r="NA6" s="195"/>
-      <c r="NB6" s="195"/>
-      <c r="NC6" s="200">
+      <c r="LY6" s="225"/>
+      <c r="LZ6" s="225"/>
+      <c r="MA6" s="225"/>
+      <c r="MB6" s="225"/>
+      <c r="MC6" s="225"/>
+      <c r="MD6" s="225"/>
+      <c r="ME6" s="225"/>
+      <c r="MF6" s="225"/>
+      <c r="MG6" s="225"/>
+      <c r="MH6" s="225"/>
+      <c r="MI6" s="225"/>
+      <c r="MJ6" s="225"/>
+      <c r="MK6" s="225"/>
+      <c r="ML6" s="225"/>
+      <c r="MM6" s="225"/>
+      <c r="MN6" s="225"/>
+      <c r="MO6" s="225"/>
+      <c r="MP6" s="225"/>
+      <c r="MQ6" s="225"/>
+      <c r="MR6" s="225"/>
+      <c r="MS6" s="225"/>
+      <c r="MT6" s="225"/>
+      <c r="MU6" s="225"/>
+      <c r="MV6" s="225"/>
+      <c r="MW6" s="225"/>
+      <c r="MX6" s="225"/>
+      <c r="MY6" s="225"/>
+      <c r="MZ6" s="225"/>
+      <c r="NA6" s="225"/>
+      <c r="NB6" s="225"/>
+      <c r="NC6" s="215">
         <v>9</v>
       </c>
-      <c r="ND6" s="198"/>
-      <c r="NE6" s="198"/>
-      <c r="NF6" s="198"/>
-      <c r="NG6" s="198"/>
-      <c r="NH6" s="198"/>
-      <c r="NI6" s="198"/>
-      <c r="NJ6" s="198"/>
-      <c r="NK6" s="198"/>
-      <c r="NL6" s="198"/>
-      <c r="NM6" s="198"/>
-      <c r="NN6" s="198"/>
-      <c r="NO6" s="198"/>
-      <c r="NP6" s="198"/>
-      <c r="NQ6" s="198"/>
-      <c r="NR6" s="198"/>
-      <c r="NS6" s="198"/>
-      <c r="NT6" s="198"/>
-      <c r="NU6" s="198"/>
-      <c r="NV6" s="198"/>
-      <c r="NW6" s="198"/>
-      <c r="NX6" s="198"/>
-      <c r="NY6" s="198"/>
-      <c r="NZ6" s="198"/>
-      <c r="OA6" s="198"/>
-      <c r="OB6" s="198"/>
-      <c r="OC6" s="198"/>
-      <c r="OD6" s="198"/>
-      <c r="OE6" s="198"/>
-      <c r="OF6" s="199"/>
-      <c r="OG6" s="194">
+      <c r="ND6" s="216"/>
+      <c r="NE6" s="216"/>
+      <c r="NF6" s="216"/>
+      <c r="NG6" s="216"/>
+      <c r="NH6" s="216"/>
+      <c r="NI6" s="216"/>
+      <c r="NJ6" s="216"/>
+      <c r="NK6" s="216"/>
+      <c r="NL6" s="216"/>
+      <c r="NM6" s="216"/>
+      <c r="NN6" s="216"/>
+      <c r="NO6" s="216"/>
+      <c r="NP6" s="216"/>
+      <c r="NQ6" s="216"/>
+      <c r="NR6" s="216"/>
+      <c r="NS6" s="216"/>
+      <c r="NT6" s="216"/>
+      <c r="NU6" s="216"/>
+      <c r="NV6" s="216"/>
+      <c r="NW6" s="216"/>
+      <c r="NX6" s="216"/>
+      <c r="NY6" s="216"/>
+      <c r="NZ6" s="216"/>
+      <c r="OA6" s="216"/>
+      <c r="OB6" s="216"/>
+      <c r="OC6" s="216"/>
+      <c r="OD6" s="216"/>
+      <c r="OE6" s="216"/>
+      <c r="OF6" s="217"/>
+      <c r="OG6" s="224">
         <v>10</v>
       </c>
-      <c r="OH6" s="195"/>
-      <c r="OI6" s="195"/>
-      <c r="OJ6" s="195"/>
-      <c r="OK6" s="195"/>
-      <c r="OL6" s="195"/>
-      <c r="OM6" s="195"/>
-      <c r="ON6" s="195"/>
-      <c r="OO6" s="195"/>
-      <c r="OP6" s="195"/>
-      <c r="OQ6" s="195"/>
-      <c r="OR6" s="195"/>
-      <c r="OS6" s="195"/>
-      <c r="OT6" s="195"/>
-      <c r="OU6" s="195"/>
-      <c r="OV6" s="195"/>
-      <c r="OW6" s="195"/>
-      <c r="OX6" s="195"/>
-      <c r="OY6" s="195"/>
-      <c r="OZ6" s="195"/>
-      <c r="PA6" s="195"/>
-      <c r="PB6" s="195"/>
-      <c r="PC6" s="195"/>
-      <c r="PD6" s="195"/>
-      <c r="PE6" s="195"/>
-      <c r="PF6" s="195"/>
-      <c r="PG6" s="195"/>
-      <c r="PH6" s="195"/>
-      <c r="PI6" s="195"/>
-      <c r="PJ6" s="195"/>
-      <c r="PK6" s="196"/>
-      <c r="PL6" s="197">
+      <c r="OH6" s="225"/>
+      <c r="OI6" s="225"/>
+      <c r="OJ6" s="225"/>
+      <c r="OK6" s="225"/>
+      <c r="OL6" s="225"/>
+      <c r="OM6" s="225"/>
+      <c r="ON6" s="225"/>
+      <c r="OO6" s="225"/>
+      <c r="OP6" s="225"/>
+      <c r="OQ6" s="225"/>
+      <c r="OR6" s="225"/>
+      <c r="OS6" s="225"/>
+      <c r="OT6" s="225"/>
+      <c r="OU6" s="225"/>
+      <c r="OV6" s="225"/>
+      <c r="OW6" s="225"/>
+      <c r="OX6" s="225"/>
+      <c r="OY6" s="225"/>
+      <c r="OZ6" s="225"/>
+      <c r="PA6" s="225"/>
+      <c r="PB6" s="225"/>
+      <c r="PC6" s="225"/>
+      <c r="PD6" s="225"/>
+      <c r="PE6" s="225"/>
+      <c r="PF6" s="225"/>
+      <c r="PG6" s="225"/>
+      <c r="PH6" s="225"/>
+      <c r="PI6" s="225"/>
+      <c r="PJ6" s="225"/>
+      <c r="PK6" s="226"/>
+      <c r="PL6" s="229">
         <v>11</v>
       </c>
-      <c r="PM6" s="198"/>
-      <c r="PN6" s="198"/>
-      <c r="PO6" s="198"/>
-      <c r="PP6" s="198"/>
-      <c r="PQ6" s="198"/>
-      <c r="PR6" s="198"/>
-      <c r="PS6" s="198"/>
-      <c r="PT6" s="198"/>
-      <c r="PU6" s="198"/>
-      <c r="PV6" s="198"/>
-      <c r="PW6" s="198"/>
-      <c r="PX6" s="198"/>
-      <c r="PY6" s="198"/>
-      <c r="PZ6" s="198"/>
-      <c r="QA6" s="198"/>
-      <c r="QB6" s="198"/>
-      <c r="QC6" s="198"/>
-      <c r="QD6" s="198"/>
-      <c r="QE6" s="198"/>
-      <c r="QF6" s="198"/>
-      <c r="QG6" s="198"/>
-      <c r="QH6" s="198"/>
-      <c r="QI6" s="198"/>
-      <c r="QJ6" s="198"/>
-      <c r="QK6" s="198"/>
-      <c r="QL6" s="198"/>
-      <c r="QM6" s="198"/>
-      <c r="QN6" s="198"/>
-      <c r="QO6" s="199"/>
-      <c r="QP6" s="194">
+      <c r="PM6" s="216"/>
+      <c r="PN6" s="216"/>
+      <c r="PO6" s="216"/>
+      <c r="PP6" s="216"/>
+      <c r="PQ6" s="216"/>
+      <c r="PR6" s="216"/>
+      <c r="PS6" s="216"/>
+      <c r="PT6" s="216"/>
+      <c r="PU6" s="216"/>
+      <c r="PV6" s="216"/>
+      <c r="PW6" s="216"/>
+      <c r="PX6" s="216"/>
+      <c r="PY6" s="216"/>
+      <c r="PZ6" s="216"/>
+      <c r="QA6" s="216"/>
+      <c r="QB6" s="216"/>
+      <c r="QC6" s="216"/>
+      <c r="QD6" s="216"/>
+      <c r="QE6" s="216"/>
+      <c r="QF6" s="216"/>
+      <c r="QG6" s="216"/>
+      <c r="QH6" s="216"/>
+      <c r="QI6" s="216"/>
+      <c r="QJ6" s="216"/>
+      <c r="QK6" s="216"/>
+      <c r="QL6" s="216"/>
+      <c r="QM6" s="216"/>
+      <c r="QN6" s="216"/>
+      <c r="QO6" s="217"/>
+      <c r="QP6" s="224">
         <v>12</v>
       </c>
-      <c r="QQ6" s="195"/>
-      <c r="QR6" s="195"/>
-      <c r="QS6" s="195"/>
-      <c r="QT6" s="195"/>
-      <c r="QU6" s="195"/>
-      <c r="QV6" s="195"/>
-      <c r="QW6" s="195"/>
-      <c r="QX6" s="195"/>
-      <c r="QY6" s="195"/>
-      <c r="QZ6" s="195"/>
-      <c r="RA6" s="195"/>
-      <c r="RB6" s="195"/>
-      <c r="RC6" s="195"/>
-      <c r="RD6" s="195"/>
-      <c r="RE6" s="195"/>
-      <c r="RF6" s="195"/>
-      <c r="RG6" s="195"/>
-      <c r="RH6" s="195"/>
-      <c r="RI6" s="195"/>
-      <c r="RJ6" s="195"/>
-      <c r="RK6" s="195"/>
-      <c r="RL6" s="195"/>
-      <c r="RM6" s="195"/>
-      <c r="RN6" s="195"/>
-      <c r="RO6" s="195"/>
-      <c r="RP6" s="195"/>
-      <c r="RQ6" s="195"/>
-      <c r="RR6" s="195"/>
-      <c r="RS6" s="195"/>
-      <c r="RT6" s="196"/>
-      <c r="RU6" s="194">
+      <c r="QQ6" s="225"/>
+      <c r="QR6" s="225"/>
+      <c r="QS6" s="225"/>
+      <c r="QT6" s="225"/>
+      <c r="QU6" s="225"/>
+      <c r="QV6" s="225"/>
+      <c r="QW6" s="225"/>
+      <c r="QX6" s="225"/>
+      <c r="QY6" s="225"/>
+      <c r="QZ6" s="225"/>
+      <c r="RA6" s="225"/>
+      <c r="RB6" s="225"/>
+      <c r="RC6" s="225"/>
+      <c r="RD6" s="225"/>
+      <c r="RE6" s="225"/>
+      <c r="RF6" s="225"/>
+      <c r="RG6" s="225"/>
+      <c r="RH6" s="225"/>
+      <c r="RI6" s="225"/>
+      <c r="RJ6" s="225"/>
+      <c r="RK6" s="225"/>
+      <c r="RL6" s="225"/>
+      <c r="RM6" s="225"/>
+      <c r="RN6" s="225"/>
+      <c r="RO6" s="225"/>
+      <c r="RP6" s="225"/>
+      <c r="RQ6" s="225"/>
+      <c r="RR6" s="225"/>
+      <c r="RS6" s="225"/>
+      <c r="RT6" s="226"/>
+      <c r="RU6" s="224">
         <v>1</v>
       </c>
-      <c r="RV6" s="195"/>
-      <c r="RW6" s="195"/>
-      <c r="RX6" s="195"/>
-      <c r="RY6" s="195"/>
-      <c r="RZ6" s="195"/>
-      <c r="SA6" s="195"/>
-      <c r="SB6" s="195"/>
-      <c r="SC6" s="195"/>
-      <c r="SD6" s="195"/>
-      <c r="SE6" s="195"/>
-      <c r="SF6" s="195"/>
-      <c r="SG6" s="195"/>
-      <c r="SH6" s="195"/>
-      <c r="SI6" s="195"/>
-      <c r="SJ6" s="195"/>
-      <c r="SK6" s="195"/>
-      <c r="SL6" s="195"/>
-      <c r="SM6" s="195"/>
-      <c r="SN6" s="195"/>
-      <c r="SO6" s="195"/>
-      <c r="SP6" s="195"/>
-      <c r="SQ6" s="195"/>
-      <c r="SR6" s="195"/>
-      <c r="SS6" s="195"/>
-      <c r="ST6" s="195"/>
-      <c r="SU6" s="195"/>
-      <c r="SV6" s="195"/>
-      <c r="SW6" s="195"/>
-      <c r="SX6" s="195"/>
-      <c r="SY6" s="195"/>
-      <c r="SZ6" s="194">
+      <c r="RV6" s="225"/>
+      <c r="RW6" s="225"/>
+      <c r="RX6" s="225"/>
+      <c r="RY6" s="225"/>
+      <c r="RZ6" s="225"/>
+      <c r="SA6" s="225"/>
+      <c r="SB6" s="225"/>
+      <c r="SC6" s="225"/>
+      <c r="SD6" s="225"/>
+      <c r="SE6" s="225"/>
+      <c r="SF6" s="225"/>
+      <c r="SG6" s="225"/>
+      <c r="SH6" s="225"/>
+      <c r="SI6" s="225"/>
+      <c r="SJ6" s="225"/>
+      <c r="SK6" s="225"/>
+      <c r="SL6" s="225"/>
+      <c r="SM6" s="225"/>
+      <c r="SN6" s="225"/>
+      <c r="SO6" s="225"/>
+      <c r="SP6" s="225"/>
+      <c r="SQ6" s="225"/>
+      <c r="SR6" s="225"/>
+      <c r="SS6" s="225"/>
+      <c r="ST6" s="225"/>
+      <c r="SU6" s="225"/>
+      <c r="SV6" s="225"/>
+      <c r="SW6" s="225"/>
+      <c r="SX6" s="225"/>
+      <c r="SY6" s="225"/>
+      <c r="SZ6" s="224">
         <v>2</v>
       </c>
-      <c r="TA6" s="195"/>
-      <c r="TB6" s="195"/>
-      <c r="TC6" s="195"/>
-      <c r="TD6" s="195"/>
-      <c r="TE6" s="195"/>
-      <c r="TF6" s="195"/>
-      <c r="TG6" s="195"/>
-      <c r="TH6" s="195"/>
-      <c r="TI6" s="195"/>
-      <c r="TJ6" s="195"/>
-      <c r="TK6" s="195"/>
-      <c r="TL6" s="195"/>
-      <c r="TM6" s="195"/>
-      <c r="TN6" s="195"/>
-      <c r="TO6" s="195"/>
-      <c r="TP6" s="195"/>
-      <c r="TQ6" s="195"/>
-      <c r="TR6" s="195"/>
-      <c r="TS6" s="195"/>
-      <c r="TT6" s="195"/>
-      <c r="TU6" s="195"/>
-      <c r="TV6" s="195"/>
-      <c r="TW6" s="195"/>
-      <c r="TX6" s="195"/>
-      <c r="TY6" s="195"/>
-      <c r="TZ6" s="195"/>
-      <c r="UA6" s="195"/>
-      <c r="UB6" s="196"/>
+      <c r="TA6" s="225"/>
+      <c r="TB6" s="225"/>
+      <c r="TC6" s="225"/>
+      <c r="TD6" s="225"/>
+      <c r="TE6" s="225"/>
+      <c r="TF6" s="225"/>
+      <c r="TG6" s="225"/>
+      <c r="TH6" s="225"/>
+      <c r="TI6" s="225"/>
+      <c r="TJ6" s="225"/>
+      <c r="TK6" s="225"/>
+      <c r="TL6" s="225"/>
+      <c r="TM6" s="225"/>
+      <c r="TN6" s="225"/>
+      <c r="TO6" s="225"/>
+      <c r="TP6" s="225"/>
+      <c r="TQ6" s="225"/>
+      <c r="TR6" s="225"/>
+      <c r="TS6" s="225"/>
+      <c r="TT6" s="225"/>
+      <c r="TU6" s="225"/>
+      <c r="TV6" s="225"/>
+      <c r="TW6" s="225"/>
+      <c r="TX6" s="225"/>
+      <c r="TY6" s="225"/>
+      <c r="TZ6" s="225"/>
+      <c r="UA6" s="225"/>
+      <c r="UB6" s="226"/>
+      <c r="UC6" s="224">
+        <v>3</v>
+      </c>
+      <c r="UD6" s="225"/>
+      <c r="UE6" s="225"/>
+      <c r="UF6" s="225"/>
+      <c r="UG6" s="225"/>
+      <c r="UH6" s="225"/>
+      <c r="UI6" s="225"/>
+      <c r="UJ6" s="225"/>
+      <c r="UK6" s="225"/>
+      <c r="UL6" s="225"/>
+      <c r="UM6" s="225"/>
+      <c r="UN6" s="225"/>
+      <c r="UO6" s="225"/>
+      <c r="UP6" s="225"/>
+      <c r="UQ6" s="225"/>
+      <c r="UR6" s="225"/>
+      <c r="US6" s="225"/>
+      <c r="UT6" s="225"/>
+      <c r="UU6" s="225"/>
+      <c r="UV6" s="225"/>
+      <c r="UW6" s="225"/>
+      <c r="UX6" s="225"/>
+      <c r="UY6" s="225"/>
+      <c r="UZ6" s="225"/>
+      <c r="VA6" s="225"/>
+      <c r="VB6" s="225"/>
+      <c r="VC6" s="225"/>
+      <c r="VD6" s="225"/>
+      <c r="VE6" s="225"/>
+      <c r="VF6" s="225"/>
+      <c r="VG6" s="225"/>
+      <c r="VH6" s="224">
+        <v>4</v>
+      </c>
+      <c r="VI6" s="225"/>
+      <c r="VJ6" s="225"/>
+      <c r="VK6" s="225"/>
+      <c r="VL6" s="225"/>
+      <c r="VM6" s="225"/>
+      <c r="VN6" s="225"/>
+      <c r="VO6" s="225"/>
+      <c r="VP6" s="225"/>
+      <c r="VQ6" s="225"/>
+      <c r="VR6" s="225"/>
+      <c r="VS6" s="225"/>
+      <c r="VT6" s="225"/>
+      <c r="VU6" s="225"/>
+      <c r="VV6" s="225"/>
+      <c r="VW6" s="225"/>
+      <c r="VX6" s="225"/>
+      <c r="VY6" s="225"/>
+      <c r="VZ6" s="225"/>
+      <c r="WA6" s="225"/>
+      <c r="WB6" s="225"/>
+      <c r="WC6" s="225"/>
+      <c r="WD6" s="225"/>
+      <c r="WE6" s="225"/>
+      <c r="WF6" s="225"/>
+      <c r="WG6" s="225"/>
+      <c r="WH6" s="225"/>
+      <c r="WI6" s="225"/>
+      <c r="WJ6" s="225"/>
+      <c r="WK6" s="225"/>
     </row>
-    <row r="7" spans="1:549" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:609" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="52"/>
       <c r="B7" s="55">
         <v>1</v>
@@ -5585,7 +5669,7 @@
       <c r="RT7" s="121">
         <v>31</v>
       </c>
-      <c r="RU7" s="224">
+      <c r="RU7" s="194">
         <v>1</v>
       </c>
       <c r="RV7" s="119">
@@ -5765,9 +5849,192 @@
       <c r="UB7" s="121">
         <v>29</v>
       </c>
+      <c r="UC7" s="120">
+        <v>1</v>
+      </c>
+      <c r="UD7" s="119">
+        <v>2</v>
+      </c>
+      <c r="UE7" s="119">
+        <v>3</v>
+      </c>
+      <c r="UF7" s="119">
+        <v>4</v>
+      </c>
+      <c r="UG7" s="119">
+        <v>5</v>
+      </c>
+      <c r="UH7" s="119">
+        <v>6</v>
+      </c>
+      <c r="UI7" s="119">
+        <v>7</v>
+      </c>
+      <c r="UJ7" s="119">
+        <v>8</v>
+      </c>
+      <c r="UK7" s="119">
+        <v>9</v>
+      </c>
+      <c r="UL7" s="119">
+        <v>10</v>
+      </c>
+      <c r="UM7" s="119">
+        <v>11</v>
+      </c>
+      <c r="UN7" s="119">
+        <v>12</v>
+      </c>
+      <c r="UO7" s="119">
+        <v>13</v>
+      </c>
+      <c r="UP7" s="119">
+        <v>14</v>
+      </c>
+      <c r="UQ7" s="119">
+        <v>15</v>
+      </c>
+      <c r="UR7" s="119">
+        <v>16</v>
+      </c>
+      <c r="US7" s="119">
+        <v>17</v>
+      </c>
+      <c r="UT7" s="119">
+        <v>18</v>
+      </c>
+      <c r="UU7" s="119">
+        <v>19</v>
+      </c>
+      <c r="UV7" s="119">
+        <v>20</v>
+      </c>
+      <c r="UW7" s="119">
+        <v>21</v>
+      </c>
+      <c r="UX7" s="119">
+        <v>22</v>
+      </c>
+      <c r="UY7" s="119">
+        <v>23</v>
+      </c>
+      <c r="UZ7" s="119">
+        <v>24</v>
+      </c>
+      <c r="VA7" s="119">
+        <v>25</v>
+      </c>
+      <c r="VB7" s="119">
+        <v>26</v>
+      </c>
+      <c r="VC7" s="119">
+        <v>27</v>
+      </c>
+      <c r="VD7" s="119">
+        <v>28</v>
+      </c>
+      <c r="VE7" s="119">
+        <v>29</v>
+      </c>
+      <c r="VF7" s="119">
+        <v>30</v>
+      </c>
+      <c r="VG7" s="119">
+        <v>31</v>
+      </c>
+      <c r="VH7" s="120">
+        <v>1</v>
+      </c>
+      <c r="VI7" s="119">
+        <v>2</v>
+      </c>
+      <c r="VJ7" s="119">
+        <v>3</v>
+      </c>
+      <c r="VK7" s="119">
+        <v>4</v>
+      </c>
+      <c r="VL7" s="119">
+        <v>5</v>
+      </c>
+      <c r="VM7" s="119">
+        <v>6</v>
+      </c>
+      <c r="VN7" s="119">
+        <v>7</v>
+      </c>
+      <c r="VO7" s="119">
+        <v>8</v>
+      </c>
+      <c r="VP7" s="119">
+        <v>9</v>
+      </c>
+      <c r="VQ7" s="119">
+        <v>10</v>
+      </c>
+      <c r="VR7" s="119">
+        <v>11</v>
+      </c>
+      <c r="VS7" s="119">
+        <v>12</v>
+      </c>
+      <c r="VT7" s="119">
+        <v>13</v>
+      </c>
+      <c r="VU7" s="119">
+        <v>14</v>
+      </c>
+      <c r="VV7" s="118">
+        <v>15</v>
+      </c>
+      <c r="VW7" s="119">
+        <v>16</v>
+      </c>
+      <c r="VX7" s="119">
+        <v>17</v>
+      </c>
+      <c r="VY7" s="119">
+        <v>18</v>
+      </c>
+      <c r="VZ7" s="119">
+        <v>19</v>
+      </c>
+      <c r="WA7" s="119">
+        <v>20</v>
+      </c>
+      <c r="WB7" s="119">
+        <v>21</v>
+      </c>
+      <c r="WC7" s="119">
+        <v>22</v>
+      </c>
+      <c r="WD7" s="119">
+        <v>23</v>
+      </c>
+      <c r="WE7" s="119">
+        <v>24</v>
+      </c>
+      <c r="WF7" s="119">
+        <v>25</v>
+      </c>
+      <c r="WG7" s="119">
+        <v>26</v>
+      </c>
+      <c r="WH7" s="119">
+        <v>27</v>
+      </c>
+      <c r="WI7" s="119">
+        <v>28</v>
+      </c>
+      <c r="WJ7" s="119">
+        <v>29</v>
+      </c>
+      <c r="WK7" s="118">
+        <v>30</v>
+      </c>
     </row>
-    <row r="8" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="201" t="s">
+    <row r="8" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="212" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="41"/>
@@ -6302,7 +6569,7 @@
       <c r="SW8" s="8"/>
       <c r="SX8" s="8"/>
       <c r="SY8" s="8"/>
-      <c r="SZ8" s="232"/>
+      <c r="SZ8" s="202"/>
       <c r="TA8" s="41"/>
       <c r="TB8" s="8"/>
       <c r="TC8" s="8"/>
@@ -6330,11 +6597,71 @@
       <c r="TY8" s="8"/>
       <c r="TZ8" s="8"/>
       <c r="UA8" s="8"/>
-      <c r="UB8" s="233"/>
+      <c r="UB8" s="203"/>
       <c r="UC8" s="41"/>
+      <c r="UD8" s="8"/>
+      <c r="UE8" s="8"/>
+      <c r="UF8" s="8"/>
+      <c r="UG8" s="8"/>
+      <c r="UH8" s="8"/>
+      <c r="UI8" s="10"/>
+      <c r="UJ8" s="41"/>
+      <c r="UK8" s="8"/>
+      <c r="UL8" s="8"/>
+      <c r="UM8" s="8"/>
+      <c r="UN8" s="8"/>
+      <c r="UO8" s="8"/>
+      <c r="UP8" s="10"/>
+      <c r="UQ8" s="41"/>
+      <c r="UR8" s="8"/>
+      <c r="US8" s="8"/>
+      <c r="UT8" s="8"/>
+      <c r="UU8" s="8"/>
+      <c r="UV8" s="8"/>
+      <c r="UW8" s="10"/>
+      <c r="UX8" s="41"/>
+      <c r="UY8" s="8"/>
+      <c r="UZ8" s="8"/>
+      <c r="VA8" s="8"/>
+      <c r="VB8" s="8"/>
+      <c r="VC8" s="8"/>
+      <c r="VD8" s="10"/>
+      <c r="VE8" s="41"/>
+      <c r="VF8" s="8"/>
+      <c r="VG8" s="8"/>
+      <c r="VH8" s="68"/>
+      <c r="VI8" s="8"/>
+      <c r="VJ8" s="8"/>
+      <c r="VK8" s="10"/>
+      <c r="VL8" s="10"/>
+      <c r="VM8" s="8"/>
+      <c r="VN8" s="8"/>
+      <c r="VO8" s="8"/>
+      <c r="VP8" s="8"/>
+      <c r="VQ8" s="8"/>
+      <c r="VR8" s="10"/>
+      <c r="VS8" s="41"/>
+      <c r="VT8" s="8"/>
+      <c r="VU8" s="8"/>
+      <c r="VV8" s="31"/>
+      <c r="VW8" s="8"/>
+      <c r="VX8" s="8"/>
+      <c r="VY8" s="10"/>
+      <c r="VZ8" s="41"/>
+      <c r="WA8" s="8"/>
+      <c r="WB8" s="8"/>
+      <c r="WC8" s="8"/>
+      <c r="WD8" s="8"/>
+      <c r="WE8" s="8"/>
+      <c r="WF8" s="10"/>
+      <c r="WG8" s="41"/>
+      <c r="WH8" s="8"/>
+      <c r="WI8" s="8"/>
+      <c r="WJ8" s="8"/>
+      <c r="WK8" s="31"/>
     </row>
-    <row r="9" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="201"/>
+    <row r="9" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="212"/>
       <c r="B9" s="72"/>
       <c r="C9" s="73"/>
       <c r="D9" s="74"/>
@@ -6838,7 +7165,7 @@
       <c r="RR9" s="6"/>
       <c r="RS9" s="5"/>
       <c r="RT9" s="7"/>
-      <c r="RU9" s="225"/>
+      <c r="RU9" s="195"/>
       <c r="RV9" s="5"/>
       <c r="RW9" s="5"/>
       <c r="RX9" s="6"/>
@@ -6897,11 +7224,71 @@
       <c r="TY9" s="5"/>
       <c r="TZ9" s="5"/>
       <c r="UA9" s="5"/>
-      <c r="UB9" s="234"/>
+      <c r="UB9" s="204"/>
       <c r="UC9" s="6"/>
+      <c r="UD9" s="5"/>
+      <c r="UE9" s="5"/>
+      <c r="UF9" s="5"/>
+      <c r="UG9" s="5"/>
+      <c r="UH9" s="5"/>
+      <c r="UI9" s="6"/>
+      <c r="UJ9" s="6"/>
+      <c r="UK9" s="5"/>
+      <c r="UL9" s="5"/>
+      <c r="UM9" s="5"/>
+      <c r="UN9" s="5"/>
+      <c r="UO9" s="5"/>
+      <c r="UP9" s="6"/>
+      <c r="UQ9" s="6"/>
+      <c r="UR9" s="5"/>
+      <c r="US9" s="5"/>
+      <c r="UT9" s="5"/>
+      <c r="UU9" s="5"/>
+      <c r="UV9" s="5"/>
+      <c r="UW9" s="6"/>
+      <c r="UX9" s="6"/>
+      <c r="UY9" s="5"/>
+      <c r="UZ9" s="5"/>
+      <c r="VA9" s="5"/>
+      <c r="VB9" s="5"/>
+      <c r="VC9" s="5"/>
+      <c r="VD9" s="6"/>
+      <c r="VE9" s="6"/>
+      <c r="VF9" s="5"/>
+      <c r="VG9" s="5"/>
+      <c r="VH9" s="16"/>
+      <c r="VI9" s="5"/>
+      <c r="VJ9" s="5"/>
+      <c r="VK9" s="6"/>
+      <c r="VL9" s="6"/>
+      <c r="VM9" s="5"/>
+      <c r="VN9" s="5"/>
+      <c r="VO9" s="5"/>
+      <c r="VP9" s="5"/>
+      <c r="VQ9" s="5"/>
+      <c r="VR9" s="6"/>
+      <c r="VS9" s="6"/>
+      <c r="VT9" s="5"/>
+      <c r="VU9" s="5"/>
+      <c r="VV9" s="33"/>
+      <c r="VW9" s="5"/>
+      <c r="VX9" s="5"/>
+      <c r="VY9" s="6"/>
+      <c r="VZ9" s="6"/>
+      <c r="WA9" s="5"/>
+      <c r="WB9" s="5"/>
+      <c r="WC9" s="5"/>
+      <c r="WD9" s="5"/>
+      <c r="WE9" s="5"/>
+      <c r="WF9" s="6"/>
+      <c r="WG9" s="6"/>
+      <c r="WH9" s="5"/>
+      <c r="WI9" s="5"/>
+      <c r="WJ9" s="5"/>
+      <c r="WK9" s="33"/>
     </row>
-    <row r="10" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="201"/>
+    <row r="10" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="212"/>
       <c r="B10" s="72"/>
       <c r="C10" s="73"/>
       <c r="D10" s="74"/>
@@ -7397,7 +7784,7 @@
       <c r="RR10" s="6"/>
       <c r="RS10" s="5"/>
       <c r="RT10" s="7"/>
-      <c r="RU10" s="225"/>
+      <c r="RU10" s="195"/>
       <c r="RV10" s="5"/>
       <c r="RW10" s="5"/>
       <c r="RX10" s="6"/>
@@ -7456,11 +7843,71 @@
       <c r="TY10" s="5"/>
       <c r="TZ10" s="5"/>
       <c r="UA10" s="5"/>
-      <c r="UB10" s="234"/>
+      <c r="UB10" s="204"/>
       <c r="UC10" s="6"/>
+      <c r="UD10" s="5"/>
+      <c r="UE10" s="5"/>
+      <c r="UF10" s="5"/>
+      <c r="UG10" s="5"/>
+      <c r="UH10" s="5"/>
+      <c r="UI10" s="6"/>
+      <c r="UJ10" s="6"/>
+      <c r="UK10" s="5"/>
+      <c r="UL10" s="5"/>
+      <c r="UM10" s="5"/>
+      <c r="UN10" s="5"/>
+      <c r="UO10" s="5"/>
+      <c r="UP10" s="6"/>
+      <c r="UQ10" s="6"/>
+      <c r="UR10" s="5"/>
+      <c r="US10" s="5"/>
+      <c r="UT10" s="5"/>
+      <c r="UU10" s="5"/>
+      <c r="UV10" s="5"/>
+      <c r="UW10" s="6"/>
+      <c r="UX10" s="6"/>
+      <c r="UY10" s="5"/>
+      <c r="UZ10" s="5"/>
+      <c r="VA10" s="5"/>
+      <c r="VB10" s="5"/>
+      <c r="VC10" s="5"/>
+      <c r="VD10" s="6"/>
+      <c r="VE10" s="6"/>
+      <c r="VF10" s="5"/>
+      <c r="VG10" s="5"/>
+      <c r="VH10" s="16"/>
+      <c r="VI10" s="5"/>
+      <c r="VJ10" s="5"/>
+      <c r="VK10" s="6"/>
+      <c r="VL10" s="6"/>
+      <c r="VM10" s="5"/>
+      <c r="VN10" s="5"/>
+      <c r="VO10" s="5"/>
+      <c r="VP10" s="5"/>
+      <c r="VQ10" s="5"/>
+      <c r="VR10" s="6"/>
+      <c r="VS10" s="6"/>
+      <c r="VT10" s="5"/>
+      <c r="VU10" s="5"/>
+      <c r="VV10" s="33"/>
+      <c r="VW10" s="5"/>
+      <c r="VX10" s="5"/>
+      <c r="VY10" s="6"/>
+      <c r="VZ10" s="6"/>
+      <c r="WA10" s="5"/>
+      <c r="WB10" s="5"/>
+      <c r="WC10" s="5"/>
+      <c r="WD10" s="5"/>
+      <c r="WE10" s="5"/>
+      <c r="WF10" s="6"/>
+      <c r="WG10" s="6"/>
+      <c r="WH10" s="5"/>
+      <c r="WI10" s="5"/>
+      <c r="WJ10" s="5"/>
+      <c r="WK10" s="33"/>
     </row>
-    <row r="11" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="201"/>
+    <row r="11" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="212"/>
       <c r="B11" s="72"/>
       <c r="C11" s="73"/>
       <c r="D11" s="74"/>
@@ -7958,7 +8405,7 @@
       <c r="RR11" s="6"/>
       <c r="RS11" s="5"/>
       <c r="RT11" s="7"/>
-      <c r="RU11" s="225"/>
+      <c r="RU11" s="195"/>
       <c r="RV11" s="5"/>
       <c r="RW11" s="5"/>
       <c r="RX11" s="6"/>
@@ -8017,11 +8464,71 @@
       <c r="TY11" s="5"/>
       <c r="TZ11" s="5"/>
       <c r="UA11" s="5"/>
-      <c r="UB11" s="234"/>
+      <c r="UB11" s="204"/>
       <c r="UC11" s="6"/>
+      <c r="UD11" s="5"/>
+      <c r="UE11" s="5"/>
+      <c r="UF11" s="5"/>
+      <c r="UG11" s="5"/>
+      <c r="UH11" s="5"/>
+      <c r="UI11" s="6"/>
+      <c r="UJ11" s="6"/>
+      <c r="UK11" s="5"/>
+      <c r="UL11" s="5"/>
+      <c r="UM11" s="5"/>
+      <c r="UN11" s="5"/>
+      <c r="UO11" s="5"/>
+      <c r="UP11" s="6"/>
+      <c r="UQ11" s="6"/>
+      <c r="UR11" s="5"/>
+      <c r="US11" s="5"/>
+      <c r="UT11" s="5"/>
+      <c r="UU11" s="5"/>
+      <c r="UV11" s="5"/>
+      <c r="UW11" s="6"/>
+      <c r="UX11" s="6"/>
+      <c r="UY11" s="5"/>
+      <c r="UZ11" s="5"/>
+      <c r="VA11" s="5"/>
+      <c r="VB11" s="5"/>
+      <c r="VC11" s="5"/>
+      <c r="VD11" s="6"/>
+      <c r="VE11" s="6"/>
+      <c r="VF11" s="5"/>
+      <c r="VG11" s="5"/>
+      <c r="VH11" s="16"/>
+      <c r="VI11" s="5"/>
+      <c r="VJ11" s="5"/>
+      <c r="VK11" s="6"/>
+      <c r="VL11" s="6"/>
+      <c r="VM11" s="5"/>
+      <c r="VN11" s="5"/>
+      <c r="VO11" s="5"/>
+      <c r="VP11" s="5"/>
+      <c r="VQ11" s="5"/>
+      <c r="VR11" s="6"/>
+      <c r="VS11" s="6"/>
+      <c r="VT11" s="5"/>
+      <c r="VU11" s="5"/>
+      <c r="VV11" s="33"/>
+      <c r="VW11" s="5"/>
+      <c r="VX11" s="5"/>
+      <c r="VY11" s="6"/>
+      <c r="VZ11" s="6"/>
+      <c r="WA11" s="5"/>
+      <c r="WB11" s="5"/>
+      <c r="WC11" s="5"/>
+      <c r="WD11" s="5"/>
+      <c r="WE11" s="5"/>
+      <c r="WF11" s="6"/>
+      <c r="WG11" s="6"/>
+      <c r="WH11" s="5"/>
+      <c r="WI11" s="5"/>
+      <c r="WJ11" s="5"/>
+      <c r="WK11" s="33"/>
     </row>
-    <row r="12" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="201"/>
+    <row r="12" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="212"/>
       <c r="B12" s="72"/>
       <c r="C12" s="73"/>
       <c r="D12" s="74"/>
@@ -8517,7 +9024,7 @@
       <c r="RR12" s="6"/>
       <c r="RS12" s="5"/>
       <c r="RT12" s="7"/>
-      <c r="RU12" s="225"/>
+      <c r="RU12" s="195"/>
       <c r="RV12" s="5"/>
       <c r="RW12" s="5"/>
       <c r="RX12" s="6"/>
@@ -8576,11 +9083,71 @@
       <c r="TY12" s="5"/>
       <c r="TZ12" s="5"/>
       <c r="UA12" s="5"/>
-      <c r="UB12" s="234"/>
+      <c r="UB12" s="204"/>
       <c r="UC12" s="6"/>
+      <c r="UD12" s="5"/>
+      <c r="UE12" s="5"/>
+      <c r="UF12" s="5"/>
+      <c r="UG12" s="5"/>
+      <c r="UH12" s="5"/>
+      <c r="UI12" s="6"/>
+      <c r="UJ12" s="6"/>
+      <c r="UK12" s="5"/>
+      <c r="UL12" s="5"/>
+      <c r="UM12" s="5"/>
+      <c r="UN12" s="5"/>
+      <c r="UO12" s="5"/>
+      <c r="UP12" s="6"/>
+      <c r="UQ12" s="6"/>
+      <c r="UR12" s="5"/>
+      <c r="US12" s="5"/>
+      <c r="UT12" s="5"/>
+      <c r="UU12" s="5"/>
+      <c r="UV12" s="5"/>
+      <c r="UW12" s="6"/>
+      <c r="UX12" s="6"/>
+      <c r="UY12" s="5"/>
+      <c r="UZ12" s="5"/>
+      <c r="VA12" s="5"/>
+      <c r="VB12" s="5"/>
+      <c r="VC12" s="5"/>
+      <c r="VD12" s="6"/>
+      <c r="VE12" s="6"/>
+      <c r="VF12" s="5"/>
+      <c r="VG12" s="5"/>
+      <c r="VH12" s="16"/>
+      <c r="VI12" s="5"/>
+      <c r="VJ12" s="5"/>
+      <c r="VK12" s="6"/>
+      <c r="VL12" s="6"/>
+      <c r="VM12" s="5"/>
+      <c r="VN12" s="5"/>
+      <c r="VO12" s="5"/>
+      <c r="VP12" s="5"/>
+      <c r="VQ12" s="5"/>
+      <c r="VR12" s="6"/>
+      <c r="VS12" s="6"/>
+      <c r="VT12" s="5"/>
+      <c r="VU12" s="5"/>
+      <c r="VV12" s="33"/>
+      <c r="VW12" s="5"/>
+      <c r="VX12" s="5"/>
+      <c r="VY12" s="6"/>
+      <c r="VZ12" s="6"/>
+      <c r="WA12" s="5"/>
+      <c r="WB12" s="5"/>
+      <c r="WC12" s="5"/>
+      <c r="WD12" s="5"/>
+      <c r="WE12" s="5"/>
+      <c r="WF12" s="6"/>
+      <c r="WG12" s="6"/>
+      <c r="WH12" s="5"/>
+      <c r="WI12" s="5"/>
+      <c r="WJ12" s="5"/>
+      <c r="WK12" s="33"/>
     </row>
-    <row r="13" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="201"/>
+    <row r="13" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="212"/>
       <c r="B13" s="72"/>
       <c r="C13" s="73"/>
       <c r="D13" s="74"/>
@@ -9072,7 +9639,7 @@
       <c r="RR13" s="6"/>
       <c r="RS13" s="5"/>
       <c r="RT13" s="7"/>
-      <c r="RU13" s="225"/>
+      <c r="RU13" s="195"/>
       <c r="RV13" s="5"/>
       <c r="RW13" s="5"/>
       <c r="RX13" s="6"/>
@@ -9131,11 +9698,71 @@
       <c r="TY13" s="5"/>
       <c r="TZ13" s="5"/>
       <c r="UA13" s="5"/>
-      <c r="UB13" s="234"/>
+      <c r="UB13" s="204"/>
       <c r="UC13" s="6"/>
+      <c r="UD13" s="5"/>
+      <c r="UE13" s="5"/>
+      <c r="UF13" s="5"/>
+      <c r="UG13" s="5"/>
+      <c r="UH13" s="5"/>
+      <c r="UI13" s="6"/>
+      <c r="UJ13" s="6"/>
+      <c r="UK13" s="5"/>
+      <c r="UL13" s="5"/>
+      <c r="UM13" s="5"/>
+      <c r="UN13" s="5"/>
+      <c r="UO13" s="5"/>
+      <c r="UP13" s="6"/>
+      <c r="UQ13" s="6"/>
+      <c r="UR13" s="5"/>
+      <c r="US13" s="5"/>
+      <c r="UT13" s="5"/>
+      <c r="UU13" s="5"/>
+      <c r="UV13" s="5"/>
+      <c r="UW13" s="6"/>
+      <c r="UX13" s="6"/>
+      <c r="UY13" s="5"/>
+      <c r="UZ13" s="5"/>
+      <c r="VA13" s="5"/>
+      <c r="VB13" s="5"/>
+      <c r="VC13" s="5"/>
+      <c r="VD13" s="6"/>
+      <c r="VE13" s="6"/>
+      <c r="VF13" s="5"/>
+      <c r="VG13" s="5"/>
+      <c r="VH13" s="16"/>
+      <c r="VI13" s="5"/>
+      <c r="VJ13" s="5"/>
+      <c r="VK13" s="6"/>
+      <c r="VL13" s="6"/>
+      <c r="VM13" s="5"/>
+      <c r="VN13" s="5"/>
+      <c r="VO13" s="5"/>
+      <c r="VP13" s="5"/>
+      <c r="VQ13" s="5"/>
+      <c r="VR13" s="6"/>
+      <c r="VS13" s="6"/>
+      <c r="VT13" s="5"/>
+      <c r="VU13" s="5"/>
+      <c r="VV13" s="33"/>
+      <c r="VW13" s="5"/>
+      <c r="VX13" s="5"/>
+      <c r="VY13" s="6"/>
+      <c r="VZ13" s="6"/>
+      <c r="WA13" s="5"/>
+      <c r="WB13" s="5"/>
+      <c r="WC13" s="5"/>
+      <c r="WD13" s="5"/>
+      <c r="WE13" s="5"/>
+      <c r="WF13" s="6"/>
+      <c r="WG13" s="6"/>
+      <c r="WH13" s="5"/>
+      <c r="WI13" s="5"/>
+      <c r="WJ13" s="5"/>
+      <c r="WK13" s="33"/>
     </row>
-    <row r="14" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="201"/>
+    <row r="14" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="212"/>
       <c r="B14" s="80"/>
       <c r="C14" s="81"/>
       <c r="D14" s="82"/>
@@ -9625,7 +10252,7 @@
       <c r="RR14" s="15"/>
       <c r="RS14" s="14"/>
       <c r="RT14" s="18"/>
-      <c r="RU14" s="226"/>
+      <c r="RU14" s="196"/>
       <c r="RV14" s="14"/>
       <c r="RW14" s="14"/>
       <c r="RX14" s="15"/>
@@ -9684,11 +10311,71 @@
       <c r="TY14" s="14"/>
       <c r="TZ14" s="14"/>
       <c r="UA14" s="14"/>
-      <c r="UB14" s="235"/>
+      <c r="UB14" s="205"/>
       <c r="UC14" s="15"/>
+      <c r="UD14" s="14"/>
+      <c r="UE14" s="14"/>
+      <c r="UF14" s="14"/>
+      <c r="UG14" s="14"/>
+      <c r="UH14" s="14"/>
+      <c r="UI14" s="15"/>
+      <c r="UJ14" s="15"/>
+      <c r="UK14" s="14"/>
+      <c r="UL14" s="14"/>
+      <c r="UM14" s="14"/>
+      <c r="UN14" s="14"/>
+      <c r="UO14" s="14"/>
+      <c r="UP14" s="15"/>
+      <c r="UQ14" s="15"/>
+      <c r="UR14" s="14"/>
+      <c r="US14" s="14"/>
+      <c r="UT14" s="14"/>
+      <c r="UU14" s="14"/>
+      <c r="UV14" s="14"/>
+      <c r="UW14" s="15"/>
+      <c r="UX14" s="15"/>
+      <c r="UY14" s="14"/>
+      <c r="UZ14" s="14"/>
+      <c r="VA14" s="14"/>
+      <c r="VB14" s="14"/>
+      <c r="VC14" s="14"/>
+      <c r="VD14" s="15"/>
+      <c r="VE14" s="15"/>
+      <c r="VF14" s="14"/>
+      <c r="VG14" s="14"/>
+      <c r="VH14" s="17"/>
+      <c r="VI14" s="14"/>
+      <c r="VJ14" s="14"/>
+      <c r="VK14" s="15"/>
+      <c r="VL14" s="15"/>
+      <c r="VM14" s="14"/>
+      <c r="VN14" s="14"/>
+      <c r="VO14" s="14"/>
+      <c r="VP14" s="14"/>
+      <c r="VQ14" s="14"/>
+      <c r="VR14" s="15"/>
+      <c r="VS14" s="15"/>
+      <c r="VT14" s="14"/>
+      <c r="VU14" s="14"/>
+      <c r="VV14" s="34"/>
+      <c r="VW14" s="14"/>
+      <c r="VX14" s="14"/>
+      <c r="VY14" s="15"/>
+      <c r="VZ14" s="15"/>
+      <c r="WA14" s="14"/>
+      <c r="WB14" s="14"/>
+      <c r="WC14" s="14"/>
+      <c r="WD14" s="14"/>
+      <c r="WE14" s="14"/>
+      <c r="WF14" s="15"/>
+      <c r="WG14" s="15"/>
+      <c r="WH14" s="14"/>
+      <c r="WI14" s="14"/>
+      <c r="WJ14" s="14"/>
+      <c r="WK14" s="34"/>
     </row>
-    <row r="15" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="211" t="s">
+    <row r="15" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="213" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="88"/>
@@ -10180,7 +10867,7 @@
       <c r="RR15" s="27"/>
       <c r="RS15" s="26"/>
       <c r="RT15" s="29"/>
-      <c r="RU15" s="227"/>
+      <c r="RU15" s="197"/>
       <c r="RV15" s="26"/>
       <c r="RW15" s="26"/>
       <c r="RX15" s="27"/>
@@ -10214,7 +10901,9 @@
       <c r="SZ15" s="181"/>
       <c r="TA15" s="27"/>
       <c r="TB15" s="26"/>
-      <c r="TC15" s="26"/>
+      <c r="TC15" s="211" t="s">
+        <v>174</v>
+      </c>
       <c r="TD15" s="26"/>
       <c r="TE15" s="26"/>
       <c r="TF15" s="26"/>
@@ -10239,11 +10928,71 @@
       <c r="TY15" s="26"/>
       <c r="TZ15" s="26"/>
       <c r="UA15" s="26"/>
-      <c r="UB15" s="236"/>
+      <c r="UB15" s="206"/>
       <c r="UC15" s="27"/>
+      <c r="UD15" s="26"/>
+      <c r="UE15" s="26"/>
+      <c r="UF15" s="26"/>
+      <c r="UG15" s="26"/>
+      <c r="UH15" s="26"/>
+      <c r="UI15" s="27"/>
+      <c r="UJ15" s="27"/>
+      <c r="UK15" s="26"/>
+      <c r="UL15" s="26"/>
+      <c r="UM15" s="26"/>
+      <c r="UN15" s="26"/>
+      <c r="UO15" s="26"/>
+      <c r="UP15" s="27"/>
+      <c r="UQ15" s="27"/>
+      <c r="UR15" s="26"/>
+      <c r="US15" s="26"/>
+      <c r="UT15" s="26"/>
+      <c r="UU15" s="26"/>
+      <c r="UV15" s="26"/>
+      <c r="UW15" s="27"/>
+      <c r="UX15" s="27"/>
+      <c r="UY15" s="26"/>
+      <c r="UZ15" s="26"/>
+      <c r="VA15" s="26"/>
+      <c r="VB15" s="26"/>
+      <c r="VC15" s="26"/>
+      <c r="VD15" s="27"/>
+      <c r="VE15" s="27"/>
+      <c r="VF15" s="26"/>
+      <c r="VG15" s="26"/>
+      <c r="VH15" s="28"/>
+      <c r="VI15" s="26"/>
+      <c r="VJ15" s="26"/>
+      <c r="VK15" s="27"/>
+      <c r="VL15" s="27"/>
+      <c r="VM15" s="26"/>
+      <c r="VN15" s="26"/>
+      <c r="VO15" s="26"/>
+      <c r="VP15" s="26"/>
+      <c r="VQ15" s="26"/>
+      <c r="VR15" s="27"/>
+      <c r="VS15" s="27"/>
+      <c r="VT15" s="26"/>
+      <c r="VU15" s="26"/>
+      <c r="VV15" s="37"/>
+      <c r="VW15" s="26"/>
+      <c r="VX15" s="26"/>
+      <c r="VY15" s="27"/>
+      <c r="VZ15" s="27"/>
+      <c r="WA15" s="26"/>
+      <c r="WB15" s="26"/>
+      <c r="WC15" s="26"/>
+      <c r="WD15" s="26"/>
+      <c r="WE15" s="26"/>
+      <c r="WF15" s="27"/>
+      <c r="WG15" s="27"/>
+      <c r="WH15" s="26"/>
+      <c r="WI15" s="26"/>
+      <c r="WJ15" s="26"/>
+      <c r="WK15" s="37"/>
     </row>
-    <row r="16" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="201"/>
+    <row r="16" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="212"/>
       <c r="B16" s="94"/>
       <c r="C16" s="95"/>
       <c r="D16" s="96"/>
@@ -10749,7 +11498,7 @@
       <c r="RR16" s="12"/>
       <c r="RS16" s="11"/>
       <c r="RT16" s="13"/>
-      <c r="RU16" s="228"/>
+      <c r="RU16" s="198"/>
       <c r="RV16" s="11"/>
       <c r="RW16" s="11"/>
       <c r="RX16" s="12"/>
@@ -10785,12 +11534,16 @@
       <c r="TB16" s="11"/>
       <c r="TC16" s="11"/>
       <c r="TD16" s="11"/>
-      <c r="TE16" s="11"/>
+      <c r="TE16" s="191" t="s">
+        <v>175</v>
+      </c>
       <c r="TF16" s="11"/>
       <c r="TG16" s="12"/>
       <c r="TH16" s="12"/>
       <c r="TI16" s="11"/>
-      <c r="TJ16" s="11"/>
+      <c r="TJ16" s="191" t="s">
+        <v>177</v>
+      </c>
       <c r="TK16" s="11"/>
       <c r="TL16" s="11"/>
       <c r="TM16" s="11"/>
@@ -10808,11 +11561,71 @@
       <c r="TY16" s="11"/>
       <c r="TZ16" s="11"/>
       <c r="UA16" s="11"/>
-      <c r="UB16" s="237"/>
+      <c r="UB16" s="207"/>
       <c r="UC16" s="12"/>
+      <c r="UD16" s="11"/>
+      <c r="UE16" s="11"/>
+      <c r="UF16" s="11"/>
+      <c r="UG16" s="11"/>
+      <c r="UH16" s="11"/>
+      <c r="UI16" s="12"/>
+      <c r="UJ16" s="12"/>
+      <c r="UK16" s="11"/>
+      <c r="UL16" s="11"/>
+      <c r="UM16" s="11"/>
+      <c r="UN16" s="11"/>
+      <c r="UO16" s="11"/>
+      <c r="UP16" s="12"/>
+      <c r="UQ16" s="12"/>
+      <c r="UR16" s="11"/>
+      <c r="US16" s="11"/>
+      <c r="UT16" s="11"/>
+      <c r="UU16" s="11"/>
+      <c r="UV16" s="11"/>
+      <c r="UW16" s="12"/>
+      <c r="UX16" s="12"/>
+      <c r="UY16" s="11"/>
+      <c r="UZ16" s="11"/>
+      <c r="VA16" s="11"/>
+      <c r="VB16" s="11"/>
+      <c r="VC16" s="11"/>
+      <c r="VD16" s="12"/>
+      <c r="VE16" s="12"/>
+      <c r="VF16" s="11"/>
+      <c r="VG16" s="11"/>
+      <c r="VH16" s="19"/>
+      <c r="VI16" s="11"/>
+      <c r="VJ16" s="11"/>
+      <c r="VK16" s="12"/>
+      <c r="VL16" s="12"/>
+      <c r="VM16" s="11"/>
+      <c r="VN16" s="11"/>
+      <c r="VO16" s="11"/>
+      <c r="VP16" s="11"/>
+      <c r="VQ16" s="11"/>
+      <c r="VR16" s="12"/>
+      <c r="VS16" s="12"/>
+      <c r="VT16" s="11"/>
+      <c r="VU16" s="11"/>
+      <c r="VV16" s="35"/>
+      <c r="VW16" s="11"/>
+      <c r="VX16" s="11"/>
+      <c r="VY16" s="12"/>
+      <c r="VZ16" s="12"/>
+      <c r="WA16" s="11"/>
+      <c r="WB16" s="11"/>
+      <c r="WC16" s="11"/>
+      <c r="WD16" s="11"/>
+      <c r="WE16" s="11"/>
+      <c r="WF16" s="12"/>
+      <c r="WG16" s="12"/>
+      <c r="WH16" s="11"/>
+      <c r="WI16" s="11"/>
+      <c r="WJ16" s="11"/>
+      <c r="WK16" s="35"/>
     </row>
-    <row r="17" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="201"/>
+    <row r="17" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="212"/>
       <c r="B17" s="94"/>
       <c r="C17" s="95"/>
       <c r="D17" s="96"/>
@@ -11313,7 +12126,7 @@
       <c r="RR17" s="1"/>
       <c r="RS17" s="2"/>
       <c r="RT17" s="4"/>
-      <c r="RU17" s="229"/>
+      <c r="RU17" s="199"/>
       <c r="RV17" s="2"/>
       <c r="RW17" s="2"/>
       <c r="RX17" s="1"/>
@@ -11354,7 +12167,9 @@
       <c r="TG17" s="1"/>
       <c r="TH17" s="1"/>
       <c r="TI17" s="2"/>
-      <c r="TJ17" s="2"/>
+      <c r="TJ17" s="191" t="s">
+        <v>176</v>
+      </c>
       <c r="TK17" s="2"/>
       <c r="TL17" s="2"/>
       <c r="TM17" s="2"/>
@@ -11372,11 +12187,71 @@
       <c r="TY17" s="2"/>
       <c r="TZ17" s="2"/>
       <c r="UA17" s="2"/>
-      <c r="UB17" s="238"/>
+      <c r="UB17" s="208"/>
       <c r="UC17" s="1"/>
+      <c r="UD17" s="2"/>
+      <c r="UE17" s="2"/>
+      <c r="UF17" s="2"/>
+      <c r="UG17" s="2"/>
+      <c r="UH17" s="2"/>
+      <c r="UI17" s="1"/>
+      <c r="UJ17" s="1"/>
+      <c r="UK17" s="2"/>
+      <c r="UL17" s="2"/>
+      <c r="UM17" s="2"/>
+      <c r="UN17" s="2"/>
+      <c r="UO17" s="2"/>
+      <c r="UP17" s="1"/>
+      <c r="UQ17" s="1"/>
+      <c r="UR17" s="2"/>
+      <c r="US17" s="2"/>
+      <c r="UT17" s="2"/>
+      <c r="UU17" s="2"/>
+      <c r="UV17" s="2"/>
+      <c r="UW17" s="1"/>
+      <c r="UX17" s="1"/>
+      <c r="UY17" s="2"/>
+      <c r="UZ17" s="2"/>
+      <c r="VA17" s="2"/>
+      <c r="VB17" s="2"/>
+      <c r="VC17" s="2"/>
+      <c r="VD17" s="1"/>
+      <c r="VE17" s="1"/>
+      <c r="VF17" s="2"/>
+      <c r="VG17" s="2"/>
+      <c r="VH17" s="20"/>
+      <c r="VI17" s="2"/>
+      <c r="VJ17" s="2"/>
+      <c r="VK17" s="1"/>
+      <c r="VL17" s="1"/>
+      <c r="VM17" s="2"/>
+      <c r="VN17" s="2"/>
+      <c r="VO17" s="2"/>
+      <c r="VP17" s="2"/>
+      <c r="VQ17" s="2"/>
+      <c r="VR17" s="1"/>
+      <c r="VS17" s="1"/>
+      <c r="VT17" s="2"/>
+      <c r="VU17" s="2"/>
+      <c r="VV17" s="36"/>
+      <c r="VW17" s="2"/>
+      <c r="VX17" s="2"/>
+      <c r="VY17" s="1"/>
+      <c r="VZ17" s="1"/>
+      <c r="WA17" s="2"/>
+      <c r="WB17" s="2"/>
+      <c r="WC17" s="2"/>
+      <c r="WD17" s="2"/>
+      <c r="WE17" s="2"/>
+      <c r="WF17" s="1"/>
+      <c r="WG17" s="1"/>
+      <c r="WH17" s="2"/>
+      <c r="WI17" s="2"/>
+      <c r="WJ17" s="2"/>
+      <c r="WK17" s="36"/>
     </row>
-    <row r="18" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="201"/>
+    <row r="18" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="212"/>
       <c r="B18" s="94"/>
       <c r="C18" s="95"/>
       <c r="D18" s="96"/>
@@ -11869,7 +12744,7 @@
       <c r="RR18" s="1"/>
       <c r="RS18" s="2"/>
       <c r="RT18" s="4"/>
-      <c r="RU18" s="229"/>
+      <c r="RU18" s="199"/>
       <c r="RV18" s="2"/>
       <c r="RW18" s="2"/>
       <c r="RX18" s="1"/>
@@ -11928,11 +12803,71 @@
       <c r="TY18" s="2"/>
       <c r="TZ18" s="2"/>
       <c r="UA18" s="2"/>
-      <c r="UB18" s="238"/>
+      <c r="UB18" s="208"/>
       <c r="UC18" s="1"/>
+      <c r="UD18" s="2"/>
+      <c r="UE18" s="2"/>
+      <c r="UF18" s="2"/>
+      <c r="UG18" s="2"/>
+      <c r="UH18" s="2"/>
+      <c r="UI18" s="1"/>
+      <c r="UJ18" s="1"/>
+      <c r="UK18" s="2"/>
+      <c r="UL18" s="2"/>
+      <c r="UM18" s="2"/>
+      <c r="UN18" s="2"/>
+      <c r="UO18" s="2"/>
+      <c r="UP18" s="1"/>
+      <c r="UQ18" s="1"/>
+      <c r="UR18" s="2"/>
+      <c r="US18" s="2"/>
+      <c r="UT18" s="2"/>
+      <c r="UU18" s="2"/>
+      <c r="UV18" s="2"/>
+      <c r="UW18" s="1"/>
+      <c r="UX18" s="1"/>
+      <c r="UY18" s="2"/>
+      <c r="UZ18" s="2"/>
+      <c r="VA18" s="2"/>
+      <c r="VB18" s="2"/>
+      <c r="VC18" s="2"/>
+      <c r="VD18" s="1"/>
+      <c r="VE18" s="1"/>
+      <c r="VF18" s="2"/>
+      <c r="VG18" s="2"/>
+      <c r="VH18" s="20"/>
+      <c r="VI18" s="2"/>
+      <c r="VJ18" s="2"/>
+      <c r="VK18" s="1"/>
+      <c r="VL18" s="1"/>
+      <c r="VM18" s="2"/>
+      <c r="VN18" s="2"/>
+      <c r="VO18" s="2"/>
+      <c r="VP18" s="2"/>
+      <c r="VQ18" s="2"/>
+      <c r="VR18" s="1"/>
+      <c r="VS18" s="1"/>
+      <c r="VT18" s="2"/>
+      <c r="VU18" s="2"/>
+      <c r="VV18" s="36"/>
+      <c r="VW18" s="2"/>
+      <c r="VX18" s="2"/>
+      <c r="VY18" s="1"/>
+      <c r="VZ18" s="1"/>
+      <c r="WA18" s="2"/>
+      <c r="WB18" s="2"/>
+      <c r="WC18" s="2"/>
+      <c r="WD18" s="2"/>
+      <c r="WE18" s="2"/>
+      <c r="WF18" s="1"/>
+      <c r="WG18" s="1"/>
+      <c r="WH18" s="2"/>
+      <c r="WI18" s="2"/>
+      <c r="WJ18" s="2"/>
+      <c r="WK18" s="36"/>
     </row>
-    <row r="19" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="201"/>
+    <row r="19" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="212"/>
       <c r="B19" s="94"/>
       <c r="C19" s="95"/>
       <c r="D19" s="96"/>
@@ -12420,7 +13355,7 @@
       <c r="RR19" s="1"/>
       <c r="RS19" s="2"/>
       <c r="RT19" s="4"/>
-      <c r="RU19" s="229"/>
+      <c r="RU19" s="199"/>
       <c r="RV19" s="2"/>
       <c r="RW19" s="2"/>
       <c r="RX19" s="1"/>
@@ -12479,11 +13414,71 @@
       <c r="TY19" s="2"/>
       <c r="TZ19" s="2"/>
       <c r="UA19" s="2"/>
-      <c r="UB19" s="238"/>
+      <c r="UB19" s="208"/>
       <c r="UC19" s="1"/>
+      <c r="UD19" s="2"/>
+      <c r="UE19" s="2"/>
+      <c r="UF19" s="2"/>
+      <c r="UG19" s="2"/>
+      <c r="UH19" s="2"/>
+      <c r="UI19" s="1"/>
+      <c r="UJ19" s="1"/>
+      <c r="UK19" s="2"/>
+      <c r="UL19" s="2"/>
+      <c r="UM19" s="2"/>
+      <c r="UN19" s="2"/>
+      <c r="UO19" s="2"/>
+      <c r="UP19" s="1"/>
+      <c r="UQ19" s="1"/>
+      <c r="UR19" s="2"/>
+      <c r="US19" s="2"/>
+      <c r="UT19" s="2"/>
+      <c r="UU19" s="2"/>
+      <c r="UV19" s="2"/>
+      <c r="UW19" s="1"/>
+      <c r="UX19" s="1"/>
+      <c r="UY19" s="2"/>
+      <c r="UZ19" s="2"/>
+      <c r="VA19" s="2"/>
+      <c r="VB19" s="2"/>
+      <c r="VC19" s="2"/>
+      <c r="VD19" s="1"/>
+      <c r="VE19" s="1"/>
+      <c r="VF19" s="2"/>
+      <c r="VG19" s="2"/>
+      <c r="VH19" s="20"/>
+      <c r="VI19" s="2"/>
+      <c r="VJ19" s="2"/>
+      <c r="VK19" s="1"/>
+      <c r="VL19" s="1"/>
+      <c r="VM19" s="2"/>
+      <c r="VN19" s="2"/>
+      <c r="VO19" s="2"/>
+      <c r="VP19" s="2"/>
+      <c r="VQ19" s="2"/>
+      <c r="VR19" s="1"/>
+      <c r="VS19" s="1"/>
+      <c r="VT19" s="2"/>
+      <c r="VU19" s="2"/>
+      <c r="VV19" s="36"/>
+      <c r="VW19" s="2"/>
+      <c r="VX19" s="2"/>
+      <c r="VY19" s="1"/>
+      <c r="VZ19" s="1"/>
+      <c r="WA19" s="2"/>
+      <c r="WB19" s="2"/>
+      <c r="WC19" s="2"/>
+      <c r="WD19" s="2"/>
+      <c r="WE19" s="2"/>
+      <c r="WF19" s="1"/>
+      <c r="WG19" s="1"/>
+      <c r="WH19" s="2"/>
+      <c r="WI19" s="2"/>
+      <c r="WJ19" s="2"/>
+      <c r="WK19" s="36"/>
     </row>
-    <row r="20" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="201"/>
+    <row r="20" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="212"/>
       <c r="B20" s="94"/>
       <c r="C20" s="95"/>
       <c r="D20" s="96"/>
@@ -12971,7 +13966,7 @@
       <c r="RR20" s="1"/>
       <c r="RS20" s="2"/>
       <c r="RT20" s="4"/>
-      <c r="RU20" s="229"/>
+      <c r="RU20" s="199"/>
       <c r="RV20" s="2"/>
       <c r="RW20" s="2"/>
       <c r="RX20" s="1"/>
@@ -13030,11 +14025,71 @@
       <c r="TY20" s="2"/>
       <c r="TZ20" s="2"/>
       <c r="UA20" s="2"/>
-      <c r="UB20" s="238"/>
+      <c r="UB20" s="208"/>
       <c r="UC20" s="1"/>
+      <c r="UD20" s="2"/>
+      <c r="UE20" s="2"/>
+      <c r="UF20" s="2"/>
+      <c r="UG20" s="2"/>
+      <c r="UH20" s="2"/>
+      <c r="UI20" s="1"/>
+      <c r="UJ20" s="1"/>
+      <c r="UK20" s="2"/>
+      <c r="UL20" s="2"/>
+      <c r="UM20" s="2"/>
+      <c r="UN20" s="2"/>
+      <c r="UO20" s="2"/>
+      <c r="UP20" s="1"/>
+      <c r="UQ20" s="1"/>
+      <c r="UR20" s="2"/>
+      <c r="US20" s="2"/>
+      <c r="UT20" s="2"/>
+      <c r="UU20" s="2"/>
+      <c r="UV20" s="2"/>
+      <c r="UW20" s="1"/>
+      <c r="UX20" s="1"/>
+      <c r="UY20" s="2"/>
+      <c r="UZ20" s="2"/>
+      <c r="VA20" s="2"/>
+      <c r="VB20" s="2"/>
+      <c r="VC20" s="2"/>
+      <c r="VD20" s="1"/>
+      <c r="VE20" s="1"/>
+      <c r="VF20" s="2"/>
+      <c r="VG20" s="2"/>
+      <c r="VH20" s="20"/>
+      <c r="VI20" s="2"/>
+      <c r="VJ20" s="2"/>
+      <c r="VK20" s="1"/>
+      <c r="VL20" s="1"/>
+      <c r="VM20" s="2"/>
+      <c r="VN20" s="2"/>
+      <c r="VO20" s="2"/>
+      <c r="VP20" s="2"/>
+      <c r="VQ20" s="2"/>
+      <c r="VR20" s="1"/>
+      <c r="VS20" s="1"/>
+      <c r="VT20" s="2"/>
+      <c r="VU20" s="2"/>
+      <c r="VV20" s="36"/>
+      <c r="VW20" s="2"/>
+      <c r="VX20" s="2"/>
+      <c r="VY20" s="1"/>
+      <c r="VZ20" s="1"/>
+      <c r="WA20" s="2"/>
+      <c r="WB20" s="2"/>
+      <c r="WC20" s="2"/>
+      <c r="WD20" s="2"/>
+      <c r="WE20" s="2"/>
+      <c r="WF20" s="1"/>
+      <c r="WG20" s="1"/>
+      <c r="WH20" s="2"/>
+      <c r="WI20" s="2"/>
+      <c r="WJ20" s="2"/>
+      <c r="WK20" s="36"/>
     </row>
-    <row r="21" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="201"/>
+    <row r="21" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="212"/>
       <c r="B21" s="94"/>
       <c r="C21" s="95"/>
       <c r="D21" s="96"/>
@@ -13522,7 +14577,7 @@
       <c r="RR21" s="123"/>
       <c r="RS21" s="124"/>
       <c r="RT21" s="126"/>
-      <c r="RU21" s="230"/>
+      <c r="RU21" s="200"/>
       <c r="RV21" s="124"/>
       <c r="RW21" s="124"/>
       <c r="RX21" s="123"/>
@@ -13581,11 +14636,71 @@
       <c r="TY21" s="124"/>
       <c r="TZ21" s="124"/>
       <c r="UA21" s="124"/>
-      <c r="UB21" s="239"/>
+      <c r="UB21" s="209"/>
       <c r="UC21" s="123"/>
+      <c r="UD21" s="124"/>
+      <c r="UE21" s="124"/>
+      <c r="UF21" s="124"/>
+      <c r="UG21" s="124"/>
+      <c r="UH21" s="124"/>
+      <c r="UI21" s="123"/>
+      <c r="UJ21" s="123"/>
+      <c r="UK21" s="124"/>
+      <c r="UL21" s="124"/>
+      <c r="UM21" s="124"/>
+      <c r="UN21" s="124"/>
+      <c r="UO21" s="124"/>
+      <c r="UP21" s="123"/>
+      <c r="UQ21" s="123"/>
+      <c r="UR21" s="124"/>
+      <c r="US21" s="124"/>
+      <c r="UT21" s="124"/>
+      <c r="UU21" s="124"/>
+      <c r="UV21" s="124"/>
+      <c r="UW21" s="123"/>
+      <c r="UX21" s="123"/>
+      <c r="UY21" s="124"/>
+      <c r="UZ21" s="124"/>
+      <c r="VA21" s="124"/>
+      <c r="VB21" s="124"/>
+      <c r="VC21" s="124"/>
+      <c r="VD21" s="123"/>
+      <c r="VE21" s="123"/>
+      <c r="VF21" s="124"/>
+      <c r="VG21" s="124"/>
+      <c r="VH21" s="125"/>
+      <c r="VI21" s="124"/>
+      <c r="VJ21" s="124"/>
+      <c r="VK21" s="123"/>
+      <c r="VL21" s="123"/>
+      <c r="VM21" s="124"/>
+      <c r="VN21" s="124"/>
+      <c r="VO21" s="124"/>
+      <c r="VP21" s="124"/>
+      <c r="VQ21" s="124"/>
+      <c r="VR21" s="123"/>
+      <c r="VS21" s="123"/>
+      <c r="VT21" s="124"/>
+      <c r="VU21" s="124"/>
+      <c r="VV21" s="122"/>
+      <c r="VW21" s="124"/>
+      <c r="VX21" s="124"/>
+      <c r="VY21" s="123"/>
+      <c r="VZ21" s="123"/>
+      <c r="WA21" s="124"/>
+      <c r="WB21" s="124"/>
+      <c r="WC21" s="124"/>
+      <c r="WD21" s="124"/>
+      <c r="WE21" s="124"/>
+      <c r="WF21" s="123"/>
+      <c r="WG21" s="123"/>
+      <c r="WH21" s="124"/>
+      <c r="WI21" s="124"/>
+      <c r="WJ21" s="124"/>
+      <c r="WK21" s="122"/>
     </row>
-    <row r="22" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="201"/>
+    <row r="22" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="212"/>
       <c r="B22" s="101"/>
       <c r="C22" s="102"/>
       <c r="D22" s="103"/>
@@ -14073,7 +15188,7 @@
       <c r="RR22" s="24"/>
       <c r="RS22" s="23"/>
       <c r="RT22" s="25"/>
-      <c r="RU22" s="231"/>
+      <c r="RU22" s="201"/>
       <c r="RV22" s="23"/>
       <c r="RW22" s="23"/>
       <c r="RX22" s="24"/>
@@ -14132,11 +15247,71 @@
       <c r="TY22" s="23"/>
       <c r="TZ22" s="23"/>
       <c r="UA22" s="23"/>
-      <c r="UB22" s="240"/>
+      <c r="UB22" s="210"/>
       <c r="UC22" s="24"/>
+      <c r="UD22" s="23"/>
+      <c r="UE22" s="23"/>
+      <c r="UF22" s="23"/>
+      <c r="UG22" s="23"/>
+      <c r="UH22" s="23"/>
+      <c r="UI22" s="24"/>
+      <c r="UJ22" s="24"/>
+      <c r="UK22" s="23"/>
+      <c r="UL22" s="23"/>
+      <c r="UM22" s="23"/>
+      <c r="UN22" s="23"/>
+      <c r="UO22" s="23"/>
+      <c r="UP22" s="24"/>
+      <c r="UQ22" s="24"/>
+      <c r="UR22" s="23"/>
+      <c r="US22" s="23"/>
+      <c r="UT22" s="23"/>
+      <c r="UU22" s="23"/>
+      <c r="UV22" s="23"/>
+      <c r="UW22" s="24"/>
+      <c r="UX22" s="24"/>
+      <c r="UY22" s="23"/>
+      <c r="UZ22" s="23"/>
+      <c r="VA22" s="23"/>
+      <c r="VB22" s="23"/>
+      <c r="VC22" s="23"/>
+      <c r="VD22" s="24"/>
+      <c r="VE22" s="24"/>
+      <c r="VF22" s="23"/>
+      <c r="VG22" s="23"/>
+      <c r="VH22" s="22"/>
+      <c r="VI22" s="23"/>
+      <c r="VJ22" s="23"/>
+      <c r="VK22" s="24"/>
+      <c r="VL22" s="24"/>
+      <c r="VM22" s="23"/>
+      <c r="VN22" s="23"/>
+      <c r="VO22" s="23"/>
+      <c r="VP22" s="23"/>
+      <c r="VQ22" s="23"/>
+      <c r="VR22" s="24"/>
+      <c r="VS22" s="24"/>
+      <c r="VT22" s="23"/>
+      <c r="VU22" s="23"/>
+      <c r="VV22" s="38"/>
+      <c r="VW22" s="23"/>
+      <c r="VX22" s="23"/>
+      <c r="VY22" s="24"/>
+      <c r="VZ22" s="24"/>
+      <c r="WA22" s="23"/>
+      <c r="WB22" s="23"/>
+      <c r="WC22" s="23"/>
+      <c r="WD22" s="23"/>
+      <c r="WE22" s="23"/>
+      <c r="WF22" s="24"/>
+      <c r="WG22" s="24"/>
+      <c r="WH22" s="23"/>
+      <c r="WI22" s="23"/>
+      <c r="WJ22" s="23"/>
+      <c r="WK22" s="38"/>
     </row>
-    <row r="23" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="201" t="s">
+    <row r="23" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="212" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="107"/>
@@ -14638,7 +15813,7 @@
       <c r="RR23" s="27"/>
       <c r="RS23" s="26"/>
       <c r="RT23" s="29"/>
-      <c r="RU23" s="227"/>
+      <c r="RU23" s="197"/>
       <c r="RV23" s="26"/>
       <c r="RW23" s="26"/>
       <c r="RX23" s="27"/>
@@ -14699,9 +15874,69 @@
       <c r="UA23" s="26"/>
       <c r="UB23" s="76"/>
       <c r="UC23" s="27"/>
+      <c r="UD23" s="26"/>
+      <c r="UE23" s="26"/>
+      <c r="UF23" s="26"/>
+      <c r="UG23" s="26"/>
+      <c r="UH23" s="26"/>
+      <c r="UI23" s="73"/>
+      <c r="UJ23" s="27"/>
+      <c r="UK23" s="26"/>
+      <c r="UL23" s="26"/>
+      <c r="UM23" s="26"/>
+      <c r="UN23" s="26"/>
+      <c r="UO23" s="26"/>
+      <c r="UP23" s="73"/>
+      <c r="UQ23" s="27"/>
+      <c r="UR23" s="26"/>
+      <c r="US23" s="26"/>
+      <c r="UT23" s="26"/>
+      <c r="UU23" s="26"/>
+      <c r="UV23" s="26"/>
+      <c r="UW23" s="73"/>
+      <c r="UX23" s="27"/>
+      <c r="UY23" s="26"/>
+      <c r="UZ23" s="26"/>
+      <c r="VA23" s="26"/>
+      <c r="VB23" s="26"/>
+      <c r="VC23" s="26"/>
+      <c r="VD23" s="73"/>
+      <c r="VE23" s="27"/>
+      <c r="VF23" s="26"/>
+      <c r="VG23" s="26"/>
+      <c r="VH23" s="28"/>
+      <c r="VI23" s="26"/>
+      <c r="VJ23" s="26"/>
+      <c r="VK23" s="27"/>
+      <c r="VL23" s="27"/>
+      <c r="VM23" s="26"/>
+      <c r="VN23" s="26"/>
+      <c r="VO23" s="26"/>
+      <c r="VP23" s="26"/>
+      <c r="VQ23" s="26"/>
+      <c r="VR23" s="73"/>
+      <c r="VS23" s="27"/>
+      <c r="VT23" s="26"/>
+      <c r="VU23" s="26"/>
+      <c r="VV23" s="37"/>
+      <c r="VW23" s="26"/>
+      <c r="VX23" s="26"/>
+      <c r="VY23" s="73"/>
+      <c r="VZ23" s="27"/>
+      <c r="WA23" s="26"/>
+      <c r="WB23" s="26"/>
+      <c r="WC23" s="26"/>
+      <c r="WD23" s="26"/>
+      <c r="WE23" s="26"/>
+      <c r="WF23" s="73"/>
+      <c r="WG23" s="27"/>
+      <c r="WH23" s="26"/>
+      <c r="WI23" s="26"/>
+      <c r="WJ23" s="26"/>
+      <c r="WK23" s="37"/>
     </row>
-    <row r="24" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="201"/>
+    <row r="24" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="212"/>
       <c r="B24" s="94"/>
       <c r="C24" s="95"/>
       <c r="D24" s="96"/>
@@ -15195,7 +16430,7 @@
       <c r="RR24" s="1"/>
       <c r="RS24" s="2"/>
       <c r="RT24" s="4"/>
-      <c r="RU24" s="229"/>
+      <c r="RU24" s="199"/>
       <c r="RV24" s="2"/>
       <c r="RW24" s="2"/>
       <c r="RX24" s="1"/>
@@ -15254,11 +16489,71 @@
       <c r="TY24" s="2"/>
       <c r="TZ24" s="2"/>
       <c r="UA24" s="2"/>
-      <c r="UB24" s="238"/>
+      <c r="UB24" s="208"/>
       <c r="UC24" s="1"/>
+      <c r="UD24" s="2"/>
+      <c r="UE24" s="2"/>
+      <c r="UF24" s="2"/>
+      <c r="UG24" s="2"/>
+      <c r="UH24" s="2"/>
+      <c r="UI24" s="1"/>
+      <c r="UJ24" s="1"/>
+      <c r="UK24" s="2"/>
+      <c r="UL24" s="2"/>
+      <c r="UM24" s="2"/>
+      <c r="UN24" s="2"/>
+      <c r="UO24" s="2"/>
+      <c r="UP24" s="1"/>
+      <c r="UQ24" s="1"/>
+      <c r="UR24" s="2"/>
+      <c r="US24" s="2"/>
+      <c r="UT24" s="2"/>
+      <c r="UU24" s="2"/>
+      <c r="UV24" s="2"/>
+      <c r="UW24" s="1"/>
+      <c r="UX24" s="1"/>
+      <c r="UY24" s="2"/>
+      <c r="UZ24" s="2"/>
+      <c r="VA24" s="2"/>
+      <c r="VB24" s="2"/>
+      <c r="VC24" s="2"/>
+      <c r="VD24" s="1"/>
+      <c r="VE24" s="1"/>
+      <c r="VF24" s="2"/>
+      <c r="VG24" s="2"/>
+      <c r="VH24" s="20"/>
+      <c r="VI24" s="2"/>
+      <c r="VJ24" s="2"/>
+      <c r="VK24" s="1"/>
+      <c r="VL24" s="1"/>
+      <c r="VM24" s="2"/>
+      <c r="VN24" s="2"/>
+      <c r="VO24" s="2"/>
+      <c r="VP24" s="2"/>
+      <c r="VQ24" s="2"/>
+      <c r="VR24" s="1"/>
+      <c r="VS24" s="1"/>
+      <c r="VT24" s="2"/>
+      <c r="VU24" s="2"/>
+      <c r="VV24" s="36"/>
+      <c r="VW24" s="2"/>
+      <c r="VX24" s="2"/>
+      <c r="VY24" s="1"/>
+      <c r="VZ24" s="1"/>
+      <c r="WA24" s="2"/>
+      <c r="WB24" s="2"/>
+      <c r="WC24" s="2"/>
+      <c r="WD24" s="2"/>
+      <c r="WE24" s="2"/>
+      <c r="WF24" s="1"/>
+      <c r="WG24" s="1"/>
+      <c r="WH24" s="2"/>
+      <c r="WI24" s="2"/>
+      <c r="WJ24" s="2"/>
+      <c r="WK24" s="36"/>
     </row>
-    <row r="25" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="201"/>
+    <row r="25" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="212"/>
       <c r="B25" s="94"/>
       <c r="C25" s="95"/>
       <c r="D25" s="96"/>
@@ -15760,7 +17055,7 @@
       <c r="RR25" s="1"/>
       <c r="RS25" s="2"/>
       <c r="RT25" s="4"/>
-      <c r="RU25" s="229"/>
+      <c r="RU25" s="199"/>
       <c r="RV25" s="2"/>
       <c r="RW25" s="2"/>
       <c r="RX25" s="1"/>
@@ -15819,11 +17114,71 @@
       <c r="TY25" s="2"/>
       <c r="TZ25" s="2"/>
       <c r="UA25" s="2"/>
-      <c r="UB25" s="238"/>
+      <c r="UB25" s="208"/>
       <c r="UC25" s="1"/>
+      <c r="UD25" s="2"/>
+      <c r="UE25" s="2"/>
+      <c r="UF25" s="2"/>
+      <c r="UG25" s="2"/>
+      <c r="UH25" s="2"/>
+      <c r="UI25" s="1"/>
+      <c r="UJ25" s="1"/>
+      <c r="UK25" s="2"/>
+      <c r="UL25" s="2"/>
+      <c r="UM25" s="2"/>
+      <c r="UN25" s="2"/>
+      <c r="UO25" s="2"/>
+      <c r="UP25" s="1"/>
+      <c r="UQ25" s="1"/>
+      <c r="UR25" s="2"/>
+      <c r="US25" s="2"/>
+      <c r="UT25" s="2"/>
+      <c r="UU25" s="2"/>
+      <c r="UV25" s="2"/>
+      <c r="UW25" s="1"/>
+      <c r="UX25" s="1"/>
+      <c r="UY25" s="2"/>
+      <c r="UZ25" s="2"/>
+      <c r="VA25" s="2"/>
+      <c r="VB25" s="2"/>
+      <c r="VC25" s="2"/>
+      <c r="VD25" s="1"/>
+      <c r="VE25" s="1"/>
+      <c r="VF25" s="2"/>
+      <c r="VG25" s="2"/>
+      <c r="VH25" s="20"/>
+      <c r="VI25" s="2"/>
+      <c r="VJ25" s="2"/>
+      <c r="VK25" s="1"/>
+      <c r="VL25" s="1"/>
+      <c r="VM25" s="2"/>
+      <c r="VN25" s="2"/>
+      <c r="VO25" s="2"/>
+      <c r="VP25" s="2"/>
+      <c r="VQ25" s="2"/>
+      <c r="VR25" s="1"/>
+      <c r="VS25" s="1"/>
+      <c r="VT25" s="2"/>
+      <c r="VU25" s="2"/>
+      <c r="VV25" s="36"/>
+      <c r="VW25" s="2"/>
+      <c r="VX25" s="2"/>
+      <c r="VY25" s="1"/>
+      <c r="VZ25" s="1"/>
+      <c r="WA25" s="2"/>
+      <c r="WB25" s="2"/>
+      <c r="WC25" s="2"/>
+      <c r="WD25" s="2"/>
+      <c r="WE25" s="2"/>
+      <c r="WF25" s="1"/>
+      <c r="WG25" s="1"/>
+      <c r="WH25" s="2"/>
+      <c r="WI25" s="2"/>
+      <c r="WJ25" s="2"/>
+      <c r="WK25" s="36"/>
     </row>
-    <row r="26" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="201"/>
+    <row r="26" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="212"/>
       <c r="B26" s="94"/>
       <c r="C26" s="95"/>
       <c r="D26" s="96"/>
@@ -16323,7 +17678,7 @@
       <c r="RR26" s="1"/>
       <c r="RS26" s="2"/>
       <c r="RT26" s="4"/>
-      <c r="RU26" s="229"/>
+      <c r="RU26" s="199"/>
       <c r="RV26" s="2"/>
       <c r="RW26" s="2"/>
       <c r="RX26" s="1"/>
@@ -16382,11 +17737,71 @@
       <c r="TY26" s="2"/>
       <c r="TZ26" s="2"/>
       <c r="UA26" s="2"/>
-      <c r="UB26" s="238"/>
+      <c r="UB26" s="208"/>
       <c r="UC26" s="1"/>
+      <c r="UD26" s="2"/>
+      <c r="UE26" s="2"/>
+      <c r="UF26" s="2"/>
+      <c r="UG26" s="2"/>
+      <c r="UH26" s="2"/>
+      <c r="UI26" s="1"/>
+      <c r="UJ26" s="1"/>
+      <c r="UK26" s="2"/>
+      <c r="UL26" s="2"/>
+      <c r="UM26" s="2"/>
+      <c r="UN26" s="2"/>
+      <c r="UO26" s="2"/>
+      <c r="UP26" s="1"/>
+      <c r="UQ26" s="1"/>
+      <c r="UR26" s="2"/>
+      <c r="US26" s="2"/>
+      <c r="UT26" s="2"/>
+      <c r="UU26" s="2"/>
+      <c r="UV26" s="2"/>
+      <c r="UW26" s="1"/>
+      <c r="UX26" s="1"/>
+      <c r="UY26" s="2"/>
+      <c r="UZ26" s="2"/>
+      <c r="VA26" s="2"/>
+      <c r="VB26" s="2"/>
+      <c r="VC26" s="2"/>
+      <c r="VD26" s="1"/>
+      <c r="VE26" s="1"/>
+      <c r="VF26" s="2"/>
+      <c r="VG26" s="2"/>
+      <c r="VH26" s="20"/>
+      <c r="VI26" s="2"/>
+      <c r="VJ26" s="2"/>
+      <c r="VK26" s="1"/>
+      <c r="VL26" s="1"/>
+      <c r="VM26" s="2"/>
+      <c r="VN26" s="2"/>
+      <c r="VO26" s="2"/>
+      <c r="VP26" s="2"/>
+      <c r="VQ26" s="2"/>
+      <c r="VR26" s="1"/>
+      <c r="VS26" s="1"/>
+      <c r="VT26" s="2"/>
+      <c r="VU26" s="2"/>
+      <c r="VV26" s="36"/>
+      <c r="VW26" s="2"/>
+      <c r="VX26" s="2"/>
+      <c r="VY26" s="1"/>
+      <c r="VZ26" s="1"/>
+      <c r="WA26" s="2"/>
+      <c r="WB26" s="2"/>
+      <c r="WC26" s="2"/>
+      <c r="WD26" s="2"/>
+      <c r="WE26" s="2"/>
+      <c r="WF26" s="1"/>
+      <c r="WG26" s="1"/>
+      <c r="WH26" s="2"/>
+      <c r="WI26" s="2"/>
+      <c r="WJ26" s="2"/>
+      <c r="WK26" s="36"/>
     </row>
-    <row r="27" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="201"/>
+    <row r="27" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="212"/>
       <c r="B27" s="94"/>
       <c r="C27" s="95"/>
       <c r="D27" s="96"/>
@@ -16880,7 +18295,7 @@
       <c r="RR27" s="1"/>
       <c r="RS27" s="2"/>
       <c r="RT27" s="4"/>
-      <c r="RU27" s="229"/>
+      <c r="RU27" s="199"/>
       <c r="RV27" s="2"/>
       <c r="RW27" s="2"/>
       <c r="RX27" s="1"/>
@@ -16939,11 +18354,71 @@
       <c r="TY27" s="2"/>
       <c r="TZ27" s="2"/>
       <c r="UA27" s="2"/>
-      <c r="UB27" s="238"/>
+      <c r="UB27" s="208"/>
       <c r="UC27" s="1"/>
+      <c r="UD27" s="2"/>
+      <c r="UE27" s="2"/>
+      <c r="UF27" s="2"/>
+      <c r="UG27" s="2"/>
+      <c r="UH27" s="2"/>
+      <c r="UI27" s="1"/>
+      <c r="UJ27" s="1"/>
+      <c r="UK27" s="2"/>
+      <c r="UL27" s="2"/>
+      <c r="UM27" s="2"/>
+      <c r="UN27" s="2"/>
+      <c r="UO27" s="2"/>
+      <c r="UP27" s="1"/>
+      <c r="UQ27" s="1"/>
+      <c r="UR27" s="2"/>
+      <c r="US27" s="2"/>
+      <c r="UT27" s="2"/>
+      <c r="UU27" s="2"/>
+      <c r="UV27" s="2"/>
+      <c r="UW27" s="1"/>
+      <c r="UX27" s="1"/>
+      <c r="UY27" s="2"/>
+      <c r="UZ27" s="2"/>
+      <c r="VA27" s="2"/>
+      <c r="VB27" s="2"/>
+      <c r="VC27" s="2"/>
+      <c r="VD27" s="1"/>
+      <c r="VE27" s="1"/>
+      <c r="VF27" s="2"/>
+      <c r="VG27" s="2"/>
+      <c r="VH27" s="20"/>
+      <c r="VI27" s="2"/>
+      <c r="VJ27" s="2"/>
+      <c r="VK27" s="1"/>
+      <c r="VL27" s="1"/>
+      <c r="VM27" s="2"/>
+      <c r="VN27" s="2"/>
+      <c r="VO27" s="2"/>
+      <c r="VP27" s="2"/>
+      <c r="VQ27" s="2"/>
+      <c r="VR27" s="1"/>
+      <c r="VS27" s="1"/>
+      <c r="VT27" s="2"/>
+      <c r="VU27" s="2"/>
+      <c r="VV27" s="36"/>
+      <c r="VW27" s="2"/>
+      <c r="VX27" s="2"/>
+      <c r="VY27" s="1"/>
+      <c r="VZ27" s="1"/>
+      <c r="WA27" s="2"/>
+      <c r="WB27" s="2"/>
+      <c r="WC27" s="2"/>
+      <c r="WD27" s="2"/>
+      <c r="WE27" s="2"/>
+      <c r="WF27" s="1"/>
+      <c r="WG27" s="1"/>
+      <c r="WH27" s="2"/>
+      <c r="WI27" s="2"/>
+      <c r="WJ27" s="2"/>
+      <c r="WK27" s="36"/>
     </row>
-    <row r="28" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="201"/>
+    <row r="28" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="212"/>
       <c r="B28" s="94"/>
       <c r="C28" s="95"/>
       <c r="D28" s="96"/>
@@ -17433,7 +18908,7 @@
       <c r="RR28" s="1"/>
       <c r="RS28" s="2"/>
       <c r="RT28" s="4"/>
-      <c r="RU28" s="229"/>
+      <c r="RU28" s="199"/>
       <c r="RV28" s="2"/>
       <c r="RW28" s="2"/>
       <c r="RX28" s="1"/>
@@ -17492,11 +18967,71 @@
       <c r="TY28" s="2"/>
       <c r="TZ28" s="2"/>
       <c r="UA28" s="2"/>
-      <c r="UB28" s="238"/>
+      <c r="UB28" s="208"/>
       <c r="UC28" s="1"/>
+      <c r="UD28" s="2"/>
+      <c r="UE28" s="2"/>
+      <c r="UF28" s="2"/>
+      <c r="UG28" s="2"/>
+      <c r="UH28" s="2"/>
+      <c r="UI28" s="1"/>
+      <c r="UJ28" s="1"/>
+      <c r="UK28" s="2"/>
+      <c r="UL28" s="2"/>
+      <c r="UM28" s="2"/>
+      <c r="UN28" s="2"/>
+      <c r="UO28" s="2"/>
+      <c r="UP28" s="1"/>
+      <c r="UQ28" s="1"/>
+      <c r="UR28" s="2"/>
+      <c r="US28" s="2"/>
+      <c r="UT28" s="2"/>
+      <c r="UU28" s="2"/>
+      <c r="UV28" s="2"/>
+      <c r="UW28" s="1"/>
+      <c r="UX28" s="1"/>
+      <c r="UY28" s="2"/>
+      <c r="UZ28" s="2"/>
+      <c r="VA28" s="2"/>
+      <c r="VB28" s="2"/>
+      <c r="VC28" s="2"/>
+      <c r="VD28" s="1"/>
+      <c r="VE28" s="1"/>
+      <c r="VF28" s="2"/>
+      <c r="VG28" s="2"/>
+      <c r="VH28" s="20"/>
+      <c r="VI28" s="2"/>
+      <c r="VJ28" s="2"/>
+      <c r="VK28" s="1"/>
+      <c r="VL28" s="1"/>
+      <c r="VM28" s="2"/>
+      <c r="VN28" s="2"/>
+      <c r="VO28" s="2"/>
+      <c r="VP28" s="2"/>
+      <c r="VQ28" s="2"/>
+      <c r="VR28" s="1"/>
+      <c r="VS28" s="1"/>
+      <c r="VT28" s="2"/>
+      <c r="VU28" s="2"/>
+      <c r="VV28" s="36"/>
+      <c r="VW28" s="2"/>
+      <c r="VX28" s="2"/>
+      <c r="VY28" s="1"/>
+      <c r="VZ28" s="1"/>
+      <c r="WA28" s="2"/>
+      <c r="WB28" s="2"/>
+      <c r="WC28" s="2"/>
+      <c r="WD28" s="2"/>
+      <c r="WE28" s="2"/>
+      <c r="WF28" s="1"/>
+      <c r="WG28" s="1"/>
+      <c r="WH28" s="2"/>
+      <c r="WI28" s="2"/>
+      <c r="WJ28" s="2"/>
+      <c r="WK28" s="36"/>
     </row>
-    <row r="29" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="201"/>
+    <row r="29" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="212"/>
       <c r="B29" s="94"/>
       <c r="C29" s="95"/>
       <c r="D29" s="96"/>
@@ -17986,7 +19521,7 @@
       <c r="RR29" s="1"/>
       <c r="RS29" s="2"/>
       <c r="RT29" s="4"/>
-      <c r="RU29" s="229"/>
+      <c r="RU29" s="199"/>
       <c r="RV29" s="2"/>
       <c r="RW29" s="2"/>
       <c r="RX29" s="1"/>
@@ -18045,11 +19580,71 @@
       <c r="TY29" s="2"/>
       <c r="TZ29" s="2"/>
       <c r="UA29" s="2"/>
-      <c r="UB29" s="238"/>
+      <c r="UB29" s="208"/>
       <c r="UC29" s="1"/>
+      <c r="UD29" s="2"/>
+      <c r="UE29" s="2"/>
+      <c r="UF29" s="2"/>
+      <c r="UG29" s="2"/>
+      <c r="UH29" s="2"/>
+      <c r="UI29" s="1"/>
+      <c r="UJ29" s="1"/>
+      <c r="UK29" s="2"/>
+      <c r="UL29" s="2"/>
+      <c r="UM29" s="2"/>
+      <c r="UN29" s="2"/>
+      <c r="UO29" s="2"/>
+      <c r="UP29" s="1"/>
+      <c r="UQ29" s="1"/>
+      <c r="UR29" s="2"/>
+      <c r="US29" s="2"/>
+      <c r="UT29" s="2"/>
+      <c r="UU29" s="2"/>
+      <c r="UV29" s="2"/>
+      <c r="UW29" s="1"/>
+      <c r="UX29" s="1"/>
+      <c r="UY29" s="2"/>
+      <c r="UZ29" s="2"/>
+      <c r="VA29" s="2"/>
+      <c r="VB29" s="2"/>
+      <c r="VC29" s="2"/>
+      <c r="VD29" s="1"/>
+      <c r="VE29" s="1"/>
+      <c r="VF29" s="2"/>
+      <c r="VG29" s="2"/>
+      <c r="VH29" s="20"/>
+      <c r="VI29" s="2"/>
+      <c r="VJ29" s="2"/>
+      <c r="VK29" s="1"/>
+      <c r="VL29" s="1"/>
+      <c r="VM29" s="2"/>
+      <c r="VN29" s="2"/>
+      <c r="VO29" s="2"/>
+      <c r="VP29" s="2"/>
+      <c r="VQ29" s="2"/>
+      <c r="VR29" s="1"/>
+      <c r="VS29" s="1"/>
+      <c r="VT29" s="2"/>
+      <c r="VU29" s="2"/>
+      <c r="VV29" s="36"/>
+      <c r="VW29" s="2"/>
+      <c r="VX29" s="2"/>
+      <c r="VY29" s="1"/>
+      <c r="VZ29" s="1"/>
+      <c r="WA29" s="2"/>
+      <c r="WB29" s="2"/>
+      <c r="WC29" s="2"/>
+      <c r="WD29" s="2"/>
+      <c r="WE29" s="2"/>
+      <c r="WF29" s="1"/>
+      <c r="WG29" s="1"/>
+      <c r="WH29" s="2"/>
+      <c r="WI29" s="2"/>
+      <c r="WJ29" s="2"/>
+      <c r="WK29" s="36"/>
     </row>
-    <row r="30" spans="1:549" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="201"/>
+    <row r="30" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="212"/>
       <c r="B30" s="101"/>
       <c r="C30" s="102"/>
       <c r="D30" s="103"/>
@@ -18537,7 +20132,7 @@
       <c r="RR30" s="24"/>
       <c r="RS30" s="23"/>
       <c r="RT30" s="25"/>
-      <c r="RU30" s="231"/>
+      <c r="RU30" s="201"/>
       <c r="RV30" s="23"/>
       <c r="RW30" s="23"/>
       <c r="RX30" s="24"/>
@@ -18596,13 +20191,73 @@
       <c r="TY30" s="23"/>
       <c r="TZ30" s="23"/>
       <c r="UA30" s="23"/>
-      <c r="UB30" s="240"/>
+      <c r="UB30" s="210"/>
       <c r="UC30" s="24"/>
+      <c r="UD30" s="23"/>
+      <c r="UE30" s="23"/>
+      <c r="UF30" s="23"/>
+      <c r="UG30" s="23"/>
+      <c r="UH30" s="23"/>
+      <c r="UI30" s="24"/>
+      <c r="UJ30" s="24"/>
+      <c r="UK30" s="23"/>
+      <c r="UL30" s="23"/>
+      <c r="UM30" s="23"/>
+      <c r="UN30" s="23"/>
+      <c r="UO30" s="23"/>
+      <c r="UP30" s="24"/>
+      <c r="UQ30" s="24"/>
+      <c r="UR30" s="23"/>
+      <c r="US30" s="23"/>
+      <c r="UT30" s="23"/>
+      <c r="UU30" s="23"/>
+      <c r="UV30" s="23"/>
+      <c r="UW30" s="24"/>
+      <c r="UX30" s="24"/>
+      <c r="UY30" s="23"/>
+      <c r="UZ30" s="23"/>
+      <c r="VA30" s="23"/>
+      <c r="VB30" s="23"/>
+      <c r="VC30" s="23"/>
+      <c r="VD30" s="24"/>
+      <c r="VE30" s="24"/>
+      <c r="VF30" s="23"/>
+      <c r="VG30" s="23"/>
+      <c r="VH30" s="22"/>
+      <c r="VI30" s="23"/>
+      <c r="VJ30" s="23"/>
+      <c r="VK30" s="24"/>
+      <c r="VL30" s="24"/>
+      <c r="VM30" s="23"/>
+      <c r="VN30" s="23"/>
+      <c r="VO30" s="23"/>
+      <c r="VP30" s="23"/>
+      <c r="VQ30" s="23"/>
+      <c r="VR30" s="24"/>
+      <c r="VS30" s="24"/>
+      <c r="VT30" s="23"/>
+      <c r="VU30" s="23"/>
+      <c r="VV30" s="38"/>
+      <c r="VW30" s="23"/>
+      <c r="VX30" s="23"/>
+      <c r="VY30" s="24"/>
+      <c r="VZ30" s="24"/>
+      <c r="WA30" s="23"/>
+      <c r="WB30" s="23"/>
+      <c r="WC30" s="23"/>
+      <c r="WD30" s="23"/>
+      <c r="WE30" s="23"/>
+      <c r="WF30" s="24"/>
+      <c r="WG30" s="24"/>
+      <c r="WH30" s="23"/>
+      <c r="WI30" s="23"/>
+      <c r="WJ30" s="23"/>
+      <c r="WK30" s="38"/>
     </row>
-    <row r="31" spans="1:549" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:609" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="47"/>
     </row>
-    <row r="32" spans="1:549" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:609" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="47"/>
     </row>
     <row r="33" spans="1:274" s="53" customFormat="1" x14ac:dyDescent="0.3">
@@ -19847,12 +21502,19 @@
       <c r="JN47" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="23">
+    <mergeCell ref="UC6:VG6"/>
+    <mergeCell ref="VH6:WK6"/>
     <mergeCell ref="RU6:SY6"/>
     <mergeCell ref="SZ6:UB6"/>
     <mergeCell ref="KS6:LW6"/>
     <mergeCell ref="JO6:KR6"/>
     <mergeCell ref="IJ6:JN6"/>
+    <mergeCell ref="OG6:PK6"/>
+    <mergeCell ref="PL6:QO6"/>
+    <mergeCell ref="QP6:RT6"/>
+    <mergeCell ref="NC6:OF6"/>
+    <mergeCell ref="LX6:NB6"/>
     <mergeCell ref="A8:A14"/>
     <mergeCell ref="A15:A22"/>
     <mergeCell ref="A23:A30"/>
@@ -19864,11 +21526,6 @@
     <mergeCell ref="B6:AE6"/>
     <mergeCell ref="AF6:BJ6"/>
     <mergeCell ref="BK6:CN6"/>
-    <mergeCell ref="OG6:PK6"/>
-    <mergeCell ref="PL6:QO6"/>
-    <mergeCell ref="QP6:RT6"/>
-    <mergeCell ref="NC6:OF6"/>
-    <mergeCell ref="LX6:NB6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19915,10 +21572,10 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="217">
+      <c r="B4" s="235">
         <v>2018.12</v>
       </c>
-      <c r="C4" s="213"/>
+      <c r="C4" s="231"/>
       <c r="D4" s="138">
         <f>SUM(D5:D13)</f>
         <v>42</v>
@@ -19926,7 +21583,7 @@
       <c r="E4" s="139"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="218">
+      <c r="B5" s="236">
         <v>12</v>
       </c>
       <c r="C5" s="142">
@@ -19940,7 +21597,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="219"/>
+      <c r="B6" s="237"/>
       <c r="C6" s="140">
         <v>17</v>
       </c>
@@ -19952,7 +21609,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="219"/>
+      <c r="B7" s="237"/>
       <c r="C7" s="140">
         <v>19</v>
       </c>
@@ -19964,7 +21621,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="219"/>
+      <c r="B8" s="237"/>
       <c r="C8" s="133">
         <v>22</v>
       </c>
@@ -19976,7 +21633,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="219"/>
+      <c r="B9" s="237"/>
       <c r="C9" s="133">
         <v>23</v>
       </c>
@@ -19988,7 +21645,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="219"/>
+      <c r="B10" s="237"/>
       <c r="C10" s="133">
         <v>25</v>
       </c>
@@ -20000,7 +21657,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="219"/>
+      <c r="B11" s="237"/>
       <c r="C11" s="133">
         <v>26</v>
       </c>
@@ -20012,7 +21669,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="219"/>
+      <c r="B12" s="237"/>
       <c r="C12" s="133">
         <v>29</v>
       </c>
@@ -20024,7 +21681,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="220"/>
+      <c r="B13" s="238"/>
       <c r="C13" s="136">
         <v>30</v>
       </c>
@@ -20036,10 +21693,10 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="216">
+      <c r="B14" s="234">
         <v>2019.01</v>
       </c>
-      <c r="C14" s="215"/>
+      <c r="C14" s="233"/>
       <c r="D14" s="153">
         <f>SUM(D15:D23)</f>
         <v>34</v>
@@ -20047,7 +21704,7 @@
       <c r="E14" s="154"/>
     </row>
     <row r="15" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="221">
+      <c r="B15" s="239">
         <v>1</v>
       </c>
       <c r="C15" s="133">
@@ -20061,7 +21718,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="222"/>
+      <c r="B16" s="240"/>
       <c r="C16" s="133">
         <v>5</v>
       </c>
@@ -20073,7 +21730,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="222"/>
+      <c r="B17" s="240"/>
       <c r="C17" s="133">
         <v>13</v>
       </c>
@@ -20085,7 +21742,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="222"/>
+      <c r="B18" s="240"/>
       <c r="C18" s="133">
         <v>15</v>
       </c>
@@ -20097,7 +21754,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B19" s="222"/>
+      <c r="B19" s="240"/>
       <c r="C19" s="133">
         <v>17</v>
       </c>
@@ -20109,7 +21766,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="222"/>
+      <c r="B20" s="240"/>
       <c r="C20" s="133">
         <v>18</v>
       </c>
@@ -20121,7 +21778,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="222"/>
+      <c r="B21" s="240"/>
       <c r="C21" s="133">
         <v>21</v>
       </c>
@@ -20133,7 +21790,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="222"/>
+      <c r="B22" s="240"/>
       <c r="C22" s="133">
         <v>22</v>
       </c>
@@ -20145,7 +21802,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="223"/>
+      <c r="B23" s="241"/>
       <c r="C23" s="136">
         <v>28</v>
       </c>
@@ -20157,10 +21814,10 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="217">
+      <c r="B24" s="235">
         <v>2019.02</v>
       </c>
-      <c r="C24" s="213"/>
+      <c r="C24" s="231"/>
       <c r="D24" s="138">
         <f>SUM(D25:D30)</f>
         <v>20</v>
@@ -20168,7 +21825,7 @@
       <c r="E24" s="141"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="221">
+      <c r="B25" s="239">
         <v>2</v>
       </c>
       <c r="C25" s="133">
@@ -20182,7 +21839,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="222"/>
+      <c r="B26" s="240"/>
       <c r="C26" s="133">
         <v>11</v>
       </c>
@@ -20194,7 +21851,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="222"/>
+      <c r="B27" s="240"/>
       <c r="C27" s="133">
         <v>12</v>
       </c>
@@ -20206,7 +21863,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="222"/>
+      <c r="B28" s="240"/>
       <c r="C28" s="133">
         <v>12</v>
       </c>
@@ -20218,7 +21875,7 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="222"/>
+      <c r="B29" s="240"/>
       <c r="C29" s="133">
         <v>24</v>
       </c>
@@ -20230,7 +21887,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="222"/>
+      <c r="B30" s="240"/>
       <c r="C30" s="164">
         <v>26</v>
       </c>
@@ -20242,10 +21899,10 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="216">
+      <c r="B31" s="234">
         <v>2019.03</v>
       </c>
-      <c r="C31" s="215"/>
+      <c r="C31" s="233"/>
       <c r="D31" s="153">
         <f>SUM(D32:D43)</f>
         <v>51</v>
@@ -20397,10 +22054,10 @@
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="216">
+      <c r="B44" s="234">
         <v>2019.04</v>
       </c>
-      <c r="C44" s="215"/>
+      <c r="C44" s="233"/>
       <c r="D44" s="153">
         <f>SUM(D45:D58)</f>
         <v>50</v>
@@ -20576,10 +22233,10 @@
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="216">
+      <c r="B59" s="234">
         <v>2019.05</v>
       </c>
-      <c r="C59" s="215"/>
+      <c r="C59" s="233"/>
       <c r="D59" s="153">
         <f>SUM(D60:D71)</f>
         <v>43</v>
@@ -20731,10 +22388,10 @@
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B72" s="216">
+      <c r="B72" s="234">
         <v>2019.06</v>
       </c>
-      <c r="C72" s="215"/>
+      <c r="C72" s="233"/>
       <c r="D72" s="153">
         <f>SUM(D73:D76)</f>
         <v>18</v>
@@ -20790,10 +22447,10 @@
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B77" s="217">
+      <c r="B77" s="235">
         <v>2019.07</v>
       </c>
-      <c r="C77" s="213"/>
+      <c r="C77" s="231"/>
       <c r="D77" s="138">
         <f>SUM(D78:D87)</f>
         <v>46</v>
@@ -20921,10 +22578,10 @@
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B88" s="216">
+      <c r="B88" s="234">
         <v>2019.08</v>
       </c>
-      <c r="C88" s="215"/>
+      <c r="C88" s="233"/>
       <c r="D88" s="153">
         <f>SUM(D89:D94)</f>
         <v>19</v>
@@ -20992,10 +22649,10 @@
       <c r="E94" s="129"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B95" s="217">
+      <c r="B95" s="235">
         <v>2019.09</v>
       </c>
-      <c r="C95" s="213"/>
+      <c r="C95" s="231"/>
       <c r="D95" s="138">
         <f>SUM(D96:D102)</f>
         <v>36</v>
@@ -21093,10 +22750,10 @@
       <c r="E103" s="193"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B104" s="214" t="s">
+      <c r="B104" s="232" t="s">
         <v>140</v>
       </c>
-      <c r="C104" s="215"/>
+      <c r="C104" s="233"/>
       <c r="D104" s="153">
         <f>SUM(D105:D119)</f>
         <v>69</v>
@@ -21284,10 +22941,10 @@
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B120" s="212" t="s">
+      <c r="B120" s="230" t="s">
         <v>154</v>
       </c>
-      <c r="C120" s="213"/>
+      <c r="C120" s="231"/>
       <c r="D120" s="138">
         <f>SUM(D121:D134)</f>
         <v>77</v>
@@ -21463,10 +23120,10 @@
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B135" s="212" t="s">
+      <c r="B135" s="230" t="s">
         <v>154</v>
       </c>
-      <c r="C135" s="213"/>
+      <c r="C135" s="231"/>
       <c r="D135" s="138">
         <f>SUM(D136:D149)</f>
         <v>14</v>

--- a/Plasma Project schedule V1.0_20191015.xlsx
+++ b/Plasma Project schedule V1.0_20191015.xlsx
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="179">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -846,6 +846,10 @@
   </si>
   <si>
     <t>▶부품 및 FAN 구매 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◆F/W PCB 입고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1760,7 +1764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2071,13 +2075,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2088,6 +2092,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2105,24 +2127,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2161,6 +2165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2204,7 +2209,7 @@
         <xdr:cNvPr id="52" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2261,7 +2266,7 @@
         <xdr:cNvPr id="15" name="직선 화살표 연결선 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2318,7 +2323,7 @@
         <xdr:cNvPr id="18" name="직선 화살표 연결선 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2375,7 +2380,7 @@
         <xdr:cNvPr id="21" name="직선 화살표 연결선 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2432,7 +2437,7 @@
         <xdr:cNvPr id="25" name="직선 화살표 연결선 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2489,7 +2494,7 @@
         <xdr:cNvPr id="28" name="직선 화살표 연결선 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2546,7 +2551,7 @@
         <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2603,7 +2608,7 @@
         <xdr:cNvPr id="33" name="직선 화살표 연결선 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2660,7 +2665,7 @@
         <xdr:cNvPr id="36" name="직선 화살표 연결선 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2717,7 +2722,7 @@
         <xdr:cNvPr id="38" name="직선 화살표 연결선 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2774,7 +2779,7 @@
         <xdr:cNvPr id="41" name="직선 화살표 연결선 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2831,7 +2836,7 @@
         <xdr:cNvPr id="46" name="직선 화살표 연결선 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2888,7 +2893,7 @@
         <xdr:cNvPr id="14" name="직선 화살표 연결선 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2945,7 +2950,7 @@
         <xdr:cNvPr id="16" name="직선 화살표 연결선 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3002,7 +3007,7 @@
         <xdr:cNvPr id="19" name="직선 화살표 연결선 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3059,7 +3064,7 @@
         <xdr:cNvPr id="17" name="직선 화살표 연결선 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3116,7 +3121,7 @@
         <xdr:cNvPr id="20" name="직선 화살표 연결선 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3173,7 +3178,7 @@
         <xdr:cNvPr id="22" name="직선 화살표 연결선 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3505,8 +3510,8 @@
   <dimension ref="A1:WK47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="PL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="TL29" sqref="TL29"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="TK32" sqref="TK32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3557,232 +3562,232 @@
     </row>
     <row r="6" spans="1:609" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="50"/>
-      <c r="B6" s="221">
+      <c r="B6" s="227">
         <v>9</v>
       </c>
-      <c r="C6" s="222"/>
-      <c r="D6" s="222"/>
-      <c r="E6" s="222"/>
-      <c r="F6" s="222"/>
-      <c r="G6" s="222"/>
-      <c r="H6" s="222"/>
-      <c r="I6" s="222"/>
-      <c r="J6" s="222"/>
-      <c r="K6" s="222"/>
-      <c r="L6" s="222"/>
-      <c r="M6" s="222"/>
-      <c r="N6" s="222"/>
-      <c r="O6" s="222"/>
-      <c r="P6" s="222"/>
-      <c r="Q6" s="222"/>
-      <c r="R6" s="222"/>
-      <c r="S6" s="222"/>
-      <c r="T6" s="222"/>
-      <c r="U6" s="222"/>
-      <c r="V6" s="222"/>
-      <c r="W6" s="222"/>
-      <c r="X6" s="222"/>
-      <c r="Y6" s="222"/>
-      <c r="Z6" s="222"/>
-      <c r="AA6" s="222"/>
-      <c r="AB6" s="222"/>
-      <c r="AC6" s="222"/>
-      <c r="AD6" s="222"/>
-      <c r="AE6" s="223"/>
-      <c r="AF6" s="218">
+      <c r="C6" s="228"/>
+      <c r="D6" s="228"/>
+      <c r="E6" s="228"/>
+      <c r="F6" s="228"/>
+      <c r="G6" s="228"/>
+      <c r="H6" s="228"/>
+      <c r="I6" s="228"/>
+      <c r="J6" s="228"/>
+      <c r="K6" s="228"/>
+      <c r="L6" s="228"/>
+      <c r="M6" s="228"/>
+      <c r="N6" s="228"/>
+      <c r="O6" s="228"/>
+      <c r="P6" s="228"/>
+      <c r="Q6" s="228"/>
+      <c r="R6" s="228"/>
+      <c r="S6" s="228"/>
+      <c r="T6" s="228"/>
+      <c r="U6" s="228"/>
+      <c r="V6" s="228"/>
+      <c r="W6" s="228"/>
+      <c r="X6" s="228"/>
+      <c r="Y6" s="228"/>
+      <c r="Z6" s="228"/>
+      <c r="AA6" s="228"/>
+      <c r="AB6" s="228"/>
+      <c r="AC6" s="228"/>
+      <c r="AD6" s="228"/>
+      <c r="AE6" s="229"/>
+      <c r="AF6" s="224">
         <v>10</v>
       </c>
-      <c r="AG6" s="218"/>
-      <c r="AH6" s="218"/>
-      <c r="AI6" s="218"/>
-      <c r="AJ6" s="218"/>
-      <c r="AK6" s="218"/>
-      <c r="AL6" s="218"/>
-      <c r="AM6" s="218"/>
-      <c r="AN6" s="218"/>
-      <c r="AO6" s="218"/>
-      <c r="AP6" s="218"/>
-      <c r="AQ6" s="218"/>
-      <c r="AR6" s="218"/>
-      <c r="AS6" s="218"/>
-      <c r="AT6" s="218"/>
-      <c r="AU6" s="218"/>
-      <c r="AV6" s="218"/>
-      <c r="AW6" s="218"/>
-      <c r="AX6" s="218"/>
-      <c r="AY6" s="218"/>
-      <c r="AZ6" s="218"/>
-      <c r="BA6" s="218"/>
-      <c r="BB6" s="218"/>
-      <c r="BC6" s="218"/>
-      <c r="BD6" s="218"/>
-      <c r="BE6" s="218"/>
-      <c r="BF6" s="218"/>
-      <c r="BG6" s="218"/>
-      <c r="BH6" s="218"/>
-      <c r="BI6" s="218"/>
-      <c r="BJ6" s="219"/>
-      <c r="BK6" s="221">
+      <c r="AG6" s="224"/>
+      <c r="AH6" s="224"/>
+      <c r="AI6" s="224"/>
+      <c r="AJ6" s="224"/>
+      <c r="AK6" s="224"/>
+      <c r="AL6" s="224"/>
+      <c r="AM6" s="224"/>
+      <c r="AN6" s="224"/>
+      <c r="AO6" s="224"/>
+      <c r="AP6" s="224"/>
+      <c r="AQ6" s="224"/>
+      <c r="AR6" s="224"/>
+      <c r="AS6" s="224"/>
+      <c r="AT6" s="224"/>
+      <c r="AU6" s="224"/>
+      <c r="AV6" s="224"/>
+      <c r="AW6" s="224"/>
+      <c r="AX6" s="224"/>
+      <c r="AY6" s="224"/>
+      <c r="AZ6" s="224"/>
+      <c r="BA6" s="224"/>
+      <c r="BB6" s="224"/>
+      <c r="BC6" s="224"/>
+      <c r="BD6" s="224"/>
+      <c r="BE6" s="224"/>
+      <c r="BF6" s="224"/>
+      <c r="BG6" s="224"/>
+      <c r="BH6" s="224"/>
+      <c r="BI6" s="224"/>
+      <c r="BJ6" s="225"/>
+      <c r="BK6" s="227">
         <v>11</v>
       </c>
-      <c r="BL6" s="222"/>
-      <c r="BM6" s="222"/>
-      <c r="BN6" s="222"/>
-      <c r="BO6" s="222"/>
-      <c r="BP6" s="222"/>
-      <c r="BQ6" s="222"/>
-      <c r="BR6" s="222"/>
-      <c r="BS6" s="222"/>
-      <c r="BT6" s="222"/>
-      <c r="BU6" s="222"/>
-      <c r="BV6" s="222"/>
-      <c r="BW6" s="222"/>
-      <c r="BX6" s="222"/>
-      <c r="BY6" s="222"/>
-      <c r="BZ6" s="222"/>
-      <c r="CA6" s="222"/>
-      <c r="CB6" s="222"/>
-      <c r="CC6" s="222"/>
-      <c r="CD6" s="222"/>
-      <c r="CE6" s="222"/>
-      <c r="CF6" s="222"/>
-      <c r="CG6" s="222"/>
-      <c r="CH6" s="222"/>
-      <c r="CI6" s="222"/>
-      <c r="CJ6" s="222"/>
-      <c r="CK6" s="222"/>
-      <c r="CL6" s="222"/>
-      <c r="CM6" s="222"/>
-      <c r="CN6" s="223"/>
-      <c r="CO6" s="218">
+      <c r="BL6" s="228"/>
+      <c r="BM6" s="228"/>
+      <c r="BN6" s="228"/>
+      <c r="BO6" s="228"/>
+      <c r="BP6" s="228"/>
+      <c r="BQ6" s="228"/>
+      <c r="BR6" s="228"/>
+      <c r="BS6" s="228"/>
+      <c r="BT6" s="228"/>
+      <c r="BU6" s="228"/>
+      <c r="BV6" s="228"/>
+      <c r="BW6" s="228"/>
+      <c r="BX6" s="228"/>
+      <c r="BY6" s="228"/>
+      <c r="BZ6" s="228"/>
+      <c r="CA6" s="228"/>
+      <c r="CB6" s="228"/>
+      <c r="CC6" s="228"/>
+      <c r="CD6" s="228"/>
+      <c r="CE6" s="228"/>
+      <c r="CF6" s="228"/>
+      <c r="CG6" s="228"/>
+      <c r="CH6" s="228"/>
+      <c r="CI6" s="228"/>
+      <c r="CJ6" s="228"/>
+      <c r="CK6" s="228"/>
+      <c r="CL6" s="228"/>
+      <c r="CM6" s="228"/>
+      <c r="CN6" s="229"/>
+      <c r="CO6" s="224">
         <v>12</v>
       </c>
-      <c r="CP6" s="218"/>
-      <c r="CQ6" s="218"/>
-      <c r="CR6" s="218"/>
-      <c r="CS6" s="218"/>
-      <c r="CT6" s="218"/>
-      <c r="CU6" s="218"/>
-      <c r="CV6" s="218"/>
-      <c r="CW6" s="218"/>
-      <c r="CX6" s="218"/>
-      <c r="CY6" s="218"/>
-      <c r="CZ6" s="218"/>
-      <c r="DA6" s="218"/>
-      <c r="DB6" s="218"/>
-      <c r="DC6" s="218"/>
-      <c r="DD6" s="218"/>
-      <c r="DE6" s="218"/>
-      <c r="DF6" s="218"/>
-      <c r="DG6" s="218"/>
-      <c r="DH6" s="218"/>
-      <c r="DI6" s="218"/>
-      <c r="DJ6" s="218"/>
-      <c r="DK6" s="218"/>
-      <c r="DL6" s="218"/>
-      <c r="DM6" s="218"/>
-      <c r="DN6" s="218"/>
-      <c r="DO6" s="218"/>
-      <c r="DP6" s="218"/>
-      <c r="DQ6" s="218"/>
-      <c r="DR6" s="218"/>
-      <c r="DS6" s="219"/>
-      <c r="DT6" s="218">
+      <c r="CP6" s="224"/>
+      <c r="CQ6" s="224"/>
+      <c r="CR6" s="224"/>
+      <c r="CS6" s="224"/>
+      <c r="CT6" s="224"/>
+      <c r="CU6" s="224"/>
+      <c r="CV6" s="224"/>
+      <c r="CW6" s="224"/>
+      <c r="CX6" s="224"/>
+      <c r="CY6" s="224"/>
+      <c r="CZ6" s="224"/>
+      <c r="DA6" s="224"/>
+      <c r="DB6" s="224"/>
+      <c r="DC6" s="224"/>
+      <c r="DD6" s="224"/>
+      <c r="DE6" s="224"/>
+      <c r="DF6" s="224"/>
+      <c r="DG6" s="224"/>
+      <c r="DH6" s="224"/>
+      <c r="DI6" s="224"/>
+      <c r="DJ6" s="224"/>
+      <c r="DK6" s="224"/>
+      <c r="DL6" s="224"/>
+      <c r="DM6" s="224"/>
+      <c r="DN6" s="224"/>
+      <c r="DO6" s="224"/>
+      <c r="DP6" s="224"/>
+      <c r="DQ6" s="224"/>
+      <c r="DR6" s="224"/>
+      <c r="DS6" s="225"/>
+      <c r="DT6" s="224">
         <v>2019.01</v>
       </c>
-      <c r="DU6" s="218"/>
-      <c r="DV6" s="218"/>
-      <c r="DW6" s="218"/>
-      <c r="DX6" s="218"/>
-      <c r="DY6" s="218"/>
-      <c r="DZ6" s="218"/>
-      <c r="EA6" s="218"/>
-      <c r="EB6" s="218"/>
-      <c r="EC6" s="218"/>
-      <c r="ED6" s="218"/>
-      <c r="EE6" s="218"/>
-      <c r="EF6" s="218"/>
-      <c r="EG6" s="218"/>
-      <c r="EH6" s="218"/>
-      <c r="EI6" s="218"/>
-      <c r="EJ6" s="218"/>
-      <c r="EK6" s="218"/>
-      <c r="EL6" s="218"/>
-      <c r="EM6" s="218"/>
-      <c r="EN6" s="218"/>
-      <c r="EO6" s="218"/>
-      <c r="EP6" s="218"/>
-      <c r="EQ6" s="218"/>
-      <c r="ER6" s="218"/>
-      <c r="ES6" s="218"/>
-      <c r="ET6" s="218"/>
-      <c r="EU6" s="218"/>
-      <c r="EV6" s="218"/>
-      <c r="EW6" s="218"/>
-      <c r="EX6" s="219"/>
-      <c r="EY6" s="220">
+      <c r="DU6" s="224"/>
+      <c r="DV6" s="224"/>
+      <c r="DW6" s="224"/>
+      <c r="DX6" s="224"/>
+      <c r="DY6" s="224"/>
+      <c r="DZ6" s="224"/>
+      <c r="EA6" s="224"/>
+      <c r="EB6" s="224"/>
+      <c r="EC6" s="224"/>
+      <c r="ED6" s="224"/>
+      <c r="EE6" s="224"/>
+      <c r="EF6" s="224"/>
+      <c r="EG6" s="224"/>
+      <c r="EH6" s="224"/>
+      <c r="EI6" s="224"/>
+      <c r="EJ6" s="224"/>
+      <c r="EK6" s="224"/>
+      <c r="EL6" s="224"/>
+      <c r="EM6" s="224"/>
+      <c r="EN6" s="224"/>
+      <c r="EO6" s="224"/>
+      <c r="EP6" s="224"/>
+      <c r="EQ6" s="224"/>
+      <c r="ER6" s="224"/>
+      <c r="ES6" s="224"/>
+      <c r="ET6" s="224"/>
+      <c r="EU6" s="224"/>
+      <c r="EV6" s="224"/>
+      <c r="EW6" s="224"/>
+      <c r="EX6" s="225"/>
+      <c r="EY6" s="226">
         <v>2019.02</v>
       </c>
-      <c r="EZ6" s="218"/>
-      <c r="FA6" s="218"/>
-      <c r="FB6" s="218"/>
-      <c r="FC6" s="218"/>
-      <c r="FD6" s="218"/>
-      <c r="FE6" s="218"/>
-      <c r="FF6" s="218"/>
-      <c r="FG6" s="218"/>
-      <c r="FH6" s="218"/>
-      <c r="FI6" s="218"/>
-      <c r="FJ6" s="218"/>
-      <c r="FK6" s="218"/>
-      <c r="FL6" s="218"/>
-      <c r="FM6" s="218"/>
-      <c r="FN6" s="218"/>
-      <c r="FO6" s="218"/>
-      <c r="FP6" s="218"/>
-      <c r="FQ6" s="218"/>
-      <c r="FR6" s="218"/>
-      <c r="FS6" s="218"/>
-      <c r="FT6" s="218"/>
-      <c r="FU6" s="218"/>
-      <c r="FV6" s="218"/>
-      <c r="FW6" s="218"/>
-      <c r="FX6" s="218"/>
-      <c r="FY6" s="218"/>
-      <c r="FZ6" s="219"/>
-      <c r="GA6" s="214">
+      <c r="EZ6" s="224"/>
+      <c r="FA6" s="224"/>
+      <c r="FB6" s="224"/>
+      <c r="FC6" s="224"/>
+      <c r="FD6" s="224"/>
+      <c r="FE6" s="224"/>
+      <c r="FF6" s="224"/>
+      <c r="FG6" s="224"/>
+      <c r="FH6" s="224"/>
+      <c r="FI6" s="224"/>
+      <c r="FJ6" s="224"/>
+      <c r="FK6" s="224"/>
+      <c r="FL6" s="224"/>
+      <c r="FM6" s="224"/>
+      <c r="FN6" s="224"/>
+      <c r="FO6" s="224"/>
+      <c r="FP6" s="224"/>
+      <c r="FQ6" s="224"/>
+      <c r="FR6" s="224"/>
+      <c r="FS6" s="224"/>
+      <c r="FT6" s="224"/>
+      <c r="FU6" s="224"/>
+      <c r="FV6" s="224"/>
+      <c r="FW6" s="224"/>
+      <c r="FX6" s="224"/>
+      <c r="FY6" s="224"/>
+      <c r="FZ6" s="225"/>
+      <c r="GA6" s="219">
         <v>3</v>
       </c>
-      <c r="GB6" s="214"/>
-      <c r="GC6" s="214"/>
-      <c r="GD6" s="214"/>
-      <c r="GE6" s="214"/>
-      <c r="GF6" s="214"/>
-      <c r="GG6" s="214"/>
-      <c r="GH6" s="214"/>
-      <c r="GI6" s="214"/>
-      <c r="GJ6" s="214"/>
-      <c r="GK6" s="214"/>
-      <c r="GL6" s="214"/>
-      <c r="GM6" s="214"/>
-      <c r="GN6" s="214"/>
-      <c r="GO6" s="214"/>
-      <c r="GP6" s="214"/>
-      <c r="GQ6" s="214"/>
-      <c r="GR6" s="214"/>
-      <c r="GS6" s="214"/>
-      <c r="GT6" s="214"/>
-      <c r="GU6" s="214"/>
-      <c r="GV6" s="214"/>
-      <c r="GW6" s="214"/>
-      <c r="GX6" s="214"/>
-      <c r="GY6" s="214"/>
-      <c r="GZ6" s="214"/>
-      <c r="HA6" s="214"/>
-      <c r="HB6" s="214"/>
-      <c r="HC6" s="214"/>
-      <c r="HD6" s="214"/>
-      <c r="HE6" s="214"/>
+      <c r="GB6" s="219"/>
+      <c r="GC6" s="219"/>
+      <c r="GD6" s="219"/>
+      <c r="GE6" s="219"/>
+      <c r="GF6" s="219"/>
+      <c r="GG6" s="219"/>
+      <c r="GH6" s="219"/>
+      <c r="GI6" s="219"/>
+      <c r="GJ6" s="219"/>
+      <c r="GK6" s="219"/>
+      <c r="GL6" s="219"/>
+      <c r="GM6" s="219"/>
+      <c r="GN6" s="219"/>
+      <c r="GO6" s="219"/>
+      <c r="GP6" s="219"/>
+      <c r="GQ6" s="219"/>
+      <c r="GR6" s="219"/>
+      <c r="GS6" s="219"/>
+      <c r="GT6" s="219"/>
+      <c r="GU6" s="219"/>
+      <c r="GV6" s="219"/>
+      <c r="GW6" s="219"/>
+      <c r="GX6" s="219"/>
+      <c r="GY6" s="219"/>
+      <c r="GZ6" s="219"/>
+      <c r="HA6" s="219"/>
+      <c r="HB6" s="219"/>
+      <c r="HC6" s="219"/>
+      <c r="HD6" s="219"/>
+      <c r="HE6" s="219"/>
       <c r="HF6" s="215">
         <v>4</v>
       </c>
@@ -3815,39 +3820,39 @@
       <c r="IG6" s="216"/>
       <c r="IH6" s="216"/>
       <c r="II6" s="217"/>
-      <c r="IJ6" s="227">
+      <c r="IJ6" s="218">
         <v>5</v>
       </c>
-      <c r="IK6" s="214"/>
-      <c r="IL6" s="214"/>
-      <c r="IM6" s="214"/>
-      <c r="IN6" s="214"/>
-      <c r="IO6" s="214"/>
-      <c r="IP6" s="214"/>
-      <c r="IQ6" s="214"/>
-      <c r="IR6" s="214"/>
-      <c r="IS6" s="214"/>
-      <c r="IT6" s="214"/>
-      <c r="IU6" s="214"/>
-      <c r="IV6" s="214"/>
-      <c r="IW6" s="214"/>
-      <c r="IX6" s="214"/>
-      <c r="IY6" s="214"/>
-      <c r="IZ6" s="214"/>
-      <c r="JA6" s="214"/>
-      <c r="JB6" s="214"/>
-      <c r="JC6" s="214"/>
-      <c r="JD6" s="214"/>
-      <c r="JE6" s="214"/>
-      <c r="JF6" s="214"/>
-      <c r="JG6" s="214"/>
-      <c r="JH6" s="214"/>
-      <c r="JI6" s="214"/>
-      <c r="JJ6" s="214"/>
-      <c r="JK6" s="214"/>
-      <c r="JL6" s="214"/>
-      <c r="JM6" s="214"/>
-      <c r="JN6" s="228"/>
+      <c r="IK6" s="219"/>
+      <c r="IL6" s="219"/>
+      <c r="IM6" s="219"/>
+      <c r="IN6" s="219"/>
+      <c r="IO6" s="219"/>
+      <c r="IP6" s="219"/>
+      <c r="IQ6" s="219"/>
+      <c r="IR6" s="219"/>
+      <c r="IS6" s="219"/>
+      <c r="IT6" s="219"/>
+      <c r="IU6" s="219"/>
+      <c r="IV6" s="219"/>
+      <c r="IW6" s="219"/>
+      <c r="IX6" s="219"/>
+      <c r="IY6" s="219"/>
+      <c r="IZ6" s="219"/>
+      <c r="JA6" s="219"/>
+      <c r="JB6" s="219"/>
+      <c r="JC6" s="219"/>
+      <c r="JD6" s="219"/>
+      <c r="JE6" s="219"/>
+      <c r="JF6" s="219"/>
+      <c r="JG6" s="219"/>
+      <c r="JH6" s="219"/>
+      <c r="JI6" s="219"/>
+      <c r="JJ6" s="219"/>
+      <c r="JK6" s="219"/>
+      <c r="JL6" s="219"/>
+      <c r="JM6" s="219"/>
+      <c r="JN6" s="220"/>
       <c r="JO6" s="215">
         <v>6</v>
       </c>
@@ -3880,72 +3885,72 @@
       <c r="KP6" s="216"/>
       <c r="KQ6" s="216"/>
       <c r="KR6" s="217"/>
-      <c r="KS6" s="224">
+      <c r="KS6" s="212">
         <v>7</v>
       </c>
-      <c r="KT6" s="225"/>
-      <c r="KU6" s="225"/>
-      <c r="KV6" s="225"/>
-      <c r="KW6" s="225"/>
-      <c r="KX6" s="225"/>
-      <c r="KY6" s="225"/>
-      <c r="KZ6" s="225"/>
-      <c r="LA6" s="225"/>
-      <c r="LB6" s="225"/>
-      <c r="LC6" s="225"/>
-      <c r="LD6" s="225"/>
-      <c r="LE6" s="225"/>
-      <c r="LF6" s="225"/>
-      <c r="LG6" s="225"/>
-      <c r="LH6" s="225"/>
-      <c r="LI6" s="225"/>
-      <c r="LJ6" s="225"/>
-      <c r="LK6" s="225"/>
-      <c r="LL6" s="225"/>
-      <c r="LM6" s="225"/>
-      <c r="LN6" s="225"/>
-      <c r="LO6" s="225"/>
-      <c r="LP6" s="225"/>
-      <c r="LQ6" s="225"/>
-      <c r="LR6" s="225"/>
-      <c r="LS6" s="225"/>
-      <c r="LT6" s="225"/>
-      <c r="LU6" s="225"/>
-      <c r="LV6" s="225"/>
-      <c r="LW6" s="226"/>
-      <c r="LX6" s="224">
+      <c r="KT6" s="213"/>
+      <c r="KU6" s="213"/>
+      <c r="KV6" s="213"/>
+      <c r="KW6" s="213"/>
+      <c r="KX6" s="213"/>
+      <c r="KY6" s="213"/>
+      <c r="KZ6" s="213"/>
+      <c r="LA6" s="213"/>
+      <c r="LB6" s="213"/>
+      <c r="LC6" s="213"/>
+      <c r="LD6" s="213"/>
+      <c r="LE6" s="213"/>
+      <c r="LF6" s="213"/>
+      <c r="LG6" s="213"/>
+      <c r="LH6" s="213"/>
+      <c r="LI6" s="213"/>
+      <c r="LJ6" s="213"/>
+      <c r="LK6" s="213"/>
+      <c r="LL6" s="213"/>
+      <c r="LM6" s="213"/>
+      <c r="LN6" s="213"/>
+      <c r="LO6" s="213"/>
+      <c r="LP6" s="213"/>
+      <c r="LQ6" s="213"/>
+      <c r="LR6" s="213"/>
+      <c r="LS6" s="213"/>
+      <c r="LT6" s="213"/>
+      <c r="LU6" s="213"/>
+      <c r="LV6" s="213"/>
+      <c r="LW6" s="214"/>
+      <c r="LX6" s="212">
         <v>8</v>
       </c>
-      <c r="LY6" s="225"/>
-      <c r="LZ6" s="225"/>
-      <c r="MA6" s="225"/>
-      <c r="MB6" s="225"/>
-      <c r="MC6" s="225"/>
-      <c r="MD6" s="225"/>
-      <c r="ME6" s="225"/>
-      <c r="MF6" s="225"/>
-      <c r="MG6" s="225"/>
-      <c r="MH6" s="225"/>
-      <c r="MI6" s="225"/>
-      <c r="MJ6" s="225"/>
-      <c r="MK6" s="225"/>
-      <c r="ML6" s="225"/>
-      <c r="MM6" s="225"/>
-      <c r="MN6" s="225"/>
-      <c r="MO6" s="225"/>
-      <c r="MP6" s="225"/>
-      <c r="MQ6" s="225"/>
-      <c r="MR6" s="225"/>
-      <c r="MS6" s="225"/>
-      <c r="MT6" s="225"/>
-      <c r="MU6" s="225"/>
-      <c r="MV6" s="225"/>
-      <c r="MW6" s="225"/>
-      <c r="MX6" s="225"/>
-      <c r="MY6" s="225"/>
-      <c r="MZ6" s="225"/>
-      <c r="NA6" s="225"/>
-      <c r="NB6" s="225"/>
+      <c r="LY6" s="213"/>
+      <c r="LZ6" s="213"/>
+      <c r="MA6" s="213"/>
+      <c r="MB6" s="213"/>
+      <c r="MC6" s="213"/>
+      <c r="MD6" s="213"/>
+      <c r="ME6" s="213"/>
+      <c r="MF6" s="213"/>
+      <c r="MG6" s="213"/>
+      <c r="MH6" s="213"/>
+      <c r="MI6" s="213"/>
+      <c r="MJ6" s="213"/>
+      <c r="MK6" s="213"/>
+      <c r="ML6" s="213"/>
+      <c r="MM6" s="213"/>
+      <c r="MN6" s="213"/>
+      <c r="MO6" s="213"/>
+      <c r="MP6" s="213"/>
+      <c r="MQ6" s="213"/>
+      <c r="MR6" s="213"/>
+      <c r="MS6" s="213"/>
+      <c r="MT6" s="213"/>
+      <c r="MU6" s="213"/>
+      <c r="MV6" s="213"/>
+      <c r="MW6" s="213"/>
+      <c r="MX6" s="213"/>
+      <c r="MY6" s="213"/>
+      <c r="MZ6" s="213"/>
+      <c r="NA6" s="213"/>
+      <c r="NB6" s="213"/>
       <c r="NC6" s="215">
         <v>9</v>
       </c>
@@ -3978,40 +3983,40 @@
       <c r="OD6" s="216"/>
       <c r="OE6" s="216"/>
       <c r="OF6" s="217"/>
-      <c r="OG6" s="224">
+      <c r="OG6" s="212">
         <v>10</v>
       </c>
-      <c r="OH6" s="225"/>
-      <c r="OI6" s="225"/>
-      <c r="OJ6" s="225"/>
-      <c r="OK6" s="225"/>
-      <c r="OL6" s="225"/>
-      <c r="OM6" s="225"/>
-      <c r="ON6" s="225"/>
-      <c r="OO6" s="225"/>
-      <c r="OP6" s="225"/>
-      <c r="OQ6" s="225"/>
-      <c r="OR6" s="225"/>
-      <c r="OS6" s="225"/>
-      <c r="OT6" s="225"/>
-      <c r="OU6" s="225"/>
-      <c r="OV6" s="225"/>
-      <c r="OW6" s="225"/>
-      <c r="OX6" s="225"/>
-      <c r="OY6" s="225"/>
-      <c r="OZ6" s="225"/>
-      <c r="PA6" s="225"/>
-      <c r="PB6" s="225"/>
-      <c r="PC6" s="225"/>
-      <c r="PD6" s="225"/>
-      <c r="PE6" s="225"/>
-      <c r="PF6" s="225"/>
-      <c r="PG6" s="225"/>
-      <c r="PH6" s="225"/>
-      <c r="PI6" s="225"/>
-      <c r="PJ6" s="225"/>
-      <c r="PK6" s="226"/>
-      <c r="PL6" s="229">
+      <c r="OH6" s="213"/>
+      <c r="OI6" s="213"/>
+      <c r="OJ6" s="213"/>
+      <c r="OK6" s="213"/>
+      <c r="OL6" s="213"/>
+      <c r="OM6" s="213"/>
+      <c r="ON6" s="213"/>
+      <c r="OO6" s="213"/>
+      <c r="OP6" s="213"/>
+      <c r="OQ6" s="213"/>
+      <c r="OR6" s="213"/>
+      <c r="OS6" s="213"/>
+      <c r="OT6" s="213"/>
+      <c r="OU6" s="213"/>
+      <c r="OV6" s="213"/>
+      <c r="OW6" s="213"/>
+      <c r="OX6" s="213"/>
+      <c r="OY6" s="213"/>
+      <c r="OZ6" s="213"/>
+      <c r="PA6" s="213"/>
+      <c r="PB6" s="213"/>
+      <c r="PC6" s="213"/>
+      <c r="PD6" s="213"/>
+      <c r="PE6" s="213"/>
+      <c r="PF6" s="213"/>
+      <c r="PG6" s="213"/>
+      <c r="PH6" s="213"/>
+      <c r="PI6" s="213"/>
+      <c r="PJ6" s="213"/>
+      <c r="PK6" s="214"/>
+      <c r="PL6" s="221">
         <v>11</v>
       </c>
       <c r="PM6" s="216"/>
@@ -4043,168 +4048,168 @@
       <c r="QM6" s="216"/>
       <c r="QN6" s="216"/>
       <c r="QO6" s="217"/>
-      <c r="QP6" s="224">
+      <c r="QP6" s="212">
         <v>12</v>
       </c>
-      <c r="QQ6" s="225"/>
-      <c r="QR6" s="225"/>
-      <c r="QS6" s="225"/>
-      <c r="QT6" s="225"/>
-      <c r="QU6" s="225"/>
-      <c r="QV6" s="225"/>
-      <c r="QW6" s="225"/>
-      <c r="QX6" s="225"/>
-      <c r="QY6" s="225"/>
-      <c r="QZ6" s="225"/>
-      <c r="RA6" s="225"/>
-      <c r="RB6" s="225"/>
-      <c r="RC6" s="225"/>
-      <c r="RD6" s="225"/>
-      <c r="RE6" s="225"/>
-      <c r="RF6" s="225"/>
-      <c r="RG6" s="225"/>
-      <c r="RH6" s="225"/>
-      <c r="RI6" s="225"/>
-      <c r="RJ6" s="225"/>
-      <c r="RK6" s="225"/>
-      <c r="RL6" s="225"/>
-      <c r="RM6" s="225"/>
-      <c r="RN6" s="225"/>
-      <c r="RO6" s="225"/>
-      <c r="RP6" s="225"/>
-      <c r="RQ6" s="225"/>
-      <c r="RR6" s="225"/>
-      <c r="RS6" s="225"/>
-      <c r="RT6" s="226"/>
-      <c r="RU6" s="224">
+      <c r="QQ6" s="213"/>
+      <c r="QR6" s="213"/>
+      <c r="QS6" s="213"/>
+      <c r="QT6" s="213"/>
+      <c r="QU6" s="213"/>
+      <c r="QV6" s="213"/>
+      <c r="QW6" s="213"/>
+      <c r="QX6" s="213"/>
+      <c r="QY6" s="213"/>
+      <c r="QZ6" s="213"/>
+      <c r="RA6" s="213"/>
+      <c r="RB6" s="213"/>
+      <c r="RC6" s="213"/>
+      <c r="RD6" s="213"/>
+      <c r="RE6" s="213"/>
+      <c r="RF6" s="213"/>
+      <c r="RG6" s="213"/>
+      <c r="RH6" s="213"/>
+      <c r="RI6" s="213"/>
+      <c r="RJ6" s="213"/>
+      <c r="RK6" s="213"/>
+      <c r="RL6" s="213"/>
+      <c r="RM6" s="213"/>
+      <c r="RN6" s="213"/>
+      <c r="RO6" s="213"/>
+      <c r="RP6" s="213"/>
+      <c r="RQ6" s="213"/>
+      <c r="RR6" s="213"/>
+      <c r="RS6" s="213"/>
+      <c r="RT6" s="214"/>
+      <c r="RU6" s="212">
         <v>1</v>
       </c>
-      <c r="RV6" s="225"/>
-      <c r="RW6" s="225"/>
-      <c r="RX6" s="225"/>
-      <c r="RY6" s="225"/>
-      <c r="RZ6" s="225"/>
-      <c r="SA6" s="225"/>
-      <c r="SB6" s="225"/>
-      <c r="SC6" s="225"/>
-      <c r="SD6" s="225"/>
-      <c r="SE6" s="225"/>
-      <c r="SF6" s="225"/>
-      <c r="SG6" s="225"/>
-      <c r="SH6" s="225"/>
-      <c r="SI6" s="225"/>
-      <c r="SJ6" s="225"/>
-      <c r="SK6" s="225"/>
-      <c r="SL6" s="225"/>
-      <c r="SM6" s="225"/>
-      <c r="SN6" s="225"/>
-      <c r="SO6" s="225"/>
-      <c r="SP6" s="225"/>
-      <c r="SQ6" s="225"/>
-      <c r="SR6" s="225"/>
-      <c r="SS6" s="225"/>
-      <c r="ST6" s="225"/>
-      <c r="SU6" s="225"/>
-      <c r="SV6" s="225"/>
-      <c r="SW6" s="225"/>
-      <c r="SX6" s="225"/>
-      <c r="SY6" s="225"/>
-      <c r="SZ6" s="224">
+      <c r="RV6" s="213"/>
+      <c r="RW6" s="213"/>
+      <c r="RX6" s="213"/>
+      <c r="RY6" s="213"/>
+      <c r="RZ6" s="213"/>
+      <c r="SA6" s="213"/>
+      <c r="SB6" s="213"/>
+      <c r="SC6" s="213"/>
+      <c r="SD6" s="213"/>
+      <c r="SE6" s="213"/>
+      <c r="SF6" s="213"/>
+      <c r="SG6" s="213"/>
+      <c r="SH6" s="213"/>
+      <c r="SI6" s="213"/>
+      <c r="SJ6" s="213"/>
+      <c r="SK6" s="213"/>
+      <c r="SL6" s="213"/>
+      <c r="SM6" s="213"/>
+      <c r="SN6" s="213"/>
+      <c r="SO6" s="213"/>
+      <c r="SP6" s="213"/>
+      <c r="SQ6" s="213"/>
+      <c r="SR6" s="213"/>
+      <c r="SS6" s="213"/>
+      <c r="ST6" s="213"/>
+      <c r="SU6" s="213"/>
+      <c r="SV6" s="213"/>
+      <c r="SW6" s="213"/>
+      <c r="SX6" s="213"/>
+      <c r="SY6" s="213"/>
+      <c r="SZ6" s="212">
         <v>2</v>
       </c>
-      <c r="TA6" s="225"/>
-      <c r="TB6" s="225"/>
-      <c r="TC6" s="225"/>
-      <c r="TD6" s="225"/>
-      <c r="TE6" s="225"/>
-      <c r="TF6" s="225"/>
-      <c r="TG6" s="225"/>
-      <c r="TH6" s="225"/>
-      <c r="TI6" s="225"/>
-      <c r="TJ6" s="225"/>
-      <c r="TK6" s="225"/>
-      <c r="TL6" s="225"/>
-      <c r="TM6" s="225"/>
-      <c r="TN6" s="225"/>
-      <c r="TO6" s="225"/>
-      <c r="TP6" s="225"/>
-      <c r="TQ6" s="225"/>
-      <c r="TR6" s="225"/>
-      <c r="TS6" s="225"/>
-      <c r="TT6" s="225"/>
-      <c r="TU6" s="225"/>
-      <c r="TV6" s="225"/>
-      <c r="TW6" s="225"/>
-      <c r="TX6" s="225"/>
-      <c r="TY6" s="225"/>
-      <c r="TZ6" s="225"/>
-      <c r="UA6" s="225"/>
-      <c r="UB6" s="226"/>
-      <c r="UC6" s="224">
+      <c r="TA6" s="213"/>
+      <c r="TB6" s="213"/>
+      <c r="TC6" s="213"/>
+      <c r="TD6" s="213"/>
+      <c r="TE6" s="213"/>
+      <c r="TF6" s="213"/>
+      <c r="TG6" s="213"/>
+      <c r="TH6" s="213"/>
+      <c r="TI6" s="213"/>
+      <c r="TJ6" s="213"/>
+      <c r="TK6" s="213"/>
+      <c r="TL6" s="213"/>
+      <c r="TM6" s="213"/>
+      <c r="TN6" s="213"/>
+      <c r="TO6" s="213"/>
+      <c r="TP6" s="213"/>
+      <c r="TQ6" s="213"/>
+      <c r="TR6" s="213"/>
+      <c r="TS6" s="213"/>
+      <c r="TT6" s="213"/>
+      <c r="TU6" s="213"/>
+      <c r="TV6" s="213"/>
+      <c r="TW6" s="213"/>
+      <c r="TX6" s="213"/>
+      <c r="TY6" s="213"/>
+      <c r="TZ6" s="213"/>
+      <c r="UA6" s="213"/>
+      <c r="UB6" s="214"/>
+      <c r="UC6" s="212">
         <v>3</v>
       </c>
-      <c r="UD6" s="225"/>
-      <c r="UE6" s="225"/>
-      <c r="UF6" s="225"/>
-      <c r="UG6" s="225"/>
-      <c r="UH6" s="225"/>
-      <c r="UI6" s="225"/>
-      <c r="UJ6" s="225"/>
-      <c r="UK6" s="225"/>
-      <c r="UL6" s="225"/>
-      <c r="UM6" s="225"/>
-      <c r="UN6" s="225"/>
-      <c r="UO6" s="225"/>
-      <c r="UP6" s="225"/>
-      <c r="UQ6" s="225"/>
-      <c r="UR6" s="225"/>
-      <c r="US6" s="225"/>
-      <c r="UT6" s="225"/>
-      <c r="UU6" s="225"/>
-      <c r="UV6" s="225"/>
-      <c r="UW6" s="225"/>
-      <c r="UX6" s="225"/>
-      <c r="UY6" s="225"/>
-      <c r="UZ6" s="225"/>
-      <c r="VA6" s="225"/>
-      <c r="VB6" s="225"/>
-      <c r="VC6" s="225"/>
-      <c r="VD6" s="225"/>
-      <c r="VE6" s="225"/>
-      <c r="VF6" s="225"/>
-      <c r="VG6" s="225"/>
-      <c r="VH6" s="224">
+      <c r="UD6" s="213"/>
+      <c r="UE6" s="213"/>
+      <c r="UF6" s="213"/>
+      <c r="UG6" s="213"/>
+      <c r="UH6" s="213"/>
+      <c r="UI6" s="213"/>
+      <c r="UJ6" s="213"/>
+      <c r="UK6" s="213"/>
+      <c r="UL6" s="213"/>
+      <c r="UM6" s="213"/>
+      <c r="UN6" s="213"/>
+      <c r="UO6" s="213"/>
+      <c r="UP6" s="213"/>
+      <c r="UQ6" s="213"/>
+      <c r="UR6" s="213"/>
+      <c r="US6" s="213"/>
+      <c r="UT6" s="213"/>
+      <c r="UU6" s="213"/>
+      <c r="UV6" s="213"/>
+      <c r="UW6" s="213"/>
+      <c r="UX6" s="213"/>
+      <c r="UY6" s="213"/>
+      <c r="UZ6" s="213"/>
+      <c r="VA6" s="213"/>
+      <c r="VB6" s="213"/>
+      <c r="VC6" s="213"/>
+      <c r="VD6" s="213"/>
+      <c r="VE6" s="213"/>
+      <c r="VF6" s="213"/>
+      <c r="VG6" s="213"/>
+      <c r="VH6" s="212">
         <v>4</v>
       </c>
-      <c r="VI6" s="225"/>
-      <c r="VJ6" s="225"/>
-      <c r="VK6" s="225"/>
-      <c r="VL6" s="225"/>
-      <c r="VM6" s="225"/>
-      <c r="VN6" s="225"/>
-      <c r="VO6" s="225"/>
-      <c r="VP6" s="225"/>
-      <c r="VQ6" s="225"/>
-      <c r="VR6" s="225"/>
-      <c r="VS6" s="225"/>
-      <c r="VT6" s="225"/>
-      <c r="VU6" s="225"/>
-      <c r="VV6" s="225"/>
-      <c r="VW6" s="225"/>
-      <c r="VX6" s="225"/>
-      <c r="VY6" s="225"/>
-      <c r="VZ6" s="225"/>
-      <c r="WA6" s="225"/>
-      <c r="WB6" s="225"/>
-      <c r="WC6" s="225"/>
-      <c r="WD6" s="225"/>
-      <c r="WE6" s="225"/>
-      <c r="WF6" s="225"/>
-      <c r="WG6" s="225"/>
-      <c r="WH6" s="225"/>
-      <c r="WI6" s="225"/>
-      <c r="WJ6" s="225"/>
-      <c r="WK6" s="225"/>
+      <c r="VI6" s="213"/>
+      <c r="VJ6" s="213"/>
+      <c r="VK6" s="213"/>
+      <c r="VL6" s="213"/>
+      <c r="VM6" s="213"/>
+      <c r="VN6" s="213"/>
+      <c r="VO6" s="213"/>
+      <c r="VP6" s="213"/>
+      <c r="VQ6" s="213"/>
+      <c r="VR6" s="213"/>
+      <c r="VS6" s="213"/>
+      <c r="VT6" s="213"/>
+      <c r="VU6" s="213"/>
+      <c r="VV6" s="213"/>
+      <c r="VW6" s="213"/>
+      <c r="VX6" s="213"/>
+      <c r="VY6" s="213"/>
+      <c r="VZ6" s="213"/>
+      <c r="WA6" s="213"/>
+      <c r="WB6" s="213"/>
+      <c r="WC6" s="213"/>
+      <c r="WD6" s="213"/>
+      <c r="WE6" s="213"/>
+      <c r="WF6" s="213"/>
+      <c r="WG6" s="213"/>
+      <c r="WH6" s="213"/>
+      <c r="WI6" s="213"/>
+      <c r="WJ6" s="213"/>
+      <c r="WK6" s="213"/>
     </row>
     <row r="7" spans="1:609" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="52"/>
@@ -6034,7 +6039,7 @@
       </c>
     </row>
     <row r="8" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="212" t="s">
+      <c r="A8" s="222" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="41"/>
@@ -6661,7 +6666,7 @@
       <c r="WK8" s="31"/>
     </row>
     <row r="9" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="212"/>
+      <c r="A9" s="222"/>
       <c r="B9" s="72"/>
       <c r="C9" s="73"/>
       <c r="D9" s="74"/>
@@ -7288,7 +7293,7 @@
       <c r="WK9" s="33"/>
     </row>
     <row r="10" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="212"/>
+      <c r="A10" s="222"/>
       <c r="B10" s="72"/>
       <c r="C10" s="73"/>
       <c r="D10" s="74"/>
@@ -7907,7 +7912,7 @@
       <c r="WK10" s="33"/>
     </row>
     <row r="11" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="212"/>
+      <c r="A11" s="222"/>
       <c r="B11" s="72"/>
       <c r="C11" s="73"/>
       <c r="D11" s="74"/>
@@ -8528,7 +8533,7 @@
       <c r="WK11" s="33"/>
     </row>
     <row r="12" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="212"/>
+      <c r="A12" s="222"/>
       <c r="B12" s="72"/>
       <c r="C12" s="73"/>
       <c r="D12" s="74"/>
@@ -9147,7 +9152,7 @@
       <c r="WK12" s="33"/>
     </row>
     <row r="13" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="212"/>
+      <c r="A13" s="222"/>
       <c r="B13" s="72"/>
       <c r="C13" s="73"/>
       <c r="D13" s="74"/>
@@ -9762,7 +9767,7 @@
       <c r="WK13" s="33"/>
     </row>
     <row r="14" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="212"/>
+      <c r="A14" s="222"/>
       <c r="B14" s="80"/>
       <c r="C14" s="81"/>
       <c r="D14" s="82"/>
@@ -10375,7 +10380,7 @@
       <c r="WK14" s="34"/>
     </row>
     <row r="15" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="213" t="s">
+      <c r="A15" s="223" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="88"/>
@@ -10915,7 +10920,9 @@
       <c r="TL15" s="26"/>
       <c r="TM15" s="26"/>
       <c r="TN15" s="27"/>
-      <c r="TO15" s="27"/>
+      <c r="TO15" s="242" t="s">
+        <v>178</v>
+      </c>
       <c r="TP15" s="26"/>
       <c r="TQ15" s="26"/>
       <c r="TR15" s="26"/>
@@ -10992,7 +10999,7 @@
       <c r="WK15" s="37"/>
     </row>
     <row r="16" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="212"/>
+      <c r="A16" s="222"/>
       <c r="B16" s="94"/>
       <c r="C16" s="95"/>
       <c r="D16" s="96"/>
@@ -11625,7 +11632,7 @@
       <c r="WK16" s="35"/>
     </row>
     <row r="17" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="212"/>
+      <c r="A17" s="222"/>
       <c r="B17" s="94"/>
       <c r="C17" s="95"/>
       <c r="D17" s="96"/>
@@ -12251,7 +12258,7 @@
       <c r="WK17" s="36"/>
     </row>
     <row r="18" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="212"/>
+      <c r="A18" s="222"/>
       <c r="B18" s="94"/>
       <c r="C18" s="95"/>
       <c r="D18" s="96"/>
@@ -12867,7 +12874,7 @@
       <c r="WK18" s="36"/>
     </row>
     <row r="19" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="212"/>
+      <c r="A19" s="222"/>
       <c r="B19" s="94"/>
       <c r="C19" s="95"/>
       <c r="D19" s="96"/>
@@ -13478,7 +13485,7 @@
       <c r="WK19" s="36"/>
     </row>
     <row r="20" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="212"/>
+      <c r="A20" s="222"/>
       <c r="B20" s="94"/>
       <c r="C20" s="95"/>
       <c r="D20" s="96"/>
@@ -14089,7 +14096,7 @@
       <c r="WK20" s="36"/>
     </row>
     <row r="21" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="212"/>
+      <c r="A21" s="222"/>
       <c r="B21" s="94"/>
       <c r="C21" s="95"/>
       <c r="D21" s="96"/>
@@ -14700,7 +14707,7 @@
       <c r="WK21" s="122"/>
     </row>
     <row r="22" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="212"/>
+      <c r="A22" s="222"/>
       <c r="B22" s="101"/>
       <c r="C22" s="102"/>
       <c r="D22" s="103"/>
@@ -15311,7 +15318,7 @@
       <c r="WK22" s="38"/>
     </row>
     <row r="23" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="212" t="s">
+      <c r="A23" s="222" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="107"/>
@@ -15936,7 +15943,7 @@
       <c r="WK23" s="37"/>
     </row>
     <row r="24" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="212"/>
+      <c r="A24" s="222"/>
       <c r="B24" s="94"/>
       <c r="C24" s="95"/>
       <c r="D24" s="96"/>
@@ -16553,7 +16560,7 @@
       <c r="WK24" s="36"/>
     </row>
     <row r="25" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="212"/>
+      <c r="A25" s="222"/>
       <c r="B25" s="94"/>
       <c r="C25" s="95"/>
       <c r="D25" s="96"/>
@@ -17178,7 +17185,7 @@
       <c r="WK25" s="36"/>
     </row>
     <row r="26" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="212"/>
+      <c r="A26" s="222"/>
       <c r="B26" s="94"/>
       <c r="C26" s="95"/>
       <c r="D26" s="96"/>
@@ -17801,7 +17808,7 @@
       <c r="WK26" s="36"/>
     </row>
     <row r="27" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="212"/>
+      <c r="A27" s="222"/>
       <c r="B27" s="94"/>
       <c r="C27" s="95"/>
       <c r="D27" s="96"/>
@@ -18418,7 +18425,7 @@
       <c r="WK27" s="36"/>
     </row>
     <row r="28" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="212"/>
+      <c r="A28" s="222"/>
       <c r="B28" s="94"/>
       <c r="C28" s="95"/>
       <c r="D28" s="96"/>
@@ -19031,7 +19038,7 @@
       <c r="WK28" s="36"/>
     </row>
     <row r="29" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="212"/>
+      <c r="A29" s="222"/>
       <c r="B29" s="94"/>
       <c r="C29" s="95"/>
       <c r="D29" s="96"/>
@@ -19644,7 +19651,7 @@
       <c r="WK29" s="36"/>
     </row>
     <row r="30" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="212"/>
+      <c r="A30" s="222"/>
       <c r="B30" s="101"/>
       <c r="C30" s="102"/>
       <c r="D30" s="103"/>
@@ -21503,18 +21510,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="UC6:VG6"/>
-    <mergeCell ref="VH6:WK6"/>
-    <mergeCell ref="RU6:SY6"/>
-    <mergeCell ref="SZ6:UB6"/>
-    <mergeCell ref="KS6:LW6"/>
-    <mergeCell ref="JO6:KR6"/>
-    <mergeCell ref="IJ6:JN6"/>
-    <mergeCell ref="OG6:PK6"/>
-    <mergeCell ref="PL6:QO6"/>
-    <mergeCell ref="QP6:RT6"/>
-    <mergeCell ref="NC6:OF6"/>
-    <mergeCell ref="LX6:NB6"/>
     <mergeCell ref="A8:A14"/>
     <mergeCell ref="A15:A22"/>
     <mergeCell ref="A23:A30"/>
@@ -21526,6 +21521,18 @@
     <mergeCell ref="B6:AE6"/>
     <mergeCell ref="AF6:BJ6"/>
     <mergeCell ref="BK6:CN6"/>
+    <mergeCell ref="JO6:KR6"/>
+    <mergeCell ref="IJ6:JN6"/>
+    <mergeCell ref="OG6:PK6"/>
+    <mergeCell ref="PL6:QO6"/>
+    <mergeCell ref="QP6:RT6"/>
+    <mergeCell ref="NC6:OF6"/>
+    <mergeCell ref="LX6:NB6"/>
+    <mergeCell ref="UC6:VG6"/>
+    <mergeCell ref="VH6:WK6"/>
+    <mergeCell ref="RU6:SY6"/>
+    <mergeCell ref="SZ6:UB6"/>
+    <mergeCell ref="KS6:LW6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plasma Project schedule V1.0_20191015.xlsx
+++ b/Plasma Project schedule V1.0_20191015.xlsx
@@ -10,6 +10,7 @@
     <sheet name="20181224" sheetId="20" r:id="rId1"/>
     <sheet name="Work" sheetId="21" r:id="rId2"/>
     <sheet name="History" sheetId="22" r:id="rId3"/>
+    <sheet name="RF_GEN_FW" sheetId="23" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'20181224'!$A$1:$A$30</definedName>
@@ -119,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="185">
   <si>
     <t>Femto Project 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -850,6 +851,34 @@
   </si>
   <si>
     <t>◆F/W PCB 입고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◆F/W release</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fucntion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDS 출력 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRE_AMP_ENA = HIGH
+BIAS_ON = HIGH
+PD2_GPIO_ON = LOW
+PC7_PWR_ENA = HIGH
+PC6_PW_PWM : 50KHz duty 50%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1764,7 +1793,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="243">
+  <cellXfs count="258">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2075,13 +2104,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2092,24 +2122,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2127,6 +2139,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2165,7 +2195,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2209,7 +2283,7 @@
         <xdr:cNvPr id="52" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2266,7 +2340,7 @@
         <xdr:cNvPr id="15" name="직선 화살표 연결선 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2323,7 +2397,7 @@
         <xdr:cNvPr id="18" name="직선 화살표 연결선 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2380,7 +2454,7 @@
         <xdr:cNvPr id="21" name="직선 화살표 연결선 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2437,7 +2511,7 @@
         <xdr:cNvPr id="25" name="직선 화살표 연결선 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2375196F-31DF-4BFC-AC62-19AF714F443A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2494,7 +2568,7 @@
         <xdr:cNvPr id="28" name="직선 화살표 연결선 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D1266C4-6D7E-4F8B-8103-59BF7C6FE4FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2551,7 +2625,7 @@
         <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{666CF52C-5D68-4474-8BDD-79976E036787}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2608,7 +2682,7 @@
         <xdr:cNvPr id="33" name="직선 화살표 연결선 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07D67EB1-AD43-42F4-B443-3BB978B9F2AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2665,7 +2739,7 @@
         <xdr:cNvPr id="36" name="직선 화살표 연결선 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A732A08-4D4F-441D-9243-033ACD4A7F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2722,7 +2796,7 @@
         <xdr:cNvPr id="38" name="직선 화살표 연결선 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A864090-2577-47BA-8983-FFA17538A224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2779,7 +2853,7 @@
         <xdr:cNvPr id="41" name="직선 화살표 연결선 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9CC53C-2611-4F5F-B122-A3165CFAFB90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2836,7 +2910,7 @@
         <xdr:cNvPr id="46" name="직선 화살표 연결선 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6CC6FD7-49CF-4859-9978-820DB474FDCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2893,7 +2967,7 @@
         <xdr:cNvPr id="14" name="직선 화살표 연결선 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5A7DBF8-E685-466C-85D3-36D1828C9CBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2950,7 +3024,7 @@
         <xdr:cNvPr id="16" name="직선 화살표 연결선 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D724AD7-DEC3-4BAD-A0BE-EBB685097DA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3007,7 +3081,7 @@
         <xdr:cNvPr id="19" name="직선 화살표 연결선 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E49A8F08-60DF-418D-8D92-E435C42894A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3064,7 +3138,7 @@
         <xdr:cNvPr id="17" name="직선 화살표 연결선 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9B7B3B-4B32-4051-898C-EE6F25736D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3121,7 +3195,7 @@
         <xdr:cNvPr id="20" name="직선 화살표 연결선 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3178,7 +3252,7 @@
         <xdr:cNvPr id="22" name="직선 화살표 연결선 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEB29C9-2143-40DD-9242-A82E285F4B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3511,7 +3585,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="TK32" sqref="TK32"/>
+      <selection pane="topRight" activeCell="SR19" sqref="SR19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3562,654 +3636,654 @@
     </row>
     <row r="6" spans="1:609" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="50"/>
-      <c r="B6" s="227">
+      <c r="B6" s="222">
         <v>9</v>
       </c>
-      <c r="C6" s="228"/>
-      <c r="D6" s="228"/>
-      <c r="E6" s="228"/>
-      <c r="F6" s="228"/>
-      <c r="G6" s="228"/>
-      <c r="H6" s="228"/>
-      <c r="I6" s="228"/>
-      <c r="J6" s="228"/>
-      <c r="K6" s="228"/>
-      <c r="L6" s="228"/>
-      <c r="M6" s="228"/>
-      <c r="N6" s="228"/>
-      <c r="O6" s="228"/>
-      <c r="P6" s="228"/>
-      <c r="Q6" s="228"/>
-      <c r="R6" s="228"/>
-      <c r="S6" s="228"/>
-      <c r="T6" s="228"/>
-      <c r="U6" s="228"/>
-      <c r="V6" s="228"/>
-      <c r="W6" s="228"/>
-      <c r="X6" s="228"/>
-      <c r="Y6" s="228"/>
-      <c r="Z6" s="228"/>
-      <c r="AA6" s="228"/>
-      <c r="AB6" s="228"/>
-      <c r="AC6" s="228"/>
-      <c r="AD6" s="228"/>
-      <c r="AE6" s="229"/>
-      <c r="AF6" s="224">
+      <c r="C6" s="223"/>
+      <c r="D6" s="223"/>
+      <c r="E6" s="223"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="223"/>
+      <c r="H6" s="223"/>
+      <c r="I6" s="223"/>
+      <c r="J6" s="223"/>
+      <c r="K6" s="223"/>
+      <c r="L6" s="223"/>
+      <c r="M6" s="223"/>
+      <c r="N6" s="223"/>
+      <c r="O6" s="223"/>
+      <c r="P6" s="223"/>
+      <c r="Q6" s="223"/>
+      <c r="R6" s="223"/>
+      <c r="S6" s="223"/>
+      <c r="T6" s="223"/>
+      <c r="U6" s="223"/>
+      <c r="V6" s="223"/>
+      <c r="W6" s="223"/>
+      <c r="X6" s="223"/>
+      <c r="Y6" s="223"/>
+      <c r="Z6" s="223"/>
+      <c r="AA6" s="223"/>
+      <c r="AB6" s="223"/>
+      <c r="AC6" s="223"/>
+      <c r="AD6" s="223"/>
+      <c r="AE6" s="224"/>
+      <c r="AF6" s="219">
         <v>10</v>
       </c>
-      <c r="AG6" s="224"/>
-      <c r="AH6" s="224"/>
-      <c r="AI6" s="224"/>
-      <c r="AJ6" s="224"/>
-      <c r="AK6" s="224"/>
-      <c r="AL6" s="224"/>
-      <c r="AM6" s="224"/>
-      <c r="AN6" s="224"/>
-      <c r="AO6" s="224"/>
-      <c r="AP6" s="224"/>
-      <c r="AQ6" s="224"/>
-      <c r="AR6" s="224"/>
-      <c r="AS6" s="224"/>
-      <c r="AT6" s="224"/>
-      <c r="AU6" s="224"/>
-      <c r="AV6" s="224"/>
-      <c r="AW6" s="224"/>
-      <c r="AX6" s="224"/>
-      <c r="AY6" s="224"/>
-      <c r="AZ6" s="224"/>
-      <c r="BA6" s="224"/>
-      <c r="BB6" s="224"/>
-      <c r="BC6" s="224"/>
-      <c r="BD6" s="224"/>
-      <c r="BE6" s="224"/>
-      <c r="BF6" s="224"/>
-      <c r="BG6" s="224"/>
-      <c r="BH6" s="224"/>
-      <c r="BI6" s="224"/>
-      <c r="BJ6" s="225"/>
-      <c r="BK6" s="227">
+      <c r="AG6" s="219"/>
+      <c r="AH6" s="219"/>
+      <c r="AI6" s="219"/>
+      <c r="AJ6" s="219"/>
+      <c r="AK6" s="219"/>
+      <c r="AL6" s="219"/>
+      <c r="AM6" s="219"/>
+      <c r="AN6" s="219"/>
+      <c r="AO6" s="219"/>
+      <c r="AP6" s="219"/>
+      <c r="AQ6" s="219"/>
+      <c r="AR6" s="219"/>
+      <c r="AS6" s="219"/>
+      <c r="AT6" s="219"/>
+      <c r="AU6" s="219"/>
+      <c r="AV6" s="219"/>
+      <c r="AW6" s="219"/>
+      <c r="AX6" s="219"/>
+      <c r="AY6" s="219"/>
+      <c r="AZ6" s="219"/>
+      <c r="BA6" s="219"/>
+      <c r="BB6" s="219"/>
+      <c r="BC6" s="219"/>
+      <c r="BD6" s="219"/>
+      <c r="BE6" s="219"/>
+      <c r="BF6" s="219"/>
+      <c r="BG6" s="219"/>
+      <c r="BH6" s="219"/>
+      <c r="BI6" s="219"/>
+      <c r="BJ6" s="220"/>
+      <c r="BK6" s="222">
         <v>11</v>
       </c>
-      <c r="BL6" s="228"/>
-      <c r="BM6" s="228"/>
-      <c r="BN6" s="228"/>
-      <c r="BO6" s="228"/>
-      <c r="BP6" s="228"/>
-      <c r="BQ6" s="228"/>
-      <c r="BR6" s="228"/>
-      <c r="BS6" s="228"/>
-      <c r="BT6" s="228"/>
-      <c r="BU6" s="228"/>
-      <c r="BV6" s="228"/>
-      <c r="BW6" s="228"/>
-      <c r="BX6" s="228"/>
-      <c r="BY6" s="228"/>
-      <c r="BZ6" s="228"/>
-      <c r="CA6" s="228"/>
-      <c r="CB6" s="228"/>
-      <c r="CC6" s="228"/>
-      <c r="CD6" s="228"/>
-      <c r="CE6" s="228"/>
-      <c r="CF6" s="228"/>
-      <c r="CG6" s="228"/>
-      <c r="CH6" s="228"/>
-      <c r="CI6" s="228"/>
-      <c r="CJ6" s="228"/>
-      <c r="CK6" s="228"/>
-      <c r="CL6" s="228"/>
-      <c r="CM6" s="228"/>
-      <c r="CN6" s="229"/>
-      <c r="CO6" s="224">
+      <c r="BL6" s="223"/>
+      <c r="BM6" s="223"/>
+      <c r="BN6" s="223"/>
+      <c r="BO6" s="223"/>
+      <c r="BP6" s="223"/>
+      <c r="BQ6" s="223"/>
+      <c r="BR6" s="223"/>
+      <c r="BS6" s="223"/>
+      <c r="BT6" s="223"/>
+      <c r="BU6" s="223"/>
+      <c r="BV6" s="223"/>
+      <c r="BW6" s="223"/>
+      <c r="BX6" s="223"/>
+      <c r="BY6" s="223"/>
+      <c r="BZ6" s="223"/>
+      <c r="CA6" s="223"/>
+      <c r="CB6" s="223"/>
+      <c r="CC6" s="223"/>
+      <c r="CD6" s="223"/>
+      <c r="CE6" s="223"/>
+      <c r="CF6" s="223"/>
+      <c r="CG6" s="223"/>
+      <c r="CH6" s="223"/>
+      <c r="CI6" s="223"/>
+      <c r="CJ6" s="223"/>
+      <c r="CK6" s="223"/>
+      <c r="CL6" s="223"/>
+      <c r="CM6" s="223"/>
+      <c r="CN6" s="224"/>
+      <c r="CO6" s="219">
         <v>12</v>
       </c>
-      <c r="CP6" s="224"/>
-      <c r="CQ6" s="224"/>
-      <c r="CR6" s="224"/>
-      <c r="CS6" s="224"/>
-      <c r="CT6" s="224"/>
-      <c r="CU6" s="224"/>
-      <c r="CV6" s="224"/>
-      <c r="CW6" s="224"/>
-      <c r="CX6" s="224"/>
-      <c r="CY6" s="224"/>
-      <c r="CZ6" s="224"/>
-      <c r="DA6" s="224"/>
-      <c r="DB6" s="224"/>
-      <c r="DC6" s="224"/>
-      <c r="DD6" s="224"/>
-      <c r="DE6" s="224"/>
-      <c r="DF6" s="224"/>
-      <c r="DG6" s="224"/>
-      <c r="DH6" s="224"/>
-      <c r="DI6" s="224"/>
-      <c r="DJ6" s="224"/>
-      <c r="DK6" s="224"/>
-      <c r="DL6" s="224"/>
-      <c r="DM6" s="224"/>
-      <c r="DN6" s="224"/>
-      <c r="DO6" s="224"/>
-      <c r="DP6" s="224"/>
-      <c r="DQ6" s="224"/>
-      <c r="DR6" s="224"/>
-      <c r="DS6" s="225"/>
-      <c r="DT6" s="224">
+      <c r="CP6" s="219"/>
+      <c r="CQ6" s="219"/>
+      <c r="CR6" s="219"/>
+      <c r="CS6" s="219"/>
+      <c r="CT6" s="219"/>
+      <c r="CU6" s="219"/>
+      <c r="CV6" s="219"/>
+      <c r="CW6" s="219"/>
+      <c r="CX6" s="219"/>
+      <c r="CY6" s="219"/>
+      <c r="CZ6" s="219"/>
+      <c r="DA6" s="219"/>
+      <c r="DB6" s="219"/>
+      <c r="DC6" s="219"/>
+      <c r="DD6" s="219"/>
+      <c r="DE6" s="219"/>
+      <c r="DF6" s="219"/>
+      <c r="DG6" s="219"/>
+      <c r="DH6" s="219"/>
+      <c r="DI6" s="219"/>
+      <c r="DJ6" s="219"/>
+      <c r="DK6" s="219"/>
+      <c r="DL6" s="219"/>
+      <c r="DM6" s="219"/>
+      <c r="DN6" s="219"/>
+      <c r="DO6" s="219"/>
+      <c r="DP6" s="219"/>
+      <c r="DQ6" s="219"/>
+      <c r="DR6" s="219"/>
+      <c r="DS6" s="220"/>
+      <c r="DT6" s="219">
         <v>2019.01</v>
       </c>
-      <c r="DU6" s="224"/>
-      <c r="DV6" s="224"/>
-      <c r="DW6" s="224"/>
-      <c r="DX6" s="224"/>
-      <c r="DY6" s="224"/>
-      <c r="DZ6" s="224"/>
-      <c r="EA6" s="224"/>
-      <c r="EB6" s="224"/>
-      <c r="EC6" s="224"/>
-      <c r="ED6" s="224"/>
-      <c r="EE6" s="224"/>
-      <c r="EF6" s="224"/>
-      <c r="EG6" s="224"/>
-      <c r="EH6" s="224"/>
-      <c r="EI6" s="224"/>
-      <c r="EJ6" s="224"/>
-      <c r="EK6" s="224"/>
-      <c r="EL6" s="224"/>
-      <c r="EM6" s="224"/>
-      <c r="EN6" s="224"/>
-      <c r="EO6" s="224"/>
-      <c r="EP6" s="224"/>
-      <c r="EQ6" s="224"/>
-      <c r="ER6" s="224"/>
-      <c r="ES6" s="224"/>
-      <c r="ET6" s="224"/>
-      <c r="EU6" s="224"/>
-      <c r="EV6" s="224"/>
-      <c r="EW6" s="224"/>
-      <c r="EX6" s="225"/>
-      <c r="EY6" s="226">
+      <c r="DU6" s="219"/>
+      <c r="DV6" s="219"/>
+      <c r="DW6" s="219"/>
+      <c r="DX6" s="219"/>
+      <c r="DY6" s="219"/>
+      <c r="DZ6" s="219"/>
+      <c r="EA6" s="219"/>
+      <c r="EB6" s="219"/>
+      <c r="EC6" s="219"/>
+      <c r="ED6" s="219"/>
+      <c r="EE6" s="219"/>
+      <c r="EF6" s="219"/>
+      <c r="EG6" s="219"/>
+      <c r="EH6" s="219"/>
+      <c r="EI6" s="219"/>
+      <c r="EJ6" s="219"/>
+      <c r="EK6" s="219"/>
+      <c r="EL6" s="219"/>
+      <c r="EM6" s="219"/>
+      <c r="EN6" s="219"/>
+      <c r="EO6" s="219"/>
+      <c r="EP6" s="219"/>
+      <c r="EQ6" s="219"/>
+      <c r="ER6" s="219"/>
+      <c r="ES6" s="219"/>
+      <c r="ET6" s="219"/>
+      <c r="EU6" s="219"/>
+      <c r="EV6" s="219"/>
+      <c r="EW6" s="219"/>
+      <c r="EX6" s="220"/>
+      <c r="EY6" s="221">
         <v>2019.02</v>
       </c>
-      <c r="EZ6" s="224"/>
-      <c r="FA6" s="224"/>
-      <c r="FB6" s="224"/>
-      <c r="FC6" s="224"/>
-      <c r="FD6" s="224"/>
-      <c r="FE6" s="224"/>
-      <c r="FF6" s="224"/>
-      <c r="FG6" s="224"/>
-      <c r="FH6" s="224"/>
-      <c r="FI6" s="224"/>
-      <c r="FJ6" s="224"/>
-      <c r="FK6" s="224"/>
-      <c r="FL6" s="224"/>
-      <c r="FM6" s="224"/>
-      <c r="FN6" s="224"/>
-      <c r="FO6" s="224"/>
-      <c r="FP6" s="224"/>
-      <c r="FQ6" s="224"/>
-      <c r="FR6" s="224"/>
-      <c r="FS6" s="224"/>
-      <c r="FT6" s="224"/>
-      <c r="FU6" s="224"/>
-      <c r="FV6" s="224"/>
-      <c r="FW6" s="224"/>
-      <c r="FX6" s="224"/>
-      <c r="FY6" s="224"/>
-      <c r="FZ6" s="225"/>
-      <c r="GA6" s="219">
+      <c r="EZ6" s="219"/>
+      <c r="FA6" s="219"/>
+      <c r="FB6" s="219"/>
+      <c r="FC6" s="219"/>
+      <c r="FD6" s="219"/>
+      <c r="FE6" s="219"/>
+      <c r="FF6" s="219"/>
+      <c r="FG6" s="219"/>
+      <c r="FH6" s="219"/>
+      <c r="FI6" s="219"/>
+      <c r="FJ6" s="219"/>
+      <c r="FK6" s="219"/>
+      <c r="FL6" s="219"/>
+      <c r="FM6" s="219"/>
+      <c r="FN6" s="219"/>
+      <c r="FO6" s="219"/>
+      <c r="FP6" s="219"/>
+      <c r="FQ6" s="219"/>
+      <c r="FR6" s="219"/>
+      <c r="FS6" s="219"/>
+      <c r="FT6" s="219"/>
+      <c r="FU6" s="219"/>
+      <c r="FV6" s="219"/>
+      <c r="FW6" s="219"/>
+      <c r="FX6" s="219"/>
+      <c r="FY6" s="219"/>
+      <c r="FZ6" s="220"/>
+      <c r="GA6" s="215">
         <v>3</v>
       </c>
-      <c r="GB6" s="219"/>
-      <c r="GC6" s="219"/>
-      <c r="GD6" s="219"/>
-      <c r="GE6" s="219"/>
-      <c r="GF6" s="219"/>
-      <c r="GG6" s="219"/>
-      <c r="GH6" s="219"/>
-      <c r="GI6" s="219"/>
-      <c r="GJ6" s="219"/>
-      <c r="GK6" s="219"/>
-      <c r="GL6" s="219"/>
-      <c r="GM6" s="219"/>
-      <c r="GN6" s="219"/>
-      <c r="GO6" s="219"/>
-      <c r="GP6" s="219"/>
-      <c r="GQ6" s="219"/>
-      <c r="GR6" s="219"/>
-      <c r="GS6" s="219"/>
-      <c r="GT6" s="219"/>
-      <c r="GU6" s="219"/>
-      <c r="GV6" s="219"/>
-      <c r="GW6" s="219"/>
-      <c r="GX6" s="219"/>
-      <c r="GY6" s="219"/>
-      <c r="GZ6" s="219"/>
-      <c r="HA6" s="219"/>
-      <c r="HB6" s="219"/>
-      <c r="HC6" s="219"/>
-      <c r="HD6" s="219"/>
-      <c r="HE6" s="219"/>
-      <c r="HF6" s="215">
+      <c r="GB6" s="215"/>
+      <c r="GC6" s="215"/>
+      <c r="GD6" s="215"/>
+      <c r="GE6" s="215"/>
+      <c r="GF6" s="215"/>
+      <c r="GG6" s="215"/>
+      <c r="GH6" s="215"/>
+      <c r="GI6" s="215"/>
+      <c r="GJ6" s="215"/>
+      <c r="GK6" s="215"/>
+      <c r="GL6" s="215"/>
+      <c r="GM6" s="215"/>
+      <c r="GN6" s="215"/>
+      <c r="GO6" s="215"/>
+      <c r="GP6" s="215"/>
+      <c r="GQ6" s="215"/>
+      <c r="GR6" s="215"/>
+      <c r="GS6" s="215"/>
+      <c r="GT6" s="215"/>
+      <c r="GU6" s="215"/>
+      <c r="GV6" s="215"/>
+      <c r="GW6" s="215"/>
+      <c r="GX6" s="215"/>
+      <c r="GY6" s="215"/>
+      <c r="GZ6" s="215"/>
+      <c r="HA6" s="215"/>
+      <c r="HB6" s="215"/>
+      <c r="HC6" s="215"/>
+      <c r="HD6" s="215"/>
+      <c r="HE6" s="215"/>
+      <c r="HF6" s="216">
         <v>4</v>
       </c>
-      <c r="HG6" s="216"/>
-      <c r="HH6" s="216"/>
-      <c r="HI6" s="216"/>
-      <c r="HJ6" s="216"/>
-      <c r="HK6" s="216"/>
-      <c r="HL6" s="216"/>
-      <c r="HM6" s="216"/>
-      <c r="HN6" s="216"/>
-      <c r="HO6" s="216"/>
-      <c r="HP6" s="216"/>
-      <c r="HQ6" s="216"/>
-      <c r="HR6" s="216"/>
-      <c r="HS6" s="216"/>
-      <c r="HT6" s="216"/>
-      <c r="HU6" s="216"/>
-      <c r="HV6" s="216"/>
-      <c r="HW6" s="216"/>
-      <c r="HX6" s="216"/>
-      <c r="HY6" s="216"/>
-      <c r="HZ6" s="216"/>
-      <c r="IA6" s="216"/>
-      <c r="IB6" s="216"/>
-      <c r="IC6" s="216"/>
-      <c r="ID6" s="216"/>
-      <c r="IE6" s="216"/>
-      <c r="IF6" s="216"/>
-      <c r="IG6" s="216"/>
-      <c r="IH6" s="216"/>
-      <c r="II6" s="217"/>
-      <c r="IJ6" s="218">
+      <c r="HG6" s="217"/>
+      <c r="HH6" s="217"/>
+      <c r="HI6" s="217"/>
+      <c r="HJ6" s="217"/>
+      <c r="HK6" s="217"/>
+      <c r="HL6" s="217"/>
+      <c r="HM6" s="217"/>
+      <c r="HN6" s="217"/>
+      <c r="HO6" s="217"/>
+      <c r="HP6" s="217"/>
+      <c r="HQ6" s="217"/>
+      <c r="HR6" s="217"/>
+      <c r="HS6" s="217"/>
+      <c r="HT6" s="217"/>
+      <c r="HU6" s="217"/>
+      <c r="HV6" s="217"/>
+      <c r="HW6" s="217"/>
+      <c r="HX6" s="217"/>
+      <c r="HY6" s="217"/>
+      <c r="HZ6" s="217"/>
+      <c r="IA6" s="217"/>
+      <c r="IB6" s="217"/>
+      <c r="IC6" s="217"/>
+      <c r="ID6" s="217"/>
+      <c r="IE6" s="217"/>
+      <c r="IF6" s="217"/>
+      <c r="IG6" s="217"/>
+      <c r="IH6" s="217"/>
+      <c r="II6" s="218"/>
+      <c r="IJ6" s="225">
         <v>5</v>
       </c>
-      <c r="IK6" s="219"/>
-      <c r="IL6" s="219"/>
-      <c r="IM6" s="219"/>
-      <c r="IN6" s="219"/>
-      <c r="IO6" s="219"/>
-      <c r="IP6" s="219"/>
-      <c r="IQ6" s="219"/>
-      <c r="IR6" s="219"/>
-      <c r="IS6" s="219"/>
-      <c r="IT6" s="219"/>
-      <c r="IU6" s="219"/>
-      <c r="IV6" s="219"/>
-      <c r="IW6" s="219"/>
-      <c r="IX6" s="219"/>
-      <c r="IY6" s="219"/>
-      <c r="IZ6" s="219"/>
-      <c r="JA6" s="219"/>
-      <c r="JB6" s="219"/>
-      <c r="JC6" s="219"/>
-      <c r="JD6" s="219"/>
-      <c r="JE6" s="219"/>
-      <c r="JF6" s="219"/>
-      <c r="JG6" s="219"/>
-      <c r="JH6" s="219"/>
-      <c r="JI6" s="219"/>
-      <c r="JJ6" s="219"/>
-      <c r="JK6" s="219"/>
-      <c r="JL6" s="219"/>
-      <c r="JM6" s="219"/>
-      <c r="JN6" s="220"/>
-      <c r="JO6" s="215">
+      <c r="IK6" s="215"/>
+      <c r="IL6" s="215"/>
+      <c r="IM6" s="215"/>
+      <c r="IN6" s="215"/>
+      <c r="IO6" s="215"/>
+      <c r="IP6" s="215"/>
+      <c r="IQ6" s="215"/>
+      <c r="IR6" s="215"/>
+      <c r="IS6" s="215"/>
+      <c r="IT6" s="215"/>
+      <c r="IU6" s="215"/>
+      <c r="IV6" s="215"/>
+      <c r="IW6" s="215"/>
+      <c r="IX6" s="215"/>
+      <c r="IY6" s="215"/>
+      <c r="IZ6" s="215"/>
+      <c r="JA6" s="215"/>
+      <c r="JB6" s="215"/>
+      <c r="JC6" s="215"/>
+      <c r="JD6" s="215"/>
+      <c r="JE6" s="215"/>
+      <c r="JF6" s="215"/>
+      <c r="JG6" s="215"/>
+      <c r="JH6" s="215"/>
+      <c r="JI6" s="215"/>
+      <c r="JJ6" s="215"/>
+      <c r="JK6" s="215"/>
+      <c r="JL6" s="215"/>
+      <c r="JM6" s="215"/>
+      <c r="JN6" s="226"/>
+      <c r="JO6" s="216">
         <v>6</v>
       </c>
-      <c r="JP6" s="216"/>
-      <c r="JQ6" s="216"/>
-      <c r="JR6" s="216"/>
-      <c r="JS6" s="216"/>
-      <c r="JT6" s="216"/>
-      <c r="JU6" s="216"/>
-      <c r="JV6" s="216"/>
-      <c r="JW6" s="216"/>
-      <c r="JX6" s="216"/>
-      <c r="JY6" s="216"/>
-      <c r="JZ6" s="216"/>
-      <c r="KA6" s="216"/>
-      <c r="KB6" s="216"/>
-      <c r="KC6" s="216"/>
-      <c r="KD6" s="216"/>
-      <c r="KE6" s="216"/>
-      <c r="KF6" s="216"/>
-      <c r="KG6" s="216"/>
-      <c r="KH6" s="216"/>
-      <c r="KI6" s="216"/>
-      <c r="KJ6" s="216"/>
-      <c r="KK6" s="216"/>
-      <c r="KL6" s="216"/>
-      <c r="KM6" s="216"/>
-      <c r="KN6" s="216"/>
-      <c r="KO6" s="216"/>
-      <c r="KP6" s="216"/>
-      <c r="KQ6" s="216"/>
-      <c r="KR6" s="217"/>
-      <c r="KS6" s="212">
+      <c r="JP6" s="217"/>
+      <c r="JQ6" s="217"/>
+      <c r="JR6" s="217"/>
+      <c r="JS6" s="217"/>
+      <c r="JT6" s="217"/>
+      <c r="JU6" s="217"/>
+      <c r="JV6" s="217"/>
+      <c r="JW6" s="217"/>
+      <c r="JX6" s="217"/>
+      <c r="JY6" s="217"/>
+      <c r="JZ6" s="217"/>
+      <c r="KA6" s="217"/>
+      <c r="KB6" s="217"/>
+      <c r="KC6" s="217"/>
+      <c r="KD6" s="217"/>
+      <c r="KE6" s="217"/>
+      <c r="KF6" s="217"/>
+      <c r="KG6" s="217"/>
+      <c r="KH6" s="217"/>
+      <c r="KI6" s="217"/>
+      <c r="KJ6" s="217"/>
+      <c r="KK6" s="217"/>
+      <c r="KL6" s="217"/>
+      <c r="KM6" s="217"/>
+      <c r="KN6" s="217"/>
+      <c r="KO6" s="217"/>
+      <c r="KP6" s="217"/>
+      <c r="KQ6" s="217"/>
+      <c r="KR6" s="218"/>
+      <c r="KS6" s="227">
         <v>7</v>
       </c>
-      <c r="KT6" s="213"/>
-      <c r="KU6" s="213"/>
-      <c r="KV6" s="213"/>
-      <c r="KW6" s="213"/>
-      <c r="KX6" s="213"/>
-      <c r="KY6" s="213"/>
-      <c r="KZ6" s="213"/>
-      <c r="LA6" s="213"/>
-      <c r="LB6" s="213"/>
-      <c r="LC6" s="213"/>
-      <c r="LD6" s="213"/>
-      <c r="LE6" s="213"/>
-      <c r="LF6" s="213"/>
-      <c r="LG6" s="213"/>
-      <c r="LH6" s="213"/>
-      <c r="LI6" s="213"/>
-      <c r="LJ6" s="213"/>
-      <c r="LK6" s="213"/>
-      <c r="LL6" s="213"/>
-      <c r="LM6" s="213"/>
-      <c r="LN6" s="213"/>
-      <c r="LO6" s="213"/>
-      <c r="LP6" s="213"/>
-      <c r="LQ6" s="213"/>
-      <c r="LR6" s="213"/>
-      <c r="LS6" s="213"/>
-      <c r="LT6" s="213"/>
-      <c r="LU6" s="213"/>
-      <c r="LV6" s="213"/>
-      <c r="LW6" s="214"/>
-      <c r="LX6" s="212">
+      <c r="KT6" s="228"/>
+      <c r="KU6" s="228"/>
+      <c r="KV6" s="228"/>
+      <c r="KW6" s="228"/>
+      <c r="KX6" s="228"/>
+      <c r="KY6" s="228"/>
+      <c r="KZ6" s="228"/>
+      <c r="LA6" s="228"/>
+      <c r="LB6" s="228"/>
+      <c r="LC6" s="228"/>
+      <c r="LD6" s="228"/>
+      <c r="LE6" s="228"/>
+      <c r="LF6" s="228"/>
+      <c r="LG6" s="228"/>
+      <c r="LH6" s="228"/>
+      <c r="LI6" s="228"/>
+      <c r="LJ6" s="228"/>
+      <c r="LK6" s="228"/>
+      <c r="LL6" s="228"/>
+      <c r="LM6" s="228"/>
+      <c r="LN6" s="228"/>
+      <c r="LO6" s="228"/>
+      <c r="LP6" s="228"/>
+      <c r="LQ6" s="228"/>
+      <c r="LR6" s="228"/>
+      <c r="LS6" s="228"/>
+      <c r="LT6" s="228"/>
+      <c r="LU6" s="228"/>
+      <c r="LV6" s="228"/>
+      <c r="LW6" s="229"/>
+      <c r="LX6" s="227">
         <v>8</v>
       </c>
-      <c r="LY6" s="213"/>
-      <c r="LZ6" s="213"/>
-      <c r="MA6" s="213"/>
-      <c r="MB6" s="213"/>
-      <c r="MC6" s="213"/>
-      <c r="MD6" s="213"/>
-      <c r="ME6" s="213"/>
-      <c r="MF6" s="213"/>
-      <c r="MG6" s="213"/>
-      <c r="MH6" s="213"/>
-      <c r="MI6" s="213"/>
-      <c r="MJ6" s="213"/>
-      <c r="MK6" s="213"/>
-      <c r="ML6" s="213"/>
-      <c r="MM6" s="213"/>
-      <c r="MN6" s="213"/>
-      <c r="MO6" s="213"/>
-      <c r="MP6" s="213"/>
-      <c r="MQ6" s="213"/>
-      <c r="MR6" s="213"/>
-      <c r="MS6" s="213"/>
-      <c r="MT6" s="213"/>
-      <c r="MU6" s="213"/>
-      <c r="MV6" s="213"/>
-      <c r="MW6" s="213"/>
-      <c r="MX6" s="213"/>
-      <c r="MY6" s="213"/>
-      <c r="MZ6" s="213"/>
-      <c r="NA6" s="213"/>
-      <c r="NB6" s="213"/>
-      <c r="NC6" s="215">
+      <c r="LY6" s="228"/>
+      <c r="LZ6" s="228"/>
+      <c r="MA6" s="228"/>
+      <c r="MB6" s="228"/>
+      <c r="MC6" s="228"/>
+      <c r="MD6" s="228"/>
+      <c r="ME6" s="228"/>
+      <c r="MF6" s="228"/>
+      <c r="MG6" s="228"/>
+      <c r="MH6" s="228"/>
+      <c r="MI6" s="228"/>
+      <c r="MJ6" s="228"/>
+      <c r="MK6" s="228"/>
+      <c r="ML6" s="228"/>
+      <c r="MM6" s="228"/>
+      <c r="MN6" s="228"/>
+      <c r="MO6" s="228"/>
+      <c r="MP6" s="228"/>
+      <c r="MQ6" s="228"/>
+      <c r="MR6" s="228"/>
+      <c r="MS6" s="228"/>
+      <c r="MT6" s="228"/>
+      <c r="MU6" s="228"/>
+      <c r="MV6" s="228"/>
+      <c r="MW6" s="228"/>
+      <c r="MX6" s="228"/>
+      <c r="MY6" s="228"/>
+      <c r="MZ6" s="228"/>
+      <c r="NA6" s="228"/>
+      <c r="NB6" s="228"/>
+      <c r="NC6" s="216">
         <v>9</v>
       </c>
-      <c r="ND6" s="216"/>
-      <c r="NE6" s="216"/>
-      <c r="NF6" s="216"/>
-      <c r="NG6" s="216"/>
-      <c r="NH6" s="216"/>
-      <c r="NI6" s="216"/>
-      <c r="NJ6" s="216"/>
-      <c r="NK6" s="216"/>
-      <c r="NL6" s="216"/>
-      <c r="NM6" s="216"/>
-      <c r="NN6" s="216"/>
-      <c r="NO6" s="216"/>
-      <c r="NP6" s="216"/>
-      <c r="NQ6" s="216"/>
-      <c r="NR6" s="216"/>
-      <c r="NS6" s="216"/>
-      <c r="NT6" s="216"/>
-      <c r="NU6" s="216"/>
-      <c r="NV6" s="216"/>
-      <c r="NW6" s="216"/>
-      <c r="NX6" s="216"/>
-      <c r="NY6" s="216"/>
-      <c r="NZ6" s="216"/>
-      <c r="OA6" s="216"/>
-      <c r="OB6" s="216"/>
-      <c r="OC6" s="216"/>
-      <c r="OD6" s="216"/>
-      <c r="OE6" s="216"/>
-      <c r="OF6" s="217"/>
-      <c r="OG6" s="212">
+      <c r="ND6" s="217"/>
+      <c r="NE6" s="217"/>
+      <c r="NF6" s="217"/>
+      <c r="NG6" s="217"/>
+      <c r="NH6" s="217"/>
+      <c r="NI6" s="217"/>
+      <c r="NJ6" s="217"/>
+      <c r="NK6" s="217"/>
+      <c r="NL6" s="217"/>
+      <c r="NM6" s="217"/>
+      <c r="NN6" s="217"/>
+      <c r="NO6" s="217"/>
+      <c r="NP6" s="217"/>
+      <c r="NQ6" s="217"/>
+      <c r="NR6" s="217"/>
+      <c r="NS6" s="217"/>
+      <c r="NT6" s="217"/>
+      <c r="NU6" s="217"/>
+      <c r="NV6" s="217"/>
+      <c r="NW6" s="217"/>
+      <c r="NX6" s="217"/>
+      <c r="NY6" s="217"/>
+      <c r="NZ6" s="217"/>
+      <c r="OA6" s="217"/>
+      <c r="OB6" s="217"/>
+      <c r="OC6" s="217"/>
+      <c r="OD6" s="217"/>
+      <c r="OE6" s="217"/>
+      <c r="OF6" s="218"/>
+      <c r="OG6" s="227">
         <v>10</v>
       </c>
-      <c r="OH6" s="213"/>
-      <c r="OI6" s="213"/>
-      <c r="OJ6" s="213"/>
-      <c r="OK6" s="213"/>
-      <c r="OL6" s="213"/>
-      <c r="OM6" s="213"/>
-      <c r="ON6" s="213"/>
-      <c r="OO6" s="213"/>
-      <c r="OP6" s="213"/>
-      <c r="OQ6" s="213"/>
-      <c r="OR6" s="213"/>
-      <c r="OS6" s="213"/>
-      <c r="OT6" s="213"/>
-      <c r="OU6" s="213"/>
-      <c r="OV6" s="213"/>
-      <c r="OW6" s="213"/>
-      <c r="OX6" s="213"/>
-      <c r="OY6" s="213"/>
-      <c r="OZ6" s="213"/>
-      <c r="PA6" s="213"/>
-      <c r="PB6" s="213"/>
-      <c r="PC6" s="213"/>
-      <c r="PD6" s="213"/>
-      <c r="PE6" s="213"/>
-      <c r="PF6" s="213"/>
-      <c r="PG6" s="213"/>
-      <c r="PH6" s="213"/>
-      <c r="PI6" s="213"/>
-      <c r="PJ6" s="213"/>
-      <c r="PK6" s="214"/>
-      <c r="PL6" s="221">
+      <c r="OH6" s="228"/>
+      <c r="OI6" s="228"/>
+      <c r="OJ6" s="228"/>
+      <c r="OK6" s="228"/>
+      <c r="OL6" s="228"/>
+      <c r="OM6" s="228"/>
+      <c r="ON6" s="228"/>
+      <c r="OO6" s="228"/>
+      <c r="OP6" s="228"/>
+      <c r="OQ6" s="228"/>
+      <c r="OR6" s="228"/>
+      <c r="OS6" s="228"/>
+      <c r="OT6" s="228"/>
+      <c r="OU6" s="228"/>
+      <c r="OV6" s="228"/>
+      <c r="OW6" s="228"/>
+      <c r="OX6" s="228"/>
+      <c r="OY6" s="228"/>
+      <c r="OZ6" s="228"/>
+      <c r="PA6" s="228"/>
+      <c r="PB6" s="228"/>
+      <c r="PC6" s="228"/>
+      <c r="PD6" s="228"/>
+      <c r="PE6" s="228"/>
+      <c r="PF6" s="228"/>
+      <c r="PG6" s="228"/>
+      <c r="PH6" s="228"/>
+      <c r="PI6" s="228"/>
+      <c r="PJ6" s="228"/>
+      <c r="PK6" s="229"/>
+      <c r="PL6" s="230">
         <v>11</v>
       </c>
-      <c r="PM6" s="216"/>
-      <c r="PN6" s="216"/>
-      <c r="PO6" s="216"/>
-      <c r="PP6" s="216"/>
-      <c r="PQ6" s="216"/>
-      <c r="PR6" s="216"/>
-      <c r="PS6" s="216"/>
-      <c r="PT6" s="216"/>
-      <c r="PU6" s="216"/>
-      <c r="PV6" s="216"/>
-      <c r="PW6" s="216"/>
-      <c r="PX6" s="216"/>
-      <c r="PY6" s="216"/>
-      <c r="PZ6" s="216"/>
-      <c r="QA6" s="216"/>
-      <c r="QB6" s="216"/>
-      <c r="QC6" s="216"/>
-      <c r="QD6" s="216"/>
-      <c r="QE6" s="216"/>
-      <c r="QF6" s="216"/>
-      <c r="QG6" s="216"/>
-      <c r="QH6" s="216"/>
-      <c r="QI6" s="216"/>
-      <c r="QJ6" s="216"/>
-      <c r="QK6" s="216"/>
-      <c r="QL6" s="216"/>
-      <c r="QM6" s="216"/>
-      <c r="QN6" s="216"/>
-      <c r="QO6" s="217"/>
-      <c r="QP6" s="212">
+      <c r="PM6" s="217"/>
+      <c r="PN6" s="217"/>
+      <c r="PO6" s="217"/>
+      <c r="PP6" s="217"/>
+      <c r="PQ6" s="217"/>
+      <c r="PR6" s="217"/>
+      <c r="PS6" s="217"/>
+      <c r="PT6" s="217"/>
+      <c r="PU6" s="217"/>
+      <c r="PV6" s="217"/>
+      <c r="PW6" s="217"/>
+      <c r="PX6" s="217"/>
+      <c r="PY6" s="217"/>
+      <c r="PZ6" s="217"/>
+      <c r="QA6" s="217"/>
+      <c r="QB6" s="217"/>
+      <c r="QC6" s="217"/>
+      <c r="QD6" s="217"/>
+      <c r="QE6" s="217"/>
+      <c r="QF6" s="217"/>
+      <c r="QG6" s="217"/>
+      <c r="QH6" s="217"/>
+      <c r="QI6" s="217"/>
+      <c r="QJ6" s="217"/>
+      <c r="QK6" s="217"/>
+      <c r="QL6" s="217"/>
+      <c r="QM6" s="217"/>
+      <c r="QN6" s="217"/>
+      <c r="QO6" s="218"/>
+      <c r="QP6" s="227">
         <v>12</v>
       </c>
-      <c r="QQ6" s="213"/>
-      <c r="QR6" s="213"/>
-      <c r="QS6" s="213"/>
-      <c r="QT6" s="213"/>
-      <c r="QU6" s="213"/>
-      <c r="QV6" s="213"/>
-      <c r="QW6" s="213"/>
-      <c r="QX6" s="213"/>
-      <c r="QY6" s="213"/>
-      <c r="QZ6" s="213"/>
-      <c r="RA6" s="213"/>
-      <c r="RB6" s="213"/>
-      <c r="RC6" s="213"/>
-      <c r="RD6" s="213"/>
-      <c r="RE6" s="213"/>
-      <c r="RF6" s="213"/>
-      <c r="RG6" s="213"/>
-      <c r="RH6" s="213"/>
-      <c r="RI6" s="213"/>
-      <c r="RJ6" s="213"/>
-      <c r="RK6" s="213"/>
-      <c r="RL6" s="213"/>
-      <c r="RM6" s="213"/>
-      <c r="RN6" s="213"/>
-      <c r="RO6" s="213"/>
-      <c r="RP6" s="213"/>
-      <c r="RQ6" s="213"/>
-      <c r="RR6" s="213"/>
-      <c r="RS6" s="213"/>
-      <c r="RT6" s="214"/>
-      <c r="RU6" s="212">
+      <c r="QQ6" s="228"/>
+      <c r="QR6" s="228"/>
+      <c r="QS6" s="228"/>
+      <c r="QT6" s="228"/>
+      <c r="QU6" s="228"/>
+      <c r="QV6" s="228"/>
+      <c r="QW6" s="228"/>
+      <c r="QX6" s="228"/>
+      <c r="QY6" s="228"/>
+      <c r="QZ6" s="228"/>
+      <c r="RA6" s="228"/>
+      <c r="RB6" s="228"/>
+      <c r="RC6" s="228"/>
+      <c r="RD6" s="228"/>
+      <c r="RE6" s="228"/>
+      <c r="RF6" s="228"/>
+      <c r="RG6" s="228"/>
+      <c r="RH6" s="228"/>
+      <c r="RI6" s="228"/>
+      <c r="RJ6" s="228"/>
+      <c r="RK6" s="228"/>
+      <c r="RL6" s="228"/>
+      <c r="RM6" s="228"/>
+      <c r="RN6" s="228"/>
+      <c r="RO6" s="228"/>
+      <c r="RP6" s="228"/>
+      <c r="RQ6" s="228"/>
+      <c r="RR6" s="228"/>
+      <c r="RS6" s="228"/>
+      <c r="RT6" s="229"/>
+      <c r="RU6" s="227">
         <v>1</v>
       </c>
-      <c r="RV6" s="213"/>
-      <c r="RW6" s="213"/>
-      <c r="RX6" s="213"/>
-      <c r="RY6" s="213"/>
-      <c r="RZ6" s="213"/>
-      <c r="SA6" s="213"/>
-      <c r="SB6" s="213"/>
-      <c r="SC6" s="213"/>
-      <c r="SD6" s="213"/>
-      <c r="SE6" s="213"/>
-      <c r="SF6" s="213"/>
-      <c r="SG6" s="213"/>
-      <c r="SH6" s="213"/>
-      <c r="SI6" s="213"/>
-      <c r="SJ6" s="213"/>
-      <c r="SK6" s="213"/>
-      <c r="SL6" s="213"/>
-      <c r="SM6" s="213"/>
-      <c r="SN6" s="213"/>
-      <c r="SO6" s="213"/>
-      <c r="SP6" s="213"/>
-      <c r="SQ6" s="213"/>
-      <c r="SR6" s="213"/>
-      <c r="SS6" s="213"/>
-      <c r="ST6" s="213"/>
-      <c r="SU6" s="213"/>
-      <c r="SV6" s="213"/>
-      <c r="SW6" s="213"/>
-      <c r="SX6" s="213"/>
-      <c r="SY6" s="213"/>
-      <c r="SZ6" s="212">
+      <c r="RV6" s="228"/>
+      <c r="RW6" s="228"/>
+      <c r="RX6" s="228"/>
+      <c r="RY6" s="228"/>
+      <c r="RZ6" s="228"/>
+      <c r="SA6" s="228"/>
+      <c r="SB6" s="228"/>
+      <c r="SC6" s="228"/>
+      <c r="SD6" s="228"/>
+      <c r="SE6" s="228"/>
+      <c r="SF6" s="228"/>
+      <c r="SG6" s="228"/>
+      <c r="SH6" s="228"/>
+      <c r="SI6" s="228"/>
+      <c r="SJ6" s="228"/>
+      <c r="SK6" s="228"/>
+      <c r="SL6" s="228"/>
+      <c r="SM6" s="228"/>
+      <c r="SN6" s="228"/>
+      <c r="SO6" s="228"/>
+      <c r="SP6" s="228"/>
+      <c r="SQ6" s="228"/>
+      <c r="SR6" s="228"/>
+      <c r="SS6" s="228"/>
+      <c r="ST6" s="228"/>
+      <c r="SU6" s="228"/>
+      <c r="SV6" s="228"/>
+      <c r="SW6" s="228"/>
+      <c r="SX6" s="228"/>
+      <c r="SY6" s="228"/>
+      <c r="SZ6" s="227">
         <v>2</v>
       </c>
-      <c r="TA6" s="213"/>
-      <c r="TB6" s="213"/>
-      <c r="TC6" s="213"/>
-      <c r="TD6" s="213"/>
-      <c r="TE6" s="213"/>
-      <c r="TF6" s="213"/>
-      <c r="TG6" s="213"/>
-      <c r="TH6" s="213"/>
-      <c r="TI6" s="213"/>
-      <c r="TJ6" s="213"/>
-      <c r="TK6" s="213"/>
-      <c r="TL6" s="213"/>
-      <c r="TM6" s="213"/>
-      <c r="TN6" s="213"/>
-      <c r="TO6" s="213"/>
-      <c r="TP6" s="213"/>
-      <c r="TQ6" s="213"/>
-      <c r="TR6" s="213"/>
-      <c r="TS6" s="213"/>
-      <c r="TT6" s="213"/>
-      <c r="TU6" s="213"/>
-      <c r="TV6" s="213"/>
-      <c r="TW6" s="213"/>
-      <c r="TX6" s="213"/>
-      <c r="TY6" s="213"/>
-      <c r="TZ6" s="213"/>
-      <c r="UA6" s="213"/>
-      <c r="UB6" s="214"/>
-      <c r="UC6" s="212">
+      <c r="TA6" s="228"/>
+      <c r="TB6" s="228"/>
+      <c r="TC6" s="228"/>
+      <c r="TD6" s="228"/>
+      <c r="TE6" s="228"/>
+      <c r="TF6" s="228"/>
+      <c r="TG6" s="228"/>
+      <c r="TH6" s="228"/>
+      <c r="TI6" s="228"/>
+      <c r="TJ6" s="228"/>
+      <c r="TK6" s="228"/>
+      <c r="TL6" s="228"/>
+      <c r="TM6" s="228"/>
+      <c r="TN6" s="228"/>
+      <c r="TO6" s="228"/>
+      <c r="TP6" s="228"/>
+      <c r="TQ6" s="228"/>
+      <c r="TR6" s="228"/>
+      <c r="TS6" s="228"/>
+      <c r="TT6" s="228"/>
+      <c r="TU6" s="228"/>
+      <c r="TV6" s="228"/>
+      <c r="TW6" s="228"/>
+      <c r="TX6" s="228"/>
+      <c r="TY6" s="228"/>
+      <c r="TZ6" s="228"/>
+      <c r="UA6" s="228"/>
+      <c r="UB6" s="229"/>
+      <c r="UC6" s="227">
         <v>3</v>
       </c>
-      <c r="UD6" s="213"/>
-      <c r="UE6" s="213"/>
-      <c r="UF6" s="213"/>
-      <c r="UG6" s="213"/>
-      <c r="UH6" s="213"/>
-      <c r="UI6" s="213"/>
-      <c r="UJ6" s="213"/>
-      <c r="UK6" s="213"/>
-      <c r="UL6" s="213"/>
-      <c r="UM6" s="213"/>
-      <c r="UN6" s="213"/>
-      <c r="UO6" s="213"/>
-      <c r="UP6" s="213"/>
-      <c r="UQ6" s="213"/>
-      <c r="UR6" s="213"/>
-      <c r="US6" s="213"/>
-      <c r="UT6" s="213"/>
-      <c r="UU6" s="213"/>
-      <c r="UV6" s="213"/>
-      <c r="UW6" s="213"/>
-      <c r="UX6" s="213"/>
-      <c r="UY6" s="213"/>
-      <c r="UZ6" s="213"/>
-      <c r="VA6" s="213"/>
-      <c r="VB6" s="213"/>
-      <c r="VC6" s="213"/>
-      <c r="VD6" s="213"/>
-      <c r="VE6" s="213"/>
-      <c r="VF6" s="213"/>
-      <c r="VG6" s="213"/>
-      <c r="VH6" s="212">
+      <c r="UD6" s="228"/>
+      <c r="UE6" s="228"/>
+      <c r="UF6" s="228"/>
+      <c r="UG6" s="228"/>
+      <c r="UH6" s="228"/>
+      <c r="UI6" s="228"/>
+      <c r="UJ6" s="228"/>
+      <c r="UK6" s="228"/>
+      <c r="UL6" s="228"/>
+      <c r="UM6" s="228"/>
+      <c r="UN6" s="228"/>
+      <c r="UO6" s="228"/>
+      <c r="UP6" s="228"/>
+      <c r="UQ6" s="228"/>
+      <c r="UR6" s="228"/>
+      <c r="US6" s="228"/>
+      <c r="UT6" s="228"/>
+      <c r="UU6" s="228"/>
+      <c r="UV6" s="228"/>
+      <c r="UW6" s="228"/>
+      <c r="UX6" s="228"/>
+      <c r="UY6" s="228"/>
+      <c r="UZ6" s="228"/>
+      <c r="VA6" s="228"/>
+      <c r="VB6" s="228"/>
+      <c r="VC6" s="228"/>
+      <c r="VD6" s="228"/>
+      <c r="VE6" s="228"/>
+      <c r="VF6" s="228"/>
+      <c r="VG6" s="228"/>
+      <c r="VH6" s="227">
         <v>4</v>
       </c>
-      <c r="VI6" s="213"/>
-      <c r="VJ6" s="213"/>
-      <c r="VK6" s="213"/>
-      <c r="VL6" s="213"/>
-      <c r="VM6" s="213"/>
-      <c r="VN6" s="213"/>
-      <c r="VO6" s="213"/>
-      <c r="VP6" s="213"/>
-      <c r="VQ6" s="213"/>
-      <c r="VR6" s="213"/>
-      <c r="VS6" s="213"/>
-      <c r="VT6" s="213"/>
-      <c r="VU6" s="213"/>
-      <c r="VV6" s="213"/>
-      <c r="VW6" s="213"/>
-      <c r="VX6" s="213"/>
-      <c r="VY6" s="213"/>
-      <c r="VZ6" s="213"/>
-      <c r="WA6" s="213"/>
-      <c r="WB6" s="213"/>
-      <c r="WC6" s="213"/>
-      <c r="WD6" s="213"/>
-      <c r="WE6" s="213"/>
-      <c r="WF6" s="213"/>
-      <c r="WG6" s="213"/>
-      <c r="WH6" s="213"/>
-      <c r="WI6" s="213"/>
-      <c r="WJ6" s="213"/>
-      <c r="WK6" s="213"/>
+      <c r="VI6" s="228"/>
+      <c r="VJ6" s="228"/>
+      <c r="VK6" s="228"/>
+      <c r="VL6" s="228"/>
+      <c r="VM6" s="228"/>
+      <c r="VN6" s="228"/>
+      <c r="VO6" s="228"/>
+      <c r="VP6" s="228"/>
+      <c r="VQ6" s="228"/>
+      <c r="VR6" s="228"/>
+      <c r="VS6" s="228"/>
+      <c r="VT6" s="228"/>
+      <c r="VU6" s="228"/>
+      <c r="VV6" s="228"/>
+      <c r="VW6" s="228"/>
+      <c r="VX6" s="228"/>
+      <c r="VY6" s="228"/>
+      <c r="VZ6" s="228"/>
+      <c r="WA6" s="228"/>
+      <c r="WB6" s="228"/>
+      <c r="WC6" s="228"/>
+      <c r="WD6" s="228"/>
+      <c r="WE6" s="228"/>
+      <c r="WF6" s="228"/>
+      <c r="WG6" s="228"/>
+      <c r="WH6" s="228"/>
+      <c r="WI6" s="228"/>
+      <c r="WJ6" s="228"/>
+      <c r="WK6" s="228"/>
     </row>
     <row r="7" spans="1:609" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="52"/>
@@ -6039,7 +6113,7 @@
       </c>
     </row>
     <row r="8" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="222" t="s">
+      <c r="A8" s="213" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="41"/>
@@ -6666,7 +6740,7 @@
       <c r="WK8" s="31"/>
     </row>
     <row r="9" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="222"/>
+      <c r="A9" s="213"/>
       <c r="B9" s="72"/>
       <c r="C9" s="73"/>
       <c r="D9" s="74"/>
@@ -7293,7 +7367,7 @@
       <c r="WK9" s="33"/>
     </row>
     <row r="10" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="222"/>
+      <c r="A10" s="213"/>
       <c r="B10" s="72"/>
       <c r="C10" s="73"/>
       <c r="D10" s="74"/>
@@ -7912,7 +7986,7 @@
       <c r="WK10" s="33"/>
     </row>
     <row r="11" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="222"/>
+      <c r="A11" s="213"/>
       <c r="B11" s="72"/>
       <c r="C11" s="73"/>
       <c r="D11" s="74"/>
@@ -8533,7 +8607,7 @@
       <c r="WK11" s="33"/>
     </row>
     <row r="12" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="222"/>
+      <c r="A12" s="213"/>
       <c r="B12" s="72"/>
       <c r="C12" s="73"/>
       <c r="D12" s="74"/>
@@ -9152,7 +9226,7 @@
       <c r="WK12" s="33"/>
     </row>
     <row r="13" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="222"/>
+      <c r="A13" s="213"/>
       <c r="B13" s="72"/>
       <c r="C13" s="73"/>
       <c r="D13" s="74"/>
@@ -9767,7 +9841,7 @@
       <c r="WK13" s="33"/>
     </row>
     <row r="14" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="222"/>
+      <c r="A14" s="213"/>
       <c r="B14" s="80"/>
       <c r="C14" s="81"/>
       <c r="D14" s="82"/>
@@ -10380,7 +10454,7 @@
       <c r="WK14" s="34"/>
     </row>
     <row r="15" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="223" t="s">
+      <c r="A15" s="214" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="88"/>
@@ -10920,7 +10994,7 @@
       <c r="TL15" s="26"/>
       <c r="TM15" s="26"/>
       <c r="TN15" s="27"/>
-      <c r="TO15" s="242" t="s">
+      <c r="TO15" s="212" t="s">
         <v>178</v>
       </c>
       <c r="TP15" s="26"/>
@@ -10931,7 +11005,9 @@
       <c r="TU15" s="27"/>
       <c r="TV15" s="27"/>
       <c r="TW15" s="26"/>
-      <c r="TX15" s="26"/>
+      <c r="TX15" s="212" t="s">
+        <v>179</v>
+      </c>
       <c r="TY15" s="26"/>
       <c r="TZ15" s="26"/>
       <c r="UA15" s="26"/>
@@ -10999,7 +11075,7 @@
       <c r="WK15" s="37"/>
     </row>
     <row r="16" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="222"/>
+      <c r="A16" s="213"/>
       <c r="B16" s="94"/>
       <c r="C16" s="95"/>
       <c r="D16" s="96"/>
@@ -11632,7 +11708,7 @@
       <c r="WK16" s="35"/>
     </row>
     <row r="17" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="222"/>
+      <c r="A17" s="213"/>
       <c r="B17" s="94"/>
       <c r="C17" s="95"/>
       <c r="D17" s="96"/>
@@ -12258,7 +12334,7 @@
       <c r="WK17" s="36"/>
     </row>
     <row r="18" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="222"/>
+      <c r="A18" s="213"/>
       <c r="B18" s="94"/>
       <c r="C18" s="95"/>
       <c r="D18" s="96"/>
@@ -12874,7 +12950,7 @@
       <c r="WK18" s="36"/>
     </row>
     <row r="19" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="222"/>
+      <c r="A19" s="213"/>
       <c r="B19" s="94"/>
       <c r="C19" s="95"/>
       <c r="D19" s="96"/>
@@ -13485,7 +13561,7 @@
       <c r="WK19" s="36"/>
     </row>
     <row r="20" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="222"/>
+      <c r="A20" s="213"/>
       <c r="B20" s="94"/>
       <c r="C20" s="95"/>
       <c r="D20" s="96"/>
@@ -14096,7 +14172,7 @@
       <c r="WK20" s="36"/>
     </row>
     <row r="21" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="222"/>
+      <c r="A21" s="213"/>
       <c r="B21" s="94"/>
       <c r="C21" s="95"/>
       <c r="D21" s="96"/>
@@ -14707,7 +14783,7 @@
       <c r="WK21" s="122"/>
     </row>
     <row r="22" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="222"/>
+      <c r="A22" s="213"/>
       <c r="B22" s="101"/>
       <c r="C22" s="102"/>
       <c r="D22" s="103"/>
@@ -15318,7 +15394,7 @@
       <c r="WK22" s="38"/>
     </row>
     <row r="23" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="222" t="s">
+      <c r="A23" s="213" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="107"/>
@@ -15943,7 +16019,7 @@
       <c r="WK23" s="37"/>
     </row>
     <row r="24" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="222"/>
+      <c r="A24" s="213"/>
       <c r="B24" s="94"/>
       <c r="C24" s="95"/>
       <c r="D24" s="96"/>
@@ -16560,7 +16636,7 @@
       <c r="WK24" s="36"/>
     </row>
     <row r="25" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="222"/>
+      <c r="A25" s="213"/>
       <c r="B25" s="94"/>
       <c r="C25" s="95"/>
       <c r="D25" s="96"/>
@@ -17185,7 +17261,7 @@
       <c r="WK25" s="36"/>
     </row>
     <row r="26" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="222"/>
+      <c r="A26" s="213"/>
       <c r="B26" s="94"/>
       <c r="C26" s="95"/>
       <c r="D26" s="96"/>
@@ -17808,7 +17884,7 @@
       <c r="WK26" s="36"/>
     </row>
     <row r="27" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="222"/>
+      <c r="A27" s="213"/>
       <c r="B27" s="94"/>
       <c r="C27" s="95"/>
       <c r="D27" s="96"/>
@@ -18425,7 +18501,7 @@
       <c r="WK27" s="36"/>
     </row>
     <row r="28" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="222"/>
+      <c r="A28" s="213"/>
       <c r="B28" s="94"/>
       <c r="C28" s="95"/>
       <c r="D28" s="96"/>
@@ -19038,7 +19114,7 @@
       <c r="WK28" s="36"/>
     </row>
     <row r="29" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="222"/>
+      <c r="A29" s="213"/>
       <c r="B29" s="94"/>
       <c r="C29" s="95"/>
       <c r="D29" s="96"/>
@@ -19651,7 +19727,7 @@
       <c r="WK29" s="36"/>
     </row>
     <row r="30" spans="1:609" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="222"/>
+      <c r="A30" s="213"/>
       <c r="B30" s="101"/>
       <c r="C30" s="102"/>
       <c r="D30" s="103"/>
@@ -21510,6 +21586,18 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="UC6:VG6"/>
+    <mergeCell ref="VH6:WK6"/>
+    <mergeCell ref="RU6:SY6"/>
+    <mergeCell ref="SZ6:UB6"/>
+    <mergeCell ref="KS6:LW6"/>
+    <mergeCell ref="JO6:KR6"/>
+    <mergeCell ref="IJ6:JN6"/>
+    <mergeCell ref="OG6:PK6"/>
+    <mergeCell ref="PL6:QO6"/>
+    <mergeCell ref="QP6:RT6"/>
+    <mergeCell ref="NC6:OF6"/>
+    <mergeCell ref="LX6:NB6"/>
     <mergeCell ref="A8:A14"/>
     <mergeCell ref="A15:A22"/>
     <mergeCell ref="A23:A30"/>
@@ -21521,18 +21609,6 @@
     <mergeCell ref="B6:AE6"/>
     <mergeCell ref="AF6:BJ6"/>
     <mergeCell ref="BK6:CN6"/>
-    <mergeCell ref="JO6:KR6"/>
-    <mergeCell ref="IJ6:JN6"/>
-    <mergeCell ref="OG6:PK6"/>
-    <mergeCell ref="PL6:QO6"/>
-    <mergeCell ref="QP6:RT6"/>
-    <mergeCell ref="NC6:OF6"/>
-    <mergeCell ref="LX6:NB6"/>
-    <mergeCell ref="UC6:VG6"/>
-    <mergeCell ref="VH6:WK6"/>
-    <mergeCell ref="RU6:SY6"/>
-    <mergeCell ref="SZ6:UB6"/>
-    <mergeCell ref="KS6:LW6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21579,10 +21655,10 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="235">
+      <c r="B4" s="236">
         <v>2018.12</v>
       </c>
-      <c r="C4" s="231"/>
+      <c r="C4" s="232"/>
       <c r="D4" s="138">
         <f>SUM(D5:D13)</f>
         <v>42</v>
@@ -21590,7 +21666,7 @@
       <c r="E4" s="139"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="236">
+      <c r="B5" s="237">
         <v>12</v>
       </c>
       <c r="C5" s="142">
@@ -21604,7 +21680,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="237"/>
+      <c r="B6" s="238"/>
       <c r="C6" s="140">
         <v>17</v>
       </c>
@@ -21616,7 +21692,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="237"/>
+      <c r="B7" s="238"/>
       <c r="C7" s="140">
         <v>19</v>
       </c>
@@ -21628,7 +21704,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="237"/>
+      <c r="B8" s="238"/>
       <c r="C8" s="133">
         <v>22</v>
       </c>
@@ -21640,7 +21716,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="237"/>
+      <c r="B9" s="238"/>
       <c r="C9" s="133">
         <v>23</v>
       </c>
@@ -21652,7 +21728,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="237"/>
+      <c r="B10" s="238"/>
       <c r="C10" s="133">
         <v>25</v>
       </c>
@@ -21664,7 +21740,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="237"/>
+      <c r="B11" s="238"/>
       <c r="C11" s="133">
         <v>26</v>
       </c>
@@ -21676,7 +21752,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="237"/>
+      <c r="B12" s="238"/>
       <c r="C12" s="133">
         <v>29</v>
       </c>
@@ -21688,7 +21764,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="238"/>
+      <c r="B13" s="239"/>
       <c r="C13" s="136">
         <v>30</v>
       </c>
@@ -21700,10 +21776,10 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="234">
+      <c r="B14" s="235">
         <v>2019.01</v>
       </c>
-      <c r="C14" s="233"/>
+      <c r="C14" s="234"/>
       <c r="D14" s="153">
         <f>SUM(D15:D23)</f>
         <v>34</v>
@@ -21711,7 +21787,7 @@
       <c r="E14" s="154"/>
     </row>
     <row r="15" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="239">
+      <c r="B15" s="240">
         <v>1</v>
       </c>
       <c r="C15" s="133">
@@ -21725,7 +21801,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="240"/>
+      <c r="B16" s="241"/>
       <c r="C16" s="133">
         <v>5</v>
       </c>
@@ -21737,7 +21813,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="240"/>
+      <c r="B17" s="241"/>
       <c r="C17" s="133">
         <v>13</v>
       </c>
@@ -21749,7 +21825,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="240"/>
+      <c r="B18" s="241"/>
       <c r="C18" s="133">
         <v>15</v>
       </c>
@@ -21761,7 +21837,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B19" s="240"/>
+      <c r="B19" s="241"/>
       <c r="C19" s="133">
         <v>17</v>
       </c>
@@ -21773,7 +21849,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="240"/>
+      <c r="B20" s="241"/>
       <c r="C20" s="133">
         <v>18</v>
       </c>
@@ -21785,7 +21861,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="240"/>
+      <c r="B21" s="241"/>
       <c r="C21" s="133">
         <v>21</v>
       </c>
@@ -21797,7 +21873,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="240"/>
+      <c r="B22" s="241"/>
       <c r="C22" s="133">
         <v>22</v>
       </c>
@@ -21809,7 +21885,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="241"/>
+      <c r="B23" s="242"/>
       <c r="C23" s="136">
         <v>28</v>
       </c>
@@ -21821,10 +21897,10 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="235">
+      <c r="B24" s="236">
         <v>2019.02</v>
       </c>
-      <c r="C24" s="231"/>
+      <c r="C24" s="232"/>
       <c r="D24" s="138">
         <f>SUM(D25:D30)</f>
         <v>20</v>
@@ -21832,7 +21908,7 @@
       <c r="E24" s="141"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="239">
+      <c r="B25" s="240">
         <v>2</v>
       </c>
       <c r="C25" s="133">
@@ -21846,7 +21922,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="240"/>
+      <c r="B26" s="241"/>
       <c r="C26" s="133">
         <v>11</v>
       </c>
@@ -21858,7 +21934,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="240"/>
+      <c r="B27" s="241"/>
       <c r="C27" s="133">
         <v>12</v>
       </c>
@@ -21870,7 +21946,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="240"/>
+      <c r="B28" s="241"/>
       <c r="C28" s="133">
         <v>12</v>
       </c>
@@ -21882,7 +21958,7 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="240"/>
+      <c r="B29" s="241"/>
       <c r="C29" s="133">
         <v>24</v>
       </c>
@@ -21894,7 +21970,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="240"/>
+      <c r="B30" s="241"/>
       <c r="C30" s="164">
         <v>26</v>
       </c>
@@ -21906,10 +21982,10 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="234">
+      <c r="B31" s="235">
         <v>2019.03</v>
       </c>
-      <c r="C31" s="233"/>
+      <c r="C31" s="234"/>
       <c r="D31" s="153">
         <f>SUM(D32:D43)</f>
         <v>51</v>
@@ -22061,10 +22137,10 @@
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="234">
+      <c r="B44" s="235">
         <v>2019.04</v>
       </c>
-      <c r="C44" s="233"/>
+      <c r="C44" s="234"/>
       <c r="D44" s="153">
         <f>SUM(D45:D58)</f>
         <v>50</v>
@@ -22240,10 +22316,10 @@
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="234">
+      <c r="B59" s="235">
         <v>2019.05</v>
       </c>
-      <c r="C59" s="233"/>
+      <c r="C59" s="234"/>
       <c r="D59" s="153">
         <f>SUM(D60:D71)</f>
         <v>43</v>
@@ -22395,10 +22471,10 @@
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B72" s="234">
+      <c r="B72" s="235">
         <v>2019.06</v>
       </c>
-      <c r="C72" s="233"/>
+      <c r="C72" s="234"/>
       <c r="D72" s="153">
         <f>SUM(D73:D76)</f>
         <v>18</v>
@@ -22454,10 +22530,10 @@
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B77" s="235">
+      <c r="B77" s="236">
         <v>2019.07</v>
       </c>
-      <c r="C77" s="231"/>
+      <c r="C77" s="232"/>
       <c r="D77" s="138">
         <f>SUM(D78:D87)</f>
         <v>46</v>
@@ -22585,10 +22661,10 @@
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B88" s="234">
+      <c r="B88" s="235">
         <v>2019.08</v>
       </c>
-      <c r="C88" s="233"/>
+      <c r="C88" s="234"/>
       <c r="D88" s="153">
         <f>SUM(D89:D94)</f>
         <v>19</v>
@@ -22656,10 +22732,10 @@
       <c r="E94" s="129"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B95" s="235">
+      <c r="B95" s="236">
         <v>2019.09</v>
       </c>
-      <c r="C95" s="231"/>
+      <c r="C95" s="232"/>
       <c r="D95" s="138">
         <f>SUM(D96:D102)</f>
         <v>36</v>
@@ -22757,10 +22833,10 @@
       <c r="E103" s="193"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B104" s="232" t="s">
+      <c r="B104" s="233" t="s">
         <v>140</v>
       </c>
-      <c r="C104" s="233"/>
+      <c r="C104" s="234"/>
       <c r="D104" s="153">
         <f>SUM(D105:D119)</f>
         <v>69</v>
@@ -22948,10 +23024,10 @@
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B120" s="230" t="s">
+      <c r="B120" s="231" t="s">
         <v>154</v>
       </c>
-      <c r="C120" s="231"/>
+      <c r="C120" s="232"/>
       <c r="D120" s="138">
         <f>SUM(D121:D134)</f>
         <v>77</v>
@@ -23127,10 +23203,10 @@
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B135" s="230" t="s">
+      <c r="B135" s="231" t="s">
         <v>154</v>
       </c>
-      <c r="C135" s="231"/>
+      <c r="C135" s="232"/>
       <c r="D135" s="138">
         <f>SUM(D136:D149)</f>
         <v>14</v>
@@ -23374,4 +23450,136 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="243"/>
+    <col min="2" max="2" width="11.125" style="243" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.125" style="243" customWidth="1"/>
+    <col min="4" max="4" width="46.375" style="243" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="243"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:4" s="245" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="247" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="248" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="249" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="250">
+        <v>43887</v>
+      </c>
+      <c r="C5" s="251" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="252" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="253"/>
+      <c r="C6" s="246"/>
+      <c r="D6" s="254"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="253"/>
+      <c r="C7" s="246"/>
+      <c r="D7" s="254"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="253"/>
+      <c r="C8" s="246"/>
+      <c r="D8" s="254"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="253"/>
+      <c r="C9" s="246"/>
+      <c r="D9" s="254"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="253"/>
+      <c r="C10" s="246"/>
+      <c r="D10" s="254"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="253"/>
+      <c r="C11" s="246"/>
+      <c r="D11" s="254"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="253"/>
+      <c r="C12" s="246"/>
+      <c r="D12" s="254"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="253"/>
+      <c r="C13" s="246"/>
+      <c r="D13" s="254"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="253"/>
+      <c r="C14" s="246"/>
+      <c r="D14" s="254"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="253"/>
+      <c r="C15" s="246"/>
+      <c r="D15" s="254"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="253"/>
+      <c r="C16" s="246"/>
+      <c r="D16" s="254"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="253"/>
+      <c r="C17" s="246"/>
+      <c r="D17" s="254"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="253"/>
+      <c r="C18" s="246"/>
+      <c r="D18" s="254"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="253"/>
+      <c r="C19" s="246"/>
+      <c r="D19" s="254"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="253"/>
+      <c r="C20" s="246"/>
+      <c r="D20" s="254"/>
+    </row>
+    <row r="21" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="255"/>
+      <c r="C21" s="256"/>
+      <c r="D21" s="257"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="244"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="244"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>